--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2151CC2-7BD5-4B12-AEA3-623B79DFE5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32B27E-5AC0-40DE-9121-ECE78AC9A317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
   <si>
     <t>titulo</t>
   </si>
@@ -1033,6 +1033,477 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/0b851ad2-d650-4654-a7f4-17a457138ec2?title=Real%20Estate%20%7C%20Gustavo%20Cambauva%20-%20BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/754c8e1c-de20-4595-84c0-549a1cae74cc?title=WestWing-%20IE%20-%20IPO%20com%20XP</t>
+  </si>
+  <si>
+    <t>Mosaico - IE com XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c469b787-14ec-4660-b775-aa5afb57b2fb?title=Mosaico%20-%20IE%20com%20XP</t>
+  </si>
+  <si>
+    <t>MOSAICO - IPO - Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b4dba0ff-633a-4892-9114-1fb0a1ea5e5e?title=MOSAICO%20-%20IPO%20-%20Management</t>
+  </si>
+  <si>
+    <t>Oceanpact - IE com Bradesco</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/74c89590-ef86-4357-b00c-f612c07fc9dc?title=Oceanpact%20-%20IE%20com%20Bradesco</t>
+  </si>
+  <si>
+    <t>IE Oceanpact - Bradesco</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f4d6c87d-c007-491f-a052-fd49163b7f54?title=IE%20Oceanpact%20-%20Bradesco</t>
+  </si>
+  <si>
+    <t>IE Vittia e CTC - Morgan Stanley</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e45d145a-6aea-48be-81ca-9cc85713314f?title=IE%20Vittia%20e%20CTC%20-%20Morgan%20Stanley</t>
+  </si>
+  <si>
+    <t>CTC e Vittia - IE com MS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ffae4252-79f9-481a-8e81-d131b80fef18?title=CTC%20e%20Vittia%20-%20IE%20com%20MS</t>
+  </si>
+  <si>
+    <t>Aquisição CES</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6775e812-62c1-4a46-a3dd-3f36a61ea55e?title=Aquisi%C3%A7%C3%A3o%20CES</t>
+  </si>
+  <si>
+    <t>ESG coverage- Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6e22d3ac-5601-4324-a09f-5e3a6beb2c80?title=ESG%20coverage-%20Santander</t>
+  </si>
+  <si>
+    <t>Call de follow up com Mitre - Caio Perri</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/17274d46-6906-4166-8146-ff7f6c46f26f?title=Call%20de%20follow%20up%20com%20Mitre%20-%20Caio%20Perri</t>
+  </si>
+  <si>
+    <t>GMAT @IBBA 08/01/21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6bd838d4-93c7-4eb2-9705-395ee4a04146?title=GMAT%20@IBBA%2008/01/21</t>
+  </si>
+  <si>
+    <t>WestWing - CMO/ CTO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/628a1837-752f-41cd-80aa-d24b7934aefb?title=WestWing%20-%20CMO/%20CTO</t>
+  </si>
+  <si>
+    <t>Netroadshow - IPO - EspaçoLaser ESPA3</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f61617d-ece0-4757-8096-458b538ac231?title=Netroadshow%20-%20IPO%20-%20Espa%C3%A7oLaser%20ESPA3</t>
+  </si>
+  <si>
+    <t>Westwing - Site Visit</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8323919f-4339-49fc-b8c1-7104cc452714?title=Westwing%20-%20Site%20Visit</t>
+  </si>
+  <si>
+    <t>Empresas são multadas pela Receita mesmo cumprindo prazos de tributos | Legislação | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e6c9b123-453c-444e-9e07-044e52e4f591?title=Empresas%20s%C3%A3o%20multadas%20pela%20Receita%20mesmo%20cumprindo%20prazos%20de%20tributos%20%7C%20Legisla%C3%A7%C3%A3o%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Rede d'or - Investor education BTG 19/10</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6d9fdc90-9a02-4ff6-8a00-1fdbc0a263f5?title=Rede%20d'or%20-%20Investor%20education%20BTG%2019/10</t>
+  </si>
+  <si>
+    <t>Rede D'Or @BTG small group 27/11/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7828a24d-157d-47c2-b2de-cf6c268e59e5?title=Rede%20D'Or%20@BTG%20small%20group%2027/11/20</t>
+  </si>
+  <si>
+    <t>Rogério Melzi - Hospital Care - 01/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3477abaa-5cc4-4053-adf7-00883ce71ac9?title=Rog%C3%A9rio%20Melzi%20-%20Hospital%20Care%20-%2001/12/20</t>
+  </si>
+  <si>
+    <t>Rede D'or - Mathias Vargas (Guide) - 02/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/21559b82-1438-4063-bf76-d58aa4f53909?title=Rede%20D'or%20-%20Mathias%20Vargas%20(Guide)%20-%2002/12/20</t>
+  </si>
+  <si>
+    <t>Rede D'or - Marcelo Setta (Guide) - 02/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3b561eef-bbb2-4ed4-a808-546d5444c3fa?title=Rede%20D'or%20-%20Marcelo%20Setta%20(Guide)%20-%2002/12/20</t>
+  </si>
+  <si>
+    <t>João Paulo Oliveira - Hopsital Care (Guide) - 03/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/54f5ec17-b659-4e20-8e93-6613277cf6b5?title=Jo%C3%A3o%20Paulo%20Oliveira%20-%20Hopsital%20Care%20(Guide)%20-%2003/12/20</t>
+  </si>
+  <si>
+    <t>GMAT @BTG 15/12 - group meeting geral</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b2a25521-fb17-4d8f-b1d4-2afe9f1d9e58?title=GMAT%20@BTG%2015/12%20-%20group%20meeting%20geral</t>
+  </si>
+  <si>
+    <t>GMAT - call com RI - 30/12</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/53fc9f2d-d01c-4511-bcd2-3056898b9575?title=GMAT%20-%20call%20com%20RI%20-%2030/12</t>
+  </si>
+  <si>
+    <t>Big - call com mgmt (CS) - Dez/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4688b26d-e92b-4aa3-98f0-d3090b0c58a4?title=Big%20-%20call%20com%20mgmt%20(CS)%20-%20Dez/20</t>
+  </si>
+  <si>
+    <t>Cury @IBBA - 09/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/155070d2-4704-4f38-8039-9d3354291696?title=Cury%20@IBBA%20-%2009/12/20</t>
+  </si>
+  <si>
+    <t>Noah Tech @Citi (Offsite) - 17/12/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/23a509d7-7659-4ff2-b1bc-83a6832c7ee5?title=Noah%20Tech%20@Citi%20(Offsite)%20-%2017/12/20</t>
+  </si>
+  <si>
+    <t>Tenda - papo com Osmo - 12/11/20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4d050d0e-3918-4f33-916a-0e685656e823?title=Tenda%20-%20papo%20com%20Osmo%20-%2012/11/20</t>
+  </si>
+  <si>
+    <t>1x1 com Nonato Castro (CEO) e Firmino Sampaio (Board) da Light</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8aad1209-5916-4ce0-a5c5-a7840adfaeec?title=1x1%20com%20Nonato%20Castro%20(CEO)%20e%20Firmino%20Sampaio%20(Board)%20da%20Light</t>
+  </si>
+  <si>
+    <t>Call com Bayer sobre sementes - Gerhard - Conselheiro Boa Safra</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/01f44ed4-809f-5e8a-a9ae-aca4f1bff904?title=Call%20com%20Bayer%20sobre%20sementes%20-%20Gerhard%20-%20Conselheiro%20Boa%20Safra</t>
+  </si>
+  <si>
+    <t>Resumo - Construcast - Rodrigo Osmo (Jan/20)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2bbc3c1c-fe0c-4b02-80bc-00999a5117f4?title=Resumo%20-%20Construcast%20-%20Rodrigo%20Osmo%20(Jan/20)</t>
+  </si>
+  <si>
+    <t>Resumo - Construcast - Caio Bonatto (Jan/20)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8bdfeefb-c0c8-48b8-9543-bd9d4a6d2f96?title=Resumo%20-%20Construcast%20-%20Caio%20Bonatto%20(Jan/20)</t>
+  </si>
+  <si>
+    <t>Update da ABIT - Fernando Pimentel (Jan/2021)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b3f8173e-c36a-4393-bb76-ca29463ecff0?title=Update%20da%20ABIT%20-%20Fernando%20Pimentel%20(Jan/2021)</t>
+  </si>
+  <si>
+    <t>André Alper - Reuniao</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/578483e0-6b6a-416c-aefb-5af1a6fe0231?title=Andr%C3%A9%20Alper%20-%20Reuniao</t>
+  </si>
+  <si>
+    <t>Call c Mizuzaki - IPO vamos</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8415e488-f46e-414f-867f-d6106ba38023?title=Call%20c%20Mizuzaki%20-%20IPO%20vamos</t>
+  </si>
+  <si>
+    <t>Oceanpact - Call com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a3cef70d-86bf-402d-a2b2-c185c456b3fa?title=Oceanpact%20-%20Call%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>Orizon - IE com BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/495789c7-56f3-4393-8282-68f51a42c7f8?title=Orizon%20-%20IE%20com%20BTG</t>
+  </si>
+  <si>
+    <t>Aura - reunião com Rodrigo Barbosa</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a7e8eb99-1be6-4ff4-84dd-bbd43186d8cb?title=Aura%20-%20reuni%C3%A3o%20com%20Rodrigo%20Barbosa</t>
+  </si>
+  <si>
+    <t>CNTO - Q&amp;A - Papo com Daniel Regensteiner (RI)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c418c63c-bcc1-402a-b4ab-ef8fc5679e45?title=CNTO%20-%20Q&amp;A%20-%20Papo%20com%20Daniel%20Regensteiner%20(RI)</t>
+  </si>
+  <si>
+    <t>Papo com Vinicius Santinho - Patria - Fertilizantes</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/54b08a1f-7d96-5e24-c5ae-bafef976ea64?title=Papo%20com%20Vinicius%20Santinho%20-%20Patria%20-%20Fertilizantes</t>
+  </si>
+  <si>
+    <t>1x1 com Habibeundefined CFO da Eneva</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3e2b00b5-8885-4459-9d8b-70c39e232fc3?title=1x1%20com%20Habibe,%20CFO%20da%20Eneva</t>
+  </si>
+  <si>
+    <t>XP Webinar - Marcelo Bacci CFO Suzano</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a1008b33-08b3-2116-832b-bb6bd614a4a3?title=XP%20Webinar%20-%20Marcelo%20Bacci%20CFO%20Suzano</t>
+  </si>
+  <si>
+    <t>Jan/2021 - Pedro Zemel @ BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5fd4a78f-f843-4c1b-86bd-80bd9bd55620?title=Jan/2021%20-%20Pedro%20Zemel%20@%20BTG</t>
+  </si>
+  <si>
+    <t>Papo com mgmt CTC - Perguntas</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e860c074-a53a-8fcf-759c-f059dae0c4bd?title=Papo%20com%20mgmt%20CTC%20-%20Perguntas</t>
+  </si>
+  <si>
+    <t>AGRO/BIOLÓGICOS | Presidente da Croplifeundefined Sr. Christian Lohbauer</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bf845998-a44e-eb17-fc6a-fcf5de4b7512?title=AGRO/BIOL%C3%93GICOS%20%7C%20Presidente%20da%20Croplife,%20Sr.%20Christian%20Lohbauer</t>
+  </si>
+  <si>
+    <t>Group Meeting - Mobly - IPO - Roadshow</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1d644203-171e-4814-882d-bf99bf8f0b43?title=Group%20Meeting%20-%20Mobly%20-%20IPO%20-%20Roadshow</t>
+  </si>
+  <si>
+    <t>Papo com Mgmt CTC</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b441c55c-577a-f67a-a148-f1449f47ea30?title=Papo%20com%20Mgmt%20CTC</t>
+  </si>
+  <si>
+    <t>CTC - Reunião com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/857af932-2d28-4429-a5fa-7aca82036d86?title=CTC%20-%20Reuni%C3%A3o%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>Papo com mgmt Vittia</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/35511738-b05b-cc16-67fc-b78f1354ad96?title=Papo%20com%20mgmt%20Vittia</t>
+  </si>
+  <si>
+    <t>Vittia - Reunião com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/39158332-ede9-4f82-ae14-70d5d8fb9685?title=Vittia%20-%20Reuni%C3%A3o%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>CEO - SOMA - Roberto Jatahy</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c0ba747b-752c-4101-b062-8611b9e04918?title=CEO%20-%20SOMA%20-%20Roberto%20Jatahy</t>
+  </si>
+  <si>
+    <t>Update Financials - Victor Schabbel</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/573e6cc8-1ae4-4c1b-b49d-e77d8fdf722c?title=Update%20Financials%20-%20Victor%20Schabbel</t>
+  </si>
+  <si>
+    <t>IE de Açu Petróleo com CS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4f5bcbcf-d88c-4a27-8250-48fbbb1c152a?title=IE%20de%20A%C3%A7u%20Petr%C3%B3leo%20com%20CS</t>
+  </si>
+  <si>
+    <t>Group Meeting com Francisco Jardim - SP Ventures</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b1f19edf-9b5e-c8f2-2c29-6e15a4f2abba?title=Group%20Meeting%20com%20Francisco%20Jardim%20-%20SP%20Ventures</t>
+  </si>
+  <si>
+    <t>Reunião com SP Ventures sobre biológicos</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/301d2199-2273-4c91-8985-eae86511d173?title=Reuni%C3%A3o%20com%20SP%20Ventures%20sobre%20biol%C3%B3gicos</t>
+  </si>
+  <si>
+    <t>Call com Jorge Ramos sobre refino</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6571201c-8b85-48cb-99af-5eb649b88590?title=Call%20com%20Jorge%20Ramos%20sobre%20refino</t>
+  </si>
+  <si>
+    <t>Call com Tobias Fassio (Dynamo)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/817053f1-b391-4b92-9f64-b0350e6cfcdd?title=Call%20com%20Tobias%20Fassio%20(Dynamo)</t>
+  </si>
+  <si>
+    <t>PRIO - Call com Mgmt (Follow-on)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/90c845c8-eee3-4dd6-948d-ebdad076a1e7?title=PRIO%20-%20Call%20com%20Mgmt%20(Follow-on)</t>
+  </si>
+  <si>
+    <t>Oceanpact - Reunião com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0734802a-0d39-4ede-a736-1e0723158689?title=Oceanpact%20-%20Reuni%C3%A3o%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>Conflito na nota Papo com Brasil Capital - Madeira Madeira</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/00ba92ef-b62e-4140-8508-d8e663c80e7e?title=Conflito%20na%20nota%20Papo%20com%20Brasil%20Capital%20-%20Madeira%20Madeira</t>
+  </si>
+  <si>
+    <t>MGLU - Safra - Ecommerce Day 2020</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/efe1c268-b5b9-f4c0-800d-a69505083e64?title=MGLU%20-%20Safra%20-%20Ecommerce%20Day%202020</t>
+  </si>
+  <si>
+    <t>MadeiraMadeira &amp; Olist - Live Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2f602322-3f36-6974-7c5c-3b61eff16918?title=MadeiraMadeira%20&amp;%20Olist%20-%20Live%20Santander</t>
+  </si>
+  <si>
+    <t>Roadshow-Follow On LWSA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0640b9a7-3594-3e1f-1ec0-383b01ee0c7c?title=Roadshow-Follow%20On%20LWSA</t>
+  </si>
+  <si>
+    <t>LWSA - IE Follow On com Osni Carfi (BTG)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/879dde1a-4f11-8cad-7948-f15faa8e3e4c?title=LWSA%20-%20IE%20Follow%20On%20com%20Osni%20Carfi%20(BTG)</t>
+  </si>
+  <si>
+    <t>1x1 com CEO e CFO e Fortbras - NDR</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/55b4aa14-1c27-436e-a73c-1c98e7d96b4b?title=1x1%20com%20CEO%20e%20CFO%20e%20Fortbras%20-%20NDR</t>
+  </si>
+  <si>
+    <t>VVAR - Update com RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/85079a7b-17e7-876f-c475-c2dc43c90868?title=VVAR%20-%20Update%20com%20RI</t>
+  </si>
+  <si>
+    <t>Roadshow - LWSA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c243d52a-e318-d45d-f2dc-1100ff29aa0b?title=Roadshow%20-%20LWSA</t>
+  </si>
+  <si>
+    <t>CTC - IE com JPM</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/de0ee3eb-a57d-4584-8405-97a10cf49d25?title=CTC%20-%20IE%20com%20JPM</t>
+  </si>
+  <si>
+    <t>WestWing - Conversa com o Axxon</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0c457dc2-a2f1-7bbe-209d-0c67ccf736f1?title=WestWing%20-%20Conversa%20com%20o%20Axxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da camisinha ao remédio: como a Blau virou uma gigante do setor farmacêutico - Pequenas Empresas Grandes Negócios | Administração de empresas </t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas</t>
+  </si>
+  <si>
+    <t>Cosan - Call de aquisição da Biosev</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3a781e0c-27e3-4bad-8b5c-b1ce8fa9556e?title=Cosan%20-%20Call%20de%20aquisi%C3%A7%C3%A3o%20da%20Biosev</t>
+  </si>
+  <si>
+    <t>Anima @ XP CEO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b10d51fc-dbb5-4690-a5e2-f14c2547ee15?title=Anima%20@%20XP%20CEO</t>
+  </si>
+  <si>
+    <t>Suzano Conference call - 4T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/249ab012-2102-cffd-f737-613bf768b11d?title=Suzano%20Conference%20call%20-%204T20</t>
+  </si>
+  <si>
+    <t>IE Agrogalaxy -JP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ec2c9a36-37e2-f7eb-e36d-e7cbcb3959d3?title=IE%20Agrogalaxy%20-JP</t>
+  </si>
+  <si>
+    <t>CTC Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e1115c55-a552-3882-478f-4515ca73c197?title=CTC%20Day</t>
+  </si>
+  <si>
+    <t>BLAU - group meeting com management @ IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c342e8c9-c656-41f9-8a12-0adc3e14ef4f?title=BLAU%20-%20group%20meeting%20com%20management%20@%20IBBA</t>
+  </si>
+  <si>
+    <t>Nadir Figueiredo - IE com Itau</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4bba56ae-8653-4aa7-a28e-924726ecf394?title=Nadir%20Figueiredo%20-%20IE%20com%20Itau</t>
+  </si>
+  <si>
+    <t>Mercado de OOH | Paulo Stephan (Diretor ABOOH)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0319a65c-7789-46e0-94a8-d94870ba7dbd?title=Mercado%20de%20OOH%20%7C%20Paulo%20Stephan%20(Diretor%20ABOOH)</t>
+  </si>
+  <si>
+    <t>Papo de Blau com a Legacy | Rafael Frade</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f228a964-b7b2-4051-b383-1e070d5ad220?title=Papo%20de%20Blau%20com%20a%20Legacy%20%7C%20Rafael%20Frade</t>
+  </si>
+  <si>
+    <t>AgroDistribuidor | Perspectivas da Distribuição de Insumos Agrícolas no Brasil (Parte 1)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/259687c5-b4b3-4ed5-b3e9-78db8bfbfbdf?title=AgroDistribuidor%20%7C%20Perspectivas%20da%20Distribui%C3%A7%C3%A3o%20de%20Insumos%20Agr%C3%ADcolas%20no%20Brasil%20(Parte%201)</t>
   </si>
 </sst>
 </file>
@@ -1430,9 +1901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1469,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,147 +3249,849 @@
         <v>332</v>
       </c>
     </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{D7C36DE8-272C-4D8C-B25F-C1CE216D2151}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{84D22CD0-D7F7-4453-A5A9-6EF5283961A9}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{046D96D9-2788-45A2-A4A2-21B90809C68C}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{94B256A4-7899-49AC-AFF5-8E019BF746F1}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{E3757EB5-87D4-4E78-8BF7-54C3656B3DAC}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{AD2EF24D-FFDE-479F-8143-7BE7E1BF4ED2}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{9B9E7D43-CB10-4D2F-9CA4-8FF74C8A5BD5}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{5A0344FE-A996-4519-86C7-70F27BCDA856}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{A34EBF8F-0B5B-49CC-9238-CD3BBE3069EB}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{22C3FCCC-C4A2-41FB-9C12-7F5326F5723C}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{9D11E025-591A-4C26-99D2-D6C142A3950F}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{C5231D5F-0038-4AEC-B7E6-2F081ECFD765}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{2CAEFDC1-5040-41E7-878B-C682744654F9}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{35D85C07-0271-44CE-8906-754E38E28226}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{83DA2965-F791-4449-BE49-52651E3E5164}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{DBAFF07B-43DC-4A23-AF58-84A415505BF8}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{AAC53722-E9F4-4121-885A-274E8AB4A62E}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{2FE831B9-A6E8-4D2D-B258-0517724E73D4}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{C94355BA-5E3D-4F2C-8360-30ADFD12B63C}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{3D974A89-6021-4516-96C0-3E71E3B52D6E}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{4DA143B5-7624-4854-8469-3B6F55372268}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{6D6BD3A2-D776-4FC4-AC29-B8C90A241FB3}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{56A439A7-80D5-4B77-9256-8970A86BBCC4}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{89839CFE-951E-47CD-BC83-32FFA53233F0}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{5616B5BC-EF4E-43A6-BA81-8746F279612F}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{83269BDD-9E0F-451A-86F2-E2352F786A25}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{58210091-4311-4E15-8DE1-E9DDBE46A04C}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{8D6B97DD-DF2F-4A6E-8AC6-3E761D99C62B}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{09547CCE-14ED-4317-BEA0-5F9E10DC7C31}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{5012045F-0882-4D83-B914-F5E557A220D9}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{C962A20B-A04F-45FE-B568-BD33CF5DBDA1}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{257AB241-D7EB-4112-9F3A-848BEC7989A2}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{9CCB55B4-8417-42DC-B0AC-BA5D40A33E35}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{A8BCC2A5-B3A3-4CF8-BD60-92812ADFF6A2}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{99A7455C-C698-4D02-97ED-557E8C6668A1}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{9A690610-8D39-47E8-965D-6B1F62CEF158}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{0F418180-25D5-4593-8371-F2E11CE11FE3}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{3B5F26D0-84CE-4A05-9E9A-8B8BBAF8015A}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{ED470559-A7EC-4AE3-8A72-51A6ABA69246}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{726C1C81-1CD8-4C2B-B8FF-77662F28B8FE}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{C55A79FB-7080-4D29-99AB-934ED4809EC7}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{171222F3-2154-44A0-8D06-31F266E1E946}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{F12298C8-0DF1-420E-9846-365F541882BC}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{686010FA-838E-477B-A986-FCDB0583AE09}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{43235C88-6181-4C9B-AB21-2E48067E1928}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{6D8C306A-F0ED-48DA-A119-1CDADD8F1FCA}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{777E8563-11C3-44F3-9E2E-85CE01D3AE1A}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{72F89515-1232-4714-9B38-E3F0129A6B55}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{C049BBFC-32B9-4570-A961-6E9B7B7CE403}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{921700F2-0C29-4FC1-AEB8-04BADC342DD9}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{27607297-748A-436D-B8A3-5950B9464DF7}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{8CF3E440-76DD-4484-9168-B01DC26AD4DA}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{8BDEEE0C-2294-49A8-8056-AAA3B4B90F55}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{7C179C90-FE39-4C33-982A-E4989D349E20}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{F5A13784-F7FE-4004-99FD-E69E2409961D}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{AEE0474F-0B4C-473A-90F4-52D61FAA553F}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{68860A9A-7142-4137-B944-1B9F6D159DD2}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{4FF711F7-87AF-4EC4-8624-FE20A0A9B7BF}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{B3CFBD1E-140C-4049-86F9-E4D75A4E6CCA}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{DFD8A44F-EEBD-40E4-8404-2D61C7753294}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{5D7E6F94-C3FC-451D-B48E-DEF0B5FFED24}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{4C4DCCB5-7E53-4CE7-86FD-D9E9C223781C}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{4ECB252F-7C17-4AE1-9250-3A871218C62F}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{B0043256-4A22-4872-95F4-5E6AFEA703EB}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{6AA6498E-9CF7-4D2C-9FA8-D89BBB2A6CCB}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{1261A1A7-F5A2-4778-B3D8-0520BBE515D7}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{E975BF07-A92F-46BB-B241-6F9229FC1A27}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{0DEC36BE-CED3-455F-BBD0-11D1820AE172}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{0C3F9F69-DAD6-483E-8F3A-170D78C24F98}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{F6E85D5C-9AAE-4559-88C3-AEF69D529475}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{1CD38E87-2726-4F20-94B9-78A0EF878291}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{983511B8-562D-4DD9-BA57-48C90E5918E1}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{3D193F07-6BAE-4FDD-B9B6-E83A08E1DEBD}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{31F1AEA8-07A3-47C9-B05E-4A5D0E4B9216}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{958089FC-87E4-4A01-82F6-49AB0D639470}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{64801E03-974A-4600-BAE4-FE9C3A6F29E1}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{FDE4C4FD-8198-4595-A2B4-3475C998EBB3}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{34BD2D2D-D4E1-4AB6-B24D-51606B9577C0}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{F49ADFBE-D53B-4386-B5D0-959F8F61F9AC}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{75374526-D714-41C9-BAED-479270CF7528}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{5FC0BFC9-575F-4974-A2A4-2FB4A6B8FC2D}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{C6483EE8-6DA3-49BB-B9C3-76E95C357452}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{4A02A8F1-7920-45C9-90D1-0E65925C8773}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{0F52EF32-D72D-49B8-AF6F-AA3ABBF17B92}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{3185E209-10A1-45D6-B7A9-252C09C2233D}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{AFFEFAD3-B642-4167-BB58-DF154BDC597D}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{1B4E50C8-E41F-428E-9328-436478F0E434}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{98A5E5AB-C309-4533-B56A-B672A672BBE0}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{243807A7-B74A-446D-B988-E6509056E497}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{FED2C5E1-CAE2-4388-B2B4-FBC5A4996CCF}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{86BEB7C8-55BA-4A95-8CE0-F17874A63A30}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{263FB165-1B08-4976-ABF6-1C63C7789E10}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{A2914F18-701A-48E6-BCF8-0EBEC56205E8}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{D4CF0AAF-87EE-49C2-BD61-9A6FEFA1C48E}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{DFBDD032-0624-4444-8347-B2E58085D5DA}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{9232E2A9-63D3-4771-91F1-E4A094C1B2F3}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{B4FA1BF6-2DEA-41B6-84C0-6589799E5DC1}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{BE46DB9B-C366-4414-A4A7-8699CDAFFCFA}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{E5ECA83F-9588-4FC1-9DCD-8E9916D36E73}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{09897635-8E90-491E-AC85-61F54914BF3D}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{F0E2CF8C-738E-401E-8050-F8EA6035B8DB}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{8F00B30D-798C-4518-807A-8069FB98EAE8}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{B29CA654-3702-4AD3-8493-75CBECD30A8D}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{ACB75FCB-8956-41DE-B433-BB032552BD97}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{7CECA02D-0426-4C89-BA82-0E0099A384F3}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{4021CFD8-4A0D-4795-AE3A-566A82A8414A}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{EC6F8278-AF23-4AD2-AFAF-50E865D1D344}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{034BACA3-7BCA-4556-89EC-6D0304AA2749}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{B53CA55E-A10A-4AA2-BB85-9254753FE960}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{955AB0D6-2D92-41A4-A74F-7C7A520EA4D2}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{3B2EFA48-2E36-452D-BDD2-0449A8218D19}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{37D2D5A6-5DE4-47E8-9319-B9C103142783}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{DBE9A07A-DAEC-404F-A107-3957706D1116}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{176CD443-C372-418E-BA5C-4D82D4110F9F}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{82D3385E-F564-4330-9D46-EE48B47E2266}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{5C1F44F1-1136-4E1D-9377-E927F22FDC99}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{CADD082F-F448-418C-9C43-5A8DF89FEE5D}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{7114AA0E-7573-4CC6-91DD-60714E771F12}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{95B6D3EE-B958-4E11-822E-3A775BD6C2C6}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{007ADD02-EDBA-4D00-8A20-6DF3648FBF23}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{2B5D09CD-22CB-4FC3-8463-65F53134F7D8}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{143DE456-391D-458A-BA34-34817495A850}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{C270A610-AC6A-4144-9660-AE7B35F855A4}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{3F58B698-A3C6-469E-A3F7-9EB99A6256A5}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{FFA2B467-3932-4DFF-AA12-EE0C9A7E009E}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{7994F8D8-9A88-4573-820A-0AFAE0B82F37}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{637BF577-712C-4092-9175-1359DB95C774}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{C2BE24CC-4ADA-46F5-9425-B3E205EC8A7E}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{BB279A3D-5B87-43DC-9AD4-CD4CDF27E38D}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{4397BCC0-458E-4DD0-BD7E-AC303718CFAD}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{3B2DE8FD-47FF-415C-B587-EC27AFF4BC07}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{EBEBDAB9-EBF0-4050-8713-F0E8D28B6DB1}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{1C76B771-F610-4590-8CB1-87EE1A345443}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{F11B6817-3E79-4F73-B94E-D373274BC1F0}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{798C5841-3F27-4BB0-B37E-9D72C077E64B}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{82953C13-B170-4A53-BD61-14578B2820B7}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{28C11AD5-E261-42E8-96D3-B03CF011A91C}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{FF099DEC-6516-422F-AE85-329C5B00DAF2}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{A7995EC5-07BA-4BDF-99AE-FD0F1837A027}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{177E646E-389D-40EA-A659-94B5CBAF40ED}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{CCFE48EB-48DC-48EB-B481-44D8BE96AE63}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{52637FCF-D508-48D2-B538-09CD2E9A08D3}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{3A26C7F0-129F-4AF5-9BBB-1987BEA7C768}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{55E489A7-1D1E-4347-81A9-1153040C9AC3}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{76908806-65FB-4BA6-A83D-03FD9B0AB031}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{E26CB859-5D3A-446A-A362-A01AA9E95F86}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{B8F8D48A-5403-4F95-9DF7-4C13A7E9BF3F}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{F3BA469E-6EB0-43F7-9036-EC8FB939907C}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{00E4EBBD-53A4-44F8-8C62-473037E536B1}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{FA8ACA7C-ED3E-408F-898C-DF370F0A8AD2}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{2A5D78F2-EB89-4C98-9FB9-3BE4A271B019}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{434D4535-5451-401E-BEF3-F5023B97800C}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{AD7666B1-512A-472F-B39B-EA12E92E8DA8}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{21AF6E18-EEF8-445D-8F16-04DB2E6E736E}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{3E5D6470-9805-4328-AB0C-AA0A0C91D389}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{854435B5-E3A6-46A9-8997-845C158D22A5}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{8BF10357-8D04-45B0-A47A-41C402261352}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{7B87537B-90F8-4BD3-ADE3-90AF7037939E}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{9FA45C64-1061-4634-B7FF-865A8AFE0E72}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{C914AA5F-FDBA-4133-80E5-CFDBEABB4E61}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{A49E2D11-33AD-42A6-BF57-034F56A282CF}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{B0D3BB1C-22B2-4656-92D8-BA99C99AB425}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{503E772E-6E04-48C8-99E0-E590C21311BB}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{9BFA444E-6EFA-43AB-A8ED-219EE77D80E1}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{4130327C-9D19-4F13-B299-D2E69D1D0F97}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{4C5D90A6-FFBE-4368-9130-C7512D52C5DB}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{9735D7B2-764C-4DBC-AC61-D25A327C3739}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{ECFA8DEF-8CAC-4128-8EE6-3EB09D3B0A6E}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{70DA8B40-7E60-4151-9E3E-67C3BCA229DE}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{69F50971-2CEE-466F-BCE3-29FE70E00EB0}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{F9490675-79E4-4931-AA46-154DF3126B41}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{7AEA66AE-2E6F-4264-9DB7-4B75958C5DE5}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{B6033EBD-6A9D-4A57-AFD1-F192888AB888}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{B50CFCD6-B237-43D1-B58B-17F309AC0A66}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{69E81F26-7739-425B-BC0F-C3B0D9DA37F4}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{D9F07FF2-22FF-4199-AF64-E2140FACC1AB}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{D428FCB2-8FFD-432F-BDF9-45E88FB9EFD9}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{F3AD25EF-B283-4996-88FF-FCD8C3FE6A60}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{1E8C21AA-CC78-4273-AA62-FCEAD6EBF048}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{AB0232E4-1C52-496A-BDB5-64766AB39684}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{A2F5A15D-7108-4050-B8CF-237D1FD19FD8}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{94EA5DA0-B69C-422D-8E41-84C9F26CFCE3}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{DCD1ABF5-749B-45A2-8359-DBCC8EB813FA}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{47CC3417-5C6D-4282-ACF5-EF00E1C3818D}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{52686596-747D-4FF9-ACBC-6532E188C157}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{BF74E4D7-D58D-4F01-887F-2FE4B2E13D76}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{7ECCB7F9-FD8A-4B09-A624-8D2C0AB3AAFD}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{B7E85EA8-93AD-4196-A0F2-ED6BDDD590B0}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{A37D3D43-B243-4561-9A2D-3CBAD37CF1E9}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{5DA5549E-C6F1-42BC-9F62-44410AC12709}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{9641294D-12F5-46F5-A58F-AE8EA1B22626}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{3D68802A-5349-4359-BB28-EF085BA32D70}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{4C01C804-4DBF-433D-990C-5DE6541D2452}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{91138F64-6E2F-4A95-B7EA-A2F910116070}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{4479020C-E12E-4C6F-9615-1D950BF712A7}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{754AC6A3-58DF-4928-9510-5ED5893C465A}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{0A46321A-C477-40C3-A9F4-D5CAF7D45B05}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{1A2615FC-CF7B-4683-97B2-6FDC174021E4}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{E83F9E10-9BA6-41B6-AD3B-C42F1FA4D5FA}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{C713F0FF-93AA-4E36-B351-91DC48528D14}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{951E2D2E-0F22-42EB-A815-8EFB42AF3438}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{EAB180A8-C25D-473D-87A1-3F4F0DDC143D}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{A09E3FA7-368C-4BAD-9584-AD136E3723C4}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{A66D697E-A1B7-4B5D-8773-91DA64891C3E}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{FD7B3171-2527-4535-9332-645039218C96}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{669F032D-8CF8-4FB2-9FA6-E39E76D5643A}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{5628A20B-0EF1-4FE9-817C-BB6A4F765086}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{D21027FF-46DD-46BC-BFB6-F623CB0CBF32}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{E1040108-BDD5-4A32-9F19-2F29B3F7619B}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{941DAA72-D01F-43D9-BE3E-E46AAC952CAA}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{43B01B0B-0575-4273-9BAB-712ADE4E2EEF}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{77A5D73D-4EBE-46DE-8923-D8A46844B1D4}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{5485783F-BB48-444B-B8DA-945E7B6297E6}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{3744A598-162E-4758-A1EA-A68E6C9EE4CF}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{8BF03ECB-6FEE-41E8-8D72-601EA25A8241}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{DA89DA82-8666-4D16-8DAC-326021175355}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{266D313C-7531-4B28-A4B1-61D8851B679E}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{6328A0A3-249A-4E64-803F-FC943ED4379C}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{E653B1EC-8698-4A36-8A32-BF5574A84DAE}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{EA578236-8DAE-4917-B025-6181296B43A6}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{5FD312F6-71E1-4CB8-82CA-62E6E91CE2FC}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{8EF97B04-F9D7-42C3-9BCA-2B6E4EB49178}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{2D0A9D17-D69F-4262-8F83-65B0D3359BDC}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{90D4FF85-EFE5-4315-8B99-6DCCA4AD2D57}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{BF8ECDA7-E3E3-4EAB-91E4-547A9632133F}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{33E8F755-89C9-4AA1-9063-449E2F0E9130}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{8151464B-A67E-40C3-BADB-81EE4991C5CD}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{1704B1AF-436E-4082-BF8A-27D1D0D39958}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{AE223C0A-C3D8-4FC9-8E50-DB56B6812125}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{76D868CE-8898-419C-8731-215871F327B3}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{ED56E864-F9DE-4910-AA8F-309AD3692FF5}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{5BEF72E1-5BEC-478E-9E7D-DEFECF538342}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{C45C5179-8270-49CB-9AAD-8B2A01A8E663}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{CE4CB58D-585B-407E-B60E-BCC76B86BAB7}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{CFD3C9AC-F195-487D-ABF0-A21BDF66B0E6}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{19585520-DA55-4AA8-B95A-E2D502763340}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{D2A322DD-EC52-4434-AC8B-0C43AFADF769}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{65605F39-F507-42D1-AD31-C2957B5055F5}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{917F57D2-177E-4748-AB64-651C3630819E}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{127161F8-2896-4468-9CC9-820983E247BC}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{6B78C028-0F7B-4421-99B6-73D7943650F5}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{3BBD2543-E264-472C-BC84-58F8B8165C7C}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{5EBAA060-2F09-4264-8035-3F6FB7B5A95A}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{A373DC8B-718E-44AE-9163-EFDE6F0BBDB6}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{7D753C8D-E21F-489D-B032-7349ACF061A6}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{3E817943-E88E-403F-9553-C4929782C74D}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{6E412BB4-F2F8-4099-B307-803F0CC89EBE}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{D1837CF8-16DE-4D4A-B896-FF1B05C4F483}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{09B285A3-CB48-4B12-B0B7-55B29BDCD367}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{6BA459F8-A3FB-42E8-B3C0-3413A815C54C}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{30812D5B-8720-4F68-84E7-EC4FFCA0E6D7}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{93081957-634B-4252-BEDC-73B4C65F6691}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{9FD42A8D-2A94-4352-9585-C088188F2EB3}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{B0C36D39-FE2F-441D-9581-B484D97C2C7A}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{51950E74-D3E1-4899-B9F3-B209982DCCE9}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{A3A59B56-F57D-48AA-BAFF-8392ED49D78C}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{BE1B35E2-C18B-4A68-9F69-13A14D6FCA51}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{EDAD9E58-FE0F-4C66-97DA-9AF85EF0ED3D}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{331FF3C6-E358-446B-B79E-2B029F9AC4A0}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{1EE4A677-5463-4512-9A5D-C8B46B74B8D1}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{7AEA847E-FAEB-4FD3-A757-709873E6037D}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{54B75E45-0A21-44E4-99EB-547746FF652F}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{CB4475A6-75E7-478A-8261-BE0C75BE8AC4}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{E603B461-09C9-40AE-855C-B3D65FE9ABF4}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{6ADEF817-B487-4284-BF4E-72B5CB4FCF79}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{136705D3-AE4F-47CE-991A-F07C6AD61594}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{D88AFAF2-174E-4B71-8325-CE22DDEE9D82}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{AABD2743-8178-4450-B057-B6B6D6E36E10}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{BA748F8A-DF37-49D3-B49C-437F82C3ADBB}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{7D6EF970-F1FC-497F-8FF2-8E623384D3AD}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{920867CF-8247-40F7-A639-0BEE7AD6B99C}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{AC8600CA-0587-401F-AAEB-7996035A47EC}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{15610F73-E004-4E33-A8AC-1866B81A035F}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{9F24182F-4EE0-41F3-A915-5DCDF2A15C4A}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{4BCB1FDB-AA37-47B4-B743-63C7A3F4E712}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{2828B54E-129F-48C6-A3A6-92DAF9AA630D}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{C7C966CE-DDA2-4FA8-A168-9893DDF36E15}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{A7E965A3-7D68-4DCB-83AE-465963857057}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{28C42CE8-425A-4631-9971-8D95DD3AD9BB}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{26A74BEE-66E6-47EA-AF00-4C8B54A27488}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{07A827F7-C3DF-4695-84AB-75FE7FAAA8E0}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{1979A4C8-961B-4D59-9C73-3EF5A3BBA945}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{AAC6E1B8-D554-4DC6-9E1C-F7CABC75E8D4}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{E90313BE-1C81-4FCA-9BE2-76DAE7EE56CF}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{86D5E647-D054-4884-AA68-146898821BA7}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{A9D36BA8-7056-4B54-BD39-B573EEB9BE7C}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{F0AC1C6A-F34B-40F0-A67D-24C0847A2181}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{465FA914-1591-4CBC-B918-4795CA68A4B7}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{80423425-E555-4B4A-9FC1-69879427E3EE}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{E36DDFAD-CE8C-494D-9F69-ABF2657EA11A}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{274EA4C4-9B19-48F5-93F2-2549ECEA2365}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{2AE63457-6463-42F0-9B19-CA2DB330AE4F}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{4A8D360A-F2F9-4EA4-9D86-0AB556D129A5}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{6C97235D-9B3D-4A4A-B89F-B66A00B169E6}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{00571919-DE72-430C-B6C9-65B6AA9F3BD5}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{76B5BC86-7F42-4E1A-A89F-36F360C6841E}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{BBCCEBA0-E817-4578-8E2E-41E06D94ADE5}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{F546D6DA-789F-4654-8916-2928AF935309}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{B9673C6A-E719-41EF-B44B-834FE8F1E714}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{26BCED06-0AAC-443B-AA97-F7FC3C7B9789}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{539F2D1A-5963-4AAD-9279-765693E31E4F}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{75BB5333-3B98-47A8-93D8-7902E686756D}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{1F0C1D1C-C400-4B3D-9A32-3415FF93D462}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{D297C153-188E-4FD0-B383-AE3FA0C5E528}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{5860EA02-544D-4A5B-9FB3-2C2C35627331}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{EC7D97BB-5946-4B80-9437-F14C657A4B0A}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{2E376850-942A-4A78-9295-DECC5513A4E2}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{0ADC8B9B-AC65-4124-B619-211832D3E6E0}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{53782A92-12D5-4EC6-A323-4D48BD4DB49D}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{28335B55-1DE0-43FE-864B-6739F95A5222}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{CB53168A-E7C8-4086-B98F-87538EB3723A}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{B64250E2-72FA-4CE3-BF3A-97B44845A069}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{9AE643AC-8E21-4E4D-BEDB-FD0C8C28E6FA}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{75F1A64C-570B-4F4E-A1C3-B1BD412722C2}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{3090BFD1-0F09-4AFC-B95C-BC24C838A32E}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{87313476-1FB6-4B73-A260-5914AF373130}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{24020317-02AB-428B-B136-A21E61D316EC}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{7906A028-DEC3-46DC-8E05-017A66268EAF}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{2E6D6704-4491-4F23-85E7-628DECB2A92E}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{6AA7B6F8-137C-4871-B939-D851FBF5F40F}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{3CE4409D-E934-49A5-AD55-864E9FD21E8A}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{3A18C854-7B7E-4CA8-A445-002842BC9E78}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{B25FBE2C-095F-4BE9-A14A-ACB60FA7F976}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{D2C0E55B-E931-4AB7-B6E7-60C136E13789}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{3A7C21ED-01E1-4236-9369-B472BB229C56}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{F31AA5AE-18B6-45DB-B176-60D7EDBC2AA5}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{55EE8295-083A-4607-841E-491643CBCDE4}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{33A80740-DA3F-4C79-88C2-4D7D90A5C020}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{2DB15C2B-007D-4883-AF2F-ECE54AD57A00}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{6006CF6A-8968-413B-B940-0CB65FCA5536}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{C28DAA6B-87C8-4AFB-AFBA-D1488FF0029F}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{C5E78155-B3F0-43B8-BB2D-AADF194F5EDF}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{52776D24-1E80-4BCC-92BC-CE880D5E53C0}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{85E5FA96-A849-4845-92BA-456FD5B55801}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{69160E8E-55DA-400E-935C-570458C4BD31}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{0FA437D6-323C-4BC5-AF88-8B74D606870F}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{429C515C-CD54-4B68-8729-0ED26B41E3C9}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{40E99AC0-2F5C-4509-B4F7-E8CB58C5D067}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{8578EA96-DF47-4023-AC1A-2F9733FFF41F}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{0823BF9A-CD08-4C43-A436-B91D45A3522E}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{379C0AC2-2A6C-4AA5-88E3-DF53A6A3362D}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{A12728B7-3520-4450-8783-3AE95A298330}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{99E0DE68-FCCE-4074-A041-C4C9D7548288}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{8F2BE3A7-8002-46A2-97A8-0C5A4C76B6DE}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{F7A07D79-1B73-46B4-9719-3B56C4E5CF16}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{D5C37F49-D097-4983-B6A4-D731B222E462}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{734AF398-9FA2-4DE7-A69B-96E91EB68985}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{7345628D-01DA-47D4-8434-96B0223378EC}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{EC9DA73B-BAF6-4AF6-9704-E32099240E47}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{75E8616C-421D-4DCF-B293-4EBFEF078C86}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{F3878B70-A78B-4861-A135-A598342145F8}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{C6F15040-A131-483A-9181-58A5905FFA52}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{E49FB99A-C22D-4D9F-87E3-E16098516D25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId216"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32B27E-5AC0-40DE-9121-ECE78AC9A317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AA244A-FC9F-4090-957A-B29404CABBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="595">
   <si>
     <t>titulo</t>
   </si>
@@ -1504,6 +1504,321 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/259687c5-b4b3-4ed5-b3e9-78db8bfbfbdf?title=AgroDistribuidor%20%7C%20Perspectivas%20da%20Distribui%C3%A7%C3%A3o%20de%20Insumos%20Agr%C3%ADcolas%20no%20Brasil%20(Parte%201)</t>
+  </si>
+  <si>
+    <t>Nutrien investe para desafiar as líderes | Impresso | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/780a3dc0-575f-43f9-a10a-cefbedf6b40a?title=Nutrien%20investe%20para%20desafiar%20as%20l%C3%ADderes%20%7C%20Impresso%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Meeting Exame - 01/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/11f4431a-1690-5b83-e480-1acc1a44c8f6?title=Meeting%20Exame%20-%2001/03</t>
+  </si>
+  <si>
+    <t>Evento com especialista em distribuição de insumos - Anderson Galvão</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ba792303-b9db-0ae4-d07e-eafc7c488ccd?title=Evento%20com%20especialista%20em%20distribui%C3%A7%C3%A3o%20de%20insumos%20-%20Anderson%20Galv%C3%A3o</t>
+  </si>
+  <si>
+    <t>Blau Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f2d62dda-a9f2-4d4b-957e-1d163d848b27?title=Blau%20Day</t>
+  </si>
+  <si>
+    <t>PRIO - ESG - Sitawi</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4272080b-8066-d741-07e9-2d8e3c380e66?title=PRIO%20-%20ESG%20-%20Sitawi</t>
+  </si>
+  <si>
+    <t>Meeting Xponencial - 02/01</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0051f1ad-adce-840c-1926-e56f2aa56526?title=Meeting%20Xponencial%20-%2002/01</t>
+  </si>
+  <si>
+    <t>Viveo - Almoço @ BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b1975068-93c9-40f3-8678-625eed201136?title=Viveo%20-%20Almo%C3%A7o%20@%20BTG</t>
+  </si>
+  <si>
+    <t>Privalia - papo com ex-Mr. Cat</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/94b44f97-c44f-41b5-baa6-746b2c7b28d4?title=Privalia%20-%20papo%20com%20ex-Mr.%20Cat</t>
+  </si>
+  <si>
+    <t>Meeting Fatto Capital - 02/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0875261f-3f75-4190-8e5a-c357703843c4?title=Low%20Income%20Homebuilders%20%7C%20Gustavo%20Tillman,%20Diretor%20do%20Departamento%20de%20FGTS%20(Minist%C3%A9rio%20da%20Economia)</t>
+  </si>
+  <si>
+    <t>Blau - IPO - 6pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5413a846-344d-4a9b-b226-125762f5e842?title=Blau%20-%20IPO%20-%206pager</t>
+  </si>
+  <si>
+    <t>Low Income Homebuilders | Gustavo Tillmanundefined Diretor do Departamento de FGTS (Ministério da Economia)</t>
+  </si>
+  <si>
+    <t>Allied - PF com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5ceac901-0db3-46cb-a22d-c023b07470b9?title=Allied%20-%20PF%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>Reunião com Vale - Luciano Siani</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/34dad6f1-dad7-e568-26b2-4690e8318a4b?title=Reuni%C3%A3o%20com%20Vale%20-%20Luciano%20Siani</t>
+  </si>
+  <si>
+    <t>Meeting SVN - 03/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a97a898c-748e-290e-789a-7c6f967439a7?title=Meeting%20SVN%20-%2003/03</t>
+  </si>
+  <si>
+    <t>Mater Day @BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c36593df-0dcd-44cc-afae-88f3a4d4cb00?title=Mater%20Day%20@BTG</t>
+  </si>
+  <si>
+    <t>Get Ninjas - reunião pilot fishing com mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d43a280f-5fee-4613-8367-97c834dd2b4a?title=Get%20Ninjas%20-%20reuni%C3%A3o%20pilot%20fishing%20com%20mgmt</t>
+  </si>
+  <si>
+    <t>Rumo | Call de Guidance 2021-25 com Lewin (CFO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1ce05078-e221-4aaa-adc2-1d3466ad7447?title=Rumo%20%7C%20Call%20de%20Guidance%202021-25%20com%20Lewin%20(CFO)</t>
+  </si>
+  <si>
+    <t>3 Tentos Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ce85daab-1b61-3b7e-ef64-724cc82b45ec?title=3%20Tentos%20Day</t>
+  </si>
+  <si>
+    <t>Natura Conference Call 4Q20 Results</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/03d39f90-0eb7-420c-8869-5b58940b933d?title=Natura%20Conference%20Call%204Q20%20Results</t>
+  </si>
+  <si>
+    <t>Meeting Carpa Patrimonial - 05/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d0f51d56-a6af-58e6-6efd-f75dbc8045b6?title=Meeting%20Carpa%20Patrimonial%20-%2005/03</t>
+  </si>
+  <si>
+    <t>Reunião com Agrogalaxy - Times complementares (COOundefined Barterundefined Digital)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f70fd122-a098-9dfc-c1c7-d83ff5924b01?title=Reuni%C3%A3o%20com%20Agrogalaxy%20-%20Times%20complementares%20(COO,%20Barter,%20Digital)</t>
+  </si>
+  <si>
+    <t>UNICOBA | 1x1 com Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8a7683be-b622-4f18-a7d6-98f423870080?title=UNICOBA%20%7C%201x1%20com%20Management</t>
+  </si>
+  <si>
+    <t>Locadoras de Veículos | Eduardo Gaban (NG Law)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/19cabc20-2584-4ff9-b0c5-375c5f49508c?title=Locadoras%20de%20Ve%C3%ADculos%20%7C%20Eduardo%20Gaban%20(NG%20Law)</t>
+  </si>
+  <si>
+    <t>Vittia Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/636efa1f-d75c-47ef-5a4d-ac82f354e567?title=Vittia%20Day</t>
+  </si>
+  <si>
+    <t>Indie &lt;&gt; Eleven - update de Agrogalaxy</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bf347978-a701-92f3-4fa7-e91e3c4ae0de?title=Indie%20%3C%3E%20Eleven%20-%20update%20de%20Agrogalaxy</t>
+  </si>
+  <si>
+    <t>Elfa - NDR</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c582ac56-aabe-4c4f-a863-82778b18962c?title=Elfa%20-%20NDR</t>
+  </si>
+  <si>
+    <t>IE Dasa - Bofa</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f7bf592-b11c-2853-807d-6e3538e8a980?title=IE%20Dasa%20-%20Bofa</t>
+  </si>
+  <si>
+    <t>MGLU 4T20 - Earnings Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cc3da7ae-f3c0-e6b2-f84d-aad5e2affbab?title=MGLU%20%204T20%20-%20Earnings%20Conference</t>
+  </si>
+  <si>
+    <t>Meeting @ Newco Invest - 09/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/58aec7c6-8774-6018-0c26-beaa2efa96a1?title=Meeting%20@%20Newco%20Invest%20-%2009/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Haus Invest - 09/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f1b3334-400d-1ea7-791a-d864c98bde49?title=Meeting%20@%20Haus%20Invest%20-%2009/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Cronos Investimentos - 09/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/44e6a738-0316-076c-10ac-91fa2e84e2e7?title=Meeting%20@%20Cronos%20Investimentos%20-%2009/03</t>
+  </si>
+  <si>
+    <t>Cenário Macro/Político - André Carvalhoundefined Head of Macroundefined Strategy &amp; Fixed Income Research (Bradesco)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/202b2be1-0d77-46a2-86e7-3fcd3b62c1cf?title=Cen%C3%A1rio%20Macro/Pol%C3%ADtico%20-%20Andr%C3%A9%20Carvalho,%20Head%20of%20Macro,%20Strategy%20&amp;%20Fixed%20Income%20Research%20(Bradesco)</t>
+  </si>
+  <si>
+    <t>Totvs Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c8d10fef-04a3-4063-a523-50c0d99bbcfe?title=Totvs%20Day</t>
+  </si>
+  <si>
+    <t>BTG | Large Group c/ Rodrigo Cury - Head da Retail Unit no BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/96043d7d-206d-4990-a53b-cd8b5d647533?title=BTG%20%7C%20Large%20Group%20c/%20Rodrigo%20Cury%20-%20Head%20da%20Retail%20Unit%20no%20BTG</t>
+  </si>
+  <si>
+    <t>TECH | Diretor da Moot Consulting e ex-Diretor Totvs @XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/787c37cb-0466-4820-b879-f2b10a8aea25?title=TECH%20%7C%20Diretor%20da%20Moot%20Consulting%20e%20ex-Diretor%20Totvs%20@XP</t>
+  </si>
+  <si>
+    <t>Vittia - PF</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f0a53a58-0cd8-2553-4dd1-fdb27138ec7c?title=Vittia%20-%20PF</t>
+  </si>
+  <si>
+    <t>Overview de varejo com sell-side | Richard Michael | BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/504b83f3-ab13-f9f8-fc37-6ba5243a9b2b?title=Overview%20de%20varejo%20com%20sell-side%20%7C%20Richard%20Michael%20%20%7C%20BBI</t>
+  </si>
+  <si>
+    <t>Rumo | Large Group com Gerente de Logística da Bunge</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e50248dd-287f-4102-b900-189a41445578?title=Rumo%20%7C%20Large%20Group%20com%20Gerente%20de%20Log%C3%ADstica%20da%20Bunge</t>
+  </si>
+  <si>
+    <t>Meeting @ Prosperidade - 10/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/92c174af-89c3-34ae-2e8f-2e8e16924436?title=Meeting%20@%20Prosperidade%20-%2010/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Voga - 09/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/450fc0f4-db7d-3035-4007-dd204e63b59c?title=Meeting%20@%20Voga%20-%2009/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Valor Investimentos - 09/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4b92505d-dbb9-ba6e-20c1-b8a67194aaf4?title=Meeting%20@%20Valor%20Investimentos%20-%2009/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Vertente - 10/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/480ab771-b870-4826-e0f0-6f13996847fa?title=Meeting%20@%20Vertente%20-%2010/03</t>
+  </si>
+  <si>
+    <t>Meeting @ IBBRA - 10/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/69573296-cb16-4697-8a2c-a4f89a875c12?title=Meeting%20@%20IBBRA%20-%2010/03</t>
+  </si>
+  <si>
+    <t>IE 3 Tentos - @BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d205af26-947f-75c4-bee9-6237b3bd2bef?title=IE%203%20Tentos%20-%20@BTG</t>
+  </si>
+  <si>
+    <t>Rumo | Gerente de logísticas COFCO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/63a5c344-22d1-488b-9c1f-e64041911f72?title=Rumo%20%7C%20Gerente%20de%20log%C3%ADsticas%20COFCO</t>
+  </si>
+  <si>
+    <t>BTG | Motomura e Stallone (time de SME do BTG)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f277aa5a-4e27-483a-8f13-74601b221688?title=BTG%20%7C%20Motomura%20e%20Stallone%20(time%20de%20SME%20do%20BTG)</t>
+  </si>
+  <si>
+    <t>LJQQ | Reunião do Management com Investidores (IBBA)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/83f16d43-06a2-3c1e-d468-62e43e6bd81c?title=LJQQ%20%7C%20Reuni%C3%A3o%20do%20Management%20com%20Investidores%20(IBBA)</t>
+  </si>
+  <si>
+    <t>Eneva | Earnings Call 4Q20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/77fc3dc7-59e8-458b-80ae-3a839d8521f8?title=Eneva%20%7C%20Earnings%20Call%204Q20</t>
+  </si>
+  <si>
+    <t>Meeting @ Taggart - 11/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6d4baed5-5b33-9384-336c-eb0cc92c3f4d?title=Meeting%20@%20Taggart%20-%2011/03</t>
+  </si>
+  <si>
+    <t>Localiza &amp; Unidas | Papo com BMA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cc1ab1f2-2e6c-486e-b760-2c7ceab40b06?title=Localiza%20&amp;%20Unidas%20%7C%20Papo%20com%20BMA</t>
+  </si>
+  <si>
+    <t>Meeting @ Lego Investimentos - 11/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fef4e8c5-506e-a8ce-3736-0076dc49d18d?title=Meeting%20@%20Lego%20Investimentos%20-%2011/03</t>
+  </si>
+  <si>
+    <t>SQIA - Management- pós resultado 4T20 @ BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1a152a58-9b31-6b83-5fcb-87392b85084b?title=SQIA%20-%20Management-%20%20p%C3%B3s%20resultado%204T20%20%20@%20BTG</t>
+  </si>
+  <si>
+    <t>Management Privalia e Veepee @ BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7837f07c-1b13-c683-7b11-bd441efd17ba?title=Management%20Privalia%20e%20Veepee%20@%20BTG</t>
   </si>
 </sst>
 </file>
@@ -1901,11 +2216,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3866,232 +4179,709 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="4" t="s">
         <v>488</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>489</v>
       </c>
     </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>511</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>519</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>529</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>537</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>539</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>541</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>543</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>551</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>553</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>555</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>559</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>561</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>563</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>565</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>567</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>569</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>571</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>573</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>575</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>577</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>579</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>585</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>587</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>589</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>591</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>593</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{A7995EC5-07BA-4BDF-99AE-FD0F1837A027}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{177E646E-389D-40EA-A659-94B5CBAF40ED}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{CCFE48EB-48DC-48EB-B481-44D8BE96AE63}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{52637FCF-D508-48D2-B538-09CD2E9A08D3}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{3A26C7F0-129F-4AF5-9BBB-1987BEA7C768}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{55E489A7-1D1E-4347-81A9-1153040C9AC3}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{76908806-65FB-4BA6-A83D-03FD9B0AB031}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{E26CB859-5D3A-446A-A362-A01AA9E95F86}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{B8F8D48A-5403-4F95-9DF7-4C13A7E9BF3F}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{F3BA469E-6EB0-43F7-9036-EC8FB939907C}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{00E4EBBD-53A4-44F8-8C62-473037E536B1}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{FA8ACA7C-ED3E-408F-898C-DF370F0A8AD2}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{2A5D78F2-EB89-4C98-9FB9-3BE4A271B019}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{434D4535-5451-401E-BEF3-F5023B97800C}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{AD7666B1-512A-472F-B39B-EA12E92E8DA8}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{21AF6E18-EEF8-445D-8F16-04DB2E6E736E}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{3E5D6470-9805-4328-AB0C-AA0A0C91D389}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{854435B5-E3A6-46A9-8997-845C158D22A5}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{8BF10357-8D04-45B0-A47A-41C402261352}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{7B87537B-90F8-4BD3-ADE3-90AF7037939E}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{9FA45C64-1061-4634-B7FF-865A8AFE0E72}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{C914AA5F-FDBA-4133-80E5-CFDBEABB4E61}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{A49E2D11-33AD-42A6-BF57-034F56A282CF}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{B0D3BB1C-22B2-4656-92D8-BA99C99AB425}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{503E772E-6E04-48C8-99E0-E590C21311BB}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{9BFA444E-6EFA-43AB-A8ED-219EE77D80E1}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{4130327C-9D19-4F13-B299-D2E69D1D0F97}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{4C5D90A6-FFBE-4368-9130-C7512D52C5DB}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{9735D7B2-764C-4DBC-AC61-D25A327C3739}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{ECFA8DEF-8CAC-4128-8EE6-3EB09D3B0A6E}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{70DA8B40-7E60-4151-9E3E-67C3BCA229DE}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{69F50971-2CEE-466F-BCE3-29FE70E00EB0}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{F9490675-79E4-4931-AA46-154DF3126B41}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{7AEA66AE-2E6F-4264-9DB7-4B75958C5DE5}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{B6033EBD-6A9D-4A57-AFD1-F192888AB888}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{B50CFCD6-B237-43D1-B58B-17F309AC0A66}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{69E81F26-7739-425B-BC0F-C3B0D9DA37F4}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{D9F07FF2-22FF-4199-AF64-E2140FACC1AB}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{D428FCB2-8FFD-432F-BDF9-45E88FB9EFD9}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{F3AD25EF-B283-4996-88FF-FCD8C3FE6A60}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{1E8C21AA-CC78-4273-AA62-FCEAD6EBF048}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{AB0232E4-1C52-496A-BDB5-64766AB39684}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{A2F5A15D-7108-4050-B8CF-237D1FD19FD8}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{94EA5DA0-B69C-422D-8E41-84C9F26CFCE3}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{DCD1ABF5-749B-45A2-8359-DBCC8EB813FA}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{47CC3417-5C6D-4282-ACF5-EF00E1C3818D}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{52686596-747D-4FF9-ACBC-6532E188C157}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{BF74E4D7-D58D-4F01-887F-2FE4B2E13D76}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{7ECCB7F9-FD8A-4B09-A624-8D2C0AB3AAFD}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{B7E85EA8-93AD-4196-A0F2-ED6BDDD590B0}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{A37D3D43-B243-4561-9A2D-3CBAD37CF1E9}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{5DA5549E-C6F1-42BC-9F62-44410AC12709}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{9641294D-12F5-46F5-A58F-AE8EA1B22626}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{3D68802A-5349-4359-BB28-EF085BA32D70}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{4C01C804-4DBF-433D-990C-5DE6541D2452}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{91138F64-6E2F-4A95-B7EA-A2F910116070}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{4479020C-E12E-4C6F-9615-1D950BF712A7}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{754AC6A3-58DF-4928-9510-5ED5893C465A}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{0A46321A-C477-40C3-A9F4-D5CAF7D45B05}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{1A2615FC-CF7B-4683-97B2-6FDC174021E4}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{E83F9E10-9BA6-41B6-AD3B-C42F1FA4D5FA}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{C713F0FF-93AA-4E36-B351-91DC48528D14}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{951E2D2E-0F22-42EB-A815-8EFB42AF3438}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{EAB180A8-C25D-473D-87A1-3F4F0DDC143D}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{A09E3FA7-368C-4BAD-9584-AD136E3723C4}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{A66D697E-A1B7-4B5D-8773-91DA64891C3E}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{FD7B3171-2527-4535-9332-645039218C96}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{669F032D-8CF8-4FB2-9FA6-E39E76D5643A}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{5628A20B-0EF1-4FE9-817C-BB6A4F765086}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{D21027FF-46DD-46BC-BFB6-F623CB0CBF32}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{E1040108-BDD5-4A32-9F19-2F29B3F7619B}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{941DAA72-D01F-43D9-BE3E-E46AAC952CAA}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{43B01B0B-0575-4273-9BAB-712ADE4E2EEF}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{77A5D73D-4EBE-46DE-8923-D8A46844B1D4}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{5485783F-BB48-444B-B8DA-945E7B6297E6}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{3744A598-162E-4758-A1EA-A68E6C9EE4CF}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{8BF03ECB-6FEE-41E8-8D72-601EA25A8241}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{DA89DA82-8666-4D16-8DAC-326021175355}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{266D313C-7531-4B28-A4B1-61D8851B679E}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{6328A0A3-249A-4E64-803F-FC943ED4379C}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{E653B1EC-8698-4A36-8A32-BF5574A84DAE}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{EA578236-8DAE-4917-B025-6181296B43A6}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{5FD312F6-71E1-4CB8-82CA-62E6E91CE2FC}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{8EF97B04-F9D7-42C3-9BCA-2B6E4EB49178}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{2D0A9D17-D69F-4262-8F83-65B0D3359BDC}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{90D4FF85-EFE5-4315-8B99-6DCCA4AD2D57}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{BF8ECDA7-E3E3-4EAB-91E4-547A9632133F}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{33E8F755-89C9-4AA1-9063-449E2F0E9130}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{8151464B-A67E-40C3-BADB-81EE4991C5CD}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{1704B1AF-436E-4082-BF8A-27D1D0D39958}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{AE223C0A-C3D8-4FC9-8E50-DB56B6812125}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{76D868CE-8898-419C-8731-215871F327B3}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{ED56E864-F9DE-4910-AA8F-309AD3692FF5}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{5BEF72E1-5BEC-478E-9E7D-DEFECF538342}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{C45C5179-8270-49CB-9AAD-8B2A01A8E663}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{CE4CB58D-585B-407E-B60E-BCC76B86BAB7}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{CFD3C9AC-F195-487D-ABF0-A21BDF66B0E6}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{19585520-DA55-4AA8-B95A-E2D502763340}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{D2A322DD-EC52-4434-AC8B-0C43AFADF769}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{65605F39-F507-42D1-AD31-C2957B5055F5}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{917F57D2-177E-4748-AB64-651C3630819E}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{127161F8-2896-4468-9CC9-820983E247BC}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{6B78C028-0F7B-4421-99B6-73D7943650F5}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{3BBD2543-E264-472C-BC84-58F8B8165C7C}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{5EBAA060-2F09-4264-8035-3F6FB7B5A95A}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{A373DC8B-718E-44AE-9163-EFDE6F0BBDB6}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{7D753C8D-E21F-489D-B032-7349ACF061A6}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{3E817943-E88E-403F-9553-C4929782C74D}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{6E412BB4-F2F8-4099-B307-803F0CC89EBE}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{D1837CF8-16DE-4D4A-B896-FF1B05C4F483}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{09B285A3-CB48-4B12-B0B7-55B29BDCD367}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{6BA459F8-A3FB-42E8-B3C0-3413A815C54C}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{30812D5B-8720-4F68-84E7-EC4FFCA0E6D7}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{93081957-634B-4252-BEDC-73B4C65F6691}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{9FD42A8D-2A94-4352-9585-C088188F2EB3}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{B0C36D39-FE2F-441D-9581-B484D97C2C7A}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{51950E74-D3E1-4899-B9F3-B209982DCCE9}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{A3A59B56-F57D-48AA-BAFF-8392ED49D78C}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{BE1B35E2-C18B-4A68-9F69-13A14D6FCA51}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{EDAD9E58-FE0F-4C66-97DA-9AF85EF0ED3D}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{331FF3C6-E358-446B-B79E-2B029F9AC4A0}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{1EE4A677-5463-4512-9A5D-C8B46B74B8D1}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{7AEA847E-FAEB-4FD3-A757-709873E6037D}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{54B75E45-0A21-44E4-99EB-547746FF652F}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{CB4475A6-75E7-478A-8261-BE0C75BE8AC4}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{E603B461-09C9-40AE-855C-B3D65FE9ABF4}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{6ADEF817-B487-4284-BF4E-72B5CB4FCF79}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{136705D3-AE4F-47CE-991A-F07C6AD61594}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{D88AFAF2-174E-4B71-8325-CE22DDEE9D82}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{AABD2743-8178-4450-B057-B6B6D6E36E10}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{BA748F8A-DF37-49D3-B49C-437F82C3ADBB}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{7D6EF970-F1FC-497F-8FF2-8E623384D3AD}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{920867CF-8247-40F7-A639-0BEE7AD6B99C}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{AC8600CA-0587-401F-AAEB-7996035A47EC}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{15610F73-E004-4E33-A8AC-1866B81A035F}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{9F24182F-4EE0-41F3-A915-5DCDF2A15C4A}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{4BCB1FDB-AA37-47B4-B743-63C7A3F4E712}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{2828B54E-129F-48C6-A3A6-92DAF9AA630D}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{C7C966CE-DDA2-4FA8-A168-9893DDF36E15}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{A7E965A3-7D68-4DCB-83AE-465963857057}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{28C42CE8-425A-4631-9971-8D95DD3AD9BB}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{26A74BEE-66E6-47EA-AF00-4C8B54A27488}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{07A827F7-C3DF-4695-84AB-75FE7FAAA8E0}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{1979A4C8-961B-4D59-9C73-3EF5A3BBA945}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{AAC6E1B8-D554-4DC6-9E1C-F7CABC75E8D4}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{E90313BE-1C81-4FCA-9BE2-76DAE7EE56CF}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{86D5E647-D054-4884-AA68-146898821BA7}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{A9D36BA8-7056-4B54-BD39-B573EEB9BE7C}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{F0AC1C6A-F34B-40F0-A67D-24C0847A2181}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{465FA914-1591-4CBC-B918-4795CA68A4B7}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{80423425-E555-4B4A-9FC1-69879427E3EE}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{E36DDFAD-CE8C-494D-9F69-ABF2657EA11A}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{274EA4C4-9B19-48F5-93F2-2549ECEA2365}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{2AE63457-6463-42F0-9B19-CA2DB330AE4F}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{4A8D360A-F2F9-4EA4-9D86-0AB556D129A5}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{6C97235D-9B3D-4A4A-B89F-B66A00B169E6}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{00571919-DE72-430C-B6C9-65B6AA9F3BD5}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{76B5BC86-7F42-4E1A-A89F-36F360C6841E}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{BBCCEBA0-E817-4578-8E2E-41E06D94ADE5}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{F546D6DA-789F-4654-8916-2928AF935309}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{B9673C6A-E719-41EF-B44B-834FE8F1E714}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{26BCED06-0AAC-443B-AA97-F7FC3C7B9789}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{539F2D1A-5963-4AAD-9279-765693E31E4F}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{75BB5333-3B98-47A8-93D8-7902E686756D}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{1F0C1D1C-C400-4B3D-9A32-3415FF93D462}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{D297C153-188E-4FD0-B383-AE3FA0C5E528}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{5860EA02-544D-4A5B-9FB3-2C2C35627331}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{EC7D97BB-5946-4B80-9437-F14C657A4B0A}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{2E376850-942A-4A78-9295-DECC5513A4E2}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{0ADC8B9B-AC65-4124-B619-211832D3E6E0}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{53782A92-12D5-4EC6-A323-4D48BD4DB49D}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{28335B55-1DE0-43FE-864B-6739F95A5222}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{CB53168A-E7C8-4086-B98F-87538EB3723A}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{B64250E2-72FA-4CE3-BF3A-97B44845A069}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{9AE643AC-8E21-4E4D-BEDB-FD0C8C28E6FA}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{75F1A64C-570B-4F4E-A1C3-B1BD412722C2}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{3090BFD1-0F09-4AFC-B95C-BC24C838A32E}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{87313476-1FB6-4B73-A260-5914AF373130}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{24020317-02AB-428B-B136-A21E61D316EC}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{7906A028-DEC3-46DC-8E05-017A66268EAF}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{2E6D6704-4491-4F23-85E7-628DECB2A92E}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{6AA7B6F8-137C-4871-B939-D851FBF5F40F}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{3CE4409D-E934-49A5-AD55-864E9FD21E8A}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{3A18C854-7B7E-4CA8-A445-002842BC9E78}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{B25FBE2C-095F-4BE9-A14A-ACB60FA7F976}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{D2C0E55B-E931-4AB7-B6E7-60C136E13789}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{3A7C21ED-01E1-4236-9369-B472BB229C56}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{F31AA5AE-18B6-45DB-B176-60D7EDBC2AA5}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{55EE8295-083A-4607-841E-491643CBCDE4}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{33A80740-DA3F-4C79-88C2-4D7D90A5C020}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{2DB15C2B-007D-4883-AF2F-ECE54AD57A00}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{6006CF6A-8968-413B-B940-0CB65FCA5536}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{C28DAA6B-87C8-4AFB-AFBA-D1488FF0029F}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{C5E78155-B3F0-43B8-BB2D-AADF194F5EDF}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{52776D24-1E80-4BCC-92BC-CE880D5E53C0}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{85E5FA96-A849-4845-92BA-456FD5B55801}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{69160E8E-55DA-400E-935C-570458C4BD31}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{0FA437D6-323C-4BC5-AF88-8B74D606870F}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{429C515C-CD54-4B68-8729-0ED26B41E3C9}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{40E99AC0-2F5C-4509-B4F7-E8CB58C5D067}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{8578EA96-DF47-4023-AC1A-2F9733FFF41F}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{0823BF9A-CD08-4C43-A436-B91D45A3522E}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{379C0AC2-2A6C-4AA5-88E3-DF53A6A3362D}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{A12728B7-3520-4450-8783-3AE95A298330}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{99E0DE68-FCCE-4074-A041-C4C9D7548288}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{8F2BE3A7-8002-46A2-97A8-0C5A4C76B6DE}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{F7A07D79-1B73-46B4-9719-3B56C4E5CF16}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{D5C37F49-D097-4983-B6A4-D731B222E462}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{734AF398-9FA2-4DE7-A69B-96E91EB68985}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{7345628D-01DA-47D4-8434-96B0223378EC}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{EC9DA73B-BAF6-4AF6-9704-E32099240E47}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{75E8616C-421D-4DCF-B293-4EBFEF078C86}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{F3878B70-A78B-4861-A135-A598342145F8}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{C6F15040-A131-483A-9181-58A5905FFA52}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{E49FB99A-C22D-4D9F-87E3-E16098516D25}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1650B079-3120-48CC-8C4A-9C4ED97D0F17}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{4C5B879D-D207-43A6-BA5E-74023C6D7A2B}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{CA34005B-D6DA-41DD-A11A-BABCAB3C8D9B}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{4AA765A6-AA58-4CC3-BFED-B65CDF70689D}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{1409EE79-7259-4F3D-A0E6-42A07827BF11}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{932B9AEE-DA7A-4F33-8BDA-9D66B2F4BABB}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{37D859C0-075A-45D1-AC66-7A540C3673FA}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{0346A512-DA80-451B-9D86-FF022291CFE7}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{6EB6FAB1-3F56-4FC7-935D-9DF2BFCAC4B4}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{B9935938-1F56-415C-8E98-8BAC0306CE5F}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{EC8B8A73-C0C4-4B44-B98C-DB1EE7997D53}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{8C1C047E-BEBF-485B-926C-5A51EF46004A}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{87238CDC-273A-4153-89D2-7B90A30DF59B}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{FC601C63-8BEB-499A-BE4D-9F1745008D9A}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{67336201-CE54-4B6B-B45C-E9A8D087F2A9}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{46345626-E308-4981-9AC2-06AD9BA1680D}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{36B2F993-5450-4E8A-99FE-8EFD5776CC5A}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{5737DC9C-39F7-4B2C-89F5-A2C42D63081B}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{8E0F09C0-D21E-4DF7-9863-FBBC8BD6A76B}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{89748994-E77A-4C44-9D01-16456190F2EC}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{6314127D-E56C-4AD8-9B77-808740F982FC}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{F14C3922-108D-40DB-9240-4862180F4EF7}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{2794BF14-18D8-4BEE-9006-0A6325D80008}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{F291C588-D3D7-44AE-A79C-843A43A22F0A}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{9ECE7E70-03B9-48B8-8273-A157D62FFE6C}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{403B564F-9161-4252-B8E0-2155F59F3A1F}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{7EFD0E63-D27C-4CFB-B470-B7C19B590C44}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{C762AFF1-5989-473D-B48C-7D645E991F7F}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{1522E5DF-E147-413F-8BA3-D5F78A6815A4}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{0A04A376-0E4F-4BD8-A605-ACA4465CCF01}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{7EE179BE-1250-4BDA-A21B-87C5179494EA}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{E3FBF0CB-BA81-4299-8053-364E31F12EC2}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{ECE1FC97-4AA8-4260-BA9C-49FC31786137}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{2916B93E-EF92-4259-944B-85269DCD22BE}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{D151AB95-631B-41A1-9603-156A6FD39C66}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{6EC50217-E2A1-4C30-876B-0BA1873D6A66}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{75D41722-2A29-4767-B7F8-D8E83A170129}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{14A6555A-5036-48E0-834C-01E82C5BEA3B}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{72CF0B78-78DE-48FF-B1AB-CEA9455AE9DF}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{DE06CE13-DA8B-45A7-8CBE-3598F6E7C164}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{43B6B10D-1F3C-4140-B9A8-3EB315BAE67A}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{7C81C417-1BA4-4FE3-BD0E-372164F6135B}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{19982760-4ACB-415E-A38E-BF15D58942DE}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{73E855D8-6EC6-46DC-8F23-5EAB476743C1}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{267015F8-F402-4227-8BC1-6046CAC413ED}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{DF9DE969-3D99-48B0-8A98-784162227524}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{9FB28E0A-9A46-470D-935C-F2C0D00F4ABC}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{1B294517-10A5-4255-9ECE-87A17F0734B5}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{A9679D2D-2ABB-4D39-95EF-0106B26BE17D}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{8FEBC357-8556-4988-B788-E65FD7CF1F9E}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{1E7411D0-1C93-463E-A6B1-57C90DA5D3B0}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{B30185C4-4A61-41BF-88E8-72043E3FB64F}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{1875BAC0-D176-44B8-A156-F7C32828C41C}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{A76D6373-BC1F-4593-84FB-56ADAB6B92D6}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{364D1D0C-0E1A-4684-926F-A47E2738D393}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{EED3D597-9A1D-4962-B64A-1F9A08ABD144}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{CB8695A1-8B16-4A67-AA13-C3DB1834F6E7}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{7ABD0A7D-956F-4ED3-8008-58A6A0CB5A54}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{2BB0890C-EF8C-43A7-91E0-0E2D3D9C65A6}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{D9671289-5151-4C0D-BB96-78FB7B4C9C22}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{7E24F17D-E0EA-4668-9B70-46F46904C50E}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{66CFFDCB-B11A-45EF-A95C-6AAA0EFE5B5F}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{FD447BE5-F283-44AC-AF32-A8ED7633FC99}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{2A04377E-709D-4256-BDBF-493B37F3A9BE}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{05715568-E13B-4446-9D41-F1EBECE389D1}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{FD9A2CC4-FE27-482C-862F-29B8D6F3010D}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{783B66CD-E6B3-4D50-B257-3E01A1603833}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{271ED145-AF37-4A9A-83AE-E620A00C306A}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{FB8892ED-1BA9-42DF-BAF1-F426F00E593C}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{9A436528-FCA6-4EDA-8083-4E65A7F214C9}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{3C826B8C-2D9B-4F94-93C0-E17AFF4C4F5B}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{DD3CDE9E-6E07-45C9-A28F-C3C4348D8A53}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{B758BF66-52EA-4271-8D4D-553A6E251D2A}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{6D2EFB5E-C778-4B80-B33F-7F07A23C1970}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{1E6A177F-51BA-4343-836B-15B4F9D16468}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{D523AEA7-0DEA-495A-92FC-053D8C1D1B0D}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{7293858A-7E5B-4682-AF07-4D4CDFFDE3A6}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{2E36E83B-7F44-46A5-8FDF-0B856F5E2C40}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{BBC43966-FB1A-47E7-96DC-0E1B7ED87BE1}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{83FE53C2-4CCE-4A8B-8142-FEEF22C8DE33}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{FDC36CED-F046-44E9-B0FB-7DE368468B42}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{13EEA5F2-8C53-4723-A22F-F839B89F843A}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{586BECD6-3A0E-4650-866B-30C71591B240}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{BE61C725-DA6B-4F3E-AAE1-D9C001592163}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{30AF5769-819F-4672-8C78-B5AE5956486B}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{6F50E214-BE9F-4E6B-B35C-5DCC84001C6F}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{3FEEEE96-076C-4D7D-BD7F-AC4013B91427}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{D34C5025-0243-4DC4-A51F-102DDF50B5DB}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{016CC66E-B2F1-47F0-B455-891E9C6F9320}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{7BFB0D71-9D3E-46F8-B9AC-F118DC483821}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{AD7A9951-7E20-40FC-9EB0-DD7A12D93040}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{3E261116-BB5B-40EF-96B3-884795E175EC}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{BD870929-4408-4204-9BD2-955CA4E7D99A}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{544D2F36-3872-4F0E-B3CB-DE8B000D85A4}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{725112E2-D89E-4DCA-B026-7F2E66EED5C7}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{4D02E948-571F-42D2-99D6-1AECD9028F9B}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{9A7EAD4D-11BD-4582-8B0A-0E9CBD8E726F}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{A618555A-6064-44AA-A2DC-8CFB84BE93DC}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{3C22ECCC-4D6C-4686-BB08-C58E71B2C581}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{81E2DD01-16FC-40E9-8D9D-7311A5EBFE06}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{858DF49F-B3E7-43BD-8A1C-6688DEC14E49}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{C4D6F424-74F9-4066-81C4-C7223A707640}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{EB709A53-D7A1-4618-9DB7-69BEB2179B8F}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{37786D73-4B12-4E20-8FB8-5F0797418A82}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{6C118BDC-BFC4-49BA-B537-CF7FEBA088E7}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{05570E82-0440-49C8-82BD-25465F49CFD5}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{2AB67962-22EA-47EC-AF42-23BADFB3A58F}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{092DEC93-588B-464C-A0CB-C07F3D6342ED}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{8F6FF561-FF3B-4535-832E-9DC359105698}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{6463694F-59D9-43A7-AF79-03EBD41333DA}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{6EE04D39-973B-41CB-8F43-3466B91308F2}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{5A465414-2B4E-4B17-BE00-CA79849DA184}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{248CBB04-5531-4995-87F8-D14D4D7921E3}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{CAF59A79-2BCC-4F4F-931E-3DBFEF0173DC}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{683914B6-577E-4AAB-B03F-581B1FF16D4B}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{5823F45F-E8A6-479F-ADA9-42860D374E45}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{B9C0161A-5855-4716-8EA7-549C17D20036}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{A161DEBE-7188-46E5-9D59-DE5F42FB2F22}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{256E304C-D9D9-4D06-A8A3-7A9409983B99}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{9E967941-0228-44A3-B1CE-A8487F51B81D}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{F7326E1D-263D-4DC9-9298-FC2AAA041579}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{28E3EB6E-518A-48C8-90C7-B51286A68645}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{3010E8BE-61EA-493C-9564-019BEB197442}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{EB7473C7-1A3B-4122-8E59-6657B1D75CBB}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{6E781F6C-6A83-46EB-A253-E55AC7D1F234}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{4D0E043E-5DC2-4EE3-9D7B-25F886EF9C21}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{85D9A039-2B5A-4F81-8D88-BA23CF35342E}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{8A6899A6-CE2E-4815-9847-652623A3EDAF}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{AFE08DB4-BE44-4972-B1E0-A2AAFDB6488B}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{897CDA22-E7FD-4DFB-8E07-766B731DC0EB}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{BC4AF927-3125-4978-B0F2-42F87F90343C}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{46025561-5AA0-4210-A4E8-A6A7032CDAD4}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{1859A38E-0E30-4CB2-BB10-6C14528C17AD}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{8E5AC1CD-2671-4EFD-9056-B0A946764E1F}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{407F8597-8EBA-47AF-9927-7D54EE1B6E4B}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{BBF606E5-B6C9-4355-84C3-A29C08CB7B26}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{7BD0DF98-5811-4DF8-BF25-9DF5922B8E59}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{7551DB1B-BDB6-4C5C-A62F-1C421063DE3C}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{E7F8BB00-D1BB-4AFE-B14C-315D8ABF2038}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{29FF57FD-6520-4F38-BB5B-E86A9BBBA410}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{4F777D5F-7128-4A6B-A428-744B447DE09B}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{99A3BFCB-963E-4681-81B0-5123559F3B92}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{CC3E359E-E6F6-46B5-9E22-3A075883C873}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{2999E1A4-3FB0-4C5A-B496-91E494FE79D2}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{C3989437-D55C-4D21-B6A9-5B145A0C965C}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{D27D28FE-84C4-4D24-B424-B66A09831AB9}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{C7A707DB-2DE5-4E13-ABDB-41A67502F4F6}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{9C68D0FC-CF72-4308-BBFC-B1B373EAD786}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{C35BA26D-647E-4DF0-B7F0-A2EB271962A9}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{366B0DA8-DC1E-45FD-9D73-75FAE5F89C45}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{CBAE5AFA-8AB0-466A-86AB-6BE69863F870}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{2176F906-44D3-47E1-8D0E-161E344F4A05}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{2156BA30-94CD-4464-8AF5-C71EB8BE0523}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{F09667DA-9C67-4DFB-A06C-6D46771E960D}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{29B29983-EFE5-4FEA-B86F-A1152D245F47}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{23F3CBE7-A3C8-43F1-95E4-511D9D36C39D}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{66A8FDC6-D27B-4053-9EA6-9598758D6571}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{FBF2E12F-015C-424C-8880-5EA4BA16F5B3}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{E09C04E6-40F8-4A50-9A42-4C06356370DC}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{5B1358F0-149F-42F8-A62D-9D0EA8D98BC7}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{A726A07B-A8AC-498C-B92A-303617576AC9}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{372D0F1D-FD16-4843-8AAD-A6AD9C88DE3F}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{DDC4820D-C64B-42D1-B1F4-6921FA5D4AB0}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{2C822F16-A0F1-486D-850D-AAA78836C365}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{6CDE553D-4658-4B79-AD08-0D758D04290B}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{17646924-80AF-42C5-A028-CE2556BFB828}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{5AB9E470-A537-4C41-B55B-24D52B4D0249}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{F5631F03-0056-41D7-98DC-B29DB8961DB0}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{64024DF7-D97B-4EB2-957F-6E01299944AF}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{FB23AD48-AEE8-4BE5-9ADE-D0AF5A6B1D46}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{4FAB2353-B117-4491-B9F9-F98144CC6D87}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{FF2ACEBD-7375-42E8-9895-8AE11846658F}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{648F838D-6D0A-409A-8874-7E1793A2B17C}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{5A508B35-A7E9-456C-AA16-E8B2CEFEE9B7}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{30577996-83DC-44D8-A42A-F4BEF032141A}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{E61AF325-2D52-4F40-B7C4-976CF9ED10C0}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{0CF039EF-920B-4C46-9875-402F83202E8B}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{C0C44BF5-A474-4AB9-B223-4C78BC78C933}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{F4C2BA82-6E36-46E5-BE3D-EDAA016FFA5E}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{0ABED527-BC8B-41DC-9060-FADB2E1A3664}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{81661DF8-E321-40E2-A718-36F8898EED05}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{F0B7C45D-F543-4443-8A34-E2BF6823AB78}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{8A7A67FA-E10B-48D4-A864-56A87CC1D3F9}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{4A391514-EB23-494D-A96B-6E3DC431B472}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{9E44D3BC-8FBE-4BC6-9F04-0D6495E07308}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{81ACCA0E-DEF0-47C3-8651-D543A3BF518F}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{4A500DED-E3DC-4570-AFD9-0429B9BD695F}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{53FDEAC4-A30A-45D2-A114-40B9C679EE8C}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{EDCAFF5A-410F-4C13-AA66-7AF824A95333}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{EAD9C008-8365-42E6-AA64-A2E1DBB48F60}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{E49F17D6-5A46-4FE0-AA19-1F8135EFA1B0}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{4923146B-C657-498C-816E-B62E90510574}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{14D992DA-9142-4308-A636-B9B860516325}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{66A7E9FF-49F0-4453-A767-F49F5EF98293}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{B22C34B7-2004-4501-ADC0-0A03C2E9831F}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{2F7946FA-5281-46C8-826D-10223668B227}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{33A616FB-FE12-4090-BAD6-0B1F7A98C86D}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{ED62152A-108C-4A45-BF87-1DF9A696453D}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{FF82108A-3316-4618-8635-1A8E4CDABA79}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{8B22CB7D-8337-4404-8F89-167457AD0062}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{10E72311-0234-474B-A330-20A9EB8549F8}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{14B5066A-B1A8-424A-A0CB-D4A43A7F66EB}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{37211528-34FB-4FDA-A718-0AFA361D04D6}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{65B8A569-D04C-418C-A040-591664B82F1A}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{6FA3B9D0-71B5-49D9-A935-C9026369ADF4}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{14581029-4664-4B91-BE6E-C30D77B65A30}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{BABBC3C8-015A-4D2F-AE0E-B1DEC5569E35}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{FBE23424-5BD0-44AC-8087-A499020D6FD9}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{5813589B-9C1D-4F29-B614-FF86EF93DBE8}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{67E6D4C1-1493-4E93-866E-4020F572F0BE}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{E9C79BEA-2014-43B8-8B79-B5058555739B}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{3C1B33B4-E1D5-4880-97C1-04FA0A9C359F}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{4DAD9F05-9378-47D6-80A7-95204830FFD2}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{E0FD9CEA-59B0-49DF-AA70-9354E8290488}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{45A3447C-7921-44F8-A725-C83360C3B0DA}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{942C2682-8288-4D69-B539-80E7F75DE2C8}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{E0A75B02-F6FA-4A67-9FF2-065C11DACD5E}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{8C343B8D-A02C-4748-81DC-7A0C68C4256D}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{CCC95C80-0D9E-436A-A961-B798077456F8}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{841023F4-B6CD-4373-BE12-8BF88DE9AB81}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{EA73D793-AD7B-4309-A53B-F0B9D01DA533}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{1F48C857-EB11-4B7B-BAAE-DE916055B6FF}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{70270C12-55EB-4EEC-9899-CC6B4AC66669}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{FB78C2D4-6DE2-4E73-9ECD-F959659AD487}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{C8D7CCAF-595A-415E-89DB-74CE285F2E12}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{4B43DD7F-0CC8-45BA-A357-A0EFE686ED46}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{68E7F839-6835-44B2-9591-041AE80DA542}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{E15B5D8C-058C-417E-8B3E-3076C4F74102}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{A5781D78-F8AD-44A2-9E2A-42CE227BFC3F}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{4BE4DFCB-BFE1-43A1-84BD-A26CEBE7892F}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{AB2CA1FC-6D02-447C-B97F-450EFFDE3C61}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{D7E93B95-BE09-4DFA-8E04-3267F20B6C1A}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{68380712-12CA-4B48-9C56-D219487F3461}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{2633DFD4-5239-4CFE-BFB6-6206A907E2B8}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{24057B83-E407-452A-9723-C214D712CD49}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{E2469C40-EC2E-469A-A5B8-10221B68F2C8}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{7AAFC017-5086-4A4F-B9B8-DBC3FF8E9818}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{BBFD3C39-7B6D-4127-A17C-9C9E342E761B}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{CBAC5992-70EA-4270-9401-84764238025B}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{067743D0-574E-44FF-A49F-B1C9502A3C41}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{687754BB-C1AB-4AB2-9053-ABAFC500E680}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{79A3161D-27ED-4475-B560-B6805C822E0D}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{DA497F7C-CC28-4191-BE6B-89F60D768A29}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{83F71447-AA0D-4A2A-991B-71B95CEDD838}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{E0CD1097-CBE8-4093-BE88-61A3610CAD29}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{B35C7026-8308-4034-8BA3-80D8C4A0BED7}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{47DA9F48-28EB-43B4-9292-0AF7A0C0CDCB}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{F2B2DD99-ECB5-49E8-92A2-4460BC67E911}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{48501857-82B5-415F-8693-85286BCCC87F}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{F1442747-1334-47F5-BFBE-654FAEF12BD7}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{FEE71E50-6D02-4257-B433-1397F1D2A61C}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{0378D454-DB94-4D49-B5A0-21A75E1B0F79}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{F46412FF-1478-43DF-AC3A-8F977B2A0091}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{F83FA0DA-1F1F-4359-AAAF-27272431778F}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{4635A413-7B19-48AC-9BC7-6E8474FE7678}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{35E5DC39-9538-4954-961D-ADEAE1865D8E}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{87AB70D9-F5C2-46F7-8BAD-FE6C8C7618DF}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{405B7C56-CF1C-45BA-8D94-16E1E2B4B640}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{C3646826-ABD1-4F9E-B175-C1A4CC9F04EE}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{9662F6AF-29FF-4969-A91C-4250D8271C7F}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{E5BE5ECF-7E5F-438D-83E2-7BFC399A1E02}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{AAF060A0-372B-4F9F-BCE5-5E0666830246}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{5B33F85C-B9B0-4AC5-950A-D6619E5C8FC7}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{873C9B56-9C8E-4414-80AF-AEBD066E6818}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{CEFA82D5-7DBC-4CB4-9C6C-2598A00468DB}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{A885F521-6106-4CE1-9633-515E5F7BEAE0}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{ACE20B59-A8FA-4EB3-805F-0DC119C99239}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{72CDED85-EA01-4A4C-8C53-C705BF83290D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId216"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId269"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AA244A-FC9F-4090-957A-B29404CABBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F4142-E927-4E3C-8E1C-E9536BE918A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="677">
   <si>
     <t>titulo</t>
   </si>
@@ -1819,6 +1819,252 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/7837f07c-1b13-c683-7b11-bd441efd17ba?title=Management%20Privalia%20e%20Veepee%20@%20BTG</t>
+  </si>
+  <si>
+    <t>IE Dasa IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/70236bca-4032-4a00-8b77-cc4a50095dd6?title=IE%20Dasa%20IBBA</t>
+  </si>
+  <si>
+    <t>BTG | Group com João Dantas (CFO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7bb4697d-19bf-4fb9-b578-0078db79e190?title=BTG%20%7C%20Group%20com%20Jo%C3%A3o%20Dantas%20(CFO)</t>
+  </si>
+  <si>
+    <t>Pagar royalties em variedades de cana é justo? - Revista RPAnews</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a86857ef-e949-447d-b80a-aaad9776ff8e?title=Pagar%20royalties%20em%20variedades%20de%20cana%20%C3%A9%20justo?%20-%20Revista%20RPAnews</t>
+  </si>
+  <si>
+    <t>Meeting @ Fractal - 15/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/66a6120f-4768-f63a-2192-318f38788a02?title=Meeting%20@%20Fractal%20-%2015/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Vertente</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cb83ffc4-5ab8-e6ad-af57-adffee9678f5?title=Meeting%20@%20Vertente</t>
+  </si>
+  <si>
+    <t>Privalia - IPO - 6pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f1dfc142-81e8-394b-f456-823d3e9151ee?title=Privalia%20-%20IPO%20-%206pager</t>
+  </si>
+  <si>
+    <t>Daniel Noronha / ex-SOMA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/90eb5cf0-ed91-6425-bde9-c351da027123?title=Daniel%20Noronha%20/%20ex-SOMA</t>
+  </si>
+  <si>
+    <t>Reinventando o CTC</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/58c78c13-b095-4f6d-b883-7889efdbd6ed?title=Reinventando%20o%20CTC</t>
+  </si>
+  <si>
+    <t>Copercana - Variedades: jogador antiquadoundefined time perdendo. Por que não mexer?</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c9b875d5-a567-4b04-bebc-d67363b1f4e3?title=Copercana%20-%20Variedades:%20jogador%20antiquado,%20time%20perdendo.%20Por%20que%20n%C3%A3o%20mexer?</t>
+  </si>
+  <si>
+    <t>Moraesundefined do STFundefined suspende redução de parque para obra da Ferrogrão | Empresas | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/db16eaf9-6095-4b10-88b6-6bd4d01c08ea?title=Moraes,%20do%20STF,%20suspende%20redu%C3%A7%C3%A3o%20de%20parque%20para%20obra%20da%20Ferrogr%C3%A3o%20%7C%20Empresas%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Papo com CEO Unidas | Luis Porto</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7c5a21d5-7b4d-4f0c-8a43-3816b81dd8ca?title=Papo%20com%20CEO%20Unidas%20%7C%20Luis%20Porto</t>
+  </si>
+  <si>
+    <t>Conference Call ER 4T20 - Mitre</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/631b0642-a9f6-45b8-2d09-43fc76096d84?title=Conference%20Call%20ER%204T20%20-%20Mitre</t>
+  </si>
+  <si>
+    <t>XP @ Santander (RI)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9eac81ae-e59a-4783-9bb5-fb05bf0c5902?title=XP%20@%20Santander%20(RI)</t>
+  </si>
+  <si>
+    <t>Rumo Day 2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/20d8bfb5-67b0-4087-a8e8-d0dc424c1a21?title=Rumo%20Day%202021</t>
+  </si>
+  <si>
+    <t>Grupo GPS - IE Itau</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/80b880c2-0ccd-4ab6-afc3-356a3fc3b346?title=Grupo%20GPS%20-%20IE%20Itau</t>
+  </si>
+  <si>
+    <t>SUZB - Green Labeled Bonds</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/97085fe2-2892-4442-8c66-08990b8db58d?title=SUZB%20-%20Green%20Labeled%20Bonds</t>
+  </si>
+  <si>
+    <t>Flua! | BBI - Institutional Investor</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c82b0842-e2d6-4509-b550-1f6b84d98b14?title=Flua!%20%7C%20BBI%20-%20Institutional%20Investor</t>
+  </si>
+  <si>
+    <t>PRIO | Comitê ESG com Clarissa Lins</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9a0b106d-3fa3-4cb0-b0f1-67a548a008de?title=PRIO%20%7C%20Comit%C3%AA%20ESG%20com%20Clarissa%20Lins</t>
+  </si>
+  <si>
+    <t>Meeting @ Ghia - 16/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8add93ef-5492-035b-0c66-eb8c75cc4b19?title=Meeting%20@%20Ghia%20-%2016/03</t>
+  </si>
+  <si>
+    <t>Movida | Santander Bate Papo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/05e9b68a-fad3-4187-838f-fe94f255c815?title=Movida%20%7C%20Santander%20Bate%20Papo</t>
+  </si>
+  <si>
+    <t>Ecommerce | Webinar com SimilarWeb @XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3db318a7-63a0-f6df-b627-fa829e488c92?title=Ecommerce%20%7C%20Webinar%20com%20SimilarWeb%20@XP</t>
+  </si>
+  <si>
+    <t>LAVORO | Call com Pátria</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/43083da5-238f-40d8-bccb-72007934e904?title=LAVORO%20%7C%20Call%20com%20P%C3%A1tria</t>
+  </si>
+  <si>
+    <t>Metting @ Acqua - 16/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d255d576-28d2-1ba9-3833-7272b15d44e8?title=Metting%20@%20Acqua%20-%2016/03</t>
+  </si>
+  <si>
+    <t>Comitê ESG - Catavento - Março</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/22a0cd02-5dcf-0f85-c14e-3e734bf9dea2?title=Comit%C3%AA%20ESG%20-%20Catavento%20-%20Mar%C3%A7o</t>
+  </si>
+  <si>
+    <t>GMAT - ESG - Sitawi</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/85823e13-b6c6-61d9-3c08-466ba7d9cecf?title=GMAT%20-%20ESG%20-%20Sitawi</t>
+  </si>
+  <si>
+    <t>Conversa com Ciro Sitta - Produtor de cana - Contexto: CTC</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d29df5ea-f9be-41bc-bc34-1d80c20844ef?title=Conversa%20com%20Ciro%20Sitta%20-%20Produtor%20de%20cana%20-%20Contexto:%20CTC</t>
+  </si>
+  <si>
+    <t>GNDI Call Resultados 4Q20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d1cbbeb9-6b58-4b39-b037-8e99c64fe4d8?title=GNDI%20Call%20Resultados%204Q20</t>
+  </si>
+  <si>
+    <t>Cosan Day 2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/248bd8a0-3a17-4c54-9331-a00ffc44a5d3?title=Cosan%20Day%202021</t>
+  </si>
+  <si>
+    <t>Brazil’s PetroRio looking to go deeper - BNamericas</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d829c5c4-b1e9-4b1d-86c5-c8a57324018f?title=Brazil%E2%80%99s%20PetroRio%20looking%20to%20go%20deeper%20-%20BNamericas</t>
+  </si>
+  <si>
+    <t>CTC | Call com Hadassa Corazza</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bbc68cb9-ebed-42ee-abc7-3af45fddba2a?title=CTC%20%7C%20Call%20com%20Hadassa%20Corazza</t>
+  </si>
+  <si>
+    <t>﻿Lugar de Gente | Papo com Time</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/86df92c7-0746-46fe-a8b5-e04c8c52de83?title=Lugar%20de%20Gente%20%7C%20Papo%20com%20Time</t>
+  </si>
+  <si>
+    <t>VVAR - Conversa com executivo de um grande fornecedor</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c5d13dfa-ec53-4eb9-aefb-a50d80761bff?title=VVAR%20-%20Conversa%20com%20executivo%20de%20um%20grande%20fornecedor</t>
+  </si>
+  <si>
+    <t>Anima Conference Call 4Q20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7f938032-be86-4eb0-abff-e65012bb34ae?title=Anima%20Conference%20Call%204Q20</t>
+  </si>
+  <si>
+    <t>Getninjas | IE</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/69c02288-90c6-42b5-ab56-c791a30ce74d?title=Getninjas%20%7C%20IE</t>
+  </si>
+  <si>
+    <t>Meeting @ Inter Asset - 18/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0c17ae4f-fa55-e867-0705-a2eb4aa7dc59?title=Meeting%20@%20Inter%20Asset%20-%2018/03</t>
+  </si>
+  <si>
+    <t>Bionexo | Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/faa378ff-f830-4c39-aba0-891b1fa8527c?title=Bionexo%20%7C%20Management</t>
+  </si>
+  <si>
+    <t>CTC | Call com Azael Pizzolato - Produtor de cana e soja</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e800ad36-c8c7-4178-aa58-01d3f904236f?title=CTC%20%7C%20Call%20com%20Azael%20Pizzolato%20-%20Produtor%20de%20cana%20e%20soja</t>
+  </si>
+  <si>
+    <t>Hapvida 4Q20 Conference Call</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1c7c5502-0827-469a-8a20-ba59bf2e72ea?title=Hapvida%204Q20%20Conference%20Call</t>
+  </si>
+  <si>
+    <t>Meeting @ Alphaways - 19/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bf82baa9-98e8-4b38-24ca-44f4a919b78c?title=Meeting%20@%20Alphaways%20-%2019/03</t>
+  </si>
+  <si>
+    <t>Kora Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c13f76cb-b4f2-43b9-ac7f-37cd8924d60f?title=Kora%20Day</t>
+  </si>
+  <si>
+    <t>PETRORECÔNCAVO | IE com Safra</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7cf5a5c1-a1bf-4aa1-ae04-90438a1bfea0?title=PETROREC%C3%94NCAVO%20%7C%20IE%20com%20Safra</t>
   </si>
 </sst>
 </file>
@@ -2216,9 +2462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4610,278 +4858,647 @@
         <v>594</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>597</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>601</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>607</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>609</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>611</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>613</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>615</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>617</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>619</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>621</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>623</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>625</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>627</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>629</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>631</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>633</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>635</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>637</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>639</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>641</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>643</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>645</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>647</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>649</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>651</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>653</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>655</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>657</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>659</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>661</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>663</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>665</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>667</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>669</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>671</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1650B079-3120-48CC-8C4A-9C4ED97D0F17}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{4C5B879D-D207-43A6-BA5E-74023C6D7A2B}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{CA34005B-D6DA-41DD-A11A-BABCAB3C8D9B}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{4AA765A6-AA58-4CC3-BFED-B65CDF70689D}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{1409EE79-7259-4F3D-A0E6-42A07827BF11}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{932B9AEE-DA7A-4F33-8BDA-9D66B2F4BABB}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{37D859C0-075A-45D1-AC66-7A540C3673FA}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{0346A512-DA80-451B-9D86-FF022291CFE7}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{6EB6FAB1-3F56-4FC7-935D-9DF2BFCAC4B4}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{B9935938-1F56-415C-8E98-8BAC0306CE5F}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{EC8B8A73-C0C4-4B44-B98C-DB1EE7997D53}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{8C1C047E-BEBF-485B-926C-5A51EF46004A}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{87238CDC-273A-4153-89D2-7B90A30DF59B}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{FC601C63-8BEB-499A-BE4D-9F1745008D9A}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{67336201-CE54-4B6B-B45C-E9A8D087F2A9}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{46345626-E308-4981-9AC2-06AD9BA1680D}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{36B2F993-5450-4E8A-99FE-8EFD5776CC5A}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{5737DC9C-39F7-4B2C-89F5-A2C42D63081B}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{8E0F09C0-D21E-4DF7-9863-FBBC8BD6A76B}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{89748994-E77A-4C44-9D01-16456190F2EC}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{6314127D-E56C-4AD8-9B77-808740F982FC}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{F14C3922-108D-40DB-9240-4862180F4EF7}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{2794BF14-18D8-4BEE-9006-0A6325D80008}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{F291C588-D3D7-44AE-A79C-843A43A22F0A}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{9ECE7E70-03B9-48B8-8273-A157D62FFE6C}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{403B564F-9161-4252-B8E0-2155F59F3A1F}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{7EFD0E63-D27C-4CFB-B470-B7C19B590C44}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{C762AFF1-5989-473D-B48C-7D645E991F7F}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{1522E5DF-E147-413F-8BA3-D5F78A6815A4}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{0A04A376-0E4F-4BD8-A605-ACA4465CCF01}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{7EE179BE-1250-4BDA-A21B-87C5179494EA}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{E3FBF0CB-BA81-4299-8053-364E31F12EC2}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{ECE1FC97-4AA8-4260-BA9C-49FC31786137}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{2916B93E-EF92-4259-944B-85269DCD22BE}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{D151AB95-631B-41A1-9603-156A6FD39C66}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{6EC50217-E2A1-4C30-876B-0BA1873D6A66}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{75D41722-2A29-4767-B7F8-D8E83A170129}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{14A6555A-5036-48E0-834C-01E82C5BEA3B}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{72CF0B78-78DE-48FF-B1AB-CEA9455AE9DF}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{DE06CE13-DA8B-45A7-8CBE-3598F6E7C164}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{43B6B10D-1F3C-4140-B9A8-3EB315BAE67A}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{7C81C417-1BA4-4FE3-BD0E-372164F6135B}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{19982760-4ACB-415E-A38E-BF15D58942DE}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{73E855D8-6EC6-46DC-8F23-5EAB476743C1}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{267015F8-F402-4227-8BC1-6046CAC413ED}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{DF9DE969-3D99-48B0-8A98-784162227524}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{9FB28E0A-9A46-470D-935C-F2C0D00F4ABC}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{1B294517-10A5-4255-9ECE-87A17F0734B5}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{A9679D2D-2ABB-4D39-95EF-0106B26BE17D}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{8FEBC357-8556-4988-B788-E65FD7CF1F9E}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{1E7411D0-1C93-463E-A6B1-57C90DA5D3B0}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{B30185C4-4A61-41BF-88E8-72043E3FB64F}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{1875BAC0-D176-44B8-A156-F7C32828C41C}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{A76D6373-BC1F-4593-84FB-56ADAB6B92D6}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{364D1D0C-0E1A-4684-926F-A47E2738D393}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{EED3D597-9A1D-4962-B64A-1F9A08ABD144}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{CB8695A1-8B16-4A67-AA13-C3DB1834F6E7}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{7ABD0A7D-956F-4ED3-8008-58A6A0CB5A54}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{2BB0890C-EF8C-43A7-91E0-0E2D3D9C65A6}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{D9671289-5151-4C0D-BB96-78FB7B4C9C22}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{7E24F17D-E0EA-4668-9B70-46F46904C50E}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{66CFFDCB-B11A-45EF-A95C-6AAA0EFE5B5F}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{FD447BE5-F283-44AC-AF32-A8ED7633FC99}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{2A04377E-709D-4256-BDBF-493B37F3A9BE}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{05715568-E13B-4446-9D41-F1EBECE389D1}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{FD9A2CC4-FE27-482C-862F-29B8D6F3010D}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{783B66CD-E6B3-4D50-B257-3E01A1603833}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{271ED145-AF37-4A9A-83AE-E620A00C306A}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{FB8892ED-1BA9-42DF-BAF1-F426F00E593C}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{9A436528-FCA6-4EDA-8083-4E65A7F214C9}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{3C826B8C-2D9B-4F94-93C0-E17AFF4C4F5B}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{DD3CDE9E-6E07-45C9-A28F-C3C4348D8A53}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{B758BF66-52EA-4271-8D4D-553A6E251D2A}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{6D2EFB5E-C778-4B80-B33F-7F07A23C1970}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{1E6A177F-51BA-4343-836B-15B4F9D16468}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{D523AEA7-0DEA-495A-92FC-053D8C1D1B0D}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{7293858A-7E5B-4682-AF07-4D4CDFFDE3A6}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{2E36E83B-7F44-46A5-8FDF-0B856F5E2C40}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{BBC43966-FB1A-47E7-96DC-0E1B7ED87BE1}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{83FE53C2-4CCE-4A8B-8142-FEEF22C8DE33}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{FDC36CED-F046-44E9-B0FB-7DE368468B42}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{13EEA5F2-8C53-4723-A22F-F839B89F843A}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{586BECD6-3A0E-4650-866B-30C71591B240}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{BE61C725-DA6B-4F3E-AAE1-D9C001592163}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{30AF5769-819F-4672-8C78-B5AE5956486B}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{6F50E214-BE9F-4E6B-B35C-5DCC84001C6F}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{3FEEEE96-076C-4D7D-BD7F-AC4013B91427}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{D34C5025-0243-4DC4-A51F-102DDF50B5DB}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{016CC66E-B2F1-47F0-B455-891E9C6F9320}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{7BFB0D71-9D3E-46F8-B9AC-F118DC483821}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{AD7A9951-7E20-40FC-9EB0-DD7A12D93040}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{3E261116-BB5B-40EF-96B3-884795E175EC}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{BD870929-4408-4204-9BD2-955CA4E7D99A}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{544D2F36-3872-4F0E-B3CB-DE8B000D85A4}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{725112E2-D89E-4DCA-B026-7F2E66EED5C7}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{4D02E948-571F-42D2-99D6-1AECD9028F9B}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{9A7EAD4D-11BD-4582-8B0A-0E9CBD8E726F}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{A618555A-6064-44AA-A2DC-8CFB84BE93DC}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{3C22ECCC-4D6C-4686-BB08-C58E71B2C581}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{81E2DD01-16FC-40E9-8D9D-7311A5EBFE06}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{858DF49F-B3E7-43BD-8A1C-6688DEC14E49}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{C4D6F424-74F9-4066-81C4-C7223A707640}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{EB709A53-D7A1-4618-9DB7-69BEB2179B8F}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{37786D73-4B12-4E20-8FB8-5F0797418A82}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{6C118BDC-BFC4-49BA-B537-CF7FEBA088E7}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{05570E82-0440-49C8-82BD-25465F49CFD5}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{2AB67962-22EA-47EC-AF42-23BADFB3A58F}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{092DEC93-588B-464C-A0CB-C07F3D6342ED}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{8F6FF561-FF3B-4535-832E-9DC359105698}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{6463694F-59D9-43A7-AF79-03EBD41333DA}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{6EE04D39-973B-41CB-8F43-3466B91308F2}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{5A465414-2B4E-4B17-BE00-CA79849DA184}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{248CBB04-5531-4995-87F8-D14D4D7921E3}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{CAF59A79-2BCC-4F4F-931E-3DBFEF0173DC}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{683914B6-577E-4AAB-B03F-581B1FF16D4B}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{5823F45F-E8A6-479F-ADA9-42860D374E45}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{B9C0161A-5855-4716-8EA7-549C17D20036}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{A161DEBE-7188-46E5-9D59-DE5F42FB2F22}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{256E304C-D9D9-4D06-A8A3-7A9409983B99}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{9E967941-0228-44A3-B1CE-A8487F51B81D}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{F7326E1D-263D-4DC9-9298-FC2AAA041579}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{28E3EB6E-518A-48C8-90C7-B51286A68645}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{3010E8BE-61EA-493C-9564-019BEB197442}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{EB7473C7-1A3B-4122-8E59-6657B1D75CBB}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{6E781F6C-6A83-46EB-A253-E55AC7D1F234}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{4D0E043E-5DC2-4EE3-9D7B-25F886EF9C21}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{85D9A039-2B5A-4F81-8D88-BA23CF35342E}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{8A6899A6-CE2E-4815-9847-652623A3EDAF}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{AFE08DB4-BE44-4972-B1E0-A2AAFDB6488B}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{897CDA22-E7FD-4DFB-8E07-766B731DC0EB}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{BC4AF927-3125-4978-B0F2-42F87F90343C}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{46025561-5AA0-4210-A4E8-A6A7032CDAD4}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{1859A38E-0E30-4CB2-BB10-6C14528C17AD}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{8E5AC1CD-2671-4EFD-9056-B0A946764E1F}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{407F8597-8EBA-47AF-9927-7D54EE1B6E4B}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{BBF606E5-B6C9-4355-84C3-A29C08CB7B26}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{7BD0DF98-5811-4DF8-BF25-9DF5922B8E59}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{7551DB1B-BDB6-4C5C-A62F-1C421063DE3C}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{E7F8BB00-D1BB-4AFE-B14C-315D8ABF2038}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{29FF57FD-6520-4F38-BB5B-E86A9BBBA410}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{4F777D5F-7128-4A6B-A428-744B447DE09B}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{99A3BFCB-963E-4681-81B0-5123559F3B92}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{CC3E359E-E6F6-46B5-9E22-3A075883C873}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{2999E1A4-3FB0-4C5A-B496-91E494FE79D2}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{C3989437-D55C-4D21-B6A9-5B145A0C965C}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{D27D28FE-84C4-4D24-B424-B66A09831AB9}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{C7A707DB-2DE5-4E13-ABDB-41A67502F4F6}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{9C68D0FC-CF72-4308-BBFC-B1B373EAD786}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{C35BA26D-647E-4DF0-B7F0-A2EB271962A9}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{366B0DA8-DC1E-45FD-9D73-75FAE5F89C45}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{CBAE5AFA-8AB0-466A-86AB-6BE69863F870}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{2176F906-44D3-47E1-8D0E-161E344F4A05}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{2156BA30-94CD-4464-8AF5-C71EB8BE0523}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{F09667DA-9C67-4DFB-A06C-6D46771E960D}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{29B29983-EFE5-4FEA-B86F-A1152D245F47}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{23F3CBE7-A3C8-43F1-95E4-511D9D36C39D}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{66A8FDC6-D27B-4053-9EA6-9598758D6571}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{FBF2E12F-015C-424C-8880-5EA4BA16F5B3}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{E09C04E6-40F8-4A50-9A42-4C06356370DC}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{5B1358F0-149F-42F8-A62D-9D0EA8D98BC7}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{A726A07B-A8AC-498C-B92A-303617576AC9}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{372D0F1D-FD16-4843-8AAD-A6AD9C88DE3F}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{DDC4820D-C64B-42D1-B1F4-6921FA5D4AB0}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{2C822F16-A0F1-486D-850D-AAA78836C365}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{6CDE553D-4658-4B79-AD08-0D758D04290B}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{17646924-80AF-42C5-A028-CE2556BFB828}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{5AB9E470-A537-4C41-B55B-24D52B4D0249}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{F5631F03-0056-41D7-98DC-B29DB8961DB0}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{64024DF7-D97B-4EB2-957F-6E01299944AF}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{FB23AD48-AEE8-4BE5-9ADE-D0AF5A6B1D46}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{4FAB2353-B117-4491-B9F9-F98144CC6D87}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{FF2ACEBD-7375-42E8-9895-8AE11846658F}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{648F838D-6D0A-409A-8874-7E1793A2B17C}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{5A508B35-A7E9-456C-AA16-E8B2CEFEE9B7}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{30577996-83DC-44D8-A42A-F4BEF032141A}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{E61AF325-2D52-4F40-B7C4-976CF9ED10C0}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{0CF039EF-920B-4C46-9875-402F83202E8B}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{C0C44BF5-A474-4AB9-B223-4C78BC78C933}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{F4C2BA82-6E36-46E5-BE3D-EDAA016FFA5E}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{0ABED527-BC8B-41DC-9060-FADB2E1A3664}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{81661DF8-E321-40E2-A718-36F8898EED05}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{F0B7C45D-F543-4443-8A34-E2BF6823AB78}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{8A7A67FA-E10B-48D4-A864-56A87CC1D3F9}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{4A391514-EB23-494D-A96B-6E3DC431B472}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{9E44D3BC-8FBE-4BC6-9F04-0D6495E07308}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{81ACCA0E-DEF0-47C3-8651-D543A3BF518F}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{4A500DED-E3DC-4570-AFD9-0429B9BD695F}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{53FDEAC4-A30A-45D2-A114-40B9C679EE8C}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{EDCAFF5A-410F-4C13-AA66-7AF824A95333}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{EAD9C008-8365-42E6-AA64-A2E1DBB48F60}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{E49F17D6-5A46-4FE0-AA19-1F8135EFA1B0}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{4923146B-C657-498C-816E-B62E90510574}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{14D992DA-9142-4308-A636-B9B860516325}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{66A7E9FF-49F0-4453-A767-F49F5EF98293}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{B22C34B7-2004-4501-ADC0-0A03C2E9831F}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{2F7946FA-5281-46C8-826D-10223668B227}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{33A616FB-FE12-4090-BAD6-0B1F7A98C86D}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{ED62152A-108C-4A45-BF87-1DF9A696453D}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{FF82108A-3316-4618-8635-1A8E4CDABA79}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{8B22CB7D-8337-4404-8F89-167457AD0062}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{10E72311-0234-474B-A330-20A9EB8549F8}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{14B5066A-B1A8-424A-A0CB-D4A43A7F66EB}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{37211528-34FB-4FDA-A718-0AFA361D04D6}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{65B8A569-D04C-418C-A040-591664B82F1A}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{6FA3B9D0-71B5-49D9-A935-C9026369ADF4}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{14581029-4664-4B91-BE6E-C30D77B65A30}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{BABBC3C8-015A-4D2F-AE0E-B1DEC5569E35}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{FBE23424-5BD0-44AC-8087-A499020D6FD9}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{5813589B-9C1D-4F29-B614-FF86EF93DBE8}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{67E6D4C1-1493-4E93-866E-4020F572F0BE}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{E9C79BEA-2014-43B8-8B79-B5058555739B}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{3C1B33B4-E1D5-4880-97C1-04FA0A9C359F}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{4DAD9F05-9378-47D6-80A7-95204830FFD2}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{E0FD9CEA-59B0-49DF-AA70-9354E8290488}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{45A3447C-7921-44F8-A725-C83360C3B0DA}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{942C2682-8288-4D69-B539-80E7F75DE2C8}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{E0A75B02-F6FA-4A67-9FF2-065C11DACD5E}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{8C343B8D-A02C-4748-81DC-7A0C68C4256D}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{CCC95C80-0D9E-436A-A961-B798077456F8}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{841023F4-B6CD-4373-BE12-8BF88DE9AB81}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{EA73D793-AD7B-4309-A53B-F0B9D01DA533}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{1F48C857-EB11-4B7B-BAAE-DE916055B6FF}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{70270C12-55EB-4EEC-9899-CC6B4AC66669}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{FB78C2D4-6DE2-4E73-9ECD-F959659AD487}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{C8D7CCAF-595A-415E-89DB-74CE285F2E12}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{4B43DD7F-0CC8-45BA-A357-A0EFE686ED46}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{68E7F839-6835-44B2-9591-041AE80DA542}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{E15B5D8C-058C-417E-8B3E-3076C4F74102}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{A5781D78-F8AD-44A2-9E2A-42CE227BFC3F}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{4BE4DFCB-BFE1-43A1-84BD-A26CEBE7892F}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{AB2CA1FC-6D02-447C-B97F-450EFFDE3C61}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{D7E93B95-BE09-4DFA-8E04-3267F20B6C1A}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{68380712-12CA-4B48-9C56-D219487F3461}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{2633DFD4-5239-4CFE-BFB6-6206A907E2B8}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{24057B83-E407-452A-9723-C214D712CD49}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{E2469C40-EC2E-469A-A5B8-10221B68F2C8}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{7AAFC017-5086-4A4F-B9B8-DBC3FF8E9818}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{BBFD3C39-7B6D-4127-A17C-9C9E342E761B}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{CBAC5992-70EA-4270-9401-84764238025B}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{067743D0-574E-44FF-A49F-B1C9502A3C41}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{687754BB-C1AB-4AB2-9053-ABAFC500E680}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{79A3161D-27ED-4475-B560-B6805C822E0D}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{DA497F7C-CC28-4191-BE6B-89F60D768A29}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{83F71447-AA0D-4A2A-991B-71B95CEDD838}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{E0CD1097-CBE8-4093-BE88-61A3610CAD29}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{B35C7026-8308-4034-8BA3-80D8C4A0BED7}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{47DA9F48-28EB-43B4-9292-0AF7A0C0CDCB}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{F2B2DD99-ECB5-49E8-92A2-4460BC67E911}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{48501857-82B5-415F-8693-85286BCCC87F}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{F1442747-1334-47F5-BFBE-654FAEF12BD7}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{FEE71E50-6D02-4257-B433-1397F1D2A61C}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{0378D454-DB94-4D49-B5A0-21A75E1B0F79}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{F46412FF-1478-43DF-AC3A-8F977B2A0091}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{F83FA0DA-1F1F-4359-AAAF-27272431778F}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{4635A413-7B19-48AC-9BC7-6E8474FE7678}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{35E5DC39-9538-4954-961D-ADEAE1865D8E}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{87AB70D9-F5C2-46F7-8BAD-FE6C8C7618DF}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{405B7C56-CF1C-45BA-8D94-16E1E2B4B640}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{C3646826-ABD1-4F9E-B175-C1A4CC9F04EE}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{9662F6AF-29FF-4969-A91C-4250D8271C7F}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{E5BE5ECF-7E5F-438D-83E2-7BFC399A1E02}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{AAF060A0-372B-4F9F-BCE5-5E0666830246}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{5B33F85C-B9B0-4AC5-950A-D6619E5C8FC7}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{873C9B56-9C8E-4414-80AF-AEBD066E6818}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{CEFA82D5-7DBC-4CB4-9C6C-2598A00468DB}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{A885F521-6106-4CE1-9633-515E5F7BEAE0}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{ACE20B59-A8FA-4EB3-805F-0DC119C99239}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{72CDED85-EA01-4A4C-8C53-C705BF83290D}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E0FD8BEC-E77F-4249-A49D-F8BD81E6C2BF}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{CDAAA731-7847-494D-893E-DF7B84240654}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{4B1BD349-7B25-4A26-BB66-8B6C1855C580}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{CA5B20D3-B268-4793-A3D2-B6E98A910C53}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{1BD8DB59-8FB6-4EBB-BEB8-A0B7B3348866}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{DDAB4E69-11F3-4823-AA4E-61BD7E869459}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{AE096349-B8BF-478A-94B7-8D988DBA7A22}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{272ED0E9-A103-4DE3-B8AB-D09A378455AF}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{026ACFD8-1862-4640-BCAB-3DB0230D65EA}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{6FE77BFB-7AE2-4F66-B18B-8FFD93074EB7}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{62D4B6E7-A394-4079-8E09-2FBEC08B692F}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{919BA9C7-C70A-453D-8A4C-935C2785B51E}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{E7C9603E-694B-4043-A292-9E8CCEA982C7}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{D40E5915-BEDA-4130-9154-C68EC32BB03E}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{B60C279A-371C-4493-96C9-C227386503A0}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{DF39BB3E-8596-4C2C-B3E8-EC960C07ECD6}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{5970D107-8ACC-4031-ABE4-ABA87440EC6A}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{A3553F36-B1F5-47EA-A51B-771B3CC736A3}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{AFA14CC4-DAA2-4404-87A3-B597D4202C54}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{85606E50-42FD-4ED4-9C93-D4CC02B6CE4C}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{06F8265E-8E37-40F7-B86F-8B30E987B0B9}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{AF8287F2-CB43-49C2-89DA-90CAC0799A45}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{03F6231E-58D9-4454-84FD-8BBAD2E514B8}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{2B49EB2F-4C47-4B40-8452-50B1182502EF}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{C384FF22-6A5E-4DFC-91DA-14CCE845E8A6}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{28CB8391-CF2A-4446-A673-660CC8D8DAE3}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{FDF11D3B-6530-476F-BAE1-88D321AE6619}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{A6B06392-6660-4D96-9E0D-11400FD3CF90}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{F320F9D7-EB29-48B0-9DFB-FB8A5AAFE69D}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{D5B25CF8-E810-46F9-8A1D-A37CFE1355B9}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{D9EC6F59-DEF7-4744-BD84-C285C0A23108}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{0D120D2E-2477-4AA0-8CF2-5ACF7C3261AC}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{EE7B4CD2-F5F7-434F-97E2-39ABD97F0448}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{0609314D-60EE-41A5-8C78-62668D131305}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{6EB2B822-5E75-44A4-8438-78C42CCD060F}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{FC385B6D-92AB-45CA-B109-28610C92A15A}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{CFD9779A-F07F-4481-98C4-4061E2A9FA86}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{4447B59B-66B4-4DC8-872B-5658D3A37B0A}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{6C3DFC11-1563-4A52-A1D9-03B8EA4468CD}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{479B71A0-33F5-4518-8F9F-58C57E7911A6}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{582B5960-56B3-4C37-8809-4E6C0C5F4A5F}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{C7831CC5-7550-47D2-B368-FFCC9326BFA7}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{86D8EB45-C2FF-4647-9F4A-650120B8F006}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E65A1153-EAF4-450B-959C-1EDBFA19618E}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{4DA7F2EC-2719-48EB-95F0-1942114CFE75}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{8D93A4BC-5C38-4B91-9AC0-21B476B201B7}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{0DE5392F-5E63-4A6B-845C-EE8376E5F744}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{AAC5FBCE-587F-4251-80D1-76DF24C89CF4}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{486A996A-11A8-42B4-A6FF-32A086687B1C}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{875A3CD3-B074-46CA-A804-75F9D74BF04D}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{22F71E66-9C5F-492A-8D2D-A632E1CAF6EB}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{EBD8E466-BF7E-4935-99E5-E38FA8EE98DE}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{398839AB-E87D-4A24-883E-CB9CB73C71D0}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{56A0C316-D2C8-4002-B169-E026FE4B6B4F}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{956EEC14-EF5B-4C9B-835B-4C1751127B7E}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{89254B21-B0F0-4059-AE32-275FE32102C9}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{EB777D22-DC37-4D0A-B455-64B95346F013}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{43D93D3E-ED3B-44AD-BD67-E8124E6739A7}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{B575B6B0-3BA8-45B3-AD29-5F2F639CA3C7}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{1637630F-F7C2-4BFB-81E9-31609C33C1EC}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{D00347DA-3DDD-43DF-B2CC-C70166B94644}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{39A01E48-67F7-42C9-949F-F228EA53CA9C}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{902F0DAF-9C7E-4E4A-B6A0-4B17773D76E7}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{A32B1B57-8977-47F6-A689-FAEF8D230A91}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{9B74262F-87BF-4CA0-849B-F2A9167AD6C2}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{D3EC5343-FC12-4122-AAA1-93463693BDA9}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{46C64CA2-7571-4C8B-A721-0FFBAD1A7498}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{3AD066CE-88C1-4762-A08E-7DF4A0DCD039}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{EE9A637F-0E6A-4F6C-A1C8-0BACB3906E6C}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{9472B186-6A60-4477-8147-3F792E06A401}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{DC784D09-F6D1-4C4C-814F-D2D8D438B9F4}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{2CB7C8A7-6C7A-4373-BB00-75168F8756ED}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{58E79D45-AB8A-486E-8DDD-CC32EFA571E8}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{89D11B12-845E-482E-88DD-74527354181C}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{02255805-36ED-4ACF-B2F7-B5B887EE1006}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{C9F3EAF7-6DBA-447A-95EE-0B2A9C714164}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{38AB9D81-2FF7-441A-A5A7-55EFF4BA3D8F}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{681DE3CE-AFC3-4E64-A32C-94B15DF0DF2C}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{C27464DD-1D95-4816-A852-F039BB702CB2}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{2C9F2138-3C97-46BB-A581-200BE535D9AE}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{8A55FA62-1AB2-4F59-AD77-422F3402C9DF}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{8ACF9590-879F-4968-8C7F-2B2645D5F35B}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{C0A150E4-938B-46A8-B927-45AA1A867E4D}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{544387D6-069B-4728-B48E-3FD20A5BD83B}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{39B8A94B-1C15-47CB-9324-D2F462E7BA12}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{2301F4BF-89CD-49BB-B544-984D01054FF7}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{9FED79B9-A8BC-4332-A661-177B317A5691}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{7B9ED7B8-5E42-412F-ABA8-D21925334599}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{238F1E6D-9B63-435C-AD8F-AABAACA70DE7}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{196336B5-A973-43DF-B4CA-C0AEC1D14225}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{AD1A783F-6AA7-4609-807D-594D3E608989}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{604F5731-949A-4B61-9D2A-1A2C9AA57275}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{99B628D2-4392-461D-9F0E-02209B17AB7E}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{1272B997-2462-4244-91AC-8FA635794CE1}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{6F3129EF-9228-4BF7-824A-62D44883A304}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{4D93B29D-40A1-4ACC-8026-49A34D5BB44C}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{A422D719-A4EF-479D-A653-6B0D2E850BD4}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{21BC356B-0ED6-401C-8124-880AEE3FE14D}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{07B861D7-4468-42AA-97DF-F55EF1733545}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{1AC978FF-8967-40B5-AA31-2795A7D60A34}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{236AD686-A3D0-441F-979D-E854FF212D21}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{EC32B80B-3ED8-4843-90AE-FE876FB4167D}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{388D9781-FF54-4E70-98C2-3F63C90AAD88}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{4AB6DB4A-E89A-4FFB-8E58-B17F8D74C35A}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{10258C27-D51B-4154-A9AE-5557D88A20B5}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{CF034F0F-8DF3-457E-8CC8-C55FA03E6855}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{4503A396-42D7-440E-BCE0-4CC3B5BDA736}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{B041DA8A-8DB7-4401-8EE4-2B07CB77A2BA}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{AD177CBB-5F11-4FED-A59A-D68A3756FF44}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{0489FC46-DCFB-4827-88D8-FBBFFB0DA15B}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{174A8AAA-24EE-45C7-99CD-4DBD144C9097}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{D6DA2966-4BE4-4740-91CD-4014B88997D0}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{827092C9-8593-40EC-B03F-D0152C50EF01}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{1982762F-15C1-47F6-8D02-723639569587}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{68FE0826-7C0E-4094-B757-64EEFA508EB8}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{5CDB22A8-0981-4CF3-9238-C7FC1BA1450B}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{C32E38ED-9D75-4BBC-9B6D-14D45B7176BE}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{EB06F481-5247-486A-BAD6-B85661CFDD04}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{D1BECE23-9E37-4039-A503-05581DF8098C}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{3DD14B40-3033-42D4-B0CD-1EF912A0C414}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{251AF7BF-CF43-41BE-90CC-FD9A22CFC379}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{5127F8C1-EECD-4F3A-B545-9EF47901DA56}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{BC15D232-8D08-49CF-BFEF-4DDA2714B984}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{BD276100-EFA0-4359-A57E-23E6260CF454}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{1E2A75E8-1D37-4B79-8050-F5F9358D0BBB}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{8648EFB2-5FDF-49F4-915C-45BD20D59FD8}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{38564745-5693-4DE0-9C71-D10DD16DFA3E}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{78D7DA7E-BD1D-4D3F-942B-9C567FC66A9E}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{44E5385C-D1CD-4227-A854-26A0DE878BAF}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{04642CD1-8DB6-483A-8BA6-C66E76DCA8EE}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{C0E87ECF-C933-444E-9F99-229A0BEA2EFA}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{634ACC76-B13F-4E98-A518-3ABD7DEA38EB}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{6E88E94F-03A4-4521-85FC-64F502DDF5CC}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{39D931D2-D31D-45C4-B5C5-78D5F25DA408}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{6F7CED6D-F67B-4C77-8675-4D4D715FBCFB}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{A9A8AB58-1B84-4AF4-87DF-A13F8A319848}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{C4BAE124-EEE5-4F5C-871E-C4BD36223474}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{1458207F-59BE-43CF-B14C-CF9F9C371584}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{2C0B4AC3-766E-42A9-8458-575D14A49608}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{B6CB7E51-FB5A-4434-BE7E-6F8FD07FE23D}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{DE262C2D-C522-49F3-9587-882DAE270DFE}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{ADA17AC7-5D0F-4AC6-953F-F2A66A1F8A4B}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{D97A561B-FF49-4C39-A8B0-DF0B83ED4F11}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{E68227D0-318B-41F4-B496-C6EF8DF79DC1}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{422F5DA9-A5EC-42FF-9C30-0F9F06FCAF31}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{8EFD7B87-D2BF-444D-AE37-E869C75A8675}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{61D5552D-DFBE-4336-AEE7-DEB7625BBB6B}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{A66C347E-4D77-4331-B871-BC3608ECAEF7}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{C856F029-AF9A-4A41-8BBE-94EF789654B9}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{98D3B643-733C-436C-98BA-B66716E41BE4}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{F063C551-3F2F-47D0-BE62-5F744D8A7B34}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{DE6CB728-FA86-437E-A81D-93B2B833D11B}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{C6DAE3FC-53FB-4ACC-A352-F8FD27A72182}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{87A92CBD-B83B-48FB-9201-7F3C13406F5C}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{34F14FCA-77EB-4B30-973F-A9EDCFE9660D}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{6E145AF6-997E-41CD-AEEE-FC75E214DC7B}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{40381B48-C265-4C9D-A2F1-780585A410A3}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{C3FDC033-85CA-40F4-9AB3-7019BF0B746F}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{E59F3FD1-D8D8-4B4C-874D-214A760A8771}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{00486176-8081-49D0-9250-08CF81799871}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{89808A0F-D147-4EC0-9C5A-671B42841F64}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{21A02077-6EAF-4142-B24D-CED3A1BC251A}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{090C1C82-7090-4E04-8FE0-626593A63CC4}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{B354F39C-5C2D-4C93-83E7-F88CC7C40C10}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{582F6447-8AF0-43BF-A995-6C6B47C8C807}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{EEB7D533-7698-4D56-A30E-8EF8C6050D39}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{F68210D9-3A47-406E-B197-B8B006F6E268}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{7E952D4C-97E1-44BC-B88C-983D08860D35}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{29838476-FCD6-4863-8DA6-2E7EE06F6090}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{116EB84E-88B1-48DE-AE3D-08EE7C2206D6}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{EC7194E2-ACD7-4B0B-98BF-04EC14957ED5}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{3DCF2163-B8FF-4A18-A5F5-261128961597}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{EBD6CAD2-3122-4A5B-A406-2AC7DC61949F}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{5969BA3C-5B43-4150-B594-6F69C1F84D31}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{36BDE357-1F9A-44C9-A18A-39D7EFE0BC4B}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{C42F710B-D9DF-4358-8938-D98B24D60C4F}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{0EF83DE8-1A58-4DFC-A10C-AF9A5369FE2C}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{DE28AFB2-2CF6-4DBE-B03A-1987617438B9}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{307CF634-C9FB-4579-AEA2-D511D0AC9D38}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{C66038D1-E77B-48F6-8E34-B083B77196FA}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{6A295BC1-81A6-499D-BA0E-456B90791E97}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{4F35130C-7C7D-410D-8D86-14B8F7EDE491}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{375B46BB-A876-4F2D-8DF0-1482233D56F6}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{209727FD-74F2-4539-A408-D165A8245197}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{55767311-C2DF-4FCD-980D-6E19D7A1E487}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{283FF4ED-CCC0-4E22-A6A3-E86AD88B7741}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{58201409-A88E-47C7-89DF-7A1BF79ACB8E}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{2500D81A-6651-41BD-8715-840936BE91CD}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{F0BACA22-0EC5-46AA-AB46-EC179E4C5734}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{C13605F3-301A-4476-9C78-0DB8B8888384}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{E4012A87-31C2-45B2-AE57-09E4F8A7E603}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{8649D93C-8986-4005-A768-269634772289}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{77964443-78DC-4D86-9461-821EF2C991E5}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{4C3443BC-BC79-46FC-8BEE-B1C1C48544B1}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{DF486ADD-0442-4695-A51E-6122F6BC9EC8}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{A16B8307-79EF-4624-B0E2-7F9C6E656242}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{F62C4CAD-C7BF-48F8-86D0-705B5C0C4D0F}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{61E7E430-DFF8-47AC-9257-507463DF4D0E}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{72807B38-3AC0-4085-BE03-8A29C987E06E}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{1F3ABD5E-1970-47C5-A13B-D9025377E213}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{05CD9E38-441F-4C51-ADE4-2905B647AC5D}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{92598D22-C666-44A3-B23C-6A8F1BE69DC5}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{05A9C16A-F8C1-4A41-A7A7-5849F67645CB}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{77D4C29A-8C11-4D03-9A5E-677A9F7E7200}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{E332757E-A9D3-452F-AC68-8FDD220FFDB7}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{A498C623-4FB7-4C41-9853-78EB81B67D20}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{95225413-E4E8-4FAD-892E-1D12AAA3577D}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{4FB4CFB7-E747-464A-AFF8-ECCAFF7E8A02}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{7F07E500-C07E-42B2-8B15-6F8ACC1B55D5}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{C5704421-858D-44BA-86FD-3770D799EFD1}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{7FFCDEEF-4F07-48AD-A92F-3CCAEDD280EF}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{F7F55DAE-8EA8-4BE5-BE65-D5104DBE76E4}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{17DA18DB-20AE-46AB-B062-1AF102136C6C}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{07944B41-B394-45EB-943B-687D8D5F973D}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{E9B6C43E-BEFE-4A9D-963F-4EF62B208365}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{79387794-0371-4A41-8841-4F6ACB51EF3A}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{17A72577-381D-4B6F-BC99-5182728B9D43}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{EA39A22D-7A55-43B2-A7F8-76E449B20C01}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{C6BF4520-36B3-402A-821A-07AB5F5A48CC}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{599163E5-EB92-4A5F-95D6-0A594AB1B932}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{9F469A2E-E596-4816-B5F7-CAF7353EA395}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{9C7CA1A3-A80B-4AFF-BE66-A4F82D7C42DA}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{5CB9A68E-1774-47BD-AA55-1C82CB1B9ABF}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{412CA8BC-B851-45D2-A308-169023E926D0}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{69286AB8-05AA-40C1-AA0F-A8A175EED107}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{A4FCB5D2-832D-4924-8285-59527AF53264}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{8AA4B7AE-14E3-411E-ADB0-1D8C2D7F4C3E}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{DA0564C9-0D87-4AE6-AE3C-11A1CB7ECF9D}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{E0165EFA-6B12-4F79-B2B1-BD70BB108E90}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{7E33C531-AAE0-49A1-9282-F4BE17700F7A}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{6709B01F-748A-4C62-833F-ACD81DA1799D}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{1F67B430-540A-4027-B321-1CB3BDD4BEFA}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{8A7D7CD9-A8BC-435B-8BCA-6797B30C3C5B}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{DFE5410F-9F8A-49FA-9157-EA55AB6C5DC7}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{CAC00F03-4860-4527-8BCD-8B4CDADFFA80}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{18476197-9DD7-496D-8156-8FD62983DAA1}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{FB720A1C-9DFD-4323-B063-ED648740F21D}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{EBF3B19C-06B1-4A84-8AFD-BBDB4E139EC4}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{F9A99C1D-3E00-4A70-8CB9-0D429F82BD2F}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{D1217E82-0CDA-41BA-9795-9228BCD5A444}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{4D4A0283-009C-4B4E-BC59-A856FC76498C}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{26CE3044-EDF3-4C57-B3C1-1B6888236C43}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{B8970407-2F26-475E-BD93-88D48DE2EA9D}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{054AB681-BA9C-4AA4-8752-C1FFC034BFF1}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{00BDC379-ACD4-4DDA-B626-22E442FA7A23}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{5FADA623-2B8B-45C0-BCC9-0E8CA26F626B}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{B5A606E2-87F9-48F7-9C19-568C44BDF9A7}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{80882728-F50E-4B10-9802-4472D6CD4AF6}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{8518CD4A-DD66-4529-B88D-DFB2CC88090B}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{C275F3CF-3D0F-49FA-8F3C-E8B1FCC9FCCC}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{D03B14F7-8C9E-4348-8955-AEAC8C1842BB}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{6B4361CC-69EA-4357-9B7E-0480E9665008}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{A16ACB4B-E577-4BE2-B610-48A375D9B039}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{1AD5F75B-2CCF-4E38-B34B-FFFC57BBB61E}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{63550F2E-DCB5-4A6F-AA33-BDED593F2563}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{6E7EFC4C-669D-48F9-9A02-2FF9F5933DDB}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{C30C5691-B26D-424D-9397-728C45591E02}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{F71F7306-B2F7-46D2-A216-4307F34737B0}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{B2B6C7DD-222D-4C4E-8AA9-C0DDD9468DC4}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{EDFEAC33-8B3F-43E8-AEA3-4A50E5E1B661}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{95756207-90CF-475C-B8F0-8FF8B58E5B58}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{4ADEE99B-EFC0-4451-A942-E629145073F2}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{A5220658-ACA3-43C8-8D41-953ADCA1A435}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{24BC5E24-30FD-46ED-B13D-858C1AD51225}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{EBACADC8-8A41-4DB6-8F85-948D38278A85}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{804C6FCA-3628-45E4-8848-599D55F40494}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{97101D0E-95B6-4FCE-836E-2CF4B76FFECF}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{D475E3A9-70F7-40F8-B54B-57A7381183E7}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{B0456A7B-6784-4115-92F9-08CDC46F6627}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{AA88DE90-3CD6-40F2-BEAF-D5DF03EDAF0A}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{49E31E1C-F46A-44D5-A99F-6D55593545C4}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{93D38A1B-70C7-4047-BC6D-C9F4B64BEEF5}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{4D4ADAAC-2AF2-4F15-BABE-73EAACED660A}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{B9DEA481-78AB-4620-BB54-0D841F6BEEB4}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{993C24D4-5610-41EF-B948-52F5BE31058F}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{21533A1C-41D2-4C22-AA96-8E95CD4852CD}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{1E8E2127-8EFD-4B8F-A70F-2473E283183D}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{11D24EBA-5A71-4D92-B4E6-8DF099CBDD65}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{3718DA6D-CAE8-4667-9567-345F9A8048B6}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{82309EDE-B7E5-46F1-A0C4-56E683444D0E}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{E83D5F1B-C351-4DFF-B8F7-A05B42FB022E}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{5D4632E0-65EF-49FA-AB9D-60590D214253}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{F00FF606-211A-49C3-8F0D-7C4F2B3D0C08}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{8C9BCAE1-E39A-4FB2-AFE6-691E4FE4109B}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{A5BA222E-37C1-4471-A8E5-45D91181B2B7}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{26CECE27-5247-41B6-AD6C-ED1AFE031580}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{7A48F1C7-64AB-485F-B33E-94CC49D64CF1}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{5CE546AD-3B32-4F3F-98B7-7D7B9D96928A}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{767B63E7-2F9E-470C-BD7F-BBF109845FB4}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{6F48A578-E6A9-4864-AC08-737D186D32E1}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{69E4DF2D-58F3-4537-9948-7AC4EC6B5EE0}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{656BD2DA-99D9-4655-A250-CB9E68B992D5}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{2BBACC05-8FB9-4EB6-ACC7-AE67D46C0F56}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{9A2703D2-9B30-4372-8653-4C780AC4288F}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{5E6843FF-ED86-4023-8DA8-2FB76F004828}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{6E6BCDC9-8A41-419A-9636-34E1088590BB}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{AAECC0B6-15FD-47B6-8725-3A9C4F796B93}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{EA134A5D-CD21-4BD8-9E60-7DBFE7ACF571}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{06D26CD4-05D1-4C01-8D1A-5CEEDAFFEDA0}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{44A81760-AE5C-4028-88F7-7C5CD9187BE9}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{45D1F84D-5E88-45EF-8B64-925A7FE647FD}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{D3E67E38-D60F-4FB6-BA61-E4472026D436}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{23485801-6B40-467E-9DE2-BF472C1BAB16}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{AB91A67A-39B7-4EC7-9179-5316F68CA18E}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{5C02195F-489B-407F-B5A7-62056AF4B667}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{9091B5A0-474C-4FEF-BED1-093B1A0207EB}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{A4C7C128-BF11-4531-B6AD-B167EE4B2634}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{987748DD-20E9-4EF2-A69B-0B16857BEF7B}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{329A4923-725B-47B6-87A1-28608AA140F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId269"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId310"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F4142-E927-4E3C-8E1C-E9536BE918A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D304431C-C6E2-4D19-BFBB-C29B78F238D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="743">
   <si>
     <t>titulo</t>
   </si>
@@ -2065,6 +2065,204 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/7cf5a5c1-a1bf-4aa1-ae04-90438a1bfea0?title=PETROREC%C3%94NCAVO%20%7C%20IE%20com%20Safra</t>
+  </si>
+  <si>
+    <t>IE DASA - @IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ce440c39-09a7-7bb8-071f-a9194603c8ea?title=IE%20DASA%20-%20@IBBA</t>
+  </si>
+  <si>
+    <t>DASA day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/20b08946-3959-c169-7f29-1bf02d9c5f28?title=DASA%20day</t>
+  </si>
+  <si>
+    <t>IE Athena e Dasa - @Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7f9609b2-7816-78ab-c2af-3aacb476f277?title=IE%20Athena%20e%20Dasa%20-%20@Santander</t>
+  </si>
+  <si>
+    <t>Metting @ Pequod - 19/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/28d5602b-2df6-4549-6e32-31e89fb62ae9?title=Metting%20@%20Pequod%20-%2019/03</t>
+  </si>
+  <si>
+    <t>Call Tech/Quant com Encore</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0ca26844-7d29-f1ac-8c5a-070140515ca7?title=Call%20Tech/Quant%20com%20Encore</t>
+  </si>
+  <si>
+    <t>Meeting @ IRL (Paulo Vaz) - 22/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ba47e633-d0e0-7ac8-d553-97c40bea64ad?title=Meeting%20@%20IRL%20(Paulo%20Vaz)%20-%2022/03</t>
+  </si>
+  <si>
+    <t>Meeting @ Redoma Capital - 23/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d6c286a2-cc24-11d3-99b8-a59364a18162?title=Meeting%20@%20Redoma%20Capital%20-%2023/03</t>
+  </si>
+  <si>
+    <t>Getninjas - Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b8f06d9f-1c52-422f-9f84-e63fa3c9ad8c?title=Getninjas%20-%20Management</t>
+  </si>
+  <si>
+    <t>Meeting @ Monet - 23/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/78ab83e5-367f-2914-7f70-505af0894fa0?title=Meeting%20@%20Monet%20-%2023/03</t>
+  </si>
+  <si>
+    <t>Kora | Reunião com management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/23c9bedb-b04f-4528-9b1d-fbcf9474583e?title=Kora%20%7C%20Reuni%C3%A3o%20com%20management</t>
+  </si>
+  <si>
+    <t>Getninjas | Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/120ba151-92b1-4ace-aa69-e4d9db84e661?title=Getninjas%20%7C%20Day</t>
+  </si>
+  <si>
+    <t>CMAA | Pilot fishing</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/240bfec9-9eda-432a-b9ad-4e59c815fd07?title=CMAA%20%7C%20Pilot%20fishing</t>
+  </si>
+  <si>
+    <t>Meeting @ Start AAI - 24/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/987aa26f-f9a4-0cea-d4b4-1f0052b7f2f2?title=Meeting%20@%20Start%20AAI%20-%2024/03</t>
+  </si>
+  <si>
+    <t>Ubook | Call com time</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a6dbda66-eab4-45fb-bd39-9e11f235048e?title=Ubook%20%7C%20Call%20com%20time</t>
+  </si>
+  <si>
+    <t>Kora | IE Itau BBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d1308253-7612-4f2e-a526-1d4246fa11d8?title=Kora%20%7C%20IE%20Itau%20BBA</t>
+  </si>
+  <si>
+    <t>﻿LG | DAY 1</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5d5b4fc6-f66d-4ecc-9bd2-e33f586a37da?title=LG%20%7C%20DAY%201</t>
+  </si>
+  <si>
+    <t>CFO da Sinqia @ CS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/12f07cf6-777a-7664-3adc-5f864e750ebf?title=CFO%20da%20Sinqia%20@%20CS</t>
+  </si>
+  <si>
+    <t>Meeting @ RD Investimentos - 25/03</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/51aab02f-ceac-f0f9-29c8-01f9859f7aa0?title=Meeting%20@%20RD%20Investimentos%20-%2025/03</t>
+  </si>
+  <si>
+    <t>LG | DAY 2</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9893965e-da9c-45e3-bbea-29e2dbdff136?title=LG%20%7C%20DAY%202</t>
+  </si>
+  <si>
+    <t>Mater Dei | Small group com BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1660cbd1-45fd-40cf-8786-743ca8233b53?title=Mater%20Dei%20%7C%20Small%20group%20com%20BTG</t>
+  </si>
+  <si>
+    <t>CTC | Diligência com Raízen</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/71500130-1c74-4d11-8937-684f48f7ede2?title=CTC%20%7C%20Dilig%C3%AAncia%20com%20Ra%C3%Adzen</t>
+  </si>
+  <si>
+    <t>Sankhya fatura R$ 200 milhões em 2020 | Portal ERP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/94bb6c46-41c0-4068-a037-f0aac9903605?title=Sankhya%20fatura%20R$%20200%20milh%C3%B5es%20em%202020%20%7C%20Portal%20ERP</t>
+  </si>
+  <si>
+    <t>LREN | Investor Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fbb70e4f-454b-43cf-fc46-f92d6ca728b6?title=LREN%20%7C%20Investor%20Day</t>
+  </si>
+  <si>
+    <t>Mais que full commerceundefined Synapcom atua como facilitadora de negócios</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7494ce49-5e8c-48d6-882f-05ad272309e7?title=Mais%20que%20full%20commerce,%20Synapcom%20atua%20como%20facilitadora%20de%20neg%C3%B3cios</t>
+  </si>
+  <si>
+    <t>CTC | Diligência com Coplacana</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f9bd4705-feec-4f2e-aae7-94f8add02ab4?title=CTC%20%7C%20Dilig%C3%AAncia%20com%20Coplacana</t>
+  </si>
+  <si>
+    <t>Synapcom prevê crescimento em 2021 e mira expansão na América Latina</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/72582049-6594-461c-a0ec-df0f268dc796?title=Synapcom%20prev%C3%AA%20crescimento%20em%202021%20e%20mira%20expans%C3%A3o%20na%20Am%C3%A9rica%20Latina</t>
+  </si>
+  <si>
+    <t>FS Bio | IE com JPM</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b5c9de76-a5de-4e1a-bd42-659d69144bb4?title=FS%20Bio%20%7C%20IE%20com%20JPM</t>
+  </si>
+  <si>
+    <t>VVAR - Update - 6pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4bdbe35b-ace7-ce92-c044-1a75aecb4b03?title=VVAR%20-%20Update%20-%206pager</t>
+  </si>
+  <si>
+    <t>LREN | ESG Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f6d0bc4b-a2ae-804a-59d9-2c3df1cddd76?title=LREN%20%7C%20ESG%20Day</t>
+  </si>
+  <si>
+    <t>Diretor ANS - Cesar Serra</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2302d817-9558-4b27-a722-f49fc0f9bf31?title=Diretor%20ANS%20-%20Cesar%20Serra</t>
+  </si>
+  <si>
+    <t>Conversa com sócios da Advent sobre Fortbrasundefined Allied e C&amp;T</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c9607c6e-2f85-2b13-ebfb-790e1e07c12f?title=Conversa%20com%20s%C3%B3cios%20da%20Advent%20sobre%20Fortbras,%20Allied%20e%20C&amp;T</t>
+  </si>
+  <si>
+    <t>Hospital Care | Road show</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5f7f959b-3c76-4aec-b0b7-4f71301f2cac?title=Hospital%20Care%20%7C%20Road%20show</t>
+  </si>
+  <si>
+    <t>Infra.commerce | Fabio B (RI)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7684a4aa-685e-4e80-b180-5a0ff2482347?title=Infra.commerce%20%7C%20Fabio%20B%20(RI)</t>
   </si>
 </sst>
 </file>
@@ -2462,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,319 +5384,616 @@
         <v>676</v>
       </c>
     </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>677</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>679</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>681</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>683</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>685</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>687</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>689</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>691</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>695</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>697</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>699</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>701</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>703</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>705</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>707</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>709</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>711</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>713</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>715</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>717</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>719</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>721</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>723</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>725</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>729</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>731</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>733</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>735</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>737</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>739</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>741</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E0FD8BEC-E77F-4249-A49D-F8BD81E6C2BF}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{CDAAA731-7847-494D-893E-DF7B84240654}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{4B1BD349-7B25-4A26-BB66-8B6C1855C580}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{CA5B20D3-B268-4793-A3D2-B6E98A910C53}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{1BD8DB59-8FB6-4EBB-BEB8-A0B7B3348866}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{DDAB4E69-11F3-4823-AA4E-61BD7E869459}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{AE096349-B8BF-478A-94B7-8D988DBA7A22}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{272ED0E9-A103-4DE3-B8AB-D09A378455AF}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{026ACFD8-1862-4640-BCAB-3DB0230D65EA}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{6FE77BFB-7AE2-4F66-B18B-8FFD93074EB7}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{62D4B6E7-A394-4079-8E09-2FBEC08B692F}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{919BA9C7-C70A-453D-8A4C-935C2785B51E}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{E7C9603E-694B-4043-A292-9E8CCEA982C7}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{D40E5915-BEDA-4130-9154-C68EC32BB03E}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{B60C279A-371C-4493-96C9-C227386503A0}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{DF39BB3E-8596-4C2C-B3E8-EC960C07ECD6}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{5970D107-8ACC-4031-ABE4-ABA87440EC6A}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{A3553F36-B1F5-47EA-A51B-771B3CC736A3}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{AFA14CC4-DAA2-4404-87A3-B597D4202C54}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{85606E50-42FD-4ED4-9C93-D4CC02B6CE4C}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{06F8265E-8E37-40F7-B86F-8B30E987B0B9}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{AF8287F2-CB43-49C2-89DA-90CAC0799A45}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{03F6231E-58D9-4454-84FD-8BBAD2E514B8}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{2B49EB2F-4C47-4B40-8452-50B1182502EF}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{C384FF22-6A5E-4DFC-91DA-14CCE845E8A6}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{28CB8391-CF2A-4446-A673-660CC8D8DAE3}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{FDF11D3B-6530-476F-BAE1-88D321AE6619}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{A6B06392-6660-4D96-9E0D-11400FD3CF90}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{F320F9D7-EB29-48B0-9DFB-FB8A5AAFE69D}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{D5B25CF8-E810-46F9-8A1D-A37CFE1355B9}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{D9EC6F59-DEF7-4744-BD84-C285C0A23108}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{0D120D2E-2477-4AA0-8CF2-5ACF7C3261AC}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{EE7B4CD2-F5F7-434F-97E2-39ABD97F0448}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{0609314D-60EE-41A5-8C78-62668D131305}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{6EB2B822-5E75-44A4-8438-78C42CCD060F}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{FC385B6D-92AB-45CA-B109-28610C92A15A}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{CFD9779A-F07F-4481-98C4-4061E2A9FA86}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{4447B59B-66B4-4DC8-872B-5658D3A37B0A}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{6C3DFC11-1563-4A52-A1D9-03B8EA4468CD}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{479B71A0-33F5-4518-8F9F-58C57E7911A6}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{582B5960-56B3-4C37-8809-4E6C0C5F4A5F}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{C7831CC5-7550-47D2-B368-FFCC9326BFA7}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{86D8EB45-C2FF-4647-9F4A-650120B8F006}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E65A1153-EAF4-450B-959C-1EDBFA19618E}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{4DA7F2EC-2719-48EB-95F0-1942114CFE75}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{8D93A4BC-5C38-4B91-9AC0-21B476B201B7}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{0DE5392F-5E63-4A6B-845C-EE8376E5F744}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{AAC5FBCE-587F-4251-80D1-76DF24C89CF4}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{486A996A-11A8-42B4-A6FF-32A086687B1C}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{875A3CD3-B074-46CA-A804-75F9D74BF04D}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{22F71E66-9C5F-492A-8D2D-A632E1CAF6EB}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{EBD8E466-BF7E-4935-99E5-E38FA8EE98DE}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{398839AB-E87D-4A24-883E-CB9CB73C71D0}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{56A0C316-D2C8-4002-B169-E026FE4B6B4F}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{956EEC14-EF5B-4C9B-835B-4C1751127B7E}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{89254B21-B0F0-4059-AE32-275FE32102C9}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{EB777D22-DC37-4D0A-B455-64B95346F013}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{43D93D3E-ED3B-44AD-BD67-E8124E6739A7}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{B575B6B0-3BA8-45B3-AD29-5F2F639CA3C7}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{1637630F-F7C2-4BFB-81E9-31609C33C1EC}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{D00347DA-3DDD-43DF-B2CC-C70166B94644}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{39A01E48-67F7-42C9-949F-F228EA53CA9C}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{902F0DAF-9C7E-4E4A-B6A0-4B17773D76E7}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{A32B1B57-8977-47F6-A689-FAEF8D230A91}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{9B74262F-87BF-4CA0-849B-F2A9167AD6C2}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{D3EC5343-FC12-4122-AAA1-93463693BDA9}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{46C64CA2-7571-4C8B-A721-0FFBAD1A7498}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{3AD066CE-88C1-4762-A08E-7DF4A0DCD039}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{EE9A637F-0E6A-4F6C-A1C8-0BACB3906E6C}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{9472B186-6A60-4477-8147-3F792E06A401}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{DC784D09-F6D1-4C4C-814F-D2D8D438B9F4}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{2CB7C8A7-6C7A-4373-BB00-75168F8756ED}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{58E79D45-AB8A-486E-8DDD-CC32EFA571E8}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{89D11B12-845E-482E-88DD-74527354181C}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{02255805-36ED-4ACF-B2F7-B5B887EE1006}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{C9F3EAF7-6DBA-447A-95EE-0B2A9C714164}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{38AB9D81-2FF7-441A-A5A7-55EFF4BA3D8F}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{681DE3CE-AFC3-4E64-A32C-94B15DF0DF2C}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{C27464DD-1D95-4816-A852-F039BB702CB2}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{2C9F2138-3C97-46BB-A581-200BE535D9AE}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{8A55FA62-1AB2-4F59-AD77-422F3402C9DF}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{8ACF9590-879F-4968-8C7F-2B2645D5F35B}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{C0A150E4-938B-46A8-B927-45AA1A867E4D}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{544387D6-069B-4728-B48E-3FD20A5BD83B}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{39B8A94B-1C15-47CB-9324-D2F462E7BA12}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{2301F4BF-89CD-49BB-B544-984D01054FF7}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{9FED79B9-A8BC-4332-A661-177B317A5691}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{7B9ED7B8-5E42-412F-ABA8-D21925334599}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{238F1E6D-9B63-435C-AD8F-AABAACA70DE7}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{196336B5-A973-43DF-B4CA-C0AEC1D14225}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{AD1A783F-6AA7-4609-807D-594D3E608989}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{604F5731-949A-4B61-9D2A-1A2C9AA57275}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{99B628D2-4392-461D-9F0E-02209B17AB7E}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{1272B997-2462-4244-91AC-8FA635794CE1}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{6F3129EF-9228-4BF7-824A-62D44883A304}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{4D93B29D-40A1-4ACC-8026-49A34D5BB44C}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{A422D719-A4EF-479D-A653-6B0D2E850BD4}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{21BC356B-0ED6-401C-8124-880AEE3FE14D}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{07B861D7-4468-42AA-97DF-F55EF1733545}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{1AC978FF-8967-40B5-AA31-2795A7D60A34}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{236AD686-A3D0-441F-979D-E854FF212D21}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{EC32B80B-3ED8-4843-90AE-FE876FB4167D}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{388D9781-FF54-4E70-98C2-3F63C90AAD88}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{4AB6DB4A-E89A-4FFB-8E58-B17F8D74C35A}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{10258C27-D51B-4154-A9AE-5557D88A20B5}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{CF034F0F-8DF3-457E-8CC8-C55FA03E6855}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{4503A396-42D7-440E-BCE0-4CC3B5BDA736}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{B041DA8A-8DB7-4401-8EE4-2B07CB77A2BA}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{AD177CBB-5F11-4FED-A59A-D68A3756FF44}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{0489FC46-DCFB-4827-88D8-FBBFFB0DA15B}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{174A8AAA-24EE-45C7-99CD-4DBD144C9097}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{D6DA2966-4BE4-4740-91CD-4014B88997D0}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{827092C9-8593-40EC-B03F-D0152C50EF01}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{1982762F-15C1-47F6-8D02-723639569587}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{68FE0826-7C0E-4094-B757-64EEFA508EB8}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{5CDB22A8-0981-4CF3-9238-C7FC1BA1450B}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{C32E38ED-9D75-4BBC-9B6D-14D45B7176BE}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{EB06F481-5247-486A-BAD6-B85661CFDD04}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{D1BECE23-9E37-4039-A503-05581DF8098C}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{3DD14B40-3033-42D4-B0CD-1EF912A0C414}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{251AF7BF-CF43-41BE-90CC-FD9A22CFC379}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{5127F8C1-EECD-4F3A-B545-9EF47901DA56}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{BC15D232-8D08-49CF-BFEF-4DDA2714B984}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{BD276100-EFA0-4359-A57E-23E6260CF454}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{1E2A75E8-1D37-4B79-8050-F5F9358D0BBB}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{8648EFB2-5FDF-49F4-915C-45BD20D59FD8}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{38564745-5693-4DE0-9C71-D10DD16DFA3E}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{78D7DA7E-BD1D-4D3F-942B-9C567FC66A9E}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{44E5385C-D1CD-4227-A854-26A0DE878BAF}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{04642CD1-8DB6-483A-8BA6-C66E76DCA8EE}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{C0E87ECF-C933-444E-9F99-229A0BEA2EFA}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{634ACC76-B13F-4E98-A518-3ABD7DEA38EB}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{6E88E94F-03A4-4521-85FC-64F502DDF5CC}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{39D931D2-D31D-45C4-B5C5-78D5F25DA408}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{6F7CED6D-F67B-4C77-8675-4D4D715FBCFB}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{A9A8AB58-1B84-4AF4-87DF-A13F8A319848}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{C4BAE124-EEE5-4F5C-871E-C4BD36223474}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{1458207F-59BE-43CF-B14C-CF9F9C371584}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{2C0B4AC3-766E-42A9-8458-575D14A49608}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{B6CB7E51-FB5A-4434-BE7E-6F8FD07FE23D}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{DE262C2D-C522-49F3-9587-882DAE270DFE}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{ADA17AC7-5D0F-4AC6-953F-F2A66A1F8A4B}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{D97A561B-FF49-4C39-A8B0-DF0B83ED4F11}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{E68227D0-318B-41F4-B496-C6EF8DF79DC1}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{422F5DA9-A5EC-42FF-9C30-0F9F06FCAF31}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{8EFD7B87-D2BF-444D-AE37-E869C75A8675}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{61D5552D-DFBE-4336-AEE7-DEB7625BBB6B}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{A66C347E-4D77-4331-B871-BC3608ECAEF7}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{C856F029-AF9A-4A41-8BBE-94EF789654B9}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{98D3B643-733C-436C-98BA-B66716E41BE4}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{F063C551-3F2F-47D0-BE62-5F744D8A7B34}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{DE6CB728-FA86-437E-A81D-93B2B833D11B}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{C6DAE3FC-53FB-4ACC-A352-F8FD27A72182}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{87A92CBD-B83B-48FB-9201-7F3C13406F5C}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{34F14FCA-77EB-4B30-973F-A9EDCFE9660D}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{6E145AF6-997E-41CD-AEEE-FC75E214DC7B}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{40381B48-C265-4C9D-A2F1-780585A410A3}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{C3FDC033-85CA-40F4-9AB3-7019BF0B746F}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{E59F3FD1-D8D8-4B4C-874D-214A760A8771}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{00486176-8081-49D0-9250-08CF81799871}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{89808A0F-D147-4EC0-9C5A-671B42841F64}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{21A02077-6EAF-4142-B24D-CED3A1BC251A}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{090C1C82-7090-4E04-8FE0-626593A63CC4}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{B354F39C-5C2D-4C93-83E7-F88CC7C40C10}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{582F6447-8AF0-43BF-A995-6C6B47C8C807}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{EEB7D533-7698-4D56-A30E-8EF8C6050D39}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{F68210D9-3A47-406E-B197-B8B006F6E268}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{7E952D4C-97E1-44BC-B88C-983D08860D35}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{29838476-FCD6-4863-8DA6-2E7EE06F6090}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{116EB84E-88B1-48DE-AE3D-08EE7C2206D6}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{EC7194E2-ACD7-4B0B-98BF-04EC14957ED5}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{3DCF2163-B8FF-4A18-A5F5-261128961597}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{EBD6CAD2-3122-4A5B-A406-2AC7DC61949F}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{5969BA3C-5B43-4150-B594-6F69C1F84D31}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{36BDE357-1F9A-44C9-A18A-39D7EFE0BC4B}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{C42F710B-D9DF-4358-8938-D98B24D60C4F}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{0EF83DE8-1A58-4DFC-A10C-AF9A5369FE2C}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{DE28AFB2-2CF6-4DBE-B03A-1987617438B9}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{307CF634-C9FB-4579-AEA2-D511D0AC9D38}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{C66038D1-E77B-48F6-8E34-B083B77196FA}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{6A295BC1-81A6-499D-BA0E-456B90791E97}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{4F35130C-7C7D-410D-8D86-14B8F7EDE491}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{375B46BB-A876-4F2D-8DF0-1482233D56F6}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{209727FD-74F2-4539-A408-D165A8245197}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{55767311-C2DF-4FCD-980D-6E19D7A1E487}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{283FF4ED-CCC0-4E22-A6A3-E86AD88B7741}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{58201409-A88E-47C7-89DF-7A1BF79ACB8E}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{2500D81A-6651-41BD-8715-840936BE91CD}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{F0BACA22-0EC5-46AA-AB46-EC179E4C5734}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{C13605F3-301A-4476-9C78-0DB8B8888384}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{E4012A87-31C2-45B2-AE57-09E4F8A7E603}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{8649D93C-8986-4005-A768-269634772289}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{77964443-78DC-4D86-9461-821EF2C991E5}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{4C3443BC-BC79-46FC-8BEE-B1C1C48544B1}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{DF486ADD-0442-4695-A51E-6122F6BC9EC8}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{A16B8307-79EF-4624-B0E2-7F9C6E656242}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{F62C4CAD-C7BF-48F8-86D0-705B5C0C4D0F}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{61E7E430-DFF8-47AC-9257-507463DF4D0E}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{72807B38-3AC0-4085-BE03-8A29C987E06E}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{1F3ABD5E-1970-47C5-A13B-D9025377E213}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{05CD9E38-441F-4C51-ADE4-2905B647AC5D}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{92598D22-C666-44A3-B23C-6A8F1BE69DC5}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{05A9C16A-F8C1-4A41-A7A7-5849F67645CB}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{77D4C29A-8C11-4D03-9A5E-677A9F7E7200}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{E332757E-A9D3-452F-AC68-8FDD220FFDB7}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{A498C623-4FB7-4C41-9853-78EB81B67D20}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{95225413-E4E8-4FAD-892E-1D12AAA3577D}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{4FB4CFB7-E747-464A-AFF8-ECCAFF7E8A02}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{7F07E500-C07E-42B2-8B15-6F8ACC1B55D5}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{C5704421-858D-44BA-86FD-3770D799EFD1}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{7FFCDEEF-4F07-48AD-A92F-3CCAEDD280EF}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{F7F55DAE-8EA8-4BE5-BE65-D5104DBE76E4}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{17DA18DB-20AE-46AB-B062-1AF102136C6C}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{07944B41-B394-45EB-943B-687D8D5F973D}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{E9B6C43E-BEFE-4A9D-963F-4EF62B208365}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{79387794-0371-4A41-8841-4F6ACB51EF3A}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{17A72577-381D-4B6F-BC99-5182728B9D43}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{EA39A22D-7A55-43B2-A7F8-76E449B20C01}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{C6BF4520-36B3-402A-821A-07AB5F5A48CC}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{599163E5-EB92-4A5F-95D6-0A594AB1B932}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{9F469A2E-E596-4816-B5F7-CAF7353EA395}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{9C7CA1A3-A80B-4AFF-BE66-A4F82D7C42DA}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{5CB9A68E-1774-47BD-AA55-1C82CB1B9ABF}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{412CA8BC-B851-45D2-A308-169023E926D0}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{69286AB8-05AA-40C1-AA0F-A8A175EED107}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{A4FCB5D2-832D-4924-8285-59527AF53264}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{8AA4B7AE-14E3-411E-ADB0-1D8C2D7F4C3E}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{DA0564C9-0D87-4AE6-AE3C-11A1CB7ECF9D}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{E0165EFA-6B12-4F79-B2B1-BD70BB108E90}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{7E33C531-AAE0-49A1-9282-F4BE17700F7A}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{6709B01F-748A-4C62-833F-ACD81DA1799D}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{1F67B430-540A-4027-B321-1CB3BDD4BEFA}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{8A7D7CD9-A8BC-435B-8BCA-6797B30C3C5B}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{DFE5410F-9F8A-49FA-9157-EA55AB6C5DC7}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{CAC00F03-4860-4527-8BCD-8B4CDADFFA80}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{18476197-9DD7-496D-8156-8FD62983DAA1}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{FB720A1C-9DFD-4323-B063-ED648740F21D}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{EBF3B19C-06B1-4A84-8AFD-BBDB4E139EC4}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{F9A99C1D-3E00-4A70-8CB9-0D429F82BD2F}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{D1217E82-0CDA-41BA-9795-9228BCD5A444}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{4D4A0283-009C-4B4E-BC59-A856FC76498C}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{26CE3044-EDF3-4C57-B3C1-1B6888236C43}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{B8970407-2F26-475E-BD93-88D48DE2EA9D}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{054AB681-BA9C-4AA4-8752-C1FFC034BFF1}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{00BDC379-ACD4-4DDA-B626-22E442FA7A23}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{5FADA623-2B8B-45C0-BCC9-0E8CA26F626B}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{B5A606E2-87F9-48F7-9C19-568C44BDF9A7}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{80882728-F50E-4B10-9802-4472D6CD4AF6}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{8518CD4A-DD66-4529-B88D-DFB2CC88090B}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{C275F3CF-3D0F-49FA-8F3C-E8B1FCC9FCCC}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{D03B14F7-8C9E-4348-8955-AEAC8C1842BB}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{6B4361CC-69EA-4357-9B7E-0480E9665008}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{A16ACB4B-E577-4BE2-B610-48A375D9B039}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{1AD5F75B-2CCF-4E38-B34B-FFFC57BBB61E}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{63550F2E-DCB5-4A6F-AA33-BDED593F2563}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{6E7EFC4C-669D-48F9-9A02-2FF9F5933DDB}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{C30C5691-B26D-424D-9397-728C45591E02}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{F71F7306-B2F7-46D2-A216-4307F34737B0}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{B2B6C7DD-222D-4C4E-8AA9-C0DDD9468DC4}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{EDFEAC33-8B3F-43E8-AEA3-4A50E5E1B661}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{95756207-90CF-475C-B8F0-8FF8B58E5B58}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{4ADEE99B-EFC0-4451-A942-E629145073F2}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{A5220658-ACA3-43C8-8D41-953ADCA1A435}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{24BC5E24-30FD-46ED-B13D-858C1AD51225}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{EBACADC8-8A41-4DB6-8F85-948D38278A85}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{804C6FCA-3628-45E4-8848-599D55F40494}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{97101D0E-95B6-4FCE-836E-2CF4B76FFECF}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{D475E3A9-70F7-40F8-B54B-57A7381183E7}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{B0456A7B-6784-4115-92F9-08CDC46F6627}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{AA88DE90-3CD6-40F2-BEAF-D5DF03EDAF0A}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{49E31E1C-F46A-44D5-A99F-6D55593545C4}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{93D38A1B-70C7-4047-BC6D-C9F4B64BEEF5}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{4D4ADAAC-2AF2-4F15-BABE-73EAACED660A}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{B9DEA481-78AB-4620-BB54-0D841F6BEEB4}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{993C24D4-5610-41EF-B948-52F5BE31058F}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{21533A1C-41D2-4C22-AA96-8E95CD4852CD}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{1E8E2127-8EFD-4B8F-A70F-2473E283183D}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{11D24EBA-5A71-4D92-B4E6-8DF099CBDD65}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{3718DA6D-CAE8-4667-9567-345F9A8048B6}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{82309EDE-B7E5-46F1-A0C4-56E683444D0E}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{E83D5F1B-C351-4DFF-B8F7-A05B42FB022E}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{5D4632E0-65EF-49FA-AB9D-60590D214253}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{F00FF606-211A-49C3-8F0D-7C4F2B3D0C08}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{8C9BCAE1-E39A-4FB2-AFE6-691E4FE4109B}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{A5BA222E-37C1-4471-A8E5-45D91181B2B7}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{26CECE27-5247-41B6-AD6C-ED1AFE031580}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{7A48F1C7-64AB-485F-B33E-94CC49D64CF1}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{5CE546AD-3B32-4F3F-98B7-7D7B9D96928A}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{767B63E7-2F9E-470C-BD7F-BBF109845FB4}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{6F48A578-E6A9-4864-AC08-737D186D32E1}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{69E4DF2D-58F3-4537-9948-7AC4EC6B5EE0}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{656BD2DA-99D9-4655-A250-CB9E68B992D5}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{2BBACC05-8FB9-4EB6-ACC7-AE67D46C0F56}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{9A2703D2-9B30-4372-8653-4C780AC4288F}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{5E6843FF-ED86-4023-8DA8-2FB76F004828}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{6E6BCDC9-8A41-419A-9636-34E1088590BB}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{AAECC0B6-15FD-47B6-8725-3A9C4F796B93}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{EA134A5D-CD21-4BD8-9E60-7DBFE7ACF571}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{06D26CD4-05D1-4C01-8D1A-5CEEDAFFEDA0}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{44A81760-AE5C-4028-88F7-7C5CD9187BE9}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{45D1F84D-5E88-45EF-8B64-925A7FE647FD}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{D3E67E38-D60F-4FB6-BA61-E4472026D436}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{23485801-6B40-467E-9DE2-BF472C1BAB16}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{AB91A67A-39B7-4EC7-9179-5316F68CA18E}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{5C02195F-489B-407F-B5A7-62056AF4B667}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{9091B5A0-474C-4FEF-BED1-093B1A0207EB}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{A4C7C128-BF11-4531-B6AD-B167EE4B2634}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{987748DD-20E9-4EF2-A69B-0B16857BEF7B}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{329A4923-725B-47B6-87A1-28608AA140F9}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1A558F66-671F-4746-926E-55A9D8EBC936}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{3CA8305D-2D69-42E0-86AC-A5A6F6DB03CD}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{7DFECBD5-54FD-49ED-9B86-E439BD70CB95}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{281B4749-0448-4B85-AFD8-58FD45A374FC}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{4ABF0BC1-F698-4508-84BC-EDA7BB2E3264}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{65D9C8AC-4E7F-48A2-B68A-92B83424422B}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{257E770F-340E-4C55-8299-2EEE88614489}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{B29870CF-4490-4151-8437-BB0CF6332CAA}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{5DEF3D51-06D6-48D2-A006-CBF3DD4143A8}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{AE536141-3D06-4775-8512-1712D77F4262}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{51BE3F01-CC0E-4BE3-9F4E-C1B04CA095CC}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{7C962754-5241-4F8A-8AA7-12A60CCDAF03}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{1CAED783-3DB1-4292-89AE-C62D16A03FEE}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{B6CEAD50-7EF2-46D8-88D5-ADA127141626}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{286B2D29-312C-4CF0-95D4-4456A8D24533}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{DCA191AC-524F-4DA9-AB99-2164DD211F09}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{12C1F08B-54C1-4AB7-9807-812D9F886123}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{94FBF335-6696-4996-AA82-AED4A03591A2}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{BB2816B0-AD20-49CE-9013-BB2B3FB88804}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{EB0B8A3D-EFBF-4B14-BB09-0F1DF7255183}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{94A22B60-E504-48CE-8FC8-B70CC80E8394}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{D7289A0F-4AB2-4ED6-B6C7-0C076BD04868}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{FC4C50CE-D6DA-45CD-B8B2-DF5E9A9314B3}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{936251C2-B813-4C23-A6F8-73CA8EEED0FE}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{786CE3B1-0FA2-483D-879B-0B1066D86E5D}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{A15C65FD-658A-4470-865E-B3A6A224042E}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{265530CF-7256-4DB0-A7A8-93A9BEED8086}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{65200E58-689E-4143-AD80-31BBDE6E67A8}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{FCD2DF72-B6CC-4B21-A06C-246C4338C25D}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{2839F1F8-5EE6-41BA-BCD4-F1023BD34555}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{5F989E3A-A2B7-436A-8DB2-7FFD799283E6}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{0046F44F-B5C7-4E3B-9B7C-0DC00C82D5D7}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{3472A895-8914-43C5-B63E-B2A58B1A5BBE}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{BFEA4FB9-4E29-415E-A12D-E84E0D54384C}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{0838D6BB-6DDA-40D2-910B-B8CD4975DD16}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{4FF06CE6-8203-45FC-A842-6A8C1597B768}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{27CC1770-E699-4F55-9910-C02732BE98B0}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{3DB7FB14-1EFC-49E0-9373-BD6705FA00AA}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{EDF9C397-4B38-4363-BBC1-58ECB90604A0}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{19F5304E-44D3-40F2-82B9-B106B3A5621E}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{5969C2F3-070F-4992-A443-C0684E7AA0C2}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{C463AA31-685F-40D8-9B6C-52BA2A1EFE7C}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{D31C1BDF-D130-444E-9F84-5B33AEE87BF0}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{69636A5B-4109-4477-9328-2DCD1BD1CD30}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{54167CBF-E0C5-4F54-AFAD-A71673A0195A}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{C66775A5-B5DA-443E-987A-9B2CEFF0844B}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{B4CADF63-FC3F-46E6-A687-48FC9204B115}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{6B7B141D-92F2-4E73-83E5-31E9CABFD7DF}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{29CC5B5D-5B59-416C-A8F2-1BEB7ACBCCDB}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{8B5A7D6C-18F1-4642-9E0F-3F8DF0A27D9E}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{1CD01423-7003-4026-9BAE-8C2B48BD62B3}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{87FE1DB9-F853-4B3C-9C0D-39C78BFB5D63}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{325942A3-CA3C-4D76-A275-16FCF6C22AA0}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{B03EB8D5-CDDE-4D64-84E8-260B8E1A021A}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{0B7BC047-C885-4AA9-B6ED-29C774627415}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{70AC3305-271B-42A9-A28F-80EC3196AE9E}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{3315BCA3-C9CB-40AC-8340-B50F573EAA0D}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{49867D8F-DEEE-44CD-8D8A-30F86CB3405A}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{0CC3F828-6739-43C3-B0D3-0BB1E817B942}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{53159501-5D8A-49EC-9CD8-C214BD7659A8}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{14D9A340-6384-41E3-ADA2-00C77AF92A69}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{9E7AF039-CEA5-4D2E-A4E8-8147E5B96695}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{4EF360BD-841E-47BB-8279-2E007E755290}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{9CAD0CAD-C096-492D-8B9C-4C231E9327B8}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{DFFB204F-E1F3-4161-ADAD-22EB15E816E7}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{813E912B-A8F5-4EC4-BB70-0A8C5D82D402}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{63A01DBA-89E8-4229-B289-D75687E96A7F}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{C917CFB5-1E36-47EC-814B-389DC2C0079B}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{992B12A7-22AA-4BCC-BFDA-A4E589AD5C52}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{02B1B5EA-CE19-4F7A-BB99-DE9A6011C1B0}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{1B0C8CF8-CA00-4C1A-BB5A-5824A5A9A3F1}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{1868699A-3010-4B3C-ACA9-91CAD1D016DA}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{1292C66F-D323-4301-8EBE-88B28DBEE424}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{1862BF4A-32DA-4A56-B56F-97B5F5B2F536}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{BC7CDF19-1170-4F8E-9379-990DED489F9F}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{1352B6BD-8DC6-4415-AE4C-CFEAF4E1204C}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{92EBAFED-CFCD-4D11-A1C0-6A483488C7D1}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{94B61D18-2552-4842-BDFD-6E63B24CDD51}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{D6421D19-A239-4F40-9CD3-FE0466077C05}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{1EAC7C73-2085-4CDC-B412-B07A01F4F2E5}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{9F7CB5EB-A8AE-428B-AB81-0AB9E0984BA5}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{48EFA460-A40B-475A-B60E-639CEE8898D1}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{A4ECD79E-F065-4683-97F8-704DA474B73A}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{148AFDAD-D693-4919-B338-A698D3243075}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{3D5BD63A-B86F-49F3-9B5B-1AFB3A5E7D07}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{F91854A4-FF23-4FDD-9848-E7B5F634BC7A}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{EBBE4EF3-375C-4BD6-8BFB-818E40284F98}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{6357368D-ED36-4628-9E0D-7D7D93BFF9DF}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{6AB55E2C-F73F-4A66-8D82-31DCC6845463}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{9AE17F24-B491-4F9E-BDDF-1115A7E9E52D}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{E060A89F-17F4-46F8-9A95-BD5D4C0C9338}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{A12F960F-FB19-4BF6-9757-B4C2DB17908D}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{2D8EE60D-5BCA-45F6-89F8-14698386AC73}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{DBD680C2-A054-49E5-8B69-95154FC4191D}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{4FC15582-01BA-40B6-A502-EB2C02808E91}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{9308ADE3-4E43-4211-B489-9DB19698C1D6}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{F635D4DD-C48E-4747-A15E-9CC95E713BB4}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{5351FFDE-CE82-4A6E-A608-C3573F51F898}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{0DC8D600-386D-47DA-82C0-1AF2F144C301}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{EA35CE21-90E4-432E-80E8-E1BEDBB99BF2}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{2E4E9196-56E3-4E85-9EDC-F1D5D9BC1A7A}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{07202EFD-6EFE-4689-A7E8-5C55123DE45E}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{7414D102-796A-4032-8690-7FC39D2687D8}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{A66DCE1A-1F9E-4CDA-B962-3DCF4E03CAE6}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{C3D4E6F8-0FA2-4849-8D18-5F10C3676D6C}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{28E59418-E163-4181-ACDA-272431F98371}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{39C3E324-F622-44BF-BB75-B6D92C7030AB}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{F54570C7-D089-43EA-88EF-E16EF4AC8E4F}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{2383F057-0C0D-4794-993E-27E3EE6B982B}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{2B3E1F64-AFE2-45F1-92FC-4275A0E02F95}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{DC6631C7-E19C-4B9E-9DDD-FDD121C1CF58}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{97B48453-7461-4DF2-87C9-DB0CBA893E55}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{B71E76F6-E616-4DEB-B158-BB06FA6AFDB2}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{DE2AC2DD-0DA7-4C77-BD1E-CF4390EAA21B}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{87025FCA-4BC3-479F-8EF2-AEBBD5F020F3}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{AB3E9F8B-3A30-4DF3-84D7-1EC33BEAD629}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{AA7BF451-30F7-4E89-BCB3-890B7A78AB07}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{ED854A9D-E4DC-4202-90F7-EDC4F974EA41}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{701595D2-C483-42B6-A623-1D93CB8CED5B}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{066A88E3-3BEC-492C-9C68-748A8809B37D}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{2512F85D-567C-4496-994B-4A55F7F96087}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{2ECFA7FA-73B2-4830-8DFC-A9B2DE3E195F}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{295B373E-0BFA-41DC-B797-BF1E1A3949A8}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{12919CC9-5743-4090-9BE3-0EDAD298795D}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{4FF275E5-C002-4AC0-96A4-1077F5F6F8F0}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{12ED7494-3A93-4735-9E6F-37CAF8603B96}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{C1C0A401-EA06-40A3-85AA-B11FCF1A2271}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{24B15763-226C-4A50-AC0C-43AA07E25650}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{FCECBA06-4094-4165-9B61-561B78C8BBFB}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{5FA8EB4A-ABDF-4A6D-A746-9BBADDACB162}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{F4E83ABF-5816-4871-A7B6-D90797A9CD0A}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{FD860998-40A2-4374-B939-C1AB34C3E25F}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{7E7AFA5F-8698-45AB-920F-56FB1640249B}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{312237BF-5AC1-4D7D-85BD-F2DCDCC6C62B}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{815C7EAF-5389-425E-8DBA-79112EF9EFED}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{C641D380-249D-4397-AE18-C81F3050DDA7}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{BFAD4D59-C523-4190-BE8F-B60589D0428E}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{A45FC13C-5B20-49BB-8FFC-187D70F8B4F9}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{462EC1D6-5186-4DD4-841E-8A4A6B0B8F33}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{05AAD00F-B605-49C9-A3BC-BF1BCE277FBE}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{38ED941E-6FBE-42F2-AA5A-E1022DD2C535}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{8B56C74F-C32B-493A-ABA9-15D6A6A1B5A3}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{2756EC4F-069D-48F1-A00B-2928CB36B563}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{28C50598-115F-470C-82DE-D8F0A6BCC396}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{196459BE-7E5D-4700-BE8B-A51EB2900161}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{D633F291-ACB2-4529-B7EA-C998A243E179}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{5D38C6D8-01F1-4DE4-9112-1964962DBC13}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{7FC4CC46-010F-4DB3-82E6-1701DA414B9A}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{BA7FDD4E-CA48-4BD5-A45E-2D3E3179E376}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{1889FED6-8661-46FC-A894-A0834C9B5A3F}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{1AA18403-F72A-4D30-9E43-2CA1AA2B7745}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{52765CBE-1273-4C64-8DEF-06357F46DC00}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{A85B16C2-6B5E-4E92-BE1A-878D2553E23B}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{35A90E7B-0298-4D6F-86BB-5EDA130DC4CC}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{6388DE11-00AC-4E66-9913-A4D65662874A}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{4AB4AF9A-C35B-46BE-8012-2E2C5E3D0CCC}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{529627D9-5301-4CD0-8E43-9B518DA4143B}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{61110DE0-8B6D-4403-8C57-1DEDEF784EA5}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{70464472-6FE9-4F64-ADA8-904FDE27ACFC}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{5CF73635-BC95-4775-A55B-4C60A88B3263}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{8898C821-C284-4E54-91DA-2F08B41A9783}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{CB6E8D85-C49E-490A-860E-5093239CF93F}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{28FB9897-DB45-4153-8622-4CFF9F2C2F92}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{0951E8A9-B94D-4627-A78C-745DCF948DC0}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{23F2FC1D-27DD-4857-B444-E65EA7BAF9F3}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{BF1E5389-5799-42F9-AC42-D2AD9617FD83}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{05418972-5901-46FE-AD05-3DD6B8F93106}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{8CDFCBE3-0F4A-4495-9E73-3DED1326C0E8}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{BC69173D-3220-4A41-AB6D-DB733588DAEA}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{E4EC2411-EEDD-43DF-A0EC-7602ED96201D}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{8A55A189-611A-403F-A9FA-8078457DF252}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{4F4428BC-CE1A-44A2-AF24-A0163AC5F7C2}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{77902A8E-9204-43A3-B9F0-DC70E3F47F9E}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{779D59C7-A043-401C-9F7C-E45CF9716D88}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{CE67F520-EC24-4883-84C1-88316AB36506}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{A5014445-56B2-4211-A7D8-A16FCD51F725}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{790BAD38-D210-4819-92EE-94F55E67FC1F}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{D9C2B56B-8E78-4F79-9A34-D5CB727DAA51}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{9DB48F4F-E378-4AE8-8BD8-8FB1A86BF25A}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{91CBABF2-553C-4C22-B25C-0E80F0B0AC82}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{BE9AC099-F5CD-40CC-819A-E6BB80E2A16A}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{B4F63920-E394-4AE7-ACE4-4E8F324DC4C3}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{6C54CCBC-8A12-49A9-8845-C9942D4190EE}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{3702CB4B-2B56-4364-A436-E486709139B5}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{DDCEB209-E39E-4398-9A0C-D2E127E69465}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{271CEBE0-7D4D-4591-B98F-9457C1AE3FB7}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{91DBFD4F-8C59-4786-8B88-3EFFE643C646}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{75A34524-F205-401D-9D46-5D6C671B466F}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{ECC1B4FF-A2F9-415F-A121-9538067B4EE6}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{A77B9F4D-93CB-48F0-87C1-E32AE71A39F6}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{5B2B19F5-250C-46CC-951A-25698B293D4E}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{16462786-BC2E-4096-A72B-08FDB7228679}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{E51BF5EF-ECB3-434E-8589-3FF876EC2381}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{2688B719-A3CF-49E9-907C-CD57A43C164A}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{DFC32DFC-5C55-4174-B2E9-C195E0020EC9}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{3109A517-1981-4CBD-9B88-94900A185C7A}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{0DF3C7EB-5D7C-4D91-922E-D0DE25DDEEEE}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{4A2C3DCA-8841-4242-94D8-BC0DF583641F}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{BD6DF95F-D222-4107-A9F6-FA809257D662}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{EE073E2E-6E22-4F66-A92C-A1A41A40DAD9}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{C31FD7F9-7C25-4FCF-A609-2AECCBABDA11}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{8C9EA9A1-4464-47B6-BC47-8306D7E3E63A}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{B33B95CF-9EE5-4205-96FE-3892E8905C9E}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{EE107AFF-3850-4D00-A67A-8E01C2D78597}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{63709748-979E-4A56-B5A9-0806F82CC9D8}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{9D647D4B-A771-4AA3-A128-E79872F3EE21}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{730AB0CB-CD7B-4CF6-9FF1-326CF86E4F7E}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{A20A45F8-5140-4BC5-8BDA-698562C3B1F0}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{0F501921-D1B5-46C5-9212-6D3C197273F5}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{3D859063-4ED4-4C46-86CF-F8956305228F}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{448C3116-9AFF-4236-B2D7-08C5D2C084D6}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{781922BD-5355-40AE-AF6F-A60E16A28457}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{DA72F9A7-D093-4FC6-AC41-0E196D36F042}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{DADC65B6-DEBA-4A1D-A817-E87C51CD7726}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{F5444879-13B1-403B-BF87-5B93DE07A3CB}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{BA4BAB01-A4F3-4865-B571-5042DC10974C}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{5BB6F818-95C8-4FD5-A511-828A846261D1}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{78878C52-E25C-4780-B8D0-186FA1AA72C9}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{FCD7067A-379F-446B-9653-4DB223858661}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{FE96D1AA-75BE-4F95-A79C-91F025D0C1B6}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{F7FBA1B2-886D-4E30-90A9-3EC69FF68677}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{00DAA909-D0A1-475F-9E8A-B1C5B796A060}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{708F4FDD-301D-406D-9EDE-935C76163F71}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{F000F50F-D2E8-4357-A890-CF7102790533}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{7094EA2D-5F8B-4616-90AF-A5A757FFC992}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{FAEE3F2E-695A-47A9-AA77-6CD1CEC4D2BB}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{1B22E4E6-B141-41A0-949C-81DEBDAB8E9D}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{2BD6D9F9-F044-4CCB-B6CD-BAB2C5034423}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{B2765724-25CC-4B42-A5D6-E2EA4FA9088C}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{339299BE-E85D-4787-95A4-CDF4B1BA6916}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{E7A6AC2C-4732-4B17-9388-D73653D5E531}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{39634C27-6914-4168-8DC7-822A8BE0D3D0}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{69269557-14F5-4419-95B1-D4C8495EFD90}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{3D24443C-7B52-4622-9129-F6CC288BC8CD}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{90F09074-D7B4-4D87-A7DF-6EB82301136D}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{88D40041-AC43-45F6-9A63-42E3FA64867C}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{5C0CAB03-D17A-49DE-B8B8-6216FEE356EA}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{81CF6060-2F4B-4F0B-BAF2-445CCFA70D0E}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{FCAE3F67-832F-4034-B349-AA5110EF8C29}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{E6FF2E0C-0541-4DB0-9CC5-43BCB44E032A}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{9B43F5B2-9ACC-4AD9-A47D-F49E273497EA}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{41E1A65C-CC65-4B8A-8ABF-7BB9C18304FE}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{A2FD762A-FD56-48B2-8A5C-1C7DD125D83D}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{38FA7C7D-1DF1-4C1A-AD40-ED8533387C61}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{C80ED523-03EA-40C9-94C1-8B90F2CFC1A9}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{AC71938E-0C7E-41D4-A562-E7E39421A2F1}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{88604616-1245-488E-A7C5-B2CAB6A4F59D}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{503E522A-892D-4BD4-A817-65E9F073DC94}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{FA218796-9B35-4AEE-BCE3-373AAF28BFBE}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{01CFAD7E-0C77-49F6-8258-DA521E204D4E}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{0B97EF82-1DE0-4143-9A9F-9B463991AA24}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{0E13CD14-0A3C-4775-8954-C76CB52A45A2}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{65019260-7066-41B3-89E4-3EF989772EA4}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{F9203890-B6AF-419E-99A3-48F80488E8BD}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{7AA91B5A-F0EF-45F6-A56E-66A2848816C0}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{A46B3BC1-731D-4442-9848-D58CF94CC768}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{D7B1090F-B63A-470B-BFCA-84066AC05CB7}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{19969AD6-0CCF-4AF2-B90D-E113566282E9}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{CB9966AE-29C9-455C-A75A-90A11E255EA6}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{B24FE2A6-17BF-4F75-BFFC-9271BA04877B}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{D0C2950F-A18D-43FE-88E1-FF566723FD05}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{F778282C-A2BD-495A-8E2E-D3AC2B9E4FD6}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{65C20C47-D720-4F5F-976E-36F333A91308}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{147994F6-A664-4EB2-AEBA-9EF5409EA377}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{C23BB7D1-5635-47A8-BE62-526D82372610}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{3FC65942-3042-4F64-8CBB-2765BB12FB18}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{D4DA2143-D792-4559-AFA6-D75D017AF7DF}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{E6EC85DD-B038-4E24-B41B-6D9191C279ED}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{FC38AAF5-F8E2-4408-A59B-92ABE7C9B3F8}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{5144DF52-0E31-4483-AC0A-5ED405D5EFFC}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{22E01950-09F8-4B16-90E0-02AC2EE5FA8F}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{8027A49C-47D2-4EA2-8FCA-FA0708446EE6}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{AE832FFE-4FD7-4943-8438-F68FE9BA5D7F}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{32F20DDD-2250-4240-8FD5-374F859D9223}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{B2582328-202F-40B3-A037-6515613F7781}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{E6DCAB45-89D7-44B9-A1DA-59841E9EE94D}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{CE118CD9-53F8-4EF3-B045-5F77F67BB5A3}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{75D4CA6D-4669-49FD-8F77-C860ECFF64E9}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{D838DA5E-E84F-4C13-9746-B25DCEBAF953}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{98B6F5FA-5A88-4B26-88CF-48E3E8561EF5}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{B3403059-8B45-4360-9F73-BBD6D38F2A5D}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{9BBF9E22-6DD0-4AD8-934F-F6FBB034224D}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{A9180EF5-09FA-4A34-A59C-14FF1AD6CDD6}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{E80674A1-0219-4EDE-87A9-B1792D78CCB2}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{EA0AB26B-8E6A-4DF0-A937-B6929168207B}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{2B92535C-6EE5-4192-965A-4E2D3C89822A}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{3F6F976C-5BC2-4A2C-ACE7-43C7AAB1F9FE}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{A2D7C1A8-B5BC-4292-816C-07B1D0B2C7B9}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{B28441DA-4CA9-417A-B16F-E79B3A7C79C6}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{1C3E27E3-D8CB-42D3-A175-4B541038B854}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{FE4127F3-9684-4610-9877-E39DEFD5F885}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{6ABCCA89-09BB-4D5F-8DA9-6B65FF3148FD}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{14CD8662-7602-4A52-B2F8-3CC7729FCFF7}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{B689C46A-0B3D-43FD-8A56-EECC8F40AAC3}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{0538FA15-8127-4247-82D8-AA0173F6BA0C}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{A2510F88-6B1E-4D8B-9AFD-D2752659F7FE}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{4CD716F7-6C1C-4BA9-97D7-193D750EB00C}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{3F2318ED-A67C-4838-AF23-64BD61D384FA}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{F14D7931-8338-4689-BDC2-59D104CB2699}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{F6871AAB-41C4-490F-81DD-CB902C17D649}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{9E8246FD-0CFA-416A-8864-3B636A14C05A}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{2318DB38-31B6-4580-8B07-A343EB554431}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{D79F84AE-2178-4069-AADA-E3DEBF2A70A0}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{135D2054-C6A7-4465-89A5-A0DED5CE5F12}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{F12BF389-B607-423F-84D3-B581EF31D23D}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{434BAB75-3C48-437F-B12F-F1D7A263DF19}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{8FBAE6BB-4159-48E9-98F7-923CC5AE3D3B}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{3A9AC9E0-CC9D-4CAA-B080-9D487240B089}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{228417E4-FFE7-4ACA-8EFB-0235F7B7252A}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{8D9328EB-79FD-427E-82D8-E42D41B3B793}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{2302938D-DE45-48BA-B21E-9E9C687441CD}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{D5713DB0-E574-436B-B952-9D2929B0A60B}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{6CDDDC92-79AA-4758-A113-8D24FFF4FE00}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{1F57FA2E-0614-41B7-AFC0-0F7B4688D0CC}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{AD025811-8234-4450-B637-9E3339637D05}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{0C10A5E6-A7A1-4882-807B-EB6A3CB47391}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{707E7198-1091-4A97-8FD2-CCF651FDC780}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{13FC4966-1C45-496B-A074-704F50E7A669}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{D0030A64-AC03-44FC-BEA1-1955A0B0708E}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{3EFD3626-21A7-4BA4-AAB8-2E3A435960F3}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{C468B3E9-A41D-41C0-B1EA-51FAE66BA296}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{1A893F68-D3D2-4F12-8D01-924FC3A55C04}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{A52D426F-5108-4CD8-BD8C-BE32793392A1}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{F52319A1-CBEC-43D2-93E9-4556741D5D16}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{7E81D3E3-C511-4BA4-8CB9-BEE9138F57A4}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{F4D8A3AD-B544-4826-9856-A9DFCDC5CC68}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{85C9D19A-1F22-4E65-B0D3-F09BC49172C7}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{7FCAA338-2BE3-45BF-B1C1-55A7470EC415}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{0D3CF2E1-EC3E-43E6-86F9-A807512ECC00}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{DA292043-07D7-4178-96F7-404BD5BA4C15}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{D77757B0-FF0E-4BF5-93C1-568E35AB83BD}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{D987CDAA-A6FD-4281-B40B-D7B80B0EF3DE}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{FB2D19F4-D771-4238-8AEA-6BC84CB9A17E}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{5B6EF13B-3566-4D1A-9D5E-969035DDD4A5}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{DAEAEED2-B21E-4EAD-A6CA-B83D8547BF7D}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{84C7C167-EA51-4F45-83D2-DBE53EAAFD10}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{45343595-05DC-46BF-9BD8-B50DC6D758D5}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{627522DD-E6C5-4A01-8243-18F9ADC67EF0}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{DBE8CE52-7006-4CB7-A073-22705B69DB13}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{D8193B89-24FF-419A-B189-8D6F659F8659}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{0684A477-C0F0-4C8D-80BC-1529DF4103A4}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{FAAE7890-740D-4D27-8E2A-E0441F57ED65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId310"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D304431C-C6E2-4D19-BFBB-C29B78F238D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E87E9C-4B67-42D9-91A1-6C70BAC42BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="801">
   <si>
     <t>titulo</t>
   </si>
@@ -2263,6 +2263,180 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/7684a4aa-685e-4e80-b180-5a0ff2482347?title=Infra.commerce%20%7C%20Fabio%20B%20(RI)</t>
+  </si>
+  <si>
+    <t>Cash and Carry Day @ IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/39d90a30-6635-4233-a992-53c4566843ea?title=Cash%20and%20Carry%20Day%20@%20IBBA</t>
+  </si>
+  <si>
+    <t>Atacadão - Marco Oliveira (CFO) | C&amp;C Day @IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ca649b0a-30ac-44b2-87b7-0d3664acea9f?title=Atacad%C3%A3o%20-%20Marco%20Oliveira%20(CFO)%20%7C%20C&amp;C%20Day%20@IBBA</t>
+  </si>
+  <si>
+    <t>Grupo Tenda | C&amp;C Day @IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b56391e0-a17a-425e-83ba-7e5a9145e7b5?title=Grupo%20Tenda%20%7C%20C&amp;C%20Day%20@IBBA</t>
+  </si>
+  <si>
+    <t>Rede Dor @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/93a16ec1-0f80-490c-9cb1-7fcd788783a4?title=Rede%20Dor%20@%20BBI</t>
+  </si>
+  <si>
+    <t>MRV | Small grou com RI @ Bradesco</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bc54e9ba-85e1-483e-a148-70c2e3abca4f?title=MRV%20%7C%20Small%20grou%20com%20RI%20@%20Bradesco</t>
+  </si>
+  <si>
+    <t>C&amp;A - Small Group com RI @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5a418141-4a3b-2944-a724-310330b7fbf5?title=C&amp;A%20-%20Small%20Group%20com%20RI%20@%20BBI</t>
+  </si>
+  <si>
+    <t>Tendências do Varejo - Websession com Luiz Guanais @BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fac31485-0d64-4014-ee84-4df7974f435a?title=Tend%C3%AAncias%20do%20Varejo%20-%20Websession%20com%20Luiz%20Guanais%20@BTG</t>
+  </si>
+  <si>
+    <t>Group Meeting with ETNA - @Citi</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3c679bb8-4291-408f-2c86-95f2d185193e?title=Group%20Meeting%20with%20ETNA%20-%20@Citi</t>
+  </si>
+  <si>
+    <t>Ecommerce | Conversa com CEO da Bring.it (seller)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/985cf9f3-8a77-1806-9012-0c08cd99ed35?title=Ecommerce%20%7C%20Conversa%20com%20CEO%20da%20Bring.it%20(seller)</t>
+  </si>
+  <si>
+    <t>Fernando Scarpellini Pedroso | Hospital Unimed RS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/26d77364-585f-4bda-94f4-c0c2fdb7caeb?title=Fernando%20Scarpellini%20Pedroso%20%7C%20Hospital%20Unimed%20RS</t>
+  </si>
+  <si>
+    <t>GNDI @ BBI - Marcelo Moreira CFO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5bc69d85-0ae6-4061-86b6-65b89f751739?title=GNDI%20@%20BBI%20-%20Marcelo%20Moreira%20CFO</t>
+  </si>
+  <si>
+    <t>SUZANO | Bradesco Investment Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/51a5fa5a-e2a8-4b3d-a0f2-35fe6b68d292?title=SUZANO%20%7C%20Bradesco%20Investment%20Conference</t>
+  </si>
+  <si>
+    <t>Reunião com RI Mitre</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7718fe71-290a-7066-80fc-d166ff8c068a?title=Reuni%C3%A3o%20com%20RI%20Mitre</t>
+  </si>
+  <si>
+    <t>Multiplan @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/45c8e519-b94b-4390-9d6e-0e8905917016?title=Multiplan%20@%20BBI</t>
+  </si>
+  <si>
+    <t>Kora | CEO Palmas Medical e Santa Thereza (TO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/28e85eaf-337f-4fa4-a93a-b95f966e8aa7?title=Kora%20%7C%20CEO%20Palmas%20Medical%20e%20Santa%20Thereza%20(TO)</t>
+  </si>
+  <si>
+    <t>Hapvida @ BBI | CFO Mauricio Teixeira / DRI Guilherme Nahuz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4bc846f8-e31c-4263-917e-4c859ae293a5?title=Hapvida%20@%20BBI%20%7C%20CFO%20Mauricio%20Teixeira%20/%20DRI%20Guilherme%20Nahuz</t>
+  </si>
+  <si>
+    <t>VVAR | Small group com mgmt - Helisson e Padilha @BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9617f691-7029-067f-a11a-d18ee41a3f2e?title=VVAR%20%7C%20Small%20group%20com%20mgmt%20-%20Helisson%20e%20Padilha%20@BBI</t>
+  </si>
+  <si>
+    <t>Kora | Unimed Cuiaba</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4c8943fa-0280-4ba3-8e1c-302fe498450f?title=Kora%20%7C%20Unimed%20Cuiaba</t>
+  </si>
+  <si>
+    <t>ULTRAPAR | Bradesco Investment Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8e0afe97-b4af-4c14-a5b4-187f34c5e2ef?title=ULTRAPAR%20%7C%20Bradesco%20Investment%20Conference</t>
+  </si>
+  <si>
+    <t>Oliveira Trust | Papo com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ebd6cc58-81a7-dd37-0e7d-0d5503ccb7a7?title=Oliveira%20Trust%20%7C%20Papo%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>CTC | Papo com Fernando Reinach</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1fab9d28-1441-4e77-b989-a24d1c224f07?title=CTC%20%7C%20Papo%20com%20Fernando%20Reinach</t>
+  </si>
+  <si>
+    <t>Totvs | BBI Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/117bda07-e4e3-4bb3-9c51-32280218be52?title=Totvs%20%7C%20BBI%20Conference</t>
+  </si>
+  <si>
+    <t>Infracommerce | Reunião com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/97aa9c51-0166-4486-bf09-fb8cb72e0a3a?title=Infracommerce%20%7C%20Reuni%C3%A3o%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>MGLU | Call com Ex-head operações logísticas e estratégia</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f7f95d72-51e2-1418-7158-58d3368ce96d?title=MGLU%20%7C%20Call%20com%20Ex-head%20opera%C3%A7%C3%B5es%20log%C3%ADsticas%20e%20estrat%C3%A9gia</t>
+  </si>
+  <si>
+    <t>Infracommerce | Synapcom</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0f8035be-9b9f-4600-96f9-70aa0cd6fe38?title=Infracommerce%20%7C%20Synapcom</t>
+  </si>
+  <si>
+    <t>PETRORIO | Bradesco Investment Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/60259c65-27db-40d5-a315-53aaf683d9a6?title=PETRORIO%20%7C%20Bradesco%20Investment%20Conference</t>
+  </si>
+  <si>
+    <t>Competição entre bancosundefined fintechs e cooperativas | Brasil | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c4dfdc62-888c-4f11-8cb9-a62c5325b781?title=Competi%C3%A7%C3%A3o%20entre%20bancos,%20fintechs%20e%20cooperativas%20%7C%20Brasil%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Kalunga | Management @ UBS BB</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6a66cd8e-078e-7b50-1dfd-12fee48af921?title=Kalunga%20%7C%20Management%20@%20UBS%20BB</t>
+  </si>
+  <si>
+    <t>Infracommerce | Walter Cardozo (ex-CFO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5220929c-5ac5-427a-885d-f432e8991017?title=Infracommerce%20%7C%20Walter%20Cardozo%20(ex-CFO)</t>
   </si>
 </sst>
 </file>
@@ -2660,11 +2834,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5648,352 +5820,613 @@
         <v>742</v>
       </c>
     </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>743</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>745</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>747</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>749</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>751</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>753</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>755</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>757</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>759</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>761</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>763</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>765</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>769</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>771</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>773</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>775</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>777</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>779</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>781</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>783</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>785</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>787</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>789</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>791</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>793</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>795</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>797</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>799</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1A558F66-671F-4746-926E-55A9D8EBC936}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{3CA8305D-2D69-42E0-86AC-A5A6F6DB03CD}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{7DFECBD5-54FD-49ED-9B86-E439BD70CB95}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{281B4749-0448-4B85-AFD8-58FD45A374FC}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{4ABF0BC1-F698-4508-84BC-EDA7BB2E3264}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{65D9C8AC-4E7F-48A2-B68A-92B83424422B}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{257E770F-340E-4C55-8299-2EEE88614489}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{B29870CF-4490-4151-8437-BB0CF6332CAA}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{5DEF3D51-06D6-48D2-A006-CBF3DD4143A8}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{AE536141-3D06-4775-8512-1712D77F4262}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{51BE3F01-CC0E-4BE3-9F4E-C1B04CA095CC}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{7C962754-5241-4F8A-8AA7-12A60CCDAF03}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{1CAED783-3DB1-4292-89AE-C62D16A03FEE}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{B6CEAD50-7EF2-46D8-88D5-ADA127141626}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{286B2D29-312C-4CF0-95D4-4456A8D24533}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{DCA191AC-524F-4DA9-AB99-2164DD211F09}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{12C1F08B-54C1-4AB7-9807-812D9F886123}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{94FBF335-6696-4996-AA82-AED4A03591A2}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{BB2816B0-AD20-49CE-9013-BB2B3FB88804}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{EB0B8A3D-EFBF-4B14-BB09-0F1DF7255183}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{94A22B60-E504-48CE-8FC8-B70CC80E8394}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{D7289A0F-4AB2-4ED6-B6C7-0C076BD04868}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{FC4C50CE-D6DA-45CD-B8B2-DF5E9A9314B3}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{936251C2-B813-4C23-A6F8-73CA8EEED0FE}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{786CE3B1-0FA2-483D-879B-0B1066D86E5D}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{A15C65FD-658A-4470-865E-B3A6A224042E}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{265530CF-7256-4DB0-A7A8-93A9BEED8086}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{65200E58-689E-4143-AD80-31BBDE6E67A8}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{FCD2DF72-B6CC-4B21-A06C-246C4338C25D}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{2839F1F8-5EE6-41BA-BCD4-F1023BD34555}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{5F989E3A-A2B7-436A-8DB2-7FFD799283E6}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{0046F44F-B5C7-4E3B-9B7C-0DC00C82D5D7}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{3472A895-8914-43C5-B63E-B2A58B1A5BBE}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{BFEA4FB9-4E29-415E-A12D-E84E0D54384C}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{0838D6BB-6DDA-40D2-910B-B8CD4975DD16}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{4FF06CE6-8203-45FC-A842-6A8C1597B768}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{27CC1770-E699-4F55-9910-C02732BE98B0}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{3DB7FB14-1EFC-49E0-9373-BD6705FA00AA}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{EDF9C397-4B38-4363-BBC1-58ECB90604A0}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{19F5304E-44D3-40F2-82B9-B106B3A5621E}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{5969C2F3-070F-4992-A443-C0684E7AA0C2}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{C463AA31-685F-40D8-9B6C-52BA2A1EFE7C}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{D31C1BDF-D130-444E-9F84-5B33AEE87BF0}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{69636A5B-4109-4477-9328-2DCD1BD1CD30}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{54167CBF-E0C5-4F54-AFAD-A71673A0195A}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{C66775A5-B5DA-443E-987A-9B2CEFF0844B}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{B4CADF63-FC3F-46E6-A687-48FC9204B115}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{6B7B141D-92F2-4E73-83E5-31E9CABFD7DF}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{29CC5B5D-5B59-416C-A8F2-1BEB7ACBCCDB}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{8B5A7D6C-18F1-4642-9E0F-3F8DF0A27D9E}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{1CD01423-7003-4026-9BAE-8C2B48BD62B3}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{87FE1DB9-F853-4B3C-9C0D-39C78BFB5D63}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{325942A3-CA3C-4D76-A275-16FCF6C22AA0}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{B03EB8D5-CDDE-4D64-84E8-260B8E1A021A}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{0B7BC047-C885-4AA9-B6ED-29C774627415}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{70AC3305-271B-42A9-A28F-80EC3196AE9E}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{3315BCA3-C9CB-40AC-8340-B50F573EAA0D}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{49867D8F-DEEE-44CD-8D8A-30F86CB3405A}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{0CC3F828-6739-43C3-B0D3-0BB1E817B942}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{53159501-5D8A-49EC-9CD8-C214BD7659A8}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{14D9A340-6384-41E3-ADA2-00C77AF92A69}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{9E7AF039-CEA5-4D2E-A4E8-8147E5B96695}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{4EF360BD-841E-47BB-8279-2E007E755290}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{9CAD0CAD-C096-492D-8B9C-4C231E9327B8}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{DFFB204F-E1F3-4161-ADAD-22EB15E816E7}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{813E912B-A8F5-4EC4-BB70-0A8C5D82D402}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{63A01DBA-89E8-4229-B289-D75687E96A7F}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{C917CFB5-1E36-47EC-814B-389DC2C0079B}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{992B12A7-22AA-4BCC-BFDA-A4E589AD5C52}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{02B1B5EA-CE19-4F7A-BB99-DE9A6011C1B0}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{1B0C8CF8-CA00-4C1A-BB5A-5824A5A9A3F1}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{1868699A-3010-4B3C-ACA9-91CAD1D016DA}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{1292C66F-D323-4301-8EBE-88B28DBEE424}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{1862BF4A-32DA-4A56-B56F-97B5F5B2F536}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{BC7CDF19-1170-4F8E-9379-990DED489F9F}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{1352B6BD-8DC6-4415-AE4C-CFEAF4E1204C}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{92EBAFED-CFCD-4D11-A1C0-6A483488C7D1}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{94B61D18-2552-4842-BDFD-6E63B24CDD51}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{D6421D19-A239-4F40-9CD3-FE0466077C05}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{1EAC7C73-2085-4CDC-B412-B07A01F4F2E5}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{9F7CB5EB-A8AE-428B-AB81-0AB9E0984BA5}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{48EFA460-A40B-475A-B60E-639CEE8898D1}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{A4ECD79E-F065-4683-97F8-704DA474B73A}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{148AFDAD-D693-4919-B338-A698D3243075}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{3D5BD63A-B86F-49F3-9B5B-1AFB3A5E7D07}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{F91854A4-FF23-4FDD-9848-E7B5F634BC7A}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{EBBE4EF3-375C-4BD6-8BFB-818E40284F98}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{6357368D-ED36-4628-9E0D-7D7D93BFF9DF}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{6AB55E2C-F73F-4A66-8D82-31DCC6845463}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{9AE17F24-B491-4F9E-BDDF-1115A7E9E52D}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{E060A89F-17F4-46F8-9A95-BD5D4C0C9338}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{A12F960F-FB19-4BF6-9757-B4C2DB17908D}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{2D8EE60D-5BCA-45F6-89F8-14698386AC73}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{DBD680C2-A054-49E5-8B69-95154FC4191D}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{4FC15582-01BA-40B6-A502-EB2C02808E91}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{9308ADE3-4E43-4211-B489-9DB19698C1D6}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{F635D4DD-C48E-4747-A15E-9CC95E713BB4}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{5351FFDE-CE82-4A6E-A608-C3573F51F898}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{0DC8D600-386D-47DA-82C0-1AF2F144C301}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{EA35CE21-90E4-432E-80E8-E1BEDBB99BF2}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{2E4E9196-56E3-4E85-9EDC-F1D5D9BC1A7A}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{07202EFD-6EFE-4689-A7E8-5C55123DE45E}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{7414D102-796A-4032-8690-7FC39D2687D8}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{A66DCE1A-1F9E-4CDA-B962-3DCF4E03CAE6}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{C3D4E6F8-0FA2-4849-8D18-5F10C3676D6C}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{28E59418-E163-4181-ACDA-272431F98371}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{39C3E324-F622-44BF-BB75-B6D92C7030AB}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{F54570C7-D089-43EA-88EF-E16EF4AC8E4F}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{2383F057-0C0D-4794-993E-27E3EE6B982B}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{2B3E1F64-AFE2-45F1-92FC-4275A0E02F95}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{DC6631C7-E19C-4B9E-9DDD-FDD121C1CF58}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{97B48453-7461-4DF2-87C9-DB0CBA893E55}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{B71E76F6-E616-4DEB-B158-BB06FA6AFDB2}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{DE2AC2DD-0DA7-4C77-BD1E-CF4390EAA21B}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{87025FCA-4BC3-479F-8EF2-AEBBD5F020F3}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{AB3E9F8B-3A30-4DF3-84D7-1EC33BEAD629}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{AA7BF451-30F7-4E89-BCB3-890B7A78AB07}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{ED854A9D-E4DC-4202-90F7-EDC4F974EA41}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{701595D2-C483-42B6-A623-1D93CB8CED5B}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{066A88E3-3BEC-492C-9C68-748A8809B37D}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{2512F85D-567C-4496-994B-4A55F7F96087}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{2ECFA7FA-73B2-4830-8DFC-A9B2DE3E195F}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{295B373E-0BFA-41DC-B797-BF1E1A3949A8}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{12919CC9-5743-4090-9BE3-0EDAD298795D}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{4FF275E5-C002-4AC0-96A4-1077F5F6F8F0}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{12ED7494-3A93-4735-9E6F-37CAF8603B96}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{C1C0A401-EA06-40A3-85AA-B11FCF1A2271}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{24B15763-226C-4A50-AC0C-43AA07E25650}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{FCECBA06-4094-4165-9B61-561B78C8BBFB}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{5FA8EB4A-ABDF-4A6D-A746-9BBADDACB162}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{F4E83ABF-5816-4871-A7B6-D90797A9CD0A}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{FD860998-40A2-4374-B939-C1AB34C3E25F}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{7E7AFA5F-8698-45AB-920F-56FB1640249B}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{312237BF-5AC1-4D7D-85BD-F2DCDCC6C62B}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{815C7EAF-5389-425E-8DBA-79112EF9EFED}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{C641D380-249D-4397-AE18-C81F3050DDA7}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{BFAD4D59-C523-4190-BE8F-B60589D0428E}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{A45FC13C-5B20-49BB-8FFC-187D70F8B4F9}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{462EC1D6-5186-4DD4-841E-8A4A6B0B8F33}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{05AAD00F-B605-49C9-A3BC-BF1BCE277FBE}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{38ED941E-6FBE-42F2-AA5A-E1022DD2C535}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{8B56C74F-C32B-493A-ABA9-15D6A6A1B5A3}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{2756EC4F-069D-48F1-A00B-2928CB36B563}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{28C50598-115F-470C-82DE-D8F0A6BCC396}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{196459BE-7E5D-4700-BE8B-A51EB2900161}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{D633F291-ACB2-4529-B7EA-C998A243E179}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{5D38C6D8-01F1-4DE4-9112-1964962DBC13}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{7FC4CC46-010F-4DB3-82E6-1701DA414B9A}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{BA7FDD4E-CA48-4BD5-A45E-2D3E3179E376}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{1889FED6-8661-46FC-A894-A0834C9B5A3F}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{1AA18403-F72A-4D30-9E43-2CA1AA2B7745}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{52765CBE-1273-4C64-8DEF-06357F46DC00}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{A85B16C2-6B5E-4E92-BE1A-878D2553E23B}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{35A90E7B-0298-4D6F-86BB-5EDA130DC4CC}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{6388DE11-00AC-4E66-9913-A4D65662874A}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{4AB4AF9A-C35B-46BE-8012-2E2C5E3D0CCC}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{529627D9-5301-4CD0-8E43-9B518DA4143B}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{61110DE0-8B6D-4403-8C57-1DEDEF784EA5}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{70464472-6FE9-4F64-ADA8-904FDE27ACFC}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{5CF73635-BC95-4775-A55B-4C60A88B3263}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{8898C821-C284-4E54-91DA-2F08B41A9783}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{CB6E8D85-C49E-490A-860E-5093239CF93F}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{28FB9897-DB45-4153-8622-4CFF9F2C2F92}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{0951E8A9-B94D-4627-A78C-745DCF948DC0}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{23F2FC1D-27DD-4857-B444-E65EA7BAF9F3}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{BF1E5389-5799-42F9-AC42-D2AD9617FD83}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{05418972-5901-46FE-AD05-3DD6B8F93106}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{8CDFCBE3-0F4A-4495-9E73-3DED1326C0E8}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{BC69173D-3220-4A41-AB6D-DB733588DAEA}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{E4EC2411-EEDD-43DF-A0EC-7602ED96201D}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{8A55A189-611A-403F-A9FA-8078457DF252}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{4F4428BC-CE1A-44A2-AF24-A0163AC5F7C2}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{77902A8E-9204-43A3-B9F0-DC70E3F47F9E}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{779D59C7-A043-401C-9F7C-E45CF9716D88}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{CE67F520-EC24-4883-84C1-88316AB36506}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{A5014445-56B2-4211-A7D8-A16FCD51F725}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{790BAD38-D210-4819-92EE-94F55E67FC1F}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{D9C2B56B-8E78-4F79-9A34-D5CB727DAA51}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{9DB48F4F-E378-4AE8-8BD8-8FB1A86BF25A}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{91CBABF2-553C-4C22-B25C-0E80F0B0AC82}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{BE9AC099-F5CD-40CC-819A-E6BB80E2A16A}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{B4F63920-E394-4AE7-ACE4-4E8F324DC4C3}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{6C54CCBC-8A12-49A9-8845-C9942D4190EE}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{3702CB4B-2B56-4364-A436-E486709139B5}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{DDCEB209-E39E-4398-9A0C-D2E127E69465}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{271CEBE0-7D4D-4591-B98F-9457C1AE3FB7}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{91DBFD4F-8C59-4786-8B88-3EFFE643C646}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{75A34524-F205-401D-9D46-5D6C671B466F}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{ECC1B4FF-A2F9-415F-A121-9538067B4EE6}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{A77B9F4D-93CB-48F0-87C1-E32AE71A39F6}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{5B2B19F5-250C-46CC-951A-25698B293D4E}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{16462786-BC2E-4096-A72B-08FDB7228679}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{E51BF5EF-ECB3-434E-8589-3FF876EC2381}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{2688B719-A3CF-49E9-907C-CD57A43C164A}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{DFC32DFC-5C55-4174-B2E9-C195E0020EC9}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{3109A517-1981-4CBD-9B88-94900A185C7A}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{0DF3C7EB-5D7C-4D91-922E-D0DE25DDEEEE}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{4A2C3DCA-8841-4242-94D8-BC0DF583641F}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{BD6DF95F-D222-4107-A9F6-FA809257D662}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{EE073E2E-6E22-4F66-A92C-A1A41A40DAD9}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{C31FD7F9-7C25-4FCF-A609-2AECCBABDA11}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{8C9EA9A1-4464-47B6-BC47-8306D7E3E63A}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{B33B95CF-9EE5-4205-96FE-3892E8905C9E}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{EE107AFF-3850-4D00-A67A-8E01C2D78597}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{63709748-979E-4A56-B5A9-0806F82CC9D8}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{9D647D4B-A771-4AA3-A128-E79872F3EE21}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{730AB0CB-CD7B-4CF6-9FF1-326CF86E4F7E}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{A20A45F8-5140-4BC5-8BDA-698562C3B1F0}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{0F501921-D1B5-46C5-9212-6D3C197273F5}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{3D859063-4ED4-4C46-86CF-F8956305228F}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{448C3116-9AFF-4236-B2D7-08C5D2C084D6}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{781922BD-5355-40AE-AF6F-A60E16A28457}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{DA72F9A7-D093-4FC6-AC41-0E196D36F042}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{DADC65B6-DEBA-4A1D-A817-E87C51CD7726}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{F5444879-13B1-403B-BF87-5B93DE07A3CB}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{BA4BAB01-A4F3-4865-B571-5042DC10974C}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{5BB6F818-95C8-4FD5-A511-828A846261D1}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{78878C52-E25C-4780-B8D0-186FA1AA72C9}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{FCD7067A-379F-446B-9653-4DB223858661}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{FE96D1AA-75BE-4F95-A79C-91F025D0C1B6}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{F7FBA1B2-886D-4E30-90A9-3EC69FF68677}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{00DAA909-D0A1-475F-9E8A-B1C5B796A060}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{708F4FDD-301D-406D-9EDE-935C76163F71}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{F000F50F-D2E8-4357-A890-CF7102790533}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{7094EA2D-5F8B-4616-90AF-A5A757FFC992}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{FAEE3F2E-695A-47A9-AA77-6CD1CEC4D2BB}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{1B22E4E6-B141-41A0-949C-81DEBDAB8E9D}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{2BD6D9F9-F044-4CCB-B6CD-BAB2C5034423}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{B2765724-25CC-4B42-A5D6-E2EA4FA9088C}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{339299BE-E85D-4787-95A4-CDF4B1BA6916}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{E7A6AC2C-4732-4B17-9388-D73653D5E531}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{39634C27-6914-4168-8DC7-822A8BE0D3D0}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{69269557-14F5-4419-95B1-D4C8495EFD90}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{3D24443C-7B52-4622-9129-F6CC288BC8CD}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{90F09074-D7B4-4D87-A7DF-6EB82301136D}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{88D40041-AC43-45F6-9A63-42E3FA64867C}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{5C0CAB03-D17A-49DE-B8B8-6216FEE356EA}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{81CF6060-2F4B-4F0B-BAF2-445CCFA70D0E}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{FCAE3F67-832F-4034-B349-AA5110EF8C29}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{E6FF2E0C-0541-4DB0-9CC5-43BCB44E032A}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{9B43F5B2-9ACC-4AD9-A47D-F49E273497EA}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{41E1A65C-CC65-4B8A-8ABF-7BB9C18304FE}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{A2FD762A-FD56-48B2-8A5C-1C7DD125D83D}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{38FA7C7D-1DF1-4C1A-AD40-ED8533387C61}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{C80ED523-03EA-40C9-94C1-8B90F2CFC1A9}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{AC71938E-0C7E-41D4-A562-E7E39421A2F1}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{88604616-1245-488E-A7C5-B2CAB6A4F59D}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{503E522A-892D-4BD4-A817-65E9F073DC94}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{FA218796-9B35-4AEE-BCE3-373AAF28BFBE}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{01CFAD7E-0C77-49F6-8258-DA521E204D4E}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{0B97EF82-1DE0-4143-9A9F-9B463991AA24}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{0E13CD14-0A3C-4775-8954-C76CB52A45A2}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{65019260-7066-41B3-89E4-3EF989772EA4}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{F9203890-B6AF-419E-99A3-48F80488E8BD}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{7AA91B5A-F0EF-45F6-A56E-66A2848816C0}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{A46B3BC1-731D-4442-9848-D58CF94CC768}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{D7B1090F-B63A-470B-BFCA-84066AC05CB7}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{19969AD6-0CCF-4AF2-B90D-E113566282E9}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{CB9966AE-29C9-455C-A75A-90A11E255EA6}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{B24FE2A6-17BF-4F75-BFFC-9271BA04877B}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{D0C2950F-A18D-43FE-88E1-FF566723FD05}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{F778282C-A2BD-495A-8E2E-D3AC2B9E4FD6}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{65C20C47-D720-4F5F-976E-36F333A91308}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{147994F6-A664-4EB2-AEBA-9EF5409EA377}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{C23BB7D1-5635-47A8-BE62-526D82372610}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{3FC65942-3042-4F64-8CBB-2765BB12FB18}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{D4DA2143-D792-4559-AFA6-D75D017AF7DF}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{E6EC85DD-B038-4E24-B41B-6D9191C279ED}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{FC38AAF5-F8E2-4408-A59B-92ABE7C9B3F8}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{5144DF52-0E31-4483-AC0A-5ED405D5EFFC}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{22E01950-09F8-4B16-90E0-02AC2EE5FA8F}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{8027A49C-47D2-4EA2-8FCA-FA0708446EE6}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{AE832FFE-4FD7-4943-8438-F68FE9BA5D7F}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{32F20DDD-2250-4240-8FD5-374F859D9223}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{B2582328-202F-40B3-A037-6515613F7781}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{E6DCAB45-89D7-44B9-A1DA-59841E9EE94D}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{CE118CD9-53F8-4EF3-B045-5F77F67BB5A3}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{75D4CA6D-4669-49FD-8F77-C860ECFF64E9}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{D838DA5E-E84F-4C13-9746-B25DCEBAF953}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{98B6F5FA-5A88-4B26-88CF-48E3E8561EF5}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{B3403059-8B45-4360-9F73-BBD6D38F2A5D}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{9BBF9E22-6DD0-4AD8-934F-F6FBB034224D}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{A9180EF5-09FA-4A34-A59C-14FF1AD6CDD6}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{E80674A1-0219-4EDE-87A9-B1792D78CCB2}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{EA0AB26B-8E6A-4DF0-A937-B6929168207B}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{2B92535C-6EE5-4192-965A-4E2D3C89822A}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{3F6F976C-5BC2-4A2C-ACE7-43C7AAB1F9FE}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{A2D7C1A8-B5BC-4292-816C-07B1D0B2C7B9}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{B28441DA-4CA9-417A-B16F-E79B3A7C79C6}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{1C3E27E3-D8CB-42D3-A175-4B541038B854}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{FE4127F3-9684-4610-9877-E39DEFD5F885}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{6ABCCA89-09BB-4D5F-8DA9-6B65FF3148FD}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{14CD8662-7602-4A52-B2F8-3CC7729FCFF7}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{B689C46A-0B3D-43FD-8A56-EECC8F40AAC3}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{0538FA15-8127-4247-82D8-AA0173F6BA0C}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{A2510F88-6B1E-4D8B-9AFD-D2752659F7FE}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{4CD716F7-6C1C-4BA9-97D7-193D750EB00C}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{3F2318ED-A67C-4838-AF23-64BD61D384FA}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{F14D7931-8338-4689-BDC2-59D104CB2699}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{F6871AAB-41C4-490F-81DD-CB902C17D649}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{9E8246FD-0CFA-416A-8864-3B636A14C05A}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{2318DB38-31B6-4580-8B07-A343EB554431}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{D79F84AE-2178-4069-AADA-E3DEBF2A70A0}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{135D2054-C6A7-4465-89A5-A0DED5CE5F12}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{F12BF389-B607-423F-84D3-B581EF31D23D}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{434BAB75-3C48-437F-B12F-F1D7A263DF19}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{8FBAE6BB-4159-48E9-98F7-923CC5AE3D3B}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{3A9AC9E0-CC9D-4CAA-B080-9D487240B089}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{228417E4-FFE7-4ACA-8EFB-0235F7B7252A}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{8D9328EB-79FD-427E-82D8-E42D41B3B793}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{2302938D-DE45-48BA-B21E-9E9C687441CD}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{D5713DB0-E574-436B-B952-9D2929B0A60B}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{6CDDDC92-79AA-4758-A113-8D24FFF4FE00}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{1F57FA2E-0614-41B7-AFC0-0F7B4688D0CC}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{AD025811-8234-4450-B637-9E3339637D05}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{0C10A5E6-A7A1-4882-807B-EB6A3CB47391}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{707E7198-1091-4A97-8FD2-CCF651FDC780}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{13FC4966-1C45-496B-A074-704F50E7A669}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{D0030A64-AC03-44FC-BEA1-1955A0B0708E}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{3EFD3626-21A7-4BA4-AAB8-2E3A435960F3}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{C468B3E9-A41D-41C0-B1EA-51FAE66BA296}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{1A893F68-D3D2-4F12-8D01-924FC3A55C04}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{A52D426F-5108-4CD8-BD8C-BE32793392A1}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{F52319A1-CBEC-43D2-93E9-4556741D5D16}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{7E81D3E3-C511-4BA4-8CB9-BEE9138F57A4}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{F4D8A3AD-B544-4826-9856-A9DFCDC5CC68}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{85C9D19A-1F22-4E65-B0D3-F09BC49172C7}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{7FCAA338-2BE3-45BF-B1C1-55A7470EC415}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{0D3CF2E1-EC3E-43E6-86F9-A807512ECC00}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{DA292043-07D7-4178-96F7-404BD5BA4C15}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{D77757B0-FF0E-4BF5-93C1-568E35AB83BD}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{D987CDAA-A6FD-4281-B40B-D7B80B0EF3DE}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{FB2D19F4-D771-4238-8AEA-6BC84CB9A17E}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{5B6EF13B-3566-4D1A-9D5E-969035DDD4A5}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{DAEAEED2-B21E-4EAD-A6CA-B83D8547BF7D}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{84C7C167-EA51-4F45-83D2-DBE53EAAFD10}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{45343595-05DC-46BF-9BD8-B50DC6D758D5}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{627522DD-E6C5-4A01-8243-18F9ADC67EF0}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{DBE8CE52-7006-4CB7-A073-22705B69DB13}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{D8193B89-24FF-419A-B189-8D6F659F8659}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{0684A477-C0F0-4C8D-80BC-1529DF4103A4}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{FAAE7890-740D-4D27-8E2A-E0441F57ED65}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{A89E191E-291D-408A-9F05-C7457950E38E}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{FBB65BC0-66F3-49D5-92A0-B9A572AE0B42}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{A775034E-2666-4B83-B3EC-B2AF87CD9DD3}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{D143A2B0-1C3F-408E-813B-B954419C6F2C}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{14C487AC-ED94-4466-91F5-C8E954B6389A}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{7F9F88A0-91E7-4347-ABFE-A3DA018977EC}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{F5D66911-F73F-4ADB-A976-C0DEC96271C1}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{7D4A5F02-00C8-445F-8CBC-DE32D8BFAF10}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{52D4E2A5-E535-41C8-BCEC-1D3E746318FB}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{8D290B42-58DE-498C-843E-1EB6C9270CD1}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{C4EEF1BD-62A8-4A88-AE55-E91FBFA08012}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{84212A20-0755-4BEB-B41C-94FE94339797}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{35A2CF26-6F17-439A-8AA6-533E5E414C93}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{FB41DF1D-08CA-4AEB-9F79-63B81859FA6D}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{CEBF6CC9-6A53-49F5-9250-431DD719DB4B}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{AF262EE4-0AAA-4F33-B902-AB81E4B7F826}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{B08ADED1-29C4-43A6-B540-170F7CB8EE6E}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{3CDA0C1C-104F-4CF8-98C5-108448BAB8C1}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{28BF52CB-B7BF-407A-885E-42B9F918D37D}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{88A47427-EAD0-47B0-A5E1-6FDE99541377}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{513804F8-F24D-4B45-B2B3-CA43743B40B1}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{741FACB5-6D12-4F5E-8B07-0559515C0C1F}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{631B6F3C-B79E-49D6-917B-5B6DDD03D755}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{A3C2F012-821C-4270-A2EE-504662F08258}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{5F74EEA4-2135-4C00-AB8D-9B0AF644CC61}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{B19E2024-3C4D-4E65-B724-2D2A5CD6E93A}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{9CAC4C93-BF25-42E0-BA56-B20320AD9FBE}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{552AD3A3-62EE-4D3E-8791-99B39DEE0ADB}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{E767E15B-15C5-425A-9B4B-D37041B37562}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{DF0BA6DE-5CFD-40AA-9A1B-3BCFB5E29408}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{21B42CEC-7642-4C10-AD3C-B5DAD1F903B0}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{41BAB3AA-6907-493C-8574-C53C93DA8E0E}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{C63C9322-6751-45DE-92E4-CD9A868C82A6}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{6CDF4E53-57C5-4806-BA64-107B63A50200}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{C28AB942-4D01-4C85-BBCB-306562E3B551}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{19369F1A-7003-440E-A523-4ECFEC9CEBDB}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{9A85EF82-365F-4883-A7A0-FEA6DA613463}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{05721FBF-B5A0-47D4-BD6D-F5AF409A2BE4}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{04FF8425-6406-41E0-AB21-B53E253B43D9}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{256333D4-188D-4235-A703-3284C08B98C9}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{FBC2D549-7E3D-48EA-A68F-2258FE121D15}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{E6767B88-3C66-43E5-925A-33D5494715A5}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{606ACA3A-874B-43A7-A9CA-42ED70C2B35D}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{41FBFC57-B06B-4D77-9217-570FCDE612CF}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{91370D0C-AC8E-479A-A627-3092E065E6B8}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{F2E50FD3-47DB-4000-A65D-0CE18F51F031}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{6BF24562-1ED5-4D3A-8E94-B52256BF1B27}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{3F759403-0939-466A-9342-C978AC3AED26}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{DEE1250E-830A-4824-BF48-C2D21154EF5D}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{78344CCE-6725-4FAD-A514-FDBF903AFE22}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{DC648BCE-4110-483C-8582-F0801040FAD2}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{37FAF890-D2FE-41AA-B22E-D2D3F6C07C2A}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{5488E546-CEB7-4B9C-8AB3-CCEA98509BEA}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{168FBA5D-CC3E-493D-81A3-ACEBC7ACA2CC}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{EB3C681D-618D-45A0-AE78-9F8A79F643D9}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{47A6583C-D082-4524-AF03-5EFE43118DD9}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{6F796E20-A455-4E38-B92A-C631855D0214}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{5E4EF49D-0D1F-4A6C-9301-22718FBE28C5}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{E8B90B92-F4CA-48B2-A286-4F7DF83DF563}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{2048FE20-AE65-4D53-BE06-278ECB4F9CCB}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{0D01DB55-39A5-44BA-A4B1-88B9DCB19DE4}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{5AC2164C-A79B-4AE4-B37C-1CEB1FAAAF61}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{AFA28C3C-E512-4622-A20F-584C2F44B4E0}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{619F1594-372A-4B84-8E0C-CB1C9AEE2423}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{FE5BD2FC-6897-4216-BBDE-4CF5599605D6}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{3E9E37A7-AC09-4C71-819D-29DD243C90FF}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{DB870044-FDF8-480D-A361-D060456EE128}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{597E481F-F4B2-4A82-847F-34586B031578}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{BAAB5186-D096-4BAC-8058-035467525F65}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{E5B51A8A-ECEA-4BF0-B8E6-49CA69D8D459}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{3715DF8A-D701-483F-8591-697CCDFEC64D}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{F2688C80-D274-4237-94EC-526EA1F7FC52}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{FB23C54C-DD49-4A3B-A67C-258136B25BB5}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{4428540D-7878-4C93-8DB0-265B4841F68D}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{0638043F-C00F-44CB-85F7-F521FD0D4254}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{7954BADD-A449-4143-9C82-7181229748F3}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{553F0AAF-AA2B-41A5-AB21-40C15BE4AF57}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{6ED7E7BB-D455-43D5-9D6D-43EB4124D6D0}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{BC15E538-4F9E-4BD6-BFBD-ACDFE7E6BA1E}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{4F1DE5AD-C916-4440-B135-74EDE1BECEBA}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{6F269358-2738-4E39-B8AC-306C9280F834}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{9CB11217-8A51-44F1-ACEE-3745F1821A3F}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{EAA4D33E-0734-4784-BFCF-3F4908B1C606}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{46BA7406-5B7B-4559-8FA9-2ED7E0F9DEC7}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{7BEAEC9A-254A-4388-8A40-FE20328B319E}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{30BCCD38-3C83-4754-A847-A47B05A614D1}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{AD26E0F5-3AD7-4133-831A-26667D3AD0BA}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{FD533046-97F0-4E6A-A0B3-B8EAA66D9855}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{A272B5BB-2208-4B2B-A4E5-B66238ED0744}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{3EDB1E1B-79C1-4F2F-97F3-8633274B8D6B}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{BB3C8900-987E-4C9B-94DB-6FD4A12F37C1}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{23782B93-7375-4CA1-B529-2244885AEC12}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{92700CEB-A7F4-43A3-BFED-111FB21FA1D2}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{C6ADD405-B456-4BF6-90AA-99CEE511FF69}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{E597E6EF-15AA-455E-B2DB-77DEE8E40751}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{E55D4148-3C64-4D1F-8FC4-CD3F6E5CBABC}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{78AC3450-B1EF-4048-8C64-80229CA9261F}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{C378965D-DFBC-46DA-8DB3-C86513A8ADF4}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{CF2508F6-39FC-4D14-81C7-63395DF4CEE7}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{C3F4BAFA-1175-463B-A7D2-F8B94ACFD1D4}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{35E8D1E8-AE3F-42C5-94EF-E65720DEE0EA}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{9D4DE217-CE8C-42D8-BDC6-EE6E9D8C0F28}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{00197712-9329-4A7B-A19B-5043A01C627B}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{CD82D6D6-7D92-48CD-9672-A7241FFC9C6E}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{B76CEBB8-7C5F-46DD-B0F8-852EFFB07F23}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{372A5B1C-65A4-4BAA-91C9-8FC81E03996C}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{9C5B8B01-2F06-4F5B-8ACA-BCC82BFA15A6}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{5C6285D2-34CF-4139-8D24-854F49604979}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{E80EDDDC-94E2-496C-BBF4-130604D5F96E}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{FEBFB074-A23D-4771-858A-FD5DA43FC3D6}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{16A1300B-D6A0-44CA-ACE7-64D9138D8EA8}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{C5298F8F-B489-4FF8-BC41-2B7E954AC426}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{6CF132DC-31FA-46E0-8C12-9E8CBB5C390D}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{CE3DC5F9-024B-4710-AA6D-D117E940C2A3}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{82075134-BF76-4121-A584-74126827DAB1}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{6D96F74E-F90C-491A-B466-04D949B2B745}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{5D582636-77A8-4772-872A-60E22DEF4097}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{49351F07-B2A3-4A8D-B9A6-94137AF3CEEE}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{AB97A8D2-5524-4E97-B036-EF8D5DADC986}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{04080E69-DDA9-4678-B8E2-4BBBE225EB8A}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{F1ED8CD0-1F9B-48D1-A618-2F7E3B66A8D0}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{05A9219E-627B-4724-8C2F-C0C1316FEBFC}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{831037CD-3161-475F-836A-77436CDE753E}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{B8C8558B-1CD5-41A3-8352-31745669AF09}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{71BD8C53-1276-4212-8B91-C27F92B7C4CA}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{A3C60582-EB0F-4736-85DA-1B6CC501140D}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{6BA05889-782F-409F-8678-87EC5F1D46F3}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{CAC38D21-AB9D-44A0-8981-3B38F2C2A6F6}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{2A145D65-C5ED-4B62-980C-51E96E01F99B}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{8193A979-2087-47D8-BA42-60191E278A3B}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{D3083E37-1E92-4355-B945-25E8324F960A}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{C5C2B464-2BAA-4829-B3DE-D823CC11CAED}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{594B1A9C-9292-414B-8CE4-F9E5669FE571}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{E41A57C9-26AC-47BD-8B29-607808FD5EC4}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{41CD6F8E-399F-4152-A2CF-65043A016F22}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{5944A657-2C68-4CEB-BF1A-4D5CBA0A60A2}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{37D9E19A-CE93-44E5-9B7E-1AF26EBAB38B}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{9AF19868-9028-4E86-9311-CC2F19DFEFD7}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{73E237FC-0769-43DE-912B-CA1C79D5AD45}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{11F7A1C2-35D9-4707-B9EA-7007C5CFAA93}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{726E1457-F06B-44C4-88E5-0C35E7FD60CF}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{7B94A6E0-08D8-411B-9295-CDD2707272F8}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{B46748E7-E52C-4FF4-AA1D-C9A259C388D3}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{5ABE0AD3-8E51-4241-BB29-3B25D0E82A57}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{FF3A6A61-06EB-4592-8CC3-8D247E6D5FD0}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{4F4CE38C-C1A2-4CF3-9EDD-055339AA259B}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{133D048C-9B9E-4438-978F-30B760702FC5}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{5D077960-456F-4800-981A-6A9169AA48C2}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{3D6EBC28-8E13-4411-A843-7F4F8CBEB678}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{2003CAB0-5607-447F-8D3C-BB1992215B6A}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{0C432195-0F32-4D7E-9A1C-1B16095E3393}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{14EC8CD4-330C-4326-B8B1-657678053905}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{2E7D5D46-5B49-4F24-AD33-910A47FB8B8D}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{27ACFD7B-49C5-4752-A4F0-277C8FF0B923}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{4C03481B-1F24-4444-8B8E-C20FEF6BA45F}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{48121D27-2C92-449E-9029-AC0A3BAE0030}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{7E1E8614-815B-4716-BA72-36974C219FF8}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{08F50A63-837A-4366-B4AB-D02DF7154EFD}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{7E0CE37B-616B-4B86-8DA0-CF4A178594FA}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{FCE7E11B-F3FF-4925-9103-C1F30B3B2F09}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{C6FFE34C-388D-44BE-BACD-FD985514A3A0}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{7199173A-2135-4A93-9B48-32A7052BF46C}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{7DCB9668-8458-4DE1-96FF-BF5BCBA72258}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{97144AF5-0B4D-42FD-90E3-242D123EF3DA}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{52331069-A954-4273-9856-70798FAB253B}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{0A74FCA5-2C7C-4E0C-B2B2-490E3778D792}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{36E680C6-5353-4220-BB40-D1F4AD61300B}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{27E7C9DE-8B85-4922-AF2B-36975EA9110B}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{2C5B2074-2E46-487E-8C57-17079AFB0231}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{7C14F911-B4F1-4F4B-966F-3FBBA320B99C}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{25BB1952-4D83-4432-9D65-F01B7FFA90B1}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{27E027D3-9846-4D7E-8654-F18BFDE93E0F}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{BAF147AD-60AA-4934-9CAB-7662B7347588}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{944E72BC-DAFA-4E85-84FA-E1593BA29DC8}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{9DCE5E4D-2447-4FE1-9192-F92656BFBBC2}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{395E9CB5-6F67-4299-81B4-606135642D39}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{F1CDAAEC-BB52-43F3-ADCC-87EF3A1139FB}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{EC8E1F2F-E83C-4BDD-9A17-90B24C7AD3E5}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{EFA392AB-C99D-4B0B-9771-A698BDDC8FB6}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{697A0728-CD5A-4086-9B95-5C619D011669}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{642C7435-9E42-4407-8D38-2CAFCE34E1A5}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{254FC535-8FC4-464F-9577-60C7A797A9EF}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{49894C4E-94C7-4BC6-A94C-FB2AF6F24C20}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{E1807586-63ED-49FE-9E1C-C5C4783C6776}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{95D7A0AB-F9EA-43BE-BD4E-C622BCB0C833}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{F6721D0F-7098-42A8-AB52-F18DB6B19816}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{50B2B891-9714-40DB-BC7A-85981F8826E1}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{9B9148CA-E5C3-4904-96D2-A85813D6F605}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{F7D28681-DE5E-4038-A211-03F53DB4865E}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{8CB1EC5C-D442-4E28-B078-8DA5A121C7BB}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{FDBEEDDD-675D-402F-A10A-E0D759459451}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{B51D6B50-D13A-4DC6-835C-AA0B567A5CE5}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{1A74CBF8-F178-4572-8C01-70C4503873DC}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{EAD3170B-B100-493A-BC69-5AF3E6AA88E1}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{2E0F5A26-2965-4AFE-B947-1130E96D11C9}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{7481F9E9-A1A1-4A7D-833C-F0B55602E4DD}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{CC7A55DE-E930-4778-86F2-0C11669B3940}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{67F697AE-9663-42B7-ACAC-C0EB98EF8C6C}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{87F7DF47-A444-480C-AD63-0D9B3EC7EB09}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{D95A2345-7A6A-4A7D-B917-B55E8A20F988}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{D16F2924-91E4-430C-94A7-73D3A27E498C}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{18CA6B61-8355-412B-94AE-0A858102A98E}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{87E71369-A506-40BA-8DCE-AA5024E9304A}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{0752DF8B-0085-4A6C-8156-C3C6ED268F9B}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{71D2B073-B72D-4CE5-BD65-20514FE95368}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{845D3B38-5F84-48DF-81BD-2B0B62C2354C}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{6E4A2B3A-AFD0-4779-A418-03CC89C05876}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{E333FA03-EF26-4177-9975-F3A61381F67F}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{DC93EB07-34DF-4B77-8279-94849704BBAA}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{EAC22F61-A849-41E3-89CC-25A8DA5C1185}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{DE95263F-8EF3-4271-ADDF-DBFC5B7F6C70}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{A57342D8-1EFF-42F4-9153-54BF72959844}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{F2305338-AFEE-4971-AB0C-14D24FB1DB51}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{819928EA-571D-46B0-A3F1-485644D7B8E7}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{08EFC863-8485-4008-A146-89EBCDE9835F}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{6E26C627-FD2F-4D79-8A56-FD4F98B3F13B}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{6AC4CAF9-7FBD-4CF5-9FFE-68C1E3CED138}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{5011571A-CE2B-44BA-BC77-0786D0E2D0ED}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{87DDE9C9-B625-47A3-811D-BDF3D5C8197B}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{C2089275-E8E0-4222-BA0D-249011B26D02}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{90948111-4A00-4931-8D19-6FB35C9F0DA1}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{315526C4-D3A3-4F4A-8308-C2A4D8B5F061}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{390A0CC3-086F-4681-AE22-871DAB7A4220}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{8F79EE59-962E-4C49-8487-55EB5FFB6FF4}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{B3A0A838-FC62-423C-8D5E-32A87512FE81}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{93557CA3-2BA9-490F-8414-0FD723CE8219}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{150452B5-11F9-439D-B68E-B616EEE18DCA}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{A7276459-E4E0-4901-9B78-0F351C40B331}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{FA9CF242-90FC-42AA-AD53-6DF20116AF2F}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{D2C5A72B-6D74-4BB7-87FC-4407D340E7AF}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{1625CC7E-29E5-4B2A-A783-2556C2BA4A0A}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{32EA8B73-F48B-4F37-9A3C-28D28636A46F}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{4C76451A-D85F-425C-B626-6DD6F3FFE102}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{5FF3BB62-7DB9-439E-BEE6-9D45A627FE28}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{4B627979-2A9D-41C0-BF27-AF5B2F671853}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{2260CAD0-0BBD-466E-90FA-244A7AF19F5C}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{B4513485-2170-4A4E-AD71-48A20351CBB2}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{1F16B686-0042-400E-89CF-33FE25FFC6F1}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{56FD2761-5B62-4971-9E5F-969D3817A0EF}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{69F265CD-07C8-4BDE-BF0A-F479B0E8AB84}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{4806E6FB-49DC-47B0-A413-E541DB802FB8}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{A7A572A5-B17B-4D88-930F-E781FE3610D6}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{B25DBD06-FFAF-4615-A455-46BB40951763}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{552E7510-EF71-4B40-B77C-E35F2D9C88C8}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{76156E1A-5D74-4F62-99F8-02D32CBEDB4C}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{25BC58E8-E87C-4898-970A-59260FB3C8FE}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{20483D7C-3B83-4B5E-B6A5-FF25FCC1ED69}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{F4EBF527-4DC0-443A-A349-A052B1AE55F0}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{24300BF9-3135-4800-9F2F-7366E064896B}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{EBACE220-B545-4BE5-99BB-61D35306B7D7}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{939FC618-D862-4309-AA76-FB256484D7DE}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{D0B6102C-BB1C-45F4-9831-52CC475A20A9}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{84188902-5575-45D5-8ACC-4C5E396CFD09}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{EF1930B9-9392-4872-BB92-8625FC570139}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{8FA9C666-64FF-48D9-9C8F-539C8BF7C12D}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{21E4B8EA-B327-4A6D-9BB2-8276C54E2195}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{02B77673-AB01-4904-B639-8B29AA65E460}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{2C6DE0E9-2436-4A9E-A4D1-35FB13E31A2A}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{EEB4FA14-0655-457E-BD54-AB4E2B78EB06}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{DABD08B6-08FD-4259-BA83-5C16EC909A62}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{B5CB5767-6480-40BE-9EB7-A1A6E254E2C0}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{053D655D-10AF-4103-8CBE-E505F0FBA46A}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{39C63E16-8FA9-4813-9011-78AC30FDDDBA}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{24B9F3EB-A7E4-4721-91D5-6BB535A4D32C}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{1A8C5499-97FD-4444-927B-E1AEFBC37E6F}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{E9B2FB87-49F3-4036-B631-7A93B6CCC29D}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{79B430C1-42D1-43BF-948A-2363159621C2}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{7D17F72E-B964-44D7-A425-79EA3F8DE475}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{24681142-C5D0-4452-8240-A873B447284A}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{59A60597-2D9D-4998-BF9B-6FE7AB31F5F7}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{720B7333-8813-4DE0-9403-780457973CB3}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{36F2F336-2CC2-4408-A005-D166CB04262C}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{7C3EA965-14D6-4A50-A85F-B720A2E3C9C4}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{AF0EEDD8-A012-4E23-BAD0-DC15CF57A185}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{14205B34-4CE3-4E85-9E39-E11234331750}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{F995841B-4F06-4936-B0E1-8C86FFDD6917}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{98212D31-622E-4C72-9D98-408814DC57FA}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{F2B3C5CD-814D-4DD8-9E82-6ABBEBB34C8D}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{959D2F93-EEEA-4E54-8BC2-C3CF3C7D035E}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{CCF724AE-967B-42CC-81BD-F73CBF445B94}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{F04A80D9-3C0E-41BA-877D-CD4F1013AFB8}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{8899B26F-E937-433A-BEC2-63F227DF2E1C}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{095D3B4C-E31E-413E-A707-F98E86107193}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{7F3A9F84-A935-4E88-A2F9-367BCC1D798B}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{3E7E9B30-F0DB-411F-8EEE-644D3CFE9595}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{7D62B86C-AC91-46D6-9018-85DB4391D3A0}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{BFBE6BE9-240A-47A0-85BD-268B5270E68E}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{D8B5BA5D-DA09-45ED-B4FC-B6532267345D}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{37FF2B9D-3A9A-4FB1-80E0-118BDFC72AE9}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{F4E9510E-ABFA-49C0-AEE6-1618DBFC8AE9}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{932A054B-1E9E-4404-992E-AB1E644C7763}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{5B938C70-3F0A-44DB-B967-492F53390D02}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{2B1C2A36-0E3B-4A20-98B8-EBC98C4A295B}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{B897DEE4-9352-4F92-8830-CF73E36FE5F6}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{F347B3CE-7C32-4707-B337-9A125ECF7ADA}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{7545867A-BF3F-4883-A1A0-955C75496D3E}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{8218C8D7-7595-489F-A8B5-A4497F244ABD}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{0DC7F092-C649-43B0-A96B-DC8FCE9B4150}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{F5C9C457-5BFE-40B3-A611-C6F5CE2B8AC2}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{F59708D6-9E25-4728-9314-DAF992285F35}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{1CF1339A-CEC1-4E0D-AFCE-5577ADAC3415}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{8D7BB7A4-51D1-4C5B-9572-4AF1CA02FBD2}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{901782D1-F1BF-4A6A-83C9-B3060CAF967C}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{DCDB00BE-B8F8-4B7D-83F1-9097B81AB538}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{08E97C9D-E1E1-4070-919B-3F30A7F86134}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{53C86B48-7893-4CAD-BBEB-D508F3566707}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{CCAE7518-13ED-4A74-AB9F-B8146E40A6DC}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{B0BD87AA-17C1-44EE-96ED-97E0E2865B19}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{D43414FB-DD30-4DC9-A2CD-1026EEE44474}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{9E0CDCA6-867C-4ADA-84D4-BD7E82BFC915}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{C1292BEF-6575-45DF-8AD1-609CEC57806C}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{830F112B-12AB-4575-AADB-F7F827575090}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{1895042A-72A4-4B5E-B269-EF2CBB9FEC56}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{CEA1FDE5-5E96-4739-8943-F15E8D10D202}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{108F5F94-ED1E-4EFC-A505-4BD718943DC5}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{1CDC0032-0F90-4460-BBAF-F424BE3AED2B}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{A3839632-82FC-4E67-9DB5-E9E84F64EBF7}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{F17AC12A-9CFA-49DB-8528-701A301A175A}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{1B5FC5BE-91D9-43D4-A039-D796669B8FAB}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{CDB7BFB7-2281-48EF-BA17-698A2986C9F5}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{45221D70-E654-47F6-BCB1-DBF0331D8894}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{4867CCB6-53E9-4F10-BF4B-674EAFE2614C}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{0E77B98F-4708-4B6F-93C2-54BD10055F8A}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{4ED1F0C5-A38F-48DF-98A2-6F2E74725DF8}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{45951E41-7AAB-4021-82F1-C2E31E4DEDCA}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{D6CE8894-9A4F-4F73-B884-AB614D4CDE28}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{62215895-BCFE-4070-8672-978EC1D1230C}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{F205A304-A90C-4D29-8755-863811558D3A}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{3498B45B-4AF7-449A-BDC3-953B7CE6BE7B}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{DA6C81EB-D06B-4EF9-9617-3899E15CE368}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{21E400CE-3FA4-49D6-A48A-517C3608461F}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{DD7F36AD-4E7B-4F1D-9C13-3ECB39336153}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{67247BD3-CD50-4CB6-A416-D969CD2B70D0}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{2E293E88-9EA7-4C29-8736-23DDFF19B8F7}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{3215E489-4D27-4D6F-A8C5-2B54F881B9CA}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{B5175664-7DFB-4FC1-8001-F68B4170059B}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{BB9CDED8-F9D0-46F7-8C9A-B28C39AD2C2E}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{315DE347-05A9-45A4-A5A8-D95EF1C341C3}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{E43712F7-C1AE-43B9-AD4A-F7C2A2D1C905}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{69226216-A8C6-4100-A345-C840972861D2}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{1FDD97D3-1A51-41D0-8FD7-E340220C2586}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{E73329FF-D039-44EC-BFA7-DD691A4A488A}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{B8175443-AAD3-43C6-A0B8-69CF11C67C57}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{F832AD56-4769-4C19-95AB-7ECEA9CC365D}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{82ACE814-D5D4-41FE-8162-3654EE6C91A8}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{D6195D8D-0340-4453-B0DE-28E226403B4D}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{C8D1533A-9975-446A-99FF-65585FE85F2A}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{AF33726D-A084-4041-87D7-DB82BBBE0CAC}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{275EB2D1-88E0-4956-BE35-5177AF9F37A3}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{0BB36CFE-C025-4334-8099-BC6A8C8BE1AC}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{486AD57E-D3F6-4DCA-AA4D-4CE98F2B506B}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{6D162362-1DAE-4543-A494-0F0CF9303048}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{D5707C5C-92C3-44BE-8937-543B39B1D4E5}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{49B7E900-8050-45B9-9275-DDD74F8BF6BF}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{F03C190B-0558-43A2-8AFE-4153A2D797A8}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{42B802F1-787A-40F0-9649-FB8149C61F07}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{6AAF0550-2970-4884-8906-6B80B363C857}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{74D2CCA2-FBC4-402C-A5E3-0341B4B55F0C}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{38D4E7AF-54E5-4524-BE44-20098C39C4D8}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{2E756664-722E-426E-90F2-61EB7127592D}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{34E532BA-5B4E-4634-8A87-0D512A1BAAA3}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{D2F635BF-556B-48BC-AA55-D1AB6CBA0D6D}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{AF1D1C90-9117-4EFE-B965-FF2990E5BA69}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{E99055DA-F89C-465C-9DFE-D1B151404BD2}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{F07FEFB1-EF8F-4E2F-93E3-9D36E7820BE3}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{E1E4734E-B227-482A-8469-F25B651DF53C}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{0793630F-638C-4BF7-9DC1-2FC247F4C1D8}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{40992E94-5CFB-4B20-9103-09C2AD43FBAE}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{7858E94C-7AE1-42E7-B33A-FF6816A4C465}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{C158C083-6FC1-4B87-BCCA-7C6E7EB6981E}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{0834703F-9B63-43E3-8527-D2E64782EA7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId372"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E87E9C-4B67-42D9-91A1-6C70BAC42BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF3570-4E2B-4CDE-8BA2-F34FB156E7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="835">
   <si>
     <t>titulo</t>
   </si>
@@ -2437,6 +2437,108 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/5220929c-5ac5-427a-885d-f432e8991017?title=Infracommerce%20%7C%20Walter%20Cardozo%20(ex-CFO)</t>
+  </si>
+  <si>
+    <t>MG busca fatia de R$ 15 bi para malha ferroviária | Brasil | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/14193d26-0460-4fc0-936e-0fb00fc3d1da?title=MG%20busca%20fatia%20de%20R$%2015%20bi%20para%20malha%20ferrovi%C3%A1ria%20%7C%20Brasil%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>ModalMais | Papo com Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0b1690dd-db99-4206-9bec-fb6e8ad8ee00?title=ModalMais%20%7C%20Papo%20com%20Management</t>
+  </si>
+  <si>
+    <t>Beto Santosundefined Country manager da GoDaddy | XP CA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fe8ba542-0d8f-32a6-84b4-16cc5e3794aa?title=Beto%20Santos,%20Country%20manager%20da%20GoDaddy%20%7C%20XP%20CA</t>
+  </si>
+  <si>
+    <t>Eletromidia | 1x1 com Eduardo Alvarenga (CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1d4a98bf-12ae-4025-bc82-c32fac939d07?title=Eletromidia%20%7C%201x1%20com%20Eduardo%20Alvarenga%20(CEO)</t>
+  </si>
+  <si>
+    <t>Ecommerce | Small Group com Seller - Coordenador de Marketing da Inpower Eletrônicos @XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fb1e063c-45f9-8b70-34e0-8a0853300846?title=Ecommerce%20%7C%20Small%20Group%20com%20Seller%20-%20Coordenador%20de%20Marketing%20da%20Inpower%20Eletr%C3%B4nicos%20@XP</t>
+  </si>
+  <si>
+    <t>Athena | IE IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/265068f3-736a-4570-943b-48bf154cb2b0?title=Athena%20%7C%20IE%20IBBA</t>
+  </si>
+  <si>
+    <t>Modal Mais - IE Itaú</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/70e6339e-df1e-3389-220a-75e237ceea34?title=Modal%20Mais%20-%20IE%20Ita%C3%BA</t>
+  </si>
+  <si>
+    <t>Ecommerce | Small Group com Head de ecommerce da Marabraz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/78715b8f-9df5-a481-2430-cefbb3ebd938?title=Ecommerce%20%7C%20Small%20Group%20com%20Head%20de%20ecommerce%20da%20Marabraz</t>
+  </si>
+  <si>
+    <t>Oliveira Trust | Papo com Pisani - Founder da Lions Trust</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7b70c8dd-3709-4de5-a292-b40d3ebc6a4b?title=Oliveira%20Trust%20%7C%20Papo%20com%20Pisani%20-%20Founder%20da%20Lions%20Trust</t>
+  </si>
+  <si>
+    <t>Modal Mais | 1x1 com Mauricio (head de dados)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b26114e9-e8a3-4316-aa1d-8aeb40d8f9b5?title=Modal%20Mais%20%7C%201x1%20com%20Mauricio%20(head%20de%20dados)</t>
+  </si>
+  <si>
+    <t>CTC | Papo com Hadassa para tirar dúvidas</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/84828eec-e4fb-424f-b67e-1e65c25127e3?title=CTC%20%7C%20Papo%20com%20Hadassa%20para%20tirar%20d%C3%Bavidas</t>
+  </si>
+  <si>
+    <t>Tenda | Group com CEO da Randek (Ola Lindh) - Fornecedora da fábrica da Tenda</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/47db9aff-962c-435f-a966-0df7d70ce24e?title=Tenda%20%7C%20Group%20com%20CEO%20da%20Randek%20(Ola%20Lindh)%20-%20Fornecedora%20da%20f%C3%A1brica%20da%20Tenda</t>
+  </si>
+  <si>
+    <t>[ESG] Hydrogen or Batteries for Trucking Decarbonization?</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/675efef1-c35c-d15f-595b-970c119b26bf?title=%5BESG%5D%20Hydrogen%20or%20Batteries%20for%20Trucking%20Decarbonization?</t>
+  </si>
+  <si>
+    <t>Grupo GPS | Conversa com clientes</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/90994038-bd52-bfa1-bee1-f4f185f02453?title=Grupo%20GPS%20%7C%20Conversa%20com%20clientes</t>
+  </si>
+  <si>
+    <t>Amazon 2020 Letter to Shareholders</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4e936a26-500e-44f4-a9d4-122e70f1632b?title=Amazon%202020%20Letter%20to%20Shareholders</t>
+  </si>
+  <si>
+    <t>LREN | Live com Fabio Faccio (CEO) @Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f07854e1-61ba-2fc4-e329-4a1ad8845cdf?title=LREN%20%7C%20Live%20com%20Fabio%20Faccio%20(CEO)%20@Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>CTC | Call com Ricardo Neme (Ger. Marketing)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/299a595f-860f-4f5a-8a28-b88551ec0d8f?title=CTC%20%7C%20Call%20com%20Ricardo%20Neme%20(Ger.%20Marketing)</t>
   </si>
 </sst>
 </file>
@@ -2834,9 +2936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6052,381 +6156,534 @@
         <v>800</v>
       </c>
     </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>801</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>803</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>805</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>807</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>809</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>811</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>813</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>815</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>817</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>819</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>821</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>823</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>825</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>827</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>829</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>831</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>833</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{A89E191E-291D-408A-9F05-C7457950E38E}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{FBB65BC0-66F3-49D5-92A0-B9A572AE0B42}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{A775034E-2666-4B83-B3EC-B2AF87CD9DD3}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{D143A2B0-1C3F-408E-813B-B954419C6F2C}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{14C487AC-ED94-4466-91F5-C8E954B6389A}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{7F9F88A0-91E7-4347-ABFE-A3DA018977EC}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{F5D66911-F73F-4ADB-A976-C0DEC96271C1}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{7D4A5F02-00C8-445F-8CBC-DE32D8BFAF10}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{52D4E2A5-E535-41C8-BCEC-1D3E746318FB}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{8D290B42-58DE-498C-843E-1EB6C9270CD1}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{C4EEF1BD-62A8-4A88-AE55-E91FBFA08012}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{84212A20-0755-4BEB-B41C-94FE94339797}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{35A2CF26-6F17-439A-8AA6-533E5E414C93}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{FB41DF1D-08CA-4AEB-9F79-63B81859FA6D}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{CEBF6CC9-6A53-49F5-9250-431DD719DB4B}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{AF262EE4-0AAA-4F33-B902-AB81E4B7F826}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{B08ADED1-29C4-43A6-B540-170F7CB8EE6E}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{3CDA0C1C-104F-4CF8-98C5-108448BAB8C1}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{28BF52CB-B7BF-407A-885E-42B9F918D37D}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{88A47427-EAD0-47B0-A5E1-6FDE99541377}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{513804F8-F24D-4B45-B2B3-CA43743B40B1}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{741FACB5-6D12-4F5E-8B07-0559515C0C1F}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{631B6F3C-B79E-49D6-917B-5B6DDD03D755}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{A3C2F012-821C-4270-A2EE-504662F08258}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{5F74EEA4-2135-4C00-AB8D-9B0AF644CC61}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{B19E2024-3C4D-4E65-B724-2D2A5CD6E93A}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{9CAC4C93-BF25-42E0-BA56-B20320AD9FBE}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{552AD3A3-62EE-4D3E-8791-99B39DEE0ADB}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{E767E15B-15C5-425A-9B4B-D37041B37562}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{DF0BA6DE-5CFD-40AA-9A1B-3BCFB5E29408}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{21B42CEC-7642-4C10-AD3C-B5DAD1F903B0}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{41BAB3AA-6907-493C-8574-C53C93DA8E0E}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{C63C9322-6751-45DE-92E4-CD9A868C82A6}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{6CDF4E53-57C5-4806-BA64-107B63A50200}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{C28AB942-4D01-4C85-BBCB-306562E3B551}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{19369F1A-7003-440E-A523-4ECFEC9CEBDB}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{9A85EF82-365F-4883-A7A0-FEA6DA613463}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{05721FBF-B5A0-47D4-BD6D-F5AF409A2BE4}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{04FF8425-6406-41E0-AB21-B53E253B43D9}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{256333D4-188D-4235-A703-3284C08B98C9}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{FBC2D549-7E3D-48EA-A68F-2258FE121D15}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{E6767B88-3C66-43E5-925A-33D5494715A5}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{606ACA3A-874B-43A7-A9CA-42ED70C2B35D}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{41FBFC57-B06B-4D77-9217-570FCDE612CF}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{91370D0C-AC8E-479A-A627-3092E065E6B8}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{F2E50FD3-47DB-4000-A65D-0CE18F51F031}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{6BF24562-1ED5-4D3A-8E94-B52256BF1B27}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{3F759403-0939-466A-9342-C978AC3AED26}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{DEE1250E-830A-4824-BF48-C2D21154EF5D}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{78344CCE-6725-4FAD-A514-FDBF903AFE22}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{DC648BCE-4110-483C-8582-F0801040FAD2}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{37FAF890-D2FE-41AA-B22E-D2D3F6C07C2A}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{5488E546-CEB7-4B9C-8AB3-CCEA98509BEA}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{168FBA5D-CC3E-493D-81A3-ACEBC7ACA2CC}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{EB3C681D-618D-45A0-AE78-9F8A79F643D9}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{47A6583C-D082-4524-AF03-5EFE43118DD9}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{6F796E20-A455-4E38-B92A-C631855D0214}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{5E4EF49D-0D1F-4A6C-9301-22718FBE28C5}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{E8B90B92-F4CA-48B2-A286-4F7DF83DF563}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{2048FE20-AE65-4D53-BE06-278ECB4F9CCB}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{0D01DB55-39A5-44BA-A4B1-88B9DCB19DE4}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{5AC2164C-A79B-4AE4-B37C-1CEB1FAAAF61}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{AFA28C3C-E512-4622-A20F-584C2F44B4E0}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{619F1594-372A-4B84-8E0C-CB1C9AEE2423}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{FE5BD2FC-6897-4216-BBDE-4CF5599605D6}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{3E9E37A7-AC09-4C71-819D-29DD243C90FF}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{DB870044-FDF8-480D-A361-D060456EE128}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{597E481F-F4B2-4A82-847F-34586B031578}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{BAAB5186-D096-4BAC-8058-035467525F65}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{E5B51A8A-ECEA-4BF0-B8E6-49CA69D8D459}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{3715DF8A-D701-483F-8591-697CCDFEC64D}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{F2688C80-D274-4237-94EC-526EA1F7FC52}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{FB23C54C-DD49-4A3B-A67C-258136B25BB5}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{4428540D-7878-4C93-8DB0-265B4841F68D}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{0638043F-C00F-44CB-85F7-F521FD0D4254}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{7954BADD-A449-4143-9C82-7181229748F3}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{553F0AAF-AA2B-41A5-AB21-40C15BE4AF57}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{6ED7E7BB-D455-43D5-9D6D-43EB4124D6D0}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{BC15E538-4F9E-4BD6-BFBD-ACDFE7E6BA1E}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{4F1DE5AD-C916-4440-B135-74EDE1BECEBA}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{6F269358-2738-4E39-B8AC-306C9280F834}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{9CB11217-8A51-44F1-ACEE-3745F1821A3F}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{EAA4D33E-0734-4784-BFCF-3F4908B1C606}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{46BA7406-5B7B-4559-8FA9-2ED7E0F9DEC7}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{7BEAEC9A-254A-4388-8A40-FE20328B319E}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{30BCCD38-3C83-4754-A847-A47B05A614D1}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{AD26E0F5-3AD7-4133-831A-26667D3AD0BA}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{FD533046-97F0-4E6A-A0B3-B8EAA66D9855}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{A272B5BB-2208-4B2B-A4E5-B66238ED0744}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{3EDB1E1B-79C1-4F2F-97F3-8633274B8D6B}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{BB3C8900-987E-4C9B-94DB-6FD4A12F37C1}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{23782B93-7375-4CA1-B529-2244885AEC12}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{92700CEB-A7F4-43A3-BFED-111FB21FA1D2}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{C6ADD405-B456-4BF6-90AA-99CEE511FF69}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{E597E6EF-15AA-455E-B2DB-77DEE8E40751}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{E55D4148-3C64-4D1F-8FC4-CD3F6E5CBABC}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{78AC3450-B1EF-4048-8C64-80229CA9261F}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{C378965D-DFBC-46DA-8DB3-C86513A8ADF4}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{CF2508F6-39FC-4D14-81C7-63395DF4CEE7}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{C3F4BAFA-1175-463B-A7D2-F8B94ACFD1D4}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{35E8D1E8-AE3F-42C5-94EF-E65720DEE0EA}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{9D4DE217-CE8C-42D8-BDC6-EE6E9D8C0F28}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{00197712-9329-4A7B-A19B-5043A01C627B}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{CD82D6D6-7D92-48CD-9672-A7241FFC9C6E}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{B76CEBB8-7C5F-46DD-B0F8-852EFFB07F23}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{372A5B1C-65A4-4BAA-91C9-8FC81E03996C}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{9C5B8B01-2F06-4F5B-8ACA-BCC82BFA15A6}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{5C6285D2-34CF-4139-8D24-854F49604979}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{E80EDDDC-94E2-496C-BBF4-130604D5F96E}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{FEBFB074-A23D-4771-858A-FD5DA43FC3D6}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{16A1300B-D6A0-44CA-ACE7-64D9138D8EA8}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{C5298F8F-B489-4FF8-BC41-2B7E954AC426}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{6CF132DC-31FA-46E0-8C12-9E8CBB5C390D}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{CE3DC5F9-024B-4710-AA6D-D117E940C2A3}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{82075134-BF76-4121-A584-74126827DAB1}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{6D96F74E-F90C-491A-B466-04D949B2B745}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{5D582636-77A8-4772-872A-60E22DEF4097}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{49351F07-B2A3-4A8D-B9A6-94137AF3CEEE}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{AB97A8D2-5524-4E97-B036-EF8D5DADC986}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{04080E69-DDA9-4678-B8E2-4BBBE225EB8A}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{F1ED8CD0-1F9B-48D1-A618-2F7E3B66A8D0}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{05A9219E-627B-4724-8C2F-C0C1316FEBFC}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{831037CD-3161-475F-836A-77436CDE753E}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{B8C8558B-1CD5-41A3-8352-31745669AF09}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{71BD8C53-1276-4212-8B91-C27F92B7C4CA}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{A3C60582-EB0F-4736-85DA-1B6CC501140D}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{6BA05889-782F-409F-8678-87EC5F1D46F3}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{CAC38D21-AB9D-44A0-8981-3B38F2C2A6F6}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{2A145D65-C5ED-4B62-980C-51E96E01F99B}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{8193A979-2087-47D8-BA42-60191E278A3B}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{D3083E37-1E92-4355-B945-25E8324F960A}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{C5C2B464-2BAA-4829-B3DE-D823CC11CAED}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{594B1A9C-9292-414B-8CE4-F9E5669FE571}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{E41A57C9-26AC-47BD-8B29-607808FD5EC4}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{41CD6F8E-399F-4152-A2CF-65043A016F22}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{5944A657-2C68-4CEB-BF1A-4D5CBA0A60A2}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{37D9E19A-CE93-44E5-9B7E-1AF26EBAB38B}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{9AF19868-9028-4E86-9311-CC2F19DFEFD7}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{73E237FC-0769-43DE-912B-CA1C79D5AD45}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{11F7A1C2-35D9-4707-B9EA-7007C5CFAA93}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{726E1457-F06B-44C4-88E5-0C35E7FD60CF}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{7B94A6E0-08D8-411B-9295-CDD2707272F8}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{B46748E7-E52C-4FF4-AA1D-C9A259C388D3}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{5ABE0AD3-8E51-4241-BB29-3B25D0E82A57}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{FF3A6A61-06EB-4592-8CC3-8D247E6D5FD0}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{4F4CE38C-C1A2-4CF3-9EDD-055339AA259B}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{133D048C-9B9E-4438-978F-30B760702FC5}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{5D077960-456F-4800-981A-6A9169AA48C2}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{3D6EBC28-8E13-4411-A843-7F4F8CBEB678}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{2003CAB0-5607-447F-8D3C-BB1992215B6A}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{0C432195-0F32-4D7E-9A1C-1B16095E3393}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{14EC8CD4-330C-4326-B8B1-657678053905}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{2E7D5D46-5B49-4F24-AD33-910A47FB8B8D}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{27ACFD7B-49C5-4752-A4F0-277C8FF0B923}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{4C03481B-1F24-4444-8B8E-C20FEF6BA45F}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{48121D27-2C92-449E-9029-AC0A3BAE0030}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{7E1E8614-815B-4716-BA72-36974C219FF8}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{08F50A63-837A-4366-B4AB-D02DF7154EFD}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{7E0CE37B-616B-4B86-8DA0-CF4A178594FA}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{FCE7E11B-F3FF-4925-9103-C1F30B3B2F09}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{C6FFE34C-388D-44BE-BACD-FD985514A3A0}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{7199173A-2135-4A93-9B48-32A7052BF46C}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{7DCB9668-8458-4DE1-96FF-BF5BCBA72258}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{97144AF5-0B4D-42FD-90E3-242D123EF3DA}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{52331069-A954-4273-9856-70798FAB253B}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{0A74FCA5-2C7C-4E0C-B2B2-490E3778D792}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{36E680C6-5353-4220-BB40-D1F4AD61300B}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{27E7C9DE-8B85-4922-AF2B-36975EA9110B}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{2C5B2074-2E46-487E-8C57-17079AFB0231}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{7C14F911-B4F1-4F4B-966F-3FBBA320B99C}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{25BB1952-4D83-4432-9D65-F01B7FFA90B1}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{27E027D3-9846-4D7E-8654-F18BFDE93E0F}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{BAF147AD-60AA-4934-9CAB-7662B7347588}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{944E72BC-DAFA-4E85-84FA-E1593BA29DC8}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{9DCE5E4D-2447-4FE1-9192-F92656BFBBC2}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{395E9CB5-6F67-4299-81B4-606135642D39}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{F1CDAAEC-BB52-43F3-ADCC-87EF3A1139FB}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{EC8E1F2F-E83C-4BDD-9A17-90B24C7AD3E5}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{EFA392AB-C99D-4B0B-9771-A698BDDC8FB6}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{697A0728-CD5A-4086-9B95-5C619D011669}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{642C7435-9E42-4407-8D38-2CAFCE34E1A5}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{254FC535-8FC4-464F-9577-60C7A797A9EF}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{49894C4E-94C7-4BC6-A94C-FB2AF6F24C20}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{E1807586-63ED-49FE-9E1C-C5C4783C6776}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{95D7A0AB-F9EA-43BE-BD4E-C622BCB0C833}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{F6721D0F-7098-42A8-AB52-F18DB6B19816}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{50B2B891-9714-40DB-BC7A-85981F8826E1}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{9B9148CA-E5C3-4904-96D2-A85813D6F605}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{F7D28681-DE5E-4038-A211-03F53DB4865E}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{8CB1EC5C-D442-4E28-B078-8DA5A121C7BB}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{FDBEEDDD-675D-402F-A10A-E0D759459451}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{B51D6B50-D13A-4DC6-835C-AA0B567A5CE5}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{1A74CBF8-F178-4572-8C01-70C4503873DC}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{EAD3170B-B100-493A-BC69-5AF3E6AA88E1}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{2E0F5A26-2965-4AFE-B947-1130E96D11C9}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{7481F9E9-A1A1-4A7D-833C-F0B55602E4DD}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{CC7A55DE-E930-4778-86F2-0C11669B3940}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{67F697AE-9663-42B7-ACAC-C0EB98EF8C6C}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{87F7DF47-A444-480C-AD63-0D9B3EC7EB09}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{D95A2345-7A6A-4A7D-B917-B55E8A20F988}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{D16F2924-91E4-430C-94A7-73D3A27E498C}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{18CA6B61-8355-412B-94AE-0A858102A98E}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{87E71369-A506-40BA-8DCE-AA5024E9304A}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{0752DF8B-0085-4A6C-8156-C3C6ED268F9B}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{71D2B073-B72D-4CE5-BD65-20514FE95368}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{845D3B38-5F84-48DF-81BD-2B0B62C2354C}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{6E4A2B3A-AFD0-4779-A418-03CC89C05876}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{E333FA03-EF26-4177-9975-F3A61381F67F}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{DC93EB07-34DF-4B77-8279-94849704BBAA}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{EAC22F61-A849-41E3-89CC-25A8DA5C1185}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{DE95263F-8EF3-4271-ADDF-DBFC5B7F6C70}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{A57342D8-1EFF-42F4-9153-54BF72959844}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{F2305338-AFEE-4971-AB0C-14D24FB1DB51}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{819928EA-571D-46B0-A3F1-485644D7B8E7}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{08EFC863-8485-4008-A146-89EBCDE9835F}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{6E26C627-FD2F-4D79-8A56-FD4F98B3F13B}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{6AC4CAF9-7FBD-4CF5-9FFE-68C1E3CED138}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{5011571A-CE2B-44BA-BC77-0786D0E2D0ED}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{87DDE9C9-B625-47A3-811D-BDF3D5C8197B}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{C2089275-E8E0-4222-BA0D-249011B26D02}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{90948111-4A00-4931-8D19-6FB35C9F0DA1}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{315526C4-D3A3-4F4A-8308-C2A4D8B5F061}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{390A0CC3-086F-4681-AE22-871DAB7A4220}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{8F79EE59-962E-4C49-8487-55EB5FFB6FF4}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{B3A0A838-FC62-423C-8D5E-32A87512FE81}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{93557CA3-2BA9-490F-8414-0FD723CE8219}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{150452B5-11F9-439D-B68E-B616EEE18DCA}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{A7276459-E4E0-4901-9B78-0F351C40B331}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{FA9CF242-90FC-42AA-AD53-6DF20116AF2F}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{D2C5A72B-6D74-4BB7-87FC-4407D340E7AF}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{1625CC7E-29E5-4B2A-A783-2556C2BA4A0A}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{32EA8B73-F48B-4F37-9A3C-28D28636A46F}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{4C76451A-D85F-425C-B626-6DD6F3FFE102}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{5FF3BB62-7DB9-439E-BEE6-9D45A627FE28}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{4B627979-2A9D-41C0-BF27-AF5B2F671853}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{2260CAD0-0BBD-466E-90FA-244A7AF19F5C}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{B4513485-2170-4A4E-AD71-48A20351CBB2}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{1F16B686-0042-400E-89CF-33FE25FFC6F1}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{56FD2761-5B62-4971-9E5F-969D3817A0EF}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{69F265CD-07C8-4BDE-BF0A-F479B0E8AB84}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{4806E6FB-49DC-47B0-A413-E541DB802FB8}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{A7A572A5-B17B-4D88-930F-E781FE3610D6}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{B25DBD06-FFAF-4615-A455-46BB40951763}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{552E7510-EF71-4B40-B77C-E35F2D9C88C8}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{76156E1A-5D74-4F62-99F8-02D32CBEDB4C}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{25BC58E8-E87C-4898-970A-59260FB3C8FE}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{20483D7C-3B83-4B5E-B6A5-FF25FCC1ED69}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{F4EBF527-4DC0-443A-A349-A052B1AE55F0}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{24300BF9-3135-4800-9F2F-7366E064896B}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{EBACE220-B545-4BE5-99BB-61D35306B7D7}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{939FC618-D862-4309-AA76-FB256484D7DE}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{D0B6102C-BB1C-45F4-9831-52CC475A20A9}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{84188902-5575-45D5-8ACC-4C5E396CFD09}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{EF1930B9-9392-4872-BB92-8625FC570139}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{8FA9C666-64FF-48D9-9C8F-539C8BF7C12D}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{21E4B8EA-B327-4A6D-9BB2-8276C54E2195}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{02B77673-AB01-4904-B639-8B29AA65E460}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{2C6DE0E9-2436-4A9E-A4D1-35FB13E31A2A}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{EEB4FA14-0655-457E-BD54-AB4E2B78EB06}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{DABD08B6-08FD-4259-BA83-5C16EC909A62}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{B5CB5767-6480-40BE-9EB7-A1A6E254E2C0}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{053D655D-10AF-4103-8CBE-E505F0FBA46A}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{39C63E16-8FA9-4813-9011-78AC30FDDDBA}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{24B9F3EB-A7E4-4721-91D5-6BB535A4D32C}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{1A8C5499-97FD-4444-927B-E1AEFBC37E6F}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{E9B2FB87-49F3-4036-B631-7A93B6CCC29D}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{79B430C1-42D1-43BF-948A-2363159621C2}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{7D17F72E-B964-44D7-A425-79EA3F8DE475}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{24681142-C5D0-4452-8240-A873B447284A}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{59A60597-2D9D-4998-BF9B-6FE7AB31F5F7}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{720B7333-8813-4DE0-9403-780457973CB3}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{36F2F336-2CC2-4408-A005-D166CB04262C}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{7C3EA965-14D6-4A50-A85F-B720A2E3C9C4}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{AF0EEDD8-A012-4E23-BAD0-DC15CF57A185}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{14205B34-4CE3-4E85-9E39-E11234331750}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{F995841B-4F06-4936-B0E1-8C86FFDD6917}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{98212D31-622E-4C72-9D98-408814DC57FA}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{F2B3C5CD-814D-4DD8-9E82-6ABBEBB34C8D}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{959D2F93-EEEA-4E54-8BC2-C3CF3C7D035E}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{CCF724AE-967B-42CC-81BD-F73CBF445B94}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{F04A80D9-3C0E-41BA-877D-CD4F1013AFB8}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{8899B26F-E937-433A-BEC2-63F227DF2E1C}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{095D3B4C-E31E-413E-A707-F98E86107193}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{7F3A9F84-A935-4E88-A2F9-367BCC1D798B}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{3E7E9B30-F0DB-411F-8EEE-644D3CFE9595}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{7D62B86C-AC91-46D6-9018-85DB4391D3A0}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{BFBE6BE9-240A-47A0-85BD-268B5270E68E}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{D8B5BA5D-DA09-45ED-B4FC-B6532267345D}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{37FF2B9D-3A9A-4FB1-80E0-118BDFC72AE9}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{F4E9510E-ABFA-49C0-AEE6-1618DBFC8AE9}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{932A054B-1E9E-4404-992E-AB1E644C7763}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{5B938C70-3F0A-44DB-B967-492F53390D02}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{2B1C2A36-0E3B-4A20-98B8-EBC98C4A295B}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{B897DEE4-9352-4F92-8830-CF73E36FE5F6}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{F347B3CE-7C32-4707-B337-9A125ECF7ADA}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{7545867A-BF3F-4883-A1A0-955C75496D3E}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{8218C8D7-7595-489F-A8B5-A4497F244ABD}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{0DC7F092-C649-43B0-A96B-DC8FCE9B4150}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{F5C9C457-5BFE-40B3-A611-C6F5CE2B8AC2}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{F59708D6-9E25-4728-9314-DAF992285F35}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{1CF1339A-CEC1-4E0D-AFCE-5577ADAC3415}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{8D7BB7A4-51D1-4C5B-9572-4AF1CA02FBD2}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{901782D1-F1BF-4A6A-83C9-B3060CAF967C}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{DCDB00BE-B8F8-4B7D-83F1-9097B81AB538}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{08E97C9D-E1E1-4070-919B-3F30A7F86134}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{53C86B48-7893-4CAD-BBEB-D508F3566707}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{CCAE7518-13ED-4A74-AB9F-B8146E40A6DC}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{B0BD87AA-17C1-44EE-96ED-97E0E2865B19}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{D43414FB-DD30-4DC9-A2CD-1026EEE44474}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{9E0CDCA6-867C-4ADA-84D4-BD7E82BFC915}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{C1292BEF-6575-45DF-8AD1-609CEC57806C}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{830F112B-12AB-4575-AADB-F7F827575090}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{1895042A-72A4-4B5E-B269-EF2CBB9FEC56}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{CEA1FDE5-5E96-4739-8943-F15E8D10D202}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{108F5F94-ED1E-4EFC-A505-4BD718943DC5}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{1CDC0032-0F90-4460-BBAF-F424BE3AED2B}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{A3839632-82FC-4E67-9DB5-E9E84F64EBF7}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{F17AC12A-9CFA-49DB-8528-701A301A175A}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{1B5FC5BE-91D9-43D4-A039-D796669B8FAB}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{CDB7BFB7-2281-48EF-BA17-698A2986C9F5}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{45221D70-E654-47F6-BCB1-DBF0331D8894}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{4867CCB6-53E9-4F10-BF4B-674EAFE2614C}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{0E77B98F-4708-4B6F-93C2-54BD10055F8A}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{4ED1F0C5-A38F-48DF-98A2-6F2E74725DF8}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{45951E41-7AAB-4021-82F1-C2E31E4DEDCA}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{D6CE8894-9A4F-4F73-B884-AB614D4CDE28}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{62215895-BCFE-4070-8672-978EC1D1230C}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{F205A304-A90C-4D29-8755-863811558D3A}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{3498B45B-4AF7-449A-BDC3-953B7CE6BE7B}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{DA6C81EB-D06B-4EF9-9617-3899E15CE368}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{21E400CE-3FA4-49D6-A48A-517C3608461F}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{DD7F36AD-4E7B-4F1D-9C13-3ECB39336153}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{67247BD3-CD50-4CB6-A416-D969CD2B70D0}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{2E293E88-9EA7-4C29-8736-23DDFF19B8F7}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{3215E489-4D27-4D6F-A8C5-2B54F881B9CA}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{B5175664-7DFB-4FC1-8001-F68B4170059B}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{BB9CDED8-F9D0-46F7-8C9A-B28C39AD2C2E}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{315DE347-05A9-45A4-A5A8-D95EF1C341C3}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{E43712F7-C1AE-43B9-AD4A-F7C2A2D1C905}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{69226216-A8C6-4100-A345-C840972861D2}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{1FDD97D3-1A51-41D0-8FD7-E340220C2586}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{E73329FF-D039-44EC-BFA7-DD691A4A488A}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{B8175443-AAD3-43C6-A0B8-69CF11C67C57}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{F832AD56-4769-4C19-95AB-7ECEA9CC365D}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{82ACE814-D5D4-41FE-8162-3654EE6C91A8}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{D6195D8D-0340-4453-B0DE-28E226403B4D}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{C8D1533A-9975-446A-99FF-65585FE85F2A}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{AF33726D-A084-4041-87D7-DB82BBBE0CAC}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{275EB2D1-88E0-4956-BE35-5177AF9F37A3}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{0BB36CFE-C025-4334-8099-BC6A8C8BE1AC}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{486AD57E-D3F6-4DCA-AA4D-4CE98F2B506B}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{6D162362-1DAE-4543-A494-0F0CF9303048}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{D5707C5C-92C3-44BE-8937-543B39B1D4E5}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{49B7E900-8050-45B9-9275-DDD74F8BF6BF}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{F03C190B-0558-43A2-8AFE-4153A2D797A8}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{42B802F1-787A-40F0-9649-FB8149C61F07}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{6AAF0550-2970-4884-8906-6B80B363C857}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{74D2CCA2-FBC4-402C-A5E3-0341B4B55F0C}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{38D4E7AF-54E5-4524-BE44-20098C39C4D8}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{2E756664-722E-426E-90F2-61EB7127592D}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{34E532BA-5B4E-4634-8A87-0D512A1BAAA3}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{D2F635BF-556B-48BC-AA55-D1AB6CBA0D6D}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{AF1D1C90-9117-4EFE-B965-FF2990E5BA69}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{E99055DA-F89C-465C-9DFE-D1B151404BD2}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{F07FEFB1-EF8F-4E2F-93E3-9D36E7820BE3}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{E1E4734E-B227-482A-8469-F25B651DF53C}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{0793630F-638C-4BF7-9DC1-2FC247F4C1D8}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{40992E94-5CFB-4B20-9103-09C2AD43FBAE}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{7858E94C-7AE1-42E7-B33A-FF6816A4C465}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{C158C083-6FC1-4B87-BCCA-7C6E7EB6981E}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{0834703F-9B63-43E3-8527-D2E64782EA7D}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{7529E4FB-45A5-48B4-B0E3-74DA656DBFA7}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{9E122D94-8034-4807-8BCE-8285BD23B79E}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{2C16A422-ED60-4BA1-BC28-6FD7B6E85D17}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{CA46921B-7A7A-47CF-8EF4-15C255049B9D}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{30BC246B-FD9B-44D1-BF5B-159D193B96FC}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{8BA86807-535D-4F7F-90F0-C9A232C4AD18}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{B12E8EDF-4A1D-4399-BC0D-C7655949A121}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{F956D8D2-DA50-4929-9919-8412374C5A36}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{2CCAAE74-1A2F-488D-A586-0FB07DEDC669}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{8BF4865F-62B2-429F-BF55-FA2BA953F2DC}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{A07E012A-6477-4527-8C43-7D0A4D0A225F}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{3767EE0A-6612-4C01-B8FC-A19D5EF05D3D}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{3FC7B896-77D2-4051-B54A-01792A955B21}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{17F73A57-502C-4D63-A5BC-04BC864AAC9D}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{39DA9A11-8787-4C35-9D7D-0C13F3237528}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{C1804FEB-23A4-450D-9E43-D6AC33231FBC}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{087BF212-FF32-41BC-A260-D8082FA94D8C}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{942C98FD-9C03-4F56-8199-B24B659F2EBB}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{DB4519FA-5E67-4941-BB2E-9A9DD5C1A0D5}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{D14813F2-7B3F-49C5-A0B8-82680F196ED6}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{2C32A09F-79C5-407D-8520-44350539D8FA}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{6998C22A-172D-4A20-90C8-F257F93D2C0F}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{2DD71135-DFC7-494A-B19D-8DF895F76D9E}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{93B01A96-8900-43F6-9644-6989BE480C47}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{1031F29F-15BB-4174-A38A-C642C8FD4281}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{524E4791-A80C-484A-9EC2-837C8628B411}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{BF7CD6EB-8135-4A5F-95C3-43C17F32BCFB}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{390B9208-98F1-4C10-B1C5-2B405F355B2D}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{C4FECCE4-8C42-4EF8-84EA-C3861CFC1749}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{BB53A864-5C49-45FB-A69E-8B0BBFF1B568}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{F4B3C608-0846-49E7-B6E6-BE6ECB331DA9}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{D566D99F-B2BB-43CF-BD42-37416742F352}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{5111048D-F9C5-412E-B135-6EC1D310197E}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{8B2F33EF-7896-432D-AA5F-C3C87478BFC4}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{2E878B23-DE81-41B4-8FEF-5AC5A218AE4F}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{E1CA28F2-507B-4949-9AF0-F748289B8462}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{F0FB2C5D-8B0D-4EE6-B1E7-38E1B893882F}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{4A3648EA-6ABC-4BF5-B312-1075E715A37D}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{74DB5596-9F53-4507-8C0E-A5F4967EAA81}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{486FB626-68B7-43E9-A9F1-84BC86502213}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{F2BBE3EC-7445-4592-9FCE-2025E87B7F07}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{0FAA4660-F136-458E-8280-10B95CC6B9E8}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{6AE7FE01-AA0D-400D-A510-2F3576F6058F}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{DC0D82E8-55A3-4F78-8364-EC26B6D18B32}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{4775D3D3-22ED-495C-A675-0687D1612478}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{422CD67A-6419-4C10-AB0C-E4E66BB7B5D3}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{931770FD-FA01-42D0-B236-9BD99668034E}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{3D11F199-CF92-42DB-B252-AAF1A4353CC4}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{A08BE706-2C5E-494B-899A-3AA7B1EDF7A9}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{62BBB897-1FB8-468C-9472-F5177C01CCA6}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{5A4E936C-9A5D-4855-B260-AFBC833C0E20}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{C94E04AD-BF42-49BA-A599-7C17A175D157}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{3EB8245B-16FB-4055-99B7-00E4610FE51C}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{528E7F1B-D624-4508-98B2-910E47F2AE0E}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{B9DA5D44-0DDB-4DE1-85F4-426AF92D72D5}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{D60E2936-DB10-4308-A839-DE8F56D8045A}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{857E46F2-2101-4A78-94EF-E3A187A7967B}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{3C2F6FD1-8C9A-4ADF-830D-3E876D292856}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{BFB86F65-98E8-411F-B5DE-618B61147D8A}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{063031A3-AE6D-421F-BC2B-542C8AAE1995}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{64611F7D-1252-4B91-8215-DD886163D7FE}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{F660DF42-AACA-4561-9092-25244A43DEAE}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{2AC22268-5211-4699-AE7F-B284885F8BEE}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{6120B5ED-82A8-43D0-AB44-C8E3CACE77C4}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{D9084BF2-7D10-4250-A27D-6B5B74674D56}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{516F0590-FA96-47C2-95F8-6603D0750493}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{DEA6A9C6-5833-4686-9BDF-4926E3DCA818}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{ACBF2916-ADE3-4CA7-B70B-37BC81FD5FB6}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{0F4D2DD3-F370-498E-AE8B-0218847207A6}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{9804671E-BB00-4DA6-9DDB-2E79A2587EE0}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{D54138DD-E8A2-4998-B5E5-04234E7E0C09}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{95E29CD8-0BB3-4214-BE01-3933F22A42AF}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{53F4C4FF-2415-4556-98E1-3E97C76BB6C8}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{E5F62FFB-DA92-4554-8DB4-165F00613B3D}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{4996566F-1AF0-48C8-919D-A3A98FEE334C}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{2C9E5283-E57F-4A90-A5AE-71EA11A9ACCD}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{2B5E13B4-7451-42DB-A117-26CFE2323CC3}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{49FB7CCD-3FB5-492F-9A66-75F18C33CEB2}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{03B238D2-5880-4519-B3B9-1CEF9EA92225}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{AE327BBC-C3E4-4F80-8EF8-974FECD2820B}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{2C0904D0-0717-4D35-A975-6321862CA15B}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{54DD6011-B95B-403B-AF4F-EE07A28E72E3}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{F59B0B5F-E5C3-49D8-94B9-016E79B358B0}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{5AAF6226-3EC3-4C8E-9321-C5865F3325FE}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{95C78955-BE89-464D-BAB8-18B262F646C5}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{67769342-89B2-430D-BC88-6F92CF598E9E}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{9DA8F4A1-D4DB-4E0E-A43E-82F968787D63}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{BB9EAC0A-D258-4AD2-BB03-692EA5FCEFD2}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{89FDBB3F-BAA1-4E3A-A589-F758908C5C83}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{15948056-51B1-4E3B-A27F-5A34E8C38596}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{C9EEC06D-07D9-472E-8667-6527231699B3}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{A6AF3C56-9314-438A-B880-1413102E28A6}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{4963D421-BA06-48B9-B5AF-C576DC8F16DB}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{C2356F3C-54F1-44E1-B9D9-5F26CBC67954}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{091AF8E6-A6CD-4EEC-8059-1DD978A54673}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{28568DB4-869F-418D-B0F9-BB8321A8C051}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{7D1735FB-4A35-4617-80A6-B7FAFBA2AE51}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{0808EC4E-25CB-463A-B295-7E437D6E0CB7}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{64F22DBC-40EA-458E-B461-2C3AD54732F8}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{A863B938-1E17-448C-B6D3-AC292D5A8B84}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{C4435B69-83D6-485B-B47E-48C93B53DA70}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{0E1D4959-7431-4848-869B-3E1AE69A8C94}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{0706E125-CFB1-4443-BD28-5158CB20D68D}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{297F3066-13E4-4C40-A543-3C081BB0D9E3}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{4903847F-94CF-434F-B1F4-2C05A2BA22C4}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{9EACD224-A0D8-4EF8-9B8C-22E45856D978}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{A4237516-569A-4A72-BE59-CAA27C067547}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{BC86F655-E22D-4298-9F0E-464F1B396749}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{C060CB27-3B7C-4AAD-A71F-5F50CBCF44ED}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{7AF50AED-FFE5-4957-BA95-C797F6265B69}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{0C4AC5B3-6341-482E-B3F1-D8DBA365F131}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{92A8902D-C41D-47A5-A782-4304FFFD2AF0}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{07584462-DC46-42A1-941E-D06493AC2833}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{0AAD503E-AB96-4363-A3AE-94CCF788417F}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{FE918183-7D02-4823-AAF1-24200E2068DA}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{547ACB6F-4F8A-42E4-8BAD-9EEC98EF2B41}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{8CE504E9-64D3-47D6-8BC0-1248DE1EBFB5}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{9B5896AE-269C-45B2-A7A9-3E87B86230E3}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{4606EC2E-BCDE-4F61-8FB6-3E8CB7ABC647}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{CC5F91F1-F44E-4EB0-A480-EC61FC598925}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{CC231CF1-2479-454A-BA9F-CDF4B5FF08DC}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{DCBA0E32-FBEA-4E97-BA4E-C53F43EAF98F}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{D8B9BCAF-8BEC-4A67-B36F-5230B486A2EC}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{30011F7B-D1A5-4E4A-8610-521E3320CA94}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{EF977DB3-1F4E-422D-9028-10590DEAE325}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{AA10A848-6100-4234-A61A-F7C2375FEDD6}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{DB4DB9DF-AED5-4410-AB5F-E44993356B5A}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{376633BA-B533-42C1-BCBA-DE7BCF497B05}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{0C29EBDD-DC14-4810-A045-E49F67ABD200}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{733DF1B4-6782-4FB6-870F-8FCB16A3B7BC}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{40FC028D-9EE8-47AF-8B5C-FDAA10212D29}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{2BF42C3C-2226-4FD1-8294-1BA0C6C11B4D}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{35B1CEB2-E85D-4649-B96D-19CF22CE87B2}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{D81F13A6-B66D-462E-8228-AE17649B4098}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{9A972FEC-64A3-4DE9-83B3-E0B8DBACA38E}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{444F9804-05C5-4FE4-8682-3D6548AEEC1B}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{47B7DD21-B21A-45C4-85F6-63DC10CDB17F}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{F3536389-30A8-4778-9336-468D8FB53D9C}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{0B05E0EF-175E-4C6F-AB71-9C2AE608F627}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{4216193A-E541-4F43-8802-AFB36030F029}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{CF537E53-34F7-4870-B25A-F7D5DAF8DC6D}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{43CB6AEF-CF48-4136-9E8C-5AD916651D8F}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{7E9D40A9-D0C2-4B75-90E1-A76EACFC7869}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{44F68320-46C8-4EB0-9C46-AE22BB7AB31A}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{F72918EF-D5F6-46A3-8A10-3A7F12201641}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{03A7A4D1-D9E8-4D6F-A9FE-556C14B13891}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{E290CF24-8633-403B-B508-3C73903EFCC6}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{E3EB5E97-F502-4F6B-B1BE-25A7CDA386BB}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{3EF25277-035D-4533-B5BF-3D094B6FCD0C}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{BC1A2E2E-74C9-4EB1-A0F7-9F6E426F1583}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{943AB9DB-DF8A-4239-A45D-CA0B4007BD43}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{097E2F85-2DAD-4807-8B79-2372F346B9E8}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{6537EBCE-6E10-4AE8-AFCA-69B928EEE384}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{3ED58501-EF8E-4A53-A0B3-29F3BB850A90}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{ABD1DC3B-1EF7-4D7A-83EF-A2B28A00F129}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{608B1A44-1F26-4971-B184-3DE299786C13}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{AD15ED20-09B4-46AA-BDAD-FF138E0DF644}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{020662AE-7430-4316-A05A-F79066EC17E7}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{F9C7F754-5B47-46AF-B03D-C073DC758055}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{71C0E461-DDD1-442C-893B-87BAB6171D2D}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{64B6578B-D2E8-472E-B531-4A2EC04E0A17}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{06EC5A5C-FD48-4644-9F7B-F87516B834EB}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{C00D74C1-8A2E-4950-9C7C-A0922ED92D5E}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{DCE4A373-7CF5-416B-9D8B-17BE6EFE606F}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{7115433D-BBE3-4431-9A15-4E7A6680F92D}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{A72ADE7A-DE96-421E-B626-96655FB05EDE}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{0CB255D3-2C81-4509-9E41-93E4A60558D6}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{5464579F-D592-488F-A3C0-05FEB46B7FEA}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{EAE40399-822B-4755-A049-035C46F032FC}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{9FC4D619-6894-41F7-8DCB-A95021A1EDE2}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{0928E26B-F16F-45F6-83C6-17AD2EF92BE3}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{1A0E1423-A853-45E5-88CE-8356D189954E}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{3380F72B-53F0-402D-8886-7EAC633509B6}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{04A5A9A6-BBE8-4DD8-932B-B7CCF3FE57B2}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{55BF8D5A-AA03-46E2-A79C-D6F95970D6B9}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{ED31B437-4FFE-46E9-9E39-CB2DCD19194F}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{11B9B0BC-18E5-451A-AFFD-2D7AF29B544D}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{C4CB605E-AE47-4B7F-B006-A5D643C81997}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{361FE9AB-130B-4665-9FF9-53F83C1FBA68}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{019822FC-E846-4C53-A94D-9684D0420A9E}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{F315F321-4057-45BB-AB4E-3075F11D7B11}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{CDB18536-6B9C-4180-BEEB-B430DDE7ACE2}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{CFF6BA8C-7433-4FB4-A1CE-9E1DF70FAF18}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{A2441954-67E2-4F2E-9DE6-27140187ED19}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{38A4A186-86FB-42DB-AFD5-985A9FEFAE6E}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{1452E4E9-3F4A-4F7C-995A-A85A1925CD4F}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{4798ACE3-EE31-44FE-9F54-53D3F7DB3568}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{EE01768C-1B98-4896-BE41-3AA38334C83E}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{70AFB6EF-B93B-4921-9530-D9175FF8AFEB}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{48B53FBA-C81A-4250-AA2E-3C0DAE215BC2}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{8E4AD772-4734-4A60-89E1-1FD3B27CF716}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{6E259927-B885-4660-A2E6-CB7148CB8EEE}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{F1166E9F-14BC-4AC2-A8BE-55A9D8D81A34}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{4AA1945E-0FF1-4816-8411-19C40D4671A2}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{5B60B058-D67F-42CB-8F53-480D9C6B6327}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{C23313EF-3307-49CF-B5EF-A9B45ACB69ED}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{83A94E1E-F335-4AEF-B2E2-EFC01AAC2961}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{7C491B8F-5E19-421F-8110-2FFCD2411EAC}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{2A88BC5D-512A-487C-A735-FCD1E3566EFF}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{107AC418-08C9-4137-9BDB-8E5D94A259E2}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{78E91B92-6060-4EC9-B3CB-3CCEE2D36F65}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{3CF583E5-B05E-41C2-9CD3-013BBBA4B3D6}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{CC7279A3-E5E9-4DD0-A247-4BAD2338E7C6}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{09A2C595-B8A7-4448-B708-EA185D7E9C21}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{76F73D15-B4F6-4D95-9A7D-59D44DC1CD2D}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{244A0D63-1991-4182-A2AD-37FD6119DB83}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{E6E09A91-1BCC-4A42-A270-221261521E7C}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{67BCD41A-F95A-4CC2-A850-F92846404DCD}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{91F07010-62E8-4CB5-8E27-E6E05B7F6CC4}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{FFB9D00D-7464-4EC7-A112-35F74E28F27C}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{9D0B7EA4-89E9-41C1-AAD7-56C1B7417DEE}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{EB26B87D-471E-4756-A9F5-D8E0C740EC05}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{1C675F45-3EFB-492A-B711-2E9CC8B7E428}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{FA77B71E-9CD4-4E53-BAFD-FC68D2CBC062}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{C9A9D580-C286-445D-B9C0-CC0318A12998}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{6840AAA4-D85F-459C-897C-F5B164EB2A49}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{A6A3A8DF-17EE-40F2-8FC4-D8F01B2BE678}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{62527C41-765B-4984-A7BF-993ECD033260}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{1390C126-7DAC-4BF0-A1A6-7963EB0A42CC}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{BAC186F8-21CA-481F-A71C-2D48A20DC859}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{A5B162F9-D426-4152-BEDB-306CC18EF92F}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{491CA629-3C54-4A99-82ED-1E1C4B3F0273}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{A1128CE7-CF79-4B77-8146-B02071079069}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{74BA0240-0225-4C45-847A-FF8917C1870B}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{B85F91A3-0340-45B9-A013-C1C4BA8C0502}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{A5F6E723-3F3C-4200-9818-9E4EFEB5448B}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{6BCADDA8-A617-4071-AA48-FEDD1531C2FF}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{F1C9EDFA-9441-4F97-9CD1-37E8B2D24BDB}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{456E9FF5-E412-4F1A-8129-C140C75C12D4}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{EA4992D6-9066-4E0C-8AC1-E7722BCB87FD}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{F02C4F46-0C48-4069-8D1D-C27CA690F236}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{A9545378-FF1F-4365-A6F8-D2CF2B7737DB}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{563AF2D2-CA35-4D22-B06F-75D212CB9EA1}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{AC6B0643-8B4F-4DDC-93D2-744F3C7B58E6}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{33A57D93-2618-4C3B-BFF7-5BFA0AFCB7F3}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{ADADC38A-40CE-4D71-8C75-7D814ABA63A8}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{419B836B-07D2-4D80-8EC3-BA1F0B375DEC}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{9FC62EB7-6AED-414B-94B1-E6BF3FF6DADB}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{44DDDAC7-9F44-4707-B83A-D0E0887DB11C}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{6534D43D-D2C8-48AE-AC54-FAE4AFCF6B27}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{19033D11-F1F0-4D91-9B3A-5A6202F4CC07}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{48F09185-6FDD-4789-AC74-DE52FDB84F0F}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{8F0AC3B2-D48F-4A72-8876-0BA8046F9B3B}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{163005D4-C12D-422F-832A-05F0313E8E10}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{3060A4C6-0275-4303-8320-22725265041C}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{276F4479-7BF2-4CD0-89BB-6672914FB8A8}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{551ADA62-0BB5-4788-ABE5-FEA2839BB7C7}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{B6FE31EC-3224-4F09-9484-0D7B23946CC6}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{80E67E33-F5AF-4D66-A422-38D1B5EDC728}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{5B2A709C-DB63-47ED-A898-3FE2A3BC7CE2}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{ACA974C6-B220-4E25-B755-0D639C90B58B}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{AF4061DD-A884-4F95-A799-1009394ADE00}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{EFB630EF-20CB-4D75-A50E-7AC4AA6EC90D}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{ED57EF69-A338-422D-ACB2-EC8FBE80D1AD}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{9C645AC1-98C3-460A-AA21-CE880EDED17B}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{B713B5A8-BCAD-4B9C-B3D0-0A402C11FE51}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{330A510A-8418-4A71-8DB7-4A6770E4C852}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{FABF97E0-1B8F-4624-B134-F7F1D0EC6D9A}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{9F25FAC4-8507-43A3-B2CC-299C257359A9}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{E17716B2-4564-4AE0-9888-CD6A853A5629}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{248F71B1-A02C-48BE-B36A-577708A1519D}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{01FA416A-9003-4C8B-8A83-A97CAE5411A1}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{FB13A574-196B-43A1-BC41-6FCF5C2ED5DD}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{3D13E2F2-60DC-4ED5-88B3-F560086DDE40}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{2B7C031E-DA66-4718-A839-0A67584B1EBA}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{B8D450C0-6A92-4A97-AD00-BB213840E5DA}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{9EC9BDD1-0CC5-4BD2-8607-B9D9E85EE0A7}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{F14127DD-E328-4689-9553-936C80EAA1DA}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{38CB0DDD-317A-4E1A-8566-74532FE93D68}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{59AD2498-5158-4D9A-8997-9D683C03ABBB}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{94CD4564-D305-4570-83B0-4C9298C252BF}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{B44E4BE6-D0C2-4CB1-B8DB-2876F91902A9}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{85E5C879-28A0-4559-8651-CAB91DA48CC7}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{4E6A5A72-A891-434B-A61A-BE3BD7AC3D73}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{A23B4D89-48B3-4E5E-976B-DEB88FBFFC15}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{5F6BAD54-9BD0-4125-B813-D22703CFC21D}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{F4045CE6-D880-4EF0-BE28-77D8AA71A87A}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{0363A42E-6E09-4712-86F0-A0DEB91C2F23}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{E7B8D4E0-3ED8-49D6-9D47-663BD8E6ABA6}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{CF1E1348-7E12-4EDE-9F6A-5BF175AAA8B8}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{D0B26035-8C98-4E9B-9C47-67BCC8DA2DE2}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{4FBE6CA2-F466-4D3F-8680-9EB5394B6CDC}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{43CFEEDA-30B9-4400-9385-AB3526404FC5}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{0D19B95E-BD84-40E1-97A5-B9CC7CCB3BDA}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{BF8ACFC9-7E59-4C01-BB70-63D3A900454F}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{F7FC3BE6-1ADD-4972-B463-F62B984ACE5A}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{7AD61D4C-B1D3-44E5-AFAD-FED834FF8623}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{152A6C05-B95E-47F9-B009-9FB1DE45837C}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{E315AF7A-3F8E-451A-B8FD-27A589EE021A}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{A83783A5-2BDB-49A2-89D0-0A90EB645C4C}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{820CBB9A-7608-4F43-8C5A-6DBD394E2227}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{D4FA2038-78F2-4C5E-B094-F120BAB4E973}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{B8E84275-C553-433B-B756-0BB1BD6EC71D}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{50EC219C-18E8-4266-A983-3BED0E98ED82}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{AABD9CFF-AE21-4837-AE03-397EEAA0EA14}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{2E022D4B-59D3-4630-A794-0F454EC586BB}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{87D5C3F4-5DD1-4C40-B0C5-2E7DB9BDB1BA}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{DF5D8BA3-B120-400A-A26C-0E4A8DC6EBE0}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{6B4E19EA-F9BD-4B13-8502-121195CC6149}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{5A7F987A-AA8D-4CBE-B9A5-CB72B4DF09B9}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{EA160871-49EB-4719-994D-0560C0EC0BDE}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{842D7491-4A58-48C9-9EB0-B22D5F10B007}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{270EFA76-B9CB-4384-A939-1A4D5F85EA0E}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{29ADF84D-61C7-4F47-8C5C-6105943E7E62}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{258E4B0F-CC2C-480D-9DCA-CEAE1DC4791B}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{F0850E94-081E-4565-834A-58F33463254E}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{8FEF2DA3-5ADB-4637-936D-938E5D0EBAD1}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{5910148C-4B08-40B8-80C4-396DEFD1C110}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{BD1A78BC-2106-4575-9FC7-1B80C940D919}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{2560F69E-D603-4B0E-829F-21FA17BFFA0F}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{38B49833-C0CB-4C24-8F68-6F564D778342}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{34EFD7DB-B222-4792-9DF3-6D0F07DFB052}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{55D0B712-CA8C-4A8C-ABD3-8618BAB430B5}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{2B1CB14F-ACD5-46D1-87EC-65EF87433B95}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{BEE2EB64-4743-40A7-9055-D89353E71D93}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{EFE80375-CB66-4329-9D42-980273FB845B}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{ED895570-6932-4554-AF98-4EE8FB3F8965}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{67A6AA6B-8ED9-4788-BFBB-6E0D58D9C0EB}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{B8DF7A54-30D3-43CA-92D7-299832134E79}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{BB587840-DDF2-4F05-A1B5-7850FAAECD0B}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{64CDCDF1-2713-4CA2-A5ED-DF7B026171C7}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{EE6C7CC9-CE9F-4CDC-8DB8-A5EEC342FD8D}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{26A0D389-2C98-4B9C-9A50-9B9008131D71}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{72AAEB2A-B750-4FC7-9476-44F1655D1D32}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{8BE5774D-D235-4792-8A29-2FE689662DD0}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{341E8835-9651-4104-B498-58E2DFB788ED}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{8B2AFEDB-D1F2-43AA-B0E4-8E10509959C9}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{071E4392-4870-4798-8406-C8EDEB214AFF}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{2DB5D8A2-2095-483B-888F-8DBF0251BBCA}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{39D1A8EA-5D82-451B-82A2-A3BEF0E79DCD}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{8B7EDD6C-3B7C-4688-872D-FB064BD098F7}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{74941525-920A-4BE3-8CAA-9F076CBC8D5F}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{ACD64BD5-6510-4C3E-9259-B03E3A5B3ABF}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{0C977CF1-0B8C-4276-A25E-678649B4E996}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{AE42FD79-F02F-4313-8397-A0CCCE96B1CE}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{1B692DE8-D4E7-4CC9-B5FC-E0533FA30A7E}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{9E7F6780-F418-4D3C-852E-4A7D7CA84B2D}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{6D470A6D-8E81-40DF-BB2E-D90A1A0AF956}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{52F3136B-A386-4A46-B88F-9CA247DB37B2}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{2DAEE5C7-62EA-408C-AA21-1AC00B324BCE}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{6A4678E9-1DAF-46C4-8F35-332B586C936E}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{966BF81C-6899-433B-8F77-63F7D1C238C5}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{395C963D-49D7-41F1-B8FC-43E5A4575CDD}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{71E4B8D8-3C21-438F-8331-1685B2910397}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{98CB42F2-DAC5-4983-8287-BCE9FBF503E4}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{36CEB955-A01D-4371-84D7-32D508C6B022}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{95EA0C12-A029-46A9-8122-0F3E2481495E}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{C61E0E37-86FA-4A8A-B40F-05A1A44DA7DA}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{991CE451-AD03-4995-BA53-C0A8BBF4D5BC}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{4EF197B4-76D3-4A91-9A91-71B3965CE616}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{695D0C17-4675-4604-B561-20F069E87EE4}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{3A52772E-70B7-42AE-9EF7-542B55C32380}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{A87D2DA9-D757-45A9-A44A-7AB303AB82C2}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{AF41FB65-84BA-476C-BCBF-AD8447870964}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{144A7015-47CA-4195-ACAC-AE841B0DAFA5}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{4F191B99-0570-4F36-9BFB-FF3AB435C0D8}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{D284A884-7D6F-4A6C-82F6-1604DF0E4EFD}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{B3B1CB3D-33A6-44A0-BB75-16ADF5261B1A}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{5DE6BA83-41A5-4BB4-9136-39CA5FA70E5A}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{F4E44550-23C5-47EC-84E8-0773668B8067}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{74F6EB1B-D9F7-4153-A291-DE7672F34D01}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{71B4B136-ED55-4B6D-A9B4-B7127B56624B}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{EC6AF5CB-B83A-418F-8CFE-2239B198F932}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{B14387B6-5EEC-40DA-BB20-1EDDC3DF11BC}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{B72EC890-A5D0-4C5E-BF9E-5E5D24DA568C}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{673BB2F2-6043-4AEB-B885-35558B49A5AF}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{3AEDEB25-E561-4193-8970-8AB220D09146}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{9D6D6E20-6B9D-40AF-9CBA-7DE0EAF753DE}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{3B17901E-1218-43E6-ADF7-7407A871D4DD}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{6F32F5D4-3A83-483E-A872-D657BFA35258}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{10029281-660A-41FA-A4D7-743F9E1B3BE4}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{261E35D6-187E-4792-9C99-AEABC7F938C5}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{EE4137D4-7C4D-4C35-A7CF-CC53C1685E9F}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{84FC6ECE-7F86-4280-B508-C7F07262C317}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{1530B23D-4D39-499E-8EE3-C74820E11ECA}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{1F245A03-8102-4D18-A6BD-691AE5ED3544}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{AE42555C-7E91-427B-B441-CDA9C60527DD}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{1EC1237B-320B-49FC-8F07-8A932AEDFA10}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{3F8849A2-AD83-4A24-A735-D51D8B27D438}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{BC3ECA23-6234-44F8-AE66-AC58526AB1E2}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{A3F5F6EE-00F6-4504-A2AE-B61591B94515}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{54F69AAE-0C8C-4A04-B115-79A48D16639F}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{31E1A9D8-D947-4ADC-9BB9-72A331F6CFC8}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{C02F8636-64E9-463B-9BF5-AEA3DFC56D62}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{8E5A9034-80DE-428E-AEBD-675EFA731301}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{D089C941-B918-4F03-91EC-D4C7B738F266}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{20C0A456-91FF-4EDD-AEF9-92907E387BA1}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{B84A7259-85B5-48EF-BEDD-F5A1844BC6D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId372"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId389"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF3570-4E2B-4CDE-8BA2-F34FB156E7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE8BA9-4592-46AE-A24C-A6D86E40FAC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="862">
   <si>
     <t>titulo</t>
   </si>
@@ -2539,6 +2539,87 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/299a595f-860f-4f5a-8a28-b88551ec0d8f?title=CTC%20%7C%20Call%20com%20Ricardo%20Neme%20(Ger.%20Marketing)</t>
+  </si>
+  <si>
+    <t>Boa Safra | Site visit</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a8f828f9-feb1-4d28-a8e2-e838f24883dd?title=Boa%20Safra%20%7C%20Site%20visit</t>
+  </si>
+  <si>
+    <t>PMEs faturam 225% a mais no e-commerce no 1º trimestre de 2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f965b8a5-d292-42b7-b82d-ded6da91b3bd?title=PMEs%20faturam%20225%25%20a%20mais%20no%20e-commerce%20no%201%C2%BA%20trimestre%20de%202021</t>
+  </si>
+  <si>
+    <t>SOMA - Roberto Jatahy (CEO) com Poli Finance</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6b4366b3-0dea-6590-06ad-e62d63044c1f?title=SOMA%20%20-%20Roberto%20Jatahy%20(CEO)%20com%20Poli%20Finance</t>
+  </si>
+  <si>
+    <t>LREN | Call com Management - Follow On</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/051ad373-1d42-7ba2-811e-790bde1d4bda?title=LREN%20%7C%20Call%20com%20Management%20-%20Follow%20On</t>
+  </si>
+  <si>
+    <t>Conheça principais players do mercado pet brasileiro</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/59bfdd43-f40d-4250-a120-15d0460fb1ac?title=Conhe%C3%A7a%20principais%20players%20do%20mercado%20pet%20brasileiro</t>
+  </si>
+  <si>
+    <t>Santander reforça private banking com 60 profissionais | Finanças | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9db7fe49-1d0a-4b6b-a02f-ccbfb3dda9c1?title=Santander%20refor%C3%A7a%20private%20banking%20com%2060%20profissionais%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Roberto Jatahy | CEO SOMA @ XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8dd1252e-15f1-4a1e-026b-03866d20aa4b?title=Trocafone%20%7C%20NDR%20com%20Management</t>
+  </si>
+  <si>
+    <t>Trocafone | NDR com Management</t>
+  </si>
+  <si>
+    <t>Bernardo Guttmann e Marco Nardini (Sell-side TMT na XP)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5317108c-8d32-18d7-86d0-a60b4da76fbd?title=Bernardo%20Guttmann%20e%20Marco%20Nardini%20(Sell-side%20TMT%20na%20XP)</t>
+  </si>
+  <si>
+    <t>Kora | Fabio Frank - Diretor Medico Rede Meridional</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/65b3eec8-9f83-462f-beb8-23ce4a526ce2?title=Kora%20%7C%20Fabio%20Frank%20-%20Diretor%20Medico%20Rede%20Meridional</t>
+  </si>
+  <si>
+    <t>Call de Varejo/Ecommerce com Richard @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/84bd35ae-0097-6be0-57ba-73cd4dfd870c?title=Call%20de%20Varejo/Ecommerce%20com%20Richard%20@%20BBI</t>
+  </si>
+  <si>
+    <t>LWSA - CEO da Vindi (pagamentos recorrentes) @ Safra</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d8df4270-f21f-7fc4-4b15-b238a118b335?title=LWSA%20-%20CEO%20da%20Vindi%20(pagamentos%20recorrentes)%20@%20Safra</t>
+  </si>
+  <si>
+    <t>LREN | Group Meeting com Management @BBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8daccc4f-b482-ed8e-ad16-e90a4ec0a866?title=LREN%20%7C%20Group%20Meeting%20com%20Management%20@BBA</t>
+  </si>
+  <si>
+    <t>LREN | Call com BBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5bd2db57-5b18-1e87-ca2a-a088216320c6?title=LREN%20%7C%20Call%20com%20BBA</t>
   </si>
 </sst>
 </file>
@@ -2936,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,398 +6373,524 @@
         <v>834</v>
       </c>
     </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>835</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>837</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>839</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>841</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>843</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>845</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>847</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>849</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>850</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>852</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>854</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>856</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>858</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>860</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{7529E4FB-45A5-48B4-B0E3-74DA656DBFA7}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{9E122D94-8034-4807-8BCE-8285BD23B79E}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{2C16A422-ED60-4BA1-BC28-6FD7B6E85D17}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{CA46921B-7A7A-47CF-8EF4-15C255049B9D}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{30BC246B-FD9B-44D1-BF5B-159D193B96FC}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{8BA86807-535D-4F7F-90F0-C9A232C4AD18}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{B12E8EDF-4A1D-4399-BC0D-C7655949A121}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{F956D8D2-DA50-4929-9919-8412374C5A36}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{2CCAAE74-1A2F-488D-A586-0FB07DEDC669}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{8BF4865F-62B2-429F-BF55-FA2BA953F2DC}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{A07E012A-6477-4527-8C43-7D0A4D0A225F}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{3767EE0A-6612-4C01-B8FC-A19D5EF05D3D}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{3FC7B896-77D2-4051-B54A-01792A955B21}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{17F73A57-502C-4D63-A5BC-04BC864AAC9D}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{39DA9A11-8787-4C35-9D7D-0C13F3237528}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{C1804FEB-23A4-450D-9E43-D6AC33231FBC}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{087BF212-FF32-41BC-A260-D8082FA94D8C}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{942C98FD-9C03-4F56-8199-B24B659F2EBB}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{DB4519FA-5E67-4941-BB2E-9A9DD5C1A0D5}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{D14813F2-7B3F-49C5-A0B8-82680F196ED6}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{2C32A09F-79C5-407D-8520-44350539D8FA}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{6998C22A-172D-4A20-90C8-F257F93D2C0F}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{2DD71135-DFC7-494A-B19D-8DF895F76D9E}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{93B01A96-8900-43F6-9644-6989BE480C47}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{1031F29F-15BB-4174-A38A-C642C8FD4281}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{524E4791-A80C-484A-9EC2-837C8628B411}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{BF7CD6EB-8135-4A5F-95C3-43C17F32BCFB}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{390B9208-98F1-4C10-B1C5-2B405F355B2D}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{C4FECCE4-8C42-4EF8-84EA-C3861CFC1749}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{BB53A864-5C49-45FB-A69E-8B0BBFF1B568}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{F4B3C608-0846-49E7-B6E6-BE6ECB331DA9}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{D566D99F-B2BB-43CF-BD42-37416742F352}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{5111048D-F9C5-412E-B135-6EC1D310197E}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{8B2F33EF-7896-432D-AA5F-C3C87478BFC4}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{2E878B23-DE81-41B4-8FEF-5AC5A218AE4F}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{E1CA28F2-507B-4949-9AF0-F748289B8462}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{F0FB2C5D-8B0D-4EE6-B1E7-38E1B893882F}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{4A3648EA-6ABC-4BF5-B312-1075E715A37D}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{74DB5596-9F53-4507-8C0E-A5F4967EAA81}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{486FB626-68B7-43E9-A9F1-84BC86502213}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{F2BBE3EC-7445-4592-9FCE-2025E87B7F07}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{0FAA4660-F136-458E-8280-10B95CC6B9E8}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{6AE7FE01-AA0D-400D-A510-2F3576F6058F}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{DC0D82E8-55A3-4F78-8364-EC26B6D18B32}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{4775D3D3-22ED-495C-A675-0687D1612478}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{422CD67A-6419-4C10-AB0C-E4E66BB7B5D3}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{931770FD-FA01-42D0-B236-9BD99668034E}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{3D11F199-CF92-42DB-B252-AAF1A4353CC4}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{A08BE706-2C5E-494B-899A-3AA7B1EDF7A9}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{62BBB897-1FB8-468C-9472-F5177C01CCA6}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{5A4E936C-9A5D-4855-B260-AFBC833C0E20}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{C94E04AD-BF42-49BA-A599-7C17A175D157}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{3EB8245B-16FB-4055-99B7-00E4610FE51C}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{528E7F1B-D624-4508-98B2-910E47F2AE0E}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{B9DA5D44-0DDB-4DE1-85F4-426AF92D72D5}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{D60E2936-DB10-4308-A839-DE8F56D8045A}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{857E46F2-2101-4A78-94EF-E3A187A7967B}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{3C2F6FD1-8C9A-4ADF-830D-3E876D292856}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{BFB86F65-98E8-411F-B5DE-618B61147D8A}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{063031A3-AE6D-421F-BC2B-542C8AAE1995}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{64611F7D-1252-4B91-8215-DD886163D7FE}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{F660DF42-AACA-4561-9092-25244A43DEAE}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{2AC22268-5211-4699-AE7F-B284885F8BEE}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{6120B5ED-82A8-43D0-AB44-C8E3CACE77C4}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{D9084BF2-7D10-4250-A27D-6B5B74674D56}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{516F0590-FA96-47C2-95F8-6603D0750493}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{DEA6A9C6-5833-4686-9BDF-4926E3DCA818}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{ACBF2916-ADE3-4CA7-B70B-37BC81FD5FB6}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{0F4D2DD3-F370-498E-AE8B-0218847207A6}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{9804671E-BB00-4DA6-9DDB-2E79A2587EE0}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{D54138DD-E8A2-4998-B5E5-04234E7E0C09}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{95E29CD8-0BB3-4214-BE01-3933F22A42AF}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{53F4C4FF-2415-4556-98E1-3E97C76BB6C8}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{E5F62FFB-DA92-4554-8DB4-165F00613B3D}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{4996566F-1AF0-48C8-919D-A3A98FEE334C}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{2C9E5283-E57F-4A90-A5AE-71EA11A9ACCD}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{2B5E13B4-7451-42DB-A117-26CFE2323CC3}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{49FB7CCD-3FB5-492F-9A66-75F18C33CEB2}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{03B238D2-5880-4519-B3B9-1CEF9EA92225}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{AE327BBC-C3E4-4F80-8EF8-974FECD2820B}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{2C0904D0-0717-4D35-A975-6321862CA15B}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{54DD6011-B95B-403B-AF4F-EE07A28E72E3}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{F59B0B5F-E5C3-49D8-94B9-016E79B358B0}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{5AAF6226-3EC3-4C8E-9321-C5865F3325FE}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{95C78955-BE89-464D-BAB8-18B262F646C5}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{67769342-89B2-430D-BC88-6F92CF598E9E}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{9DA8F4A1-D4DB-4E0E-A43E-82F968787D63}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{BB9EAC0A-D258-4AD2-BB03-692EA5FCEFD2}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{89FDBB3F-BAA1-4E3A-A589-F758908C5C83}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{15948056-51B1-4E3B-A27F-5A34E8C38596}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{C9EEC06D-07D9-472E-8667-6527231699B3}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{A6AF3C56-9314-438A-B880-1413102E28A6}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{4963D421-BA06-48B9-B5AF-C576DC8F16DB}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{C2356F3C-54F1-44E1-B9D9-5F26CBC67954}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{091AF8E6-A6CD-4EEC-8059-1DD978A54673}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{28568DB4-869F-418D-B0F9-BB8321A8C051}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{7D1735FB-4A35-4617-80A6-B7FAFBA2AE51}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{0808EC4E-25CB-463A-B295-7E437D6E0CB7}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{64F22DBC-40EA-458E-B461-2C3AD54732F8}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{A863B938-1E17-448C-B6D3-AC292D5A8B84}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{C4435B69-83D6-485B-B47E-48C93B53DA70}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{0E1D4959-7431-4848-869B-3E1AE69A8C94}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{0706E125-CFB1-4443-BD28-5158CB20D68D}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{297F3066-13E4-4C40-A543-3C081BB0D9E3}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{4903847F-94CF-434F-B1F4-2C05A2BA22C4}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{9EACD224-A0D8-4EF8-9B8C-22E45856D978}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{A4237516-569A-4A72-BE59-CAA27C067547}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{BC86F655-E22D-4298-9F0E-464F1B396749}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{C060CB27-3B7C-4AAD-A71F-5F50CBCF44ED}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{7AF50AED-FFE5-4957-BA95-C797F6265B69}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{0C4AC5B3-6341-482E-B3F1-D8DBA365F131}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{92A8902D-C41D-47A5-A782-4304FFFD2AF0}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{07584462-DC46-42A1-941E-D06493AC2833}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{0AAD503E-AB96-4363-A3AE-94CCF788417F}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{FE918183-7D02-4823-AAF1-24200E2068DA}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{547ACB6F-4F8A-42E4-8BAD-9EEC98EF2B41}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{8CE504E9-64D3-47D6-8BC0-1248DE1EBFB5}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{9B5896AE-269C-45B2-A7A9-3E87B86230E3}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{4606EC2E-BCDE-4F61-8FB6-3E8CB7ABC647}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{CC5F91F1-F44E-4EB0-A480-EC61FC598925}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{CC231CF1-2479-454A-BA9F-CDF4B5FF08DC}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{DCBA0E32-FBEA-4E97-BA4E-C53F43EAF98F}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{D8B9BCAF-8BEC-4A67-B36F-5230B486A2EC}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{30011F7B-D1A5-4E4A-8610-521E3320CA94}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{EF977DB3-1F4E-422D-9028-10590DEAE325}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{AA10A848-6100-4234-A61A-F7C2375FEDD6}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{DB4DB9DF-AED5-4410-AB5F-E44993356B5A}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{376633BA-B533-42C1-BCBA-DE7BCF497B05}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{0C29EBDD-DC14-4810-A045-E49F67ABD200}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{733DF1B4-6782-4FB6-870F-8FCB16A3B7BC}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{40FC028D-9EE8-47AF-8B5C-FDAA10212D29}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{2BF42C3C-2226-4FD1-8294-1BA0C6C11B4D}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{35B1CEB2-E85D-4649-B96D-19CF22CE87B2}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{D81F13A6-B66D-462E-8228-AE17649B4098}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{9A972FEC-64A3-4DE9-83B3-E0B8DBACA38E}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{444F9804-05C5-4FE4-8682-3D6548AEEC1B}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{47B7DD21-B21A-45C4-85F6-63DC10CDB17F}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{F3536389-30A8-4778-9336-468D8FB53D9C}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{0B05E0EF-175E-4C6F-AB71-9C2AE608F627}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{4216193A-E541-4F43-8802-AFB36030F029}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{CF537E53-34F7-4870-B25A-F7D5DAF8DC6D}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{43CB6AEF-CF48-4136-9E8C-5AD916651D8F}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{7E9D40A9-D0C2-4B75-90E1-A76EACFC7869}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{44F68320-46C8-4EB0-9C46-AE22BB7AB31A}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{F72918EF-D5F6-46A3-8A10-3A7F12201641}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{03A7A4D1-D9E8-4D6F-A9FE-556C14B13891}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{E290CF24-8633-403B-B508-3C73903EFCC6}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{E3EB5E97-F502-4F6B-B1BE-25A7CDA386BB}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{3EF25277-035D-4533-B5BF-3D094B6FCD0C}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{BC1A2E2E-74C9-4EB1-A0F7-9F6E426F1583}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{943AB9DB-DF8A-4239-A45D-CA0B4007BD43}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{097E2F85-2DAD-4807-8B79-2372F346B9E8}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{6537EBCE-6E10-4AE8-AFCA-69B928EEE384}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{3ED58501-EF8E-4A53-A0B3-29F3BB850A90}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{ABD1DC3B-1EF7-4D7A-83EF-A2B28A00F129}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{608B1A44-1F26-4971-B184-3DE299786C13}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{AD15ED20-09B4-46AA-BDAD-FF138E0DF644}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{020662AE-7430-4316-A05A-F79066EC17E7}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{F9C7F754-5B47-46AF-B03D-C073DC758055}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{71C0E461-DDD1-442C-893B-87BAB6171D2D}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{64B6578B-D2E8-472E-B531-4A2EC04E0A17}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{06EC5A5C-FD48-4644-9F7B-F87516B834EB}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{C00D74C1-8A2E-4950-9C7C-A0922ED92D5E}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{DCE4A373-7CF5-416B-9D8B-17BE6EFE606F}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{7115433D-BBE3-4431-9A15-4E7A6680F92D}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{A72ADE7A-DE96-421E-B626-96655FB05EDE}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{0CB255D3-2C81-4509-9E41-93E4A60558D6}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{5464579F-D592-488F-A3C0-05FEB46B7FEA}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{EAE40399-822B-4755-A049-035C46F032FC}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{9FC4D619-6894-41F7-8DCB-A95021A1EDE2}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{0928E26B-F16F-45F6-83C6-17AD2EF92BE3}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{1A0E1423-A853-45E5-88CE-8356D189954E}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{3380F72B-53F0-402D-8886-7EAC633509B6}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{04A5A9A6-BBE8-4DD8-932B-B7CCF3FE57B2}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{55BF8D5A-AA03-46E2-A79C-D6F95970D6B9}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{ED31B437-4FFE-46E9-9E39-CB2DCD19194F}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{11B9B0BC-18E5-451A-AFFD-2D7AF29B544D}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{C4CB605E-AE47-4B7F-B006-A5D643C81997}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{361FE9AB-130B-4665-9FF9-53F83C1FBA68}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{019822FC-E846-4C53-A94D-9684D0420A9E}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{F315F321-4057-45BB-AB4E-3075F11D7B11}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{CDB18536-6B9C-4180-BEEB-B430DDE7ACE2}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{CFF6BA8C-7433-4FB4-A1CE-9E1DF70FAF18}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{A2441954-67E2-4F2E-9DE6-27140187ED19}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{38A4A186-86FB-42DB-AFD5-985A9FEFAE6E}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{1452E4E9-3F4A-4F7C-995A-A85A1925CD4F}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{4798ACE3-EE31-44FE-9F54-53D3F7DB3568}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{EE01768C-1B98-4896-BE41-3AA38334C83E}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{70AFB6EF-B93B-4921-9530-D9175FF8AFEB}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{48B53FBA-C81A-4250-AA2E-3C0DAE215BC2}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{8E4AD772-4734-4A60-89E1-1FD3B27CF716}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{6E259927-B885-4660-A2E6-CB7148CB8EEE}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{F1166E9F-14BC-4AC2-A8BE-55A9D8D81A34}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{4AA1945E-0FF1-4816-8411-19C40D4671A2}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{5B60B058-D67F-42CB-8F53-480D9C6B6327}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{C23313EF-3307-49CF-B5EF-A9B45ACB69ED}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{83A94E1E-F335-4AEF-B2E2-EFC01AAC2961}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{7C491B8F-5E19-421F-8110-2FFCD2411EAC}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{2A88BC5D-512A-487C-A735-FCD1E3566EFF}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{107AC418-08C9-4137-9BDB-8E5D94A259E2}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{78E91B92-6060-4EC9-B3CB-3CCEE2D36F65}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{3CF583E5-B05E-41C2-9CD3-013BBBA4B3D6}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{CC7279A3-E5E9-4DD0-A247-4BAD2338E7C6}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{09A2C595-B8A7-4448-B708-EA185D7E9C21}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{76F73D15-B4F6-4D95-9A7D-59D44DC1CD2D}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{244A0D63-1991-4182-A2AD-37FD6119DB83}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{E6E09A91-1BCC-4A42-A270-221261521E7C}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{67BCD41A-F95A-4CC2-A850-F92846404DCD}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{91F07010-62E8-4CB5-8E27-E6E05B7F6CC4}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{FFB9D00D-7464-4EC7-A112-35F74E28F27C}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{9D0B7EA4-89E9-41C1-AAD7-56C1B7417DEE}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{EB26B87D-471E-4756-A9F5-D8E0C740EC05}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{1C675F45-3EFB-492A-B711-2E9CC8B7E428}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{FA77B71E-9CD4-4E53-BAFD-FC68D2CBC062}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{C9A9D580-C286-445D-B9C0-CC0318A12998}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{6840AAA4-D85F-459C-897C-F5B164EB2A49}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{A6A3A8DF-17EE-40F2-8FC4-D8F01B2BE678}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{62527C41-765B-4984-A7BF-993ECD033260}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{1390C126-7DAC-4BF0-A1A6-7963EB0A42CC}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{BAC186F8-21CA-481F-A71C-2D48A20DC859}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{A5B162F9-D426-4152-BEDB-306CC18EF92F}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{491CA629-3C54-4A99-82ED-1E1C4B3F0273}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{A1128CE7-CF79-4B77-8146-B02071079069}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{74BA0240-0225-4C45-847A-FF8917C1870B}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{B85F91A3-0340-45B9-A013-C1C4BA8C0502}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{A5F6E723-3F3C-4200-9818-9E4EFEB5448B}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{6BCADDA8-A617-4071-AA48-FEDD1531C2FF}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{F1C9EDFA-9441-4F97-9CD1-37E8B2D24BDB}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{456E9FF5-E412-4F1A-8129-C140C75C12D4}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{EA4992D6-9066-4E0C-8AC1-E7722BCB87FD}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{F02C4F46-0C48-4069-8D1D-C27CA690F236}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{A9545378-FF1F-4365-A6F8-D2CF2B7737DB}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{563AF2D2-CA35-4D22-B06F-75D212CB9EA1}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{AC6B0643-8B4F-4DDC-93D2-744F3C7B58E6}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{33A57D93-2618-4C3B-BFF7-5BFA0AFCB7F3}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{ADADC38A-40CE-4D71-8C75-7D814ABA63A8}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{419B836B-07D2-4D80-8EC3-BA1F0B375DEC}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{9FC62EB7-6AED-414B-94B1-E6BF3FF6DADB}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{44DDDAC7-9F44-4707-B83A-D0E0887DB11C}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{6534D43D-D2C8-48AE-AC54-FAE4AFCF6B27}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{19033D11-F1F0-4D91-9B3A-5A6202F4CC07}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{48F09185-6FDD-4789-AC74-DE52FDB84F0F}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{8F0AC3B2-D48F-4A72-8876-0BA8046F9B3B}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{163005D4-C12D-422F-832A-05F0313E8E10}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{3060A4C6-0275-4303-8320-22725265041C}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{276F4479-7BF2-4CD0-89BB-6672914FB8A8}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{551ADA62-0BB5-4788-ABE5-FEA2839BB7C7}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{B6FE31EC-3224-4F09-9484-0D7B23946CC6}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{80E67E33-F5AF-4D66-A422-38D1B5EDC728}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{5B2A709C-DB63-47ED-A898-3FE2A3BC7CE2}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{ACA974C6-B220-4E25-B755-0D639C90B58B}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{AF4061DD-A884-4F95-A799-1009394ADE00}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{EFB630EF-20CB-4D75-A50E-7AC4AA6EC90D}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{ED57EF69-A338-422D-ACB2-EC8FBE80D1AD}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{9C645AC1-98C3-460A-AA21-CE880EDED17B}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{B713B5A8-BCAD-4B9C-B3D0-0A402C11FE51}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{330A510A-8418-4A71-8DB7-4A6770E4C852}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{FABF97E0-1B8F-4624-B134-F7F1D0EC6D9A}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{9F25FAC4-8507-43A3-B2CC-299C257359A9}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{E17716B2-4564-4AE0-9888-CD6A853A5629}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{248F71B1-A02C-48BE-B36A-577708A1519D}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{01FA416A-9003-4C8B-8A83-A97CAE5411A1}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{FB13A574-196B-43A1-BC41-6FCF5C2ED5DD}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{3D13E2F2-60DC-4ED5-88B3-F560086DDE40}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{2B7C031E-DA66-4718-A839-0A67584B1EBA}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{B8D450C0-6A92-4A97-AD00-BB213840E5DA}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{9EC9BDD1-0CC5-4BD2-8607-B9D9E85EE0A7}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{F14127DD-E328-4689-9553-936C80EAA1DA}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{38CB0DDD-317A-4E1A-8566-74532FE93D68}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{59AD2498-5158-4D9A-8997-9D683C03ABBB}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{94CD4564-D305-4570-83B0-4C9298C252BF}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{B44E4BE6-D0C2-4CB1-B8DB-2876F91902A9}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{85E5C879-28A0-4559-8651-CAB91DA48CC7}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{4E6A5A72-A891-434B-A61A-BE3BD7AC3D73}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{A23B4D89-48B3-4E5E-976B-DEB88FBFFC15}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{5F6BAD54-9BD0-4125-B813-D22703CFC21D}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{F4045CE6-D880-4EF0-BE28-77D8AA71A87A}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{0363A42E-6E09-4712-86F0-A0DEB91C2F23}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{E7B8D4E0-3ED8-49D6-9D47-663BD8E6ABA6}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{CF1E1348-7E12-4EDE-9F6A-5BF175AAA8B8}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{D0B26035-8C98-4E9B-9C47-67BCC8DA2DE2}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{4FBE6CA2-F466-4D3F-8680-9EB5394B6CDC}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{43CFEEDA-30B9-4400-9385-AB3526404FC5}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{0D19B95E-BD84-40E1-97A5-B9CC7CCB3BDA}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{BF8ACFC9-7E59-4C01-BB70-63D3A900454F}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{F7FC3BE6-1ADD-4972-B463-F62B984ACE5A}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{7AD61D4C-B1D3-44E5-AFAD-FED834FF8623}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{152A6C05-B95E-47F9-B009-9FB1DE45837C}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{E315AF7A-3F8E-451A-B8FD-27A589EE021A}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{A83783A5-2BDB-49A2-89D0-0A90EB645C4C}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{820CBB9A-7608-4F43-8C5A-6DBD394E2227}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{D4FA2038-78F2-4C5E-B094-F120BAB4E973}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{B8E84275-C553-433B-B756-0BB1BD6EC71D}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{50EC219C-18E8-4266-A983-3BED0E98ED82}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{AABD9CFF-AE21-4837-AE03-397EEAA0EA14}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{2E022D4B-59D3-4630-A794-0F454EC586BB}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{87D5C3F4-5DD1-4C40-B0C5-2E7DB9BDB1BA}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{DF5D8BA3-B120-400A-A26C-0E4A8DC6EBE0}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{6B4E19EA-F9BD-4B13-8502-121195CC6149}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{5A7F987A-AA8D-4CBE-B9A5-CB72B4DF09B9}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{EA160871-49EB-4719-994D-0560C0EC0BDE}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{842D7491-4A58-48C9-9EB0-B22D5F10B007}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{270EFA76-B9CB-4384-A939-1A4D5F85EA0E}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{29ADF84D-61C7-4F47-8C5C-6105943E7E62}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{258E4B0F-CC2C-480D-9DCA-CEAE1DC4791B}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{F0850E94-081E-4565-834A-58F33463254E}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{8FEF2DA3-5ADB-4637-936D-938E5D0EBAD1}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{5910148C-4B08-40B8-80C4-396DEFD1C110}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{BD1A78BC-2106-4575-9FC7-1B80C940D919}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{2560F69E-D603-4B0E-829F-21FA17BFFA0F}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{38B49833-C0CB-4C24-8F68-6F564D778342}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{34EFD7DB-B222-4792-9DF3-6D0F07DFB052}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{55D0B712-CA8C-4A8C-ABD3-8618BAB430B5}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{2B1CB14F-ACD5-46D1-87EC-65EF87433B95}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{BEE2EB64-4743-40A7-9055-D89353E71D93}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{EFE80375-CB66-4329-9D42-980273FB845B}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{ED895570-6932-4554-AF98-4EE8FB3F8965}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{67A6AA6B-8ED9-4788-BFBB-6E0D58D9C0EB}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{B8DF7A54-30D3-43CA-92D7-299832134E79}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{BB587840-DDF2-4F05-A1B5-7850FAAECD0B}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{64CDCDF1-2713-4CA2-A5ED-DF7B026171C7}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{EE6C7CC9-CE9F-4CDC-8DB8-A5EEC342FD8D}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{26A0D389-2C98-4B9C-9A50-9B9008131D71}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{72AAEB2A-B750-4FC7-9476-44F1655D1D32}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{8BE5774D-D235-4792-8A29-2FE689662DD0}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{341E8835-9651-4104-B498-58E2DFB788ED}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{8B2AFEDB-D1F2-43AA-B0E4-8E10509959C9}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{071E4392-4870-4798-8406-C8EDEB214AFF}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{2DB5D8A2-2095-483B-888F-8DBF0251BBCA}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{39D1A8EA-5D82-451B-82A2-A3BEF0E79DCD}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{8B7EDD6C-3B7C-4688-872D-FB064BD098F7}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{74941525-920A-4BE3-8CAA-9F076CBC8D5F}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{ACD64BD5-6510-4C3E-9259-B03E3A5B3ABF}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{0C977CF1-0B8C-4276-A25E-678649B4E996}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{AE42FD79-F02F-4313-8397-A0CCCE96B1CE}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{1B692DE8-D4E7-4CC9-B5FC-E0533FA30A7E}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{9E7F6780-F418-4D3C-852E-4A7D7CA84B2D}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{6D470A6D-8E81-40DF-BB2E-D90A1A0AF956}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{52F3136B-A386-4A46-B88F-9CA247DB37B2}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{2DAEE5C7-62EA-408C-AA21-1AC00B324BCE}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{6A4678E9-1DAF-46C4-8F35-332B586C936E}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{966BF81C-6899-433B-8F77-63F7D1C238C5}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{395C963D-49D7-41F1-B8FC-43E5A4575CDD}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{71E4B8D8-3C21-438F-8331-1685B2910397}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{98CB42F2-DAC5-4983-8287-BCE9FBF503E4}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{36CEB955-A01D-4371-84D7-32D508C6B022}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{95EA0C12-A029-46A9-8122-0F3E2481495E}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{C61E0E37-86FA-4A8A-B40F-05A1A44DA7DA}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{991CE451-AD03-4995-BA53-C0A8BBF4D5BC}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{4EF197B4-76D3-4A91-9A91-71B3965CE616}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{695D0C17-4675-4604-B561-20F069E87EE4}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{3A52772E-70B7-42AE-9EF7-542B55C32380}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{A87D2DA9-D757-45A9-A44A-7AB303AB82C2}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{AF41FB65-84BA-476C-BCBF-AD8447870964}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{144A7015-47CA-4195-ACAC-AE841B0DAFA5}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{4F191B99-0570-4F36-9BFB-FF3AB435C0D8}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{D284A884-7D6F-4A6C-82F6-1604DF0E4EFD}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{B3B1CB3D-33A6-44A0-BB75-16ADF5261B1A}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{5DE6BA83-41A5-4BB4-9136-39CA5FA70E5A}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{F4E44550-23C5-47EC-84E8-0773668B8067}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{74F6EB1B-D9F7-4153-A291-DE7672F34D01}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{71B4B136-ED55-4B6D-A9B4-B7127B56624B}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{EC6AF5CB-B83A-418F-8CFE-2239B198F932}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{B14387B6-5EEC-40DA-BB20-1EDDC3DF11BC}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{B72EC890-A5D0-4C5E-BF9E-5E5D24DA568C}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{673BB2F2-6043-4AEB-B885-35558B49A5AF}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{3AEDEB25-E561-4193-8970-8AB220D09146}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{9D6D6E20-6B9D-40AF-9CBA-7DE0EAF753DE}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{3B17901E-1218-43E6-ADF7-7407A871D4DD}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{6F32F5D4-3A83-483E-A872-D657BFA35258}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{10029281-660A-41FA-A4D7-743F9E1B3BE4}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{261E35D6-187E-4792-9C99-AEABC7F938C5}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{EE4137D4-7C4D-4C35-A7CF-CC53C1685E9F}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{84FC6ECE-7F86-4280-B508-C7F07262C317}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{1530B23D-4D39-499E-8EE3-C74820E11ECA}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{1F245A03-8102-4D18-A6BD-691AE5ED3544}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{AE42555C-7E91-427B-B441-CDA9C60527DD}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{1EC1237B-320B-49FC-8F07-8A932AEDFA10}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{3F8849A2-AD83-4A24-A735-D51D8B27D438}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{BC3ECA23-6234-44F8-AE66-AC58526AB1E2}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{A3F5F6EE-00F6-4504-A2AE-B61591B94515}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{54F69AAE-0C8C-4A04-B115-79A48D16639F}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{31E1A9D8-D947-4ADC-9BB9-72A331F6CFC8}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{C02F8636-64E9-463B-9BF5-AEA3DFC56D62}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{8E5A9034-80DE-428E-AEBD-675EFA731301}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{D089C941-B918-4F03-91EC-D4C7B738F266}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{20C0A456-91FF-4EDD-AEF9-92907E387BA1}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{B84A7259-85B5-48EF-BEDD-F5A1844BC6D9}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{85D0652B-1D75-4E05-A6EF-149087C722B2}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{B5411631-F86F-4D7F-BA8E-F751AB3F230F}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{79ED4D6F-0DDE-452F-ADB9-240D1186CA4F}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{F27BBA3F-B02E-4862-BE16-DA44B5C0D38A}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{EECA28C9-0F9A-4501-A7AB-D5565E6A10AB}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{939FCE9F-1204-412B-9311-898E3539ADEB}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{48F66FAE-15CB-4822-9640-07D3FE825300}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{A681FE7D-9F6E-4340-A1EE-ABA7B10388AF}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{999EDF4A-ED03-4F9B-8E1E-1C3A898721F2}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{E867E67C-2C02-45CA-B637-C2888BEB81CB}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{63516CB0-77A0-4972-8AF9-8C1A6A2D2C3E}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{01ED0F98-69CE-4908-A2C6-C4418D1203AA}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{09713659-67CD-46E2-A6C1-849D9F9A19E4}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{5A34E0B8-2970-4E2F-BD97-E427E92D8737}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{A1D6A6EA-2AAB-4704-8BE7-7D0D3D4FDA95}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{230E29BF-B110-4BCB-B2E1-3C16F563A4EC}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{6B67EF4A-F73D-4E7F-B13A-6F31690D6CE9}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{690AA68F-B8A7-4D0D-8CDE-FA46A16C1273}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{F4B5F3E7-1BBC-4BBC-951A-4881A5C85A13}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{F3117F51-12AF-48A6-B923-4CE8382EFD0C}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{0B9C9541-76B2-4112-8065-1A554F776CC6}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{7BE152FB-8F96-43C7-A69C-00C4BE43A2A7}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{AF620AE5-7C85-4C2C-9959-43B9D6A6E2D0}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{9880A560-EE47-45C2-B7D0-152DF9DB82E9}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{93518190-1F10-47C5-8458-E082F049D7F7}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{645A483B-0585-4672-B0A7-1442C9BCC913}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{F3C62A34-1366-44A1-AA16-759AFFC66F98}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{E725E65C-E55D-484B-B5F3-D6706730409E}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{C5BFA028-7EB5-4A96-9CDC-895E898EC2ED}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{614568BE-A3FC-4AF1-97E4-98E93193184D}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{35424021-D77C-4F04-AB5B-AAFD14D9753D}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{78D6C122-BEB1-4DF1-98DE-2FA8E9D1C514}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{AFF95ABC-6976-45C4-8FE0-371B985D1E0D}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{2E31B74B-63E1-4594-B538-47370E356432}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{6BA6EADD-0D34-457E-9D01-986A9B9E81C6}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{60391265-D59F-45FB-A4BB-2393B119744F}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{A7865223-4115-45A2-80ED-4F633D237647}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{E10F34EE-BE6B-445E-9CAE-F9E5520421AA}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{72FED788-265F-4D3F-83D9-E74190702639}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{8F580352-B8D4-4DE9-A923-2AD256891546}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{C65CE356-AFF3-4B9A-87CF-3CFAD5266E3C}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{051687DB-F020-47BB-8299-D6C4D45260ED}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{A403B849-42BD-4C56-9DB1-EF2004F43F3B}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{91A27E70-6364-4BDF-BCC3-CD9F50E946AC}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{55A81B0A-A1F8-4F62-99AD-456E89AF984E}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{C361D10A-7076-4E99-BF08-AE21424417E7}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{F24F6807-6FEC-4447-980F-7CB85C50DF93}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{C2AC5B49-727D-439C-8867-02EA36514057}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{8DA36106-EA0B-4CF2-9B78-915273074A6E}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{885FFFB7-C88C-4E42-8BC0-38B4CF9ADD45}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{0F7ECC02-04B6-4116-9BE1-0E977A54ECA8}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{51521243-69E0-4754-BE9B-B1929BACA7C8}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{A4CA6538-A2D2-474B-8AF7-57217D5852C1}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{4431D437-4C15-4AA9-A360-134E7407D3EA}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{1361E5CD-12C8-4189-A143-41D58FDEDCEE}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{CE87B2AA-1AF0-4275-8764-16F88B6FDD83}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{CB8EEFE5-F7D1-4D15-840D-3D3FD83B7A91}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{E3136998-0AAB-4250-8439-41CD9CE55356}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{5A6EF836-33AE-4F46-931E-BA7EB4689D4E}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{8A76E172-1B44-40B2-9525-5E35319010FF}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{6A8978CF-D13E-44BF-B9BB-15026C179D1D}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{7471D9A9-9060-442D-98BF-6A7E76FE7D2A}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{F8986079-C862-4E10-BC98-03720C8BF1AE}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{F7693530-860E-4E4D-944C-02CC7DB4F89B}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{F7E71EB0-6D79-4F17-88F6-FBAD01409F98}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{4C824009-437C-4CB8-BEFE-9CDB5347EC78}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{9CF0404F-60E1-4D1F-8C7B-B44E7C90E3FA}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{51B71288-7AEC-4926-BB84-AC0D0622946C}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{E6F9D490-65B5-4158-98E6-F88A64030458}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{7BE48A4E-C265-4C10-9AC5-B487F1A35A25}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{04CE6B80-7A6B-4675-9651-0103B677EA0A}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{5409D0A3-6FFA-4EBD-BE58-0BA3C1CB2587}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{69610A85-94FD-4EDB-ADD4-14A4D1A8B397}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{17E7FFD4-F0D2-496A-99A3-3B3D63660934}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{40B00075-5B94-4BDB-8535-1F856B4AA144}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{74BC7829-C640-43E2-B4EA-2DA04655C6DA}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{166CDF7A-B8D8-4D24-8E4B-39A326C2FBA3}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{7EDA9E63-AAAC-472F-B682-0FF34E218553}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{B7BF1DB0-B0E7-484D-8647-FE3A95E78D9C}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{444152FA-F223-4E2D-B388-28C6D889D8F7}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{40706E46-DB05-4952-85C9-E2073AB59F54}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{0416D596-CB5B-4FD3-B26D-37E0E012905D}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{4BC11BD9-C6A4-4E74-A18E-244A8DE1396B}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{9F8D6761-A173-40AC-8ABB-2B83139422E7}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{31074626-5ECC-497A-A88D-8BD156262E99}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{8EE64A3F-73AB-44DF-9F87-20265A3D865B}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{D93324FF-D59D-478E-996B-D9009CA80929}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{B8EB3E07-FACC-4117-9A00-1EAC1F0EA6A4}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{72586DF7-9B07-4CE2-9940-5C08D3A12328}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{73063076-9C80-4AA2-B2BA-9C2B6A525BF9}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{F4C30018-35E3-4F9A-BF5E-FF1DC53482A8}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{EB13D8AC-A590-4A1B-970B-C053692C81E2}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{DE6873C3-01BC-479D-B198-0405B5C79654}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{83171667-51A6-45F6-BD79-3D30A8C6CA5D}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{7FD06AA8-F923-45E1-BA1D-7A15B94DD685}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{BC94614A-38A0-41C1-9BD6-DC0C5EB4FC75}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{5877FEB2-A898-4372-9BCB-0FC72FC69D87}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{34298926-BC09-4BEC-8015-C57ACDFCF35A}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{A0498990-CD11-4FB9-9CBC-D719D475D55C}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{3DC58F55-E15F-4C94-8693-C846652E1BF0}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{5A22553A-EADD-4EAF-8CE5-516FB85E1D7D}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{67F9C4E7-67E9-4C32-8AB0-08E02C624900}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{CC50F969-97F2-4753-A25A-6A9F8C114B97}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{2AC2CB28-BC20-41A3-A597-7A0218A19812}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{26A297A0-FA88-4048-9B44-280C2BFF1426}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{8FBB93B1-C471-4704-94BB-AD5A824225CA}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{53031117-EB90-4276-9B0A-029A3D320ED9}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{EF410D77-09EF-4DE5-B1C3-16787591F15B}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{BA017CD1-9C91-42F5-B804-112DA0F519C9}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{20C41D65-B3F1-42A7-BD8E-4AEAF937A103}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{87F8045A-C2FF-4BCB-AA22-0388F82FE625}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{764E7E1E-1CB8-4319-8F99-0273C63501A1}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{78B00FCE-4C11-4610-9C62-7E4E098D0210}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{21F15B0E-DCCF-4094-8DA9-9F38C81FF703}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{FACAB977-939A-4E0C-8147-BA1417B607DD}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{3CC26390-D098-454E-84C3-6E8C2F42230F}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{05423426-9E1E-4F1B-92C2-8AF3F3ADBAC8}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{260BD4B7-ED47-4B02-8A02-5FA8B5DFB0A3}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{C067FF94-C04F-4465-BD04-C88D2D8863A4}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{3F8AFF21-35EE-4C8A-90EB-D1FA80546570}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{C2E9172D-CC48-4E13-9A64-8C4D5096989B}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{7636C9CB-4827-4BE8-96B6-E5B2088C5537}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{23D6C276-A91D-41DF-8032-A05F9732C5CC}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{AB69CFCB-B7BA-43DD-A35F-CC1CEF1C4C3E}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{E1956519-67EF-4E3C-9C61-9F5086F5FAFE}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{F72365DE-3DBC-43A2-98C5-5D099D1E57D8}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{68DCB5B1-21BB-4BD9-95E3-0A78E226803A}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{461A35EA-1147-4EEC-A263-3F0F146C22C2}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{E4733848-F27F-4E12-A564-2917BF67E0B0}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{7AFAF0CB-04A8-48B3-8C3C-2575781C60E3}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{76D0FE7A-6955-4446-8D6D-0835A70F049A}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{1CD56F08-F69A-4FAA-81B4-4F4FD6B1A767}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{6F6FBCEC-CD0E-4AE5-B6CF-F812EDEDFDA3}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{67062387-86D2-4B88-8F7E-B7DD8F675C66}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{976F00AB-ECA0-421D-934F-BE78E545D6E4}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{4B03D2A9-BB6E-4A21-B69B-4CE177FB5DD9}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{3CD0D212-CB7F-47E0-A395-3E500157B8C0}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{795176CF-A4FC-4E97-A5CA-70B5D67DFE3B}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{6EAA5879-96EF-4D0A-BD37-BAD1B553F110}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{242D5E92-59C7-4EBF-AC15-434E98A96EF3}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{8CCE48DE-7926-49C9-BF7A-F5EE7B81848C}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{DBF0AFFD-DE66-4B20-B700-44EEF108F26A}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{C15C5E27-A586-4C21-A981-234172EF8C8D}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{986557E5-764C-4D91-B8FB-54E1C4D9A099}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{C6DD27A1-B409-41B6-904C-E7617B4B69FF}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{AAB34A97-AFFA-4564-A3D9-2025AF26C3F8}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{3A32F0F5-BFDB-4872-BE31-FA0C70EC4B7E}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{ED58CCCE-943B-45E0-935C-D6E3B723960E}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{1ECDE2BC-579B-4025-A8B0-43B3C217DF01}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{E096D7EB-BF28-4CA1-8D1E-2860079B1440}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{CCD737CD-EC82-430C-B9B4-C78D13ED991E}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{4AB21A41-9E52-430C-B716-A8BE13B2291A}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{69D06857-6604-4A14-AE75-C8EDB6949D63}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{0B26ECA5-03FF-42EA-A22A-97DE08403F20}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{DBB7283A-83FB-4991-9F31-F0FCBA575D49}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{E513F4D2-AE0D-4FD9-88EA-55C31427BADA}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{FA14E60E-7DEE-4DEB-9562-4207398AF9DE}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{CBC80381-6547-48FE-908E-77AC68754ED0}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{3F0C4CCD-079B-45DB-9B10-F6D9DFCA7AFA}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{5BA02B2C-ADD6-46E1-891E-A3ACFD8173C6}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{55F2D4FD-626D-413E-A7C6-3EFD64EBC082}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{C414319A-CD1E-4377-921B-C7CB983B8A41}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{47959D52-55CC-430E-9954-475F54C7C288}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{C08E9432-A2F5-4F0E-A53E-CA20D9A70F38}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{A357D4EF-DE5C-47CE-98F4-3CA4F56FF0E5}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{68CF3CF9-D073-4BBE-9407-1B8758FD3C83}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{0C307661-33E7-4C0B-A84A-F36DA817BE91}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{3FF8681B-B7B1-4406-B994-D6FB4E991D83}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{AC109035-89C9-42C3-9BCC-AEE19D1692D0}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{7639B4EB-3536-4F48-8DAB-59584FFE176F}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{4E274140-280A-4602-8DBA-928C38C88B9A}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{CBA43EC9-DE2A-42FB-BBD6-795219BABA51}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{6AB262DB-2255-4288-B402-1782A52C8361}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{C74D540F-3EB3-4764-973D-081F7D0DEE23}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{D6912ACD-9ECB-48ED-8127-52E80982C3C8}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{194A3BF9-52E9-43B8-94BF-8D91EF170D1D}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{AE4FF44C-A1F8-418A-AA1D-3047EBAF4BFE}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{A7E5ED66-DB32-4E23-8248-FCC2821490ED}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{84DF35F1-9554-4DE2-941B-9A1D16F4B770}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{B438850E-B406-4D07-9BC8-47A32BE0D0C2}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{F4BD74F5-D252-47A8-855F-FC64858D48FB}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{8730114B-AAF7-45F9-BC95-946399F56F38}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{6C289BFF-CCD3-48D6-AF57-F5B81549D4C0}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{EA1D28F9-5831-4674-8499-0A002E342C8A}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{0F5D2522-925E-4BA9-B02C-C9D3AAFD1CC6}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{4FA0B5D0-92CF-4074-AAA8-1A5B957CE933}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{C990F547-6147-48FC-855E-3AB5971F668B}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{DF53E423-A72D-400C-B88D-488A74137145}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{EA76F6A9-8F3E-4C33-8295-16A6101DCED5}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{FD7071A4-38FD-473C-948D-8F9E6BCC4F8C}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{3C6FB8CA-D01A-4C00-AE1F-0475AC4724B3}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{E89B672D-B43D-4591-8FA3-73773F4883D7}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{51E12068-3E84-4782-8BA4-054EB25A218D}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{447CD71D-2104-4CD7-A3C4-4AAB0A86506F}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{A9D80917-F0FD-4A0B-B0BB-AF7876650B5B}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{1B694F37-B0C0-413C-A6B5-1A17FB5F5947}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{14669997-7301-4642-8D23-3480EDCAF380}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{798CFE6B-B552-47EC-ADD5-99BC5A59E5FC}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{1E20BE94-5DAB-4B15-948A-37D90B5703D6}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{57D206B6-BB8A-4178-8AF7-1D2209FC1F0A}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{CEC1119F-730E-4EC6-9928-3D3C2807660E}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{929AF88B-C677-49BF-A00F-45E0CCDC30E7}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{038E9008-BF80-4662-87C3-B038A6D3213C}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{3B9B3242-3B24-4F3A-82E8-1EF60F07F138}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{C872C7E3-338D-4700-BADC-5163BEE2D34A}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{C04A999B-F5DB-4EA1-BC29-CEA9DE32C985}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{1C77A282-3F48-485E-8F3D-3484333D02A8}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{A7E5D273-B7E4-4AE8-9FFB-888EAB57CDA2}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{819F72E1-A4DE-41AB-B380-CC1388B6EDB6}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{11B693DA-BBDC-43A8-9F17-4B712EFE8D7E}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{11204DC3-A209-406E-B837-8C3962F33A0A}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{CDE467E4-BDA2-444A-B540-D7A740203E4B}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{EFF33DC3-45AA-496D-B7F5-14277843E415}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{D4C64A9A-8D2A-4661-83D1-065FF91FEB38}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{01C59997-2187-4971-B45F-519EDFB97576}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{0E179BAC-EEC0-465A-BB0F-3D195B9C0BD7}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{49500925-91E2-49D3-8509-49E4177BEE70}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{0D1B92CF-A693-4FB0-9277-37DC5FBBF49A}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{A52529BC-769F-4BD6-B2C1-22E523C97BD1}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{C44DF057-187A-4495-8EA9-B1CE9845D2E1}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{5EB1E2CA-C671-4F08-80AD-0F82767E1931}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{81792763-EB96-4FE2-8631-A54B004C8847}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{AD9DFC40-EE60-4631-BDD3-7CA3B1DE28B2}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{32948386-0971-46E5-BE07-DD61CC91B878}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{1437F1EA-DC2B-4A45-98AA-B0ABE7F4DD61}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{7701BD79-F6F2-4912-9643-DF34324DF20E}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{925E05EA-0880-4A6C-899D-9C41041D2A7C}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{2D87D789-8CED-4607-9DEE-89CC8EE944B4}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{30E305CD-F085-4208-9C59-FAA9B6BE56BB}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{D637FA84-D07A-448E-90F8-C287FF230B42}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{314853C5-FF4D-4E72-8989-97F98B3D08B1}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{F20AB405-FED5-477A-A272-BE57539618A1}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{994909B8-5E2D-4668-BF68-EB70ED299BA9}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{05597AAE-6768-4E43-A566-6A07E29F30E9}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{EC6DEB2C-81F9-4FAC-B2FE-4359CBD02598}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{AB50F29C-5714-4BC2-BEB7-AF77E9241F75}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{6A098275-741B-452F-B4E8-75B6EFEE3C07}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{038DBE85-0336-4C61-BBAF-447F3E6230F7}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{7D362C78-87A4-402D-98E3-FC31ECF7007F}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{756B16D5-4767-410E-A22B-53A93D69A7E1}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{EA340140-1916-499C-81F5-64E6C585ECF6}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{0954640F-7AED-4CBF-9FBE-639A4A1C287C}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{87BD0CF1-BB67-4D1E-9CEC-375DEA565527}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{44323AC6-F3FF-4B0B-8EBF-3A40C1B93648}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{40BF6CB5-418A-4B94-9173-A81CA6D994EC}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{F9BD149D-8604-4508-879C-FC57F8CE1769}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{4FB45A0B-F917-4A9E-B709-784B238EDF6D}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{E09C4622-442B-4950-9802-7D7E5159BFF8}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{D7B2FDA9-AEC8-4BB6-8E3E-11856683E779}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{E072BFA5-7DD7-4527-9C22-2F3E4C972C01}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{0E8F3A47-CB9A-47DE-A5AA-8EAB8D72131F}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{2C4C8949-AFB7-4A50-800D-BBFEFE9CBD2F}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{A7987BED-9415-46D9-8E3D-A94439B48F18}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{76DAA66D-61C3-46D0-9165-E51793DDF2B8}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{25A12368-262D-4BA3-8206-B4B46655B3B3}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{D0549A26-96FD-4A6C-970B-922B43CE9FDA}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{C01DD0D7-A6D4-4940-94DB-C3B665F1303E}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{15021238-43FD-4E2D-9E8E-1773F57108DC}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{B392C5DF-074C-4026-8331-F41262804C36}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{E671D4B2-9335-4D86-B90D-53F3DD0A3489}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{7720822A-A3AB-4CAA-8D49-C586BD6B94F1}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{15AD6ED8-1829-4CAE-8F30-DDCBEEE6EB6D}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{51656F04-7B77-4429-8EBA-C092B2A81D94}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{84F98335-F481-4D0E-B9E6-684EBDD6910A}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{3B1596E8-036B-46DF-BF52-D63B7F068BEC}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{D35677FD-6AF7-4F5F-AC17-DE5E216D6565}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{41C99296-9B45-485F-84A8-F0642880DBC1}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{CE53E32A-E6E8-46C5-A9EB-1A5EEC6960D9}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{DF11DDF6-20BD-41E6-AC95-5C889D74DCD1}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{4F8604B0-8802-485C-9437-647AEF457558}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{D718ADB9-A923-4F0C-8C0D-AC8C29239B25}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{2AB25CDC-2695-40A8-BD3B-50A74C95D430}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{EDE4ADB9-8012-41FD-80D3-41653FE1A3C2}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{91335D51-92A3-4A8A-9642-43A79476AC63}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{E88C6EC3-8067-4A76-8BE0-B45BF68D1259}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{F7D5E1B2-7DC7-4BC1-81FF-C541037DA296}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{58A50FD9-404A-44B2-A5FC-4FD16F71933E}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{189EF31B-1602-4F5A-875D-78CC314F4F12}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{9E0830D3-C465-4D98-BA70-0E5D1FC8427C}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{E86949A9-2D28-403A-899A-D7AF99F8C54E}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{15A5180D-2D58-4FBC-B806-AB141F07E864}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{4FAC3E60-10CF-4A08-BC92-370B94AE0A26}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{B034081D-A2B2-42A4-9440-775C20BF992F}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{C1B518CC-94FD-4B54-B245-BB8B2351EC8A}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{A49D4358-B960-4336-B0A5-20E50655E387}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{EF4293EB-D045-4F04-A3A2-9D295930C462}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{13ACF7E0-F13A-4530-B7E7-79017AADA17D}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{39540BEB-83B9-4BF4-B479-8C6F32B15345}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{C53EE053-1D52-49E1-866D-15244520F32F}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{C395547E-F71A-41E8-9F07-DE04DFE65D2C}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{363F2369-4EC8-4E04-A964-8FDED9A4B11D}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{B97BCEE5-27FF-4964-A684-DE1EB3A6D96A}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{1269CC5A-19B4-4229-A3D8-5DCCDA5BF5D4}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{2EE80E02-A3D2-460A-82B7-3EAB3C966C7C}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{EA7DBA21-820D-40E1-826B-75B744564125}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{A7CA511A-DA85-47F2-B733-56407B363D44}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{AC50DAD3-70D3-4327-AC75-5DBCDCA9201D}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{6A7A5F99-389C-4F28-B2A5-C62F36AE9F8D}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{AB1ED85B-77A4-4EDA-97A4-80EA88F4E930}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{103DF626-7D74-4928-BD2A-D7A147A12E2A}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{C46F432E-1D23-4CC9-8917-EEF3B1DBE290}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{CF3F4F30-AAA3-4583-BBC4-394500890D5B}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{7083B28F-2E6C-423C-B5E4-40094678FDCC}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{29DA1DDB-8928-41BE-B676-D21D72499BC7}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{F22D0258-BF2F-4950-8560-DD0C216EB918}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{77C9DFA4-61A9-4DB8-909B-9F2C00A8AF5A}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{B978425C-C3D9-42D6-A9BC-1A302806CEF8}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{51C2C520-071F-4C7A-99A6-D5D371904735}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{5DDD2D60-5708-456B-B7B0-A4327AA7B256}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{18A730C3-9748-404C-BB1B-54D6DD541A61}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{3C1D557B-95C3-40F1-9A90-C01CDB5399A0}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F83F927-6A7A-4D55-A4C9-BB29A0C29E4D}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{3671655C-F6DA-4400-A3F6-53D5D4EEF398}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{B5E64CCA-CB92-4471-948B-A6BBE008B958}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{F6DD1BA9-1BD0-4A1F-88DC-31602DF3D286}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{93F933FE-C7AA-4170-A139-D6BFFFA751BB}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{37CBEB6E-A3B6-4AF4-9E2C-C886A94E34FA}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{761924AF-60DB-4F75-915E-2BA869DB03F3}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{0ED2ED50-498E-4C4A-A58C-07F4D11FC028}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{A44EF706-F7E0-45F0-934C-E5C48864EAFD}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{F532865D-253E-47BB-BA9B-580EE0F27A73}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{7C9A0F55-D609-43E7-A315-EA448B87E3C4}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{7F02E9A1-470A-4BB4-AFCA-91AF7FB554FE}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{55E1BA06-7003-4CEC-854E-8C1CCCC235FC}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{01A1312C-2A84-4664-ACC8-609D1D5443BB}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{9B5084D7-47E6-49F2-AC9F-BE24EC4EBC4E}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{FDE37E1B-5AD0-4D32-8F52-D96142B79933}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{106353B2-91E6-4118-8E7B-AEA12AD1390C}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{47DF5667-BB17-4466-9EA9-B1E1C1AEBAD2}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{06141519-5499-4C51-AC84-6E30EF712DC4}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{FA56F265-C519-4751-995C-C41B0CD8A824}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{06BFD646-E6FD-4824-915B-8BEEA964687E}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{D78B308C-E3E5-4751-B947-6CAC24A78AD1}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{72BF56C9-827B-4C11-95CE-5E84D12BE58A}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{7C91F96B-B275-4646-952E-61178500A061}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{9BE73E3E-FFEB-4EE8-A63C-E7A439E86BD7}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{AE58B94B-B493-4368-986E-F6196421EADE}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{C9B5532B-908A-49A6-82BB-A5CB5D0285F2}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{D9AEE6CC-6394-493A-B9A9-EE9851C517E5}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{603BBC71-014A-47EB-9267-0C3B4690FED3}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{6DEF43EA-E38C-4C58-9504-C1CB665A84E2}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{CB6B55B0-39D3-4AD3-893D-68FEEA93F6F1}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{81966B3F-2048-41CA-8F0E-3664863FF382}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{75C60781-CE8A-4233-B3E5-F7204BF860ED}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{244FDDC3-3486-4A44-B185-0A0DE0438D1E}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{56DA0231-3064-4EE2-B505-45020C38769E}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{9532F3F7-5B8D-425D-AF88-CE1C6F53A73D}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{4B250C18-A2AC-4FBA-A2E0-DF66459A334C}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{32B1A468-37A0-4358-B0FC-95B133924599}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{0199653E-3040-4F4B-ADCF-881A24DFCD6A}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{DD8E0A88-2D7D-4DB8-A5A7-80228EB31138}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{8CF1E1D4-577C-4B96-8928-828DBAA18697}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{56083D15-56FC-4B9C-B7A5-3991A8278ACA}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{C55C2713-8BC9-4429-8EDD-3DDCBBDBC437}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{B0EA242B-DE0D-4D80-A7DC-F9B24EA69496}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{62E7E669-727B-46BA-9304-F57550F9A8F8}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{145698E6-F1D9-40F1-B899-31FE30BDEB27}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{2279B4CC-D213-4A4E-A60F-E80860A83D1B}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{368B7C32-7094-4A77-BBBD-946C79DB7BB1}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{65815456-DFB2-410B-8E43-6D8463846F96}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{EFCE870A-05FA-4E1C-89E7-C10B4998FD08}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{502FE200-A98B-401D-9DDB-04B1C8DC7AAF}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{2F7A3166-BE15-4151-B512-652C4140A565}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{B22C438D-BF1E-4F41-B3B7-EA55ACB01E51}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{97F2CDA8-45E6-489F-8550-ED0FDCAEA94D}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{0D5BE9A2-19B8-46EC-98A3-42F0472C0C02}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{5A586F1E-E7C8-472B-81EB-31BD61200132}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{BFB0BD92-1A6C-4EAE-B8B5-6CFDDE7784A0}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{5F786146-6C7E-4594-A7B6-4ECE219AC372}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{CC80DF5C-8192-4E66-8B2C-1D558A8312AB}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{DCFED544-6D04-4255-A2D3-32DB36CA6370}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{8243C8A4-8485-42EB-A5B0-A46345319DD8}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{442D2301-C85A-40E1-A98A-9CDEEA1EE185}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{51B55CF1-1D06-4F74-A693-3791A4DAE459}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{81519DCD-6F97-41B1-98CB-05074368343E}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{38024290-884B-4A3E-A781-73CA89470332}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{09926309-5C6B-4A5F-BED4-57D7ED013A3E}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{A9EC57AD-DDC6-4AC1-B083-7B08B106EFF3}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{C7284DE4-FBDD-421E-9F2C-0A5082C79877}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{7F1F9CB1-F253-435A-AF6A-42D084B24631}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{BCBB7030-BDE2-4450-AE9D-D0560723BC94}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{7A043BFC-E670-459D-97C1-B9E53A0D2562}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{A2924D4C-0FF4-4DB9-8CA1-81BF608AD0E0}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{F18B38DB-15E2-4048-9773-926E413E798D}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{A53FAD19-44E5-4D66-AE2A-2DDB15C9DDE4}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{B602AD73-0882-4535-8F8D-48930377A729}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{4843CE2A-587F-4C4E-BFA2-04E30110EFE3}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{4F4D5B7C-D3D7-49B3-A11B-38C0DA2F3F65}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{DE4693D2-2353-4432-9162-28AC1D2E28C1}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{99FDCD47-E270-4168-B42F-D598FC7AFEA9}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{838192FD-C970-48B3-AD12-30E97DC58E68}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{08DB8947-BA7A-4095-9DE3-461C96794077}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{340ED989-B44E-4196-B120-BECC7F90E2B3}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{CE1D92C0-D198-49AC-8882-C305F040F698}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{7CF8A83A-7DC5-4FAF-B8D3-4B563CD17D9C}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{7B0447BB-1A65-48EB-A47F-1852A31009C0}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{0A74EAED-EC70-4728-B4F1-6422875D8EEA}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{7460E2CC-1642-4EC7-A95E-A590CB155A65}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{15F0895F-8C69-4D44-812D-6CD6EC4B854C}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{F0997CFD-09CB-4E51-9875-F6E445149264}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{BB81DB4F-5D22-4EE6-B0DF-EE92863EDF60}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{858AFE9B-FB12-4159-BFCF-E5AFC1A4C0CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId389"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId403"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE8BA9-4592-46AE-A24C-A6D86E40FAC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6089C-62B8-4CC2-BD76-B82AD6306657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="876">
   <si>
     <t>titulo</t>
   </si>
@@ -2620,6 +2620,48 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/5bd2db57-5b18-1e87-ca2a-a088216320c6?title=LREN%20%7C%20Call%20com%20BBA</t>
+  </si>
+  <si>
+    <t>VVAR | Investor Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5362be42-e017-965e-2d34-4e23e8afab79?title=VVAR%20%7C%20Investor%20Day</t>
+  </si>
+  <si>
+    <t>XP Private atinge R$ 230 bi e busca ‘banker’ nos EUA | Finanças | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d26c740d-f191-40f6-a424-313e2f5fad40?title=XP%20Private%20atinge%20R$%20230%20bi%20e%20busca%20%E2%80%98banker%E2%80%99%20nos%20EUA%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Getninjas | Papo com Marcelo JPM</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5d4fe6eb-fa9c-085f-6914-271459fd3ef2?title=Getninjas%20%7C%20Papo%20com%20Marcelo%20JPM</t>
+  </si>
+  <si>
+    <t>VALE | Resutaldo 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ecfc3625-f368-4da7-bde6-af08afe2c92b?title=VALE%20%7C%20Resutaldo%201Q21</t>
+  </si>
+  <si>
+    <t>No IPO do Modalmaisundefined um ajuste de valuation que incomoda | Negócios | pipelinevalor</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/599bfdee-7457-4623-9e90-108fb9f97c7b?title=No%20IPO%20do%20Modalmais,%20um%20ajuste%20de%20valuation%20que%20incomoda%20%7C%20Neg%C3%B3cios%20%7C%20pipelinevalor</t>
+  </si>
+  <si>
+    <t>CVC | Videoconferência com Leonel (CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2ae1eeae-5ab0-e599-2044-886fc331d54e?title=CVC%20%7C%20Videoconfer%C3%AAncia%20com%20Leonel%20(CEO)</t>
+  </si>
+  <si>
+    <t>LREN - Update - 6pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6e02ac82-33b3-643c-8f90-224956a884b9?title=LREN%20-%20Update%20-%206pager</t>
   </si>
 </sst>
 </file>
@@ -3017,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,412 +6527,475 @@
         <v>861</v>
       </c>
     </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>862</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>864</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>866</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>868</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>870</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>872</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>874</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{85D0652B-1D75-4E05-A6EF-149087C722B2}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{B5411631-F86F-4D7F-BA8E-F751AB3F230F}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{79ED4D6F-0DDE-452F-ADB9-240D1186CA4F}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{F27BBA3F-B02E-4862-BE16-DA44B5C0D38A}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{EECA28C9-0F9A-4501-A7AB-D5565E6A10AB}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{939FCE9F-1204-412B-9311-898E3539ADEB}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{48F66FAE-15CB-4822-9640-07D3FE825300}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{A681FE7D-9F6E-4340-A1EE-ABA7B10388AF}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{999EDF4A-ED03-4F9B-8E1E-1C3A898721F2}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{E867E67C-2C02-45CA-B637-C2888BEB81CB}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{63516CB0-77A0-4972-8AF9-8C1A6A2D2C3E}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{01ED0F98-69CE-4908-A2C6-C4418D1203AA}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{09713659-67CD-46E2-A6C1-849D9F9A19E4}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{5A34E0B8-2970-4E2F-BD97-E427E92D8737}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{A1D6A6EA-2AAB-4704-8BE7-7D0D3D4FDA95}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{230E29BF-B110-4BCB-B2E1-3C16F563A4EC}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{6B67EF4A-F73D-4E7F-B13A-6F31690D6CE9}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{690AA68F-B8A7-4D0D-8CDE-FA46A16C1273}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{F4B5F3E7-1BBC-4BBC-951A-4881A5C85A13}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{F3117F51-12AF-48A6-B923-4CE8382EFD0C}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{0B9C9541-76B2-4112-8065-1A554F776CC6}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{7BE152FB-8F96-43C7-A69C-00C4BE43A2A7}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{AF620AE5-7C85-4C2C-9959-43B9D6A6E2D0}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{9880A560-EE47-45C2-B7D0-152DF9DB82E9}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{93518190-1F10-47C5-8458-E082F049D7F7}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{645A483B-0585-4672-B0A7-1442C9BCC913}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{F3C62A34-1366-44A1-AA16-759AFFC66F98}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{E725E65C-E55D-484B-B5F3-D6706730409E}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{C5BFA028-7EB5-4A96-9CDC-895E898EC2ED}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{614568BE-A3FC-4AF1-97E4-98E93193184D}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{35424021-D77C-4F04-AB5B-AAFD14D9753D}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{78D6C122-BEB1-4DF1-98DE-2FA8E9D1C514}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{AFF95ABC-6976-45C4-8FE0-371B985D1E0D}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{2E31B74B-63E1-4594-B538-47370E356432}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{6BA6EADD-0D34-457E-9D01-986A9B9E81C6}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{60391265-D59F-45FB-A4BB-2393B119744F}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{A7865223-4115-45A2-80ED-4F633D237647}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{E10F34EE-BE6B-445E-9CAE-F9E5520421AA}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{72FED788-265F-4D3F-83D9-E74190702639}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{8F580352-B8D4-4DE9-A923-2AD256891546}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{C65CE356-AFF3-4B9A-87CF-3CFAD5266E3C}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{051687DB-F020-47BB-8299-D6C4D45260ED}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{A403B849-42BD-4C56-9DB1-EF2004F43F3B}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{91A27E70-6364-4BDF-BCC3-CD9F50E946AC}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{55A81B0A-A1F8-4F62-99AD-456E89AF984E}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{C361D10A-7076-4E99-BF08-AE21424417E7}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{F24F6807-6FEC-4447-980F-7CB85C50DF93}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{C2AC5B49-727D-439C-8867-02EA36514057}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{8DA36106-EA0B-4CF2-9B78-915273074A6E}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{885FFFB7-C88C-4E42-8BC0-38B4CF9ADD45}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{0F7ECC02-04B6-4116-9BE1-0E977A54ECA8}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{51521243-69E0-4754-BE9B-B1929BACA7C8}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{A4CA6538-A2D2-474B-8AF7-57217D5852C1}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{4431D437-4C15-4AA9-A360-134E7407D3EA}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{1361E5CD-12C8-4189-A143-41D58FDEDCEE}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{CE87B2AA-1AF0-4275-8764-16F88B6FDD83}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{CB8EEFE5-F7D1-4D15-840D-3D3FD83B7A91}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{E3136998-0AAB-4250-8439-41CD9CE55356}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{5A6EF836-33AE-4F46-931E-BA7EB4689D4E}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{8A76E172-1B44-40B2-9525-5E35319010FF}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{6A8978CF-D13E-44BF-B9BB-15026C179D1D}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{7471D9A9-9060-442D-98BF-6A7E76FE7D2A}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{F8986079-C862-4E10-BC98-03720C8BF1AE}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{F7693530-860E-4E4D-944C-02CC7DB4F89B}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{F7E71EB0-6D79-4F17-88F6-FBAD01409F98}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{4C824009-437C-4CB8-BEFE-9CDB5347EC78}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{9CF0404F-60E1-4D1F-8C7B-B44E7C90E3FA}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{51B71288-7AEC-4926-BB84-AC0D0622946C}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{E6F9D490-65B5-4158-98E6-F88A64030458}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{7BE48A4E-C265-4C10-9AC5-B487F1A35A25}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{04CE6B80-7A6B-4675-9651-0103B677EA0A}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{5409D0A3-6FFA-4EBD-BE58-0BA3C1CB2587}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{69610A85-94FD-4EDB-ADD4-14A4D1A8B397}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{17E7FFD4-F0D2-496A-99A3-3B3D63660934}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{40B00075-5B94-4BDB-8535-1F856B4AA144}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{74BC7829-C640-43E2-B4EA-2DA04655C6DA}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{166CDF7A-B8D8-4D24-8E4B-39A326C2FBA3}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{7EDA9E63-AAAC-472F-B682-0FF34E218553}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{B7BF1DB0-B0E7-484D-8647-FE3A95E78D9C}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{444152FA-F223-4E2D-B388-28C6D889D8F7}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{40706E46-DB05-4952-85C9-E2073AB59F54}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{0416D596-CB5B-4FD3-B26D-37E0E012905D}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{4BC11BD9-C6A4-4E74-A18E-244A8DE1396B}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{9F8D6761-A173-40AC-8ABB-2B83139422E7}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{31074626-5ECC-497A-A88D-8BD156262E99}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{8EE64A3F-73AB-44DF-9F87-20265A3D865B}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{D93324FF-D59D-478E-996B-D9009CA80929}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{B8EB3E07-FACC-4117-9A00-1EAC1F0EA6A4}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{72586DF7-9B07-4CE2-9940-5C08D3A12328}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{73063076-9C80-4AA2-B2BA-9C2B6A525BF9}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{F4C30018-35E3-4F9A-BF5E-FF1DC53482A8}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{EB13D8AC-A590-4A1B-970B-C053692C81E2}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{DE6873C3-01BC-479D-B198-0405B5C79654}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{83171667-51A6-45F6-BD79-3D30A8C6CA5D}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{7FD06AA8-F923-45E1-BA1D-7A15B94DD685}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{BC94614A-38A0-41C1-9BD6-DC0C5EB4FC75}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{5877FEB2-A898-4372-9BCB-0FC72FC69D87}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{34298926-BC09-4BEC-8015-C57ACDFCF35A}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{A0498990-CD11-4FB9-9CBC-D719D475D55C}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{3DC58F55-E15F-4C94-8693-C846652E1BF0}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{5A22553A-EADD-4EAF-8CE5-516FB85E1D7D}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{67F9C4E7-67E9-4C32-8AB0-08E02C624900}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{CC50F969-97F2-4753-A25A-6A9F8C114B97}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{2AC2CB28-BC20-41A3-A597-7A0218A19812}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{26A297A0-FA88-4048-9B44-280C2BFF1426}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{8FBB93B1-C471-4704-94BB-AD5A824225CA}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{53031117-EB90-4276-9B0A-029A3D320ED9}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{EF410D77-09EF-4DE5-B1C3-16787591F15B}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{BA017CD1-9C91-42F5-B804-112DA0F519C9}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{20C41D65-B3F1-42A7-BD8E-4AEAF937A103}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{87F8045A-C2FF-4BCB-AA22-0388F82FE625}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{764E7E1E-1CB8-4319-8F99-0273C63501A1}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{78B00FCE-4C11-4610-9C62-7E4E098D0210}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{21F15B0E-DCCF-4094-8DA9-9F38C81FF703}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{FACAB977-939A-4E0C-8147-BA1417B607DD}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{3CC26390-D098-454E-84C3-6E8C2F42230F}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{05423426-9E1E-4F1B-92C2-8AF3F3ADBAC8}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{260BD4B7-ED47-4B02-8A02-5FA8B5DFB0A3}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{C067FF94-C04F-4465-BD04-C88D2D8863A4}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{3F8AFF21-35EE-4C8A-90EB-D1FA80546570}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{C2E9172D-CC48-4E13-9A64-8C4D5096989B}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{7636C9CB-4827-4BE8-96B6-E5B2088C5537}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{23D6C276-A91D-41DF-8032-A05F9732C5CC}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{AB69CFCB-B7BA-43DD-A35F-CC1CEF1C4C3E}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{E1956519-67EF-4E3C-9C61-9F5086F5FAFE}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{F72365DE-3DBC-43A2-98C5-5D099D1E57D8}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{68DCB5B1-21BB-4BD9-95E3-0A78E226803A}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{461A35EA-1147-4EEC-A263-3F0F146C22C2}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{E4733848-F27F-4E12-A564-2917BF67E0B0}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{7AFAF0CB-04A8-48B3-8C3C-2575781C60E3}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{76D0FE7A-6955-4446-8D6D-0835A70F049A}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{1CD56F08-F69A-4FAA-81B4-4F4FD6B1A767}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{6F6FBCEC-CD0E-4AE5-B6CF-F812EDEDFDA3}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{67062387-86D2-4B88-8F7E-B7DD8F675C66}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{976F00AB-ECA0-421D-934F-BE78E545D6E4}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{4B03D2A9-BB6E-4A21-B69B-4CE177FB5DD9}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{3CD0D212-CB7F-47E0-A395-3E500157B8C0}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{795176CF-A4FC-4E97-A5CA-70B5D67DFE3B}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{6EAA5879-96EF-4D0A-BD37-BAD1B553F110}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{242D5E92-59C7-4EBF-AC15-434E98A96EF3}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{8CCE48DE-7926-49C9-BF7A-F5EE7B81848C}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{DBF0AFFD-DE66-4B20-B700-44EEF108F26A}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{C15C5E27-A586-4C21-A981-234172EF8C8D}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{986557E5-764C-4D91-B8FB-54E1C4D9A099}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{C6DD27A1-B409-41B6-904C-E7617B4B69FF}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{AAB34A97-AFFA-4564-A3D9-2025AF26C3F8}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{3A32F0F5-BFDB-4872-BE31-FA0C70EC4B7E}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{ED58CCCE-943B-45E0-935C-D6E3B723960E}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{1ECDE2BC-579B-4025-A8B0-43B3C217DF01}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{E096D7EB-BF28-4CA1-8D1E-2860079B1440}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{CCD737CD-EC82-430C-B9B4-C78D13ED991E}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{4AB21A41-9E52-430C-B716-A8BE13B2291A}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{69D06857-6604-4A14-AE75-C8EDB6949D63}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{0B26ECA5-03FF-42EA-A22A-97DE08403F20}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{DBB7283A-83FB-4991-9F31-F0FCBA575D49}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{E513F4D2-AE0D-4FD9-88EA-55C31427BADA}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{FA14E60E-7DEE-4DEB-9562-4207398AF9DE}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{CBC80381-6547-48FE-908E-77AC68754ED0}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{3F0C4CCD-079B-45DB-9B10-F6D9DFCA7AFA}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{5BA02B2C-ADD6-46E1-891E-A3ACFD8173C6}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{55F2D4FD-626D-413E-A7C6-3EFD64EBC082}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{C414319A-CD1E-4377-921B-C7CB983B8A41}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{47959D52-55CC-430E-9954-475F54C7C288}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{C08E9432-A2F5-4F0E-A53E-CA20D9A70F38}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{A357D4EF-DE5C-47CE-98F4-3CA4F56FF0E5}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{68CF3CF9-D073-4BBE-9407-1B8758FD3C83}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{0C307661-33E7-4C0B-A84A-F36DA817BE91}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{3FF8681B-B7B1-4406-B994-D6FB4E991D83}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{AC109035-89C9-42C3-9BCC-AEE19D1692D0}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{7639B4EB-3536-4F48-8DAB-59584FFE176F}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{4E274140-280A-4602-8DBA-928C38C88B9A}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{CBA43EC9-DE2A-42FB-BBD6-795219BABA51}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{6AB262DB-2255-4288-B402-1782A52C8361}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{C74D540F-3EB3-4764-973D-081F7D0DEE23}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{D6912ACD-9ECB-48ED-8127-52E80982C3C8}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{194A3BF9-52E9-43B8-94BF-8D91EF170D1D}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{AE4FF44C-A1F8-418A-AA1D-3047EBAF4BFE}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{A7E5ED66-DB32-4E23-8248-FCC2821490ED}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{84DF35F1-9554-4DE2-941B-9A1D16F4B770}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{B438850E-B406-4D07-9BC8-47A32BE0D0C2}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{F4BD74F5-D252-47A8-855F-FC64858D48FB}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{8730114B-AAF7-45F9-BC95-946399F56F38}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{6C289BFF-CCD3-48D6-AF57-F5B81549D4C0}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{EA1D28F9-5831-4674-8499-0A002E342C8A}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{0F5D2522-925E-4BA9-B02C-C9D3AAFD1CC6}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{4FA0B5D0-92CF-4074-AAA8-1A5B957CE933}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{C990F547-6147-48FC-855E-3AB5971F668B}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{DF53E423-A72D-400C-B88D-488A74137145}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{EA76F6A9-8F3E-4C33-8295-16A6101DCED5}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{FD7071A4-38FD-473C-948D-8F9E6BCC4F8C}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{3C6FB8CA-D01A-4C00-AE1F-0475AC4724B3}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{E89B672D-B43D-4591-8FA3-73773F4883D7}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{51E12068-3E84-4782-8BA4-054EB25A218D}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{447CD71D-2104-4CD7-A3C4-4AAB0A86506F}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{A9D80917-F0FD-4A0B-B0BB-AF7876650B5B}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{1B694F37-B0C0-413C-A6B5-1A17FB5F5947}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{14669997-7301-4642-8D23-3480EDCAF380}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{798CFE6B-B552-47EC-ADD5-99BC5A59E5FC}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{1E20BE94-5DAB-4B15-948A-37D90B5703D6}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{57D206B6-BB8A-4178-8AF7-1D2209FC1F0A}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{CEC1119F-730E-4EC6-9928-3D3C2807660E}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{929AF88B-C677-49BF-A00F-45E0CCDC30E7}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{038E9008-BF80-4662-87C3-B038A6D3213C}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{3B9B3242-3B24-4F3A-82E8-1EF60F07F138}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{C872C7E3-338D-4700-BADC-5163BEE2D34A}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{C04A999B-F5DB-4EA1-BC29-CEA9DE32C985}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{1C77A282-3F48-485E-8F3D-3484333D02A8}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{A7E5D273-B7E4-4AE8-9FFB-888EAB57CDA2}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{819F72E1-A4DE-41AB-B380-CC1388B6EDB6}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{11B693DA-BBDC-43A8-9F17-4B712EFE8D7E}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{11204DC3-A209-406E-B837-8C3962F33A0A}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{CDE467E4-BDA2-444A-B540-D7A740203E4B}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{EFF33DC3-45AA-496D-B7F5-14277843E415}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{D4C64A9A-8D2A-4661-83D1-065FF91FEB38}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{01C59997-2187-4971-B45F-519EDFB97576}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{0E179BAC-EEC0-465A-BB0F-3D195B9C0BD7}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{49500925-91E2-49D3-8509-49E4177BEE70}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{0D1B92CF-A693-4FB0-9277-37DC5FBBF49A}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{A52529BC-769F-4BD6-B2C1-22E523C97BD1}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{C44DF057-187A-4495-8EA9-B1CE9845D2E1}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{5EB1E2CA-C671-4F08-80AD-0F82767E1931}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{81792763-EB96-4FE2-8631-A54B004C8847}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{AD9DFC40-EE60-4631-BDD3-7CA3B1DE28B2}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{32948386-0971-46E5-BE07-DD61CC91B878}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{1437F1EA-DC2B-4A45-98AA-B0ABE7F4DD61}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{7701BD79-F6F2-4912-9643-DF34324DF20E}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{925E05EA-0880-4A6C-899D-9C41041D2A7C}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{2D87D789-8CED-4607-9DEE-89CC8EE944B4}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{30E305CD-F085-4208-9C59-FAA9B6BE56BB}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{D637FA84-D07A-448E-90F8-C287FF230B42}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{314853C5-FF4D-4E72-8989-97F98B3D08B1}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{F20AB405-FED5-477A-A272-BE57539618A1}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{994909B8-5E2D-4668-BF68-EB70ED299BA9}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{05597AAE-6768-4E43-A566-6A07E29F30E9}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{EC6DEB2C-81F9-4FAC-B2FE-4359CBD02598}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{AB50F29C-5714-4BC2-BEB7-AF77E9241F75}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{6A098275-741B-452F-B4E8-75B6EFEE3C07}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{038DBE85-0336-4C61-BBAF-447F3E6230F7}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{7D362C78-87A4-402D-98E3-FC31ECF7007F}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{756B16D5-4767-410E-A22B-53A93D69A7E1}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{EA340140-1916-499C-81F5-64E6C585ECF6}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{0954640F-7AED-4CBF-9FBE-639A4A1C287C}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{87BD0CF1-BB67-4D1E-9CEC-375DEA565527}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{44323AC6-F3FF-4B0B-8EBF-3A40C1B93648}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{40BF6CB5-418A-4B94-9173-A81CA6D994EC}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{F9BD149D-8604-4508-879C-FC57F8CE1769}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{4FB45A0B-F917-4A9E-B709-784B238EDF6D}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{E09C4622-442B-4950-9802-7D7E5159BFF8}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{D7B2FDA9-AEC8-4BB6-8E3E-11856683E779}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{E072BFA5-7DD7-4527-9C22-2F3E4C972C01}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{0E8F3A47-CB9A-47DE-A5AA-8EAB8D72131F}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{2C4C8949-AFB7-4A50-800D-BBFEFE9CBD2F}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{A7987BED-9415-46D9-8E3D-A94439B48F18}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{76DAA66D-61C3-46D0-9165-E51793DDF2B8}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{25A12368-262D-4BA3-8206-B4B46655B3B3}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{D0549A26-96FD-4A6C-970B-922B43CE9FDA}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{C01DD0D7-A6D4-4940-94DB-C3B665F1303E}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{15021238-43FD-4E2D-9E8E-1773F57108DC}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{B392C5DF-074C-4026-8331-F41262804C36}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{E671D4B2-9335-4D86-B90D-53F3DD0A3489}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{7720822A-A3AB-4CAA-8D49-C586BD6B94F1}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{15AD6ED8-1829-4CAE-8F30-DDCBEEE6EB6D}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{51656F04-7B77-4429-8EBA-C092B2A81D94}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{84F98335-F481-4D0E-B9E6-684EBDD6910A}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{3B1596E8-036B-46DF-BF52-D63B7F068BEC}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{D35677FD-6AF7-4F5F-AC17-DE5E216D6565}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{41C99296-9B45-485F-84A8-F0642880DBC1}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{CE53E32A-E6E8-46C5-A9EB-1A5EEC6960D9}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{DF11DDF6-20BD-41E6-AC95-5C889D74DCD1}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{4F8604B0-8802-485C-9437-647AEF457558}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{D718ADB9-A923-4F0C-8C0D-AC8C29239B25}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{2AB25CDC-2695-40A8-BD3B-50A74C95D430}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{EDE4ADB9-8012-41FD-80D3-41653FE1A3C2}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{91335D51-92A3-4A8A-9642-43A79476AC63}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{E88C6EC3-8067-4A76-8BE0-B45BF68D1259}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{F7D5E1B2-7DC7-4BC1-81FF-C541037DA296}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{58A50FD9-404A-44B2-A5FC-4FD16F71933E}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{189EF31B-1602-4F5A-875D-78CC314F4F12}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{9E0830D3-C465-4D98-BA70-0E5D1FC8427C}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{E86949A9-2D28-403A-899A-D7AF99F8C54E}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{15A5180D-2D58-4FBC-B806-AB141F07E864}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{4FAC3E60-10CF-4A08-BC92-370B94AE0A26}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{B034081D-A2B2-42A4-9440-775C20BF992F}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{C1B518CC-94FD-4B54-B245-BB8B2351EC8A}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{A49D4358-B960-4336-B0A5-20E50655E387}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{EF4293EB-D045-4F04-A3A2-9D295930C462}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{13ACF7E0-F13A-4530-B7E7-79017AADA17D}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{39540BEB-83B9-4BF4-B479-8C6F32B15345}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{C53EE053-1D52-49E1-866D-15244520F32F}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{C395547E-F71A-41E8-9F07-DE04DFE65D2C}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{363F2369-4EC8-4E04-A964-8FDED9A4B11D}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{B97BCEE5-27FF-4964-A684-DE1EB3A6D96A}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{1269CC5A-19B4-4229-A3D8-5DCCDA5BF5D4}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{2EE80E02-A3D2-460A-82B7-3EAB3C966C7C}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{EA7DBA21-820D-40E1-826B-75B744564125}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{A7CA511A-DA85-47F2-B733-56407B363D44}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{AC50DAD3-70D3-4327-AC75-5DBCDCA9201D}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{6A7A5F99-389C-4F28-B2A5-C62F36AE9F8D}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{AB1ED85B-77A4-4EDA-97A4-80EA88F4E930}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{103DF626-7D74-4928-BD2A-D7A147A12E2A}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{C46F432E-1D23-4CC9-8917-EEF3B1DBE290}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{CF3F4F30-AAA3-4583-BBC4-394500890D5B}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{7083B28F-2E6C-423C-B5E4-40094678FDCC}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{29DA1DDB-8928-41BE-B676-D21D72499BC7}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{F22D0258-BF2F-4950-8560-DD0C216EB918}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{77C9DFA4-61A9-4DB8-909B-9F2C00A8AF5A}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{B978425C-C3D9-42D6-A9BC-1A302806CEF8}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{51C2C520-071F-4C7A-99A6-D5D371904735}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{5DDD2D60-5708-456B-B7B0-A4327AA7B256}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{18A730C3-9748-404C-BB1B-54D6DD541A61}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{3C1D557B-95C3-40F1-9A90-C01CDB5399A0}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F83F927-6A7A-4D55-A4C9-BB29A0C29E4D}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{3671655C-F6DA-4400-A3F6-53D5D4EEF398}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{B5E64CCA-CB92-4471-948B-A6BBE008B958}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{F6DD1BA9-1BD0-4A1F-88DC-31602DF3D286}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{93F933FE-C7AA-4170-A139-D6BFFFA751BB}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{37CBEB6E-A3B6-4AF4-9E2C-C886A94E34FA}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{761924AF-60DB-4F75-915E-2BA869DB03F3}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{0ED2ED50-498E-4C4A-A58C-07F4D11FC028}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{A44EF706-F7E0-45F0-934C-E5C48864EAFD}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{F532865D-253E-47BB-BA9B-580EE0F27A73}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{7C9A0F55-D609-43E7-A315-EA448B87E3C4}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{7F02E9A1-470A-4BB4-AFCA-91AF7FB554FE}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{55E1BA06-7003-4CEC-854E-8C1CCCC235FC}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{01A1312C-2A84-4664-ACC8-609D1D5443BB}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{9B5084D7-47E6-49F2-AC9F-BE24EC4EBC4E}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{FDE37E1B-5AD0-4D32-8F52-D96142B79933}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{106353B2-91E6-4118-8E7B-AEA12AD1390C}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{47DF5667-BB17-4466-9EA9-B1E1C1AEBAD2}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{06141519-5499-4C51-AC84-6E30EF712DC4}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{FA56F265-C519-4751-995C-C41B0CD8A824}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{06BFD646-E6FD-4824-915B-8BEEA964687E}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{D78B308C-E3E5-4751-B947-6CAC24A78AD1}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{72BF56C9-827B-4C11-95CE-5E84D12BE58A}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{7C91F96B-B275-4646-952E-61178500A061}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{9BE73E3E-FFEB-4EE8-A63C-E7A439E86BD7}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{AE58B94B-B493-4368-986E-F6196421EADE}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{C9B5532B-908A-49A6-82BB-A5CB5D0285F2}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{D9AEE6CC-6394-493A-B9A9-EE9851C517E5}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{603BBC71-014A-47EB-9267-0C3B4690FED3}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{6DEF43EA-E38C-4C58-9504-C1CB665A84E2}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{CB6B55B0-39D3-4AD3-893D-68FEEA93F6F1}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{81966B3F-2048-41CA-8F0E-3664863FF382}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{75C60781-CE8A-4233-B3E5-F7204BF860ED}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{244FDDC3-3486-4A44-B185-0A0DE0438D1E}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{56DA0231-3064-4EE2-B505-45020C38769E}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{9532F3F7-5B8D-425D-AF88-CE1C6F53A73D}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{4B250C18-A2AC-4FBA-A2E0-DF66459A334C}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{32B1A468-37A0-4358-B0FC-95B133924599}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{0199653E-3040-4F4B-ADCF-881A24DFCD6A}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{DD8E0A88-2D7D-4DB8-A5A7-80228EB31138}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{8CF1E1D4-577C-4B96-8928-828DBAA18697}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{56083D15-56FC-4B9C-B7A5-3991A8278ACA}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{C55C2713-8BC9-4429-8EDD-3DDCBBDBC437}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{B0EA242B-DE0D-4D80-A7DC-F9B24EA69496}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{62E7E669-727B-46BA-9304-F57550F9A8F8}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{145698E6-F1D9-40F1-B899-31FE30BDEB27}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{2279B4CC-D213-4A4E-A60F-E80860A83D1B}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{368B7C32-7094-4A77-BBBD-946C79DB7BB1}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{65815456-DFB2-410B-8E43-6D8463846F96}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{EFCE870A-05FA-4E1C-89E7-C10B4998FD08}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{502FE200-A98B-401D-9DDB-04B1C8DC7AAF}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{2F7A3166-BE15-4151-B512-652C4140A565}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{B22C438D-BF1E-4F41-B3B7-EA55ACB01E51}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{97F2CDA8-45E6-489F-8550-ED0FDCAEA94D}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{0D5BE9A2-19B8-46EC-98A3-42F0472C0C02}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{5A586F1E-E7C8-472B-81EB-31BD61200132}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{BFB0BD92-1A6C-4EAE-B8B5-6CFDDE7784A0}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{5F786146-6C7E-4594-A7B6-4ECE219AC372}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{CC80DF5C-8192-4E66-8B2C-1D558A8312AB}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{DCFED544-6D04-4255-A2D3-32DB36CA6370}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{8243C8A4-8485-42EB-A5B0-A46345319DD8}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{442D2301-C85A-40E1-A98A-9CDEEA1EE185}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{51B55CF1-1D06-4F74-A693-3791A4DAE459}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{81519DCD-6F97-41B1-98CB-05074368343E}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{38024290-884B-4A3E-A781-73CA89470332}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{09926309-5C6B-4A5F-BED4-57D7ED013A3E}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{A9EC57AD-DDC6-4AC1-B083-7B08B106EFF3}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{C7284DE4-FBDD-421E-9F2C-0A5082C79877}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{7F1F9CB1-F253-435A-AF6A-42D084B24631}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{BCBB7030-BDE2-4450-AE9D-D0560723BC94}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{7A043BFC-E670-459D-97C1-B9E53A0D2562}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{A2924D4C-0FF4-4DB9-8CA1-81BF608AD0E0}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{F18B38DB-15E2-4048-9773-926E413E798D}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{A53FAD19-44E5-4D66-AE2A-2DDB15C9DDE4}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{B602AD73-0882-4535-8F8D-48930377A729}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{4843CE2A-587F-4C4E-BFA2-04E30110EFE3}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{4F4D5B7C-D3D7-49B3-A11B-38C0DA2F3F65}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{DE4693D2-2353-4432-9162-28AC1D2E28C1}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{99FDCD47-E270-4168-B42F-D598FC7AFEA9}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{838192FD-C970-48B3-AD12-30E97DC58E68}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{08DB8947-BA7A-4095-9DE3-461C96794077}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{340ED989-B44E-4196-B120-BECC7F90E2B3}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{CE1D92C0-D198-49AC-8882-C305F040F698}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{7CF8A83A-7DC5-4FAF-B8D3-4B563CD17D9C}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{7B0447BB-1A65-48EB-A47F-1852A31009C0}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{0A74EAED-EC70-4728-B4F1-6422875D8EEA}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{7460E2CC-1642-4EC7-A95E-A590CB155A65}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{15F0895F-8C69-4D44-812D-6CD6EC4B854C}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{F0997CFD-09CB-4E51-9875-F6E445149264}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{BB81DB4F-5D22-4EE6-B0DF-EE92863EDF60}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{858AFE9B-FB12-4159-BFCF-E5AFC1A4C0CC}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{116396C2-4DE3-42EF-98D0-26C6CAC91265}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{A5CD40A3-A541-46AD-A0CD-2DBC5169BFDC}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{143CB478-2E89-4721-85C9-EE9511BFBA94}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{7F85B9E3-5850-4F7F-9D4A-26FF570582BD}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{32CF1E1A-74FD-4D63-9B7B-8D93453D66E7}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{51174153-BFB2-4E1F-A9A9-AF16C9328424}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{819B979A-3D9C-46A0-9287-8FA9D6EDDA58}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{3AD0815D-9D5A-4281-9AC4-81FFAAB4E2C0}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{2176D962-6038-4008-AA87-2324C530B513}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{8B9DDA0C-FF57-441F-93C8-105AE0E91031}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{2D69A861-B4C8-4684-A24C-F0327E7C5271}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{101FDF77-FAC3-45BF-96E1-2C64DCD7C90E}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{0FC7DD25-5E29-46A1-A37A-E13CB713CC2F}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{72620415-D5B8-4D08-9C87-7CE1EF38BAF5}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{1CFCD5A9-80B7-41B2-BBF5-1FE075B37616}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{F38A963E-FD35-481E-BEDA-B8C097884F27}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{B7823343-9581-4E9D-8D30-6D3463D1922E}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{778DC9DD-D625-4EFF-8E33-EA8FD96728B5}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{3BFD388C-DAAD-4B31-8BA6-E726F3AEE60A}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{CF4F56B0-D144-4FB2-AFD9-D1E57400DAD7}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{60A028E5-834B-4AFB-AF11-FC0A6E563574}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{365233FC-3B86-4D32-BD01-FA317236BC9E}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{04626458-872E-4FE8-BEFD-FF5B5CD8DBCD}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{28BCD5DF-FA8A-4EC8-9AAE-7B1AFF7FB6BD}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{215880C5-9BB3-402B-8D34-A3F1E9B99EFA}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{F44781E9-3B44-4DF6-B9BF-A8A24A5164DF}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{7144686F-786F-445A-B85F-B7120EC11414}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{7F8FA6FF-EEF8-4499-B974-CEE1A4A186B8}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{64B6417F-6594-49B7-A0D6-AF1A5E6E8AE8}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{B789CB47-AAD8-4E5A-A968-ACC32F05E791}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{C939778B-D7AF-46B1-A851-4B7B9C6248D0}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{85824224-043F-4C3D-99D5-BAFCFFA2A08E}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{2C827CB8-5705-414B-998A-2235DA6DAC72}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{2FFCA524-F70A-4D3B-9A2F-F4095C9630EA}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{2929CD9F-1CFE-4654-A6DC-AD6F9AE71AC7}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{717C1229-0B83-469E-9DCC-CBE54ED133FC}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{C88AE9C1-9773-4393-95AB-C229BD7DEE70}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{19114732-A428-4E79-96CD-280F952694B1}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{574D8C90-7031-46E7-9D9F-C495FA0B1E19}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{6113ED68-2E0C-4C6C-9D93-A7305F4E218F}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{ECB778CC-EDDB-417E-9315-06ACCAA49299}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{F7C33A98-2B90-4671-8649-2A08D9A7BFC4}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{3047239F-8914-4679-9C13-36EB416C817B}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{6EE1E525-5C75-4FE9-99FC-C937A12015D8}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{1510856B-32A1-4417-BA18-2B6579AA57A6}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{7BF81ABA-66C5-4ACC-A4CC-58E1C84EF116}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{652276AD-5AC5-4977-BC5A-F59DE04F46B3}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{CD295704-12EE-4E6E-AD03-93355B046A31}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{E7EC5F11-7C13-407A-A134-26EC754B56BC}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{0062EDDB-61BA-48CA-A688-6177521641A6}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{8E873C41-9D5C-4661-B2E4-6E94FB045238}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{FBBFC66B-E2BA-4605-B7B8-85FA782CD220}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{FA1D2A60-75E3-4C46-A1F7-B4D02EF315D9}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{60ED2985-9817-492D-93D8-3CDF0E64A4A6}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{7E547E27-8627-4640-9E06-B4EEA30DB1D9}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{C990A51C-B0C6-4F66-89A3-2D81033AEE77}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{B7C1C479-AC2B-4DF0-8182-E7271E4F3C0D}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{5AEBF1A1-9422-4C67-8D15-9CE650977AE4}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{E44F6F01-36BE-42A4-9A84-C5A795AEA02D}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{DE1F6530-00D0-4C2E-95BB-0AE0E2F18AB0}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{8E7546F5-4ECA-4F34-9D9D-5971A5B985A2}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{9AFA3991-9FEA-4C93-8676-F15F23A0BA79}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{EC0F8132-C51A-4BDB-AA52-EE4C4EEFD3EF}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{55027B81-8E5E-464A-B5E7-F7A1E024B5D3}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{574FF2A8-E985-4068-A922-3E177D99726A}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{1EC15E8C-4192-48D6-8D7C-84962321D651}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{306247D8-82F3-42A5-B8BF-7E4726A183F4}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{1DCA18B2-FE30-4F0F-B291-C515A9026667}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{E338CD00-6DB8-4500-83CC-3F772FFFEFF5}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{57BB9741-C519-4A5F-BBF2-51D0412B4063}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{12DF8661-77BE-4211-B34D-C2A63029A818}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{189182F4-C97B-408C-8F75-FBC663B3A71D}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{83DD17EF-CABF-4691-A3C6-B60E8DF96FAF}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{35073C9B-251C-4E54-BAFB-A1FB05911371}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{AF89C2B5-69FA-4A7A-944B-2080CA39DDC2}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{5BD1D511-6C9D-4E8E-93CA-E64C11BB1FAC}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{B161275C-6223-45E6-BAF4-270237471887}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{53B18095-4FBD-4A8F-9280-772747CD45C6}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{AC3FD353-1979-4F61-8F40-EAFDFF83C55B}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{E62B8BD0-5E45-4939-AC81-9586D3988B74}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{3B25DCBF-CC22-47BC-B94E-42063D4AD7D0}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{1B028ED7-F5E2-440A-B40A-2BE8B3F3B31C}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{E6A98A95-85BA-4020-9EA4-FFE565423907}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{2E6F3746-908E-4DF2-A38F-DA728318CEFC}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{2053C2BC-9968-4DB9-A348-313A4DFDB429}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{0D50AD1E-172C-4BBC-9871-513E5AE0CD51}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{9C2DCE11-8439-4F09-97DC-862E79489099}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{C30FBED7-D079-467A-992B-A160C90B5FF4}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{D77D8D28-6BA9-4209-9667-212FC952FF15}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{95D3BD5C-0624-4E7C-A35A-2C80825F2C21}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{FB99D486-A34D-4D99-96D7-FF4BECB07750}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{A3631CFA-F3DA-4560-9A65-8A0E4AF31F40}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{CA90030E-6A4F-4F50-9B61-246209348DFD}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{6F2B64AA-8B68-41B9-BCEB-B7A7C04CE96A}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{83B5D446-8F6C-488C-9CB7-3E34EAAEC6F4}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{CA6771A0-D612-4062-BEC7-0BAE8D8326F9}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{87D48F6F-0C1F-4695-BAA5-63DCE06CD5ED}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{88ECF034-72C2-42FE-BFA4-12B4582017FC}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{B7977F33-0067-48A7-80B7-3FE421E4D63B}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{CE3A244F-FAE7-4848-B777-DDD726E16D82}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{88D2FAF0-4BBA-42DB-9C18-E69BBC4BD597}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{202ED304-1686-4899-A003-851AB92E511D}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{658BF809-BCC6-404D-ABE6-8F50DF07A287}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{1AFA3C79-E865-4582-BD23-1784813364EA}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{0A9840D4-19CB-4D82-9B66-4BD72A4D0265}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{AEDED034-6CEE-4A3D-8AF8-BA54B53EB0BD}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{C180CFF5-5AA2-4993-83FD-3A2D122310C2}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{689D02E2-B2FF-4245-8600-3BE9BC0E6374}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{71D0AC41-41D7-4BDD-98AA-B6F41EA7A02F}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{24E33CDD-A9C7-4468-8983-47F75948555D}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{F43A2AAF-E65A-42DF-AB34-9F63EF6F651C}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{708CCCEC-0E7D-49BA-B877-C550247EC83A}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{9180C2D4-7EDC-4CFC-9531-C98E701FAB0B}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{F6AC0F7D-A9B2-45D3-B676-751A04291BD7}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{8911308A-5223-4A8C-90C0-7BB14D775961}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{8300AD4C-A4D0-4DD9-BDD4-7FE70D9B61EF}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{3A9AA9B3-279B-47E1-B048-7281953C916B}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{7AB6425B-DED4-492B-A277-9A03E4FCDE32}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{91D5234B-D5F1-4B9F-83AA-A6372B507904}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{3CCE9DDE-5F3D-4E6C-A1DE-8946CE2D7DB0}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{419D0923-9708-41DB-A888-AD7DF9568F07}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{7E24F398-57FC-4F0B-8FC0-06AE248D322A}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{25F3B8A3-12B0-4BB4-A4B2-AAC1294050FC}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{F8CDEF2F-4E74-41EB-8DA0-D0FFB84CE81A}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{0D385763-71DC-4503-BF6A-91013553444B}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{DA7A16CF-F21F-493F-A602-8885591EF47F}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{964C69B1-A14C-4B38-8279-B178844DC202}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{619579EE-97B3-4563-A33E-DD1DFF41847B}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{37DA2931-6022-4549-B225-675DEBEC2DAB}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{88EDAC2C-BCF9-4E13-B63E-0917B831EDDE}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{53B92A76-66E4-4EEF-A33B-9827E1C37165}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{6751B672-AA01-4072-B941-361557CBE13C}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{AEE46645-41BE-4E57-B903-1B56A810F1B6}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{A90CBA3D-DC1E-4A84-AD05-82F5428EF952}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{7590A55C-EA45-4D2D-9179-81D9B4D7A63C}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{40AFE82D-59C7-4F58-B768-C7C342C03239}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{4D812473-91B9-4993-9333-19F84CA9A22D}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{C7A4AE52-5A50-4576-B23C-F7FB41A7A0AF}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{14F22056-B68C-4C98-AA46-F4378CA903C5}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{5A3A2332-8532-46EF-AEB9-1D4ED5C1C453}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{F26FE19F-FB0B-4591-A0E4-FA9AD6A43DF5}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{0DD50FA7-CF9F-45A4-BD13-FFFF2E87AE93}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{69C5D451-CF51-4E26-972E-A882C3CE389F}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{9C4898A6-F6D2-49C4-B5D1-DB3B3E545DA6}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{A7F626AA-D373-42DA-9C3C-CD77C11B39C2}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{52B8D05E-824C-49BA-B914-2518695CE602}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{79D05758-4010-49F5-995A-2F408F5D5877}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{5261A84B-D295-4887-AA24-EA887075DF6A}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{8B4399EE-89F8-4F53-93DF-7B40C3F3D12F}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{2304DFEA-B469-4244-9A22-C8059CA6780F}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{148C04BE-06BC-4E67-A184-1080D7B75004}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{CE0C4EDB-1F59-4095-9CF8-C8D05ABB2032}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{693E2206-2D75-44F2-88F3-89096FC4FE5C}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{8E70FFA5-B641-40D8-B79A-922CF73B6676}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{0CADBF8B-1A33-4FCF-B553-6C025BA7FBF1}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{C3D7010F-E464-4C43-B465-F5F2659CC0A4}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{3144C851-3E5E-4361-858E-4BC5DA4E595A}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{6EEBBE11-9EEE-4D24-B3C3-E82846A807D1}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{73674DAC-035E-4F1C-A18E-9B632B7C7084}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{0E5D2546-6F88-49CB-9C91-9CE1C760AFF6}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{33A300AC-5B00-4152-B14B-278E5D9E1B95}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{68E1D285-1DBE-464A-8CE7-7F7D988DE312}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{01F2139D-57FB-418C-A803-BA70ED2D42F7}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{0B97FEA8-FB8A-4558-B262-BB30B66712D9}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{7986F453-C9DE-49F8-8B83-12D337742BBD}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{6F44F633-7F19-4AC3-8652-31A096B15636}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{39F3A05A-36F9-4276-BFBC-96087CE6B379}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{DF19C753-3A76-43EF-B702-F35488ACFC95}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{C89395F1-E41B-4886-AB4B-21219B026967}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{22B1945A-3809-48B5-B93C-F2B8A1DCC9BD}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{E22733FE-81A2-4BDA-AD1D-55ADE389BDF4}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{28790A78-35DE-4E43-AED1-921BAC02BA0A}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{EE118484-EA71-4771-BEB3-8EFA314EE21F}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{6AB7BD98-F60D-49E4-A4EC-FD6B55E7C36D}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{84C2F467-C9CE-4776-99E6-4FB402D26D48}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{70E55393-085D-4E7B-AED1-001B09647578}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{ACA9A3BC-1E4B-4D96-8B61-8C569C8B8754}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{47B593F3-5675-4C4A-8AF8-33EC3D104BB2}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{C7F9F701-C9E4-4FEF-93AE-DA991E4CDB4C}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{6F9A1902-F2CA-4151-A9E7-3DB25A61A35B}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{2EC27D6B-F8C5-4399-8100-ED1FBA7B8FE0}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{08A7B828-2CCF-4E8C-AE04-512FD851DB4A}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{740C60F1-C18B-46C4-A548-478400EB69F0}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{5BA6AEBC-8EFC-4388-8751-8CA15040B849}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{347F0274-C66D-47B8-9823-8F649C82076B}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{14BE2A93-BA56-4F14-A6AA-4F0A0E806928}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{6CD10C1A-98B7-426C-BE46-2273895622F1}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{112F8334-1B52-48E6-9615-10EBA1020D8F}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{0F16BFB5-E6E5-4DB0-B51D-C08F1C53EB2E}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{F5087DF2-85E7-4E52-B7C0-E7B0396641CB}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{1191087F-B8F5-4172-8B5D-2665B97599E5}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{804D06EF-804E-428B-82C4-DFEA41918924}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{CB799358-428E-4989-86CE-3FF14E385460}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{974E1C43-99DF-4029-BBD0-0DCCC5C4919D}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{8E6DEFAD-980A-423E-B337-621BF63AAD60}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{A3FC0FF1-A36E-4D8A-BCD7-AC503BD1BFFB}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{215A09C7-9865-4D54-9028-4245538895B8}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{58A1B572-53FD-4747-B393-5312C814DAE0}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{585500A5-8E14-4EB2-ADC9-AA8DEFBB35BB}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{0A555FA4-44D2-43DD-A17D-6E796434C97D}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{809E8097-FE6E-4A9A-8922-FBA580576132}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{3C2632C2-8664-4BBF-AF89-689390A17436}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{5AF0C8A8-FEB6-4F28-9667-4F2DD9A5FB7B}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{DE65EB3D-B7CD-48BD-BD6A-B7865B809D60}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{AB30767B-B78C-4A12-8748-6BE024D050E4}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{38712FFA-FA38-486F-8F7C-5BE1A64FEAFF}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{BB3AAC46-1C0F-4252-B6C8-A6A6B58533DA}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{EE0FCBA7-175B-4D8C-9102-31F8B9FCD5F6}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{74A03BB2-6B55-44FE-972F-17FBBD479686}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{27C01D47-B321-487A-97C1-04F0494F3995}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{D5151B49-6E82-4991-83BE-FD5332BA834E}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{9E70A6FA-9B4D-4FC5-B4E0-5905D3C45832}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{4C673110-5E83-4987-A0C7-8F74BDA1CB26}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{3F017EA0-C702-467B-BBE6-AE58CDC07C00}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{B9686029-94BF-4CF3-9990-708E76D5D1B2}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{51D16813-E2FA-45D5-9179-5E6058918B92}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{0BA8035F-0E9B-40A8-B0A2-984978D44683}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{D7758601-5A4E-4F47-A4D1-1F0B59041F6A}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{56C86C97-CC35-478A-A448-2A7CEBD3CF13}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{2B46CEFA-5F2A-43FD-8493-0A794F9C4ED1}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{6A1B3B3C-C90B-43A3-A4E7-C68139A120D1}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{8D720082-7245-476D-9F60-2DAEA54173F1}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{A95DD942-FB04-4DA9-AC72-659554B66463}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{17B33B03-8AC3-4C10-8D27-64A6E068C6B8}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{E7D8C437-A070-4F46-8015-90495D522E27}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{92196A3B-08A8-4D38-9EBF-A1B327CC58D9}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{562F2BCB-7A50-4ADF-BF60-6FE1C3A69366}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{D9AB9397-06DF-4CEB-8DE1-27454C126753}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{6BC8FA77-E069-4D1B-8EAA-ACD7E3D31D6F}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{56B533A4-EFBF-46FF-B749-35C74E97DC6E}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{9E1C9ACC-41AB-4C76-BF3D-1878F5811FBC}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{3C97C21B-D35C-44AD-81C1-59555C075E91}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{17A3BDFD-DE99-4612-8C56-F1E71C46F797}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{5B4436EF-FCD3-4FE4-A739-C5C7CE1BE4C5}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{A2A5DD37-1464-4034-A4AE-333C7D655728}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{5429485D-3EF9-422E-A097-9D3A05181136}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{359CD3CC-C3AD-40FB-B908-6EE485568455}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{2D6BB30F-7CF7-4301-A298-E25F6581ECFE}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{07BDFF80-AE91-4060-A45F-422E27150A51}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{B2E6604B-8B18-43F0-89C0-CD6ACEC851D6}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{7F148E47-E788-4C01-94A8-4F2DDC9CDB81}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{249236A8-3074-4B5E-BBB1-F4ECA65CA8CC}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{D0FBA526-907B-4EAE-B164-F2A8D217AE01}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{E9BD046E-D8C4-47E3-8704-D39295B59579}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{F9E9D867-D9A6-48AE-88FC-D0A3623FF6B5}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{F2D0F841-630B-4F75-81E3-909DE2857F03}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{A0B05986-94CF-4374-B0DE-168AC6449B59}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{11768EE0-3663-4D9E-AA41-32C5917181CE}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{C558BD39-CD1A-47A5-AE74-4B6E67AB6DA0}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{C140A284-216D-40FD-9BE1-98624F22A1BB}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{1BF508D2-09E6-4849-8745-04442887A1DF}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{3B682978-E1FC-4E17-8966-8E81F37BE31A}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{AE2D13BD-3B59-4292-A3D4-96B2D53506AF}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{332412AA-65CE-4B4A-87EB-A8CA6E5F038F}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{6793DD71-5472-466C-9113-1F34D9883F72}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{9A085FB5-57D0-4F1C-B70B-5F9A308BFB73}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{733DC2F7-A75D-48D0-8B24-B35CDC5DCD83}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{510B9020-9761-4979-865B-F5CBB9FB726B}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{E6713C9A-BA4E-490E-BCCE-CD7109BBE9E4}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{248C6ED2-860F-457D-B1BD-DD80DB3C3263}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{F2631030-5DAA-4D59-B94B-4BE06BB33754}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{58166CED-3CE1-49DD-B706-D9DF2D623AF0}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{41279F53-664F-439E-A0D9-890BB4C2B6B6}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{E50494B9-4E44-4A34-964C-8C43A7EC3B1E}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{FCEB9EF6-E265-4E35-A0BF-71BC2ABA0EB2}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{E18EA99D-2A17-4ADB-BD9B-EBC7992394F1}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{DB89F567-E8DF-456A-B721-B35C6A9FE26B}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{3A6E71E3-091F-41E1-A1C7-154D642169DA}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{C0682E32-C6C7-4508-A74B-23AAA2A8C635}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{A32F7653-89F6-4697-AE0D-68E90642CC80}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{D21F37E0-8C52-4FDE-AE85-5F70673BAD5D}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{80CE35EE-114C-4877-9CF6-66AC27907C13}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{F474F10F-A12B-445F-A70F-2A910E31E536}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{719E2417-4C3A-42E2-8F63-929A51553D21}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{56D97793-0D10-4F7B-8B2D-383237EAFE56}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{99A958D0-DD54-4FC1-B49B-92689A792E4A}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{1BF63522-1472-4C64-9A5E-F5F2791E2B20}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{1C386BE5-DE70-4E86-82B6-0C1914F73F72}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{E67878CF-F33B-4C43-A5DB-D59C0799B556}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{2A556C60-DEB4-4E50-A484-FD0FDFC964C3}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{065B2366-A609-4DF6-8D1F-30A58628C477}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{25AF0320-207D-423C-9FB9-7EED328A36BB}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{D9819F50-6946-43CF-AA5F-0F48F297546A}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{C16D4B33-4E9C-4895-9413-1C462D47916B}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{F5FAB39D-2CF7-4B83-A38B-30603813732D}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{FB2E1E30-C707-469A-B0AF-DE0265EDA64D}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{CDDECA04-CEBD-4448-A2EE-66A66792F6FF}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{169A66D5-4EFA-4C41-9F30-C1B0846F0FF0}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{AD0E8BB3-CB74-43C4-855B-0C20C665396B}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{3EF0D323-3915-4D88-AAC8-B49877203B0A}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{CD8C16CA-78F4-4371-A8E1-952E6CFDCCC7}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{CE7AD2B5-E77F-4AE8-941C-7A019CDDA2F6}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{55775A3B-09CD-4088-A021-544190979FEB}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{A5C8ED55-69B5-4826-BF6A-A99C083F1CE1}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{55FFC388-A5A8-45AF-A710-EC97E1675CFB}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{FB346FFE-2FED-48CC-B1F5-0DA0DDFE9A71}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{E6760A84-D6E7-4326-894C-5072CE92968F}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{944AA7B7-5AC8-4D4D-AEB7-53DE3C078ED0}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{C1DB144A-3609-4B84-92D7-86C181EE2D2A}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{7DDF942A-EACA-41BE-AEB4-65ADAD947E70}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{8884C5EB-97D7-42AB-B207-C77F0C71BD72}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{C75FC2A2-DAA7-4419-8E39-FC4178CB8D5E}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{CB94E2BE-BE9C-4637-B1A4-EE58A0264F1D}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{4B251CD8-7DCA-428A-B8EE-D6394043D3B4}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{807D6DCC-CD21-4764-9F06-64C70993846E}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{9A78A37F-782A-4087-9F69-EE83E0F8F040}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{859E5511-1396-429F-8867-AF0EE5BB1851}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{63C1828E-0F21-4B01-8E1B-B01247B876E7}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{2D021923-E90E-4DB8-916A-596CEA549D40}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{BF58968D-022E-44B0-B85E-636311E147C9}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{71DBEC97-4677-4E79-8216-9F5E6A85F9D2}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{E1A1209C-2A0D-4C64-BBB6-EEEED61F20EF}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{D18F4D8F-8690-473D-B5E5-D230729BBF85}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{DD3E07BC-02A2-4B73-A80B-4AE71A15158E}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{A13B661F-2EE3-4E25-B3B2-1FA29B4DAA64}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{8F7C48A9-E85A-4B9D-BA91-92F86F611E50}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{84413A2C-4C19-488E-A616-A6615657DF33}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{B430CE70-DFE9-48E4-8D38-4DF17FA6050E}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{ABB58343-C8D3-44E9-80B6-BCAA41789B68}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{921673F8-ABBB-449B-8EDF-E228EDE4F05A}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{D1863816-1507-4BC8-A8C9-8EFFBE8C75AD}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{B856B5B0-E29D-4BA8-AA06-B11F0FE96FCD}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{2A889DB4-23EB-4EEB-93F9-F69A03999355}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{8A6CD1A8-0E16-490F-A31D-23383A4B2C52}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{F197D0E5-BD30-467F-8E78-941AE3753DE6}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{ACDA0F09-9A80-444B-B404-24F26BD285CA}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{3DD4BC5C-FA32-42F6-89E3-43938ABBCD60}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{FD2ED388-F2E5-46C4-BA06-B37BC30B4AED}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{3C6F30FB-9AAA-486E-B676-9DE31DD0224B}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{34B22B14-93E0-46DD-B1F6-D851BD7911F4}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{BFCD360E-0535-4B6C-8169-2DFD77A378E6}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{98147DE9-7A11-403D-9243-00BCBC19B511}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{C081776A-BFEC-46F7-AC29-F9FCEFCB52BE}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{5EA5146B-3A48-4C7D-A442-EDA2D35DC476}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{5E677790-78C5-4CDE-BA98-3E3DEA49C696}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{5CBAD2C9-EE0A-480C-9E7B-E0AA432AF93B}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{2CED9D5A-0EEF-4FD1-BC41-B8284CC2C050}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{F1EA26E8-9821-4543-A673-887DDF5B97B2}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{09D54E7C-D235-4C1C-BFF0-E913C8652A0E}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{007EF784-237F-4195-9227-25364EAF510F}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{86A4521F-A34D-47B3-93CC-2FE82DB4583A}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{FE1C1C8F-BFD6-475F-8947-D1D3E57CC467}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{466EEAB5-457E-4281-9584-0B0C99066B96}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{CD5B9225-9780-4496-817E-E742444422C2}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{349565D1-C8B5-44A2-A5A9-7831A73FFE4F}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{DE90E433-F360-43A2-B3D9-1D4F2131B99C}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{3C59F9B1-9B0D-4666-A9A5-1DE06B04F1BD}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{8BA418C9-5B28-4472-8309-0E61BE7F494B}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{0AC619EB-E55A-47C2-A77C-FE3372F88A16}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{A4093C65-7946-4640-8CA3-E7FA41BF50CD}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{C822D3E1-E30C-4790-A9C4-1820E2FF14E4}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{85A177E1-B214-4391-9A94-F23F051586A1}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{978CD7A7-8C9F-435C-9042-6298D146C14D}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{449BAF75-717C-40D1-8DEA-61EF3EC5D137}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{E40734E1-D2DB-47E6-A575-F8EF2B8B4A56}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{5CD7F6BC-BEF0-47C5-851C-EB4606B4A5EC}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{25BAFDCD-219B-4410-948B-C6D320ACE5C4}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{FDE482F6-C34B-4AA9-A8ED-17D616412BC4}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{F3169F06-F78B-4610-98E3-A04EF3261189}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{56A55EAB-DBF6-4A0A-B85D-1F0394A7FF4B}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{357D990D-6810-4677-90AB-3647234E11CF}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{672736DF-8155-442A-8676-9C0E4C20AF43}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{CD20082A-260C-4E56-A5E8-345D53BB79EF}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{C4913BA0-FC93-4616-B916-0678C0614FA2}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{29CDBA81-9720-46BB-9BA4-C5A8D46D8144}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{1DFA5F4E-1B5B-46E9-A6AC-62C6B1B0845F}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{5A99779B-7E11-4C01-AA8E-D77983B7D3AC}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{BB3F2BC3-75C2-4940-9419-C6B5C15B85B4}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{F1E352EC-7F5D-43EF-A3DD-F62D5CD26D9D}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{39E82BE2-6CBF-48FB-95FD-B932241DD675}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{DCEBCBB8-8162-498E-BF03-731CF7602E3F}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{D22FE329-A712-4923-8A76-7CD6F2475D3A}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{72BC7E0F-2C51-426B-8811-989301F10539}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{813F4411-8407-410F-94D1-56FCDB7FA29F}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{56D122D8-3270-41EA-AB9A-312B4BC4452A}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{5C5BCA3B-B8CB-407C-B8E0-77AEC693D34B}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{20BDEDA2-A941-4E95-B9A0-14702D29FF3D}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{3F6E336F-F4F3-4D2F-97ED-5DEFC3A8241D}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{C9CA6D94-B924-4D4D-B49A-286B48E09272}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{65FEAD3E-3BBE-42BD-8A14-65B4A330709D}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{B271DD8B-9496-4D4A-956D-3A39717C7C30}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{E9555CDA-DB28-4F76-9DF9-B10335E31955}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{EFA5102C-8741-4B56-8059-461158844674}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{E7D8C494-56CF-4248-BF68-3A2328ECA4F1}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{A25578A1-5DCB-4589-A541-0B7AF5540D52}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{D6D34F0B-0AD1-4E50-B7DD-BBDB0BC161E4}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{6899191F-7909-40D2-864E-DCC0E95FDEE6}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{CBC4B67C-4010-4570-9C56-910778FD7248}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{B7816E73-CB66-4B21-93A3-41B10C2CC80E}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{D1217880-69C3-4D83-AA52-6471FAD37D74}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{66CA713E-1FE5-4E0C-912D-00A1BB475FBC}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{928B1340-A209-4DCB-B411-35096E06FEF8}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{54171EAF-BD05-44A3-B103-598B15181FDA}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{6ED7DEC2-6EA2-43A1-8308-CAE3359ADC20}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{05C856A5-F2F4-428E-8323-16F0C34BB1C1}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{476FF598-CF0A-4ADC-8FF9-F31042D08DD6}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{67C7AB55-80CB-4A3F-AB04-DC1459E3134E}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{57312F2C-FF4A-4C97-A5D6-AA0A233DF953}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{D246B2C1-1D0C-45BE-8D51-DC1AF27B1FD9}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{52B311C8-198F-4644-BA7A-1C0F12315B40}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{23C08AB9-5D50-4A4D-BBA9-90D142DB0DAE}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{2AEAA6C4-F1FB-4FF6-BC13-85D197854F3B}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{B2A660F0-5BFF-4089-B11D-5B5F6D5E6321}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{9F3DB23E-5D22-4FE1-B15F-559FFF271A2E}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{2336F819-0C2D-427C-B53B-DC94F57899F5}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{DF543FD5-6A34-4838-A8E0-22320A644DA6}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{9324740E-E561-47E4-B5F0-0DF7E4CC6972}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{9102A8AC-85E3-4A08-9587-FCA8E9785F9F}"/>
+    <hyperlink ref="B439" r:id="rId409" xr:uid="{4C5AC53A-EC7F-4C7D-A310-09AF74C40E9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId403"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId410"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6089C-62B8-4CC2-BD76-B82AD6306657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF0B67-19A0-4C7A-998E-A36853BF0293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="926">
   <si>
     <t>titulo</t>
   </si>
@@ -2662,6 +2662,156 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/6e02ac82-33b3-643c-8f90-224956a884b9?title=LREN%20-%20Update%20-%206pager</t>
+  </si>
+  <si>
+    <t>Varejo - SOMA &amp; HGTX - Conversa com Richard @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4e57c2ba-6a64-e396-a568-ad07169c0e67?title=Varejo%20-%20SOMA%20&amp;%20HGTX%20-%20Conversa%20com%20Richard%20@%20BBI</t>
+  </si>
+  <si>
+    <t>SOMA + HGTX com BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9c1b022e-32a5-b98a-b35f-64327e57780c?title=SOMA%20+%20HGTX%20%20com%20BTG</t>
+  </si>
+  <si>
+    <t>ANÁLISE: Por que o varejo brasileiro está indo às compras? | NeoFeed</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3f404835-f1a0-411b-a9af-935e28b673b7?title=AN%C3%81LISE:%20Por%20que%20o%20varejo%20brasileiro%20est%C3%A1%20indo%20%C3%A0s%20compras?%20%7C%20NeoFeed</t>
+  </si>
+  <si>
+    <t>Reunião com Gustavo Heilberg | AcessoBank e Meliuz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7ded43c6-fd2a-05c8-bb4e-30cfb1e07475?title=Reuni%C3%A3o%20com%20Gustavo%20Heilberg%20%7C%20AcessoBank%20e%20Meliuz</t>
+  </si>
+  <si>
+    <t>Hospital Oswaldo Cruz terá unidade com médicos de família | Empresas | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/82bf47d4-d7da-4707-823b-97f766b8e650?title=Hospital%20Oswaldo%20Cruz%20ter%C3%A1%20unidade%20com%20m%C3%A9dicos%20de%20fam%C3%ADlia%20%7C%20Empresas%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>[ESG] GMAT - Touchpoint RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bf5110a9-794e-4d50-ad6a-05b5f2098ffc?title=%5BESG%5D%20GMAT%20-%20Touchpoint%20RI</t>
+  </si>
+  <si>
+    <t>[CONFIDENCIAL] Carbonext - Modelo de negócios e sonho grande</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e0ec3336-d84b-bef2-d39f-274a8f5e7fa3?title=%5BCONFIDENCIAL%5D%20Carbonext%20-%20Modelo%20de%20neg%C3%B3cios%20e%20sonho%20grande</t>
+  </si>
+  <si>
+    <t>[ESG] BC propõe regras para TCFD 'turbinado',  que será obrigatório a partir de 2022 - Reset</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f417f67-2042-4c69-b3b7-4e94fa0ae992?title=%5BESG%5D%20BC%20prop%C3%B5e%20regras%20para%20TCFD%20'turbinado',%20que%20ser%C3%A1%20obrigat%C3%B3rio%20a%20partir%20de%202022%20-%20Reset</t>
+  </si>
+  <si>
+    <t>[ESG] Eleito conselheiro da Vale,  Castello Branco defende estratégia ‘à la’ Petrobrás na mineradora - Estadão</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o</t>
+  </si>
+  <si>
+    <t>Reunião com Dotz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/16df028a-d4d2-58c5-8e10-c9f39b26f89f?title=Reuni%C3%A3o%20com%20Dotz</t>
+  </si>
+  <si>
+    <t>Em busca de "moedas fortes",  Neogrid mira crescimento além do Brasil | NeoFeed</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/16ecf181-c04a-4112-90f2-a15b71f4753e?title=Em%20busca%20de%20%22moedas%20fortes%22,%20Neogrid%20mira%20crescimento%20al%C3%A9m%20do%20Brasil%20%7C%20NeoFeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon,  Apple,  Facebook,  and Google became big tech companies by acquiring hundreds of smaller companies - Washington Post </t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/99b7c755-48f3-4d48-976c-f0e6831fadbc?title=Amazon,%20Apple,%20Facebook,%20and%20Google%20became%20big%20tech%20companies%20by%20acquiring%20hundreds%20of%20smaller%20companies%20-%20Washington%20Post</t>
+  </si>
+  <si>
+    <t>IE Dotz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f71337b-3688-5eea-5a9e-1b64fb7a3563?title=IE%20Dotz</t>
+  </si>
+  <si>
+    <t>LJQQ - Call de resultados 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c0c13f2f-f445-60eb-253a-526019fde52d?title=LJQQ%20-%20Call%20de%20resultados%201Q21</t>
+  </si>
+  <si>
+    <t>A Synapcom monta o quebra-cabeça do ecommerce. Que o digam Levi’s e L’Oréal | NeoFeed</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c76832d1-f938-4302-895c-9e4d054cd272?title=A%20Synapcom%20monta%20o%20quebra-cabe%C3%A7a%20do%20ecommerce.%20Que%20o%20digam%20Levi%E2%80%99s%20e%20L%E2%80%99Or%C3%A9al%20%7C%20NeoFeed</t>
+  </si>
+  <si>
+    <t>Reunião de facilities | Sócio fundador da Pro Guarda Vigilância e Segurança</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5b9afc50-3598-85fc-b3f3-3e2972327dac?title=Reuni%C3%A3o%20de%20facilities%20%7C%20S%C3%B3cio%20fundador%20da%20Pro%20Guarda%20Vigil%C3%A2ncia%20e%20Seguran%C3%A7a</t>
+  </si>
+  <si>
+    <t>Call com ex- CIO/CTO da Dafiti – 05/05/21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1cb2e98d-ba1d-4389-7450-0dd7aec3b4d8?title=Call%20com%20ex-%20CIO/CTO%20da%20Dafiti%20%E2%80%93%2005/05/21</t>
+  </si>
+  <si>
+    <t>SQIA - Call de resultado 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/58645b15-d0d4-3e0c-7be8-da77fd5e5f1e?title=SQIA%20-%20Call%20de%20resultado%201Q21</t>
+  </si>
+  <si>
+    <t>DOTZ DAY</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f2022b34-0ecc-2f87-961d-2c97e25ff8a0?title=DOTZ%20DAY</t>
+  </si>
+  <si>
+    <t>Sinqia - Call pós resultado 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4e6d6e6c-5249-c893-9b36-3442757010b4?title=Sinqia%20-%20Call%20p%C3%B3s%20resultado%201Q21</t>
+  </si>
+  <si>
+    <t>LJQQ | Call pós resultado 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/569174ad-7331-d5eb-c352-e40249bea8d3?title=LJQQ%20%7C%20Call%20p%C3%B3s%20resultado%201Q21</t>
+  </si>
+  <si>
+    <t>Petz | Diligência com veterinários</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c6665649-6eee-4738-b0bf-9878f70d5feb?title=Petz%20%7C%20Dilig%C3%AAncia%20com%20veterin%C3%A1rios</t>
+  </si>
+  <si>
+    <t>Playing Different Games -- Or why Tiger is eating your lunch (&amp; your deals)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/32453783-19ad-0ed5-53e4-a1ef343085de?title=Playing%20Different%20Games%20--%20Or%20why%20Tiger%20is%20eating%20your%20lunch%20(&amp;%20your%20deals)</t>
+  </si>
+  <si>
+    <t>Reunião com Farallon | Sobre Dotz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/615de129-e2d3-c139-f17f-f0369f5e5cda?title=Reuni%C3%A3o%20com%20Farallon%20%7C%20Sobre%20Dotz</t>
+  </si>
+  <si>
+    <t>(8) Tough times ahead for travel and tourism’s middlemen? | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/14ee1cfe-6408-48fc-a9a3-e4cab45e1022?title=(8)%20Tough%20times%20ahead%20for%20travel%20and%20tourism%E2%80%99s%20middlemen?%20%7C%20LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -3059,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,419 +6733,644 @@
         <v>875</v>
       </c>
     </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>876</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>878</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>880</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>882</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>884</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>886</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>888</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>890</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>892</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>894</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>896</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>898</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>900</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>902</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>904</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>906</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>908</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>914</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>916</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>918</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>920</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>922</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>924</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{116396C2-4DE3-42EF-98D0-26C6CAC91265}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{A5CD40A3-A541-46AD-A0CD-2DBC5169BFDC}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{143CB478-2E89-4721-85C9-EE9511BFBA94}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{7F85B9E3-5850-4F7F-9D4A-26FF570582BD}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{32CF1E1A-74FD-4D63-9B7B-8D93453D66E7}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{51174153-BFB2-4E1F-A9A9-AF16C9328424}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{819B979A-3D9C-46A0-9287-8FA9D6EDDA58}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{3AD0815D-9D5A-4281-9AC4-81FFAAB4E2C0}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{2176D962-6038-4008-AA87-2324C530B513}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{8B9DDA0C-FF57-441F-93C8-105AE0E91031}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{2D69A861-B4C8-4684-A24C-F0327E7C5271}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{101FDF77-FAC3-45BF-96E1-2C64DCD7C90E}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{0FC7DD25-5E29-46A1-A37A-E13CB713CC2F}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{72620415-D5B8-4D08-9C87-7CE1EF38BAF5}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{1CFCD5A9-80B7-41B2-BBF5-1FE075B37616}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{F38A963E-FD35-481E-BEDA-B8C097884F27}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{B7823343-9581-4E9D-8D30-6D3463D1922E}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{778DC9DD-D625-4EFF-8E33-EA8FD96728B5}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{3BFD388C-DAAD-4B31-8BA6-E726F3AEE60A}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{CF4F56B0-D144-4FB2-AFD9-D1E57400DAD7}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{60A028E5-834B-4AFB-AF11-FC0A6E563574}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{365233FC-3B86-4D32-BD01-FA317236BC9E}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{04626458-872E-4FE8-BEFD-FF5B5CD8DBCD}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{28BCD5DF-FA8A-4EC8-9AAE-7B1AFF7FB6BD}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{215880C5-9BB3-402B-8D34-A3F1E9B99EFA}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{F44781E9-3B44-4DF6-B9BF-A8A24A5164DF}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{7144686F-786F-445A-B85F-B7120EC11414}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{7F8FA6FF-EEF8-4499-B974-CEE1A4A186B8}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{64B6417F-6594-49B7-A0D6-AF1A5E6E8AE8}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{B789CB47-AAD8-4E5A-A968-ACC32F05E791}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{C939778B-D7AF-46B1-A851-4B7B9C6248D0}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{85824224-043F-4C3D-99D5-BAFCFFA2A08E}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{2C827CB8-5705-414B-998A-2235DA6DAC72}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{2FFCA524-F70A-4D3B-9A2F-F4095C9630EA}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{2929CD9F-1CFE-4654-A6DC-AD6F9AE71AC7}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{717C1229-0B83-469E-9DCC-CBE54ED133FC}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{C88AE9C1-9773-4393-95AB-C229BD7DEE70}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{19114732-A428-4E79-96CD-280F952694B1}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{574D8C90-7031-46E7-9D9F-C495FA0B1E19}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{6113ED68-2E0C-4C6C-9D93-A7305F4E218F}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{ECB778CC-EDDB-417E-9315-06ACCAA49299}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{F7C33A98-2B90-4671-8649-2A08D9A7BFC4}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{3047239F-8914-4679-9C13-36EB416C817B}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{6EE1E525-5C75-4FE9-99FC-C937A12015D8}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{1510856B-32A1-4417-BA18-2B6579AA57A6}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{7BF81ABA-66C5-4ACC-A4CC-58E1C84EF116}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{652276AD-5AC5-4977-BC5A-F59DE04F46B3}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{CD295704-12EE-4E6E-AD03-93355B046A31}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{E7EC5F11-7C13-407A-A134-26EC754B56BC}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{0062EDDB-61BA-48CA-A688-6177521641A6}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{8E873C41-9D5C-4661-B2E4-6E94FB045238}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{FBBFC66B-E2BA-4605-B7B8-85FA782CD220}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{FA1D2A60-75E3-4C46-A1F7-B4D02EF315D9}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{60ED2985-9817-492D-93D8-3CDF0E64A4A6}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{7E547E27-8627-4640-9E06-B4EEA30DB1D9}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{C990A51C-B0C6-4F66-89A3-2D81033AEE77}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{B7C1C479-AC2B-4DF0-8182-E7271E4F3C0D}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{5AEBF1A1-9422-4C67-8D15-9CE650977AE4}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{E44F6F01-36BE-42A4-9A84-C5A795AEA02D}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{DE1F6530-00D0-4C2E-95BB-0AE0E2F18AB0}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{8E7546F5-4ECA-4F34-9D9D-5971A5B985A2}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{9AFA3991-9FEA-4C93-8676-F15F23A0BA79}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{EC0F8132-C51A-4BDB-AA52-EE4C4EEFD3EF}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{55027B81-8E5E-464A-B5E7-F7A1E024B5D3}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{574FF2A8-E985-4068-A922-3E177D99726A}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{1EC15E8C-4192-48D6-8D7C-84962321D651}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{306247D8-82F3-42A5-B8BF-7E4726A183F4}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{1DCA18B2-FE30-4F0F-B291-C515A9026667}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{E338CD00-6DB8-4500-83CC-3F772FFFEFF5}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{57BB9741-C519-4A5F-BBF2-51D0412B4063}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{12DF8661-77BE-4211-B34D-C2A63029A818}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{189182F4-C97B-408C-8F75-FBC663B3A71D}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{83DD17EF-CABF-4691-A3C6-B60E8DF96FAF}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{35073C9B-251C-4E54-BAFB-A1FB05911371}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{AF89C2B5-69FA-4A7A-944B-2080CA39DDC2}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{5BD1D511-6C9D-4E8E-93CA-E64C11BB1FAC}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{B161275C-6223-45E6-BAF4-270237471887}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{53B18095-4FBD-4A8F-9280-772747CD45C6}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{AC3FD353-1979-4F61-8F40-EAFDFF83C55B}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{E62B8BD0-5E45-4939-AC81-9586D3988B74}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{3B25DCBF-CC22-47BC-B94E-42063D4AD7D0}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{1B028ED7-F5E2-440A-B40A-2BE8B3F3B31C}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{E6A98A95-85BA-4020-9EA4-FFE565423907}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{2E6F3746-908E-4DF2-A38F-DA728318CEFC}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{2053C2BC-9968-4DB9-A348-313A4DFDB429}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{0D50AD1E-172C-4BBC-9871-513E5AE0CD51}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{9C2DCE11-8439-4F09-97DC-862E79489099}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{C30FBED7-D079-467A-992B-A160C90B5FF4}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{D77D8D28-6BA9-4209-9667-212FC952FF15}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{95D3BD5C-0624-4E7C-A35A-2C80825F2C21}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{FB99D486-A34D-4D99-96D7-FF4BECB07750}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{A3631CFA-F3DA-4560-9A65-8A0E4AF31F40}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{CA90030E-6A4F-4F50-9B61-246209348DFD}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{6F2B64AA-8B68-41B9-BCEB-B7A7C04CE96A}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{83B5D446-8F6C-488C-9CB7-3E34EAAEC6F4}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{CA6771A0-D612-4062-BEC7-0BAE8D8326F9}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{87D48F6F-0C1F-4695-BAA5-63DCE06CD5ED}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{88ECF034-72C2-42FE-BFA4-12B4582017FC}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{B7977F33-0067-48A7-80B7-3FE421E4D63B}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{CE3A244F-FAE7-4848-B777-DDD726E16D82}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{88D2FAF0-4BBA-42DB-9C18-E69BBC4BD597}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{202ED304-1686-4899-A003-851AB92E511D}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{658BF809-BCC6-404D-ABE6-8F50DF07A287}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{1AFA3C79-E865-4582-BD23-1784813364EA}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{0A9840D4-19CB-4D82-9B66-4BD72A4D0265}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{AEDED034-6CEE-4A3D-8AF8-BA54B53EB0BD}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{C180CFF5-5AA2-4993-83FD-3A2D122310C2}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{689D02E2-B2FF-4245-8600-3BE9BC0E6374}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{71D0AC41-41D7-4BDD-98AA-B6F41EA7A02F}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{24E33CDD-A9C7-4468-8983-47F75948555D}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{F43A2AAF-E65A-42DF-AB34-9F63EF6F651C}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{708CCCEC-0E7D-49BA-B877-C550247EC83A}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{9180C2D4-7EDC-4CFC-9531-C98E701FAB0B}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{F6AC0F7D-A9B2-45D3-B676-751A04291BD7}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{8911308A-5223-4A8C-90C0-7BB14D775961}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{8300AD4C-A4D0-4DD9-BDD4-7FE70D9B61EF}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{3A9AA9B3-279B-47E1-B048-7281953C916B}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{7AB6425B-DED4-492B-A277-9A03E4FCDE32}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{91D5234B-D5F1-4B9F-83AA-A6372B507904}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{3CCE9DDE-5F3D-4E6C-A1DE-8946CE2D7DB0}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{419D0923-9708-41DB-A888-AD7DF9568F07}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{7E24F398-57FC-4F0B-8FC0-06AE248D322A}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{25F3B8A3-12B0-4BB4-A4B2-AAC1294050FC}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{F8CDEF2F-4E74-41EB-8DA0-D0FFB84CE81A}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{0D385763-71DC-4503-BF6A-91013553444B}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{DA7A16CF-F21F-493F-A602-8885591EF47F}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{964C69B1-A14C-4B38-8279-B178844DC202}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{619579EE-97B3-4563-A33E-DD1DFF41847B}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{37DA2931-6022-4549-B225-675DEBEC2DAB}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{88EDAC2C-BCF9-4E13-B63E-0917B831EDDE}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{53B92A76-66E4-4EEF-A33B-9827E1C37165}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{6751B672-AA01-4072-B941-361557CBE13C}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{AEE46645-41BE-4E57-B903-1B56A810F1B6}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{A90CBA3D-DC1E-4A84-AD05-82F5428EF952}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{7590A55C-EA45-4D2D-9179-81D9B4D7A63C}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{40AFE82D-59C7-4F58-B768-C7C342C03239}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{4D812473-91B9-4993-9333-19F84CA9A22D}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{C7A4AE52-5A50-4576-B23C-F7FB41A7A0AF}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{14F22056-B68C-4C98-AA46-F4378CA903C5}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{5A3A2332-8532-46EF-AEB9-1D4ED5C1C453}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{F26FE19F-FB0B-4591-A0E4-FA9AD6A43DF5}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{0DD50FA7-CF9F-45A4-BD13-FFFF2E87AE93}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{69C5D451-CF51-4E26-972E-A882C3CE389F}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{9C4898A6-F6D2-49C4-B5D1-DB3B3E545DA6}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{A7F626AA-D373-42DA-9C3C-CD77C11B39C2}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{52B8D05E-824C-49BA-B914-2518695CE602}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{79D05758-4010-49F5-995A-2F408F5D5877}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{5261A84B-D295-4887-AA24-EA887075DF6A}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{8B4399EE-89F8-4F53-93DF-7B40C3F3D12F}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{2304DFEA-B469-4244-9A22-C8059CA6780F}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{148C04BE-06BC-4E67-A184-1080D7B75004}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{CE0C4EDB-1F59-4095-9CF8-C8D05ABB2032}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{693E2206-2D75-44F2-88F3-89096FC4FE5C}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{8E70FFA5-B641-40D8-B79A-922CF73B6676}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{0CADBF8B-1A33-4FCF-B553-6C025BA7FBF1}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{C3D7010F-E464-4C43-B465-F5F2659CC0A4}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{3144C851-3E5E-4361-858E-4BC5DA4E595A}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{6EEBBE11-9EEE-4D24-B3C3-E82846A807D1}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{73674DAC-035E-4F1C-A18E-9B632B7C7084}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{0E5D2546-6F88-49CB-9C91-9CE1C760AFF6}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{33A300AC-5B00-4152-B14B-278E5D9E1B95}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{68E1D285-1DBE-464A-8CE7-7F7D988DE312}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{01F2139D-57FB-418C-A803-BA70ED2D42F7}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{0B97FEA8-FB8A-4558-B262-BB30B66712D9}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{7986F453-C9DE-49F8-8B83-12D337742BBD}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{6F44F633-7F19-4AC3-8652-31A096B15636}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{39F3A05A-36F9-4276-BFBC-96087CE6B379}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{DF19C753-3A76-43EF-B702-F35488ACFC95}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{C89395F1-E41B-4886-AB4B-21219B026967}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{22B1945A-3809-48B5-B93C-F2B8A1DCC9BD}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{E22733FE-81A2-4BDA-AD1D-55ADE389BDF4}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{28790A78-35DE-4E43-AED1-921BAC02BA0A}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{EE118484-EA71-4771-BEB3-8EFA314EE21F}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{6AB7BD98-F60D-49E4-A4EC-FD6B55E7C36D}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{84C2F467-C9CE-4776-99E6-4FB402D26D48}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{70E55393-085D-4E7B-AED1-001B09647578}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{ACA9A3BC-1E4B-4D96-8B61-8C569C8B8754}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{47B593F3-5675-4C4A-8AF8-33EC3D104BB2}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{C7F9F701-C9E4-4FEF-93AE-DA991E4CDB4C}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{6F9A1902-F2CA-4151-A9E7-3DB25A61A35B}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{2EC27D6B-F8C5-4399-8100-ED1FBA7B8FE0}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{08A7B828-2CCF-4E8C-AE04-512FD851DB4A}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{740C60F1-C18B-46C4-A548-478400EB69F0}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{5BA6AEBC-8EFC-4388-8751-8CA15040B849}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{347F0274-C66D-47B8-9823-8F649C82076B}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{14BE2A93-BA56-4F14-A6AA-4F0A0E806928}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{6CD10C1A-98B7-426C-BE46-2273895622F1}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{112F8334-1B52-48E6-9615-10EBA1020D8F}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{0F16BFB5-E6E5-4DB0-B51D-C08F1C53EB2E}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{F5087DF2-85E7-4E52-B7C0-E7B0396641CB}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{1191087F-B8F5-4172-8B5D-2665B97599E5}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{804D06EF-804E-428B-82C4-DFEA41918924}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{CB799358-428E-4989-86CE-3FF14E385460}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{974E1C43-99DF-4029-BBD0-0DCCC5C4919D}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{8E6DEFAD-980A-423E-B337-621BF63AAD60}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{A3FC0FF1-A36E-4D8A-BCD7-AC503BD1BFFB}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{215A09C7-9865-4D54-9028-4245538895B8}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{58A1B572-53FD-4747-B393-5312C814DAE0}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{585500A5-8E14-4EB2-ADC9-AA8DEFBB35BB}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{0A555FA4-44D2-43DD-A17D-6E796434C97D}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{809E8097-FE6E-4A9A-8922-FBA580576132}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{3C2632C2-8664-4BBF-AF89-689390A17436}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{5AF0C8A8-FEB6-4F28-9667-4F2DD9A5FB7B}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{DE65EB3D-B7CD-48BD-BD6A-B7865B809D60}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{AB30767B-B78C-4A12-8748-6BE024D050E4}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{38712FFA-FA38-486F-8F7C-5BE1A64FEAFF}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{BB3AAC46-1C0F-4252-B6C8-A6A6B58533DA}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{EE0FCBA7-175B-4D8C-9102-31F8B9FCD5F6}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{74A03BB2-6B55-44FE-972F-17FBBD479686}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{27C01D47-B321-487A-97C1-04F0494F3995}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{D5151B49-6E82-4991-83BE-FD5332BA834E}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{9E70A6FA-9B4D-4FC5-B4E0-5905D3C45832}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{4C673110-5E83-4987-A0C7-8F74BDA1CB26}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{3F017EA0-C702-467B-BBE6-AE58CDC07C00}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{B9686029-94BF-4CF3-9990-708E76D5D1B2}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{51D16813-E2FA-45D5-9179-5E6058918B92}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{0BA8035F-0E9B-40A8-B0A2-984978D44683}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{D7758601-5A4E-4F47-A4D1-1F0B59041F6A}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{56C86C97-CC35-478A-A448-2A7CEBD3CF13}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{2B46CEFA-5F2A-43FD-8493-0A794F9C4ED1}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{6A1B3B3C-C90B-43A3-A4E7-C68139A120D1}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{8D720082-7245-476D-9F60-2DAEA54173F1}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{A95DD942-FB04-4DA9-AC72-659554B66463}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{17B33B03-8AC3-4C10-8D27-64A6E068C6B8}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{E7D8C437-A070-4F46-8015-90495D522E27}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{92196A3B-08A8-4D38-9EBF-A1B327CC58D9}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{562F2BCB-7A50-4ADF-BF60-6FE1C3A69366}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{D9AB9397-06DF-4CEB-8DE1-27454C126753}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{6BC8FA77-E069-4D1B-8EAA-ACD7E3D31D6F}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{56B533A4-EFBF-46FF-B749-35C74E97DC6E}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{9E1C9ACC-41AB-4C76-BF3D-1878F5811FBC}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{3C97C21B-D35C-44AD-81C1-59555C075E91}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{17A3BDFD-DE99-4612-8C56-F1E71C46F797}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{5B4436EF-FCD3-4FE4-A739-C5C7CE1BE4C5}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{A2A5DD37-1464-4034-A4AE-333C7D655728}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{5429485D-3EF9-422E-A097-9D3A05181136}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{359CD3CC-C3AD-40FB-B908-6EE485568455}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{2D6BB30F-7CF7-4301-A298-E25F6581ECFE}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{07BDFF80-AE91-4060-A45F-422E27150A51}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{B2E6604B-8B18-43F0-89C0-CD6ACEC851D6}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{7F148E47-E788-4C01-94A8-4F2DDC9CDB81}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{249236A8-3074-4B5E-BBB1-F4ECA65CA8CC}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{D0FBA526-907B-4EAE-B164-F2A8D217AE01}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{E9BD046E-D8C4-47E3-8704-D39295B59579}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{F9E9D867-D9A6-48AE-88FC-D0A3623FF6B5}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{F2D0F841-630B-4F75-81E3-909DE2857F03}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{A0B05986-94CF-4374-B0DE-168AC6449B59}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{11768EE0-3663-4D9E-AA41-32C5917181CE}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{C558BD39-CD1A-47A5-AE74-4B6E67AB6DA0}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{C140A284-216D-40FD-9BE1-98624F22A1BB}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{1BF508D2-09E6-4849-8745-04442887A1DF}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{3B682978-E1FC-4E17-8966-8E81F37BE31A}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{AE2D13BD-3B59-4292-A3D4-96B2D53506AF}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{332412AA-65CE-4B4A-87EB-A8CA6E5F038F}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{6793DD71-5472-466C-9113-1F34D9883F72}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{9A085FB5-57D0-4F1C-B70B-5F9A308BFB73}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{733DC2F7-A75D-48D0-8B24-B35CDC5DCD83}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{510B9020-9761-4979-865B-F5CBB9FB726B}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{E6713C9A-BA4E-490E-BCCE-CD7109BBE9E4}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{248C6ED2-860F-457D-B1BD-DD80DB3C3263}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{F2631030-5DAA-4D59-B94B-4BE06BB33754}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{58166CED-3CE1-49DD-B706-D9DF2D623AF0}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{41279F53-664F-439E-A0D9-890BB4C2B6B6}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{E50494B9-4E44-4A34-964C-8C43A7EC3B1E}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{FCEB9EF6-E265-4E35-A0BF-71BC2ABA0EB2}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{E18EA99D-2A17-4ADB-BD9B-EBC7992394F1}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{DB89F567-E8DF-456A-B721-B35C6A9FE26B}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{3A6E71E3-091F-41E1-A1C7-154D642169DA}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{C0682E32-C6C7-4508-A74B-23AAA2A8C635}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{A32F7653-89F6-4697-AE0D-68E90642CC80}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{D21F37E0-8C52-4FDE-AE85-5F70673BAD5D}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{80CE35EE-114C-4877-9CF6-66AC27907C13}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{F474F10F-A12B-445F-A70F-2A910E31E536}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{719E2417-4C3A-42E2-8F63-929A51553D21}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{56D97793-0D10-4F7B-8B2D-383237EAFE56}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{99A958D0-DD54-4FC1-B49B-92689A792E4A}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{1BF63522-1472-4C64-9A5E-F5F2791E2B20}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{1C386BE5-DE70-4E86-82B6-0C1914F73F72}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{E67878CF-F33B-4C43-A5DB-D59C0799B556}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{2A556C60-DEB4-4E50-A484-FD0FDFC964C3}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{065B2366-A609-4DF6-8D1F-30A58628C477}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{25AF0320-207D-423C-9FB9-7EED328A36BB}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{D9819F50-6946-43CF-AA5F-0F48F297546A}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{C16D4B33-4E9C-4895-9413-1C462D47916B}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{F5FAB39D-2CF7-4B83-A38B-30603813732D}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{FB2E1E30-C707-469A-B0AF-DE0265EDA64D}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{CDDECA04-CEBD-4448-A2EE-66A66792F6FF}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{169A66D5-4EFA-4C41-9F30-C1B0846F0FF0}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{AD0E8BB3-CB74-43C4-855B-0C20C665396B}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{3EF0D323-3915-4D88-AAC8-B49877203B0A}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{CD8C16CA-78F4-4371-A8E1-952E6CFDCCC7}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{CE7AD2B5-E77F-4AE8-941C-7A019CDDA2F6}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{55775A3B-09CD-4088-A021-544190979FEB}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{A5C8ED55-69B5-4826-BF6A-A99C083F1CE1}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{55FFC388-A5A8-45AF-A710-EC97E1675CFB}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{FB346FFE-2FED-48CC-B1F5-0DA0DDFE9A71}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{E6760A84-D6E7-4326-894C-5072CE92968F}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{944AA7B7-5AC8-4D4D-AEB7-53DE3C078ED0}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{C1DB144A-3609-4B84-92D7-86C181EE2D2A}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{7DDF942A-EACA-41BE-AEB4-65ADAD947E70}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{8884C5EB-97D7-42AB-B207-C77F0C71BD72}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{C75FC2A2-DAA7-4419-8E39-FC4178CB8D5E}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{CB94E2BE-BE9C-4637-B1A4-EE58A0264F1D}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{4B251CD8-7DCA-428A-B8EE-D6394043D3B4}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{807D6DCC-CD21-4764-9F06-64C70993846E}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{9A78A37F-782A-4087-9F69-EE83E0F8F040}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{859E5511-1396-429F-8867-AF0EE5BB1851}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{63C1828E-0F21-4B01-8E1B-B01247B876E7}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{2D021923-E90E-4DB8-916A-596CEA549D40}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{BF58968D-022E-44B0-B85E-636311E147C9}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{71DBEC97-4677-4E79-8216-9F5E6A85F9D2}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{E1A1209C-2A0D-4C64-BBB6-EEEED61F20EF}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{D18F4D8F-8690-473D-B5E5-D230729BBF85}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{DD3E07BC-02A2-4B73-A80B-4AE71A15158E}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{A13B661F-2EE3-4E25-B3B2-1FA29B4DAA64}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{8F7C48A9-E85A-4B9D-BA91-92F86F611E50}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{84413A2C-4C19-488E-A616-A6615657DF33}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{B430CE70-DFE9-48E4-8D38-4DF17FA6050E}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{ABB58343-C8D3-44E9-80B6-BCAA41789B68}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{921673F8-ABBB-449B-8EDF-E228EDE4F05A}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{D1863816-1507-4BC8-A8C9-8EFFBE8C75AD}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{B856B5B0-E29D-4BA8-AA06-B11F0FE96FCD}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{2A889DB4-23EB-4EEB-93F9-F69A03999355}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{8A6CD1A8-0E16-490F-A31D-23383A4B2C52}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{F197D0E5-BD30-467F-8E78-941AE3753DE6}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{ACDA0F09-9A80-444B-B404-24F26BD285CA}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{3DD4BC5C-FA32-42F6-89E3-43938ABBCD60}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{FD2ED388-F2E5-46C4-BA06-B37BC30B4AED}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{3C6F30FB-9AAA-486E-B676-9DE31DD0224B}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{34B22B14-93E0-46DD-B1F6-D851BD7911F4}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{BFCD360E-0535-4B6C-8169-2DFD77A378E6}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{98147DE9-7A11-403D-9243-00BCBC19B511}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{C081776A-BFEC-46F7-AC29-F9FCEFCB52BE}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{5EA5146B-3A48-4C7D-A442-EDA2D35DC476}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{5E677790-78C5-4CDE-BA98-3E3DEA49C696}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{5CBAD2C9-EE0A-480C-9E7B-E0AA432AF93B}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{2CED9D5A-0EEF-4FD1-BC41-B8284CC2C050}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{F1EA26E8-9821-4543-A673-887DDF5B97B2}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{09D54E7C-D235-4C1C-BFF0-E913C8652A0E}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{007EF784-237F-4195-9227-25364EAF510F}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{86A4521F-A34D-47B3-93CC-2FE82DB4583A}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{FE1C1C8F-BFD6-475F-8947-D1D3E57CC467}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{466EEAB5-457E-4281-9584-0B0C99066B96}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{CD5B9225-9780-4496-817E-E742444422C2}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{349565D1-C8B5-44A2-A5A9-7831A73FFE4F}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{DE90E433-F360-43A2-B3D9-1D4F2131B99C}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{3C59F9B1-9B0D-4666-A9A5-1DE06B04F1BD}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{8BA418C9-5B28-4472-8309-0E61BE7F494B}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{0AC619EB-E55A-47C2-A77C-FE3372F88A16}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{A4093C65-7946-4640-8CA3-E7FA41BF50CD}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{C822D3E1-E30C-4790-A9C4-1820E2FF14E4}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{85A177E1-B214-4391-9A94-F23F051586A1}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{978CD7A7-8C9F-435C-9042-6298D146C14D}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{449BAF75-717C-40D1-8DEA-61EF3EC5D137}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{E40734E1-D2DB-47E6-A575-F8EF2B8B4A56}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{5CD7F6BC-BEF0-47C5-851C-EB4606B4A5EC}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{25BAFDCD-219B-4410-948B-C6D320ACE5C4}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{FDE482F6-C34B-4AA9-A8ED-17D616412BC4}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{F3169F06-F78B-4610-98E3-A04EF3261189}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{56A55EAB-DBF6-4A0A-B85D-1F0394A7FF4B}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{357D990D-6810-4677-90AB-3647234E11CF}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{672736DF-8155-442A-8676-9C0E4C20AF43}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{CD20082A-260C-4E56-A5E8-345D53BB79EF}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{C4913BA0-FC93-4616-B916-0678C0614FA2}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{29CDBA81-9720-46BB-9BA4-C5A8D46D8144}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{1DFA5F4E-1B5B-46E9-A6AC-62C6B1B0845F}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{5A99779B-7E11-4C01-AA8E-D77983B7D3AC}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{BB3F2BC3-75C2-4940-9419-C6B5C15B85B4}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{F1E352EC-7F5D-43EF-A3DD-F62D5CD26D9D}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{39E82BE2-6CBF-48FB-95FD-B932241DD675}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{DCEBCBB8-8162-498E-BF03-731CF7602E3F}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{D22FE329-A712-4923-8A76-7CD6F2475D3A}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{72BC7E0F-2C51-426B-8811-989301F10539}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{813F4411-8407-410F-94D1-56FCDB7FA29F}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{56D122D8-3270-41EA-AB9A-312B4BC4452A}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{5C5BCA3B-B8CB-407C-B8E0-77AEC693D34B}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{20BDEDA2-A941-4E95-B9A0-14702D29FF3D}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{3F6E336F-F4F3-4D2F-97ED-5DEFC3A8241D}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{C9CA6D94-B924-4D4D-B49A-286B48E09272}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{65FEAD3E-3BBE-42BD-8A14-65B4A330709D}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{B271DD8B-9496-4D4A-956D-3A39717C7C30}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{E9555CDA-DB28-4F76-9DF9-B10335E31955}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{EFA5102C-8741-4B56-8059-461158844674}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{E7D8C494-56CF-4248-BF68-3A2328ECA4F1}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{A25578A1-5DCB-4589-A541-0B7AF5540D52}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{D6D34F0B-0AD1-4E50-B7DD-BBDB0BC161E4}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{6899191F-7909-40D2-864E-DCC0E95FDEE6}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{CBC4B67C-4010-4570-9C56-910778FD7248}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{B7816E73-CB66-4B21-93A3-41B10C2CC80E}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{D1217880-69C3-4D83-AA52-6471FAD37D74}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{66CA713E-1FE5-4E0C-912D-00A1BB475FBC}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{928B1340-A209-4DCB-B411-35096E06FEF8}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{54171EAF-BD05-44A3-B103-598B15181FDA}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{6ED7DEC2-6EA2-43A1-8308-CAE3359ADC20}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{05C856A5-F2F4-428E-8323-16F0C34BB1C1}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{476FF598-CF0A-4ADC-8FF9-F31042D08DD6}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{67C7AB55-80CB-4A3F-AB04-DC1459E3134E}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{57312F2C-FF4A-4C97-A5D6-AA0A233DF953}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{D246B2C1-1D0C-45BE-8D51-DC1AF27B1FD9}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{52B311C8-198F-4644-BA7A-1C0F12315B40}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{23C08AB9-5D50-4A4D-BBA9-90D142DB0DAE}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{2AEAA6C4-F1FB-4FF6-BC13-85D197854F3B}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{B2A660F0-5BFF-4089-B11D-5B5F6D5E6321}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{9F3DB23E-5D22-4FE1-B15F-559FFF271A2E}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{2336F819-0C2D-427C-B53B-DC94F57899F5}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{DF543FD5-6A34-4838-A8E0-22320A644DA6}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{9324740E-E561-47E4-B5F0-0DF7E4CC6972}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{9102A8AC-85E3-4A08-9587-FCA8E9785F9F}"/>
-    <hyperlink ref="B439" r:id="rId409" xr:uid="{4C5AC53A-EC7F-4C7D-A310-09AF74C40E9E}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1C9716A2-F6CA-4528-9245-B0477080FAED}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{8AE04A7D-3A7F-482D-B650-6BB064ED1B97}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{A0D6DC35-8E37-405F-958B-AF7C52373839}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{1F50ED7B-4685-4616-9CBB-12B0A0D7AE5C}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{B179012B-6B5C-4202-A330-3643C7AF0678}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{1CC69466-742E-46EA-8C88-CC5B705AEDDF}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{1A6A7ABF-10A3-4015-8E3F-26986C9607D8}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{D593B7B3-7634-4E16-B365-01A040D678CB}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{CD84F72D-ADB4-4ACC-A333-616A7145811F}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{6481EDA6-743F-4BA8-810C-AC30B10FE710}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{A507B2DC-2804-4313-8FEA-8C21C9B667F0}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{365E599E-AF83-4767-BDDC-7990CF511296}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{CE76D7D9-6091-494E-8E07-CDFF8142A3AD}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{E54B71BE-30A5-4B01-BD3A-1229865D0F12}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{E0498F22-A85F-447E-AF78-1C82A2A27159}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{27D8F1D5-8932-4DDB-AF2D-487AF74491FF}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{7BDCAB92-1549-4F56-8B7F-F4EF35B76E03}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{7493406A-48D4-45F6-9F0A-B8893FE25322}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{A0DEC497-A8D2-4F96-8C82-A9CAF972EDCA}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{55D440A6-E657-418C-9C90-BA75EF3C3BEE}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{613182F0-6659-4397-953E-2F55CE63F83F}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{5394E83B-AD42-4C58-BFD5-9B87CADFC765}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{72E9B8F1-524C-49CE-AF26-7BAC35A602BC}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{0EFED4C6-53BC-4A83-BB13-4794ED1F3290}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{FC48A93D-3009-4566-979B-00E1ABE7A3B4}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{7E93A460-B214-4338-B0C7-CE1F13A9A0ED}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{BD0A7F32-E7F3-43B8-83DF-019569DCDB04}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{E5CABB0B-BAD2-477C-9D57-A2B7F9AF930F}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{8D77C46B-2F90-4FFC-A918-D79AE4BF943C}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{239163BE-2662-4F6C-8500-47B963F0777A}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{1A974D29-BF5E-437A-A6D3-6F193574380A}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{E548B34A-EEF8-4941-B494-126F2F7B531B}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{D87DE362-C48D-487C-BE7C-4CF5793FEAFB}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{ACD81822-9A59-4488-983F-1E1EC1ABC770}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{DE75498A-0FC6-480D-B7A6-85180C138975}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{35ADF0FB-BF5E-4587-9507-A0513A58B614}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{DEACE79C-04DF-4705-81DD-8664A2D32EA4}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{7B78AFD6-0480-405B-B186-AF44558C70FD}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{D3F9AB31-4698-4E45-992F-FBA6C42B7936}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{438BC1FF-5245-47EE-BAA3-8E09C296CD9E}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{0B512AB3-0065-4DE5-A74E-68D5AA5F4F55}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{B735F8F5-92C2-45CB-B5F0-2B656DFEF41B}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{F8E3DED6-D81E-407D-BE30-B745FEED3B63}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{4422F3F7-E7CF-4A4A-865D-64E8AB23B0D5}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{CCBFEE6F-9611-4E64-B3C1-C7C736F1A200}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{43232868-9C33-4D0C-9267-89E23C05F535}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{E68D1798-6318-4087-A013-F580A51B1939}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{7331C52C-2C7E-4DA0-963D-550984661B06}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{39FDE063-684F-4AAE-82B3-1F1F39BB8A94}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{BD18997C-08B8-40D2-B9AF-A29F247AAA00}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{E177DB7D-968A-4581-BC6C-CB88F49AB877}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{9AAF2470-0545-4886-A80F-2804FFB00781}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{88D9ACBD-6541-4F4A-A1E8-0DE415198537}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{0779666B-A741-485C-8667-7B6A0203CD05}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{A4F9E00D-A0F9-445F-89D9-6AE98C3C2962}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{D04146F1-FF39-4795-A100-B341C9910EE8}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{A5E784D0-6659-445F-9A24-50BF54A4DFF6}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{8B90367C-FF84-4033-92B6-3375DB59B6C3}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{769DBF57-CA07-4C15-A4B5-3A7F6E312519}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{BA05501C-E6A6-4086-B2F4-E590D0BF3343}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{2AC05B14-62AC-4349-94F3-7615F7CB1381}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{0D8500C8-4D65-45FF-8359-60180B764F66}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{92136C64-E3B4-4615-842B-17CC0365FDA4}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{92A05254-C205-461D-8796-BCAA57940DCC}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{87115620-B229-43AF-80EB-955E97311241}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{02C737EB-0F6F-41CF-B208-61D9CA75BE90}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{F06F7FD9-64B6-41EF-AD99-27443A581C56}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{1EB034C9-1A13-4FFF-A8E8-157296E57EE8}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{929DB5A9-926B-4CA4-8529-684B6006CB7B}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{D141A083-6E21-46C8-97C6-C3D3A960CB7D}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{36D65174-29A2-487B-9F7D-E431998D86A7}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{218A6467-02BF-4EC1-81EF-D68791FB6C2B}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{942C7F33-11A6-47E8-B3AE-1461A82D775B}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{E1DB2564-2B67-4FB1-9280-3B4B519ADF29}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{584B8B27-50AA-4635-A9A9-C3021DABE22F}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{9CE4CB47-0994-493C-BD5D-157C37FA21D3}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{B227CA1E-F02C-4526-A837-1F029362C71D}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{7B2FF187-FE43-4C36-9B64-BB035BC74941}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{A028DCB8-01AE-473D-845A-2E279A3362A2}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{42045FE4-3BFF-4416-915E-EC63AD09EFA8}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{BB75945E-A13D-47FD-ACD9-D82D216495C7}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{2BEF132C-3837-4716-9654-B485EF22945C}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{C6E418F1-715A-4C02-9358-A8A7770D984D}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{F462ACE5-422F-4E05-9271-8811616537F3}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{6835298C-7E76-4AD6-9831-D73A55893AA3}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{367383D0-DA1A-43F9-B8EC-EABF1C9F74CE}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{C234485C-5F76-49E9-8569-8F2F94619617}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{AF3194AB-FC59-4876-AA87-A0FAD05CB7DE}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{F5BEDC46-1360-4000-92B1-6BC62D5ACDEE}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{DFA6C635-C628-4DDE-9580-ACD344A0DFC8}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{C38E9049-7181-4DA8-BDDA-FEEB1E589E70}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{106E5C23-15E5-4217-8FB4-DB766526229A}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{9A5720E7-9DA6-416C-829B-7FF6B177A1F0}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{5010152B-547C-4588-8AD3-E63F21892F41}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{4C7FFEF3-C033-467E-AAA4-F1C7CDB6DB56}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{56D30A5D-7B9C-4B8D-A119-2B757DB6986E}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{6CE0CCC0-82BE-44FF-9D17-60CA2204B333}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{A779DB4D-FEDB-4849-9A43-47119C37BD8B}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{807607AB-57E3-4A51-BBA0-9931F7644EDB}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{D230A34D-24B5-441B-AB27-7D7BF7BB9E09}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{B25D6449-3505-4439-9EB8-683E243AF7E0}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{39284359-8BDF-43BF-AC48-35890267DC91}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{D45022BB-6955-4C7D-8B56-5A08D96508FD}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{9E22C418-FAF4-4333-BCD4-B28BAFDA9776}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{A065AECC-6E4B-4C6C-803A-132811361385}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{2D32112D-FEE4-4CDD-B470-A4A6A840E3DF}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{1F68EC95-29EA-453D-9A82-CABE3D205144}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{E03BBA38-FD45-4F20-93FC-D776A6403A97}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{FB3429FD-1E0B-446A-9D1A-C15999C2A1F0}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{F77602AB-84B8-43F7-ADD8-583A5A55AE8B}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{A96BA159-0BC8-4E68-842B-B859C3690C6B}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{CDFBA34C-2807-4E94-9D44-9DFCC0857354}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{356639D7-F68C-496C-BBEC-EBF4482B32C1}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{0E2861A4-B334-48C8-9987-536009B2745C}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{C51CB263-D040-4B35-84BD-9975566F400C}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{07340149-ED17-4E71-B448-BE75302E6C61}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{D2606741-34C4-4659-B611-B49C98D0F418}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{95D443B2-AFC3-43EC-9986-81712C969C98}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{2B626195-78D9-44EB-96FA-7322613EF927}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{06FDFE98-61A9-4665-9D2B-EC16CC97F91F}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{067BB30C-7E64-41CE-AFCA-E145B0A498A9}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{91CBBF40-58A3-4AA5-9F4B-E2783BD45954}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{9553B161-3EC7-4E2F-BDCB-3C6EE4176855}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{33D21082-346A-4202-995F-47D3363C206F}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{63C849C4-8A5B-400E-AE4B-E5A0D0D09790}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{935879C4-2857-4757-B5B5-35889AE63035}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{DD3C702D-1DBC-4A0A-831A-A194E626731A}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{28F9AB5F-72C8-411D-9071-8893A12242D8}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{540E34A1-B006-4530-BD5D-9FE66684657D}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{ED7CAFC9-BAD6-47E3-95E0-45E26171527C}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{B4063734-6A6D-43FA-9F52-74BF7B73D67E}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{8136C253-D9E4-4214-8583-B385AE67E018}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{59AB1454-42D0-431C-93E4-60E73DD526E8}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{7F63226F-5EB1-44DF-94B2-D753A7FB768B}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{773A4DF7-A8DA-47B4-A75A-73826F09263F}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{E7C1AA89-AA0E-4178-A2A6-BD50B591937F}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{3550168F-0BC2-45F8-8523-8861CEEB77F0}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{1E8BB4CD-A3AB-435B-A356-3970B88CA19A}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{4C6C46E5-9256-4C7C-8E0B-B8BE96665382}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{C7EF2CE0-A981-416F-BF87-B9D7FFDCD06E}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{F726B5ED-7A33-493F-9A44-8219A920FF0C}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{29BD6359-0F80-4868-86B3-70C699CA3981}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{FDBA3E06-F6ED-4018-BD38-AED696697102}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{2256D609-6175-4E36-A28B-681CE0FD2DA3}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{1FBD9626-D0F0-435B-BF87-E78C24E77A62}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{5CE50405-FB55-475A-A251-26BAB22A3677}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{C3153056-4490-491F-A873-AFCCB5C6DD25}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{E887E50B-9034-4547-A92A-FACB828EFFD9}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{071987C8-1C72-4531-B9C2-F00CBD2FEA5F}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{779C7837-99EE-4FFE-9C2E-C6BD89985CD2}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{0F1FAE7F-E37B-4936-9FC7-655284F6E6D1}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{93D9EC19-AD87-4B20-9606-C2222DA094FC}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{14521624-41D8-42DE-BB2E-3905C6E2123E}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{EF26CC2F-0208-4189-9B93-770D0229B1D5}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{C7486CA0-63DD-4490-85D6-D5F1EC4FBE8A}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{B6A622B0-EA73-40B0-AE3F-7D4D61E1571D}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{6D8A572D-BE67-4FF3-AC9A-46D6AC17FF12}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{7E8F7F7E-63E8-4347-A2E5-FA013DA430F6}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{F12319FA-A43B-47C9-A197-9A9DFC6620A8}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{F93D6834-3A5E-4D15-A8DC-2A48C3C8330A}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{5F60FD58-82C4-42B6-B363-77E0C075BCC2}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{98C85424-1CFF-4052-B75B-66E11C27442E}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{B676C282-61D9-47B0-8EC3-F31C1926F469}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{CC1B62F5-2D31-4DD8-A064-695B92522397}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{60065C7A-696C-4BD3-B24C-F96408AB4832}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{FAE4C1DC-22F5-40F3-9CAA-4DDC7BC42004}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{FD1B3CEE-1FEE-440D-826D-3A0DF748C606}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{0B2F65AB-3144-4ED9-815F-375BD898442D}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{765E770C-EF7B-4E81-A660-2F41728AA9E2}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{7D1BCFB1-47C5-45A7-98DD-81693C73871B}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{BB1635B4-AC6B-469C-A65B-5C9FC9754350}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{E4B6E39C-963B-4D78-AFFE-F59E32E238D1}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{EEE6F46E-B3E4-435A-A30B-D9A5F37D79E6}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{333CB079-6906-4819-914B-2552B3345A3E}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{EB08818C-985A-4AE7-AD16-1836D8E58E1A}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{64F92FD2-8030-4886-BBA7-723F77C6F3FA}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{BBD22820-D79E-47FB-A501-A91468515F73}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{5658F078-0C47-4AA1-9896-843C8F6BB2CD}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{0375866B-84D8-4E45-9F39-566CA9C382E1}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{7273F159-1E7B-4BE7-ADDE-9189C995B425}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{5AA81331-B486-4939-BB28-D70C0F4A8831}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{29C7A580-F4BA-44CA-9AFD-E5E3F0FFF14D}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{39CED3A7-7383-42E0-9E8A-883553808BD8}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{DB2BFDF6-8B23-4906-A488-821EB8D5982B}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{AB7744FE-B199-4D99-BCE1-A0AFE9CBFF1C}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{ECAF0C51-AD0D-41EC-A92F-FD97FEBF5DCE}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{7B6A4774-CE3E-4B37-9A5C-9263F822D319}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{7BCCFE3E-2377-4CA0-9355-3C4FD6B8DB69}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{908550B3-6EF1-4C9D-BA3E-FB40F51AA5C3}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{29A30809-7B98-4BF3-921B-3F84251376F6}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{2933D1F7-3057-465C-8912-F701CAB43B9A}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{282E813E-14A3-46AC-85FB-120D4F1FE3A1}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{AAFD65B2-2C20-4AAE-9465-4BB20037C7CF}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{834F1DF4-7103-43B6-B7E7-641EDE2C68DF}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{CB6513D9-5A63-4812-8F6F-1522463F6DA6}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{C5F8F65B-C55E-4FB2-915B-8607CFF02A0D}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{A6EEFE39-54D0-476F-9A26-9784C5AE4857}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{0407AE32-49FB-405E-9F0B-7F17ED8A958F}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{2D8761D3-231F-4474-BBA7-A4388CEC0754}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{93775B72-C613-42F1-85E9-3DDCD240EA97}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{05C12B61-D31E-4FF4-B877-B6FA34BF5138}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{38B089AD-5056-4C3A-A229-4D3E6B724E6C}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{1CA79C4D-1EF5-4BBB-8140-96BA6E0F30C1}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{F0601F67-4023-48DE-A18D-6B53BEA640A4}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{50078C0C-8C92-4E1D-B618-A810CA39DDDA}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{75457584-D0C5-48B8-927D-4FB3C9AE7ABE}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{71BDE571-7231-42A0-B752-AD12809A580B}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{439B81B8-13BA-4C9F-8674-C23092BB37D5}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{F82100CB-F55A-45A4-83A5-5B0266CFB185}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{B579985B-A5CC-4384-9417-B59766BA4511}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{894AC0C0-C2E5-4595-BD85-FFB8FA5F11E1}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{796F5AD1-6D9E-4433-B4F4-EA413ED2274C}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{3F61BCE6-66A6-47DF-842C-24137B2508A0}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{74A0015F-ED32-4C27-AE92-D0AE9B9E2EB1}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{5986B7C0-9292-43A3-9FD6-910B3EC44DF7}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{ABBB4FC9-01CF-4C56-BFAE-E1EEADF768A6}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{50AA79C5-31F7-41D4-A498-C34BBD1A1AAF}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{272D96E7-3CBA-44A8-9AAD-4B1BECE1F762}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{0214FD41-03F4-466D-B718-38A9CB0009EF}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{6A9C03BF-189D-4EBB-A173-C9432802BB72}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{A870BD69-C526-48C8-B6B9-3E94A2F09BDF}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{F79780A3-B830-4F40-9612-8464DC628543}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{E1FE5B2C-AE9F-46F3-A122-5505D9B738BF}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{129FC64D-C149-492E-8BAD-7B8A904A4830}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{1539CAB7-1F8D-484F-BE16-82943CF92980}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{F57055ED-FA08-44F7-A741-8EA05B741230}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{93237004-55C2-41E7-9895-88B583E9A919}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{8955FEB1-AB00-4380-A502-2765D0F29F5D}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{7FF117A1-7169-42BB-9A09-8803D1945495}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{4AB3450A-2A2B-4103-B04B-04757E191F04}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{B7349A53-5859-4244-B2EE-66A81A8949BF}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{EAE1C4BF-18E4-4C61-AB8A-201101E0A3DC}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{9BA55C1B-E49F-4544-9FD0-7F6E8ADE9C35}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{65FF89D5-78A4-42D7-82F1-21B33FA5A6D3}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{4E83878F-D716-4246-9C3F-5E9535641828}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{F69E9D53-53B4-499A-8464-E75EBB324858}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{CCA8BE60-2CA9-4A25-B049-C75C35B01911}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{DF97612B-3AFD-4D28-8389-E5157478B198}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{B6E0B366-670A-4C9D-9A07-B21583797E0A}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{5E1F6A86-C32A-42BE-8D28-D85FA7606FAA}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{9CA012E5-5F8E-41B3-B7DB-7A6BC3D5BDF4}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{98AD88A6-0AFA-4625-8B88-46C14BAE86C1}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{69648E17-F293-4626-AE39-08E1B9E6B483}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{0D6239C9-1E7A-45D3-9FE9-8335823BC7D4}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{DA08F187-3A82-4449-8220-D16B5077A70F}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{B6E8E8D3-140A-4A16-A52E-6CD629511A79}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{3A078600-BB72-43AA-B028-92E4815CD2FB}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{BB66204B-95E3-41F7-9114-AB6E90AF38FB}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{B26A84D4-0455-4EA4-B00B-8A12456AF257}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{2A6F04C2-68F2-4698-9302-31BD2AE00A7D}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{5AFEA0D6-D896-4B1C-B453-88E7CB6C9FDA}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{1C47BD8C-A7C8-4053-8300-653F71405A42}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{F0702F90-A60A-4ADA-9BCE-7A8E879FABA0}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{677EFE1A-E44A-4B15-9302-87B8EC8DE28D}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{C1390C80-EF3A-4BD5-A449-144453498BC4}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{7FB49FDF-B5E1-496C-B380-3A556D288CC3}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{FCBD4890-9DFF-4C3C-8867-CBA63D8741F8}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{53C9B4FC-CA87-490C-88CA-A6413AA9E4BD}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{69820E47-5030-4DDE-A989-DB00047F4503}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{92D0833F-4641-4474-90D3-1A294470475F}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{FA1EB836-D624-4F3D-A1A0-FFB8B3718A90}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{2A15E192-AEF7-476B-BBDB-84927C3506EC}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{8964B67E-D7D0-4247-8934-FDC18DCCD9F6}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{0513F44F-29B6-441D-9A6E-A0F5F10E7DB9}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{51147CA0-1927-4D2F-B66D-9733D78DB1D3}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{6DE55480-3CF0-48FF-8602-18836E688DA2}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{4626F7C5-DBAE-4A4E-8225-CDBD50AFEAAF}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{66FE77EA-9863-47C7-9FAD-A4B9CF188181}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{0BC0FAD5-1C0F-48CA-93EE-BB32CEE8C5A7}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{B5B398A3-7059-42F2-9497-05790980488C}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{BE000584-D2C8-448D-BD0A-64C1A412A463}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{A8795E6E-78A9-4C4C-B7C4-F68E1D2445CF}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{7A7B286F-E354-4BD3-BB5F-D19ACA8857A6}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{E964CCC1-E661-43D5-8858-069C81FC1E49}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{F91A70F4-77C1-48CF-8842-CBC6BBE66AFD}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{D6138600-EBDC-4B91-9382-7442EF76DBEB}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{8032A106-C9B8-4144-A6AD-58D48EC41114}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{94B57EE8-D2A2-4E05-B948-3DFA560272D7}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{0C436A50-4818-4208-BC83-27CAD78642C7}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{D7C444A6-5DD0-460C-B202-AF0AF9EFDD35}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{A09EDBD8-A727-4B47-915B-54CDC7911E79}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{3D6E7E3B-5277-4CAE-8235-94D2696AE1C2}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{26505D6E-DC51-4ED2-BECF-97F3A67E53A2}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{8AB13261-84F9-4686-98C4-C42DEA99C6F3}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{52C87F2A-2C9A-4433-B993-695AE2A8A670}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{B75CECF5-A477-413B-B3CC-3FA1A9174A62}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{43A3873A-F398-4925-ADA4-A4DD2E5109C9}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{ADA484A8-CA2D-464A-AC98-35E7E82C10AB}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{236E87F9-0A02-465D-9C80-000DF93CF551}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{834529FD-3E2B-4EBF-886D-5968FC08442C}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{4BBFCE12-28F1-41B7-8E13-4D3F0C05E9C9}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{A42A7C56-9A45-47E4-A1CA-27813DC3F261}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{3227AEBC-B387-4A93-9110-A9648DB68EE6}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{4E28D024-1F16-4658-809B-49F75014EE15}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{171CAF8E-922C-438E-8000-47AF7D002245}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{B169EC6B-FB84-4A1D-AB68-5A40348E163E}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{824BC9B8-A0B3-428D-AB0F-F3D9B1A1AEE0}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{0FD589D7-1648-4CFC-ADFF-072FBC2FE0BD}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{0040F946-DA7D-475C-86A0-DBDF984C0927}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{C4743223-27BC-4FC7-A34F-376BEFD68B15}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{56D49C85-87A5-4688-B1A9-3C9714B163ED}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{8FC07E7A-A80E-4C65-B3BE-1A40DDA356BD}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{F7791857-C207-483F-8305-AD458EE64C55}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{CB88E2D7-3F2A-48A6-A71A-2595741C7CF5}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{3E41E1D1-B6A9-414D-9B95-4AC7BDAE8B09}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{9CD06A95-074D-4EBB-ACD8-972BF3113FBE}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{9641B3A4-CE8E-43CE-8AAF-5A23DFC8B400}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{684E8A84-F209-4A54-9D23-E5601EC5D78A}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{83C4CAF2-0F1D-4D68-BE95-8A6DCAD4F8A6}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{EBD57529-D516-4437-8BC0-A52CC0C118FD}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{8CA0B878-FB8F-4FE0-9046-8BEBCCC9CD78}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{C10A2269-A3B4-4513-88DC-E7696822F735}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{EB734F08-92CC-4CCB-9204-FE043447E1E5}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{645D0B15-F1F3-43A7-B492-7641C2052F89}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{12E38A47-28A2-4A55-A8E1-FB020C8B8C38}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{479B86DC-830C-43F5-B241-728980A9D9AE}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{107A6175-999C-4FE4-9D94-5689E474D550}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{C3A1A8D8-EF55-44A1-A278-555CD244325E}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{DB8D69D2-FF76-43D0-9DAD-EEB2A9D57D3D}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{94D5824B-BBF6-4DDA-B2C7-A9B7BB51F3BD}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{3D46A1F9-E66E-442F-A16C-310D8121C994}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{73226873-08C3-4258-A37B-DE89ED7716BE}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{1ABC35D4-09C9-43C9-B4FD-D7CE6A46F92E}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{4BB1B643-81DE-4F4F-9F4F-FB0EF6AFDD78}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{CC9B5160-77E0-458A-BFCF-99D4CB97A33B}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{CE1E24FD-43F4-46D8-8D22-54A58F462001}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{B0AA7C79-6104-41B0-A80B-9617F8A59E39}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{B63A7033-65F3-4F76-8FBC-DA227A1BF1F9}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{3BC5B1C1-E49D-434D-9CBB-B404A3A8B27E}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{3D05D8AF-B177-4E0E-8FD8-9C8BD9BE1C22}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{4657AFBB-602C-4549-95A1-E99B334337D0}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{6CC69421-090C-4706-B6BA-745FEA94E169}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{2CC9FBBD-D3E9-4397-95CB-B344FA853905}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{352C08B4-0F81-46EE-8C7D-B91C8213D342}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{807E6E4A-4159-42A2-95E7-2431E74D9B7C}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{651D870D-40D6-4DA4-865D-F71FD9B65F08}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{9BC325C8-08B9-4547-80D0-A4D26F408B54}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{6E089B86-7E38-432D-8CD0-4145A0FCE6DB}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{300CF6EE-28FA-42E7-9269-B9E9A7D1F18D}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{10532524-9928-4D74-B232-B9E1F509C963}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{2E8C185B-16B1-4D09-95C4-D1DD3EB9684B}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{D6EA4232-2A7B-45B2-AA5D-0D5CD0692204}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{B231A357-D5CA-4BA8-84C6-DEE1B401F9B0}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{5E1AD7A9-4142-432D-90CD-EB464D753514}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{8CEB8FD1-00E3-493A-B169-1D16C5A6045E}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{304DAEA0-7DC1-452C-82CA-2274FB1F0235}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{5017F014-AA7E-415D-B17B-723C0138A0F2}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{4BBD06D4-0DB3-4CA5-AC77-0C3CD2F30880}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{14C8224E-3C44-4C39-88F8-E5762048FAD0}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{8256FFF4-F252-4022-A7FB-C64B42D6449A}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{0CFC1198-2267-4591-90C4-E13F90958F03}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{6FCAE19A-1758-4DC2-9264-080F30FCDFA5}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{1856A1EB-BA17-4096-B4B7-BA0971F79C30}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{9A759AA2-8A0A-4150-8494-C5D39E628A6E}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{51A559C7-6FBA-4741-8344-322DACD2AE83}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{E6AD6E42-D8F5-4DDF-B47E-13B183AF4B30}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{05978A32-BFB4-4864-8F3B-40541FB256A4}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{E92541A5-3BD8-4507-9FA6-8DFC067C1DDC}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{0732C682-D4C4-450E-ABCB-D7D3C58AB596}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{E820DFD2-E03B-49D6-9F4F-51A6591585B2}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{8CF8F049-EF42-4EFC-B860-72A8550D88EE}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{2FF53388-718F-45B0-9783-F0FA77BD45B8}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{BC0E8C10-527D-470F-AC20-AEA71082B353}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{B0F79AB3-E424-4A04-963E-2971D38B0974}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{57DC07B7-2F83-40DD-8D6D-8CD97A65FF60}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{8422FC30-E7FA-4EF7-9DDE-C66D9A132B81}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{E65D835C-71A2-4EC8-B8FE-904859F6720A}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{9232EB80-2AE5-4332-BB3F-FA8EAD6CCB71}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{B06FE8A7-2827-43D9-B360-C4B09EC266C1}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{814AFD20-A8B0-4B65-94C8-E9E5E485F403}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{3BF7D263-57C3-4CC5-8054-8FDE4CD9AFAD}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{3865DB81-8827-47FE-81C5-DEA8DD7241CD}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{C5BCACF6-F96C-4063-BC20-BA902650B62C}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{7D39589D-8D19-4C47-9098-A601894A23A1}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{C7FF10FC-975C-46EB-9ACE-75D4A99E42D4}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{B97E1F8A-86E9-47BD-9137-C5BD3A5B3F20}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{9403D2C4-E9A1-47DB-AFC5-FCF141EC48A6}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{A616E06F-B0E8-4C7E-97FE-65005160B4C1}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{1B31E065-2122-4725-95A8-B7437A2FF1D3}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{5E2BBD04-C419-42A9-A11F-94D7F5156E27}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{226940DB-C5FE-46D9-A6A1-5FBD30288B99}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{98E9BAE9-F1B2-4782-813A-7C23D74E0279}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{4A6AB269-F8B7-4DD3-895A-CB6D217232FD}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{F2603728-48A1-4567-B70F-96452888666B}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{C4F57338-BB61-47B0-9ECB-E698CCA63C12}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{70AAAE05-4246-4FCF-BFBC-4FAE205D9A8C}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{F6E54C34-38E4-40E7-B168-752D1893135B}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{F44DA444-C3D9-4C2D-AEE3-2507ABC7C60C}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{EBB9E3BF-8253-4CCD-9B9C-AC191BE4B309}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{7730CB13-ACD7-44B9-A5E6-0D56DFF82FDE}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{FB4E902C-FAA0-4BEE-A24B-F8015EC9714C}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{FF1DC364-570B-45F2-8CA1-B53F514FAC8A}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{48B8C893-F102-45D7-A503-FB2603285E8A}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{3E50D342-6356-4AB8-97BD-FA1AAC9AC449}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{DA308BD2-B4EF-4F41-8C93-4E0EB35694CF}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{05E52B9C-5D7B-4E5A-812C-F6B68B7CBB0F}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{5397A8F9-ADEC-42D5-ADA8-0B30838F0F16}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{D0841D32-2AC2-46C0-9B44-7D11FE5B0EDC}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{34EBD297-7B3B-472D-8CCB-7FA9F758B860}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{65A4A337-3864-4AFB-9F62-D2310E05CDD8}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{44B3CBED-BE5F-4894-9830-03085AD5FE6B}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{D0260C81-9906-48E3-AD23-684FB1A785D0}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{2831EFB8-8EA9-43AD-A5C4-F9ED959209B7}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{A762956F-8320-4E42-9BAB-0DA0D3A36BBC}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{3CE27782-6958-425C-B080-F9413C0A1595}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{685DA184-A626-4429-9008-881DA11CD003}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{124DB67E-8C9A-40C3-B019-941E1EEAE06E}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{38ECEFCA-F07C-453E-A83F-1D2F070A2D90}"/>
+    <hyperlink ref="B439" r:id="rId409" xr:uid="{C878DBAB-7EDC-404D-A771-66B4719DA5A5}"/>
+    <hyperlink ref="B464" r:id="rId410" xr:uid="{0714306B-2B80-4F02-BBCB-D443F45F33D2}"/>
+    <hyperlink ref="B463" r:id="rId411" xr:uid="{D0C062E2-E2B5-4A00-B385-DFB801AD7591}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{44AC5E45-A37A-47DA-A1A8-494849E7D171}"/>
+    <hyperlink ref="B461" r:id="rId413" xr:uid="{ED9AB397-E2C4-4807-8EF1-1719911533CF}"/>
+    <hyperlink ref="B460" r:id="rId414" xr:uid="{FC4E5FBB-6CCD-48BF-8A34-345B0969E719}"/>
+    <hyperlink ref="B459" r:id="rId415" xr:uid="{BF3EC4FA-E566-4466-98BE-8C4ED096ECAE}"/>
+    <hyperlink ref="B458" r:id="rId416" xr:uid="{96F03252-C2FF-4253-8E5E-2C4FB098294F}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{81D531FF-CF17-4012-8F6A-76ED88722429}"/>
+    <hyperlink ref="B456" r:id="rId418" xr:uid="{D3D298DC-F11C-49C2-B6EE-4EC1F15E2C15}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{6109F9F8-D484-42A0-8E04-D7E022855646}"/>
+    <hyperlink ref="B454" r:id="rId420" xr:uid="{150BBAFB-8A2B-4B65-A242-5EB2F8003DD9}"/>
+    <hyperlink ref="B453" r:id="rId421" xr:uid="{86E8FE60-C4A1-4945-A63A-8070C0A52C05}"/>
+    <hyperlink ref="B452" r:id="rId422" xr:uid="{AE15A2E0-1853-4E19-B35E-197EE9E27707}"/>
+    <hyperlink ref="B451" r:id="rId423" xr:uid="{B8FF708A-2868-4F09-9102-40272AB08773}"/>
+    <hyperlink ref="B450" r:id="rId424" xr:uid="{E25550E3-DED6-43C1-A6BE-0BDF75057A6D}"/>
+    <hyperlink ref="B449" r:id="rId425" xr:uid="{87CF5189-B9AF-4AD6-96F0-E0A26E5F820E}"/>
+    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{B88C5180-7F36-412E-AFFD-90D9542F167E}"/>
+    <hyperlink ref="B447" r:id="rId427" xr:uid="{58C46250-7B93-45BB-BA1A-6D146C6BF16E}"/>
+    <hyperlink ref="B446" r:id="rId428" xr:uid="{F7EA0490-B0F7-4EA6-B32A-F8780CA0DA16}"/>
+    <hyperlink ref="B445" r:id="rId429" xr:uid="{FCF46016-75EE-42A3-8D5B-C22200B6D290}"/>
+    <hyperlink ref="B444" r:id="rId430" xr:uid="{37CE1411-63E4-4AF8-AB74-557182DDEF48}"/>
+    <hyperlink ref="B443" r:id="rId431" xr:uid="{A0DD802B-20B6-4A7C-8026-47DB4D4BD662}"/>
+    <hyperlink ref="B442" r:id="rId432" xr:uid="{DEE8F12B-4E4C-4374-91B1-8FEF75B968B8}"/>
+    <hyperlink ref="B441" r:id="rId433" xr:uid="{DD9BC820-6E80-4CA6-8CA4-D1E6C42E4577}"/>
+    <hyperlink ref="B440" r:id="rId434" xr:uid="{8304A7B3-4AC0-499F-856A-8E02CF2217A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId410"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId435"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF0B67-19A0-4C7A-998E-A36853BF0293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAEC44-0030-4A20-9BB4-66DDDE544C21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1022">
   <si>
     <t>titulo</t>
   </si>
@@ -2812,6 +2812,294 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/14ee1cfe-6408-48fc-a9a3-e4cab45e1022?title=(8)%20Tough%20times%20ahead%20for%20travel%20and%20tourism%E2%80%99s%20middlemen?%20%7C%20LinkedIn</t>
+  </si>
+  <si>
+    <t>DOTZ | Call com Mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/94851b49-7d32-5c1a-a127-9d3a8798487e?title=DOTZ%20%7C%20Call%20com%20Mgmt</t>
+  </si>
+  <si>
+    <t>CVC | Atualização com Guanais BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/00ff7b61-d021-6dfe-d4be-8c0954250509?title=CVC%20%7C%20Atualiza%C3%A7%C3%A3o%20com%20Guanais%20BTG</t>
+  </si>
+  <si>
+    <t>ELMD | Call com COOHnect - OOH Mobile @Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1c75a0fb-e007-a42d-96cc-ad0f41ba779a?title=ELMD%20%7C%20Call%20com%20COOHnect%20-%20OOH%20Mobile%20@Santander</t>
+  </si>
+  <si>
+    <t>Getninjas | 1x1 com Ariel Lambrecht (board GN e founder 99)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4985f2af-c8bf-ac1c-7773-bb7228cd8425?title=Getninjas%20%7C%201x1%20com%20Ariel%20Lambrecht%20(board%20GN%20e%20founder%2099)</t>
+  </si>
+  <si>
+    <t>Takeaways | CVC &lt;-&gt; JP Morgan Report 10/05/21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/61fb6832-9316-3f50-cf29-5b256b848bca?title=Takeaways%20%7C%20CVC%20%3C-%3E%20JP%20Morgan%20Report%2010/05/21</t>
+  </si>
+  <si>
+    <t>Reuniao com Wiz | CFO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cb4f7c99-b50a-477d-8dff-264cb1b98c1f?title=Reuniao%20com%20Wiz%20%7C%20CFO</t>
+  </si>
+  <si>
+    <t>Petz | Conference Call 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3d56b17e-fc36-468a-acc6-3b535c0dd058?title=Petz%20%7C%20Conference%20Call%201T21</t>
+  </si>
+  <si>
+    <t>MTRE | Call de resultado após 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/866060c5-7f9c-649e-38d2-2c1efb70a1f5?title=MTRE%20%7C%20Call%20de%20resultado%20ap%C3%B3s%201Q21</t>
+  </si>
+  <si>
+    <t>LOGN | Perguntas Resultado 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/eda4ebed-2737-957f-c326-e8ab6e54de5d?title=LOGN%20%7C%20Perguntas%20Resultado%201Q21</t>
+  </si>
+  <si>
+    <t>Traders Club | NDR com BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a45b5550-42a9-4f66-ad20-d3309d3d4025?title=Traders%20Club%20%7C%20NDR%20com%20BTG</t>
+  </si>
+  <si>
+    <t>Eliminating the intermediaries in the travel industry | by 15toGO | 15toGO | Medium</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e197547a-d3cc-4456-a92c-c09364bb4f3e?title=Eliminating%20the%20intermediaries%20in%20the%20travel%20industry%20%7C%20by%2015toGO%20%7C%2015toGO%20%7C%20Medium</t>
+  </si>
+  <si>
+    <t>Althaia - NDR - IPO em Setembro</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7b98b0bd-41c9-4a7f-8fba-ca3be9c141b0?title=Althaia%20-%20NDR%20-%20IPO%20em%20Setembro</t>
+  </si>
+  <si>
+    <t>Tenda | Rick Holliday (CEO, Co-Founder) - Offsite Co. investida pelo Google</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f1c732fe-8d43-694a-9eb5-57f59aabc061?title=Tenda%20%7C%20Rick%20Holliday%20(CEO,%20Co-Founder)%20-%20Offsite%20Co.%20investida%20pelo%20Google</t>
+  </si>
+  <si>
+    <t>Armac | Visita</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b6113e43-d820-e5c4-7631-dbea3277cf47?title=Armac%20%7C%20Visita</t>
+  </si>
+  <si>
+    <t>Playing Different Games - Or why Tiger is eating your lunch (&amp; your deals)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ff4e0979-5bd5-f378-ce12-19fc5a75ceea?title=Playing%20Different%20Games%20-%20Or%20why%20Tiger%20is%20eating%20your%20lunch%20(&amp;%20your%20deals)</t>
+  </si>
+  <si>
+    <t>NTCO 1Q21 Conference Call</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/057d49a1-9f34-4429-a389-4f2c95a94df7?title=NTCO%201Q21%20Conference%20Call</t>
+  </si>
+  <si>
+    <t>Armac | IE com Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/239c2af6-b6d8-5d06-3f29-34ca6d775d70?title=Armac%20%7C%20IE%20com%20Santander</t>
+  </si>
+  <si>
+    <t>GGPS | Call de resultado 1Q21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7c586b65-88ca-b781-bdbd-a24ae40e6cb0?title=GGPS%20%7C%20Call%20de%20resultado%201Q21</t>
+  </si>
+  <si>
+    <t>GMAT | Call de resultados 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9b382263-9c23-4e92-8c91-529ee7587170?title=GMAT%20%7C%20Call%20de%20resultados%201T21</t>
+  </si>
+  <si>
+    <t>Q&amp;A MGLu - 1T21 - Call de resultados</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2e591ce4-560a-2fe7-8073-218d61602ca4?title=Q&amp;A%20MGLu%20-%201T21%20-%20Call%20de%20resultados</t>
+  </si>
+  <si>
+    <t>SOMA - Call de resultado - 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/11d65e13-ebc5-0157-ae4e-a839ec8ff94d?title=SOMA%20-%20Call%20de%20resultado%20-%201T21</t>
+  </si>
+  <si>
+    <t>LREN | Call de resultado 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2c16f133-b51c-2368-6a66-b7044bd0631f?title=LREN%20%7C%20Call%20de%20resultado%201T21</t>
+  </si>
+  <si>
+    <t>ELMD | Call de Resultados 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/28270ee4-95b2-dd61-d359-4a613f5972a2?title=ELMD%20%7C%20Call%20de%20Resultados%201T21</t>
+  </si>
+  <si>
+    <t>Westwing | Conference call 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2b3aaae0-3514-4cb5-b29c-29e3860a53cc?title=Westwing%20%7C%20Conference%20call%201T21</t>
+  </si>
+  <si>
+    <t>LWSA | Call de resultado | 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e688330f-fd87-5138-b906-936edd426fbc?title=LWSA%20%7C%20Call%20de%20resultado%20%7C%201T21</t>
+  </si>
+  <si>
+    <t>Westwing - Conf call 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f13bbee4-6d37-40f3-a525-5d53770bac59?title=Westwing%20-%20Conf%20call%201T21</t>
+  </si>
+  <si>
+    <t>Call com Decoder Capital | Sobre análise e obtenção de dados</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/345a13e5-9e72-efa6-f6f4-f696aa56fd12?title=Call%20com%20Decoder%20Capital%20%7C%20Sobre%20an%C3%A1lise%20e%20obten%C3%A7%C3%A3o%20de%20dados</t>
+  </si>
+  <si>
+    <t>Armac | IE com BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/84bb5a7d-b731-d066-353d-951d6e2c5932?title=Armac%20%7C%20IE%20com%20BTG</t>
+  </si>
+  <si>
+    <t>CASH3 | Call de resultado</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/63c2fbc7-b925-1afc-2027-ae5152869025?title=CASH3%20%7C%20Call%20de%20resultado</t>
+  </si>
+  <si>
+    <t>CVC | Call de Resultado 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/aa380d7f-47ed-8998-7dce-04bb9d91600d?title=CVC%20%7C%20Call%20de%20Resultado%201T21</t>
+  </si>
+  <si>
+    <t>Armac | Management @IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a2361ddf-04f2-a7ef-0e19-cfc9cc3cddfe?title=Armac%20%7C%20Management%20@IBBA</t>
+  </si>
+  <si>
+    <t>TC | visita ao escritório com management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/42076955-5c21-460d-9d25-b1dcaf0356a5?title=TC%20%7C%20visita%20ao%20escrit%C3%B3rio%20com%20management</t>
+  </si>
+  <si>
+    <t>Getninjas | 1x1 com Fred Vila - Ex consultor de Mkting GN</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/108dfff4-ea65-1de1-6b37-61637119afbe?title=Getninjas%20%7C%201x1%20com%20Fred%20Vila%20-%20Ex%20consultor%20de%20Mkting%20GN</t>
+  </si>
+  <si>
+    <t>Petz | Large Group c/ CEO e CFO @BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a4e502d9-bd20-4f85-8f3d-98fd6857d441?title=Petz%20%7C%20Large%20Group%20c/%20CEO%20e%20CFO%20@BTG</t>
+  </si>
+  <si>
+    <t>Entrevista: Como a Wiz quer ser a XP dos seguros e do crédito, segundo o CEO Heverton Peixoto – Money Times</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c3a75fb8-1549-49a3-9dba-f591d2af868a?title=Entrevista:%20Como%20a%20Wiz%20quer%20ser%20a%20XP%20dos%20seguros%20e%20do%20cr%C3%A9dito,%20segundo%20o%20CEO%20Heverton%20Peixoto%20%E2%80%93%20Money%20Times</t>
+  </si>
+  <si>
+    <t>GetNinjas | Call de Resultado 1T21</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7d89f42d-f35f-1e8e-5a67-dda98bbdef7b?title=GetNinjas%20%7C%20Call%20de%20Resultado%201T21</t>
+  </si>
+  <si>
+    <t>PRIO | Anotações da Certificação de Reservas 2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1364a395-0d2b-4aba-81e3-10d30fc45b76?title=PRIO%20%7C%20Anota%C3%A7%C3%B5es%20da%20Certifica%C3%A7%C3%A3o%20de%20Reservas%202021</t>
+  </si>
+  <si>
+    <t>Queremos ser a solução do open banking, diz CEO do Guiabolso - Seu Dinheiro</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fab90166-3660-4c57-afb8-846526625567?title=Queremos%20ser%20a%20solu%C3%A7%C3%A3o%20do%20open%20banking,%20diz%20CEO%20do%20Guiabolso%20-%20Seu%20Dinheiro</t>
+  </si>
+  <si>
+    <t>Webinar - Privalia, Arezzo e Amaro</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/031ff9c4-c84a-0488-2567-b02b6836f306?title=Webinar%20-%20Privalia,%20Arezzo%20e%20Amaro</t>
+  </si>
+  <si>
+    <t>IE CBA | BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f312268f-6ed1-4485-559d-7e761f44a438?title=IE%20CBA%20%7C%20BBI</t>
+  </si>
+  <si>
+    <t>Anima | CEO - Update</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d705974c-9dbd-4a12-bf72-813b6fb33587?title=Anima%20%7C%20CEO%20-%20Update</t>
+  </si>
+  <si>
+    <t>Reunião com Lucas Marques | COO Meliuz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/84daf967-4da2-51f9-ad76-6a55eeb65b1a?title=Reuni%C3%A3o%20com%20Lucas%20Marques%20%7C%20COO%20Meliuz</t>
+  </si>
+  <si>
+    <t>O plano do Guiabolso para competir com os birôs de crédito | NeoFeed</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e7c89917-5350-4902-a1c6-86612cabc867?title=O%20plano%20do%20Guiabolso%20para%20competir%20com%20os%20bir%C3%B4s%20de%20cr%C3%A9dito%20%7C%20NeoFeed</t>
+  </si>
+  <si>
+    <t>Conheça o Aplicativo Guiabolso e Cuide das suas Finanças</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/42882a13-3a79-4e43-acb0-696c2b9cfe26?title=Conhe%C3%A7a%20o%20Aplicativo%20Guiabolso%20e%20Cuide%20das%20suas%20Finan%C3%A7as</t>
+  </si>
+  <si>
+    <t>Guiabolso lança serviço para empresas ‘espiarem’ concorrentes a partir de dados bancários | Capital - O Globo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo</t>
+  </si>
+  <si>
+    <t>Plaid hits $13.4 billion valuation in the wake of scrapped Visa deal</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8a38d2c8-b29e-4f6f-bdcd-99d606c733a1?title=Plaid%20hits%20$13.4%20billion%20valuation%20in%20the%20wake%20of%20scrapped%20Visa%20deal</t>
+  </si>
+  <si>
+    <t>Com gestão financeira completa consolidadores ganham espaço | Suplementos | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b9b58699-ba63-499f-993b-fe198be93abd?title=Com%20gest%C3%A3o%20financeira%20completa%20consolidadores%20ganham%20espa%C3%A7o%20%7C%20Suplementos%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>Papo com Joao Nogueira Batista | Wiz</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3fcd97b6-991a-4f04-9754-36e4591fd083?title=Papo%20com%20Joao%20Nogueira%20Batista%20%7C%20Wiz</t>
   </si>
 </sst>
 </file>
@@ -3209,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A514" sqref="A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,444 +7221,875 @@
         <v>925</v>
       </c>
     </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>926</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>928</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>930</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>932</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>934</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>936</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>938</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>940</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>944</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>946</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>948</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>950</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>952</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>954</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>956</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>958</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>960</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>962</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>964</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>966</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>968</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>970</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>972</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>974</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>976</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>978</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>980</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>982</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>984</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>986</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>988</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>990</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>992</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>994</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>996</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>998</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1C9716A2-F6CA-4528-9245-B0477080FAED}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{8AE04A7D-3A7F-482D-B650-6BB064ED1B97}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{A0D6DC35-8E37-405F-958B-AF7C52373839}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{1F50ED7B-4685-4616-9CBB-12B0A0D7AE5C}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{B179012B-6B5C-4202-A330-3643C7AF0678}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{1CC69466-742E-46EA-8C88-CC5B705AEDDF}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{1A6A7ABF-10A3-4015-8E3F-26986C9607D8}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{D593B7B3-7634-4E16-B365-01A040D678CB}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{CD84F72D-ADB4-4ACC-A333-616A7145811F}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{6481EDA6-743F-4BA8-810C-AC30B10FE710}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{A507B2DC-2804-4313-8FEA-8C21C9B667F0}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{365E599E-AF83-4767-BDDC-7990CF511296}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{CE76D7D9-6091-494E-8E07-CDFF8142A3AD}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{E54B71BE-30A5-4B01-BD3A-1229865D0F12}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{E0498F22-A85F-447E-AF78-1C82A2A27159}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{27D8F1D5-8932-4DDB-AF2D-487AF74491FF}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{7BDCAB92-1549-4F56-8B7F-F4EF35B76E03}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{7493406A-48D4-45F6-9F0A-B8893FE25322}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{A0DEC497-A8D2-4F96-8C82-A9CAF972EDCA}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{55D440A6-E657-418C-9C90-BA75EF3C3BEE}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{613182F0-6659-4397-953E-2F55CE63F83F}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{5394E83B-AD42-4C58-BFD5-9B87CADFC765}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{72E9B8F1-524C-49CE-AF26-7BAC35A602BC}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{0EFED4C6-53BC-4A83-BB13-4794ED1F3290}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{FC48A93D-3009-4566-979B-00E1ABE7A3B4}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{7E93A460-B214-4338-B0C7-CE1F13A9A0ED}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{BD0A7F32-E7F3-43B8-83DF-019569DCDB04}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{E5CABB0B-BAD2-477C-9D57-A2B7F9AF930F}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{8D77C46B-2F90-4FFC-A918-D79AE4BF943C}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{239163BE-2662-4F6C-8500-47B963F0777A}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{1A974D29-BF5E-437A-A6D3-6F193574380A}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{E548B34A-EEF8-4941-B494-126F2F7B531B}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{D87DE362-C48D-487C-BE7C-4CF5793FEAFB}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{ACD81822-9A59-4488-983F-1E1EC1ABC770}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{DE75498A-0FC6-480D-B7A6-85180C138975}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{35ADF0FB-BF5E-4587-9507-A0513A58B614}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{DEACE79C-04DF-4705-81DD-8664A2D32EA4}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{7B78AFD6-0480-405B-B186-AF44558C70FD}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{D3F9AB31-4698-4E45-992F-FBA6C42B7936}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{438BC1FF-5245-47EE-BAA3-8E09C296CD9E}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{0B512AB3-0065-4DE5-A74E-68D5AA5F4F55}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{B735F8F5-92C2-45CB-B5F0-2B656DFEF41B}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{F8E3DED6-D81E-407D-BE30-B745FEED3B63}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{4422F3F7-E7CF-4A4A-865D-64E8AB23B0D5}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{CCBFEE6F-9611-4E64-B3C1-C7C736F1A200}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{43232868-9C33-4D0C-9267-89E23C05F535}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{E68D1798-6318-4087-A013-F580A51B1939}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{7331C52C-2C7E-4DA0-963D-550984661B06}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{39FDE063-684F-4AAE-82B3-1F1F39BB8A94}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{BD18997C-08B8-40D2-B9AF-A29F247AAA00}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{E177DB7D-968A-4581-BC6C-CB88F49AB877}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{9AAF2470-0545-4886-A80F-2804FFB00781}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{88D9ACBD-6541-4F4A-A1E8-0DE415198537}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{0779666B-A741-485C-8667-7B6A0203CD05}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{A4F9E00D-A0F9-445F-89D9-6AE98C3C2962}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{D04146F1-FF39-4795-A100-B341C9910EE8}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{A5E784D0-6659-445F-9A24-50BF54A4DFF6}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{8B90367C-FF84-4033-92B6-3375DB59B6C3}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{769DBF57-CA07-4C15-A4B5-3A7F6E312519}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{BA05501C-E6A6-4086-B2F4-E590D0BF3343}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{2AC05B14-62AC-4349-94F3-7615F7CB1381}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{0D8500C8-4D65-45FF-8359-60180B764F66}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{92136C64-E3B4-4615-842B-17CC0365FDA4}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{92A05254-C205-461D-8796-BCAA57940DCC}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{87115620-B229-43AF-80EB-955E97311241}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{02C737EB-0F6F-41CF-B208-61D9CA75BE90}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{F06F7FD9-64B6-41EF-AD99-27443A581C56}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{1EB034C9-1A13-4FFF-A8E8-157296E57EE8}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{929DB5A9-926B-4CA4-8529-684B6006CB7B}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{D141A083-6E21-46C8-97C6-C3D3A960CB7D}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{36D65174-29A2-487B-9F7D-E431998D86A7}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{218A6467-02BF-4EC1-81EF-D68791FB6C2B}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{942C7F33-11A6-47E8-B3AE-1461A82D775B}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{E1DB2564-2B67-4FB1-9280-3B4B519ADF29}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{584B8B27-50AA-4635-A9A9-C3021DABE22F}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{9CE4CB47-0994-493C-BD5D-157C37FA21D3}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{B227CA1E-F02C-4526-A837-1F029362C71D}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{7B2FF187-FE43-4C36-9B64-BB035BC74941}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{A028DCB8-01AE-473D-845A-2E279A3362A2}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{42045FE4-3BFF-4416-915E-EC63AD09EFA8}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{BB75945E-A13D-47FD-ACD9-D82D216495C7}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{2BEF132C-3837-4716-9654-B485EF22945C}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{C6E418F1-715A-4C02-9358-A8A7770D984D}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{F462ACE5-422F-4E05-9271-8811616537F3}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{6835298C-7E76-4AD6-9831-D73A55893AA3}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{367383D0-DA1A-43F9-B8EC-EABF1C9F74CE}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{C234485C-5F76-49E9-8569-8F2F94619617}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{AF3194AB-FC59-4876-AA87-A0FAD05CB7DE}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{F5BEDC46-1360-4000-92B1-6BC62D5ACDEE}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{DFA6C635-C628-4DDE-9580-ACD344A0DFC8}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{C38E9049-7181-4DA8-BDDA-FEEB1E589E70}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{106E5C23-15E5-4217-8FB4-DB766526229A}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{9A5720E7-9DA6-416C-829B-7FF6B177A1F0}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{5010152B-547C-4588-8AD3-E63F21892F41}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{4C7FFEF3-C033-467E-AAA4-F1C7CDB6DB56}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{56D30A5D-7B9C-4B8D-A119-2B757DB6986E}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{6CE0CCC0-82BE-44FF-9D17-60CA2204B333}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{A779DB4D-FEDB-4849-9A43-47119C37BD8B}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{807607AB-57E3-4A51-BBA0-9931F7644EDB}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{D230A34D-24B5-441B-AB27-7D7BF7BB9E09}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{B25D6449-3505-4439-9EB8-683E243AF7E0}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{39284359-8BDF-43BF-AC48-35890267DC91}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{D45022BB-6955-4C7D-8B56-5A08D96508FD}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{9E22C418-FAF4-4333-BCD4-B28BAFDA9776}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{A065AECC-6E4B-4C6C-803A-132811361385}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{2D32112D-FEE4-4CDD-B470-A4A6A840E3DF}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{1F68EC95-29EA-453D-9A82-CABE3D205144}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{E03BBA38-FD45-4F20-93FC-D776A6403A97}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{FB3429FD-1E0B-446A-9D1A-C15999C2A1F0}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{F77602AB-84B8-43F7-ADD8-583A5A55AE8B}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{A96BA159-0BC8-4E68-842B-B859C3690C6B}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{CDFBA34C-2807-4E94-9D44-9DFCC0857354}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{356639D7-F68C-496C-BBEC-EBF4482B32C1}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{0E2861A4-B334-48C8-9987-536009B2745C}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{C51CB263-D040-4B35-84BD-9975566F400C}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{07340149-ED17-4E71-B448-BE75302E6C61}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{D2606741-34C4-4659-B611-B49C98D0F418}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{95D443B2-AFC3-43EC-9986-81712C969C98}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{2B626195-78D9-44EB-96FA-7322613EF927}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{06FDFE98-61A9-4665-9D2B-EC16CC97F91F}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{067BB30C-7E64-41CE-AFCA-E145B0A498A9}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{91CBBF40-58A3-4AA5-9F4B-E2783BD45954}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{9553B161-3EC7-4E2F-BDCB-3C6EE4176855}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{33D21082-346A-4202-995F-47D3363C206F}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{63C849C4-8A5B-400E-AE4B-E5A0D0D09790}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{935879C4-2857-4757-B5B5-35889AE63035}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{DD3C702D-1DBC-4A0A-831A-A194E626731A}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{28F9AB5F-72C8-411D-9071-8893A12242D8}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{540E34A1-B006-4530-BD5D-9FE66684657D}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{ED7CAFC9-BAD6-47E3-95E0-45E26171527C}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{B4063734-6A6D-43FA-9F52-74BF7B73D67E}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{8136C253-D9E4-4214-8583-B385AE67E018}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{59AB1454-42D0-431C-93E4-60E73DD526E8}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{7F63226F-5EB1-44DF-94B2-D753A7FB768B}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{773A4DF7-A8DA-47B4-A75A-73826F09263F}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{E7C1AA89-AA0E-4178-A2A6-BD50B591937F}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{3550168F-0BC2-45F8-8523-8861CEEB77F0}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{1E8BB4CD-A3AB-435B-A356-3970B88CA19A}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{4C6C46E5-9256-4C7C-8E0B-B8BE96665382}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{C7EF2CE0-A981-416F-BF87-B9D7FFDCD06E}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{F726B5ED-7A33-493F-9A44-8219A920FF0C}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{29BD6359-0F80-4868-86B3-70C699CA3981}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{FDBA3E06-F6ED-4018-BD38-AED696697102}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{2256D609-6175-4E36-A28B-681CE0FD2DA3}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{1FBD9626-D0F0-435B-BF87-E78C24E77A62}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{5CE50405-FB55-475A-A251-26BAB22A3677}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{C3153056-4490-491F-A873-AFCCB5C6DD25}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{E887E50B-9034-4547-A92A-FACB828EFFD9}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{071987C8-1C72-4531-B9C2-F00CBD2FEA5F}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{779C7837-99EE-4FFE-9C2E-C6BD89985CD2}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{0F1FAE7F-E37B-4936-9FC7-655284F6E6D1}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{93D9EC19-AD87-4B20-9606-C2222DA094FC}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{14521624-41D8-42DE-BB2E-3905C6E2123E}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{EF26CC2F-0208-4189-9B93-770D0229B1D5}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{C7486CA0-63DD-4490-85D6-D5F1EC4FBE8A}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{B6A622B0-EA73-40B0-AE3F-7D4D61E1571D}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{6D8A572D-BE67-4FF3-AC9A-46D6AC17FF12}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{7E8F7F7E-63E8-4347-A2E5-FA013DA430F6}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{F12319FA-A43B-47C9-A197-9A9DFC6620A8}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{F93D6834-3A5E-4D15-A8DC-2A48C3C8330A}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{5F60FD58-82C4-42B6-B363-77E0C075BCC2}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{98C85424-1CFF-4052-B75B-66E11C27442E}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{B676C282-61D9-47B0-8EC3-F31C1926F469}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{CC1B62F5-2D31-4DD8-A064-695B92522397}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{60065C7A-696C-4BD3-B24C-F96408AB4832}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{FAE4C1DC-22F5-40F3-9CAA-4DDC7BC42004}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{FD1B3CEE-1FEE-440D-826D-3A0DF748C606}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{0B2F65AB-3144-4ED9-815F-375BD898442D}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{765E770C-EF7B-4E81-A660-2F41728AA9E2}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{7D1BCFB1-47C5-45A7-98DD-81693C73871B}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{BB1635B4-AC6B-469C-A65B-5C9FC9754350}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{E4B6E39C-963B-4D78-AFFE-F59E32E238D1}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{EEE6F46E-B3E4-435A-A30B-D9A5F37D79E6}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{333CB079-6906-4819-914B-2552B3345A3E}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{EB08818C-985A-4AE7-AD16-1836D8E58E1A}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{64F92FD2-8030-4886-BBA7-723F77C6F3FA}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{BBD22820-D79E-47FB-A501-A91468515F73}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{5658F078-0C47-4AA1-9896-843C8F6BB2CD}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{0375866B-84D8-4E45-9F39-566CA9C382E1}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{7273F159-1E7B-4BE7-ADDE-9189C995B425}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{5AA81331-B486-4939-BB28-D70C0F4A8831}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{29C7A580-F4BA-44CA-9AFD-E5E3F0FFF14D}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{39CED3A7-7383-42E0-9E8A-883553808BD8}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{DB2BFDF6-8B23-4906-A488-821EB8D5982B}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{AB7744FE-B199-4D99-BCE1-A0AFE9CBFF1C}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{ECAF0C51-AD0D-41EC-A92F-FD97FEBF5DCE}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{7B6A4774-CE3E-4B37-9A5C-9263F822D319}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{7BCCFE3E-2377-4CA0-9355-3C4FD6B8DB69}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{908550B3-6EF1-4C9D-BA3E-FB40F51AA5C3}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{29A30809-7B98-4BF3-921B-3F84251376F6}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{2933D1F7-3057-465C-8912-F701CAB43B9A}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{282E813E-14A3-46AC-85FB-120D4F1FE3A1}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{AAFD65B2-2C20-4AAE-9465-4BB20037C7CF}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{834F1DF4-7103-43B6-B7E7-641EDE2C68DF}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{CB6513D9-5A63-4812-8F6F-1522463F6DA6}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{C5F8F65B-C55E-4FB2-915B-8607CFF02A0D}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{A6EEFE39-54D0-476F-9A26-9784C5AE4857}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{0407AE32-49FB-405E-9F0B-7F17ED8A958F}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{2D8761D3-231F-4474-BBA7-A4388CEC0754}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{93775B72-C613-42F1-85E9-3DDCD240EA97}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{05C12B61-D31E-4FF4-B877-B6FA34BF5138}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{38B089AD-5056-4C3A-A229-4D3E6B724E6C}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{1CA79C4D-1EF5-4BBB-8140-96BA6E0F30C1}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{F0601F67-4023-48DE-A18D-6B53BEA640A4}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{50078C0C-8C92-4E1D-B618-A810CA39DDDA}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{75457584-D0C5-48B8-927D-4FB3C9AE7ABE}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{71BDE571-7231-42A0-B752-AD12809A580B}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{439B81B8-13BA-4C9F-8674-C23092BB37D5}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{F82100CB-F55A-45A4-83A5-5B0266CFB185}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{B579985B-A5CC-4384-9417-B59766BA4511}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{894AC0C0-C2E5-4595-BD85-FFB8FA5F11E1}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{796F5AD1-6D9E-4433-B4F4-EA413ED2274C}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{3F61BCE6-66A6-47DF-842C-24137B2508A0}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{74A0015F-ED32-4C27-AE92-D0AE9B9E2EB1}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{5986B7C0-9292-43A3-9FD6-910B3EC44DF7}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{ABBB4FC9-01CF-4C56-BFAE-E1EEADF768A6}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{50AA79C5-31F7-41D4-A498-C34BBD1A1AAF}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{272D96E7-3CBA-44A8-9AAD-4B1BECE1F762}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{0214FD41-03F4-466D-B718-38A9CB0009EF}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{6A9C03BF-189D-4EBB-A173-C9432802BB72}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{A870BD69-C526-48C8-B6B9-3E94A2F09BDF}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{F79780A3-B830-4F40-9612-8464DC628543}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{E1FE5B2C-AE9F-46F3-A122-5505D9B738BF}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{129FC64D-C149-492E-8BAD-7B8A904A4830}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{1539CAB7-1F8D-484F-BE16-82943CF92980}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{F57055ED-FA08-44F7-A741-8EA05B741230}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{93237004-55C2-41E7-9895-88B583E9A919}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{8955FEB1-AB00-4380-A502-2765D0F29F5D}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{7FF117A1-7169-42BB-9A09-8803D1945495}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{4AB3450A-2A2B-4103-B04B-04757E191F04}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{B7349A53-5859-4244-B2EE-66A81A8949BF}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{EAE1C4BF-18E4-4C61-AB8A-201101E0A3DC}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{9BA55C1B-E49F-4544-9FD0-7F6E8ADE9C35}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{65FF89D5-78A4-42D7-82F1-21B33FA5A6D3}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{4E83878F-D716-4246-9C3F-5E9535641828}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{F69E9D53-53B4-499A-8464-E75EBB324858}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{CCA8BE60-2CA9-4A25-B049-C75C35B01911}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{DF97612B-3AFD-4D28-8389-E5157478B198}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{B6E0B366-670A-4C9D-9A07-B21583797E0A}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{5E1F6A86-C32A-42BE-8D28-D85FA7606FAA}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{9CA012E5-5F8E-41B3-B7DB-7A6BC3D5BDF4}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{98AD88A6-0AFA-4625-8B88-46C14BAE86C1}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{69648E17-F293-4626-AE39-08E1B9E6B483}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{0D6239C9-1E7A-45D3-9FE9-8335823BC7D4}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{DA08F187-3A82-4449-8220-D16B5077A70F}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{B6E8E8D3-140A-4A16-A52E-6CD629511A79}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{3A078600-BB72-43AA-B028-92E4815CD2FB}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{BB66204B-95E3-41F7-9114-AB6E90AF38FB}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{B26A84D4-0455-4EA4-B00B-8A12456AF257}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{2A6F04C2-68F2-4698-9302-31BD2AE00A7D}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{5AFEA0D6-D896-4B1C-B453-88E7CB6C9FDA}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{1C47BD8C-A7C8-4053-8300-653F71405A42}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{F0702F90-A60A-4ADA-9BCE-7A8E879FABA0}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{677EFE1A-E44A-4B15-9302-87B8EC8DE28D}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{C1390C80-EF3A-4BD5-A449-144453498BC4}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{7FB49FDF-B5E1-496C-B380-3A556D288CC3}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{FCBD4890-9DFF-4C3C-8867-CBA63D8741F8}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{53C9B4FC-CA87-490C-88CA-A6413AA9E4BD}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{69820E47-5030-4DDE-A989-DB00047F4503}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{92D0833F-4641-4474-90D3-1A294470475F}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{FA1EB836-D624-4F3D-A1A0-FFB8B3718A90}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{2A15E192-AEF7-476B-BBDB-84927C3506EC}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{8964B67E-D7D0-4247-8934-FDC18DCCD9F6}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{0513F44F-29B6-441D-9A6E-A0F5F10E7DB9}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{51147CA0-1927-4D2F-B66D-9733D78DB1D3}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{6DE55480-3CF0-48FF-8602-18836E688DA2}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{4626F7C5-DBAE-4A4E-8225-CDBD50AFEAAF}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{66FE77EA-9863-47C7-9FAD-A4B9CF188181}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{0BC0FAD5-1C0F-48CA-93EE-BB32CEE8C5A7}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{B5B398A3-7059-42F2-9497-05790980488C}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{BE000584-D2C8-448D-BD0A-64C1A412A463}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{A8795E6E-78A9-4C4C-B7C4-F68E1D2445CF}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{7A7B286F-E354-4BD3-BB5F-D19ACA8857A6}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{E964CCC1-E661-43D5-8858-069C81FC1E49}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{F91A70F4-77C1-48CF-8842-CBC6BBE66AFD}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{D6138600-EBDC-4B91-9382-7442EF76DBEB}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{8032A106-C9B8-4144-A6AD-58D48EC41114}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{94B57EE8-D2A2-4E05-B948-3DFA560272D7}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{0C436A50-4818-4208-BC83-27CAD78642C7}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{D7C444A6-5DD0-460C-B202-AF0AF9EFDD35}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{A09EDBD8-A727-4B47-915B-54CDC7911E79}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{3D6E7E3B-5277-4CAE-8235-94D2696AE1C2}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{26505D6E-DC51-4ED2-BECF-97F3A67E53A2}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{8AB13261-84F9-4686-98C4-C42DEA99C6F3}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{52C87F2A-2C9A-4433-B993-695AE2A8A670}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{B75CECF5-A477-413B-B3CC-3FA1A9174A62}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{43A3873A-F398-4925-ADA4-A4DD2E5109C9}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{ADA484A8-CA2D-464A-AC98-35E7E82C10AB}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{236E87F9-0A02-465D-9C80-000DF93CF551}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{834529FD-3E2B-4EBF-886D-5968FC08442C}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{4BBFCE12-28F1-41B7-8E13-4D3F0C05E9C9}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{A42A7C56-9A45-47E4-A1CA-27813DC3F261}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{3227AEBC-B387-4A93-9110-A9648DB68EE6}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{4E28D024-1F16-4658-809B-49F75014EE15}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{171CAF8E-922C-438E-8000-47AF7D002245}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{B169EC6B-FB84-4A1D-AB68-5A40348E163E}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{824BC9B8-A0B3-428D-AB0F-F3D9B1A1AEE0}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{0FD589D7-1648-4CFC-ADFF-072FBC2FE0BD}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{0040F946-DA7D-475C-86A0-DBDF984C0927}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{C4743223-27BC-4FC7-A34F-376BEFD68B15}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{56D49C85-87A5-4688-B1A9-3C9714B163ED}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{8FC07E7A-A80E-4C65-B3BE-1A40DDA356BD}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{F7791857-C207-483F-8305-AD458EE64C55}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{CB88E2D7-3F2A-48A6-A71A-2595741C7CF5}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{3E41E1D1-B6A9-414D-9B95-4AC7BDAE8B09}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{9CD06A95-074D-4EBB-ACD8-972BF3113FBE}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{9641B3A4-CE8E-43CE-8AAF-5A23DFC8B400}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{684E8A84-F209-4A54-9D23-E5601EC5D78A}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{83C4CAF2-0F1D-4D68-BE95-8A6DCAD4F8A6}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{EBD57529-D516-4437-8BC0-A52CC0C118FD}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{8CA0B878-FB8F-4FE0-9046-8BEBCCC9CD78}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{C10A2269-A3B4-4513-88DC-E7696822F735}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{EB734F08-92CC-4CCB-9204-FE043447E1E5}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{645D0B15-F1F3-43A7-B492-7641C2052F89}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{12E38A47-28A2-4A55-A8E1-FB020C8B8C38}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{479B86DC-830C-43F5-B241-728980A9D9AE}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{107A6175-999C-4FE4-9D94-5689E474D550}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{C3A1A8D8-EF55-44A1-A278-555CD244325E}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{DB8D69D2-FF76-43D0-9DAD-EEB2A9D57D3D}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{94D5824B-BBF6-4DDA-B2C7-A9B7BB51F3BD}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{3D46A1F9-E66E-442F-A16C-310D8121C994}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{73226873-08C3-4258-A37B-DE89ED7716BE}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{1ABC35D4-09C9-43C9-B4FD-D7CE6A46F92E}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{4BB1B643-81DE-4F4F-9F4F-FB0EF6AFDD78}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{CC9B5160-77E0-458A-BFCF-99D4CB97A33B}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{CE1E24FD-43F4-46D8-8D22-54A58F462001}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{B0AA7C79-6104-41B0-A80B-9617F8A59E39}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{B63A7033-65F3-4F76-8FBC-DA227A1BF1F9}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{3BC5B1C1-E49D-434D-9CBB-B404A3A8B27E}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{3D05D8AF-B177-4E0E-8FD8-9C8BD9BE1C22}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{4657AFBB-602C-4549-95A1-E99B334337D0}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{6CC69421-090C-4706-B6BA-745FEA94E169}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{2CC9FBBD-D3E9-4397-95CB-B344FA853905}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{352C08B4-0F81-46EE-8C7D-B91C8213D342}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{807E6E4A-4159-42A2-95E7-2431E74D9B7C}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{651D870D-40D6-4DA4-865D-F71FD9B65F08}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{9BC325C8-08B9-4547-80D0-A4D26F408B54}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{6E089B86-7E38-432D-8CD0-4145A0FCE6DB}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{300CF6EE-28FA-42E7-9269-B9E9A7D1F18D}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{10532524-9928-4D74-B232-B9E1F509C963}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{2E8C185B-16B1-4D09-95C4-D1DD3EB9684B}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{D6EA4232-2A7B-45B2-AA5D-0D5CD0692204}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{B231A357-D5CA-4BA8-84C6-DEE1B401F9B0}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{5E1AD7A9-4142-432D-90CD-EB464D753514}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{8CEB8FD1-00E3-493A-B169-1D16C5A6045E}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{304DAEA0-7DC1-452C-82CA-2274FB1F0235}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{5017F014-AA7E-415D-B17B-723C0138A0F2}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{4BBD06D4-0DB3-4CA5-AC77-0C3CD2F30880}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{14C8224E-3C44-4C39-88F8-E5762048FAD0}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{8256FFF4-F252-4022-A7FB-C64B42D6449A}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{0CFC1198-2267-4591-90C4-E13F90958F03}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{6FCAE19A-1758-4DC2-9264-080F30FCDFA5}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{1856A1EB-BA17-4096-B4B7-BA0971F79C30}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{9A759AA2-8A0A-4150-8494-C5D39E628A6E}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{51A559C7-6FBA-4741-8344-322DACD2AE83}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{E6AD6E42-D8F5-4DDF-B47E-13B183AF4B30}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{05978A32-BFB4-4864-8F3B-40541FB256A4}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{E92541A5-3BD8-4507-9FA6-8DFC067C1DDC}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{0732C682-D4C4-450E-ABCB-D7D3C58AB596}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{E820DFD2-E03B-49D6-9F4F-51A6591585B2}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{8CF8F049-EF42-4EFC-B860-72A8550D88EE}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{2FF53388-718F-45B0-9783-F0FA77BD45B8}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{BC0E8C10-527D-470F-AC20-AEA71082B353}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{B0F79AB3-E424-4A04-963E-2971D38B0974}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{57DC07B7-2F83-40DD-8D6D-8CD97A65FF60}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{8422FC30-E7FA-4EF7-9DDE-C66D9A132B81}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{E65D835C-71A2-4EC8-B8FE-904859F6720A}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{9232EB80-2AE5-4332-BB3F-FA8EAD6CCB71}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{B06FE8A7-2827-43D9-B360-C4B09EC266C1}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{814AFD20-A8B0-4B65-94C8-E9E5E485F403}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{3BF7D263-57C3-4CC5-8054-8FDE4CD9AFAD}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{3865DB81-8827-47FE-81C5-DEA8DD7241CD}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{C5BCACF6-F96C-4063-BC20-BA902650B62C}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{7D39589D-8D19-4C47-9098-A601894A23A1}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{C7FF10FC-975C-46EB-9ACE-75D4A99E42D4}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{B97E1F8A-86E9-47BD-9137-C5BD3A5B3F20}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{9403D2C4-E9A1-47DB-AFC5-FCF141EC48A6}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{A616E06F-B0E8-4C7E-97FE-65005160B4C1}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{1B31E065-2122-4725-95A8-B7437A2FF1D3}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{5E2BBD04-C419-42A9-A11F-94D7F5156E27}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{226940DB-C5FE-46D9-A6A1-5FBD30288B99}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{98E9BAE9-F1B2-4782-813A-7C23D74E0279}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{4A6AB269-F8B7-4DD3-895A-CB6D217232FD}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{F2603728-48A1-4567-B70F-96452888666B}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{C4F57338-BB61-47B0-9ECB-E698CCA63C12}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{70AAAE05-4246-4FCF-BFBC-4FAE205D9A8C}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{F6E54C34-38E4-40E7-B168-752D1893135B}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{F44DA444-C3D9-4C2D-AEE3-2507ABC7C60C}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{EBB9E3BF-8253-4CCD-9B9C-AC191BE4B309}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{7730CB13-ACD7-44B9-A5E6-0D56DFF82FDE}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{FB4E902C-FAA0-4BEE-A24B-F8015EC9714C}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{FF1DC364-570B-45F2-8CA1-B53F514FAC8A}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{48B8C893-F102-45D7-A503-FB2603285E8A}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{3E50D342-6356-4AB8-97BD-FA1AAC9AC449}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{DA308BD2-B4EF-4F41-8C93-4E0EB35694CF}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{05E52B9C-5D7B-4E5A-812C-F6B68B7CBB0F}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{5397A8F9-ADEC-42D5-ADA8-0B30838F0F16}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{D0841D32-2AC2-46C0-9B44-7D11FE5B0EDC}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{34EBD297-7B3B-472D-8CCB-7FA9F758B860}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{65A4A337-3864-4AFB-9F62-D2310E05CDD8}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{44B3CBED-BE5F-4894-9830-03085AD5FE6B}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{D0260C81-9906-48E3-AD23-684FB1A785D0}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{2831EFB8-8EA9-43AD-A5C4-F9ED959209B7}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{A762956F-8320-4E42-9BAB-0DA0D3A36BBC}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{3CE27782-6958-425C-B080-F9413C0A1595}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{685DA184-A626-4429-9008-881DA11CD003}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{124DB67E-8C9A-40C3-B019-941E1EEAE06E}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{38ECEFCA-F07C-453E-A83F-1D2F070A2D90}"/>
-    <hyperlink ref="B439" r:id="rId409" xr:uid="{C878DBAB-7EDC-404D-A771-66B4719DA5A5}"/>
-    <hyperlink ref="B464" r:id="rId410" xr:uid="{0714306B-2B80-4F02-BBCB-D443F45F33D2}"/>
-    <hyperlink ref="B463" r:id="rId411" xr:uid="{D0C062E2-E2B5-4A00-B385-DFB801AD7591}"/>
-    <hyperlink ref="B462" r:id="rId412" xr:uid="{44AC5E45-A37A-47DA-A1A8-494849E7D171}"/>
-    <hyperlink ref="B461" r:id="rId413" xr:uid="{ED9AB397-E2C4-4807-8EF1-1719911533CF}"/>
-    <hyperlink ref="B460" r:id="rId414" xr:uid="{FC4E5FBB-6CCD-48BF-8A34-345B0969E719}"/>
-    <hyperlink ref="B459" r:id="rId415" xr:uid="{BF3EC4FA-E566-4466-98BE-8C4ED096ECAE}"/>
-    <hyperlink ref="B458" r:id="rId416" xr:uid="{96F03252-C2FF-4253-8E5E-2C4FB098294F}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{81D531FF-CF17-4012-8F6A-76ED88722429}"/>
-    <hyperlink ref="B456" r:id="rId418" xr:uid="{D3D298DC-F11C-49C2-B6EE-4EC1F15E2C15}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{6109F9F8-D484-42A0-8E04-D7E022855646}"/>
-    <hyperlink ref="B454" r:id="rId420" xr:uid="{150BBAFB-8A2B-4B65-A242-5EB2F8003DD9}"/>
-    <hyperlink ref="B453" r:id="rId421" xr:uid="{86E8FE60-C4A1-4945-A63A-8070C0A52C05}"/>
-    <hyperlink ref="B452" r:id="rId422" xr:uid="{AE15A2E0-1853-4E19-B35E-197EE9E27707}"/>
-    <hyperlink ref="B451" r:id="rId423" xr:uid="{B8FF708A-2868-4F09-9102-40272AB08773}"/>
-    <hyperlink ref="B450" r:id="rId424" xr:uid="{E25550E3-DED6-43C1-A6BE-0BDF75057A6D}"/>
-    <hyperlink ref="B449" r:id="rId425" xr:uid="{87CF5189-B9AF-4AD6-96F0-E0A26E5F820E}"/>
-    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{B88C5180-7F36-412E-AFFD-90D9542F167E}"/>
-    <hyperlink ref="B447" r:id="rId427" xr:uid="{58C46250-7B93-45BB-BA1A-6D146C6BF16E}"/>
-    <hyperlink ref="B446" r:id="rId428" xr:uid="{F7EA0490-B0F7-4EA6-B32A-F8780CA0DA16}"/>
-    <hyperlink ref="B445" r:id="rId429" xr:uid="{FCF46016-75EE-42A3-8D5B-C22200B6D290}"/>
-    <hyperlink ref="B444" r:id="rId430" xr:uid="{37CE1411-63E4-4AF8-AB74-557182DDEF48}"/>
-    <hyperlink ref="B443" r:id="rId431" xr:uid="{A0DD802B-20B6-4A7C-8026-47DB4D4BD662}"/>
-    <hyperlink ref="B442" r:id="rId432" xr:uid="{DEE8F12B-4E4C-4374-91B1-8FEF75B968B8}"/>
-    <hyperlink ref="B441" r:id="rId433" xr:uid="{DD9BC820-6E80-4CA6-8CA4-D1E6C42E4577}"/>
-    <hyperlink ref="B440" r:id="rId434" xr:uid="{8304A7B3-4AC0-499F-856A-8E02CF2217A4}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{2BFD1F29-8959-423F-9331-4C82B38341DF}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{4AD659C5-C958-4EFF-A054-2E66B493DC9D}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{BB9F5B08-7391-4076-B2C4-E80C01C974A7}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{EB0692A1-204B-4736-BCFD-D2614EDD5666}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{C4986B13-5BFF-466F-9727-AD40CEF15237}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{3F813612-2C35-40C6-BB01-3625B56D9A6E}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{28E64BB0-52B1-4285-A475-B510DDA8AF8B}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{F7B76465-8BE6-449B-BF9E-891D02836769}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{48FC1C9C-BFB9-456E-970F-5E883EB76B62}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{D0CC9110-1EDB-404F-81F9-CB2A4AB1BAE4}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{490B5A59-3DDA-4773-BB39-18DDF434A72F}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{CFA84100-DE97-410A-8D56-11187DD74EC1}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{A80C6644-1483-4E21-8F7E-F40FFE874769}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{76AA1BB4-C7E6-4C34-84EF-B89F60394649}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{B860ED52-AB20-4B2B-BB1F-4607E140901C}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{1D46D4DC-B1DE-4DB8-BCF3-25BB90E21929}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{B9209432-05F8-4D62-AB43-97664ACCA42B}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{FA682E42-A23E-43DA-BA5B-D4F6C3F82994}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{FFB8CD27-DBA2-43BD-ABAC-360738AE6514}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{B6DB5E62-172F-4105-83EA-C0E0638F8219}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{2EB90E78-BDB9-4316-9CC3-FEBF03DE92D3}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{0BDCA3B7-E662-4422-8BF3-C5F0B27DA191}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{E0EBF74E-48BE-4F0E-B8A9-9F0D1C3AF2C4}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{FBC007A0-A798-46F0-9B1B-990506A9FBCA}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{907A532B-7515-4C48-86A5-B8F04E5C590C}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{81DF6482-15AF-4312-AF63-0EF50E01F793}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{3029F5BE-D17F-4CE7-831C-9CEAE04AD110}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{5BD086AA-36B5-483F-AE5E-E18FCBCE8BAD}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{7A3562C9-00BE-44FD-945A-0BF708FD1930}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{A3FC8D60-9037-4A31-85E9-7DE538E555AC}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{AB8B99DB-2A9B-47BC-98EF-DA53C276BCDE}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{961DDBD0-5F20-4BD2-AD09-3F2FCCF62582}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{41AC924F-7CA7-4761-A84F-79D962CBE34D}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{683C35FC-264E-4755-8E4D-B23E39FC9584}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{43CCF25C-A02D-41EA-977A-09CA82B5B4E1}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{7F750F47-F6B5-4E5E-BA71-D0B6F9F045E7}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{4BBFA040-289D-4A1F-A6CD-BBD38B62AD89}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{58461762-8256-4DD8-A8F8-CABA848C60FB}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{8C76CE33-AAB7-42E9-9643-8DF41777ECFF}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{E5F7E32A-27D3-4803-B610-464927B842D1}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{EDC24566-F83B-48D5-9DE6-F5BE2F81B9E6}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{FBD2AB83-5D5F-43F5-B0CC-A93E77FE725F}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{3C1961AF-C1D8-4384-90FA-FCF284357E1F}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{704A2F19-BF65-4B9A-BB61-7AC191552FD2}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{B5C25D13-F0F7-4B08-8855-5A80D725A72E}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{4FE54588-39D9-4A1B-8D55-30153111C086}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{6572021E-DCD3-4258-AE4E-253980550EFA}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{021B938E-280B-477A-98D9-2F38AAF2D7D7}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{40163C27-1133-4235-952D-3F61A2EBBCD2}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{1DD75F76-50B6-4A0E-8F56-D1628CA95224}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{4DE878DC-66F8-40C2-8B63-8FF2053C62EC}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{43FD48E5-DAC7-4A26-83FB-1DB547BD65FE}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{2FDCF045-F41A-46C3-B5B7-50F93DD81B35}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{5BEE759A-61EE-449D-9EDA-3F77E9B95F3A}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{B5582D9E-74CF-47D3-B9D3-06AFADFE4053}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{C11D9709-CAAE-4C47-9722-7F5030576FD5}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{CBFB5799-9F1C-4626-885D-F967B2298766}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{7835670E-486C-45AC-9DE3-5854B304DBF8}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{463E4338-8B51-45FD-AC91-E5DAD9060CD8}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{B9124897-1F2B-4C97-BC10-0D3ABA76E314}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{E9BDCF4D-4F54-453D-BCC8-1B56BD79A4AF}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{303012F8-D5D2-4087-B51B-90CBC5CF8C8B}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{92D0F14C-A98B-4A4D-8D6C-21142A6EB24A}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{AC6527EC-FB1A-40E9-B40C-A1CBD8DEE5CB}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{27D74BF5-4312-4CEF-83B5-1105CB5CD46D}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{54FCA5A4-AF2C-4697-BED2-7BB0AB5D48CB}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{2BC2E097-2AB1-4503-AF2C-87B4825BBADD}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{CC07C426-3BB6-4C5A-8BB3-C6A5EB442E09}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{3B680B91-E148-4D56-9F8F-88EEC93D1ED3}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{5B962C83-9B61-4125-849E-891B3BFAD31C}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{1CD983D0-D827-4F33-9EB5-2780BA03094A}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{CA84141F-6352-4181-A8A0-B6FAE472A8C4}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{EA3B80FC-BE56-4545-B2AA-870A7678DC0B}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{6DD00DDB-4650-4A5D-AC19-66C91E330A8B}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{F6E7A654-DC60-433D-AE69-9D6A6A67BF6A}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{377C0BC0-5637-455C-90EB-D37C3443F0C2}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{5EE423AC-09C6-47AC-90B0-9BA2C026EF4E}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{DCC20956-0063-41A7-950E-91F163779E33}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{CA275300-9EB1-40AB-9EFA-516C6B27871A}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{C8D1779C-D56A-4796-B73F-76FD0D549E2C}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{0C08FEB6-31DA-4305-B3E4-E5BC7A2A7E03}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{76243321-D8D4-4E57-8FE0-9651FB07E75F}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{AC42765E-1666-4E3C-8576-93C73B6894F4}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{0FC6F735-4767-4289-A9CD-FA40B8030A9D}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{7B9B4DC9-3EAF-4547-96AC-A26EC19FD937}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{76AAC50F-E2BD-4CEB-8343-6A0226ECE355}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{315456D0-185E-4A12-95CF-E77FF44F1407}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{F9BF0D22-6458-4A54-A7C4-0ADACB922C47}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{0FBF7817-B28E-4A0E-BBA2-EF3E8C1CD25F}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{EC7BC82E-99B7-4DAE-964B-02331D5CFC23}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{B9B00EDD-834E-4CC2-B3E4-EEE80E6AB7E1}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{5DF1577B-72DB-4CDB-8406-5BD1F003FE89}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{A17BA4F2-7CCC-41D8-B119-E12A2186AE14}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{29F78A36-FEC5-478C-AB59-5B605C61DEE9}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{AC4EC8B4-C459-4C88-9C61-AC6FABC16AF3}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{0E07EAAF-D018-4507-A50E-6FCFBD58991C}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{45AF60D7-DF83-444E-B888-D6B34C6A7086}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{CC1B0D84-19EA-4250-8781-F152F379B025}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{ADD2A86E-C5B2-4FB0-B7D7-440FDE806210}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{40FE2429-EABE-4541-8FE6-34B9DCDD2F02}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{0DEEE02C-371A-4B89-B32C-A7A571148D46}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{13E76FF4-4A0C-40A5-9DC4-E7B55BD9B4C0}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{170B9230-8F35-4450-B64F-C484F7AAEBEB}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{8ED72B5E-50CB-498A-B66E-2FBBC2879FE8}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{B5667883-4D23-464B-BA03-3F750ADD2F59}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{B458B5AF-AFB5-4670-A204-FE74D78C58A5}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{2BE71EDC-8471-4793-B34C-B64C4BFCA53A}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{B33EE431-E3FA-4A2F-B301-8D3AE7F296FA}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{BE0F28D4-CD70-4E56-8E8F-DD6C49D27622}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{E01117C8-88AA-4A60-AA9D-C9028C906FEB}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{ED917AE4-C5B4-43F7-8B5F-118ECCBDD3A7}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{F6CB182A-7C63-4F0D-AFF7-DC6D905BFE41}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{4889D27F-0FE9-40AD-A8FD-07FE29D03573}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{BF370B14-4958-4587-8B80-3AD5CF4EEB1C}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{3F1A83A9-738F-40E0-AE78-FBB649E11C91}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{BEE242A0-DE3E-4B36-B96C-A28DE20E0FFB}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{EB2A7DCA-3402-4656-A659-1B0411A7ABF3}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{601239FC-E78A-428A-B659-27DFC61CED0C}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{26538A94-D895-4F4D-B89E-DF815B4B1616}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{9ACFDC0F-51B0-49B0-9DEC-EEEE49C18279}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{21CC9D70-077B-4904-820A-61BAD5A4EA50}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{95086700-1721-4D89-BD39-B5C9301A2D66}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{2A234724-343C-4305-8D63-BDBE14BEA564}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{0EF7BCC9-BD8B-49BC-8C6F-364B6B2413C9}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{D4D88569-DB31-4ADB-A057-C88CD21E2A8E}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{03DD51A6-078A-499E-8758-1971F0AE3C1E}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{311CF8CB-3728-4EC4-9F70-21B527C9E9EB}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{8D2D9E49-BB6B-4250-B67C-EF5FF63A8F45}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{F950434B-F55C-45E1-8BB4-05BF78A9161F}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{3FB7A893-F905-467E-B36B-940E07FE4CCA}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{F57D7F12-7DF0-410B-B7AB-D7F8676C3A6B}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{FC09B92E-33CA-4393-B657-685B44778702}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{080D59B5-6844-44B5-B0E0-D31B70AE6804}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{6215623D-D8E6-40CB-B466-AAFA9CE8DAD2}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{A6639BE2-1C17-46EA-86DF-C95E23B5FAAF}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{9DD81884-DC8B-4525-A33C-747001B82D17}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{B7EC5768-C25F-49A8-97A6-6C1566FA94CD}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{BB11BA09-0DB5-48EC-83C7-3A392B0FCF90}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{1BDB8C71-F71F-4E6F-95FA-AE8F1BCDEC56}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{62F728BA-3CC6-4FE2-97D4-35D48FCD8754}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{14004CE6-A7EC-4EF8-83FE-23DA66F8B5B6}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{FCDF926B-097E-4567-BC25-BA816D64E25B}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{8B496664-3381-4450-864D-4C910EAB7FEF}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{9C540571-8018-4BDD-B80B-31DEA7BDDEA7}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{1D7E7F39-443B-482C-A791-A455EE087FE9}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{AC565B41-7AE4-4CAE-A7E7-AAB016EB716C}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{EFCC032B-E98A-4DDC-BB21-47AA3EA13B14}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{DE56BDB6-AE68-405A-9215-214B79B6C0F4}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{38F7E8FF-A786-45E1-9E63-613BC946EC4A}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{5D4AFC18-CE64-4B1A-BAE8-1A0E29889D41}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{BD6660FD-6C47-4DEB-AE82-6C940928BFE0}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{346BEDF3-FB48-4965-9973-3265F81F8394}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{FFE464BB-A4FD-4FAD-9192-CB913CFAB7D5}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{E50F8C07-D193-495B-83A0-5A71BE4731DB}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{387FFD15-B5FF-43E2-9F48-D9D5D8BA83B8}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{33E01E06-462E-4992-AE46-3675ECBCE803}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{4BAA5E0E-A80F-4582-BC7A-A75CAC80AFA3}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{0883FBAC-7228-433D-93FE-F5B1D06ADCBC}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{814AEBCF-B9A9-4333-92FF-E5FF71F401E2}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{12EA35AA-7FFE-4643-B822-0B765CFEB337}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{8BCA6F38-F5F9-48B1-9C89-2378E9CAABC3}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{3567B07A-C9BA-4D49-99DC-1247495533EC}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{CF905286-2DD9-4882-A557-8AD0B25202D7}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{3CDFB23D-0B34-4683-8816-F480E1F27762}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{667B6C6B-20E0-41DE-B80B-4BC417742470}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{7D43BD81-8736-4A60-97A6-8A908CC2FF86}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{F5EC122A-4962-4D2E-8C92-E51BD3528214}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{BAF9A05F-277C-4A73-B6D9-89965F327AEC}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{08DE5910-3B0A-4751-91ED-AD86C9D4FCE5}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{16625CEF-9226-4727-B16A-AE0052ECF159}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{838D728A-D80B-48F7-8EEE-2C7B59C6C38F}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{C5D2EF13-5420-4A21-B458-801F5C8A494A}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{9A5BBB31-5E89-48DD-AC8D-AA9EEC88163C}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{4384232B-B8C0-41BD-8308-F35D8E9C15A1}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{528F8F66-4240-45C2-9B1E-5E305166FE27}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{EFBF0B40-E655-4F33-9820-C06328953BC0}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{76125FAF-0AAC-4CB9-B0B7-FAC7D67438CF}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{DEF229F1-B061-44BE-9D5A-1A96264A0A03}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{B49BC0B7-5150-42E2-ABF2-37629BA6D1A7}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{DF33B177-579C-4083-9A73-E31E8DF5D78D}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{78CA671C-FF50-478F-9EAA-7371CF66C20E}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{8B5D9D3C-C2E2-4F34-B4CB-9E746673A46F}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{933C4569-5846-4EF8-AC27-25305AB7C86E}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{2F1F9F6D-309D-4804-B2CC-845669A4B0EE}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{8355C8AC-A66E-4719-95E1-4B650FD11180}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{37C68A88-7116-4B47-9C6A-33493A902FD6}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{A7901B27-746D-44EF-9DD2-5AE4CC7BCBC4}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{CE9702E9-C016-46D0-86BC-21014C636D96}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{EDEEEA92-4ACB-4F8A-8771-4CCFDADF0747}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{05FAFD29-C940-435B-A699-62F266C77552}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{9CA03EAB-FF9F-4021-9A65-BDC0577992F8}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{739E1408-378A-4C0C-91EB-C005A207A9BA}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{7696B5DF-A821-4692-B89C-AD9B81A892BC}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{5108052B-0211-4127-9F80-CB3667053789}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{E258BA47-9BC1-4387-8BA8-2817F445334F}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{151FAF36-0CAF-45FA-A233-9252F2446151}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{E458F7DC-70D4-4CB7-8C94-6EE5BD13391D}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{5F00A87A-FD82-4A38-8896-914F38087675}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{53A65B32-5AF5-47A7-9269-18355287004D}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{DDEDBCFD-3E84-4868-AA80-17A2E7DE2051}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{5AD8583D-9332-497C-9A99-BE509603123B}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{8278CA69-F5FD-4AEE-BAD0-5A656C4375A4}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{73600CDB-F8FB-4E2F-8DFB-AEF5575C05E7}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{FA3950B5-4CC4-4E8E-B7F4-C59511EF5DA7}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{DBDF55CF-6431-4777-A105-C1AD36CF1D2E}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{1A57CDE4-D3BA-491B-9852-4C240AE6CE9E}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{40F4B256-BB66-4CBD-863C-841083D62E39}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{80229ACB-6350-46AE-A94F-E2746F300161}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{CC221F37-E659-4382-A68D-1A45BD40EF98}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{590B5FDB-D956-4A36-A065-46BA1EDCF825}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{3AD44E66-A1F7-400B-AE94-A5BBB0873CA3}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{624E761A-A443-452E-977C-938ADC54946E}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{D9585AC5-F26F-47A2-845D-D7B662F36488}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{60988DD8-9816-4BA8-AA38-9D0F1DD670A2}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{43327097-CE32-4B73-8E70-865932B06817}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{D8AA1D41-B217-4064-8D3A-E81B719CA852}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{6AE69FB1-DCF9-405B-BF5D-6E3EEBF16E59}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{7E2C3841-232B-40FF-91B1-44325820F449}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{AD6CCB4C-B584-4FAE-B9F1-217EDAC2F48E}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{28B9CBDD-6E21-44D4-9EF2-22A3E72E3E19}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{D2727C6A-7C30-489D-A243-2B2DADCE1C0F}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{D69FE183-D304-4156-AC9A-E728FA86C464}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{B8F4581F-36A6-43BC-BD38-8B6A207ECF5F}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{143CE662-D413-4FF9-8302-8A1A465544B9}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{5B9DDE73-530F-45A2-9773-F3F8FE409049}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{35D6E9F3-ABB2-4A9A-9006-56702E9B5FF0}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{2FE0C3C5-FEB6-469A-B748-3ED7AEDA1BBD}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{135F22B1-D48B-4B37-ADD9-B0E428DA9213}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{A47AECD4-D605-4032-853A-A77952B0F6C4}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{24EA90D7-A5F4-4F08-9198-2167BB9417FC}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{7DCE6063-AF22-4ED9-AFB5-DAD718518507}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{9F9243DF-93FD-4864-85E4-1D94531D38C2}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{8969E86E-EBF7-48E7-AC4D-3E2FFC610E48}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{D759B78D-9579-43E3-8199-0BEA90A82062}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{05B07711-6D62-48AA-A3BE-F5B7D40D46B0}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{F7E3F33D-21DA-4587-A806-25327ED5BFFB}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{0EF0E466-6DF7-49AC-A97F-DE56ED9AC8AC}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{0E455659-C0BB-4E8B-A84F-411AF833BCE8}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{639957A7-CDB7-4E8D-AA24-25E1F5B846E7}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{6F79D919-FE3C-4519-9AB9-021601074E3C}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{0C5D4F7E-CF91-4696-BC5D-076F55E2E0AE}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{3F318A4C-76C5-4414-9B78-42BE106F211D}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{37F84D11-869B-4C06-9A97-096B03CBA328}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{B190676C-7F54-43BB-80C6-F54E7654A6EB}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{869133EC-121A-45CD-8839-B26C8F84492A}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{B534C923-28F3-4A55-8B85-4EF837E005A8}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{FD789FE3-B42E-4E85-926D-FD090B68B899}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{266D7330-7C59-4854-99CB-F7608BDF7DFD}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{43BCC61F-1A70-43C7-9C02-4E6C0AE91D82}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{B98C157C-FAE5-4FEB-B2BC-DF4E59CAEE8A}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{A0933403-ECC8-4B71-9E93-29A05C0EAE52}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{386937D6-BE71-44B7-A420-F8DDDEA2B9AD}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{0F9AE5E5-7877-4E03-88D1-6F05D1FCD96C}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{D3DC376A-78D8-4911-AE89-DBB75844A1F1}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{A4E47E56-19CD-48AE-8467-78D35C46B5D7}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{EEBBABC1-D866-4D97-AEFD-2A53F2ACE98E}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{A7C77F46-DDEA-4C78-9351-268EA494E52B}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{8A246177-DADE-420A-89FD-93813D6A197E}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{285F5905-8A21-4893-87B5-D10970D289C6}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{ADE98CC7-9A58-4DDF-B6D5-38FB89DB7F89}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{D234729F-196C-4C0C-A920-55867DD88CBE}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{D0B2C5D1-3E82-42C4-91D0-042A54A1AF57}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{766C08F1-5A88-4FBE-83CD-1587803C0AA4}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{984915D7-446B-4010-BC60-442DB936E6B7}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{8B40A467-85C7-4230-9A2B-4BE0FB22A907}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{0C87D3BB-77C8-425B-9EA1-D9048B7BD38A}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{473155DE-56D3-4AF4-9868-F7643A95B1AE}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{B62A28C4-3CBB-47EB-BF3A-411ADF459FE2}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{C34CBF5F-1B4D-433E-83CF-43B47D5BB9F3}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{F9D293C3-3840-436D-9B6C-155F5CA14BCE}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{2E9F03E6-8B88-4986-B630-DBD94A69319E}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{5EB0D117-56D9-4FE8-A13E-43423EE08DB7}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{DC31DB62-31EC-450C-B54E-0DE44A7BC563}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{77DDBD33-C37F-4E78-A857-28D59D75CD64}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{2FE6C4ED-C387-4122-93C5-2B6A6005524B}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{0A068572-4384-4387-ABBC-BDDC23D2BDD7}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{2515D86A-3364-42EB-838E-CE331D5CBAFC}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{8EFC3870-D063-4908-AAAE-B104666DCBE0}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{CFE0ED23-568D-4C3D-AAAD-88447C3215AC}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{3797D2B6-8380-42CD-9091-A788C7B25FF9}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{FA3977D4-C58B-47BC-81B5-347F03004BD5}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{EB5EFEBE-30AE-4DC5-864B-F3B4CE4E7117}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{D9093247-BA37-422D-B4B4-F06F9B43FE33}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{7E5909F5-24A3-48E2-9039-7CA7E9A128F0}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{32ADA13C-429D-4A16-A09D-F66BD64EB91F}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{5971F1A1-4BFD-4D57-BE16-63446C09AC21}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{FE5AFEEA-633C-48B6-AEF6-8F47BFC45379}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{BD5B501B-4EC0-463C-9AE2-99ECEC44A20D}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{97A4DE55-5C6C-46AE-A491-46801DCB819A}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{4E5AD070-973A-4C8D-8DE8-94802B980DC5}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{229B82B9-875F-49BD-9988-C1C65792545C}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{E4BD6AAA-3BBD-46E6-8EBA-7A975F4AF3AE}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{17D43AF3-40BF-439F-ABC6-3C96A02DE1AA}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{4976F506-7D68-4ACD-915A-88A9823403EE}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{865CE150-47AD-4BAF-8F2F-97ADF907BF7E}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{35D7DAB1-88F6-47AA-817E-F51916D0884C}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{7EA62B6D-D4FF-4F5A-A10F-13964FC900AF}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{43450759-0B22-4C2C-8E59-30C99480DF66}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{190F4D55-B349-4E0E-9E36-F1B195CC2998}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{4CD919F3-837D-49FB-BDB2-3279C3168C6A}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{DC3E0055-933D-4D35-9A17-CD1177ED0F31}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{12A7C597-3AFC-4A00-8BA7-34ADA208AB50}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{E89ADC30-23DC-426E-BB4A-90276FD63A02}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{23716D29-9551-4CD6-8F0B-3EE8AA0FD126}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{60C1552B-3E90-410E-B415-326A03E3C5B1}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{0391608B-C9E2-4531-BA4D-C8FA795B3A1C}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{860423DF-EB46-48A7-BF55-9F75B6C7EE6B}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{3FF2A1FD-8B0A-4D7C-B725-0B9F8F4159F0}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{3679D1E6-607C-4938-A7ED-1B8F1828CBB5}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{C9B2FD3D-CD4B-454B-AE6B-0A4DD2777135}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{23056310-A26E-4248-9397-3445760CC605}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{E5FA475F-2FEB-49F5-B97F-3CA50D5BE195}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{CFF71859-6583-47E4-8936-803A43E9AD7B}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{B6064EAE-7538-4C0A-8426-121F7327818A}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{7090D6D5-3874-4034-B647-965DE6635DBE}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{B07B3A3F-CC26-48F0-B21B-A42832D09483}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{A02BE037-E241-41C4-80FD-ACCF75845DBB}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{4848D1A0-6221-438D-B12B-53AE59114E3D}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{BDA5FD08-D721-4803-B7A9-2D45319467C6}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{A80766CF-BBB1-4C39-A0D7-27E845F57126}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{699FAD5B-1029-471A-966C-7C1DE56CB356}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{23E0CC4D-3518-4C52-BEF8-24B4B29F6945}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{29756643-8495-4EB6-83E0-36E44841617B}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{998A969A-79A9-4960-94EB-F0E4AD668D57}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{1B6DAE10-7401-40E7-BD9D-71A0824F6242}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{B3F6F3FD-7ACE-47CA-9FD4-935523640D9D}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{BDC81D4B-CA03-4E6B-9062-877B1394080D}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{4924895B-347D-4D14-A53A-85A99DD3EC5E}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{0E2BE328-0393-456D-94BB-8F9862184CAF}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{07B7FFDD-F11B-4EAB-875F-C3F238D0C594}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{3E6D87AA-9954-4BBC-8309-C27509A0C58F}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{8EB937FC-91E4-433C-95F9-8BC7FF71E5C8}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{34FED5E7-A770-4B84-A8A3-501569A6924D}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{63DF4EEE-277F-4553-8537-3B509541A458}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{19CF8B10-6602-4315-818E-3893C9AB9595}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{1CF10380-1A19-4B28-9106-AA032D4744CF}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{1A1C8D01-1840-46BB-A789-A49FC0510022}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{033B850D-5C49-4A3F-9451-F2651C57C2AC}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{ECB1FA7D-6D28-4B28-8AB8-8EB01D2D8023}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{CC08D037-8539-4F6E-9590-95F705A28617}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{43F394FE-C6FF-45BA-93EC-9BF64F7C3FEE}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{5AAECF46-8D1C-430D-8030-99E712898DBF}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{0BD59E36-338C-4E9C-88C9-A6EF79AC7393}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{FE0596C9-4601-4FF5-8170-DBF29BCF13FC}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{0FF00122-BB55-4E6D-AE5B-5971E9B21353}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{EC7AFC37-DF53-4CFB-858C-6F4544E575D8}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{22760100-1194-4691-A6B6-FEE584A4AD1F}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{34A64440-7826-4EB5-BF35-CC7CD91CD670}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{CC26C103-1F81-4393-ADCA-6425BD75402E}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{6D84EE7A-4A51-4F81-AD44-555EBA6AE483}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{386D872F-6693-491D-8847-DB9EE88CCE4D}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{643AA767-9079-4F6E-842D-4E9732DC7A28}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{6D03B0C9-DAEB-49F8-BF92-9250A17F1907}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{E9D3BCAB-CEB9-44EF-AA2C-D5E882D94D46}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{563F9377-E224-468C-A72B-7F02802360C7}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{B55F3BBF-B540-4361-9FB4-207E7DCFF3A8}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{6653572E-1980-4514-9237-9FDB21DADF02}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{B29EEF26-44FB-46DC-88D1-5B059D9C9E6D}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{C84BA356-F6D1-4E7F-A1FD-70A8EC717E63}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{46A45CF1-AAA9-44FB-8F87-6DB846CDB5C1}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{FBA90DC1-5204-47A7-B85F-0B9076F4F4FD}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{C8D01668-CE3C-4014-B1C5-8B47C184AC37}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{328C5548-EE1A-4C97-BBFE-6CF171843E69}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{2AC05637-72C4-4D21-A395-465F7C10AB03}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{62D400BC-1645-471B-9CEF-C3F44B1DC482}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{95BFE433-A372-4F0C-AEBE-2C35CD4D85E0}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{7024998A-B758-4269-B11A-5267F8E5D1BC}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{643F7BFA-0944-4920-8D7B-7DC8DD712FE4}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{B1D90C06-39ED-4A2A-967B-8857B2B0E132}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{E9E3B413-FF0C-4D0A-B4CE-B9DA8D72AC1B}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{06E8EC6E-9AF5-4406-B84D-338F7F005D6E}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{97AE452E-3F0E-4BE6-973A-6CA2B7E46FCD}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{E6551E50-CEA7-4739-9621-9816653081F3}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{92EBDD49-CD4C-4054-8266-6D881EEB32E2}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{BC0B5984-B648-4FAF-8D51-9D2F3A95FB51}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{6F1A4887-DF3C-44AB-8195-4A8DA14DD67F}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{DEC6AEB5-BC98-4366-AAFD-03CEAB6AD904}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{A444F1A7-EA54-4BE8-AE01-3682A37B7DB8}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{0939CD26-02D3-4DA7-A2CC-5264C482D543}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{04DE26B8-B89E-4C87-A19E-D92AA64ACD3B}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{3B4D535F-A73F-4C91-8D31-64E4902669E9}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{D078A354-9BD4-4734-B2C4-1DFCD0FB19B1}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{4D181736-0AFF-4061-8999-FEE2F50157BA}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{0CF9D92E-A0D7-448E-81F4-159BE9315F6F}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{538B12E6-59E8-43BE-AC35-76145C99C09D}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{0CC1C0AA-2B07-4B99-A79B-6ED63C0699B0}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{6DE8A184-7FC7-4DE6-B454-82AD5C5F15BF}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{FC9B8EA6-24D1-466B-BA66-B0B1B1D4B0E8}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{D71917C8-4543-4D0E-9E49-FE9CBB488194}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{CD70421B-B2E7-4381-85D0-613800FAFDA8}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{FE6F19DE-D44F-4851-9FB2-FC4402D8E89F}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{7E533D2D-6D67-48CE-A4EA-FE972524A669}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{D6D86EFB-D924-4C47-B247-A97252AD3829}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{BB1CAAB0-4978-4995-B3E4-562DC6DAAE3A}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{582ABF72-D0C7-44DB-BBD9-5C1FC30C8735}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{4CB3F0BB-9CF7-431E-B532-514CF91125FB}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{E548F94F-18D7-4BE4-A0C1-3F75270E6FDA}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{6CDD5AC4-2D2D-4796-9281-412421790F45}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{5951BE76-8CF3-492D-B75B-2A17152A014F}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{9027087C-53BD-4FFA-BF13-2F66E34A3456}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{E45BC401-5FEF-4275-84A9-576692C217D6}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{12F2A213-1C63-4E32-AA3E-7D2F3B099323}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{8E0D298B-31FB-4A72-AF6D-0FBA1BA4FE00}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{3734EFF1-0511-4191-A6E3-C6797A0968F1}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{1F7C706C-4E5E-4166-A543-FBD0FE0CF457}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{01202B1F-936E-47FC-BD82-3DB69F43165C}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{F17E29C6-5397-4F68-9344-193EF773B3E4}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{FBCE749C-C154-4AB5-A29E-F0275D687107}"/>
+    <hyperlink ref="B439" r:id="rId409" xr:uid="{05187D58-50CD-469C-BA10-A8DC4FB4B7EA}"/>
+    <hyperlink ref="B464" r:id="rId410" xr:uid="{091FCAA6-D2FC-4D81-9315-67DF119BBE0E}"/>
+    <hyperlink ref="B463" r:id="rId411" xr:uid="{05BEFF46-F631-40AC-8075-B1FA9AEBFE02}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{A1CAECEA-F7EC-423E-870F-035503EE2EBC}"/>
+    <hyperlink ref="B461" r:id="rId413" xr:uid="{1CE66FF8-6445-42C2-B9D8-83B5895C95C3}"/>
+    <hyperlink ref="B460" r:id="rId414" xr:uid="{2E57A806-1670-495A-9C8A-29A65D75E6C7}"/>
+    <hyperlink ref="B459" r:id="rId415" xr:uid="{CFD87B43-3AA7-4455-866B-2864933762C4}"/>
+    <hyperlink ref="B458" r:id="rId416" xr:uid="{5D173755-D199-4D07-B25B-03069B753472}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{46633AE7-B80D-4846-B7D0-03D2EE69FD5C}"/>
+    <hyperlink ref="B456" r:id="rId418" xr:uid="{EFDF51D2-DAD6-409E-998E-5A1536B72187}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{A5D80A83-7FA0-44EA-99AE-8E66C9542E36}"/>
+    <hyperlink ref="B454" r:id="rId420" xr:uid="{1920C962-871B-45FD-9179-06408F3F8669}"/>
+    <hyperlink ref="B453" r:id="rId421" xr:uid="{BAF34401-8764-40CD-B645-DB3DAC90019B}"/>
+    <hyperlink ref="B452" r:id="rId422" xr:uid="{046BFA75-2FB4-4490-82FD-4D93AF915E61}"/>
+    <hyperlink ref="B451" r:id="rId423" xr:uid="{808597BE-CC2D-4E0C-926C-175D8B88990C}"/>
+    <hyperlink ref="B450" r:id="rId424" xr:uid="{36644D2A-3C20-45D8-8515-9044ED138444}"/>
+    <hyperlink ref="B449" r:id="rId425" xr:uid="{222183F1-870F-4C5B-ABB5-85372D7F03B7}"/>
+    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{7F65555B-4B2D-49B5-A951-8CDE34A9F20C}"/>
+    <hyperlink ref="B447" r:id="rId427" xr:uid="{9EB4CF17-495C-4884-B5A3-3EA31CDAFD0F}"/>
+    <hyperlink ref="B446" r:id="rId428" xr:uid="{55D0BAC2-2E76-427F-B732-2462295C5C62}"/>
+    <hyperlink ref="B445" r:id="rId429" xr:uid="{596A3CA8-3645-452B-9DDE-FFD7C6F1DBAA}"/>
+    <hyperlink ref="B444" r:id="rId430" xr:uid="{C98AD32C-3E7A-4A63-ABE8-3C168121C17D}"/>
+    <hyperlink ref="B443" r:id="rId431" xr:uid="{E181D3EF-E09A-4877-A3EE-F4228A8F85A9}"/>
+    <hyperlink ref="B442" r:id="rId432" xr:uid="{11D2EC39-7A55-4F5F-91DF-FFF18C9A66BB}"/>
+    <hyperlink ref="B441" r:id="rId433" xr:uid="{37424F5A-4A56-423A-B41C-D90F939DA784}"/>
+    <hyperlink ref="B440" r:id="rId434" xr:uid="{B272D0C5-4205-4D74-AA7E-FEC6B701B48F}"/>
+    <hyperlink ref="B512" r:id="rId435" xr:uid="{A00F3CE5-4A9A-4214-964D-7B2AC1DD80F0}"/>
+    <hyperlink ref="B511" r:id="rId436" xr:uid="{EC528C9B-6C69-49AD-A1D6-888D1CD18FF8}"/>
+    <hyperlink ref="B510" r:id="rId437" xr:uid="{20291E07-BAC6-4BC1-9026-9E1AEBD86FE4}"/>
+    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{46C21DC6-EA52-4954-A96C-1FB9384E8195}"/>
+    <hyperlink ref="B508" r:id="rId439" xr:uid="{50FE27DA-8A0F-4144-A5D6-F5CCCB7DB246}"/>
+    <hyperlink ref="B507" r:id="rId440" xr:uid="{15A4254A-4CFB-4852-B5EB-1DDB8AFF73A5}"/>
+    <hyperlink ref="B505" r:id="rId441" xr:uid="{872DB43D-8D57-4A87-BCD0-193613EDC883}"/>
+    <hyperlink ref="B504" r:id="rId442" xr:uid="{DCEC5828-5E07-40F3-A66F-EED345EC0684}"/>
+    <hyperlink ref="B503" r:id="rId443" xr:uid="{96C0FDFD-3ED7-46EE-B37B-A39DBCA70911}"/>
+    <hyperlink ref="B502" r:id="rId444" xr:uid="{1B5372AA-0338-40B3-81C1-622279C889B8}"/>
+    <hyperlink ref="B501" r:id="rId445" xr:uid="{576DDBB0-744F-4E82-A940-8C9D5BEC7854}"/>
+    <hyperlink ref="B500" r:id="rId446" xr:uid="{8E80C883-46C9-435B-8296-4CFF8FB31C49}"/>
+    <hyperlink ref="B499" r:id="rId447" xr:uid="{713546DD-F9DE-443C-8A21-947FB3CCA63B}"/>
+    <hyperlink ref="B498" r:id="rId448" xr:uid="{F333BDFA-F0F5-4695-A2E4-A266CACFB18E}"/>
+    <hyperlink ref="B497" r:id="rId449" xr:uid="{C11D9B64-3592-4CBE-9AFC-012498085B12}"/>
+    <hyperlink ref="B496" r:id="rId450" xr:uid="{D3219ED3-E447-4AB1-B7E5-A4763FC51310}"/>
+    <hyperlink ref="B495" r:id="rId451" xr:uid="{A1C2AD52-3A46-4976-8158-91E535580353}"/>
+    <hyperlink ref="B494" r:id="rId452" xr:uid="{4303B1D8-ABE1-4DD6-85E6-82BFF337CF15}"/>
+    <hyperlink ref="B493" r:id="rId453" xr:uid="{93D84900-8A44-438E-A7EB-11F96B2BFF86}"/>
+    <hyperlink ref="B492" r:id="rId454" xr:uid="{08FFFA77-455A-4315-A0F2-40889E2BEECD}"/>
+    <hyperlink ref="B491" r:id="rId455" xr:uid="{6BAC983E-B13F-461B-A91E-0EC027CAAE5E}"/>
+    <hyperlink ref="B490" r:id="rId456" xr:uid="{B9BED64A-EA11-405E-AEA4-BF1EAA92F84B}"/>
+    <hyperlink ref="B489" r:id="rId457" xr:uid="{0772359B-05C0-41BC-85CC-A3EA9D4EAFF2}"/>
+    <hyperlink ref="B488" r:id="rId458" xr:uid="{A523F0AC-2D8B-4CE3-9CA6-A5ED6D95B9E9}"/>
+    <hyperlink ref="B487" r:id="rId459" xr:uid="{92A9D318-83B1-4D21-A341-344B513AD057}"/>
+    <hyperlink ref="B486" r:id="rId460" xr:uid="{43D18051-EEB6-42E6-8906-C8C5BFEE9561}"/>
+    <hyperlink ref="B485" r:id="rId461" xr:uid="{0F182A39-5660-4DD6-BE9F-9EF89FE4F059}"/>
+    <hyperlink ref="B484" r:id="rId462" xr:uid="{3FBFD239-8326-4ABD-A2B4-D2D60E00D183}"/>
+    <hyperlink ref="B483" r:id="rId463" xr:uid="{0EA491D0-7838-4115-8FDF-17260A765743}"/>
+    <hyperlink ref="B482" r:id="rId464" xr:uid="{EA540F9D-4F99-4C12-8E91-C965CA39BCEE}"/>
+    <hyperlink ref="B481" r:id="rId465" xr:uid="{59EB46C1-F4F7-4951-8328-36D6B25D14F7}"/>
+    <hyperlink ref="B480" r:id="rId466" xr:uid="{9BC07174-1812-45AD-8849-41BCA66643B7}"/>
+    <hyperlink ref="B479" r:id="rId467" xr:uid="{29A99605-1633-47B0-B2E0-9E7A5BB4FAD1}"/>
+    <hyperlink ref="B478" r:id="rId468" xr:uid="{E83A6896-EA8D-4FA3-A3E3-CE075C77471B}"/>
+    <hyperlink ref="B477" r:id="rId469" xr:uid="{4FCCD65F-A13B-4F4B-A51C-E2E624D90A8B}"/>
+    <hyperlink ref="B475" r:id="rId470" xr:uid="{C557E273-854B-427F-9024-BFBFD3AD7D40}"/>
+    <hyperlink ref="B470" r:id="rId471" xr:uid="{B9B6C8C0-437F-44AE-B3A5-6A3D0777F76B}"/>
+    <hyperlink ref="B476" r:id="rId472" xr:uid="{4F76F1D2-599C-4E5F-8C38-02CE81EACC4C}"/>
+    <hyperlink ref="B474" r:id="rId473" xr:uid="{5791C323-B633-4747-A472-42288AF4E941}"/>
+    <hyperlink ref="B473" r:id="rId474" xr:uid="{4666B436-B3A9-4CE4-8EEF-6D980101E572}"/>
+    <hyperlink ref="B472" r:id="rId475" xr:uid="{473784ED-FF88-4AF7-8D18-433D73E3D878}"/>
+    <hyperlink ref="B471" r:id="rId476" xr:uid="{43CCF6F9-F97A-432F-9703-FBC79702AB9A}"/>
+    <hyperlink ref="B469" r:id="rId477" xr:uid="{6751702C-01F4-4701-BD6D-3B7C8C296AD3}"/>
+    <hyperlink ref="B468" r:id="rId478" xr:uid="{FF594BD6-D4A6-4B61-B53D-6A27ECE2EAC6}"/>
+    <hyperlink ref="B467" r:id="rId479" xr:uid="{94677A14-50C0-4056-B342-6359E72894F6}"/>
+    <hyperlink ref="B466" r:id="rId480" xr:uid="{48BA72E6-D027-4467-AC2A-D8D48876F670}"/>
+    <hyperlink ref="B465" r:id="rId481" xr:uid="{E52DA064-63BA-4014-AA73-54A048AC3B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId435"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId482"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAEC44-0030-4A20-9BB4-66DDDE544C21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC7C1D-FEC6-4DBE-BD1C-33D5168AAC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1074">
   <si>
     <t>titulo</t>
   </si>
@@ -3100,6 +3100,162 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/3fcd97b6-991a-4f04-9754-36e4591fd083?title=Papo%20com%20Joao%20Nogueira%20Batista%20%7C%20Wiz</t>
+  </si>
+  <si>
+    <t>TC | Reunião de dúvidas com COO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ab97b222-02dc-4e21-bfd9-e5b806cff6c7?title=TC%20%7C%20Reuni%C3%A3o%20de%20d%C3%BAvidas%20com%20COO</t>
+  </si>
+  <si>
+    <t>LWSA | Call com MarketUP @Poli Finance</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/37b79431-c510-8651-3de5-c4c54d0677e0?title=LWSA%20%7C%20Call%20com%20MarketUP%20@Poli%20Finance</t>
+  </si>
+  <si>
+    <t>LWSA | Call com Nuvemshop @Poli Finance</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/54b3bff3-847d-809e-77aa-13b9e8b06c49?title=LWSA%20%7C%20Call%20com%20Nuvemshop%20@Poli%20Finance</t>
+  </si>
+  <si>
+    <t>LWSA | Call com Loja do Ecommerce @Poli Finance</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/abcad0d7-a9a1-115a-d365-d681965d1d6f?title=LWSA%20%7C%20Call%20com%20Loja%20do%20Ecommerce%20@Poli%20Finance</t>
+  </si>
+  <si>
+    <t>Unifique | Pilot Fishing Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2042a19e-512c-45a2-b62b-2bad877d374d?title=Unifique%20%7C%20Pilot%20Fishing%20Management</t>
+  </si>
+  <si>
+    <t>Reunião com Acesso Bank | Davi Holanda e Israel Salmen</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c3c04f71-84ce-7d6d-18e3-9b758ffffec7?title=Reuni%C3%A3o%20com%20Acesso%20Bank%20%7C%20Davi%20Holanda%20e%20Israel%20Salmen</t>
+  </si>
+  <si>
+    <t>AURA | Call com RI sobre modelo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a23b3805-1970-4454-8cb6-b9852f14582f?title=AURA%20%7C%20Call%20com%20RI%20sobre%20modelo</t>
+  </si>
+  <si>
+    <t>Armac Call com Herivelton | Manserv</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8d986bba-0ab0-f645-4166-4f5bf3c050f8?title=Armac%20Call%20com%20Herivelton%20%7C%20Manserv</t>
+  </si>
+  <si>
+    <t>Wiz @ BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6b9a5616-18a3-4bba-acf7-87c86a66c6f0?title=Wiz%20@%20BTG</t>
+  </si>
+  <si>
+    <t>ELMD | 1x1 com Leonardo Chebly - NEOOH</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/764fe6b3-0bcd-fa6f-38b1-faf05c4a237b?title=ELMD%20%7C%201x1%20com%20Leonardo%20Chebly%20-%20NEOOH</t>
+  </si>
+  <si>
+    <t>Intelbras @ BTG Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f9ebda9e-40fb-413f-81c1-326e23e96a99?title=Intelbras%20@%20BTG%20Conference</t>
+  </si>
+  <si>
+    <t>Tech Room - CASH3, MOSI3, ENJU3</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fec24963-6e0e-e829-1064-1de8d632db3b?title=Tech%20Room%20-%20CASH3,%20MOSI3,%20ENJU3</t>
+  </si>
+  <si>
+    <t>CTC | BTG CEO Conference 2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3b7d1155-0721-460c-9746-0b8092375dfe?title=CTC%20%7C%20BTG%20CEO%20Conference%202021</t>
+  </si>
+  <si>
+    <t>Ambev @ BTG Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/326ef517-756f-4136-9d51-ec67bcb4c072?title=Ambev%20@%20BTG%20Conference</t>
+  </si>
+  <si>
+    <t>Hapvida @ BTG Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/16bb9a05-b9e9-42a1-8635-e623bc6775b6?title=Hapvida%20@%20BTG%20Conference</t>
+  </si>
+  <si>
+    <t>CVC | CEO Conference BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7a4e72a8-6a0f-7152-a0a2-458ec3f2689d?title=CVC%20%7C%20CEO%20Conference%20BTG</t>
+  </si>
+  <si>
+    <t>Armac | Call com VP de Operações Manserv</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cb3f02d7-21f6-a49b-6de5-0a30d8fa3dd3?title=Armac%20%7C%20Call%20com%20VP%20de%20Opera%C3%A7%C3%B5es%20Manserv</t>
+  </si>
+  <si>
+    <t>3 Tentos | CEO Conference BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/941c5529-b95b-48ea-ad4c-8b133d369bb2?title=3%20Tentos%20%7C%20CEO%20Conference%20BTG</t>
+  </si>
+  <si>
+    <t>Unifique | IE com XP</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/aa003ee1-eab7-a17b-ade5-0312516e3e1e?title=Unifique%20%7C%20IE%20com%20XP</t>
+  </si>
+  <si>
+    <t>TC | Reunião com COO sobre Churn</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5c6ddaaf-c894-4d12-8579-73fb3463208e?title=TC%20%7C%20Reuni%C3%A3o%20com%20COO%20sobre%20Churn</t>
+  </si>
+  <si>
+    <t>Armac | Questões fiscais com IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/33a4e5f2-9830-68f0-15fd-73242c401e5d?title=Armac%20%7C%20Quest%C3%B5es%20fiscais%20com%20IBBA</t>
+  </si>
+  <si>
+    <t>B3 | BTG Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c7b0a1b2-574e-42fe-9d52-a1b7069315fc?title=B3%20%7C%20BTG%20Conference</t>
+  </si>
+  <si>
+    <t>Carrefour | @BTG Conference</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c3efb604-ce22-4c4f-a5e1-f3ab7cb8f821?title=Carrefour%20%7C%20@BTG%20Conference</t>
+  </si>
+  <si>
+    <t>Armac | Call Com Daniel Escad</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/81bf4459-fec7-f1ed-f76c-9344373161f0?title=Armac%20%7C%20Call%20Com%20Daniel%20Escad</t>
+  </si>
+  <si>
+    <t>Armac | Call com Gávea</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2fc74be4-7396-3e52-fcd7-9b7d6dba1b19?title=Armac%20%7C%20Call%20com%20G%C3%A1vea</t>
+  </si>
+  <si>
+    <t>Armac | Papo com ex-estagiária/ex-analista</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/23f436ed-1e00-13ce-3ebb-316a47e61683?title=Armac%20%7C%20Papo%20com%20ex-estagi%C3%A1ria/ex-analista</t>
   </si>
 </sst>
 </file>
@@ -3497,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A514" sqref="A514"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,491 +7761,725 @@
         <v>1021</v>
       </c>
     </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{2BFD1F29-8959-423F-9331-4C82B38341DF}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{4AD659C5-C958-4EFF-A054-2E66B493DC9D}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{BB9F5B08-7391-4076-B2C4-E80C01C974A7}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{EB0692A1-204B-4736-BCFD-D2614EDD5666}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{C4986B13-5BFF-466F-9727-AD40CEF15237}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{3F813612-2C35-40C6-BB01-3625B56D9A6E}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{28E64BB0-52B1-4285-A475-B510DDA8AF8B}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{F7B76465-8BE6-449B-BF9E-891D02836769}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{48FC1C9C-BFB9-456E-970F-5E883EB76B62}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{D0CC9110-1EDB-404F-81F9-CB2A4AB1BAE4}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{490B5A59-3DDA-4773-BB39-18DDF434A72F}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{CFA84100-DE97-410A-8D56-11187DD74EC1}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{A80C6644-1483-4E21-8F7E-F40FFE874769}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{76AA1BB4-C7E6-4C34-84EF-B89F60394649}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{B860ED52-AB20-4B2B-BB1F-4607E140901C}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{1D46D4DC-B1DE-4DB8-BCF3-25BB90E21929}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{B9209432-05F8-4D62-AB43-97664ACCA42B}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{FA682E42-A23E-43DA-BA5B-D4F6C3F82994}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{FFB8CD27-DBA2-43BD-ABAC-360738AE6514}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{B6DB5E62-172F-4105-83EA-C0E0638F8219}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{2EB90E78-BDB9-4316-9CC3-FEBF03DE92D3}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{0BDCA3B7-E662-4422-8BF3-C5F0B27DA191}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{E0EBF74E-48BE-4F0E-B8A9-9F0D1C3AF2C4}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{FBC007A0-A798-46F0-9B1B-990506A9FBCA}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{907A532B-7515-4C48-86A5-B8F04E5C590C}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{81DF6482-15AF-4312-AF63-0EF50E01F793}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{3029F5BE-D17F-4CE7-831C-9CEAE04AD110}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{5BD086AA-36B5-483F-AE5E-E18FCBCE8BAD}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{7A3562C9-00BE-44FD-945A-0BF708FD1930}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{A3FC8D60-9037-4A31-85E9-7DE538E555AC}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{AB8B99DB-2A9B-47BC-98EF-DA53C276BCDE}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{961DDBD0-5F20-4BD2-AD09-3F2FCCF62582}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{41AC924F-7CA7-4761-A84F-79D962CBE34D}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{683C35FC-264E-4755-8E4D-B23E39FC9584}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{43CCF25C-A02D-41EA-977A-09CA82B5B4E1}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{7F750F47-F6B5-4E5E-BA71-D0B6F9F045E7}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{4BBFA040-289D-4A1F-A6CD-BBD38B62AD89}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{58461762-8256-4DD8-A8F8-CABA848C60FB}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{8C76CE33-AAB7-42E9-9643-8DF41777ECFF}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{E5F7E32A-27D3-4803-B610-464927B842D1}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{EDC24566-F83B-48D5-9DE6-F5BE2F81B9E6}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{FBD2AB83-5D5F-43F5-B0CC-A93E77FE725F}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{3C1961AF-C1D8-4384-90FA-FCF284357E1F}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{704A2F19-BF65-4B9A-BB61-7AC191552FD2}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{B5C25D13-F0F7-4B08-8855-5A80D725A72E}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{4FE54588-39D9-4A1B-8D55-30153111C086}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{6572021E-DCD3-4258-AE4E-253980550EFA}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{021B938E-280B-477A-98D9-2F38AAF2D7D7}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{40163C27-1133-4235-952D-3F61A2EBBCD2}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{1DD75F76-50B6-4A0E-8F56-D1628CA95224}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{4DE878DC-66F8-40C2-8B63-8FF2053C62EC}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{43FD48E5-DAC7-4A26-83FB-1DB547BD65FE}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{2FDCF045-F41A-46C3-B5B7-50F93DD81B35}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{5BEE759A-61EE-449D-9EDA-3F77E9B95F3A}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{B5582D9E-74CF-47D3-B9D3-06AFADFE4053}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{C11D9709-CAAE-4C47-9722-7F5030576FD5}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{CBFB5799-9F1C-4626-885D-F967B2298766}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{7835670E-486C-45AC-9DE3-5854B304DBF8}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{463E4338-8B51-45FD-AC91-E5DAD9060CD8}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{B9124897-1F2B-4C97-BC10-0D3ABA76E314}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{E9BDCF4D-4F54-453D-BCC8-1B56BD79A4AF}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{303012F8-D5D2-4087-B51B-90CBC5CF8C8B}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{92D0F14C-A98B-4A4D-8D6C-21142A6EB24A}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{AC6527EC-FB1A-40E9-B40C-A1CBD8DEE5CB}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{27D74BF5-4312-4CEF-83B5-1105CB5CD46D}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{54FCA5A4-AF2C-4697-BED2-7BB0AB5D48CB}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{2BC2E097-2AB1-4503-AF2C-87B4825BBADD}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{CC07C426-3BB6-4C5A-8BB3-C6A5EB442E09}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{3B680B91-E148-4D56-9F8F-88EEC93D1ED3}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{5B962C83-9B61-4125-849E-891B3BFAD31C}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{1CD983D0-D827-4F33-9EB5-2780BA03094A}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{CA84141F-6352-4181-A8A0-B6FAE472A8C4}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{EA3B80FC-BE56-4545-B2AA-870A7678DC0B}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{6DD00DDB-4650-4A5D-AC19-66C91E330A8B}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{F6E7A654-DC60-433D-AE69-9D6A6A67BF6A}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{377C0BC0-5637-455C-90EB-D37C3443F0C2}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{5EE423AC-09C6-47AC-90B0-9BA2C026EF4E}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{DCC20956-0063-41A7-950E-91F163779E33}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{CA275300-9EB1-40AB-9EFA-516C6B27871A}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{C8D1779C-D56A-4796-B73F-76FD0D549E2C}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{0C08FEB6-31DA-4305-B3E4-E5BC7A2A7E03}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{76243321-D8D4-4E57-8FE0-9651FB07E75F}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{AC42765E-1666-4E3C-8576-93C73B6894F4}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{0FC6F735-4767-4289-A9CD-FA40B8030A9D}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{7B9B4DC9-3EAF-4547-96AC-A26EC19FD937}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{76AAC50F-E2BD-4CEB-8343-6A0226ECE355}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{315456D0-185E-4A12-95CF-E77FF44F1407}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{F9BF0D22-6458-4A54-A7C4-0ADACB922C47}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{0FBF7817-B28E-4A0E-BBA2-EF3E8C1CD25F}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{EC7BC82E-99B7-4DAE-964B-02331D5CFC23}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{B9B00EDD-834E-4CC2-B3E4-EEE80E6AB7E1}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{5DF1577B-72DB-4CDB-8406-5BD1F003FE89}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{A17BA4F2-7CCC-41D8-B119-E12A2186AE14}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{29F78A36-FEC5-478C-AB59-5B605C61DEE9}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{AC4EC8B4-C459-4C88-9C61-AC6FABC16AF3}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{0E07EAAF-D018-4507-A50E-6FCFBD58991C}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{45AF60D7-DF83-444E-B888-D6B34C6A7086}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{CC1B0D84-19EA-4250-8781-F152F379B025}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{ADD2A86E-C5B2-4FB0-B7D7-440FDE806210}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{40FE2429-EABE-4541-8FE6-34B9DCDD2F02}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{0DEEE02C-371A-4B89-B32C-A7A571148D46}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{13E76FF4-4A0C-40A5-9DC4-E7B55BD9B4C0}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{170B9230-8F35-4450-B64F-C484F7AAEBEB}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{8ED72B5E-50CB-498A-B66E-2FBBC2879FE8}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{B5667883-4D23-464B-BA03-3F750ADD2F59}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{B458B5AF-AFB5-4670-A204-FE74D78C58A5}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{2BE71EDC-8471-4793-B34C-B64C4BFCA53A}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{B33EE431-E3FA-4A2F-B301-8D3AE7F296FA}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{BE0F28D4-CD70-4E56-8E8F-DD6C49D27622}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{E01117C8-88AA-4A60-AA9D-C9028C906FEB}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{ED917AE4-C5B4-43F7-8B5F-118ECCBDD3A7}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{F6CB182A-7C63-4F0D-AFF7-DC6D905BFE41}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{4889D27F-0FE9-40AD-A8FD-07FE29D03573}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{BF370B14-4958-4587-8B80-3AD5CF4EEB1C}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{3F1A83A9-738F-40E0-AE78-FBB649E11C91}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{BEE242A0-DE3E-4B36-B96C-A28DE20E0FFB}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{EB2A7DCA-3402-4656-A659-1B0411A7ABF3}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{601239FC-E78A-428A-B659-27DFC61CED0C}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{26538A94-D895-4F4D-B89E-DF815B4B1616}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{9ACFDC0F-51B0-49B0-9DEC-EEEE49C18279}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{21CC9D70-077B-4904-820A-61BAD5A4EA50}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{95086700-1721-4D89-BD39-B5C9301A2D66}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{2A234724-343C-4305-8D63-BDBE14BEA564}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{0EF7BCC9-BD8B-49BC-8C6F-364B6B2413C9}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{D4D88569-DB31-4ADB-A057-C88CD21E2A8E}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{03DD51A6-078A-499E-8758-1971F0AE3C1E}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{311CF8CB-3728-4EC4-9F70-21B527C9E9EB}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{8D2D9E49-BB6B-4250-B67C-EF5FF63A8F45}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{F950434B-F55C-45E1-8BB4-05BF78A9161F}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{3FB7A893-F905-467E-B36B-940E07FE4CCA}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{F57D7F12-7DF0-410B-B7AB-D7F8676C3A6B}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{FC09B92E-33CA-4393-B657-685B44778702}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{080D59B5-6844-44B5-B0E0-D31B70AE6804}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{6215623D-D8E6-40CB-B466-AAFA9CE8DAD2}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{A6639BE2-1C17-46EA-86DF-C95E23B5FAAF}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{9DD81884-DC8B-4525-A33C-747001B82D17}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{B7EC5768-C25F-49A8-97A6-6C1566FA94CD}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{BB11BA09-0DB5-48EC-83C7-3A392B0FCF90}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{1BDB8C71-F71F-4E6F-95FA-AE8F1BCDEC56}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{62F728BA-3CC6-4FE2-97D4-35D48FCD8754}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{14004CE6-A7EC-4EF8-83FE-23DA66F8B5B6}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{FCDF926B-097E-4567-BC25-BA816D64E25B}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{8B496664-3381-4450-864D-4C910EAB7FEF}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{9C540571-8018-4BDD-B80B-31DEA7BDDEA7}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{1D7E7F39-443B-482C-A791-A455EE087FE9}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{AC565B41-7AE4-4CAE-A7E7-AAB016EB716C}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{EFCC032B-E98A-4DDC-BB21-47AA3EA13B14}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{DE56BDB6-AE68-405A-9215-214B79B6C0F4}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{38F7E8FF-A786-45E1-9E63-613BC946EC4A}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{5D4AFC18-CE64-4B1A-BAE8-1A0E29889D41}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{BD6660FD-6C47-4DEB-AE82-6C940928BFE0}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{346BEDF3-FB48-4965-9973-3265F81F8394}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{FFE464BB-A4FD-4FAD-9192-CB913CFAB7D5}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{E50F8C07-D193-495B-83A0-5A71BE4731DB}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{387FFD15-B5FF-43E2-9F48-D9D5D8BA83B8}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{33E01E06-462E-4992-AE46-3675ECBCE803}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{4BAA5E0E-A80F-4582-BC7A-A75CAC80AFA3}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{0883FBAC-7228-433D-93FE-F5B1D06ADCBC}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{814AEBCF-B9A9-4333-92FF-E5FF71F401E2}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{12EA35AA-7FFE-4643-B822-0B765CFEB337}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{8BCA6F38-F5F9-48B1-9C89-2378E9CAABC3}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{3567B07A-C9BA-4D49-99DC-1247495533EC}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{CF905286-2DD9-4882-A557-8AD0B25202D7}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{3CDFB23D-0B34-4683-8816-F480E1F27762}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{667B6C6B-20E0-41DE-B80B-4BC417742470}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{7D43BD81-8736-4A60-97A6-8A908CC2FF86}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{F5EC122A-4962-4D2E-8C92-E51BD3528214}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{BAF9A05F-277C-4A73-B6D9-89965F327AEC}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{08DE5910-3B0A-4751-91ED-AD86C9D4FCE5}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{16625CEF-9226-4727-B16A-AE0052ECF159}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{838D728A-D80B-48F7-8EEE-2C7B59C6C38F}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{C5D2EF13-5420-4A21-B458-801F5C8A494A}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{9A5BBB31-5E89-48DD-AC8D-AA9EEC88163C}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{4384232B-B8C0-41BD-8308-F35D8E9C15A1}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{528F8F66-4240-45C2-9B1E-5E305166FE27}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{EFBF0B40-E655-4F33-9820-C06328953BC0}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{76125FAF-0AAC-4CB9-B0B7-FAC7D67438CF}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{DEF229F1-B061-44BE-9D5A-1A96264A0A03}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{B49BC0B7-5150-42E2-ABF2-37629BA6D1A7}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{DF33B177-579C-4083-9A73-E31E8DF5D78D}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{78CA671C-FF50-478F-9EAA-7371CF66C20E}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{8B5D9D3C-C2E2-4F34-B4CB-9E746673A46F}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{933C4569-5846-4EF8-AC27-25305AB7C86E}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{2F1F9F6D-309D-4804-B2CC-845669A4B0EE}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{8355C8AC-A66E-4719-95E1-4B650FD11180}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{37C68A88-7116-4B47-9C6A-33493A902FD6}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{A7901B27-746D-44EF-9DD2-5AE4CC7BCBC4}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{CE9702E9-C016-46D0-86BC-21014C636D96}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{EDEEEA92-4ACB-4F8A-8771-4CCFDADF0747}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{05FAFD29-C940-435B-A699-62F266C77552}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{9CA03EAB-FF9F-4021-9A65-BDC0577992F8}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{739E1408-378A-4C0C-91EB-C005A207A9BA}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{7696B5DF-A821-4692-B89C-AD9B81A892BC}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{5108052B-0211-4127-9F80-CB3667053789}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{E258BA47-9BC1-4387-8BA8-2817F445334F}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{151FAF36-0CAF-45FA-A233-9252F2446151}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{E458F7DC-70D4-4CB7-8C94-6EE5BD13391D}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{5F00A87A-FD82-4A38-8896-914F38087675}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{53A65B32-5AF5-47A7-9269-18355287004D}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{DDEDBCFD-3E84-4868-AA80-17A2E7DE2051}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{5AD8583D-9332-497C-9A99-BE509603123B}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{8278CA69-F5FD-4AEE-BAD0-5A656C4375A4}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{73600CDB-F8FB-4E2F-8DFB-AEF5575C05E7}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{FA3950B5-4CC4-4E8E-B7F4-C59511EF5DA7}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{DBDF55CF-6431-4777-A105-C1AD36CF1D2E}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{1A57CDE4-D3BA-491B-9852-4C240AE6CE9E}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{40F4B256-BB66-4CBD-863C-841083D62E39}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{80229ACB-6350-46AE-A94F-E2746F300161}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{CC221F37-E659-4382-A68D-1A45BD40EF98}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{590B5FDB-D956-4A36-A065-46BA1EDCF825}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{3AD44E66-A1F7-400B-AE94-A5BBB0873CA3}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{624E761A-A443-452E-977C-938ADC54946E}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{D9585AC5-F26F-47A2-845D-D7B662F36488}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{60988DD8-9816-4BA8-AA38-9D0F1DD670A2}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{43327097-CE32-4B73-8E70-865932B06817}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{D8AA1D41-B217-4064-8D3A-E81B719CA852}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{6AE69FB1-DCF9-405B-BF5D-6E3EEBF16E59}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{7E2C3841-232B-40FF-91B1-44325820F449}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{AD6CCB4C-B584-4FAE-B9F1-217EDAC2F48E}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{28B9CBDD-6E21-44D4-9EF2-22A3E72E3E19}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{D2727C6A-7C30-489D-A243-2B2DADCE1C0F}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{D69FE183-D304-4156-AC9A-E728FA86C464}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{B8F4581F-36A6-43BC-BD38-8B6A207ECF5F}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{143CE662-D413-4FF9-8302-8A1A465544B9}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{5B9DDE73-530F-45A2-9773-F3F8FE409049}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{35D6E9F3-ABB2-4A9A-9006-56702E9B5FF0}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{2FE0C3C5-FEB6-469A-B748-3ED7AEDA1BBD}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{135F22B1-D48B-4B37-ADD9-B0E428DA9213}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{A47AECD4-D605-4032-853A-A77952B0F6C4}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{24EA90D7-A5F4-4F08-9198-2167BB9417FC}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{7DCE6063-AF22-4ED9-AFB5-DAD718518507}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{9F9243DF-93FD-4864-85E4-1D94531D38C2}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{8969E86E-EBF7-48E7-AC4D-3E2FFC610E48}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{D759B78D-9579-43E3-8199-0BEA90A82062}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{05B07711-6D62-48AA-A3BE-F5B7D40D46B0}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{F7E3F33D-21DA-4587-A806-25327ED5BFFB}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{0EF0E466-6DF7-49AC-A97F-DE56ED9AC8AC}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{0E455659-C0BB-4E8B-A84F-411AF833BCE8}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{639957A7-CDB7-4E8D-AA24-25E1F5B846E7}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{6F79D919-FE3C-4519-9AB9-021601074E3C}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{0C5D4F7E-CF91-4696-BC5D-076F55E2E0AE}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{3F318A4C-76C5-4414-9B78-42BE106F211D}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{37F84D11-869B-4C06-9A97-096B03CBA328}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{B190676C-7F54-43BB-80C6-F54E7654A6EB}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{869133EC-121A-45CD-8839-B26C8F84492A}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{B534C923-28F3-4A55-8B85-4EF837E005A8}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{FD789FE3-B42E-4E85-926D-FD090B68B899}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{266D7330-7C59-4854-99CB-F7608BDF7DFD}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{43BCC61F-1A70-43C7-9C02-4E6C0AE91D82}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{B98C157C-FAE5-4FEB-B2BC-DF4E59CAEE8A}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{A0933403-ECC8-4B71-9E93-29A05C0EAE52}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{386937D6-BE71-44B7-A420-F8DDDEA2B9AD}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{0F9AE5E5-7877-4E03-88D1-6F05D1FCD96C}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{D3DC376A-78D8-4911-AE89-DBB75844A1F1}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{A4E47E56-19CD-48AE-8467-78D35C46B5D7}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{EEBBABC1-D866-4D97-AEFD-2A53F2ACE98E}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{A7C77F46-DDEA-4C78-9351-268EA494E52B}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{8A246177-DADE-420A-89FD-93813D6A197E}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{285F5905-8A21-4893-87B5-D10970D289C6}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{ADE98CC7-9A58-4DDF-B6D5-38FB89DB7F89}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{D234729F-196C-4C0C-A920-55867DD88CBE}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{D0B2C5D1-3E82-42C4-91D0-042A54A1AF57}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{766C08F1-5A88-4FBE-83CD-1587803C0AA4}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{984915D7-446B-4010-BC60-442DB936E6B7}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{8B40A467-85C7-4230-9A2B-4BE0FB22A907}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{0C87D3BB-77C8-425B-9EA1-D9048B7BD38A}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{473155DE-56D3-4AF4-9868-F7643A95B1AE}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{B62A28C4-3CBB-47EB-BF3A-411ADF459FE2}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{C34CBF5F-1B4D-433E-83CF-43B47D5BB9F3}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{F9D293C3-3840-436D-9B6C-155F5CA14BCE}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{2E9F03E6-8B88-4986-B630-DBD94A69319E}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{5EB0D117-56D9-4FE8-A13E-43423EE08DB7}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{DC31DB62-31EC-450C-B54E-0DE44A7BC563}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{77DDBD33-C37F-4E78-A857-28D59D75CD64}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{2FE6C4ED-C387-4122-93C5-2B6A6005524B}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{0A068572-4384-4387-ABBC-BDDC23D2BDD7}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{2515D86A-3364-42EB-838E-CE331D5CBAFC}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{8EFC3870-D063-4908-AAAE-B104666DCBE0}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{CFE0ED23-568D-4C3D-AAAD-88447C3215AC}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{3797D2B6-8380-42CD-9091-A788C7B25FF9}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{FA3977D4-C58B-47BC-81B5-347F03004BD5}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{EB5EFEBE-30AE-4DC5-864B-F3B4CE4E7117}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{D9093247-BA37-422D-B4B4-F06F9B43FE33}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{7E5909F5-24A3-48E2-9039-7CA7E9A128F0}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{32ADA13C-429D-4A16-A09D-F66BD64EB91F}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{5971F1A1-4BFD-4D57-BE16-63446C09AC21}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{FE5AFEEA-633C-48B6-AEF6-8F47BFC45379}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{BD5B501B-4EC0-463C-9AE2-99ECEC44A20D}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{97A4DE55-5C6C-46AE-A491-46801DCB819A}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{4E5AD070-973A-4C8D-8DE8-94802B980DC5}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{229B82B9-875F-49BD-9988-C1C65792545C}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{E4BD6AAA-3BBD-46E6-8EBA-7A975F4AF3AE}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{17D43AF3-40BF-439F-ABC6-3C96A02DE1AA}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{4976F506-7D68-4ACD-915A-88A9823403EE}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{865CE150-47AD-4BAF-8F2F-97ADF907BF7E}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{35D7DAB1-88F6-47AA-817E-F51916D0884C}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{7EA62B6D-D4FF-4F5A-A10F-13964FC900AF}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{43450759-0B22-4C2C-8E59-30C99480DF66}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{190F4D55-B349-4E0E-9E36-F1B195CC2998}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{4CD919F3-837D-49FB-BDB2-3279C3168C6A}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{DC3E0055-933D-4D35-9A17-CD1177ED0F31}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{12A7C597-3AFC-4A00-8BA7-34ADA208AB50}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{E89ADC30-23DC-426E-BB4A-90276FD63A02}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{23716D29-9551-4CD6-8F0B-3EE8AA0FD126}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{60C1552B-3E90-410E-B415-326A03E3C5B1}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{0391608B-C9E2-4531-BA4D-C8FA795B3A1C}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{860423DF-EB46-48A7-BF55-9F75B6C7EE6B}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{3FF2A1FD-8B0A-4D7C-B725-0B9F8F4159F0}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{3679D1E6-607C-4938-A7ED-1B8F1828CBB5}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{C9B2FD3D-CD4B-454B-AE6B-0A4DD2777135}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{23056310-A26E-4248-9397-3445760CC605}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{E5FA475F-2FEB-49F5-B97F-3CA50D5BE195}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{CFF71859-6583-47E4-8936-803A43E9AD7B}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{B6064EAE-7538-4C0A-8426-121F7327818A}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{7090D6D5-3874-4034-B647-965DE6635DBE}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{B07B3A3F-CC26-48F0-B21B-A42832D09483}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{A02BE037-E241-41C4-80FD-ACCF75845DBB}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{4848D1A0-6221-438D-B12B-53AE59114E3D}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{BDA5FD08-D721-4803-B7A9-2D45319467C6}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{A80766CF-BBB1-4C39-A0D7-27E845F57126}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{699FAD5B-1029-471A-966C-7C1DE56CB356}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{23E0CC4D-3518-4C52-BEF8-24B4B29F6945}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{29756643-8495-4EB6-83E0-36E44841617B}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{998A969A-79A9-4960-94EB-F0E4AD668D57}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{1B6DAE10-7401-40E7-BD9D-71A0824F6242}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{B3F6F3FD-7ACE-47CA-9FD4-935523640D9D}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{BDC81D4B-CA03-4E6B-9062-877B1394080D}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{4924895B-347D-4D14-A53A-85A99DD3EC5E}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{0E2BE328-0393-456D-94BB-8F9862184CAF}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{07B7FFDD-F11B-4EAB-875F-C3F238D0C594}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{3E6D87AA-9954-4BBC-8309-C27509A0C58F}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{8EB937FC-91E4-433C-95F9-8BC7FF71E5C8}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{34FED5E7-A770-4B84-A8A3-501569A6924D}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{63DF4EEE-277F-4553-8537-3B509541A458}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{19CF8B10-6602-4315-818E-3893C9AB9595}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{1CF10380-1A19-4B28-9106-AA032D4744CF}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{1A1C8D01-1840-46BB-A789-A49FC0510022}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{033B850D-5C49-4A3F-9451-F2651C57C2AC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{ECB1FA7D-6D28-4B28-8AB8-8EB01D2D8023}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{CC08D037-8539-4F6E-9590-95F705A28617}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{43F394FE-C6FF-45BA-93EC-9BF64F7C3FEE}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{5AAECF46-8D1C-430D-8030-99E712898DBF}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{0BD59E36-338C-4E9C-88C9-A6EF79AC7393}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{FE0596C9-4601-4FF5-8170-DBF29BCF13FC}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{0FF00122-BB55-4E6D-AE5B-5971E9B21353}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{EC7AFC37-DF53-4CFB-858C-6F4544E575D8}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{22760100-1194-4691-A6B6-FEE584A4AD1F}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{34A64440-7826-4EB5-BF35-CC7CD91CD670}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{CC26C103-1F81-4393-ADCA-6425BD75402E}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{6D84EE7A-4A51-4F81-AD44-555EBA6AE483}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{386D872F-6693-491D-8847-DB9EE88CCE4D}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{643AA767-9079-4F6E-842D-4E9732DC7A28}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{6D03B0C9-DAEB-49F8-BF92-9250A17F1907}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{E9D3BCAB-CEB9-44EF-AA2C-D5E882D94D46}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{563F9377-E224-468C-A72B-7F02802360C7}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{B55F3BBF-B540-4361-9FB4-207E7DCFF3A8}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{6653572E-1980-4514-9237-9FDB21DADF02}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{B29EEF26-44FB-46DC-88D1-5B059D9C9E6D}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{C84BA356-F6D1-4E7F-A1FD-70A8EC717E63}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{46A45CF1-AAA9-44FB-8F87-6DB846CDB5C1}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{FBA90DC1-5204-47A7-B85F-0B9076F4F4FD}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{C8D01668-CE3C-4014-B1C5-8B47C184AC37}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{328C5548-EE1A-4C97-BBFE-6CF171843E69}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{2AC05637-72C4-4D21-A395-465F7C10AB03}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{62D400BC-1645-471B-9CEF-C3F44B1DC482}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{95BFE433-A372-4F0C-AEBE-2C35CD4D85E0}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{7024998A-B758-4269-B11A-5267F8E5D1BC}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{643F7BFA-0944-4920-8D7B-7DC8DD712FE4}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{B1D90C06-39ED-4A2A-967B-8857B2B0E132}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{E9E3B413-FF0C-4D0A-B4CE-B9DA8D72AC1B}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{06E8EC6E-9AF5-4406-B84D-338F7F005D6E}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{97AE452E-3F0E-4BE6-973A-6CA2B7E46FCD}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{E6551E50-CEA7-4739-9621-9816653081F3}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{92EBDD49-CD4C-4054-8266-6D881EEB32E2}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{BC0B5984-B648-4FAF-8D51-9D2F3A95FB51}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{6F1A4887-DF3C-44AB-8195-4A8DA14DD67F}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{DEC6AEB5-BC98-4366-AAFD-03CEAB6AD904}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{A444F1A7-EA54-4BE8-AE01-3682A37B7DB8}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{0939CD26-02D3-4DA7-A2CC-5264C482D543}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{04DE26B8-B89E-4C87-A19E-D92AA64ACD3B}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{3B4D535F-A73F-4C91-8D31-64E4902669E9}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{D078A354-9BD4-4734-B2C4-1DFCD0FB19B1}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{4D181736-0AFF-4061-8999-FEE2F50157BA}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{0CF9D92E-A0D7-448E-81F4-159BE9315F6F}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{538B12E6-59E8-43BE-AC35-76145C99C09D}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{0CC1C0AA-2B07-4B99-A79B-6ED63C0699B0}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{6DE8A184-7FC7-4DE6-B454-82AD5C5F15BF}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{FC9B8EA6-24D1-466B-BA66-B0B1B1D4B0E8}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{D71917C8-4543-4D0E-9E49-FE9CBB488194}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{CD70421B-B2E7-4381-85D0-613800FAFDA8}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{FE6F19DE-D44F-4851-9FB2-FC4402D8E89F}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{7E533D2D-6D67-48CE-A4EA-FE972524A669}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{D6D86EFB-D924-4C47-B247-A97252AD3829}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{BB1CAAB0-4978-4995-B3E4-562DC6DAAE3A}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{582ABF72-D0C7-44DB-BBD9-5C1FC30C8735}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{4CB3F0BB-9CF7-431E-B532-514CF91125FB}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{E548F94F-18D7-4BE4-A0C1-3F75270E6FDA}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{6CDD5AC4-2D2D-4796-9281-412421790F45}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{5951BE76-8CF3-492D-B75B-2A17152A014F}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{9027087C-53BD-4FFA-BF13-2F66E34A3456}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{E45BC401-5FEF-4275-84A9-576692C217D6}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{12F2A213-1C63-4E32-AA3E-7D2F3B099323}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{8E0D298B-31FB-4A72-AF6D-0FBA1BA4FE00}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{3734EFF1-0511-4191-A6E3-C6797A0968F1}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{1F7C706C-4E5E-4166-A543-FBD0FE0CF457}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{01202B1F-936E-47FC-BD82-3DB69F43165C}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{F17E29C6-5397-4F68-9344-193EF773B3E4}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{FBCE749C-C154-4AB5-A29E-F0275D687107}"/>
-    <hyperlink ref="B439" r:id="rId409" xr:uid="{05187D58-50CD-469C-BA10-A8DC4FB4B7EA}"/>
-    <hyperlink ref="B464" r:id="rId410" xr:uid="{091FCAA6-D2FC-4D81-9315-67DF119BBE0E}"/>
-    <hyperlink ref="B463" r:id="rId411" xr:uid="{05BEFF46-F631-40AC-8075-B1FA9AEBFE02}"/>
-    <hyperlink ref="B462" r:id="rId412" xr:uid="{A1CAECEA-F7EC-423E-870F-035503EE2EBC}"/>
-    <hyperlink ref="B461" r:id="rId413" xr:uid="{1CE66FF8-6445-42C2-B9D8-83B5895C95C3}"/>
-    <hyperlink ref="B460" r:id="rId414" xr:uid="{2E57A806-1670-495A-9C8A-29A65D75E6C7}"/>
-    <hyperlink ref="B459" r:id="rId415" xr:uid="{CFD87B43-3AA7-4455-866B-2864933762C4}"/>
-    <hyperlink ref="B458" r:id="rId416" xr:uid="{5D173755-D199-4D07-B25B-03069B753472}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{46633AE7-B80D-4846-B7D0-03D2EE69FD5C}"/>
-    <hyperlink ref="B456" r:id="rId418" xr:uid="{EFDF51D2-DAD6-409E-998E-5A1536B72187}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{A5D80A83-7FA0-44EA-99AE-8E66C9542E36}"/>
-    <hyperlink ref="B454" r:id="rId420" xr:uid="{1920C962-871B-45FD-9179-06408F3F8669}"/>
-    <hyperlink ref="B453" r:id="rId421" xr:uid="{BAF34401-8764-40CD-B645-DB3DAC90019B}"/>
-    <hyperlink ref="B452" r:id="rId422" xr:uid="{046BFA75-2FB4-4490-82FD-4D93AF915E61}"/>
-    <hyperlink ref="B451" r:id="rId423" xr:uid="{808597BE-CC2D-4E0C-926C-175D8B88990C}"/>
-    <hyperlink ref="B450" r:id="rId424" xr:uid="{36644D2A-3C20-45D8-8515-9044ED138444}"/>
-    <hyperlink ref="B449" r:id="rId425" xr:uid="{222183F1-870F-4C5B-ABB5-85372D7F03B7}"/>
-    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{7F65555B-4B2D-49B5-A951-8CDE34A9F20C}"/>
-    <hyperlink ref="B447" r:id="rId427" xr:uid="{9EB4CF17-495C-4884-B5A3-3EA31CDAFD0F}"/>
-    <hyperlink ref="B446" r:id="rId428" xr:uid="{55D0BAC2-2E76-427F-B732-2462295C5C62}"/>
-    <hyperlink ref="B445" r:id="rId429" xr:uid="{596A3CA8-3645-452B-9DDE-FFD7C6F1DBAA}"/>
-    <hyperlink ref="B444" r:id="rId430" xr:uid="{C98AD32C-3E7A-4A63-ABE8-3C168121C17D}"/>
-    <hyperlink ref="B443" r:id="rId431" xr:uid="{E181D3EF-E09A-4877-A3EE-F4228A8F85A9}"/>
-    <hyperlink ref="B442" r:id="rId432" xr:uid="{11D2EC39-7A55-4F5F-91DF-FFF18C9A66BB}"/>
-    <hyperlink ref="B441" r:id="rId433" xr:uid="{37424F5A-4A56-423A-B41C-D90F939DA784}"/>
-    <hyperlink ref="B440" r:id="rId434" xr:uid="{B272D0C5-4205-4D74-AA7E-FEC6B701B48F}"/>
-    <hyperlink ref="B512" r:id="rId435" xr:uid="{A00F3CE5-4A9A-4214-964D-7B2AC1DD80F0}"/>
-    <hyperlink ref="B511" r:id="rId436" xr:uid="{EC528C9B-6C69-49AD-A1D6-888D1CD18FF8}"/>
-    <hyperlink ref="B510" r:id="rId437" xr:uid="{20291E07-BAC6-4BC1-9026-9E1AEBD86FE4}"/>
-    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{46C21DC6-EA52-4954-A96C-1FB9384E8195}"/>
-    <hyperlink ref="B508" r:id="rId439" xr:uid="{50FE27DA-8A0F-4144-A5D6-F5CCCB7DB246}"/>
-    <hyperlink ref="B507" r:id="rId440" xr:uid="{15A4254A-4CFB-4852-B5EB-1DDB8AFF73A5}"/>
-    <hyperlink ref="B505" r:id="rId441" xr:uid="{872DB43D-8D57-4A87-BCD0-193613EDC883}"/>
-    <hyperlink ref="B504" r:id="rId442" xr:uid="{DCEC5828-5E07-40F3-A66F-EED345EC0684}"/>
-    <hyperlink ref="B503" r:id="rId443" xr:uid="{96C0FDFD-3ED7-46EE-B37B-A39DBCA70911}"/>
-    <hyperlink ref="B502" r:id="rId444" xr:uid="{1B5372AA-0338-40B3-81C1-622279C889B8}"/>
-    <hyperlink ref="B501" r:id="rId445" xr:uid="{576DDBB0-744F-4E82-A940-8C9D5BEC7854}"/>
-    <hyperlink ref="B500" r:id="rId446" xr:uid="{8E80C883-46C9-435B-8296-4CFF8FB31C49}"/>
-    <hyperlink ref="B499" r:id="rId447" xr:uid="{713546DD-F9DE-443C-8A21-947FB3CCA63B}"/>
-    <hyperlink ref="B498" r:id="rId448" xr:uid="{F333BDFA-F0F5-4695-A2E4-A266CACFB18E}"/>
-    <hyperlink ref="B497" r:id="rId449" xr:uid="{C11D9B64-3592-4CBE-9AFC-012498085B12}"/>
-    <hyperlink ref="B496" r:id="rId450" xr:uid="{D3219ED3-E447-4AB1-B7E5-A4763FC51310}"/>
-    <hyperlink ref="B495" r:id="rId451" xr:uid="{A1C2AD52-3A46-4976-8158-91E535580353}"/>
-    <hyperlink ref="B494" r:id="rId452" xr:uid="{4303B1D8-ABE1-4DD6-85E6-82BFF337CF15}"/>
-    <hyperlink ref="B493" r:id="rId453" xr:uid="{93D84900-8A44-438E-A7EB-11F96B2BFF86}"/>
-    <hyperlink ref="B492" r:id="rId454" xr:uid="{08FFFA77-455A-4315-A0F2-40889E2BEECD}"/>
-    <hyperlink ref="B491" r:id="rId455" xr:uid="{6BAC983E-B13F-461B-A91E-0EC027CAAE5E}"/>
-    <hyperlink ref="B490" r:id="rId456" xr:uid="{B9BED64A-EA11-405E-AEA4-BF1EAA92F84B}"/>
-    <hyperlink ref="B489" r:id="rId457" xr:uid="{0772359B-05C0-41BC-85CC-A3EA9D4EAFF2}"/>
-    <hyperlink ref="B488" r:id="rId458" xr:uid="{A523F0AC-2D8B-4CE3-9CA6-A5ED6D95B9E9}"/>
-    <hyperlink ref="B487" r:id="rId459" xr:uid="{92A9D318-83B1-4D21-A341-344B513AD057}"/>
-    <hyperlink ref="B486" r:id="rId460" xr:uid="{43D18051-EEB6-42E6-8906-C8C5BFEE9561}"/>
-    <hyperlink ref="B485" r:id="rId461" xr:uid="{0F182A39-5660-4DD6-BE9F-9EF89FE4F059}"/>
-    <hyperlink ref="B484" r:id="rId462" xr:uid="{3FBFD239-8326-4ABD-A2B4-D2D60E00D183}"/>
-    <hyperlink ref="B483" r:id="rId463" xr:uid="{0EA491D0-7838-4115-8FDF-17260A765743}"/>
-    <hyperlink ref="B482" r:id="rId464" xr:uid="{EA540F9D-4F99-4C12-8E91-C965CA39BCEE}"/>
-    <hyperlink ref="B481" r:id="rId465" xr:uid="{59EB46C1-F4F7-4951-8328-36D6B25D14F7}"/>
-    <hyperlink ref="B480" r:id="rId466" xr:uid="{9BC07174-1812-45AD-8849-41BCA66643B7}"/>
-    <hyperlink ref="B479" r:id="rId467" xr:uid="{29A99605-1633-47B0-B2E0-9E7A5BB4FAD1}"/>
-    <hyperlink ref="B478" r:id="rId468" xr:uid="{E83A6896-EA8D-4FA3-A3E3-CE075C77471B}"/>
-    <hyperlink ref="B477" r:id="rId469" xr:uid="{4FCCD65F-A13B-4F4B-A51C-E2E624D90A8B}"/>
-    <hyperlink ref="B475" r:id="rId470" xr:uid="{C557E273-854B-427F-9024-BFBFD3AD7D40}"/>
-    <hyperlink ref="B470" r:id="rId471" xr:uid="{B9B6C8C0-437F-44AE-B3A5-6A3D0777F76B}"/>
-    <hyperlink ref="B476" r:id="rId472" xr:uid="{4F76F1D2-599C-4E5F-8C38-02CE81EACC4C}"/>
-    <hyperlink ref="B474" r:id="rId473" xr:uid="{5791C323-B633-4747-A472-42288AF4E941}"/>
-    <hyperlink ref="B473" r:id="rId474" xr:uid="{4666B436-B3A9-4CE4-8EEF-6D980101E572}"/>
-    <hyperlink ref="B472" r:id="rId475" xr:uid="{473784ED-FF88-4AF7-8D18-433D73E3D878}"/>
-    <hyperlink ref="B471" r:id="rId476" xr:uid="{43CCF6F9-F97A-432F-9703-FBC79702AB9A}"/>
-    <hyperlink ref="B469" r:id="rId477" xr:uid="{6751702C-01F4-4701-BD6D-3B7C8C296AD3}"/>
-    <hyperlink ref="B468" r:id="rId478" xr:uid="{FF594BD6-D4A6-4B61-B53D-6A27ECE2EAC6}"/>
-    <hyperlink ref="B467" r:id="rId479" xr:uid="{94677A14-50C0-4056-B342-6359E72894F6}"/>
-    <hyperlink ref="B466" r:id="rId480" xr:uid="{48BA72E6-D027-4467-AC2A-D8D48876F670}"/>
-    <hyperlink ref="B465" r:id="rId481" xr:uid="{E52DA064-63BA-4014-AA73-54A048AC3B92}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1E2E0DE6-EA4E-4718-96C8-54C68502D303}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{49E0C83E-AC50-466A-B589-2281C37FDA6D}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{26E161AA-553E-44BD-A962-1F9857B8AF62}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{43143431-E533-4237-A502-10880A875FB8}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{1F938A0C-0918-4285-99A6-A920B10688D5}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{3AC76023-4042-48E2-80A1-4484D327C300}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{4920E047-44CB-4F0D-A347-56C272FC67EE}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{A5D0E89C-7579-4A3E-B459-D4772E11043B}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{0DB5C6C9-154A-4ECC-BB88-87CFFA6F5A2E}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{2580B73C-4BA9-4EF3-8638-06DBF2A912C3}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{45B1FBFF-3FA8-42D2-878A-2EFD74326F6E}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{5B60A93A-691F-40F3-AC73-A894F71D03A2}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{E3948B9F-4CC5-470F-A29C-41B205A41F66}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{788C187A-E44F-4C77-8E69-423A9176BEB0}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{D19F4C38-CBEC-4121-921B-F3D5199340F1}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{A60C9118-50B3-4019-9DF9-2C77F278B47D}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{A40E6B14-C024-461B-B297-9FF2B4B666AB}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{6447AA4F-E105-47E3-857A-25CA4E6153A6}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{5CC1AC8E-14FF-4E88-BC69-949B9BD2E7AB}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{A91CFE5E-E7B6-46F9-9A30-58A7A611D54F}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{F5B9DE4B-9C32-4E6C-B91B-948C56614DB0}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{4402B7C3-6618-4A5B-9897-6BA3D4253C28}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{949A948C-311D-436F-81A5-76B80FAF168C}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{447DFABE-0E05-4E49-B8F9-41DB3BC2BA39}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{6946E62B-4AC0-4FB7-972B-ED5510230C29}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{9C9A2CDB-5659-4666-8D19-18F288409A15}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{11AC7366-95D7-4E00-812A-35D323EC28DF}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{FE3590A5-7B86-4BB9-B46C-1BACEBDB920C}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{0F87948B-46F4-4EE6-85E6-FBF13E6AB46A}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{E4FBC760-C4D8-48E8-A6B3-DC5F07359785}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{1BCD69CF-719B-4DEB-BE19-5FCEF67E0048}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{DBDEDE6C-8B83-48D6-9A27-FB7BA3486F24}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{3C7726F6-E57D-4349-AB88-5881660B83F4}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{7358D62E-4A2A-4FEE-9D48-04C103FA032C}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{17F04B25-68B5-44C4-B192-05A0706E3DF7}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{D2867DBF-BB71-4B6F-A318-2222863557A1}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{CEEAA159-440E-40CF-AA48-90081EF9B948}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{3AF4A116-800D-4C6F-84C6-FFE08118656B}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{EE57D3B7-34D2-487E-B52B-6ADA1B5FFC83}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{1ADFCBE3-A3BF-497D-BAD0-B3E08559B369}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{9B1588B1-9EBC-4F10-9D76-DCFF69793579}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{6EBA8885-6B3E-48A7-9F1C-9F3B969860EF}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{2C843912-9584-400A-B346-BFA878EA65A8}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{FA8DCED2-A153-40AA-A100-8E332B151614}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{25A8A836-DEFD-4D72-89B3-1B7D53309A46}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{367507B8-D565-44F6-A8B4-9BB75627BDA8}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{2D470F01-DB77-4C4E-A6A9-CC1757E2B510}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{5871AE20-FC28-4FF6-AAD6-BC4F70B1153F}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{669C5805-9528-4D30-AB7E-84A18FF931A8}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{C3CEB8A4-8B5F-485A-A8B3-C7A85D7845BD}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{618F2BD2-FA9D-4749-8501-E0B76B73CEAB}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{4C3BC3A5-02BD-4991-A049-A0EBDB169331}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{F8D10959-64EB-4705-989D-E8FE3154EDB3}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{9DAB3D23-AB9F-458C-BCD2-4D0AE9E7FFD9}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{FE98623E-44D7-4EC4-BAE2-912BCE3C9C10}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{B6E7AF14-C3D6-4949-85A2-F6E3BE4F9639}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{73F5B311-F19B-4E75-9815-40E7938B4154}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{B966DA1D-CD8D-4D3D-ADFB-8FB04F1E582D}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{63E93ACD-C43F-42DE-B381-E9A184C073D7}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{3E3A7E69-407B-4F81-B34F-905C69984F53}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{9C5D19B8-4E21-4CAC-AB74-B96AF6B29990}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{258ED792-6F62-400A-89FF-84B743B10F7E}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{905CDE4E-1D99-4F6E-8975-4064F461B2AA}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{F523FFC0-D20D-4452-BE0E-B353483DBBA3}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{CE570D03-2DF6-492F-AA71-A3FA25928763}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{408AFD47-893F-42E6-A7CB-2D77384D4A2C}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{C683ECE1-0203-4041-91F2-7237948A4C2E}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{5B3B98CD-86C7-4722-9E18-167A389544B2}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{43D2629A-78C5-4916-926C-27C5C3639090}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{8216C34F-7846-4C71-8548-7A746ED71352}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{AA5C026E-82C1-4B7A-AA85-6DBA8A89EF42}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{2165476A-46CF-4827-A5B1-DAF7663E6A67}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{709C09A5-6CD5-4F5D-A52D-9768B147EE79}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{CB5C8656-906B-41AE-9A52-27824E924D01}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{CA5F0506-2275-4E46-9C7B-C3F2BB6535A3}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{FBEE0EFB-609F-45C2-BB4F-06F119A0FF62}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{CDD119E8-3F4E-48C7-AA8D-1215B53A2135}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{F2C6E872-C020-445C-AB54-7ACE2E35AFBE}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{65607EB2-7167-4B68-BAF5-7313558997BA}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{345954AA-F35F-401A-9774-3614A679EC34}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{91F9F0F1-1E21-4482-A75D-35B47DA85ABA}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{8DE0B9B1-AA7C-45C1-9BAA-EB2CEA366BA3}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{12445041-664D-4810-9AF2-566D66CD19EE}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{B2D8CF25-09EE-4969-87F1-7D3C77E2C9AF}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{25810A33-70CD-4464-88A4-8240CC51D52E}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{9E4096C3-9523-4BB0-9941-2D75961EA0A7}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{91E1AD2A-C001-4660-9FCE-660D092E4D9D}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{3D99191C-5B0C-466A-8F51-2F092786758A}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{77149A03-0746-4376-A3A7-6B3B82EE00EC}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{C5543C75-EAF2-48F3-B4B9-D5CA1E192F2E}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{2A3A2CE7-7EFB-480C-8390-23E005B86441}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{0F871F4F-1EB9-424E-8BD5-37555984F47B}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{A0927174-E9D2-480F-B1DB-D66E910CC9DA}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{6F3667FE-45A2-496D-9F41-E879DB694AC3}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{6D0C0838-965A-4E48-A5ED-16A91FF64C43}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{87998E38-08AD-4DF3-9A4C-3A953A8CFFAD}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{C552C54F-5F4F-4386-A6EA-B3EFC775E86F}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{F75A0213-B666-45EF-BF37-8277F70CE232}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{918E3B0D-3F03-4091-8C12-AD0F7FE19DEC}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{D3925BE6-A0A5-4126-BD21-A4C26E72A4DF}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{E4B538F2-5649-47BC-A91A-4ADB11C41D77}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{C89254F1-88CA-46F6-9ECF-CA5D9DC0F668}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{65A2A57A-E9C4-4956-BBC8-2FECB3BBE49D}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{9BA794A1-749C-4766-B01F-F7BEE87F585F}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{0CBE57B0-57FC-4EB1-8AFA-001C771F68CF}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{B50EED72-819B-467F-AD10-3C05739F50E7}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{83D56C2B-A051-4EE4-8870-7A1C1D807013}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{BFC2615D-741B-4D3A-9B85-CC8E52D6B215}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{77EF36DA-4F9F-4D6C-8DFC-74ACACFC8A1B}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{0E93085C-2181-49FC-9FEC-E2C90D2717DC}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{38388FAA-1EE7-400F-A8BE-BA47C6734E3F}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{E9C005C6-04F1-4A91-8272-ACCAF08BF484}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{EE6193B0-DF62-4D2B-865D-6ED3502782C1}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{3B8A49D7-F651-4295-BA4C-00C8DC4A756A}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{27C8AA33-3197-4095-B4BF-ECB308DBA2E8}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{8A202E6C-A9B6-4DD8-A6AA-504EDBF066B7}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{7F13EA3C-0538-4C54-905D-50FFA6E13A7D}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{0E39C239-DB40-4F4D-8AC4-CC936092608A}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{56625CE8-FDED-40A8-ACE0-7BFCEA7C3207}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{45F2BF89-95DD-404B-A61B-22478F36C798}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{4404EBCB-961E-4E41-88DB-C96338322D2B}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{A62F816D-F243-472E-9CF9-FF5984705305}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{3F239002-7F9E-46DF-865A-4DFA4AD1EA68}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{29569154-11DD-4248-B287-42B050F0433C}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{1E0865C1-3E80-4CF4-982B-515804DDDB17}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{F1C5E891-E8B6-48B9-92B7-3D4D20DE20C6}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{C7F2B3F2-7B67-4C29-BBAC-3A454976507C}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{A0FE1131-F314-40BA-8F9B-E6C740A674F8}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{B7BA8F35-2463-42BA-94AF-97E0E415AB9C}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{D9AAFF65-F462-405B-B61D-DD83C4526425}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{A1744842-72BB-4B22-B332-5B12FDE72376}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{418C2533-C8D4-4AE0-BB5E-EA9BDD58696D}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{5BD50EC8-B27E-4513-85E8-408F77CA697A}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{FD53C986-7012-4874-A97B-5C97EDA11DBC}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{210E2ABB-E5D0-4E07-B5AD-758E9B7063A8}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{FC121C6E-B47C-4A3A-A3D3-A79ED6FFC71F}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{97DC82B3-72B6-4CD9-8C23-6DF8C47DA57E}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{14B8B97B-891D-41D1-8675-E3A7750A7D62}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{97BAF052-DEE2-45A3-BAF2-7A687FE0DAB3}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{F0266F33-DEFC-4BD4-BFA5-FC1C9E35A4F8}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{B1A235CF-5226-42DB-AE83-FF5C0C07AEF8}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{E80AD0DF-549E-46F1-93AC-BB487F792D1B}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{2D6D9018-323E-4D48-86AB-3141F9BD7C1E}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{2E15C236-A0B9-4FC5-A2AC-B54DFFAF4527}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{0CE3CC9E-459D-412A-A64A-433C40E5B172}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{24C6BE3D-B4B6-4859-BAAC-1EA2AD9E23C5}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{FAAA0223-BAFE-401A-9AFC-CE4FE34AB0C2}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{9109AAB4-614C-4768-9168-7E3A83FE612B}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{BFF3E6C7-C282-41A7-B763-76430E5BE2EA}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{6B3AD20A-7CE8-469B-B84C-9BB2BD0EC443}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{AF104C8D-2159-45D4-A917-79B796289FE3}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{9C768B1B-3B50-41BA-9747-9B6D4ED181DF}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{D6AC76A3-0BA8-455B-86CA-BF91C91DF866}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{7E45A31B-000B-470E-8269-43C1B11D1BA5}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{0563EBC4-5B8E-451A-8720-30C40C1EF81C}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{0F01851B-DE2D-4AC2-8B9F-9321C844BF81}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{A18159D0-FA7E-4B1E-B7B5-A64FF9949C0B}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{FD781428-86E4-4A2F-93A5-A29575B7FDF7}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{41D41129-2AAE-44C0-9B42-7C6D7B62EE29}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{585DD2A5-06E7-4258-9E94-CFDAE5D12A76}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{F0743EB1-732D-46A8-9BEF-8032B1D5CA73}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{05ECCAFE-56BB-4E4C-95E7-12EB300A8934}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{E0E60FD8-793D-4DFB-BA8B-3905DA1B8CA0}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{364EDE76-A425-428C-A2AC-6EEEDD4A0A4F}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{990A09FB-4233-4F54-A500-8B23230DD9AF}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{217531F8-98B5-41DD-89AF-B29741906ED2}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{FD5045A0-E3B8-43D3-85C7-2D4B159662D3}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{1B19D807-B798-4C8D-AF3B-F3AE8F97E074}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{3D4FD28F-7225-4E94-BFD7-454D013D9611}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{2BC3EE75-951D-4D4C-B9FC-E5CEBBB53409}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{389C3EF5-C10C-47E4-91CD-0CBFB952D911}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{4256FAB3-5701-4410-A6AE-8340BEE8F076}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{78F67DEF-9A44-436D-94C0-F2BB720DF46C}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{126D266A-B9F4-4B20-84CD-F1BEA57BBE7E}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{A1316562-76BD-4195-9377-C452C5B08EEA}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{14A7AF37-280F-4674-BC65-5248A16874C1}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{D12C13FB-2D71-4F3D-922C-BA6E808218BB}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{A5800EC6-E5FA-444C-BF75-01965F3661CD}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{3CD3A107-9EBD-405B-B0EB-529AAAE6DD5E}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{90D41023-1A02-49EA-8AF0-6F1F0CFE0D66}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{985617F4-2082-4ABD-B8E8-0DAD542F3B67}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{303C9F66-B295-4B88-AF64-2C50A273019A}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{835D68C7-5699-4563-8B9A-63304942EF14}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{EFFD46F5-2167-4CBB-85AA-5A43DC2203CF}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{5667BEF8-4EAD-4B09-937C-9A5E47609CEA}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{F058624A-F415-4ABA-B318-45FAB9154273}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{7821B9D2-6C20-41AF-9EB2-A3E299750CCC}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{726FF2AA-4223-4412-B73F-D7C2994C66DD}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{F5D8DA95-7A86-411B-913E-2B3910A9686B}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{F4E2AEE1-B54E-4EDD-A74B-56D3704054B2}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{59F33DDC-E43B-4626-8A4A-46CA58797CA9}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{122DDE8C-6874-407F-86E0-0E3E453B3CA1}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{442604D5-F478-4D0D-98F1-7480210CC17F}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{210114BB-7A7B-4566-87FD-7D28AE07497D}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{D040C439-A7FD-4E17-969A-AA9DB30602F7}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{235E6160-18CF-4424-B697-29007F1C1207}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{628C7C5E-C5FA-4603-89AA-A64E9BEC3C77}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{DF4347B9-1237-4077-BAE5-F9EA2D2F9C7C}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{4B1CD128-AE0D-4B8C-B344-FE816074D3DC}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{45B6B459-E0E1-4FE1-AA25-C612B6C44A2C}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{0EFAADD4-CFFC-461A-A033-3CBE55C04401}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{62AAA902-EC40-4D32-B7E0-BDF8CD8DD096}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{E2307E87-85A9-4493-859E-2091FA97C649}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{E4736EAE-EE70-42D9-8024-D004AE0FB15C}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{9FCCD679-F8A8-4A23-AF5B-9B6CEAB9EA10}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{069C3772-154B-4B53-9793-9E1FE51580B1}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{A31C4B03-10E1-4AA8-A98C-C0AB18AB68E7}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{997A78B8-04CD-4750-ADD9-A20FA404FEED}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{A05FB39A-80BD-4270-A4D7-105D568B5193}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{572A98A4-EEF7-4827-9F8E-C0BF4C07B155}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{F387EBBE-23DF-4DA9-AB05-C6AE45345E6A}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{6052EE3A-089B-450F-A962-4969C921FDCC}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{2AF730BB-CFDD-4CFB-8D23-CEC045FCCE18}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{D1B9D8B1-6BB5-4A25-8121-80DD3B4884C6}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{BE8ABF75-8B8B-4A3B-B6A2-98B24DB23EBE}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{0FA1571B-A900-4091-9351-7FD93341707B}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{15CC8E96-48BE-4589-A029-953673BE8D13}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{C32F06E2-800E-460E-AF70-8A561AB36220}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{15E4BC79-C03F-480E-B0C4-FB3EEA4CE5ED}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{3D7C3DBA-256B-4ADB-AA4E-9FF23513BB06}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{143A5855-C50C-4EF9-8588-D94F89AEB711}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{7BFED0E7-30B5-4540-A265-9C081E80BF9D}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{F7BF6785-BD27-416D-999D-00E2362DE960}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{89527E2E-0D48-493B-BEF0-64CD84E26EEF}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{54C51EA4-BD7B-40C3-A314-3CEF853EC1B0}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{9EEC337F-69B8-4F41-B888-1C9B3AAA1AD5}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{0F044B71-F90A-49AB-B03A-7F1ED3952457}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{842FFCCF-18EC-4EC1-9386-35EF2F4D30B4}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{9E539D0B-5525-4906-AFD7-DCECCD30BE95}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{AA7E6826-3933-4849-8DB7-DB44181A4A7C}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{F4858B5E-0176-4F69-B162-D75C2D81D31B}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{B6F90431-4B05-446A-9767-E3B6ED93E7B6}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{32F25B71-67C1-4492-A4D0-9AD3721178B3}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{C7BA8A88-A57D-4EAF-B6ED-DAB0F0214954}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{66DD6007-2A56-41A4-A140-6CF923DA4C56}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{63CA185B-B1D4-4AE4-9D9A-787C9AE645DE}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{DEFD9181-66D9-42D3-BAB1-8269D7FAA8C7}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{F074D329-81F6-4757-B344-A8A0CF0616E6}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{C3CF24AE-D189-46AE-95B9-EB553B6AF7F6}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{E001C70B-397E-49BA-B1D6-4DBBF5D46042}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{90E455A4-7B5C-4773-B32B-BB0C3EF893E1}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{6BF629A4-4666-4F00-8EBA-FD1FEC95188E}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{7C240AFE-4214-4EB8-8D75-BB42D61A665B}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{1E759861-E1A0-45EE-9A59-AC46101E15AB}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{150BD883-1BBD-4B30-BBC8-418A5F57A583}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{9654AC0C-EFB1-4209-910C-CA049925C408}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{43AF8E59-8427-4F49-A03F-8905F83FB237}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{1549BFCA-E74A-49F9-B31A-BF973BE27EBB}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{2CDA5BA0-AC69-4F22-9823-811A67018DF3}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{29F605EA-9A46-45BB-9636-B23EE1802A4F}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{ECE12FC0-9C72-454E-8205-EC43C7F6890E}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{0B7A8B06-4509-4B35-8B77-3573868E5769}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{F18992D5-9EEB-4D44-A23B-5A382D2FC505}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{E6AE101F-69FA-42AD-A23A-9534C8BB3279}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{A457146D-3EF8-421A-96F8-39A914E18785}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{C8C65DB8-EE11-4287-88FC-0B708573BED1}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{5BCF9CDB-85A8-4331-992D-EAF102A373D8}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{2941D613-BB33-4EEB-AF30-4558EFD766C4}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{B6CFAADE-D91C-4518-BB4A-BE944F03868F}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{1F741802-CBA8-46ED-B8FC-EBA3DF21A0CF}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{CC833FD5-E13A-4887-AA61-D6CF70476D98}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{0194474D-450E-4FA9-9F1B-A97C4593B681}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{3E2328AB-D2CC-4BE1-A9FA-D43802790C8B}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{CBD3A2B9-B169-401E-877C-2B944255EE5B}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{D94C97D7-D251-4095-AEC2-127202496284}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{4B0F61FC-EDCD-460B-A921-67B21DE9D7A4}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{67444CEC-A886-49D5-AA60-9B1F6CD1B632}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{73A184B6-09CF-4A36-B21F-DDC22A9C809C}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{BC851B52-6558-4860-8E39-C43BE8D75798}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{F563CA01-D0A0-4B83-8EBF-E8F73B533C37}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{9581330F-F5EF-45A4-9892-340199E9255D}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{387D9545-12A5-4F0C-85D4-3D4630D532C9}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{62B4186E-3675-42D7-9551-9E7495F8668F}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{11321DDC-BBC0-4D8C-BE6C-FCB1BF7971AC}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{D9AC0F13-784B-42A4-B72B-9B7C98E05755}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{A20C1651-573D-4782-AEE7-AE3B074A7153}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{8CB8E783-46C2-43AB-BC38-065941F15BFF}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{E2829195-DFE4-4570-9F33-80A3A617A4A2}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{4ACB2AE8-B847-4DA3-9785-FF1084E39BA8}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{A4EF3AFD-6308-40AA-B2D2-F0C3B7540871}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{D5B8A1D5-AD25-45FB-AF71-04B0DBED3C82}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{915ED5EF-7A15-4FBB-BE58-FF68413F13F0}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{D531EDA0-1FCA-4DCF-A153-D30896F9D1BA}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{76A625F8-D249-425A-B0C0-974A458BE9F4}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{415B6251-25F4-4A0B-B145-F6F83C0FA114}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{6FDD8F0C-9B61-40BC-A29A-7211A3D70334}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{48385CE2-4DE0-4C42-B52F-967395775562}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{FFD7ED0A-8C04-4D2C-B5AC-0BC74ECE22F1}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{7FE33896-BFB8-4D69-B157-DC5195023BA6}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{CC089D15-3026-4A38-8BCE-3E967BA6B126}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{140F84AA-11C9-4B4A-8481-18417B78B031}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{AF7299D1-62B6-4337-812F-EBD20DD68B24}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{B2B8EC77-0BBF-4E5A-B8F9-346E3581605C}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{2843467C-A3BE-48E4-A01D-A6ACFB51EC0C}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{51D8A0A8-0829-4F4C-B346-4E58DB59E6EE}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{0B6B941F-5DF2-4E17-97EE-AB6779BF8E2C}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{0C8F4B3F-9D18-42D9-B40A-F0089ECD991B}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{D43DA081-5C22-4838-BE80-3A301BC7512D}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{67A541EF-E5E9-4B19-B4F5-7B86ABB11DAB}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{611CD1C5-36EE-4BA7-9BE6-CB0AE0D4E0A7}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{438A8B47-9EE6-46BC-A84D-5450945EF8DB}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{0AA2ABCD-8DBB-4E63-97D7-99E0439C0D28}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{13171CAB-392B-4563-8785-47329EF1E297}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{351E1BD6-B138-4164-B9FF-8564F8EEE373}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{55645586-6A05-4887-BB79-EC20F7A3A31D}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{C6D38017-49BB-4B2F-876E-6ACCAC19DF44}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{B33AD8DC-84C2-4533-A831-2B66B88D1142}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{4BF7962D-6BB4-4292-A405-AED0DD4E5B88}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{A8A2838F-CC09-413C-9AC2-354C4B5352FA}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{AA812A90-7722-4C25-99C1-95771F7180FB}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{20F69BCE-FFE1-4263-B765-18D2404C8B1B}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F9520FF-2342-4BE5-B617-66FB5FF84801}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{4F756CA1-ED19-42D7-BDAC-409260BAD5B4}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{6926629E-120A-41AD-8D04-4EEF66FF699E}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{F5B3F5C4-AFC4-42E4-9235-8CE68051575B}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{739ACACE-B3E7-444A-BEFA-0A0ADB935E9E}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{85E4E08B-C35E-4139-8254-915A02105A2B}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{7C1B1861-566B-49FC-A2EE-11F4483B8EAB}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{1FD9B3A8-34F6-4B11-B29E-D999E8B94095}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{6A6DB96E-3723-4684-B3D2-0C631EE35BC1}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{685C0AE0-FCB8-4349-B0F0-E23FA972D669}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{0063EBCD-618D-4941-BAC6-7FA7DD5C8ACE}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{13741BC2-E6B3-4DAD-87BC-C1C1F6104134}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{EE48FB8E-B9F7-4A6D-A9AB-D28F59C24D3E}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{124F2834-ABCB-4BB0-BBAF-B31AE7E9696A}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{1CA4AC4F-E3A8-4422-BFB1-37E96F3A9E46}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{7072A91C-2248-4C01-B302-E458E1D0D461}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{C98CCD68-CC8F-49E2-AF95-6D62D8199064}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{5FFEA004-1C31-4C51-AA8C-D45203368E90}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{CAF90B16-0877-4D2A-9DDF-D9ABA81F3F70}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{054EE933-24DA-4776-9C22-429A951C28E4}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{D78ACB87-D72D-49E5-848C-73A3615ABC87}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{8D6B197D-3183-46BC-B0A4-588BA364AD50}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{159DC21E-F023-4FF1-B441-3162D47F5CFA}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{BB1C20E2-9473-4D18-87A1-B8D5A565018C}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{0D970CFB-6487-4B8A-B6E6-4464EA28DB33}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{D408F013-9EC5-488F-906A-3D481B6C8FED}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{A763D8AA-16DF-426A-B478-1D0A2CA94A1D}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{56ECE74E-3078-4759-8E95-CBFD41B60259}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{22229DCC-C706-47EC-8853-3DFB15323153}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{860B04BF-7471-4435-B7CC-78DB036746AC}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{A03CEA87-FD01-4A61-9F56-E64957F00DD3}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{C7C2D6A6-48FD-4597-A715-C55FB2A03007}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{19FB83AC-2314-425A-98F4-830D6ECB7493}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{55672377-3C5F-4E9C-BEC9-9FD770C9A779}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{36FD269E-9B1D-4B00-844B-2703FFE03D5B}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{C12B836F-FEB1-47FC-AF79-A943B7B257B8}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{2E00C0A0-56D8-44FD-991C-BE7CF31619DD}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{D54C854E-1725-44B9-9C0B-518175CC92B1}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{1E0325BF-6494-47E3-95C1-8D5263D43BB3}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{D785A833-EA52-4352-B88A-779BC265B160}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{1BB665A9-F5B6-49C6-8A06-650B55D4FD45}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{9F1B4CB7-6546-4BF0-8D85-24344FC4E090}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{4FF54898-5139-4B18-9ED6-F209E6F45C58}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{203C5D86-5035-4A1C-A2AA-7D877E39416C}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{671E42C5-0059-4511-BB64-E3915DAE5B84}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{7222F7E7-6AB1-4125-8514-5AE4E8F8684E}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{2C0C2345-E2B0-44C2-8EDC-3C55E5CEC1CF}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{AFA31471-E28F-4630-A0D6-A0A883F87BD0}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{7FCCC236-2249-4930-BD95-EE85F8D1D44F}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{B3522632-E9E7-4319-998C-DC8AEE220250}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{FEFBFF5C-78ED-4D46-9891-07152B47B32B}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{770E4B4B-86D1-4CAD-97EC-D3EC67DD2291}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{D39C2EDB-6324-4BC2-9846-A71AB9F4F71A}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{7FD3F0A3-40D0-4D4A-A82B-63D9090B36B5}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{9C6230C9-02B1-4D79-A6C7-1CAD465F8BB4}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{8DE9DEF3-72DB-4F97-B333-6DE4F57E6DFB}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{6996CE80-C0D1-4764-8AE7-AA30215E9C7D}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{5CC3934C-0250-47F9-8075-0B16A4970403}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{F9104A42-62C9-4973-8FF4-2883962B5698}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{4168C4FD-B135-442F-936F-3610E38250AA}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{D3E1861F-AC77-4927-9223-40D03FEA311D}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{49941E7D-F614-408B-9022-B96AC13062E5}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{0808E9FB-1D71-4724-AD7E-6DFE5D08EDFB}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{77826999-737D-402B-9E13-C201AE2B2D21}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{EF80F054-9D4B-4540-96C9-983A5ED40CFB}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{8452E6BA-A9B9-4100-B2D6-B71689D259B9}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{06CA06EB-8FEB-4D3B-A4B3-DD14B8592242}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{3D46E5D7-0354-420E-8554-DB2E9295BCE3}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{82961E93-4226-4800-B541-CD75834A40D2}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{7221DFCD-35DE-4102-94A6-96C19374C1F9}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{393F0BC6-F1D3-4C2B-B174-D76F6FFD2E1A}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{925A5AAA-469D-4E9C-9647-3E9A4A0D7C74}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{911B1ED5-4ADD-4A6F-BB57-D35DF31B84C0}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{1CEA9393-199C-4AC8-A4B2-4F8115C898CC}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{FB1DD276-B209-451A-99C8-52033A5AAB20}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{FE66858F-7BE7-4D11-B0D9-4840ADBE58E7}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{858C4C40-AF7A-4DBE-9D87-43E4334795B9}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{51C68592-0D27-48F0-8EB7-ABD17F6F079C}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{C15D2227-0863-433F-9C2A-D82A9909D57B}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{FA0E205A-8D38-43BB-B72C-3884E81DFC4C}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{53374ED4-15B1-460F-8AEE-5419BE972E2A}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{6E530D0D-099C-4E67-B138-56D72058EAA3}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{F314D11D-C560-4F82-83DB-1F2C6C3C8739}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{4108CCA9-212D-43C7-9DAC-C4B752DBFB89}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{9DB34938-D35B-4EE2-803B-1BA7323E0068}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{10DF36AB-0490-4C0D-A72A-E10F144040D5}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{7859E9DA-8049-456B-94DA-B4F04791CC88}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{FC5BAE57-DDA7-402F-A877-903EEA09490C}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{FD6058EA-807A-481C-B18D-0E9C6D5D8109}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{3F98E5F4-B229-48DD-9743-A30ACA9ECAA3}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{7264C2DC-B999-4618-A7C1-5ED31E68F845}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{F2EA13DF-DA72-48E4-BBB8-A0418DDF54CF}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{D5CDE1C2-78A9-4B49-B6FA-2CE6E4524271}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{E3918A8E-D9FE-49B9-BACD-71A9BA7EDD21}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{8A54D9C1-D7F3-4D3E-B070-353EF199108C}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{88A77E94-CFC3-4536-B5D3-E0B530509890}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{9FA6FEBB-E29A-49C6-80C5-06F1B2E78FF6}"/>
+    <hyperlink ref="B439" r:id="rId409" xr:uid="{DE66F0B2-0816-43CF-ACD7-1DA3C1E77A30}"/>
+    <hyperlink ref="B464" r:id="rId410" xr:uid="{EA392825-9809-47E9-BB62-E80DCDD25F43}"/>
+    <hyperlink ref="B463" r:id="rId411" xr:uid="{BC122E87-9B23-4D67-80BB-7345D51D7812}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{CC13BA1E-363D-4EDE-AA5C-12767A8E3D05}"/>
+    <hyperlink ref="B461" r:id="rId413" xr:uid="{F3C7DE00-5A5D-4A1F-9A0F-6B5650F5F59D}"/>
+    <hyperlink ref="B460" r:id="rId414" xr:uid="{1B221DA4-3FFD-4BC6-93C5-D41EEABC97B0}"/>
+    <hyperlink ref="B459" r:id="rId415" xr:uid="{6F0179F2-062D-42E0-B572-B28208C3093F}"/>
+    <hyperlink ref="B458" r:id="rId416" xr:uid="{5A97D43C-F622-4714-A701-468752EC92FD}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{DEB2A66D-EF1E-4DAD-A4AA-5F7B8943187D}"/>
+    <hyperlink ref="B456" r:id="rId418" xr:uid="{C43AF0A2-A8A4-429D-9089-3637FB643BE4}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5A5FD922-38F5-4DFD-9126-814E07A8B446}"/>
+    <hyperlink ref="B454" r:id="rId420" xr:uid="{7D8ABF36-E41E-4FEC-9AFC-677B45A0DAAE}"/>
+    <hyperlink ref="B453" r:id="rId421" xr:uid="{6A40B43A-5437-47C6-88F5-7F344ABD1B1D}"/>
+    <hyperlink ref="B452" r:id="rId422" xr:uid="{BA45F557-BE61-4D2E-9E52-8D5C8DFC3750}"/>
+    <hyperlink ref="B451" r:id="rId423" xr:uid="{06E472A7-49B1-4A57-88ED-95859229FE51}"/>
+    <hyperlink ref="B450" r:id="rId424" xr:uid="{07CDFEC7-FD75-4F0A-95F2-1D0FEEF22B37}"/>
+    <hyperlink ref="B449" r:id="rId425" xr:uid="{BEC36BE6-EF5F-4B71-893D-8931AD744070}"/>
+    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{A910F4E9-ADCE-4124-AF08-BAC17EBB1F19}"/>
+    <hyperlink ref="B447" r:id="rId427" xr:uid="{B066B74A-737E-48ED-89EA-74C2D32AF821}"/>
+    <hyperlink ref="B446" r:id="rId428" xr:uid="{96D94080-2342-49FA-A954-85AC3BB666CF}"/>
+    <hyperlink ref="B445" r:id="rId429" xr:uid="{D4C3D0D7-6D34-41EE-9FB9-5254B67F2E0F}"/>
+    <hyperlink ref="B444" r:id="rId430" xr:uid="{546888C7-3CCA-4E75-ADBB-DF31EF73BCAF}"/>
+    <hyperlink ref="B443" r:id="rId431" xr:uid="{4D012C09-D493-49E2-B812-EAD72758170C}"/>
+    <hyperlink ref="B442" r:id="rId432" xr:uid="{41CEC562-BB19-4035-80D2-3F0F770918B2}"/>
+    <hyperlink ref="B441" r:id="rId433" xr:uid="{0D3B96A7-894B-4213-AFEA-C55405C3511D}"/>
+    <hyperlink ref="B440" r:id="rId434" xr:uid="{F5BBEB2E-16C6-4BAD-9DD8-65C25D4431CC}"/>
+    <hyperlink ref="B512" r:id="rId435" xr:uid="{E3CB6AF7-9607-4C42-8E2B-D6A94734E810}"/>
+    <hyperlink ref="B511" r:id="rId436" xr:uid="{9C2EBECB-02CB-4240-B620-67033A180B52}"/>
+    <hyperlink ref="B510" r:id="rId437" xr:uid="{305847F5-6F34-47C8-A6E2-F5E8A2F11999}"/>
+    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{13C15334-3A81-43FA-8785-D83327C4CC6E}"/>
+    <hyperlink ref="B508" r:id="rId439" xr:uid="{F221A948-08CE-48EF-B5D6-1A78444E0744}"/>
+    <hyperlink ref="B507" r:id="rId440" xr:uid="{525BD721-54F0-4E24-B94D-59CB6F77DB48}"/>
+    <hyperlink ref="B505" r:id="rId441" xr:uid="{382B212D-0B32-462E-80B7-84467675867A}"/>
+    <hyperlink ref="B504" r:id="rId442" xr:uid="{0C3FC6EB-E70E-4DFE-BD63-6F98DFAEB4FA}"/>
+    <hyperlink ref="B503" r:id="rId443" xr:uid="{F97A4B96-DC14-4C29-837A-1403FDFA4461}"/>
+    <hyperlink ref="B502" r:id="rId444" xr:uid="{2FFE5093-B527-4E4D-BA82-CD3BD62E6B74}"/>
+    <hyperlink ref="B501" r:id="rId445" xr:uid="{DFD559DE-5964-444A-B13E-D7438675CC13}"/>
+    <hyperlink ref="B500" r:id="rId446" xr:uid="{9ED12126-B86E-4D20-91AC-A4EA2E1568EB}"/>
+    <hyperlink ref="B499" r:id="rId447" xr:uid="{F5B69D4B-7799-4E85-BAD1-D6031651C345}"/>
+    <hyperlink ref="B498" r:id="rId448" xr:uid="{722B70CB-87C0-4E72-B8BA-735C8C6F2EBF}"/>
+    <hyperlink ref="B497" r:id="rId449" xr:uid="{E3940F15-46DC-4582-A02A-55FF8B1752F6}"/>
+    <hyperlink ref="B496" r:id="rId450" xr:uid="{B0660375-C76E-4918-9247-35E93450021D}"/>
+    <hyperlink ref="B495" r:id="rId451" xr:uid="{768EFD70-8991-4A84-A20F-F135D292AFEC}"/>
+    <hyperlink ref="B494" r:id="rId452" xr:uid="{34948FFB-BF59-40BD-B81C-5666F61FC417}"/>
+    <hyperlink ref="B493" r:id="rId453" xr:uid="{FC57FCE8-8BA4-41D8-831C-62F238DFAB14}"/>
+    <hyperlink ref="B492" r:id="rId454" xr:uid="{A6ADEC94-3C8F-4CB0-9518-5534319B697A}"/>
+    <hyperlink ref="B491" r:id="rId455" xr:uid="{EA5A32AA-DD5D-4319-AFD5-A1BD579C0B1C}"/>
+    <hyperlink ref="B490" r:id="rId456" xr:uid="{71FFBC5A-E970-4606-9B1E-0945A65B9C1D}"/>
+    <hyperlink ref="B489" r:id="rId457" xr:uid="{CB537A30-B62B-4820-B0D3-6801481E830D}"/>
+    <hyperlink ref="B488" r:id="rId458" xr:uid="{F5E44C46-B689-484F-B5CB-3ADFF9E03374}"/>
+    <hyperlink ref="B487" r:id="rId459" xr:uid="{B32D1237-7350-41F7-9917-EBC50AFCF755}"/>
+    <hyperlink ref="B486" r:id="rId460" xr:uid="{A022713D-E964-4E32-9714-6A0E56820B4C}"/>
+    <hyperlink ref="B485" r:id="rId461" xr:uid="{8BAA66D3-6A38-45C9-B798-50C81C4AE2E4}"/>
+    <hyperlink ref="B484" r:id="rId462" xr:uid="{1C18047C-CCA8-4CA7-A978-DBE2206DF656}"/>
+    <hyperlink ref="B483" r:id="rId463" xr:uid="{F78AF8FF-F821-4040-BC9A-1AF2A1C03B34}"/>
+    <hyperlink ref="B482" r:id="rId464" xr:uid="{96601C1A-9A0D-4E68-A113-B65BCA892194}"/>
+    <hyperlink ref="B481" r:id="rId465" xr:uid="{25BFC7A1-31B8-4AD5-AE7A-E3286823810B}"/>
+    <hyperlink ref="B480" r:id="rId466" xr:uid="{50F05195-5219-4AA3-B05E-997D51B5D097}"/>
+    <hyperlink ref="B479" r:id="rId467" xr:uid="{D59C74DE-C9F0-4CDF-B686-18C39F58D7B7}"/>
+    <hyperlink ref="B478" r:id="rId468" xr:uid="{4644B5E8-9B0A-4AE4-A198-3EDE3C5E5C4C}"/>
+    <hyperlink ref="B477" r:id="rId469" xr:uid="{F60FE98C-50D3-4796-8EF7-317F373C4781}"/>
+    <hyperlink ref="B475" r:id="rId470" xr:uid="{8E93F361-86A1-40EE-9944-3197A68FB9D2}"/>
+    <hyperlink ref="B470" r:id="rId471" xr:uid="{1BF365E1-3194-45E4-8609-C3AB403AD5A3}"/>
+    <hyperlink ref="B476" r:id="rId472" xr:uid="{64FD3215-CA22-4EFA-A240-52619CD5BFE1}"/>
+    <hyperlink ref="B474" r:id="rId473" xr:uid="{C9FB8A6A-061C-4EFD-A902-F3DB3B44CF00}"/>
+    <hyperlink ref="B473" r:id="rId474" xr:uid="{903EA7EF-19EA-4992-9F78-03D51C65653E}"/>
+    <hyperlink ref="B472" r:id="rId475" xr:uid="{552507C1-D9D1-4F5B-A55D-233ABC06FB16}"/>
+    <hyperlink ref="B471" r:id="rId476" xr:uid="{19C7245D-3644-41C6-BCF4-0DA40B05AB23}"/>
+    <hyperlink ref="B469" r:id="rId477" xr:uid="{6361D7AB-4458-4423-82A9-081924E0BF8A}"/>
+    <hyperlink ref="B468" r:id="rId478" xr:uid="{3FE49E60-7CF9-44F1-B87C-C774CF723554}"/>
+    <hyperlink ref="B467" r:id="rId479" xr:uid="{64F3B062-0939-468E-8698-C78DC60C1B7A}"/>
+    <hyperlink ref="B466" r:id="rId480" xr:uid="{B9CB4B26-2971-4B99-A3E2-0ADE9CFF2870}"/>
+    <hyperlink ref="B465" r:id="rId481" xr:uid="{1D1D7AD8-C2F8-4B2B-B1B4-F4D3450D5CDE}"/>
+    <hyperlink ref="B538" r:id="rId482" xr:uid="{06E90D17-9C90-4E37-9B84-E29E1E49016B}"/>
+    <hyperlink ref="B537" r:id="rId483" xr:uid="{F6016B8C-E4F2-46C4-A80D-ACEAD27CA4F0}"/>
+    <hyperlink ref="B536" r:id="rId484" xr:uid="{0D8D89DA-955C-45A4-9E05-5B89EFFF7DFE}"/>
+    <hyperlink ref="B535" r:id="rId485" xr:uid="{6AEEAB15-D097-4AD4-9CF4-29222CCADF56}"/>
+    <hyperlink ref="B534" r:id="rId486" xr:uid="{5412FC25-B346-4093-A859-B632662EA593}"/>
+    <hyperlink ref="B533" r:id="rId487" xr:uid="{1E6B8FDA-3C26-48C1-A8E0-898569D105C8}"/>
+    <hyperlink ref="B532" r:id="rId488" xr:uid="{737E1559-354B-4F43-92A9-DE8C8BB4CDCB}"/>
+    <hyperlink ref="B531" r:id="rId489" xr:uid="{D20EAE03-1501-426A-96B3-4B134E095422}"/>
+    <hyperlink ref="B530" r:id="rId490" xr:uid="{906095BC-EDB8-45DB-A17B-2A2427FDCD18}"/>
+    <hyperlink ref="B529" r:id="rId491" xr:uid="{81B0548B-9B55-4E55-BA7A-F20CF27F4ED8}"/>
+    <hyperlink ref="B528" r:id="rId492" xr:uid="{CB5BDD59-BA76-4361-BA32-34FF9D8A6AA4}"/>
+    <hyperlink ref="B525" r:id="rId493" xr:uid="{864ABFED-7274-457B-BBCF-418DAFA89E26}"/>
+    <hyperlink ref="B524" r:id="rId494" xr:uid="{57B0FD8C-137A-482A-8AA5-96E2E1303219}"/>
+    <hyperlink ref="B523" r:id="rId495" xr:uid="{C6F63192-572E-4C29-A18C-20006F39B50C}"/>
+    <hyperlink ref="B522" r:id="rId496" xr:uid="{7865A38C-1C6D-4DC4-B01B-1C3AEA65FDBE}"/>
+    <hyperlink ref="B521" r:id="rId497" xr:uid="{818BD2DB-46F7-4AF6-B2F6-F1B711EC6F7D}"/>
+    <hyperlink ref="B520" r:id="rId498" xr:uid="{0120BBAA-F0EB-464A-96DF-FFD02C3BE34F}"/>
+    <hyperlink ref="B519" r:id="rId499" xr:uid="{59EA7D53-587A-4E38-934F-158E79035ECD}"/>
+    <hyperlink ref="B518" r:id="rId500" xr:uid="{512E95B4-62D8-42C2-A87C-CD577019A1BD}"/>
+    <hyperlink ref="B517" r:id="rId501" xr:uid="{39DCF7A6-D155-4145-ABC1-5AFFB3E12AF2}"/>
+    <hyperlink ref="B516" r:id="rId502" xr:uid="{497F720A-7DC0-4A66-8547-69EC8882C857}"/>
+    <hyperlink ref="B515" r:id="rId503" xr:uid="{C410AA82-BC3F-479D-96DB-2CD3BF386BD3}"/>
+    <hyperlink ref="B514" r:id="rId504" xr:uid="{519D56F6-B25B-44BC-98D7-BCC31123FFBF}"/>
+    <hyperlink ref="B513" r:id="rId505" xr:uid="{6E50300E-8273-461D-9DDB-8DA97B594390}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{E1A18F6C-52C5-45A5-BAA2-1BA1A859E9A7}"/>
+    <hyperlink ref="B527" r:id="rId507" xr:uid="{551446ED-CC2A-45E9-965D-1C4BD344B991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId482"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId508"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC7C1D-FEC6-4DBE-BD1C-33D5168AAC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F61C88-C9EC-4CF4-AE33-6864F7CD4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1132">
   <si>
     <t>titulo</t>
   </si>
@@ -3256,6 +3256,180 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/23f436ed-1e00-13ce-3ebb-316a47e61683?title=Armac%20%7C%20Papo%20com%20ex-estagi%C3%A1ria/ex-analista</t>
+  </si>
+  <si>
+    <t>Guiabolso | Thiago Alvarez (CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/231b121f-31a7-48a6-9ab3-1b4d10cb8523?title=Guiabolso%20%7C%20Thiago%20Alvarez%20(CEO)</t>
+  </si>
+  <si>
+    <t>BTG | 1x1 com Roberto Sallouti (CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ff2e6269-2333-4031-985e-f778b011f9c3?title=BTG%20%7C%201x1%20com%20Roberto%20Sallouti%20(CEO)</t>
+  </si>
+  <si>
+    <t>Unidas | Papo com CFO da Kavak</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/386b0817-21d4-4a36-866a-f04c3f27ccd4?title=Unidas%20%7C%20Papo%20com%20CFO%20da%20Kavak</t>
+  </si>
+  <si>
+    <t>Empiricus - reunião com Rodolfo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3f3abad0-1071-4612-bdf3-511bb3eaf190?title=Empiricus%20-%20reuni%C3%A3o%20com%20Rodolfo</t>
+  </si>
+  <si>
+    <t>Kora | Reunião com mgmt IPO v2</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e513e460-a3df-4a65-a055-a9e3d1e4b8b0?title=Kora%20%7C%20Reuni%C3%A3o%20com%20mgmt%20IPO%20v2</t>
+  </si>
+  <si>
+    <t>SmartFit - almoço com José Rizzardo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d131153c-5ef2-43f1-aca8-2a02ba11a914?title=SmartFit%20-%20almo%C3%A7o%20com%20Jos%C3%A9%20Rizzardo</t>
+  </si>
+  <si>
+    <t>SQIA - Entendimento de tese com a Reach</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f9e2002-59da-1c28-5800-149376c07060?title=SQIA%20-%20Entendimento%20de%20tese%20com%20a%20Reach</t>
+  </si>
+  <si>
+    <t>[ESG] Eneva - Artur Vilella</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/759e24f4-79b6-4d9d-a12c-c224e28c6283?title=%5BESG%5D%20Eneva%20-%20Artur%20Vilella</t>
+  </si>
+  <si>
+    <t>[ESG] O Futuro de Hidrogênio @ BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1984b53c-39cb-4089-b2fa-c3fbc21e6f11?title=%5BESG%5D%20O%20Futuro%20de%20Hidrog%C3%AAnio%20@%20BBI</t>
+  </si>
+  <si>
+    <t>BTG- Atualização | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/40dc6e9b-f14d-bfde-ac5c-3e0d09dad730?title=BTG-%20Atualiza%C3%A7%C3%A3o%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>ESG Update Mensal | Abril 2021 | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c2cc5032-c643-db8f-afcc-a9d833bd195d?title=ESG%20Update%20Mensal%20%7C%20Abril%202021%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>ESG Update Mensal | Maio 2021 | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/938dca7c-6d75-50c6-77c6-34d326c9dcf6?title=ESG%20Update%20Mensal%20%7C%20Maio%202021%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>Apresentação Grupo Mateus | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9d3e46d7-984a-d7a7-1ab9-00ee5805bbce?title=Apresenta%C3%A7%C3%A3o%20Grupo%20Mateus%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>CASH - Inititation | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d404bed7-1ccb-ed27-49c5-42fe12c60510?title=CASH%20-%20Inititation%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>Papo com a Shift Capital (growth equity com investimento na Bluefit)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ddb820ae-3b4e-4063-8447-77f7f80afea3?title=Papo%20com%20a%20Shift%20Capital%20(growth%20equity%20com%20investimento%20na%20Bluefit)</t>
+  </si>
+  <si>
+    <t>CNTO - Update | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3d764877-bc2c-c42c-6af3-7184d175f593?title=CNTO%20-%20Update%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>DOTZ | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/39fc726e-50a5-10aa-2208-2b8ddb8572dc?title=DOTZ%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>ELMD - FollowUp | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/38a68e14-7788-e58d-49b5-c0a7103b7497?title=ELMD%20-%20FollowUp%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>ENEVA - Atualização | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/01e61861-9817-01f0-61ac-5a77719fac28?title=ENEVA%20-%20Atualiza%C3%A7%C3%A3o%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>FollowUP | Espaço Laser</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fee01e24-ae32-1d95-744b-226a27264f50?title=FollowUP%20%7C%20Espa%C3%A7o%20Laser</t>
+  </si>
+  <si>
+    <t>GPS | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/21257c8c-3be8-b1b4-2348-d77756b3e5ff?title=GPS%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>Grupo SOMA | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1f33455d-b11c-a3d4-bb8f-b07dfe84d603?title=Grupo%20SOMA%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>LIGT | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6ce76063-97d1-d8da-6930-b6eabc4de8e4?title=LIGT%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>LWSA | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d42b75fa-60ff-720f-c9ec-093bc14428ef?title=LWSA%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>MOSAICO | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6014a3af-9fe8-5b4d-011c-442d91331b81?title=MOSAICO%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>Comitê ESG - Catavento - #3</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/77c9f9a3-2e26-3863-2820-d27c9432408f?title=Comit%C3%AA%20ESG%20-%20Catavento%20-%20#3</t>
+  </si>
+  <si>
+    <t>[ESG] Créditos de Carbono - Introdução | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6f46b153-ddf7-9ea9-c81f-9530b5f9de08?title=%5BESG%5D%20Cr%C3%A9ditos%20de%20Carbono%20-%20Introdu%C3%A7%C3%A3o%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>TC Inicial | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9c56b609-eee1-bbc3-164a-e1a058910dcf?title=TC%20Inicial%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>SQIA Update | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/86dd5adc-db43-3e0f-83ff-ba719bab7a21?title=SQIA%20Update%20%7C%206%20Pager</t>
   </si>
 </sst>
 </file>
@@ -3653,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529"/>
+    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="A569" sqref="A569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7969,517 +8143,778 @@
         <v>1073</v>
       </c>
     </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{1E2E0DE6-EA4E-4718-96C8-54C68502D303}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{49E0C83E-AC50-466A-B589-2281C37FDA6D}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{26E161AA-553E-44BD-A962-1F9857B8AF62}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{43143431-E533-4237-A502-10880A875FB8}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{1F938A0C-0918-4285-99A6-A920B10688D5}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{3AC76023-4042-48E2-80A1-4484D327C300}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{4920E047-44CB-4F0D-A347-56C272FC67EE}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{A5D0E89C-7579-4A3E-B459-D4772E11043B}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{0DB5C6C9-154A-4ECC-BB88-87CFFA6F5A2E}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{2580B73C-4BA9-4EF3-8638-06DBF2A912C3}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{45B1FBFF-3FA8-42D2-878A-2EFD74326F6E}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{5B60A93A-691F-40F3-AC73-A894F71D03A2}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{E3948B9F-4CC5-470F-A29C-41B205A41F66}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{788C187A-E44F-4C77-8E69-423A9176BEB0}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{D19F4C38-CBEC-4121-921B-F3D5199340F1}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{A60C9118-50B3-4019-9DF9-2C77F278B47D}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{A40E6B14-C024-461B-B297-9FF2B4B666AB}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{6447AA4F-E105-47E3-857A-25CA4E6153A6}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{5CC1AC8E-14FF-4E88-BC69-949B9BD2E7AB}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{A91CFE5E-E7B6-46F9-9A30-58A7A611D54F}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{F5B9DE4B-9C32-4E6C-B91B-948C56614DB0}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{4402B7C3-6618-4A5B-9897-6BA3D4253C28}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{949A948C-311D-436F-81A5-76B80FAF168C}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{447DFABE-0E05-4E49-B8F9-41DB3BC2BA39}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{6946E62B-4AC0-4FB7-972B-ED5510230C29}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{9C9A2CDB-5659-4666-8D19-18F288409A15}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{11AC7366-95D7-4E00-812A-35D323EC28DF}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{FE3590A5-7B86-4BB9-B46C-1BACEBDB920C}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{0F87948B-46F4-4EE6-85E6-FBF13E6AB46A}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{E4FBC760-C4D8-48E8-A6B3-DC5F07359785}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{1BCD69CF-719B-4DEB-BE19-5FCEF67E0048}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{DBDEDE6C-8B83-48D6-9A27-FB7BA3486F24}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{3C7726F6-E57D-4349-AB88-5881660B83F4}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{7358D62E-4A2A-4FEE-9D48-04C103FA032C}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{17F04B25-68B5-44C4-B192-05A0706E3DF7}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{D2867DBF-BB71-4B6F-A318-2222863557A1}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{CEEAA159-440E-40CF-AA48-90081EF9B948}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{3AF4A116-800D-4C6F-84C6-FFE08118656B}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{EE57D3B7-34D2-487E-B52B-6ADA1B5FFC83}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{1ADFCBE3-A3BF-497D-BAD0-B3E08559B369}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{9B1588B1-9EBC-4F10-9D76-DCFF69793579}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{6EBA8885-6B3E-48A7-9F1C-9F3B969860EF}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{2C843912-9584-400A-B346-BFA878EA65A8}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{FA8DCED2-A153-40AA-A100-8E332B151614}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{25A8A836-DEFD-4D72-89B3-1B7D53309A46}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{367507B8-D565-44F6-A8B4-9BB75627BDA8}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{2D470F01-DB77-4C4E-A6A9-CC1757E2B510}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{5871AE20-FC28-4FF6-AAD6-BC4F70B1153F}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{669C5805-9528-4D30-AB7E-84A18FF931A8}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{C3CEB8A4-8B5F-485A-A8B3-C7A85D7845BD}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{618F2BD2-FA9D-4749-8501-E0B76B73CEAB}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{4C3BC3A5-02BD-4991-A049-A0EBDB169331}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{F8D10959-64EB-4705-989D-E8FE3154EDB3}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{9DAB3D23-AB9F-458C-BCD2-4D0AE9E7FFD9}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{FE98623E-44D7-4EC4-BAE2-912BCE3C9C10}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{B6E7AF14-C3D6-4949-85A2-F6E3BE4F9639}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{73F5B311-F19B-4E75-9815-40E7938B4154}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{B966DA1D-CD8D-4D3D-ADFB-8FB04F1E582D}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{63E93ACD-C43F-42DE-B381-E9A184C073D7}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{3E3A7E69-407B-4F81-B34F-905C69984F53}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{9C5D19B8-4E21-4CAC-AB74-B96AF6B29990}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{258ED792-6F62-400A-89FF-84B743B10F7E}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{905CDE4E-1D99-4F6E-8975-4064F461B2AA}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{F523FFC0-D20D-4452-BE0E-B353483DBBA3}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{CE570D03-2DF6-492F-AA71-A3FA25928763}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{408AFD47-893F-42E6-A7CB-2D77384D4A2C}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{C683ECE1-0203-4041-91F2-7237948A4C2E}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{5B3B98CD-86C7-4722-9E18-167A389544B2}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{43D2629A-78C5-4916-926C-27C5C3639090}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{8216C34F-7846-4C71-8548-7A746ED71352}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{AA5C026E-82C1-4B7A-AA85-6DBA8A89EF42}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{2165476A-46CF-4827-A5B1-DAF7663E6A67}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{709C09A5-6CD5-4F5D-A52D-9768B147EE79}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{CB5C8656-906B-41AE-9A52-27824E924D01}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{CA5F0506-2275-4E46-9C7B-C3F2BB6535A3}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{FBEE0EFB-609F-45C2-BB4F-06F119A0FF62}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{CDD119E8-3F4E-48C7-AA8D-1215B53A2135}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{F2C6E872-C020-445C-AB54-7ACE2E35AFBE}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{65607EB2-7167-4B68-BAF5-7313558997BA}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{345954AA-F35F-401A-9774-3614A679EC34}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{91F9F0F1-1E21-4482-A75D-35B47DA85ABA}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{8DE0B9B1-AA7C-45C1-9BAA-EB2CEA366BA3}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{12445041-664D-4810-9AF2-566D66CD19EE}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{B2D8CF25-09EE-4969-87F1-7D3C77E2C9AF}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{25810A33-70CD-4464-88A4-8240CC51D52E}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{9E4096C3-9523-4BB0-9941-2D75961EA0A7}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{91E1AD2A-C001-4660-9FCE-660D092E4D9D}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{3D99191C-5B0C-466A-8F51-2F092786758A}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{77149A03-0746-4376-A3A7-6B3B82EE00EC}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{C5543C75-EAF2-48F3-B4B9-D5CA1E192F2E}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{2A3A2CE7-7EFB-480C-8390-23E005B86441}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{0F871F4F-1EB9-424E-8BD5-37555984F47B}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{A0927174-E9D2-480F-B1DB-D66E910CC9DA}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{6F3667FE-45A2-496D-9F41-E879DB694AC3}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{6D0C0838-965A-4E48-A5ED-16A91FF64C43}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{87998E38-08AD-4DF3-9A4C-3A953A8CFFAD}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{C552C54F-5F4F-4386-A6EA-B3EFC775E86F}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{F75A0213-B666-45EF-BF37-8277F70CE232}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{918E3B0D-3F03-4091-8C12-AD0F7FE19DEC}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{D3925BE6-A0A5-4126-BD21-A4C26E72A4DF}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{E4B538F2-5649-47BC-A91A-4ADB11C41D77}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{C89254F1-88CA-46F6-9ECF-CA5D9DC0F668}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{65A2A57A-E9C4-4956-BBC8-2FECB3BBE49D}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{9BA794A1-749C-4766-B01F-F7BEE87F585F}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{0CBE57B0-57FC-4EB1-8AFA-001C771F68CF}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{B50EED72-819B-467F-AD10-3C05739F50E7}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{83D56C2B-A051-4EE4-8870-7A1C1D807013}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{BFC2615D-741B-4D3A-9B85-CC8E52D6B215}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{77EF36DA-4F9F-4D6C-8DFC-74ACACFC8A1B}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{0E93085C-2181-49FC-9FEC-E2C90D2717DC}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{38388FAA-1EE7-400F-A8BE-BA47C6734E3F}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{E9C005C6-04F1-4A91-8272-ACCAF08BF484}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{EE6193B0-DF62-4D2B-865D-6ED3502782C1}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{3B8A49D7-F651-4295-BA4C-00C8DC4A756A}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{27C8AA33-3197-4095-B4BF-ECB308DBA2E8}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{8A202E6C-A9B6-4DD8-A6AA-504EDBF066B7}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{7F13EA3C-0538-4C54-905D-50FFA6E13A7D}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{0E39C239-DB40-4F4D-8AC4-CC936092608A}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{56625CE8-FDED-40A8-ACE0-7BFCEA7C3207}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{45F2BF89-95DD-404B-A61B-22478F36C798}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{4404EBCB-961E-4E41-88DB-C96338322D2B}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{A62F816D-F243-472E-9CF9-FF5984705305}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{3F239002-7F9E-46DF-865A-4DFA4AD1EA68}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{29569154-11DD-4248-B287-42B050F0433C}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{1E0865C1-3E80-4CF4-982B-515804DDDB17}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{F1C5E891-E8B6-48B9-92B7-3D4D20DE20C6}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{C7F2B3F2-7B67-4C29-BBAC-3A454976507C}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{A0FE1131-F314-40BA-8F9B-E6C740A674F8}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{B7BA8F35-2463-42BA-94AF-97E0E415AB9C}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{D9AAFF65-F462-405B-B61D-DD83C4526425}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{A1744842-72BB-4B22-B332-5B12FDE72376}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{418C2533-C8D4-4AE0-BB5E-EA9BDD58696D}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{5BD50EC8-B27E-4513-85E8-408F77CA697A}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{FD53C986-7012-4874-A97B-5C97EDA11DBC}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{210E2ABB-E5D0-4E07-B5AD-758E9B7063A8}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{FC121C6E-B47C-4A3A-A3D3-A79ED6FFC71F}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{97DC82B3-72B6-4CD9-8C23-6DF8C47DA57E}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{14B8B97B-891D-41D1-8675-E3A7750A7D62}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{97BAF052-DEE2-45A3-BAF2-7A687FE0DAB3}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{F0266F33-DEFC-4BD4-BFA5-FC1C9E35A4F8}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{B1A235CF-5226-42DB-AE83-FF5C0C07AEF8}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{E80AD0DF-549E-46F1-93AC-BB487F792D1B}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{2D6D9018-323E-4D48-86AB-3141F9BD7C1E}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{2E15C236-A0B9-4FC5-A2AC-B54DFFAF4527}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{0CE3CC9E-459D-412A-A64A-433C40E5B172}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{24C6BE3D-B4B6-4859-BAAC-1EA2AD9E23C5}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{FAAA0223-BAFE-401A-9AFC-CE4FE34AB0C2}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{9109AAB4-614C-4768-9168-7E3A83FE612B}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{BFF3E6C7-C282-41A7-B763-76430E5BE2EA}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{6B3AD20A-7CE8-469B-B84C-9BB2BD0EC443}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{AF104C8D-2159-45D4-A917-79B796289FE3}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{9C768B1B-3B50-41BA-9747-9B6D4ED181DF}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{D6AC76A3-0BA8-455B-86CA-BF91C91DF866}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{7E45A31B-000B-470E-8269-43C1B11D1BA5}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{0563EBC4-5B8E-451A-8720-30C40C1EF81C}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{0F01851B-DE2D-4AC2-8B9F-9321C844BF81}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{A18159D0-FA7E-4B1E-B7B5-A64FF9949C0B}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{FD781428-86E4-4A2F-93A5-A29575B7FDF7}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{41D41129-2AAE-44C0-9B42-7C6D7B62EE29}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{585DD2A5-06E7-4258-9E94-CFDAE5D12A76}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{F0743EB1-732D-46A8-9BEF-8032B1D5CA73}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{05ECCAFE-56BB-4E4C-95E7-12EB300A8934}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{E0E60FD8-793D-4DFB-BA8B-3905DA1B8CA0}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{364EDE76-A425-428C-A2AC-6EEEDD4A0A4F}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{990A09FB-4233-4F54-A500-8B23230DD9AF}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{217531F8-98B5-41DD-89AF-B29741906ED2}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{FD5045A0-E3B8-43D3-85C7-2D4B159662D3}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{1B19D807-B798-4C8D-AF3B-F3AE8F97E074}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{3D4FD28F-7225-4E94-BFD7-454D013D9611}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{2BC3EE75-951D-4D4C-B9FC-E5CEBBB53409}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{389C3EF5-C10C-47E4-91CD-0CBFB952D911}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{4256FAB3-5701-4410-A6AE-8340BEE8F076}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{78F67DEF-9A44-436D-94C0-F2BB720DF46C}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{126D266A-B9F4-4B20-84CD-F1BEA57BBE7E}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{A1316562-76BD-4195-9377-C452C5B08EEA}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{14A7AF37-280F-4674-BC65-5248A16874C1}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{D12C13FB-2D71-4F3D-922C-BA6E808218BB}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{A5800EC6-E5FA-444C-BF75-01965F3661CD}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{3CD3A107-9EBD-405B-B0EB-529AAAE6DD5E}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{90D41023-1A02-49EA-8AF0-6F1F0CFE0D66}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{985617F4-2082-4ABD-B8E8-0DAD542F3B67}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{303C9F66-B295-4B88-AF64-2C50A273019A}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{835D68C7-5699-4563-8B9A-63304942EF14}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{EFFD46F5-2167-4CBB-85AA-5A43DC2203CF}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{5667BEF8-4EAD-4B09-937C-9A5E47609CEA}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{F058624A-F415-4ABA-B318-45FAB9154273}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{7821B9D2-6C20-41AF-9EB2-A3E299750CCC}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{726FF2AA-4223-4412-B73F-D7C2994C66DD}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{F5D8DA95-7A86-411B-913E-2B3910A9686B}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{F4E2AEE1-B54E-4EDD-A74B-56D3704054B2}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{59F33DDC-E43B-4626-8A4A-46CA58797CA9}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{122DDE8C-6874-407F-86E0-0E3E453B3CA1}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{442604D5-F478-4D0D-98F1-7480210CC17F}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{210114BB-7A7B-4566-87FD-7D28AE07497D}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{D040C439-A7FD-4E17-969A-AA9DB30602F7}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{235E6160-18CF-4424-B697-29007F1C1207}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{628C7C5E-C5FA-4603-89AA-A64E9BEC3C77}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{DF4347B9-1237-4077-BAE5-F9EA2D2F9C7C}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{4B1CD128-AE0D-4B8C-B344-FE816074D3DC}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{45B6B459-E0E1-4FE1-AA25-C612B6C44A2C}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{0EFAADD4-CFFC-461A-A033-3CBE55C04401}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{62AAA902-EC40-4D32-B7E0-BDF8CD8DD096}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{E2307E87-85A9-4493-859E-2091FA97C649}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{E4736EAE-EE70-42D9-8024-D004AE0FB15C}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{9FCCD679-F8A8-4A23-AF5B-9B6CEAB9EA10}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{069C3772-154B-4B53-9793-9E1FE51580B1}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{A31C4B03-10E1-4AA8-A98C-C0AB18AB68E7}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{997A78B8-04CD-4750-ADD9-A20FA404FEED}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{A05FB39A-80BD-4270-A4D7-105D568B5193}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{572A98A4-EEF7-4827-9F8E-C0BF4C07B155}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{F387EBBE-23DF-4DA9-AB05-C6AE45345E6A}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{6052EE3A-089B-450F-A962-4969C921FDCC}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{2AF730BB-CFDD-4CFB-8D23-CEC045FCCE18}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{D1B9D8B1-6BB5-4A25-8121-80DD3B4884C6}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{BE8ABF75-8B8B-4A3B-B6A2-98B24DB23EBE}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{0FA1571B-A900-4091-9351-7FD93341707B}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{15CC8E96-48BE-4589-A029-953673BE8D13}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{C32F06E2-800E-460E-AF70-8A561AB36220}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{15E4BC79-C03F-480E-B0C4-FB3EEA4CE5ED}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{3D7C3DBA-256B-4ADB-AA4E-9FF23513BB06}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{143A5855-C50C-4EF9-8588-D94F89AEB711}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{7BFED0E7-30B5-4540-A265-9C081E80BF9D}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{F7BF6785-BD27-416D-999D-00E2362DE960}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{89527E2E-0D48-493B-BEF0-64CD84E26EEF}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{54C51EA4-BD7B-40C3-A314-3CEF853EC1B0}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{9EEC337F-69B8-4F41-B888-1C9B3AAA1AD5}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{0F044B71-F90A-49AB-B03A-7F1ED3952457}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{842FFCCF-18EC-4EC1-9386-35EF2F4D30B4}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{9E539D0B-5525-4906-AFD7-DCECCD30BE95}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{AA7E6826-3933-4849-8DB7-DB44181A4A7C}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{F4858B5E-0176-4F69-B162-D75C2D81D31B}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{B6F90431-4B05-446A-9767-E3B6ED93E7B6}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{32F25B71-67C1-4492-A4D0-9AD3721178B3}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{C7BA8A88-A57D-4EAF-B6ED-DAB0F0214954}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{66DD6007-2A56-41A4-A140-6CF923DA4C56}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{63CA185B-B1D4-4AE4-9D9A-787C9AE645DE}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{DEFD9181-66D9-42D3-BAB1-8269D7FAA8C7}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{F074D329-81F6-4757-B344-A8A0CF0616E6}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{C3CF24AE-D189-46AE-95B9-EB553B6AF7F6}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{E001C70B-397E-49BA-B1D6-4DBBF5D46042}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{90E455A4-7B5C-4773-B32B-BB0C3EF893E1}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{6BF629A4-4666-4F00-8EBA-FD1FEC95188E}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{7C240AFE-4214-4EB8-8D75-BB42D61A665B}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{1E759861-E1A0-45EE-9A59-AC46101E15AB}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{150BD883-1BBD-4B30-BBC8-418A5F57A583}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{9654AC0C-EFB1-4209-910C-CA049925C408}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{43AF8E59-8427-4F49-A03F-8905F83FB237}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{1549BFCA-E74A-49F9-B31A-BF973BE27EBB}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{2CDA5BA0-AC69-4F22-9823-811A67018DF3}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{29F605EA-9A46-45BB-9636-B23EE1802A4F}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{ECE12FC0-9C72-454E-8205-EC43C7F6890E}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{0B7A8B06-4509-4B35-8B77-3573868E5769}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{F18992D5-9EEB-4D44-A23B-5A382D2FC505}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{E6AE101F-69FA-42AD-A23A-9534C8BB3279}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{A457146D-3EF8-421A-96F8-39A914E18785}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{C8C65DB8-EE11-4287-88FC-0B708573BED1}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{5BCF9CDB-85A8-4331-992D-EAF102A373D8}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{2941D613-BB33-4EEB-AF30-4558EFD766C4}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{B6CFAADE-D91C-4518-BB4A-BE944F03868F}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{1F741802-CBA8-46ED-B8FC-EBA3DF21A0CF}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{CC833FD5-E13A-4887-AA61-D6CF70476D98}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{0194474D-450E-4FA9-9F1B-A97C4593B681}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{3E2328AB-D2CC-4BE1-A9FA-D43802790C8B}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{CBD3A2B9-B169-401E-877C-2B944255EE5B}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{D94C97D7-D251-4095-AEC2-127202496284}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{4B0F61FC-EDCD-460B-A921-67B21DE9D7A4}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{67444CEC-A886-49D5-AA60-9B1F6CD1B632}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{73A184B6-09CF-4A36-B21F-DDC22A9C809C}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{BC851B52-6558-4860-8E39-C43BE8D75798}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{F563CA01-D0A0-4B83-8EBF-E8F73B533C37}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{9581330F-F5EF-45A4-9892-340199E9255D}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{387D9545-12A5-4F0C-85D4-3D4630D532C9}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{62B4186E-3675-42D7-9551-9E7495F8668F}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{11321DDC-BBC0-4D8C-BE6C-FCB1BF7971AC}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{D9AC0F13-784B-42A4-B72B-9B7C98E05755}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{A20C1651-573D-4782-AEE7-AE3B074A7153}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{8CB8E783-46C2-43AB-BC38-065941F15BFF}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{E2829195-DFE4-4570-9F33-80A3A617A4A2}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{4ACB2AE8-B847-4DA3-9785-FF1084E39BA8}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{A4EF3AFD-6308-40AA-B2D2-F0C3B7540871}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{D5B8A1D5-AD25-45FB-AF71-04B0DBED3C82}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{915ED5EF-7A15-4FBB-BE58-FF68413F13F0}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{D531EDA0-1FCA-4DCF-A153-D30896F9D1BA}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{76A625F8-D249-425A-B0C0-974A458BE9F4}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{415B6251-25F4-4A0B-B145-F6F83C0FA114}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{6FDD8F0C-9B61-40BC-A29A-7211A3D70334}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{48385CE2-4DE0-4C42-B52F-967395775562}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{FFD7ED0A-8C04-4D2C-B5AC-0BC74ECE22F1}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{7FE33896-BFB8-4D69-B157-DC5195023BA6}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{CC089D15-3026-4A38-8BCE-3E967BA6B126}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{140F84AA-11C9-4B4A-8481-18417B78B031}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{AF7299D1-62B6-4337-812F-EBD20DD68B24}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{B2B8EC77-0BBF-4E5A-B8F9-346E3581605C}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{2843467C-A3BE-48E4-A01D-A6ACFB51EC0C}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{51D8A0A8-0829-4F4C-B346-4E58DB59E6EE}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{0B6B941F-5DF2-4E17-97EE-AB6779BF8E2C}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{0C8F4B3F-9D18-42D9-B40A-F0089ECD991B}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{D43DA081-5C22-4838-BE80-3A301BC7512D}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{67A541EF-E5E9-4B19-B4F5-7B86ABB11DAB}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{611CD1C5-36EE-4BA7-9BE6-CB0AE0D4E0A7}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{438A8B47-9EE6-46BC-A84D-5450945EF8DB}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{0AA2ABCD-8DBB-4E63-97D7-99E0439C0D28}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{13171CAB-392B-4563-8785-47329EF1E297}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{351E1BD6-B138-4164-B9FF-8564F8EEE373}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{55645586-6A05-4887-BB79-EC20F7A3A31D}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{C6D38017-49BB-4B2F-876E-6ACCAC19DF44}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{B33AD8DC-84C2-4533-A831-2B66B88D1142}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{4BF7962D-6BB4-4292-A405-AED0DD4E5B88}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{A8A2838F-CC09-413C-9AC2-354C4B5352FA}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{AA812A90-7722-4C25-99C1-95771F7180FB}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{20F69BCE-FFE1-4263-B765-18D2404C8B1B}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F9520FF-2342-4BE5-B617-66FB5FF84801}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{4F756CA1-ED19-42D7-BDAC-409260BAD5B4}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{6926629E-120A-41AD-8D04-4EEF66FF699E}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{F5B3F5C4-AFC4-42E4-9235-8CE68051575B}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{739ACACE-B3E7-444A-BEFA-0A0ADB935E9E}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{85E4E08B-C35E-4139-8254-915A02105A2B}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{7C1B1861-566B-49FC-A2EE-11F4483B8EAB}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{1FD9B3A8-34F6-4B11-B29E-D999E8B94095}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{6A6DB96E-3723-4684-B3D2-0C631EE35BC1}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{685C0AE0-FCB8-4349-B0F0-E23FA972D669}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{0063EBCD-618D-4941-BAC6-7FA7DD5C8ACE}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{13741BC2-E6B3-4DAD-87BC-C1C1F6104134}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{EE48FB8E-B9F7-4A6D-A9AB-D28F59C24D3E}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{124F2834-ABCB-4BB0-BBAF-B31AE7E9696A}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{1CA4AC4F-E3A8-4422-BFB1-37E96F3A9E46}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{7072A91C-2248-4C01-B302-E458E1D0D461}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{C98CCD68-CC8F-49E2-AF95-6D62D8199064}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{5FFEA004-1C31-4C51-AA8C-D45203368E90}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{CAF90B16-0877-4D2A-9DDF-D9ABA81F3F70}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{054EE933-24DA-4776-9C22-429A951C28E4}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{D78ACB87-D72D-49E5-848C-73A3615ABC87}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{8D6B197D-3183-46BC-B0A4-588BA364AD50}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{159DC21E-F023-4FF1-B441-3162D47F5CFA}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{BB1C20E2-9473-4D18-87A1-B8D5A565018C}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{0D970CFB-6487-4B8A-B6E6-4464EA28DB33}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{D408F013-9EC5-488F-906A-3D481B6C8FED}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{A763D8AA-16DF-426A-B478-1D0A2CA94A1D}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{56ECE74E-3078-4759-8E95-CBFD41B60259}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{22229DCC-C706-47EC-8853-3DFB15323153}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{860B04BF-7471-4435-B7CC-78DB036746AC}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{A03CEA87-FD01-4A61-9F56-E64957F00DD3}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{C7C2D6A6-48FD-4597-A715-C55FB2A03007}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{19FB83AC-2314-425A-98F4-830D6ECB7493}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{55672377-3C5F-4E9C-BEC9-9FD770C9A779}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{36FD269E-9B1D-4B00-844B-2703FFE03D5B}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{C12B836F-FEB1-47FC-AF79-A943B7B257B8}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{2E00C0A0-56D8-44FD-991C-BE7CF31619DD}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{D54C854E-1725-44B9-9C0B-518175CC92B1}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{1E0325BF-6494-47E3-95C1-8D5263D43BB3}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{D785A833-EA52-4352-B88A-779BC265B160}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{1BB665A9-F5B6-49C6-8A06-650B55D4FD45}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{9F1B4CB7-6546-4BF0-8D85-24344FC4E090}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{4FF54898-5139-4B18-9ED6-F209E6F45C58}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{203C5D86-5035-4A1C-A2AA-7D877E39416C}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{671E42C5-0059-4511-BB64-E3915DAE5B84}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{7222F7E7-6AB1-4125-8514-5AE4E8F8684E}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{2C0C2345-E2B0-44C2-8EDC-3C55E5CEC1CF}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{AFA31471-E28F-4630-A0D6-A0A883F87BD0}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{7FCCC236-2249-4930-BD95-EE85F8D1D44F}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{B3522632-E9E7-4319-998C-DC8AEE220250}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{FEFBFF5C-78ED-4D46-9891-07152B47B32B}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{770E4B4B-86D1-4CAD-97EC-D3EC67DD2291}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{D39C2EDB-6324-4BC2-9846-A71AB9F4F71A}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{7FD3F0A3-40D0-4D4A-A82B-63D9090B36B5}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{9C6230C9-02B1-4D79-A6C7-1CAD465F8BB4}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{8DE9DEF3-72DB-4F97-B333-6DE4F57E6DFB}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{6996CE80-C0D1-4764-8AE7-AA30215E9C7D}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{5CC3934C-0250-47F9-8075-0B16A4970403}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{F9104A42-62C9-4973-8FF4-2883962B5698}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{4168C4FD-B135-442F-936F-3610E38250AA}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{D3E1861F-AC77-4927-9223-40D03FEA311D}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{49941E7D-F614-408B-9022-B96AC13062E5}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{0808E9FB-1D71-4724-AD7E-6DFE5D08EDFB}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{77826999-737D-402B-9E13-C201AE2B2D21}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{EF80F054-9D4B-4540-96C9-983A5ED40CFB}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{8452E6BA-A9B9-4100-B2D6-B71689D259B9}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{06CA06EB-8FEB-4D3B-A4B3-DD14B8592242}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{3D46E5D7-0354-420E-8554-DB2E9295BCE3}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{82961E93-4226-4800-B541-CD75834A40D2}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{7221DFCD-35DE-4102-94A6-96C19374C1F9}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{393F0BC6-F1D3-4C2B-B174-D76F6FFD2E1A}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{925A5AAA-469D-4E9C-9647-3E9A4A0D7C74}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{911B1ED5-4ADD-4A6F-BB57-D35DF31B84C0}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{1CEA9393-199C-4AC8-A4B2-4F8115C898CC}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{FB1DD276-B209-451A-99C8-52033A5AAB20}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{FE66858F-7BE7-4D11-B0D9-4840ADBE58E7}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{858C4C40-AF7A-4DBE-9D87-43E4334795B9}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{51C68592-0D27-48F0-8EB7-ABD17F6F079C}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{C15D2227-0863-433F-9C2A-D82A9909D57B}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{FA0E205A-8D38-43BB-B72C-3884E81DFC4C}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{53374ED4-15B1-460F-8AEE-5419BE972E2A}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{6E530D0D-099C-4E67-B138-56D72058EAA3}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{F314D11D-C560-4F82-83DB-1F2C6C3C8739}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{4108CCA9-212D-43C7-9DAC-C4B752DBFB89}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{9DB34938-D35B-4EE2-803B-1BA7323E0068}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{10DF36AB-0490-4C0D-A72A-E10F144040D5}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{7859E9DA-8049-456B-94DA-B4F04791CC88}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{FC5BAE57-DDA7-402F-A877-903EEA09490C}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{FD6058EA-807A-481C-B18D-0E9C6D5D8109}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{3F98E5F4-B229-48DD-9743-A30ACA9ECAA3}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{7264C2DC-B999-4618-A7C1-5ED31E68F845}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{F2EA13DF-DA72-48E4-BBB8-A0418DDF54CF}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{D5CDE1C2-78A9-4B49-B6FA-2CE6E4524271}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{E3918A8E-D9FE-49B9-BACD-71A9BA7EDD21}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{8A54D9C1-D7F3-4D3E-B070-353EF199108C}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{88A77E94-CFC3-4536-B5D3-E0B530509890}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{9FA6FEBB-E29A-49C6-80C5-06F1B2E78FF6}"/>
-    <hyperlink ref="B439" r:id="rId409" xr:uid="{DE66F0B2-0816-43CF-ACD7-1DA3C1E77A30}"/>
-    <hyperlink ref="B464" r:id="rId410" xr:uid="{EA392825-9809-47E9-BB62-E80DCDD25F43}"/>
-    <hyperlink ref="B463" r:id="rId411" xr:uid="{BC122E87-9B23-4D67-80BB-7345D51D7812}"/>
-    <hyperlink ref="B462" r:id="rId412" xr:uid="{CC13BA1E-363D-4EDE-AA5C-12767A8E3D05}"/>
-    <hyperlink ref="B461" r:id="rId413" xr:uid="{F3C7DE00-5A5D-4A1F-9A0F-6B5650F5F59D}"/>
-    <hyperlink ref="B460" r:id="rId414" xr:uid="{1B221DA4-3FFD-4BC6-93C5-D41EEABC97B0}"/>
-    <hyperlink ref="B459" r:id="rId415" xr:uid="{6F0179F2-062D-42E0-B572-B28208C3093F}"/>
-    <hyperlink ref="B458" r:id="rId416" xr:uid="{5A97D43C-F622-4714-A701-468752EC92FD}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{DEB2A66D-EF1E-4DAD-A4AA-5F7B8943187D}"/>
-    <hyperlink ref="B456" r:id="rId418" xr:uid="{C43AF0A2-A8A4-429D-9089-3637FB643BE4}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{5A5FD922-38F5-4DFD-9126-814E07A8B446}"/>
-    <hyperlink ref="B454" r:id="rId420" xr:uid="{7D8ABF36-E41E-4FEC-9AFC-677B45A0DAAE}"/>
-    <hyperlink ref="B453" r:id="rId421" xr:uid="{6A40B43A-5437-47C6-88F5-7F344ABD1B1D}"/>
-    <hyperlink ref="B452" r:id="rId422" xr:uid="{BA45F557-BE61-4D2E-9E52-8D5C8DFC3750}"/>
-    <hyperlink ref="B451" r:id="rId423" xr:uid="{06E472A7-49B1-4A57-88ED-95859229FE51}"/>
-    <hyperlink ref="B450" r:id="rId424" xr:uid="{07CDFEC7-FD75-4F0A-95F2-1D0FEEF22B37}"/>
-    <hyperlink ref="B449" r:id="rId425" xr:uid="{BEC36BE6-EF5F-4B71-893D-8931AD744070}"/>
-    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{A910F4E9-ADCE-4124-AF08-BAC17EBB1F19}"/>
-    <hyperlink ref="B447" r:id="rId427" xr:uid="{B066B74A-737E-48ED-89EA-74C2D32AF821}"/>
-    <hyperlink ref="B446" r:id="rId428" xr:uid="{96D94080-2342-49FA-A954-85AC3BB666CF}"/>
-    <hyperlink ref="B445" r:id="rId429" xr:uid="{D4C3D0D7-6D34-41EE-9FB9-5254B67F2E0F}"/>
-    <hyperlink ref="B444" r:id="rId430" xr:uid="{546888C7-3CCA-4E75-ADBB-DF31EF73BCAF}"/>
-    <hyperlink ref="B443" r:id="rId431" xr:uid="{4D012C09-D493-49E2-B812-EAD72758170C}"/>
-    <hyperlink ref="B442" r:id="rId432" xr:uid="{41CEC562-BB19-4035-80D2-3F0F770918B2}"/>
-    <hyperlink ref="B441" r:id="rId433" xr:uid="{0D3B96A7-894B-4213-AFEA-C55405C3511D}"/>
-    <hyperlink ref="B440" r:id="rId434" xr:uid="{F5BBEB2E-16C6-4BAD-9DD8-65C25D4431CC}"/>
-    <hyperlink ref="B512" r:id="rId435" xr:uid="{E3CB6AF7-9607-4C42-8E2B-D6A94734E810}"/>
-    <hyperlink ref="B511" r:id="rId436" xr:uid="{9C2EBECB-02CB-4240-B620-67033A180B52}"/>
-    <hyperlink ref="B510" r:id="rId437" xr:uid="{305847F5-6F34-47C8-A6E2-F5E8A2F11999}"/>
-    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{13C15334-3A81-43FA-8785-D83327C4CC6E}"/>
-    <hyperlink ref="B508" r:id="rId439" xr:uid="{F221A948-08CE-48EF-B5D6-1A78444E0744}"/>
-    <hyperlink ref="B507" r:id="rId440" xr:uid="{525BD721-54F0-4E24-B94D-59CB6F77DB48}"/>
-    <hyperlink ref="B505" r:id="rId441" xr:uid="{382B212D-0B32-462E-80B7-84467675867A}"/>
-    <hyperlink ref="B504" r:id="rId442" xr:uid="{0C3FC6EB-E70E-4DFE-BD63-6F98DFAEB4FA}"/>
-    <hyperlink ref="B503" r:id="rId443" xr:uid="{F97A4B96-DC14-4C29-837A-1403FDFA4461}"/>
-    <hyperlink ref="B502" r:id="rId444" xr:uid="{2FFE5093-B527-4E4D-BA82-CD3BD62E6B74}"/>
-    <hyperlink ref="B501" r:id="rId445" xr:uid="{DFD559DE-5964-444A-B13E-D7438675CC13}"/>
-    <hyperlink ref="B500" r:id="rId446" xr:uid="{9ED12126-B86E-4D20-91AC-A4EA2E1568EB}"/>
-    <hyperlink ref="B499" r:id="rId447" xr:uid="{F5B69D4B-7799-4E85-BAD1-D6031651C345}"/>
-    <hyperlink ref="B498" r:id="rId448" xr:uid="{722B70CB-87C0-4E72-B8BA-735C8C6F2EBF}"/>
-    <hyperlink ref="B497" r:id="rId449" xr:uid="{E3940F15-46DC-4582-A02A-55FF8B1752F6}"/>
-    <hyperlink ref="B496" r:id="rId450" xr:uid="{B0660375-C76E-4918-9247-35E93450021D}"/>
-    <hyperlink ref="B495" r:id="rId451" xr:uid="{768EFD70-8991-4A84-A20F-F135D292AFEC}"/>
-    <hyperlink ref="B494" r:id="rId452" xr:uid="{34948FFB-BF59-40BD-B81C-5666F61FC417}"/>
-    <hyperlink ref="B493" r:id="rId453" xr:uid="{FC57FCE8-8BA4-41D8-831C-62F238DFAB14}"/>
-    <hyperlink ref="B492" r:id="rId454" xr:uid="{A6ADEC94-3C8F-4CB0-9518-5534319B697A}"/>
-    <hyperlink ref="B491" r:id="rId455" xr:uid="{EA5A32AA-DD5D-4319-AFD5-A1BD579C0B1C}"/>
-    <hyperlink ref="B490" r:id="rId456" xr:uid="{71FFBC5A-E970-4606-9B1E-0945A65B9C1D}"/>
-    <hyperlink ref="B489" r:id="rId457" xr:uid="{CB537A30-B62B-4820-B0D3-6801481E830D}"/>
-    <hyperlink ref="B488" r:id="rId458" xr:uid="{F5E44C46-B689-484F-B5CB-3ADFF9E03374}"/>
-    <hyperlink ref="B487" r:id="rId459" xr:uid="{B32D1237-7350-41F7-9917-EBC50AFCF755}"/>
-    <hyperlink ref="B486" r:id="rId460" xr:uid="{A022713D-E964-4E32-9714-6A0E56820B4C}"/>
-    <hyperlink ref="B485" r:id="rId461" xr:uid="{8BAA66D3-6A38-45C9-B798-50C81C4AE2E4}"/>
-    <hyperlink ref="B484" r:id="rId462" xr:uid="{1C18047C-CCA8-4CA7-A978-DBE2206DF656}"/>
-    <hyperlink ref="B483" r:id="rId463" xr:uid="{F78AF8FF-F821-4040-BC9A-1AF2A1C03B34}"/>
-    <hyperlink ref="B482" r:id="rId464" xr:uid="{96601C1A-9A0D-4E68-A113-B65BCA892194}"/>
-    <hyperlink ref="B481" r:id="rId465" xr:uid="{25BFC7A1-31B8-4AD5-AE7A-E3286823810B}"/>
-    <hyperlink ref="B480" r:id="rId466" xr:uid="{50F05195-5219-4AA3-B05E-997D51B5D097}"/>
-    <hyperlink ref="B479" r:id="rId467" xr:uid="{D59C74DE-C9F0-4CDF-B686-18C39F58D7B7}"/>
-    <hyperlink ref="B478" r:id="rId468" xr:uid="{4644B5E8-9B0A-4AE4-A198-3EDE3C5E5C4C}"/>
-    <hyperlink ref="B477" r:id="rId469" xr:uid="{F60FE98C-50D3-4796-8EF7-317F373C4781}"/>
-    <hyperlink ref="B475" r:id="rId470" xr:uid="{8E93F361-86A1-40EE-9944-3197A68FB9D2}"/>
-    <hyperlink ref="B470" r:id="rId471" xr:uid="{1BF365E1-3194-45E4-8609-C3AB403AD5A3}"/>
-    <hyperlink ref="B476" r:id="rId472" xr:uid="{64FD3215-CA22-4EFA-A240-52619CD5BFE1}"/>
-    <hyperlink ref="B474" r:id="rId473" xr:uid="{C9FB8A6A-061C-4EFD-A902-F3DB3B44CF00}"/>
-    <hyperlink ref="B473" r:id="rId474" xr:uid="{903EA7EF-19EA-4992-9F78-03D51C65653E}"/>
-    <hyperlink ref="B472" r:id="rId475" xr:uid="{552507C1-D9D1-4F5B-A55D-233ABC06FB16}"/>
-    <hyperlink ref="B471" r:id="rId476" xr:uid="{19C7245D-3644-41C6-BCF4-0DA40B05AB23}"/>
-    <hyperlink ref="B469" r:id="rId477" xr:uid="{6361D7AB-4458-4423-82A9-081924E0BF8A}"/>
-    <hyperlink ref="B468" r:id="rId478" xr:uid="{3FE49E60-7CF9-44F1-B87C-C774CF723554}"/>
-    <hyperlink ref="B467" r:id="rId479" xr:uid="{64F3B062-0939-468E-8698-C78DC60C1B7A}"/>
-    <hyperlink ref="B466" r:id="rId480" xr:uid="{B9CB4B26-2971-4B99-A3E2-0ADE9CFF2870}"/>
-    <hyperlink ref="B465" r:id="rId481" xr:uid="{1D1D7AD8-C2F8-4B2B-B1B4-F4D3450D5CDE}"/>
-    <hyperlink ref="B538" r:id="rId482" xr:uid="{06E90D17-9C90-4E37-9B84-E29E1E49016B}"/>
-    <hyperlink ref="B537" r:id="rId483" xr:uid="{F6016B8C-E4F2-46C4-A80D-ACEAD27CA4F0}"/>
-    <hyperlink ref="B536" r:id="rId484" xr:uid="{0D8D89DA-955C-45A4-9E05-5B89EFFF7DFE}"/>
-    <hyperlink ref="B535" r:id="rId485" xr:uid="{6AEEAB15-D097-4AD4-9CF4-29222CCADF56}"/>
-    <hyperlink ref="B534" r:id="rId486" xr:uid="{5412FC25-B346-4093-A859-B632662EA593}"/>
-    <hyperlink ref="B533" r:id="rId487" xr:uid="{1E6B8FDA-3C26-48C1-A8E0-898569D105C8}"/>
-    <hyperlink ref="B532" r:id="rId488" xr:uid="{737E1559-354B-4F43-92A9-DE8C8BB4CDCB}"/>
-    <hyperlink ref="B531" r:id="rId489" xr:uid="{D20EAE03-1501-426A-96B3-4B134E095422}"/>
-    <hyperlink ref="B530" r:id="rId490" xr:uid="{906095BC-EDB8-45DB-A17B-2A2427FDCD18}"/>
-    <hyperlink ref="B529" r:id="rId491" xr:uid="{81B0548B-9B55-4E55-BA7A-F20CF27F4ED8}"/>
-    <hyperlink ref="B528" r:id="rId492" xr:uid="{CB5BDD59-BA76-4361-BA32-34FF9D8A6AA4}"/>
-    <hyperlink ref="B525" r:id="rId493" xr:uid="{864ABFED-7274-457B-BBCF-418DAFA89E26}"/>
-    <hyperlink ref="B524" r:id="rId494" xr:uid="{57B0FD8C-137A-482A-8AA5-96E2E1303219}"/>
-    <hyperlink ref="B523" r:id="rId495" xr:uid="{C6F63192-572E-4C29-A18C-20006F39B50C}"/>
-    <hyperlink ref="B522" r:id="rId496" xr:uid="{7865A38C-1C6D-4DC4-B01B-1C3AEA65FDBE}"/>
-    <hyperlink ref="B521" r:id="rId497" xr:uid="{818BD2DB-46F7-4AF6-B2F6-F1B711EC6F7D}"/>
-    <hyperlink ref="B520" r:id="rId498" xr:uid="{0120BBAA-F0EB-464A-96DF-FFD02C3BE34F}"/>
-    <hyperlink ref="B519" r:id="rId499" xr:uid="{59EA7D53-587A-4E38-934F-158E79035ECD}"/>
-    <hyperlink ref="B518" r:id="rId500" xr:uid="{512E95B4-62D8-42C2-A87C-CD577019A1BD}"/>
-    <hyperlink ref="B517" r:id="rId501" xr:uid="{39DCF7A6-D155-4145-ABC1-5AFFB3E12AF2}"/>
-    <hyperlink ref="B516" r:id="rId502" xr:uid="{497F720A-7DC0-4A66-8547-69EC8882C857}"/>
-    <hyperlink ref="B515" r:id="rId503" xr:uid="{C410AA82-BC3F-479D-96DB-2CD3BF386BD3}"/>
-    <hyperlink ref="B514" r:id="rId504" xr:uid="{519D56F6-B25B-44BC-98D7-BCC31123FFBF}"/>
-    <hyperlink ref="B513" r:id="rId505" xr:uid="{6E50300E-8273-461D-9DDB-8DA97B594390}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{E1A18F6C-52C5-45A5-BAA2-1BA1A859E9A7}"/>
-    <hyperlink ref="B527" r:id="rId507" xr:uid="{551446ED-CC2A-45E9-965D-1C4BD344B991}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{78D8D145-A3E7-4F31-BE3F-A14A0D1B040F}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{84E9C9BB-BDF3-42FB-8880-99CCC91C5FBD}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{9ABD1E12-E132-45E3-8A69-38A5FDF4C96C}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{460F7D7D-9528-4DE8-8438-09F8FAC6DF78}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{F7639C2D-24CC-4D13-9E24-F629A46CF898}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{609BAE12-F17D-4948-AE5A-3F18139FBA4A}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{704EB99B-68F3-4B8B-A01E-D1C03850C1C7}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{6C1E6B9A-BDD3-485C-904A-0FBC02B81B57}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{1C91EAB3-95E2-409A-9F24-9BECD59CA6EA}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{984C3EA6-69DE-4283-8A21-72EC6C0B8132}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{8809E2B3-426C-477E-A35E-9D1697E70092}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{FE292881-DB98-41D9-B545-FCD1976FE88A}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{EB24D742-38DC-442C-9FB8-C34769C4EA19}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{FE6E460E-3183-4091-AFC1-73845E0005CC}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{6B6C681C-FB32-416F-A3BB-4F8F9653409C}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{1835A44D-522B-4A5D-952D-1F715F49BA69}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{6DB23BFA-756B-4CC3-A818-D5F0CE3E70E3}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{ADF1C610-7037-45AB-867A-493D10C5DF4E}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{03DB5D3E-75D4-4209-8A13-B3BEFA18D590}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{AA868B4B-ED05-41FA-B5E1-A3E58DD1602B}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{D633CEB3-1EDA-47D2-B094-98F980BCA38F}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{027C9742-A31F-4A7F-BCB8-DB3390302F39}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{F00985CE-078F-45C2-A923-39CBEA27156D}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{62C35702-E155-4558-9B3C-5B4A707B2F33}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{0A4A1304-778B-49DB-8243-88C4D0B40BC6}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{E3BE2315-BC22-4C39-813E-BCAAB2B41C13}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{A416570E-865D-481C-A98E-E19326346533}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{001FEBD1-7D92-408A-843F-D2887C2F4534}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{DE8F77FB-5A6E-4DC4-A573-4423821DBAEE}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{6D061743-7759-4959-ABB4-870532663992}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{C7BFC604-CF3B-4D9B-A4A4-B5305C926E61}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{D7902235-EC2A-41F9-AA42-B051607BB11B}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{2BC4AFB0-D513-42AE-A23E-AB64A8D5559A}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{E8B8AF51-866C-4166-8371-20FBFE047410}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{8107F763-FD1A-4839-A9E6-6112B6BF915C}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{9F57B80C-6488-46DD-94D6-8C78A3EFDC62}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{347AEFD7-470D-4D83-8F2E-6DC714F2EC94}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{0E0AE895-E7A9-46E9-BE15-9499554820F8}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{BCEEF802-CA79-4F44-85E9-CE65DE65EA29}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{DE87C435-75DC-4F69-BD68-636AED9AEA3A}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{2308E36F-2445-465E-B4F2-F4578A8C0992}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{042714C6-6100-4868-907B-778D4E088D27}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{030AB060-B1FB-4088-AF8E-D01B85DBFB7E}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E2C7D343-13D7-4259-9782-5DA934413B84}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{1ECD0A37-BC24-4405-AABC-708800579161}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{4818216F-F455-4373-9740-2E81EBD18218}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{705D7E98-C0BC-4D9E-9E5E-31133F0B567C}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{4D67AAAE-5AEB-437E-A6C3-B155B71F424D}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{071A42FB-1EC9-49A5-8F3F-1AB1F35384D1}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{E55DFBEC-0BD9-4168-A7A7-19978BC2B6EB}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{13954261-A57B-4651-9FF5-7AF507FA3BFA}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{555AF7F1-53DB-4513-8A57-E29B15A06203}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{B3BD6EE3-7354-418D-99DD-231A6E0E40A8}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{89D00FFB-4519-4863-8CC0-D4AF92736286}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{3AB24508-54D2-4A7A-AC05-E0A63340DE66}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{45C54FB8-BB1E-49D0-90CB-014F4E60AAD3}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{7C6FCB95-DB8B-48B7-B33E-273F49DB1AB2}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{333B2AAB-E329-45D8-AA7C-CF36064F47EB}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{B4F9DC1E-1155-407D-A172-55EE387AFDD0}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{4CBF4688-9E9F-4E5B-B7A2-9278210A46A4}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{5A6A76A0-352A-4545-8084-6E28358B721B}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{3192D348-2FE7-4FAD-9A0C-9CCDE64693C3}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{54B9A139-0A2C-40F4-B000-B69B0DA5D2BC}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{29C721DC-EC66-4420-8B6E-417C7BC98AD8}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{0B1E30B6-4813-40A5-AC4C-61529524F518}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{63F38194-1864-402F-B7F2-941DAA03139E}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{69E3D4DB-5BF4-4675-A6D4-7B38C5D1EF9E}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{171E669B-21EA-4544-A655-841A2C460A3F}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{F3F7AE2A-8DC6-4C7A-A36D-19CE9ED8E4B7}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{0D4F265E-CF27-41E3-8F82-59244B74ED9C}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{A68B3C99-82B0-4FBF-A61B-85751FEF3BE7}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{B01B245E-5E81-4C9A-A2FE-E23EEAD4D9B0}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{C685CA58-90A3-41BF-BCB7-2D8934504796}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{A89279DB-2777-4692-B8D6-D92C10B7B6E4}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{055951FA-04CC-4CC2-8544-1B9BC10B99F2}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{55862194-23B5-43EC-9550-383BB2331FE7}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{50AB5F2B-2B1C-4B34-8613-301AF4CB40C6}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{4E613395-C847-4FE4-85B9-5A4C89FB83E0}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{C9196C57-1410-4A50-8C35-ECD4039F92B9}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{9801C7D2-99CD-425A-80AF-B9E5F919069C}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{70970883-F8C2-4352-9D5A-D4FCCA1A30E6}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{148524FD-7E59-4592-836C-BBF4BD2D7431}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{F32577A0-EEB6-47A5-80BC-BB0E370C453A}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{A210FCE1-36CD-4323-8CE1-C90D1FEA6D48}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{1A608EB9-4A91-4289-A1E2-0A3FE372CC75}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{88D7C405-37FA-4B52-AB57-955A73A3DBEA}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{C0C0AD3F-A9B2-4DB3-9D8E-CE723716955A}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{2DA7E27B-C5D4-4C27-87DE-26FB6A70B641}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{522D8CDD-BFCE-4CFC-B37B-269826ACDB45}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{AEEDEA77-F8E6-404A-B18A-24040541C14F}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{38BC9810-2EC3-41A5-A2C5-5F2EAA57874E}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{CD1118FF-0557-4D67-BDE2-0A2B90348BA0}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{ECE4212F-5E13-4465-9DC9-15E6AA66F4F1}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{A228E3D2-28A7-4270-8BC4-861BB30953A1}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{1E416634-1618-4766-9FE7-24A0BC9D08FE}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{4A2C9BDE-3902-4AAA-9BEC-3182FB188866}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{2EB7CD43-6BA1-43B8-98EC-3A1240439853}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{A67B9093-7308-47B2-9077-25BF205CCEE0}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{BA9C57B6-CC93-48A1-936B-B926BE3A5A64}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{EC3C9582-7977-47EB-9BD1-06FB35155601}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{5398F125-09BF-470E-A80D-D44811B4E5F1}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{6DD6EAC3-FDDA-4CB3-871B-51F82419306C}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{F5351D20-3F83-470F-8259-7BFA5D53D69B}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{D9F731F8-C1C0-4336-99F5-711DD28A45E4}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{495595CE-8E65-424B-AFF1-57265D6D5F4A}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{34150CA5-A5D7-416D-8FCC-3E2B5655FE51}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{1FE79B4A-97CE-4EB2-8F2A-CA73ED77A145}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{2E28C4EE-DC4F-45B0-81CA-A44270359725}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{DBAB3D1D-4DA9-4728-8856-46F7928D01AA}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{99291214-9904-47B4-810A-BF632C522D41}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{66EB38B5-8AC6-4A5E-A617-C51DCBE1EC09}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{CBD2DB39-DB5A-4C22-8A03-A58053F86CD8}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{838503E6-85BA-462E-80AA-F149B7EDB905}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{4F8085BF-F4BE-4B83-A091-EA028AF795C8}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{13DA5340-4A3F-466A-9AF2-C60551FEA7B0}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{E6D88FA5-AB00-4EE1-B2BF-25FE3959F012}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{C7EC4418-3868-4EA1-B3F7-64C1CDAB061E}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{40E9C00B-26BC-41CA-90C8-225D70787B55}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{EDDF3E8C-05BB-4D5E-8759-FD4FED4C4A81}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{2978A596-FC91-44F7-B84E-3B258C09B79D}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{24F4F790-1CB1-42AF-81E4-A150AA2DF9A1}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{77C63EDC-84D6-4DB3-8BEB-A71BB9F54669}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{2B081054-F780-4FAD-85FA-F7D24C4C9D0E}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{87FB8D53-04CE-4C12-9F9A-34F3AFC30489}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{73E66317-9FCE-4E97-9340-977BAEE09485}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{28BD3526-0C9E-4C56-9AD3-3CE7365E270A}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{F4BAF37E-3502-472F-AFE5-EC53C46A6B1C}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{F2DEAA42-72F5-4855-AE84-384D8739BD14}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{E26EDB15-965C-4315-B43C-CBFD8D9EF748}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{F0BD43D6-2008-4BEA-891C-FB2308813EDB}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{55712D97-3FD0-4491-AE20-FBDDF31DFE26}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{1C98C479-8A02-4FFF-A375-45B82680121B}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{3B775DDC-B96E-4E65-B053-4B5E6A266BD5}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{DBD98413-B63F-46EC-8CEA-38D33DEDA579}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{4BEB5ACD-00E8-4D35-9EEB-FD3BC5DC87E2}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{4E9AC7D6-BFE6-42E0-AF02-04B68238B427}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{7FD91034-FC38-4816-949B-887EFB93DBED}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{FE393466-7ED2-4C28-B560-41207CB1214B}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{69AFDB42-C4C7-47BB-A675-0C7CD654C51C}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{A4ECCE05-289F-43F6-AFF2-9E0E95A2C82B}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{2826D0CC-65F8-4611-808D-D103FCC7EE25}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{D28B366A-7683-4938-A1B6-3B16C0E51159}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{074D4015-A1B7-4908-BC1B-6F1F514BA5A7}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{0D85B071-664A-458B-B922-2105CF48E606}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{A30960CB-4E4B-49A4-B006-CF91E95BEC81}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{78E7184A-320B-457D-B92C-2D148042FD2F}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{4CC0AFBE-C8FE-4364-A6C0-980079E546CC}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{76B08717-C25A-4621-B2EC-C6A8B2793D78}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{A3DE9F33-6610-4563-856E-956B1C1C8759}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{40FD765D-9972-42CA-A33B-011A78708F53}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{7353B9AC-AE9B-438A-A074-2AE183BD4510}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{D71A8A38-D666-4E92-A6E2-B5D6F66C9F6F}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{E5901155-62CB-4672-B6C7-CA08F204B8EA}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{64CC1424-3DDD-4F55-BD69-7478A5AD8264}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{BF8DC41A-87B3-4FB8-8609-855F78ECBDB2}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{241239EF-B219-4674-9E6B-01F5713D3BED}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{0F132C5D-85BD-4B59-970D-D83EF0E36E7B}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{303C9B3F-B37F-41E0-A1B2-BA6EC3708469}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{DE9911EF-13D7-44F7-9AAE-46F97B1EC37B}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{B7500612-8089-44E0-98A6-F4EB6CC67359}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{F5DC38DD-0CC8-4B95-81F7-2BD9FDC95469}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{E45AC914-88A2-409E-B2D8-4C1C5265582B}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{49256176-F460-40AB-9B1D-B2557AA16F94}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{68A774F7-5813-43C6-9127-872CD4281E14}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{9F8EA8D8-9DF5-4024-9F2D-B82F0E552949}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{777F8E6D-0779-4246-AA68-FC851CEB6498}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{ACEF7C78-C672-49C7-9B76-DC6606269860}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{A683125C-5C67-4F0D-AD0E-5207C640BF03}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{49AE274E-55E1-4C32-B501-4450BFEB6FA4}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{487943EF-C128-487E-B0D2-DD056B96A097}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{CABA3E7C-55B9-4ED1-82D3-11934A43EE99}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{3FFC2889-89B4-4165-BD92-8A3BFEB6246A}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{E6F0B8ED-6C2A-498B-91DE-128308684AE3}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{CB926A1A-F25B-49AD-8D19-7578A0BA3F09}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{D6BC8E00-5CB6-45CB-AD14-36E5A510E92D}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{DEAA6BD7-6887-47E6-9FE8-838B0F300B3D}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{896EDBB2-48B9-4018-B8D5-A92C4436E960}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{58765706-2BC6-4256-8C4F-6D7F7D3A0FFF}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{883B2EF6-AFDD-457D-9AF0-1235691B9C42}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{1040BAFA-6BA8-45E9-9418-A162A3BAA9A1}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{B7B8D76D-F25B-498F-8BF4-9E28FFFF2BC1}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{641FC402-2486-45E6-A90C-EA2B64374C70}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{AFDC5160-024A-468A-8ED5-D85F1E8BBCE8}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{971BDBAB-62EB-4AC9-8F24-3510F9A4C3F8}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{C58F06EA-D188-44E1-887B-20D6CA36DE3A}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{6A08C9A8-F09A-4C4A-8555-6D744749CF4F}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{C7A15D52-FB6E-43B5-BDDC-7A43366E5B53}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{A13B644F-68AD-4131-BA03-E02571D8ECC3}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{785FF09F-01D7-4D95-8CE2-BC8FE3998B46}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{EE41B67B-C2BF-46ED-B04C-DE5C0C684A0D}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{0014DEA3-4674-4AE4-B6E2-6534244816FB}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{B4A3289F-FE87-4AAE-9B55-DC87FF5E8124}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{1C873E4E-E2AD-4058-A562-1D8139827693}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{906090F6-0E62-47E4-96FB-B65D89FDCC96}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{28A24688-DCE6-41FB-92C1-4B0BE7784A3D}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{29360C9C-9547-42AE-9524-5381C0C9F976}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{ECFAE7F6-FFCA-458F-B83F-0F606454BB0F}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{3956C7B3-2990-4071-A044-AB05BB5EECAD}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{19BEF37D-EB89-4973-B51B-64F8709AEF3C}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{A068522B-36A1-4A97-9812-2785AD1608DC}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{4C907325-3D48-4FF7-B311-03D1267EE79A}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{CBF8AA19-443F-4F9F-89A2-A6D451E86545}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{344E7A98-4D26-4228-92AB-98C914338218}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{4B9F4CCA-07E3-4A7F-B015-D6F67A463D9F}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{4261EB7B-4C50-487A-831B-7588E3C70869}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{34ED6D5A-CA4F-43B0-BFAB-B2EF5345F853}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{623EB02F-F5B7-4EA3-93C0-79ED9C5D66A5}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{89FE6DD1-1359-4061-AD8B-C75E7F783264}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{09E2F3FA-3FA5-4AD7-9498-551AB57E4D5A}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{65C52D51-7548-44C5-BB24-B4179BF72FBC}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{A83DE9CC-023F-41CF-ABFE-FDFD0FA8546B}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{5A108F69-A73D-428E-95FA-35D15A249256}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{4566DA04-5955-4FC7-BA31-A934D4FFEF76}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{BE73E68B-229A-4B18-BDCA-9F4B74DA50A0}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{DC8CC61A-3162-4774-B4CF-90669875B5E6}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{59F180C8-F1F7-4DCB-A2D9-B480CCADFEB7}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{1DEA9B1B-B77C-457B-83A3-601E1FAE6C56}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{5414C741-48EE-401B-9473-798AAEF1C6CB}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{177BC15C-C0F2-4547-8763-AEE3B231B7A6}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{2F906C08-CE19-4408-8AA8-C627CAA2EBF0}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{D5E59978-8DB2-4FCB-B9D3-001D5CFA2FCB}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{4C66EF02-60A7-4E17-986A-A533E27928BB}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{99A70691-43EC-40DD-B66C-9FE2D48B1E26}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{28B2451E-EEBB-407C-B22A-C2C6E4187096}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{E90A01E8-2AE6-4A8D-94C4-BF91F1991EB4}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{6085692B-BEFF-4742-A659-CCA5447690BA}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{34178657-07DD-4AEF-88CD-564556A4F38E}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{C3DFAE68-9E19-43B3-8753-1E885AE45639}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{996B4318-8781-46C0-A43F-56C9DE720DB5}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{2FD70FD1-D9FB-4B9E-A0B4-E20CEB4D25EE}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{FD14EC75-5DC2-4380-B86B-77120AAECF13}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{05BD9E57-AFA9-4CA3-815C-784994832B57}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{AEDFB7A8-051C-45D8-892A-B0E0C423CCEC}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{520256DD-0200-488C-9CB6-F7A73A367762}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{E6DDE412-3521-4D94-8221-5B24143E6F10}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{8F1E2DEA-F25C-43DE-8D57-7484F842BC6F}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{73D0072C-F845-42BB-855E-35FDFF3A7DA1}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{8B70BACD-7A0B-43B2-823C-63DEB4A93055}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{3573BC24-7ABB-4711-92DA-D683282D02D6}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{9F7FE7A1-FE91-43D4-9FF4-EF0FCC84D05B}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{9EAA9442-D3E9-4E44-B705-BA6381AA5B82}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{B028E197-DEF4-467F-AEDB-233A26D21D87}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{6771A2FB-94BD-4D38-89B5-4180CFC42A48}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{D205FD2F-69AA-47AC-9173-B59270AF06FE}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{4FD58C91-62B5-4C24-BEE9-F509165BEA1C}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{7D0AAE1B-E46A-4646-8982-35412934112A}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{495721E1-E913-4982-BABA-10F8302DF004}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{09FF7E5F-1802-448C-896C-A395FB54F6FB}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{4304A952-37A1-4940-AECC-A4E21FF9EC1C}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{50980F4D-64AB-4E2C-9B74-2A67B61339B6}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{6B13BDB7-17C1-450B-876D-975E409BB004}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{BF69BF4E-ED5B-4047-B73E-B1A5F2CC6430}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{53D61EB8-BA29-41D3-B0A2-31DA84BD2D6C}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{8754D108-26B2-4404-AB04-C322251868A0}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{D047DB5C-6A82-408C-BF11-711083E2AF48}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{ED99A2CF-40CE-466B-9BCE-5356D9D12FCE}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{4FED56E4-6613-4926-8B96-86A1502AD02E}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{32F956DC-5C91-44E7-9253-8E4AE6C8DB54}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{CDA3F618-E064-470C-9A2F-99A7D39F1F97}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{05AA3CAB-49C1-487A-87FE-B659368077D6}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{38EB5E33-BE21-4578-BF79-592E5A52FE5B}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{2B15893A-BA79-44D6-9667-262557571930}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{265D30EB-C080-49D9-862B-F5C2C03B777A}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{54CD7ACD-6E10-4780-BD74-4FCC0BF47FBE}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{5033EAB9-E231-4DF3-9C97-5F7F07AAB61B}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{EB1C7A09-B45C-42B6-ABF0-AEA9C1A16696}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{B4F19EBF-48D6-4208-B9A8-7E033EB787DB}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{AA7D2401-315F-4840-8B33-6A420BAAF5C2}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{E7438D03-7D05-42A5-8FA5-10F6713932E4}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{6540565C-E509-4528-9557-DFB51D636330}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{CDA95B9F-71C0-4C31-B6F1-D0C97683D26C}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{B06B42A5-A079-4039-A048-E177F7E0ECED}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{D7B92D78-2C97-4C02-A861-23213F06F1FF}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{9FE0FDF4-2648-4A73-8CDE-33012FEBF988}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{0157E6EC-F1BB-4C9B-8F72-81B18A1DA108}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{4648AB1A-3347-4D2C-BFEA-9C983170BB11}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{A9B9E981-257C-4AF8-8CA3-4D49CA5A6BAD}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{8CA1D4B9-2CF1-42CC-9DB7-1B707CC20DB2}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{4F97EB96-4A48-41C2-B860-745385555D10}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{5C0B7DFE-3785-4905-AE54-E12B27EEC6E7}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{9EBF9C7D-F12A-4431-A7E6-7E744EBCDA02}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{F51AD685-0905-44B9-912B-E3C6F42323B9}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{C2A97655-23B3-4AC1-96D8-07C8A5D035B8}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{8D759A60-7ADB-4B41-9F6B-13CC0F6DB84D}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{7A8B32EE-DC6F-4F9D-B88D-90F56E8D8FF1}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{03B7BA60-7F34-4C31-9CCF-901EEFD3054A}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{B61D0EF7-3187-4CEE-85DB-04235B0932D5}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{7F435F58-89E0-48E6-8782-456C50894C94}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{6AB3BAC2-23A4-46F8-9CD6-EC6A1D2FBEAC}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{C9025210-B67F-4C1F-BBA0-31EADC785EEB}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{E9C788C9-D7B4-4116-A92E-37DFCB977AB1}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{FC0D307F-5262-468B-8B24-ED52978896D0}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{5BF4E1EC-7A51-4144-9809-58CE38A49191}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{3F0DC5AB-0B19-40C6-B60D-69AA5385A301}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{BB7D6DB7-A9FC-4B8F-BB88-E45D7AD4CCF8}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{EBC182F8-0186-4998-8EDA-79518B71C9C3}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{621C38C6-559B-4913-B69B-639D6506F7D5}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{C961241C-E3EB-48BE-A7E8-06DB82727A84}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{D41F7A20-3BD0-427C-8C2A-B21D792A83A3}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{C52EC680-482B-4926-B1E7-4485A893E134}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{E6F2082F-D66F-471E-BE5E-B8A50CF9C33C}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{14774BB9-FABA-4971-92FB-4F4619789414}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{BB165DA4-1AA8-4694-9E29-ECD32FFD21C1}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{07C055CF-144B-40B1-ADAC-AA05DE362F8D}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{3BE72945-34D0-4145-8556-095490FA1A51}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{835593A9-E024-44E3-B981-8BB4BE130B66}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{1A0C75A7-D9A7-42FC-A2FC-3FE69E19EE76}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{102EB68E-6148-4186-80C3-4C94178111E8}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{A33CFAC0-43E7-418F-B51F-254C49E9D2C6}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{CE56295B-C1AD-4A0F-8610-2F4BDF32047A}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{3ADE2C4B-B962-4F80-B90B-6453D5A2BA88}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{B896D7E2-127C-4BB9-B6CC-7626BAE2FC9D}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{4F8417B9-1170-4712-AF49-B83DB7B9DE7E}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{CE70A4CE-43FE-4CDB-8544-97A50D720F75}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{B37821C7-960A-4162-BB0D-2EBF5951DED7}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{BD7F954E-88CB-4C26-8CF9-36A424218970}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{DBDD059A-EB96-421E-A4B4-7D6096257CD3}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{4B254DFC-C02A-4F9B-A146-759F80EF18CB}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{956F3D21-D5F6-4632-9D5D-75B4E77D95A1}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{04C37756-92DC-4CC3-B143-509B87C57890}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{BABB0249-527D-40D9-86CD-0EA5E65F6C2A}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{E5963698-80AD-4D4C-8647-2937689ED413}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{F85500CA-1EF2-4817-9DEB-500ABFDB1747}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{1B659890-5572-449F-9CC7-7A3D8814CBA2}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{23323531-EB8F-47B5-9C7B-A80B81E27A3C}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{BA3D00F6-BA98-4501-B3D5-8D3711674E81}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{950FB8F1-1B4D-417A-A56F-E514EDB4C995}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{4D896FC0-B3E4-48B1-8216-A232BBC1AB8D}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{E40C66AD-5BF2-460B-A8A7-E064015AC335}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{E25C1DFE-FD85-407C-B5EB-B53307447F33}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{03E3ADA6-58BE-4D0D-A06B-55B1EC936C35}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{FDC3F4AF-D4EF-453E-9212-CE458B1252C8}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{EA58D950-1138-4D8E-9B2D-C5A3EF79EBEF}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{83AB13C8-4752-4BFC-9DB8-24A0FCA783EF}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{977875EB-9ACC-436E-9C2E-53F109245BD0}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{C61442AC-95DC-4C75-B8E1-4662FCF10480}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{D7B56882-76A0-4FA6-BADF-EB5198F0DD0E}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{41D30744-639B-483B-A5F0-30B17236656A}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{AE3D5EA3-2205-40C4-900F-84FD2F5EF1A2}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{7DA47B54-7AA0-415B-AA86-09E6EB44AD6D}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{4D7FA8FA-8D05-4EE2-A544-6FAE9DF3E7C9}"/>
+    <hyperlink ref="B367" r:id="rId342" xr:uid="{542CDD31-D762-40FA-81DD-A7228E9C1568}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{F8D0AFC5-9809-4E15-98B2-309F90AAE3DA}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{7887FE29-957A-4D58-A364-384EDC5D000C}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{CC4F3F18-04C9-404E-A027-CDB72F380C0B}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{F34C6DA1-5ACC-449F-9D1B-F427BD1EFFCB}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{2E9E7DC5-6F2C-49A9-A354-ED965212CE04}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{A28C4FD3-7D06-4BDC-9A37-0796BA982AD2}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{D72D6B14-58BC-409D-98B8-F5317E683C03}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{ACEAF303-40CD-47F9-90B6-C4E5FAB85F08}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{2B84E63B-5C78-471C-A864-7C14E6E0BD95}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{2C1D3DA9-3EC0-4568-91E3-280136467803}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{BD056602-0677-49FA-8B13-A7CFF502AE6D}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{0E6B1196-7F27-46B1-8883-2B576A729E15}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{B80D3322-FFCC-4A2F-9C92-BA4A926E8968}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{09002ABF-264C-4E4E-BBC2-2D9116807F1E}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{0EA97800-DF32-490B-82F3-37C5EE085DB4}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{9A996C2C-602B-4C5B-B4AD-9D68CCEE12DF}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{69A850F1-3CE6-4004-A4A4-CEAD067142A9}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{C00FA748-C394-4C59-AAD9-E0BEAAAFAB27}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{18B8166C-921E-49A0-A36A-C6DF0E563805}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{AB1625FA-5B47-43BF-807B-7E18E590E2A8}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{9D131701-F06C-4757-91BE-4CAB3019D983}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{6D1E23EF-922D-4487-9DC2-892172D68E1C}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{8931FC48-891F-4EB4-9A79-94E15C38D244}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{B1615F73-284E-4D04-95B7-917B0B489FE5}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{A1693450-2BF8-40CB-B081-BB1A7F497E78}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{EAA62786-34FF-4BED-8BF0-E12F36BA7AC2}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{651277C7-B3D7-4DBA-B78A-34A67F7336D9}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{3938DAD1-4935-4E45-A5D8-F81C60677146}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{F50E7AD4-062F-47BC-8AE3-CAAFD4C84D2D}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{1D09FA71-5041-4979-9FFE-6B6DFA094B5E}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{38607473-B832-4F76-9AE8-490506894567}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{E36CA6BC-8B19-4229-9250-35E745885E74}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{B79E7CD9-3F0E-4D3B-AF4E-DDE7FEFA0653}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{66C9FDFA-CB20-4A85-92A3-CDE7E6F58BBF}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{6456C4AC-14B8-4318-8E84-2F3D70EA6297}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{B822798C-3CEB-48F7-9337-5BEB6642BDFB}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{E3F924B9-2A64-4C68-B147-FF4B64CC9065}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{7CBB2384-2846-4D1A-B6C9-478F6854FA5F}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{9C73F3D9-1DA4-4CBF-A69A-0DB7E0FC59BD}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{83E3F594-70BC-4EBC-8EC8-ED526F2004BB}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{0EBFC740-D294-48FB-B0F4-38D8715469DD}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{A06698E3-96DA-4627-B261-FC7184947672}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{8A70141A-615F-4FB4-9E12-B24C7F4A86BF}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{D798113D-B4CD-4A45-9318-60214554E7CA}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{11ED63CA-BC16-4460-A8C0-AED89715C361}"/>
+    <hyperlink ref="B418" r:id="rId388" xr:uid="{B49CDE8B-349C-4032-98C1-6E6685A854ED}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{5A3C27CF-EAD2-4FDE-AF3B-361113D8CD9A}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{712C984C-197C-476D-860C-EC4398DDACC7}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{9BACD0D0-54C4-491F-B563-2DBFA5FC02AF}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{9DCC7AAB-77BD-4455-BAE9-42566869F047}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{9B387798-2EB7-414E-81F2-56AA5FA1F805}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{944AD14B-1709-4C31-A302-2BA2BEFA80AA}"/>
+    <hyperlink ref="B426" r:id="rId395" xr:uid="{91ECD35C-1670-4DA0-80F1-4AB776440F19}"/>
+    <hyperlink ref="B425" r:id="rId396" xr:uid="{1296224F-35A1-45BB-943D-F6A269C83F84}"/>
+    <hyperlink ref="B424" r:id="rId397" xr:uid="{B6E853D8-00B4-465C-A7E0-64877F8D3449}"/>
+    <hyperlink ref="B423" r:id="rId398" xr:uid="{2B8B1D86-1234-48AC-B357-43B0829CA43C}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{3ACCA1C2-D83D-448A-BD0C-6179E0F89D4B}"/>
+    <hyperlink ref="B421" r:id="rId400" xr:uid="{DD3632DA-76AB-466B-86FB-0BE2E5CE2E2C}"/>
+    <hyperlink ref="B420" r:id="rId401" xr:uid="{C5D19B47-C281-4C15-9A99-4002E1BD9AA2}"/>
+    <hyperlink ref="B419" r:id="rId402" xr:uid="{956B82E6-C1E9-4564-80C7-BEC7F9EE6457}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{2594B2A6-F894-4FDA-8887-01A190B6A2A5}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{1814444C-03B8-4F74-8A55-96287BDA1699}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{EA0FC5E3-4106-45D5-8213-C6BDD93740F7}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{6955F214-7AF5-429B-871E-B3081DC8C097}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{A69EB19D-1840-4DE1-B0B0-72609D259B26}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{3749230E-9E68-4D73-BB1F-03EC37E64972}"/>
+    <hyperlink ref="B439" r:id="rId409" xr:uid="{FF307947-7E1B-464A-8F46-D21BB792C822}"/>
+    <hyperlink ref="B464" r:id="rId410" xr:uid="{C4C0B617-A558-4EDF-9386-ED6C7169D39A}"/>
+    <hyperlink ref="B463" r:id="rId411" xr:uid="{DF00F2BD-132E-4028-B4B0-BC8ABC9F5F98}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{07D93789-F2A2-4C5E-A0D9-1B2907F41065}"/>
+    <hyperlink ref="B461" r:id="rId413" xr:uid="{1F523951-0316-4620-8DA7-EADB88F020D9}"/>
+    <hyperlink ref="B460" r:id="rId414" xr:uid="{41383F5C-BA88-45EA-B4B2-994BE1965384}"/>
+    <hyperlink ref="B459" r:id="rId415" xr:uid="{A50C69B9-5E18-4053-942F-E4CFA371458A}"/>
+    <hyperlink ref="B458" r:id="rId416" xr:uid="{0273FA52-7A34-4BB7-977D-6403E3A4584F}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{BF8392F6-FBF9-4177-B62E-6D1469276922}"/>
+    <hyperlink ref="B456" r:id="rId418" xr:uid="{FA32A7E9-D6D7-4338-9BB6-4AF546D9769B}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{8858BF4A-FD95-4A58-AE63-7193ECE5FCBB}"/>
+    <hyperlink ref="B454" r:id="rId420" xr:uid="{D4854755-C0DB-475E-B8D9-1A086D365459}"/>
+    <hyperlink ref="B453" r:id="rId421" xr:uid="{A7A62371-FAE5-4088-AF40-62C47DDE59C2}"/>
+    <hyperlink ref="B452" r:id="rId422" xr:uid="{A991373C-F8FF-4362-9DB6-A536B6DBA6D7}"/>
+    <hyperlink ref="B451" r:id="rId423" xr:uid="{4BEEDACB-9B41-401F-A9F0-26647B8E65FE}"/>
+    <hyperlink ref="B450" r:id="rId424" xr:uid="{28CCD46B-0C9A-4BFB-A9BD-7394CC552380}"/>
+    <hyperlink ref="B449" r:id="rId425" xr:uid="{4BC2BB4D-C85E-4906-A263-8899FE00FE2C}"/>
+    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{FC0AFA0A-2EA0-438D-8804-21152913AE7F}"/>
+    <hyperlink ref="B447" r:id="rId427" xr:uid="{D308D510-14E9-4A8C-95BB-E8B0DBDCA7EC}"/>
+    <hyperlink ref="B446" r:id="rId428" xr:uid="{850C78E2-A008-43FA-8A6D-8F4B976F9E24}"/>
+    <hyperlink ref="B445" r:id="rId429" xr:uid="{B9BA9D68-0500-4047-9D68-C491984558A7}"/>
+    <hyperlink ref="B444" r:id="rId430" xr:uid="{22B3A5A3-ECCB-4952-BB45-787A202C0621}"/>
+    <hyperlink ref="B443" r:id="rId431" xr:uid="{F2959941-5719-4E23-9376-E0C11F052FEF}"/>
+    <hyperlink ref="B442" r:id="rId432" xr:uid="{085BF382-2153-4340-9DB6-D8C275E1F9A8}"/>
+    <hyperlink ref="B441" r:id="rId433" xr:uid="{3079767C-D7C6-44E6-B8E5-14F8801401E3}"/>
+    <hyperlink ref="B440" r:id="rId434" xr:uid="{733393B2-52A4-461C-B89B-BD4EC5197730}"/>
+    <hyperlink ref="B512" r:id="rId435" xr:uid="{DFF9CF94-65C4-4500-B308-F8AB01FF709C}"/>
+    <hyperlink ref="B511" r:id="rId436" xr:uid="{A58D2792-35CB-4E35-865B-A146243DAF44}"/>
+    <hyperlink ref="B510" r:id="rId437" xr:uid="{C4FF1E21-F808-4224-A3F4-20178640B804}"/>
+    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{5B9ED2F3-D92A-4DF1-AA96-B0BC7BBEB4D0}"/>
+    <hyperlink ref="B508" r:id="rId439" xr:uid="{D72F83C9-9210-441D-AE12-D7626596460A}"/>
+    <hyperlink ref="B507" r:id="rId440" xr:uid="{04ADC7F1-E3DD-461F-8E25-21D6795CF1D6}"/>
+    <hyperlink ref="B505" r:id="rId441" xr:uid="{F4652645-9EA8-46FB-9045-90C17087DE60}"/>
+    <hyperlink ref="B504" r:id="rId442" xr:uid="{80B90B21-504F-4473-960F-28148C63BDB6}"/>
+    <hyperlink ref="B503" r:id="rId443" xr:uid="{CAA92065-6192-4FA2-85BA-AC2C6E94D0A3}"/>
+    <hyperlink ref="B502" r:id="rId444" xr:uid="{8F46C55A-E315-45C0-9BD4-195FF1F8EAB2}"/>
+    <hyperlink ref="B501" r:id="rId445" xr:uid="{EC07985A-4484-4AF3-BC6D-57BD1F05CE92}"/>
+    <hyperlink ref="B500" r:id="rId446" xr:uid="{284E0089-B8D7-4AE5-A45F-6511A434D839}"/>
+    <hyperlink ref="B499" r:id="rId447" xr:uid="{6BB89278-6E37-4A41-8382-29F117785D89}"/>
+    <hyperlink ref="B498" r:id="rId448" xr:uid="{861E2D06-42B8-4829-B183-A2D8D417258D}"/>
+    <hyperlink ref="B497" r:id="rId449" xr:uid="{0D2BD4C3-6C8F-4BC1-96F9-9574F452B0BF}"/>
+    <hyperlink ref="B496" r:id="rId450" xr:uid="{A045A9C0-E0DF-433B-A143-82425C17E8E2}"/>
+    <hyperlink ref="B495" r:id="rId451" xr:uid="{90970FC0-A8B3-4578-860A-549F11CDF3FE}"/>
+    <hyperlink ref="B494" r:id="rId452" xr:uid="{F4082D03-A203-40B9-8D6E-9F4DA496DD0F}"/>
+    <hyperlink ref="B493" r:id="rId453" xr:uid="{04F3C59F-F24B-46F7-97B2-78D1A74EB935}"/>
+    <hyperlink ref="B492" r:id="rId454" xr:uid="{1AE0AC83-17D5-4B24-9AE9-67CAB1445B0C}"/>
+    <hyperlink ref="B491" r:id="rId455" xr:uid="{EF0BEED7-4B99-4099-8E45-73389B2F3CE5}"/>
+    <hyperlink ref="B490" r:id="rId456" xr:uid="{4367F478-D852-4757-98DB-34D3A3144B0A}"/>
+    <hyperlink ref="B489" r:id="rId457" xr:uid="{0270D0F5-65F8-401A-8E01-C3F8AF6F1AB2}"/>
+    <hyperlink ref="B488" r:id="rId458" xr:uid="{D140FFEF-DDA5-46C3-8B8A-926EF5D10754}"/>
+    <hyperlink ref="B487" r:id="rId459" xr:uid="{EF672783-26F3-4FD8-9104-E9C1D8E6DA90}"/>
+    <hyperlink ref="B486" r:id="rId460" xr:uid="{D437A3FA-1BBF-447C-BD31-5A7588626ED1}"/>
+    <hyperlink ref="B485" r:id="rId461" xr:uid="{F68941AD-5C2F-4497-BC2D-C25B871409D0}"/>
+    <hyperlink ref="B484" r:id="rId462" xr:uid="{21F34A01-840A-46A0-9AF9-AFDB5E29FBCC}"/>
+    <hyperlink ref="B483" r:id="rId463" xr:uid="{B8219089-117F-460C-81F0-B17E4A1691A3}"/>
+    <hyperlink ref="B482" r:id="rId464" xr:uid="{07F20092-4786-466E-8AB2-CF5B5140B15E}"/>
+    <hyperlink ref="B481" r:id="rId465" xr:uid="{AA1DD33A-2AE0-4C08-A57F-77D9EE5BE6E0}"/>
+    <hyperlink ref="B480" r:id="rId466" xr:uid="{4E18E62F-ABEC-468E-8113-F8C4DA90E3E1}"/>
+    <hyperlink ref="B479" r:id="rId467" xr:uid="{2156B6DF-8D93-4C61-891E-4DB16CF04FDC}"/>
+    <hyperlink ref="B478" r:id="rId468" xr:uid="{AECE408D-F476-4640-9399-64110E425E7F}"/>
+    <hyperlink ref="B477" r:id="rId469" xr:uid="{C88500C3-28D3-4195-8364-29B244A444D0}"/>
+    <hyperlink ref="B475" r:id="rId470" xr:uid="{1BC3A478-AB78-4837-9901-2C36A938EECB}"/>
+    <hyperlink ref="B470" r:id="rId471" xr:uid="{714502E7-EBED-4F99-A3CE-916774C57381}"/>
+    <hyperlink ref="B476" r:id="rId472" xr:uid="{2E2D74DA-2C82-4811-BDC2-4B9308CFCC20}"/>
+    <hyperlink ref="B474" r:id="rId473" xr:uid="{8E6D53CE-CC60-47D7-8718-0350B0E7FEFA}"/>
+    <hyperlink ref="B473" r:id="rId474" xr:uid="{AB250E71-7FFF-499E-8E0C-AE15CA711F9E}"/>
+    <hyperlink ref="B472" r:id="rId475" xr:uid="{61D4E39C-79D0-47B8-AA2B-F0684437A2E7}"/>
+    <hyperlink ref="B471" r:id="rId476" xr:uid="{725D58BD-984C-4EA0-8D84-6530275AACEB}"/>
+    <hyperlink ref="B469" r:id="rId477" xr:uid="{1DBFFF34-3F64-4844-9752-DD4A5B998997}"/>
+    <hyperlink ref="B468" r:id="rId478" xr:uid="{C69765F2-D9D2-4A4D-878D-8019DDEB520B}"/>
+    <hyperlink ref="B467" r:id="rId479" xr:uid="{32E087B8-9755-483E-84CB-146EC5BF9512}"/>
+    <hyperlink ref="B466" r:id="rId480" xr:uid="{91E23376-A429-4E68-8067-F9EF386187D2}"/>
+    <hyperlink ref="B465" r:id="rId481" xr:uid="{713FAD59-1F26-4827-8467-8C2D7DD613AE}"/>
+    <hyperlink ref="B538" r:id="rId482" xr:uid="{3AD4085A-64FF-4186-BEAE-EC09A139CD56}"/>
+    <hyperlink ref="B537" r:id="rId483" xr:uid="{A18CF9EE-F656-46F9-ACD8-E979DFC0D574}"/>
+    <hyperlink ref="B536" r:id="rId484" xr:uid="{CCABB07C-0765-4B40-B95D-213D9BFA2A82}"/>
+    <hyperlink ref="B535" r:id="rId485" xr:uid="{267E0FFC-20E4-4677-B6F2-016B49E70F2E}"/>
+    <hyperlink ref="B534" r:id="rId486" xr:uid="{2BF6766F-FC33-43CC-B9C5-394812A53C78}"/>
+    <hyperlink ref="B533" r:id="rId487" xr:uid="{3F4CAF3C-2E34-461F-B68E-BDF7223B6E79}"/>
+    <hyperlink ref="B532" r:id="rId488" xr:uid="{5975AFEE-8C93-4807-886E-EEB537FB8BC6}"/>
+    <hyperlink ref="B531" r:id="rId489" xr:uid="{3A5EF0AD-7B24-45F4-BC8D-FF3CC74BCD85}"/>
+    <hyperlink ref="B530" r:id="rId490" xr:uid="{28F67A3F-756F-471B-A9CC-6892A1D0988A}"/>
+    <hyperlink ref="B529" r:id="rId491" xr:uid="{75A50A9D-876E-4600-855E-4054585EAD8D}"/>
+    <hyperlink ref="B528" r:id="rId492" xr:uid="{43ED0A34-FF5F-4E86-AB1E-3A801C1875CB}"/>
+    <hyperlink ref="B525" r:id="rId493" xr:uid="{1F38D4D4-9A26-4AE5-A07C-FB092B9BFA5E}"/>
+    <hyperlink ref="B524" r:id="rId494" xr:uid="{EB826D2C-BCFE-4F6F-8FFC-44EB55C15944}"/>
+    <hyperlink ref="B523" r:id="rId495" xr:uid="{F9636F9A-9868-4F40-84D4-FA1C2A3403F5}"/>
+    <hyperlink ref="B522" r:id="rId496" xr:uid="{48181C73-F2AC-482E-BF5B-E3CF89DFA973}"/>
+    <hyperlink ref="B521" r:id="rId497" xr:uid="{DB636107-BDA3-48E5-91BD-A0AEE0F07DF9}"/>
+    <hyperlink ref="B520" r:id="rId498" xr:uid="{5A368FDB-729C-4619-9F0D-7287390FEEE5}"/>
+    <hyperlink ref="B519" r:id="rId499" xr:uid="{B0E7CDE8-CCD0-4E04-BF29-FF47C5E66250}"/>
+    <hyperlink ref="B518" r:id="rId500" xr:uid="{12A8CCCD-93CC-48F5-B5E0-567C67B2DCCA}"/>
+    <hyperlink ref="B517" r:id="rId501" xr:uid="{91DAEAD5-5926-49D5-9F0D-EE7DD863FC0C}"/>
+    <hyperlink ref="B516" r:id="rId502" xr:uid="{D816C068-03D5-46C2-A0F5-4E731EC5A4C6}"/>
+    <hyperlink ref="B515" r:id="rId503" xr:uid="{9C87CF80-697B-4611-92F5-A51990396DAB}"/>
+    <hyperlink ref="B514" r:id="rId504" xr:uid="{A1C9FF37-3D42-4E81-BA93-28B9C84CB254}"/>
+    <hyperlink ref="B513" r:id="rId505" xr:uid="{42A8FD9D-1C57-445B-9887-8FEB1958F838}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{3FE97E51-F325-47DC-9B98-CE59B09F1E37}"/>
+    <hyperlink ref="B527" r:id="rId507" xr:uid="{7A101CBE-7F52-4507-A112-A29C09B26CA5}"/>
+    <hyperlink ref="B567" r:id="rId508" xr:uid="{B8F2A409-30E9-4C93-A64E-3F023F3E054F}"/>
+    <hyperlink ref="B566" r:id="rId509" xr:uid="{1B8492A7-C7AD-4C7D-958E-523B18C18FCB}"/>
+    <hyperlink ref="B565" r:id="rId510" xr:uid="{6C1C4F29-5830-453B-A146-AA21EBA429B3}"/>
+    <hyperlink ref="B564" r:id="rId511" location="3" xr:uid="{57BB7B58-33FF-428E-9608-E3374749AD7F}"/>
+    <hyperlink ref="B563" r:id="rId512" xr:uid="{042BA4F5-DB35-4B00-B931-957A82A9CA19}"/>
+    <hyperlink ref="B562" r:id="rId513" xr:uid="{F6C6CD8C-472E-46D2-A85F-3FAE150D9048}"/>
+    <hyperlink ref="B561" r:id="rId514" xr:uid="{5CE2C0FA-9721-4F67-A571-ABA9F49E9D3C}"/>
+    <hyperlink ref="B560" r:id="rId515" xr:uid="{1BBA60DF-4939-47C7-BC85-27FEB038B4FB}"/>
+    <hyperlink ref="B559" r:id="rId516" xr:uid="{52F3941C-F2C8-48C5-A572-AC1E08892B9E}"/>
+    <hyperlink ref="B558" r:id="rId517" xr:uid="{F79D04A2-73E1-47DB-A9F6-4D47C2592F06}"/>
+    <hyperlink ref="B557" r:id="rId518" xr:uid="{478814AE-62CB-4CC0-AD4A-A7BFB3A0A85A}"/>
+    <hyperlink ref="B556" r:id="rId519" xr:uid="{2D7FEA86-B068-4B70-AB72-8F0CA12B688C}"/>
+    <hyperlink ref="B555" r:id="rId520" xr:uid="{0C27248B-8CD2-42E2-B371-3C0081CB1880}"/>
+    <hyperlink ref="B554" r:id="rId521" xr:uid="{797876F3-FEFF-4822-80BA-3406D919A388}"/>
+    <hyperlink ref="B553" r:id="rId522" xr:uid="{CDB66507-243D-461E-8440-D3A87F17155F}"/>
+    <hyperlink ref="B552" r:id="rId523" xr:uid="{BF433D25-BBF7-4E00-9489-6A189612848B}"/>
+    <hyperlink ref="B551" r:id="rId524" xr:uid="{2E64831A-85AE-4E16-BC02-9334ED022C14}"/>
+    <hyperlink ref="B550" r:id="rId525" xr:uid="{F2603910-2E5C-4034-9B23-C7AC59D3F992}"/>
+    <hyperlink ref="B549" r:id="rId526" xr:uid="{A871FF21-D92C-4526-A95C-9EF73A23CAB8}"/>
+    <hyperlink ref="B548" r:id="rId527" xr:uid="{D9CB506C-331F-44E6-A86D-420540E25E33}"/>
+    <hyperlink ref="B547" r:id="rId528" xr:uid="{E149E1E6-F545-4A7E-BC61-109D254767A6}"/>
+    <hyperlink ref="B546" r:id="rId529" xr:uid="{211DD93C-E6AC-4113-9B57-E4FFF444C41A}"/>
+    <hyperlink ref="B545" r:id="rId530" xr:uid="{027616E4-7E55-429C-ADF1-FE8888189760}"/>
+    <hyperlink ref="B544" r:id="rId531" xr:uid="{7669C43B-9972-4499-B5AE-EC59AEBB74C3}"/>
+    <hyperlink ref="B543" r:id="rId532" xr:uid="{B12CD9AB-CA37-4FB4-96A6-B332B05AD8CE}"/>
+    <hyperlink ref="B542" r:id="rId533" xr:uid="{2434F74C-AAA6-41FB-B874-10AD4BCFF0A0}"/>
+    <hyperlink ref="B541" r:id="rId534" xr:uid="{D29BF3BD-56BB-4DA1-A9DF-081885117000}"/>
+    <hyperlink ref="B540" r:id="rId535" xr:uid="{DF3F5CC9-ADEC-4472-BDEB-FB90FBBA340F}"/>
+    <hyperlink ref="B539" r:id="rId536" xr:uid="{B3CEF48E-4227-4203-92ED-DEA188BA8291}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId508"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId537"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F61C88-C9EC-4CF4-AE33-6864F7CD4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD86A44-34F6-4028-9076-2610890ACEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$667</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1332">
   <si>
     <t>titulo</t>
   </si>
@@ -3430,6 +3433,606 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/86dd5adc-db43-3e0f-83ff-ba719bab7a21?title=SQIA%20Update%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>B3-  6 Pager | Update Rápido</t>
+  </si>
+  <si>
+    <t>Blau | 6 Pager</t>
+  </si>
+  <si>
+    <t>Financial Deepening | Contexto BTG | 6 Pager</t>
+  </si>
+  <si>
+    <t>CASH | 6 Pager</t>
+  </si>
+  <si>
+    <t>DASA | 6 Pager</t>
+  </si>
+  <si>
+    <t>Inititation GetNinjas | 6 Page</t>
+  </si>
+  <si>
+    <t>KORA | 6 Pager</t>
+  </si>
+  <si>
+    <t>LREN | 6 Pager</t>
+  </si>
+  <si>
+    <t>Mobly | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fc78e4dc-7101-4007-701b-add0a85e674f?title=Mobly%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7948d751-6ffd-fe1f-e3a5-a9d51ee4ccbd?title=LREN%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/24c598e4-38b8-a036-0d68-973d21b767bb?title=KORA%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/77242fcf-b399-ced2-18b4-7dc366abdfa7?title=Inititation%20GetNinjas%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c148f1be-f3f1-96cb-bbd7-08ab725d475f?title=DASA%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ce126c52-9cfd-e996-cc2e-77c62dcdaccd?title=CASH%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b15ee375-b0a6-cb93-d2fc-07644481cc78?title=Financial%20Deepening%20%7C%20Contexto%20BTG%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3f970425-6aa8-5fd2-9afd-cceff8b0012b?title=Blau%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/febe86c3-b867-0945-6ced-9b05b293128b?title=B3-%20%206%20Pager%20%7C%20Update%20R%C3%A1pido</t>
+  </si>
+  <si>
+    <t>Feitosa HIG - Papo sobre Kora</t>
+  </si>
+  <si>
+    <t>Ecommerce | Call com CEO da QualitySP (seller)</t>
+  </si>
+  <si>
+    <t>Conversa com o Diretor Comercial da Lenovo - Fábio Lima</t>
+  </si>
+  <si>
+    <t>Eneva | Painel sobre gas @ BBI</t>
+  </si>
+  <si>
+    <t>Sequoia | 1x1 com management</t>
+  </si>
+  <si>
+    <t>Rumo | Group com RI @ BBI</t>
+  </si>
+  <si>
+    <t>Omega | Group com RI @ BBI</t>
+  </si>
+  <si>
+    <t>Kalunga | IE com UBS BB</t>
+  </si>
+  <si>
+    <t>Vamos | Papo com Top mgmt (CEO &amp; CFO)</t>
+  </si>
+  <si>
+    <t>Mobly - Management @ BBI Forum</t>
+  </si>
+  <si>
+    <t>LJQQ CEO @ BBI Forum</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/20a0ea3e-dbc4-497e-9ec5-c84c49f004ea?title=LJQQ%20CEO%20@%20BBI%20Forum</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5e3e1861-fbce-4dcb-8b86-c4bab9d99fde?title=Mobly%20-%20Management%20@%20BBI%20Forum</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/17ffacab-b73c-4a73-9dab-9c6511ec94ac?title=Vamos%20%7C%20Papo%20com%20Top%20mgmt%20(CEO%20&amp;%20CFO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a3fbb7d4-9178-3d7d-9dc8-4beb5889a36f?title=Kalunga%20%7C%20IE%20com%20UBS%20BB</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e470f5db-bf83-43aa-8c9d-5e442b3cb039?title=Omega%20%7C%20Group%20com%20RI%20@%20BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e5534151-518a-414e-b6d2-268f6186bc15?title=Rumo%20%7C%20Group%20com%20RI%20@%20BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e453272b-29a4-40ec-a007-7243dbd341a5?title=Sequoia%20FO%20%7C%201x1%20c/%20mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e00a2a9e-c528-44d2-a073-5ae3eef02bfd?title=Eneva%20%7C%20Painel%20sobre%20gas%20@%20BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9353c6b4-9f8b-58aa-2acc-ef8bc668990c?title=Conversa%20com%20o%20Diretor%20Comercial%20da%20Lenovo%20-%20F%C3%A1bio%20Lima</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e9d78134-b5d9-03c4-1f1e-f8f123f92e4c?title=Ecommerce%20%7C%20Call%20com%20CEO%20da%20QualitySP%20(seller)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4b10ee33-aafe-4f61-ae06-1590771fbba2?title=Feitosa%20HIG%20-%20Papo%20sobre%20Kora</t>
+  </si>
+  <si>
+    <t>Grupo GPS - IE BTG Pactual</t>
+  </si>
+  <si>
+    <t>Privalia - Management - Roadshow - IPO</t>
+  </si>
+  <si>
+    <t>Privalia - IE com BTG</t>
+  </si>
+  <si>
+    <t>Nati Vozza construiu uma legião digital. A Soma entendeu o valor | Brazil Journal</t>
+  </si>
+  <si>
+    <t>EXCLUSIVO: Arezzo compra Reserva e abre avenida de crescimento | Brazil Journal</t>
+  </si>
+  <si>
+    <t>Insights @ Expert ESG</t>
+  </si>
+  <si>
+    <t>Allied | Pilot Fishing</t>
+  </si>
+  <si>
+    <t>4T20 - VVAR - Teleconferência</t>
+  </si>
+  <si>
+    <t>LJQQ - Call de resultado 4T20</t>
+  </si>
+  <si>
+    <t>FortBras - Management</t>
+  </si>
+  <si>
+    <t>Westwing - Update com Management</t>
+  </si>
+  <si>
+    <t>Grupo SBF - Update - Management</t>
+  </si>
+  <si>
+    <t>Eneva | Gerente de M&amp;A da cia</t>
+  </si>
+  <si>
+    <t>B2W - Call de reultados - 4T20</t>
+  </si>
+  <si>
+    <t>VVAR - Follow-up resultado 4T20</t>
+  </si>
+  <si>
+    <t>Privalia | Large Group com COO @BTG</t>
+  </si>
+  <si>
+    <t>Avon muda modelo da força de vendas | Empresas | Valor Econômico</t>
+  </si>
+  <si>
+    <t>Brinox | 1x1 com VP Comercial</t>
+  </si>
+  <si>
+    <t>Magazine Luiza vai avançar em supermercados e delivery em 2021 | Empresas | Valor Econômico</t>
+  </si>
+  <si>
+    <t>Boa Safra | Bate-papo com Marino (CEO) no contexto da oferta</t>
+  </si>
+  <si>
+    <t>Call com Roberto Brownie - MS agro analyst</t>
+  </si>
+  <si>
+    <t>Totvs @Santander | Dennis (CEO)</t>
+  </si>
+  <si>
+    <t>IE com BTG - Allied - Guanais</t>
+  </si>
+  <si>
+    <t>CTC | Conversa com Ciro Sitta - Produtor de cana</t>
+  </si>
+  <si>
+    <t>LJQQ - Update depois do resultado do 4T20</t>
+  </si>
+  <si>
+    <t>GPS Managment - IPO</t>
+  </si>
+  <si>
+    <t>DASA - Management</t>
+  </si>
+  <si>
+    <t>Allied - Conversa com CFO</t>
+  </si>
+  <si>
+    <t>Tenda | Group com experts de offsite - MODx (Ivan Rupnikundefined Tyler Scmetterer &amp; Ryan Smith.</t>
+  </si>
+  <si>
+    <t>Call com José Caetano - Fundador GPS</t>
+  </si>
+  <si>
+    <t>Gávea investe no Grupo GPSundefined líder em manutenção predial | Brazil Journal</t>
+  </si>
+  <si>
+    <t>Papo com Henrique Muramoto - WP - Conselheiro e acionista GPS</t>
+  </si>
+  <si>
+    <t>Round Table | Getninjas</t>
+  </si>
+  <si>
+    <t>Papo com Bruno Alves - Gávea - Conselheiro GPS</t>
+  </si>
+  <si>
+    <t>IE de Kora - @IBBA</t>
+  </si>
+  <si>
+    <t>Papo com Marcelo Hampshire - COO GPS</t>
+  </si>
+  <si>
+    <t>VVAR | Call com RI</t>
+  </si>
+  <si>
+    <t>Eneva | Papo com Formigli sobre cia</t>
+  </si>
+  <si>
+    <t>VVAR | Papo com Encore</t>
+  </si>
+  <si>
+    <t>Reuniao update com Alper - CEO/CFO</t>
+  </si>
+  <si>
+    <t>VVAR | 1x1 com Gerente de ecommerce</t>
+  </si>
+  <si>
+    <t>Conversa com CFO do Soma (Gabriel Lobo)</t>
+  </si>
+  <si>
+    <t>Management Sinqia 1x1@ Safra</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2d22a034-d32b-45c9-8fd4-7b1628ce6760?title=Grupo%20GPS%20-%20IE%20BTG%20Pactual</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e07b4f6b-8f5f-e425-1aed-9a18ba6a05af?title=Privalia%20-%20Management%20-%20Roadshow%20-%20IPO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0540b5ae-efc5-5aad-a7f2-5aa2e6e596ac?title=Privalia%20-%20IE%20com%20BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/93457258-e87f-4744-b176-ea5f28a596e6?title=Nati%20Vozza%20construiu%20uma%20legi%C3%A3o%20digital.%20A%20Soma%20entendeu%20o%20valor%20%7C%20Brazil%20Journal</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1692421c-5ad9-4f84-b7b5-8e800de34046?title=EXCLUSIVO:%20Arezzo%20compra%20Reserva%20e%20abre%20avenida%20de%20crescimento%20%7C%20Brazil%20Journal</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c0740618-d1b3-4519-b439-613bd77f5851?title=Insights%20@%20Expert%20ESG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b2692404-d2ad-153a-3100-5d566b6be679?title=Allied%20%7C%20Pilot%20Fishing</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f88d92e6-d852-af72-56ca-206c20bd8a58?title=4T20%20-%20VVAR%20-%20Teleconfer%C3%Aancia</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3724e4be-115d-0b86-fe60-36923fb8f4d5?title=LJQQ%20-%20Call%20de%20resultado%204T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/dca0a395-bf85-e490-876a-43f8254e63af?title=FortBras%20-%20%20Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/815b4f3a-9e53-56ee-b4f2-ed5c1f28d6d7?title=Westwing%20-%20Update%20com%20Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/71d4a6ce-b44e-6958-3a13-c356b90647b0?title=Grupo%20SBF%20-%20Update%20-%20Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7e0b92b6-f42e-497d-8769-afa773c0db2f?title=Eneva%20%7C%20Gerente%20de%20M&amp;A%20da%20cia</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/29d48b18-9b8a-ba1a-f76a-ca141188e4ed?title=B2W%20-%20%20Call%20de%20reultados%20-%204T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d47eec13-adf3-c8b3-7597-3b4cb7ea70a9?title=VVAR%20-%20Follow-up%20resultado%204T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1a6fa161-adac-3368-d751-7830459487b7?title=Privalia%20%7C%20Large%20Group%20com%20COO%20@BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2f2b7427-82e1-4d79-bbd7-f1d87f2ca8fc?title=Avon%20muda%20modelo%20da%20for%C3%A7a%20de%20vendas%20%7C%20Empresas%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/52e45eec-49d3-fea1-55da-bbe34568a5a2?title=Brinox%20%7C%201x1%20com%20VP%20Comercial</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5f863a75-a7eb-412c-a1aa-a01c39c930a6?title=Magazine%20Luiza%20vai%20avan%C3%A7ar%20em%20supermercados%20e%20delivery%20em%202021%20%7C%20Empresas%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a01087f4-7abd-4e5f-8943-186502bcd0fe?title=Boa%20Safra%20%7C%20Bate-papo%20com%20Marino%20(CEO)%20no%20contexto%20da%20oferta</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7c1bb84c-ccb3-4e0d-483f-0049d3051ba1?title=Call%20com%20Roberto%20Brownie%20-%20MS%20agro%20analyst</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/53596e15-dede-4086-9f2c-0420b37e691d?title=Totvs%20@Santander%20%7C%20Dennis%20(CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/db8e1a65-0320-7fa2-9dad-108dbaadebf5?title=IE%20com%20BTG%20-%20Allied%20-%20Guanais</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d29df5ea-f9be-41bc-bc34-1d80c20844ef?title=CTC%20%7C%20Conversa%20com%20Ciro%20Sitta%20-%20Produtor%20de%20cana</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/63d7a05a-66ff-76d8-bf85-b9de18d7d32f?title=LJQQ%20-%20Update%20depois%20do%20resultado%20do%204T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d06e6971-36d5-4f34-ae3a-a6f3e3011d9a?title=GPS%20Managment%20-%20IPO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bc2bd25d-61a8-63cf-6ebe-e4097fc50c0c?title=DASA%20-%20Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/61d72872-3da4-74e4-3fc4-c3b34e7acfbe?title=Allied%20-%20Conversa%20com%20CFO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/66b71d46-0bd7-4c07-8922-f6987042ec3c?title=Tenda%20%7C%20Group%20com%20experts%20de%20offsite%20-%20MODx%20(Ivan%20Rupnik,%20Tyler%20Scmetterer%20&amp;%20Ryan%20Smith.</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a262a246-06f8-44fe-b76f-c09cbbe547b5?title=Call%20com%20Jos%C3%A9%20Caetano%20-%20Fundador%20GPS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/69173b73-3b91-48e9-8c57-c31504e8cc26?title=G%C3%A1vea%20investe%20no%20Grupo%20GPS,%20l%C3%ADder%20em%20manuten%C3%A7%C3%A3o%20predial%20%7C%20Brazil%20Journal</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/adab5695-fceb-56fc-10a5-fafd401c4031?title=Papo%20com%20Henrique%20Muramoto%20-%20WP%20-%20Conselheiro%20e%20acionista%20GPS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/239d9495-f466-4ee3-ba2b-46fc23db4827?title=Round%20Table%20%7C%20Getninjas</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c755369a-56c4-aa81-c7db-7683cde37c82?title=Papo%20com%20Bruno%20Alves%20-%20G%C3%A1vea%20-%20Conselheiro%20GPS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f27a68c3-e5be-0e02-68c8-e7a2fd08b3b6?title=IE%20de%20Kora%20-%20@IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a433c804-a465-0933-52f6-a16388f8bb28?title=Papo%20com%20Marcelo%20Hampshire%20-%20COO%20GPS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9bdc5ec7-0f35-a662-d3da-b08196a9d70f?title=VVAR%20%7C%20Call%20com%20RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7186d6b3-c77d-40f2-97c9-c7921d175d10?title=Eneva%20%7C%20Papo%20com%20Formigli%20sobre%20cia</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0d43d2ce-1551-6aa4-433d-fa8c8ab9a318?title=VVAR%20%7C%20Papo%20com%20Encore</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/73feb997-8b76-4f59-8402-fe7abc51a2cc?title=Reuniao%20update%20com%20Alper%20-%20CEO/CFO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c05ec119-c5c1-e100-6f2c-843d0e50f8f6?title=VVAR%20%7C%201x1%20com%20Gerente%20de%20ecommerce</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/4dabca48-760d-47a2-b9da-e4397aa0da0c?title=Conversa%20com%20CFO%20do%20Soma%20(Gabriel%20Lobo)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ec129b2e-739c-4f31-96cd-6c9cadc9cf4e?title=Management%20Sinqia%201x1@%20Safra</t>
+  </si>
+  <si>
+    <t>Blau | Management e Marcelo Hahn</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8af6c1f8-0698-4341-a6c7-cbdc34c60401?title=Blau%20%7C%20Management%20e%20Marcelo%20Hahn</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/1217cb9e-92c5-4b96-bc69-d021db36c32e?title=Athena%20%7C%20Management</t>
+  </si>
+  <si>
+    <t>Athena | Management</t>
+  </si>
+  <si>
+    <t>Kora Saude - Private Equity HIG - Pilot Fishing</t>
+  </si>
+  <si>
+    <t>Operadora Alice levanta US$ 33 milhões | Valor Econômico | Valor Econômico</t>
+  </si>
+  <si>
+    <t>Klabin Conference Call - 4T20</t>
+  </si>
+  <si>
+    <t>CSN Mineração - IPO | 6 pager</t>
+  </si>
+  <si>
+    <t>Papo com Rodrigo Azevedo sobre Lugar de Gente</t>
+  </si>
+  <si>
+    <t>LREN (CEO) @ BTG</t>
+  </si>
+  <si>
+    <t>LG - Conversa com o Management (pilot fishing)</t>
+  </si>
+  <si>
+    <t>Elemídia | 1x1 com Marina Melemendjian (RI e M&amp;A)</t>
+  </si>
+  <si>
+    <t>Eletromidia | 1x1 com Marina Melemendjian (RI e M&amp;A)</t>
+  </si>
+  <si>
+    <t>Mercado de Gás | Marco Tavares (CEO) Gas Bridge</t>
+  </si>
+  <si>
+    <t>Rumo | Group com Natalia Marcassa (Ministério de Infra)</t>
+  </si>
+  <si>
+    <t>UNICOBA | IE com Mizusakiundefined cia do mkt de baterias e LED</t>
+  </si>
+  <si>
+    <t>Agrogalaxy | Reunião com Management</t>
+  </si>
+  <si>
+    <t>Agrogalaxy - Papo com mgmt</t>
+  </si>
+  <si>
+    <t>XP CA | E-COMMERCE | Head de E-commerce da Marabrazundefined Sr. Felipe Cazita</t>
+  </si>
+  <si>
+    <t>Reunião com CFO da Klabin - @Santader</t>
+  </si>
+  <si>
+    <t>VTEX - Head de Logística | Guide | Aline Salles Kolesnik | E-Commerce</t>
+  </si>
+  <si>
+    <t>IE Nadir Figueiredo - BBI</t>
+  </si>
+  <si>
+    <t>Tenda | 1x1 com Caio (CEO &amp; Founder) da Tecverde - Papo sobre offsite</t>
+  </si>
+  <si>
+    <t>Indústria Farmaceutica | Rogério Almeida (Cristalia)</t>
+  </si>
+  <si>
+    <t>Live com CEOs de Distribuidoras de insumos agrícolas</t>
+  </si>
+  <si>
+    <t>InvestTech | Non-deal roadshow</t>
+  </si>
+  <si>
+    <t>Indústria Farmacêutica | Bruno Zanni (comercial Elfa)</t>
+  </si>
+  <si>
+    <t>Allied | IE @ BBA</t>
+  </si>
+  <si>
+    <t>Infracommerce | Kai Schoppen (founder e CEO)</t>
+  </si>
+  <si>
+    <t>Uma “Amazon” para chamar de sua? | NeoFeed</t>
+  </si>
+  <si>
+    <t>CSL Behring @IBBA | Gustavo Fernandes (CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e80fddf8-a26e-428b-8ea1-b7137c1aff14?title=Kora%20Saude%20-%20Private%20Equity%20HIG%20-%20Pilot%20Fishing</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9e18b90b-64ef-4a4f-bf9f-72472d15f460?title=Operadora%20Alice%20levanta%20US$%2033%20milh%C3%B5es%20%7C%20Valor%20Econ%C3%B4mico%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/125c6c4e-2c0e-b234-562b-11b893494e76?title=Klabin%20Conference%20Call%20-%204T20</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ee35717e-b0cd-f6fa-283e-cf153805333a?title=CSN%20Minera%C3%A7%C3%A3o%20-%20IPO%20%7C%206%20pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f9b4558b-bde5-dfcd-dfca-f2fe3b919e66?title=Papo%20com%20Rodrigo%20Azevedo%20sobre%20Lugar%20de%20Gente</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b89ae295-de22-353e-0051-79e785406ea1?title=LREN%20(CEO)%20@%20BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3abd4404-ae35-a195-3a46-15d9dbcb8d8d?title=LG%20-%20Conversa%20com%20o%20Management%20(pilot%20fishing)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/8dfdf043-51cf-4dbd-bac3-6ad00f9aedd3?title=Elem%C3%ADdia%20%7C%201x1%20com%20Marina%20Melemendjian%20(RI%20e%20M&amp;A)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bd6c832e-1a05-3d81-5d33-b467a6c4fd1e?title=Eletromidia%20%7C%201x1%20com%20Marina%20Melemendjian%20(RI%20e%20M&amp;A)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5194ec17-777d-46f2-adcc-45fb08f9a320?title=Mercado%20de%20G%C3%A1s%20%7C%20Marco%20Tavares%20(CEO)%20Gas%20Bridge</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c2219bf7-5e17-4135-b200-b94539a59748?title=Rumo%20%7C%20Group%20com%20Natalia%20Marcassa%20(Minist%C3%A9rio%20de%20Infra)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6194a49f-e7c6-438c-818f-1f12caa4ceae?title=UNICOBA%20%7C%20IE%20com%20Mizusaki,%20cia%20do%20mkt%20de%20baterias%20e%20LED</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/390e2f92-334d-4c37-aef1-b742ce593f60?title=Agrogalaxy%20%7C%20Reuni%C3%A3o%20com%20Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/397074c6-56e2-a7e2-b39f-2d1461a6c130?title=Agrogalaxy%20-%20Papo%20com%20mgmt</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/925cd94e-f11a-c888-e68c-689cd4d9acbe?title=XP%20CA%20%7C%20E-COMMERCE%20%7C%20Head%20de%20E-commerce%20da%20Marabraz,%20Sr.%20Felipe%20Cazita</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/22e44b83-6a52-dd8f-c997-376893bf5b4f?title=Reuni%C3%A3o%20com%20CFO%20da%20Klabin%20-%20@Santader</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/19e38efb-a329-df80-1410-2f0c6137b05a?title=VTEX%20-%20Head%20de%20Log%C3%ADstica%20%7C%20Guide%20%7C%20Aline%20Salles%20Kolesnik%20%7C%20E-Commerce</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5f011ffb-aa6c-974c-4306-224e68b1633e?title=IE%20Nadir%20Figueiredo%20-%20BBI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c09dcc20-21b6-4b6b-b4e3-c94be38ac400?title=Tenda%20%7C%201x1%20com%20Caio%20(CEO%20&amp;%20Founder)%20da%20Tecverde%20-%20Papo%20sobre%20offsite</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9cc7ac22-0757-45ed-8896-112a44de0ef5?title=Ind%C3%BAstria%20Farmaceutica%20%7C%20Rog%C3%A9rio%20Almeida%20(Cristalia)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/dcfc5afb-1487-d32e-0aa7-707216a5ff87?title=Live%20com%20CEOs%20de%20Distribuidoras%20de%20insumos%20agr%C3%Adcolas</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/290744f7-a17f-1b05-09ac-e9abffe3bcc2?title=InvestTech%20%7C%20Non-deal%20roadshow</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d4e8bb25-4934-4cad-9ecf-19c3c5d39b5f?title=Ind%C3%BAstria%20Farmac%C3%AAutica%20%7C%20Bruno%20Zanni%20(comercial%20Elfa)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/7f54859e-e608-5a3b-c613-3bd35333bfa1?title=Allied%20%7C%20IE%20@%20BBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/fc48d340-4076-7f04-0a3a-00db15e4f601?title=Infracommerce%20%7C%20Kai%20Schoppen%20(founder%20e%20CEO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/df1983dd-b30a-4853-895c-232e883086cd?title=Uma%20%E2%80%9CAmazon%E2%80%9D%20para%20chamar%20de%20sua?%20%7C%20NeoFeed</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9aee1768-10e1-47a4-8809-5769c9090745?title=CSL%20Behring%20@IBBA%20%7C%20Gustavo%20Fernandes%20(CEO)</t>
+  </si>
+  <si>
+    <t>FONTES: TOTVS E LOCAWEB DISPUTAM AQUISIÇÃO DA RD STATION, DE MARKETING DIGITAL, POR R$ 1 BI</t>
+  </si>
+  <si>
+    <t>SINQIA - Plano de Corporate Venture Capital - Fato Relevante</t>
+  </si>
+  <si>
+    <t>AURA - Call com RI</t>
+  </si>
+  <si>
+    <t>Mobly - dúvidas para reunião com management</t>
+  </si>
+  <si>
+    <t>Wayfair @ GS</t>
+  </si>
+  <si>
+    <t>Mosaico | IE com BTG</t>
+  </si>
+  <si>
+    <t>Brasil Agro (Follow on) - Reunião com Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f165c90c-1d26-43ac-b2cc-12ab3d50ca3a?title=FONTES:%20TOTVS%20E%20LOCAWEB%20DISPUTAM%20AQUISI%C3%87%C3%83O%20DA%20RD%20STATION,%20DE%20MARKETING%20DIGITAL,%20POR%20R$%201%20BI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/259b12d8-a687-4fec-aa1b-f14623d38e44?title=SINQIA%20-%20Plano%20de%20Corporate%20Venture%20Capital%20-%20Fato%20Relevante</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f50fc1a3-d2f0-4aa9-8e54-a0b535c30299?title=AURA%20-%20Call%20com%20RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/aafa104f-810a-4a9b-b860-749f6a30f4c9?title=Mobly%20-%20d%C3%BAvidas%20para%20reuni%C3%A3o%20com%20management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2c5f78a3-e82c-49b1-ba8a-08e3dddc88ee?title=Wayfair%20@%20GS</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c74348a7-cbcc-6a66-9df0-e07bc889d80d?title=Mosaico%20%7C%20IE%20com%20BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5abb6bcc-d56d-e8e5-c30e-998fe5576c54?title=Brasil%20Agro%20(Follow%20on)%20-%20Reuni%C3%A3o%20com%20Management</t>
+  </si>
+  <si>
+    <t>Call com Marcelo Marques - CFO da Mobly</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/af451823-68fd-4396-9394-00d9997efef8?title=Call%20com%20Marcelo%20Marques%20-%20CFO%20da%20Mobly</t>
   </si>
 </sst>
 </file>
@@ -3827,11 +4430,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="A569" sqref="A569"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6537,703 +7138,703 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>848</v>
@@ -7241,1141 +7842,1942 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1131</v>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>673</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B667" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}"/>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{78D8D145-A3E7-4F31-BE3F-A14A0D1B040F}"/>
     <hyperlink ref="B32" r:id="rId2" xr:uid="{84E9C9BB-BDF3-42FB-8880-99CCC91C5FBD}"/>
@@ -8684,237 +10086,337 @@
     <hyperlink ref="B335" r:id="rId305" xr:uid="{3BE72945-34D0-4145-8556-095490FA1A51}"/>
     <hyperlink ref="B336" r:id="rId306" xr:uid="{835593A9-E024-44E3-B981-8BB4BE130B66}"/>
     <hyperlink ref="B337" r:id="rId307" xr:uid="{1A0C75A7-D9A7-42FC-A2FC-3FE69E19EE76}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{102EB68E-6148-4186-80C3-4C94178111E8}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{A33CFAC0-43E7-418F-B51F-254C49E9D2C6}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{CE56295B-C1AD-4A0F-8610-2F4BDF32047A}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{3ADE2C4B-B962-4F80-B90B-6453D5A2BA88}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{B896D7E2-127C-4BB9-B6CC-7626BAE2FC9D}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{4F8417B9-1170-4712-AF49-B83DB7B9DE7E}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{CE70A4CE-43FE-4CDB-8544-97A50D720F75}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{B37821C7-960A-4162-BB0D-2EBF5951DED7}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{BD7F954E-88CB-4C26-8CF9-36A424218970}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{DBDD059A-EB96-421E-A4B4-7D6096257CD3}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{4B254DFC-C02A-4F9B-A146-759F80EF18CB}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{956F3D21-D5F6-4632-9D5D-75B4E77D95A1}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{04C37756-92DC-4CC3-B143-509B87C57890}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{BABB0249-527D-40D9-86CD-0EA5E65F6C2A}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{E5963698-80AD-4D4C-8647-2937689ED413}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{F85500CA-1EF2-4817-9DEB-500ABFDB1747}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{1B659890-5572-449F-9CC7-7A3D8814CBA2}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{23323531-EB8F-47B5-9C7B-A80B81E27A3C}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{BA3D00F6-BA98-4501-B3D5-8D3711674E81}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{950FB8F1-1B4D-417A-A56F-E514EDB4C995}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{4D896FC0-B3E4-48B1-8216-A232BBC1AB8D}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{E40C66AD-5BF2-460B-A8A7-E064015AC335}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{E25C1DFE-FD85-407C-B5EB-B53307447F33}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{03E3ADA6-58BE-4D0D-A06B-55B1EC936C35}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{FDC3F4AF-D4EF-453E-9212-CE458B1252C8}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{EA58D950-1138-4D8E-9B2D-C5A3EF79EBEF}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{83AB13C8-4752-4BFC-9DB8-24A0FCA783EF}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{977875EB-9ACC-436E-9C2E-53F109245BD0}"/>
-    <hyperlink ref="B366" r:id="rId336" xr:uid="{C61442AC-95DC-4C75-B8E1-4662FCF10480}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{D7B56882-76A0-4FA6-BADF-EB5198F0DD0E}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{41D30744-639B-483B-A5F0-30B17236656A}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{AE3D5EA3-2205-40C4-900F-84FD2F5EF1A2}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{7DA47B54-7AA0-415B-AA86-09E6EB44AD6D}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{4D7FA8FA-8D05-4EE2-A544-6FAE9DF3E7C9}"/>
-    <hyperlink ref="B367" r:id="rId342" xr:uid="{542CDD31-D762-40FA-81DD-A7228E9C1568}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{F8D0AFC5-9809-4E15-98B2-309F90AAE3DA}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{7887FE29-957A-4D58-A364-384EDC5D000C}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{CC4F3F18-04C9-404E-A027-CDB72F380C0B}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{F34C6DA1-5ACC-449F-9D1B-F427BD1EFFCB}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{2E9E7DC5-6F2C-49A9-A354-ED965212CE04}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{A28C4FD3-7D06-4BDC-9A37-0796BA982AD2}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{D72D6B14-58BC-409D-98B8-F5317E683C03}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{ACEAF303-40CD-47F9-90B6-C4E5FAB85F08}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{2B84E63B-5C78-471C-A864-7C14E6E0BD95}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{2C1D3DA9-3EC0-4568-91E3-280136467803}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{BD056602-0677-49FA-8B13-A7CFF502AE6D}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{0E6B1196-7F27-46B1-8883-2B576A729E15}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{B80D3322-FFCC-4A2F-9C92-BA4A926E8968}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{09002ABF-264C-4E4E-BBC2-2D9116807F1E}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{0EA97800-DF32-490B-82F3-37C5EE085DB4}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{9A996C2C-602B-4C5B-B4AD-9D68CCEE12DF}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{69A850F1-3CE6-4004-A4A4-CEAD067142A9}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{C00FA748-C394-4C59-AAD9-E0BEAAAFAB27}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{18B8166C-921E-49A0-A36A-C6DF0E563805}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{AB1625FA-5B47-43BF-807B-7E18E590E2A8}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{9D131701-F06C-4757-91BE-4CAB3019D983}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{6D1E23EF-922D-4487-9DC2-892172D68E1C}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{8931FC48-891F-4EB4-9A79-94E15C38D244}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{B1615F73-284E-4D04-95B7-917B0B489FE5}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{A1693450-2BF8-40CB-B081-BB1A7F497E78}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{EAA62786-34FF-4BED-8BF0-E12F36BA7AC2}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{651277C7-B3D7-4DBA-B78A-34A67F7336D9}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{3938DAD1-4935-4E45-A5D8-F81C60677146}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{F50E7AD4-062F-47BC-8AE3-CAAFD4C84D2D}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{1D09FA71-5041-4979-9FFE-6B6DFA094B5E}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{38607473-B832-4F76-9AE8-490506894567}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{E36CA6BC-8B19-4229-9250-35E745885E74}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{B79E7CD9-3F0E-4D3B-AF4E-DDE7FEFA0653}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{66C9FDFA-CB20-4A85-92A3-CDE7E6F58BBF}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{6456C4AC-14B8-4318-8E84-2F3D70EA6297}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{B822798C-3CEB-48F7-9337-5BEB6642BDFB}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{E3F924B9-2A64-4C68-B147-FF4B64CC9065}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{7CBB2384-2846-4D1A-B6C9-478F6854FA5F}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{9C73F3D9-1DA4-4CBF-A69A-0DB7E0FC59BD}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{83E3F594-70BC-4EBC-8EC8-ED526F2004BB}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{0EBFC740-D294-48FB-B0F4-38D8715469DD}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{A06698E3-96DA-4627-B261-FC7184947672}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{8A70141A-615F-4FB4-9E12-B24C7F4A86BF}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{D798113D-B4CD-4A45-9318-60214554E7CA}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{11ED63CA-BC16-4460-A8C0-AED89715C361}"/>
-    <hyperlink ref="B418" r:id="rId388" xr:uid="{B49CDE8B-349C-4032-98C1-6E6685A854ED}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{5A3C27CF-EAD2-4FDE-AF3B-361113D8CD9A}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{712C984C-197C-476D-860C-EC4398DDACC7}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{9BACD0D0-54C4-491F-B563-2DBFA5FC02AF}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{9DCC7AAB-77BD-4455-BAE9-42566869F047}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{9B387798-2EB7-414E-81F2-56AA5FA1F805}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{944AD14B-1709-4C31-A302-2BA2BEFA80AA}"/>
-    <hyperlink ref="B426" r:id="rId395" xr:uid="{91ECD35C-1670-4DA0-80F1-4AB776440F19}"/>
-    <hyperlink ref="B425" r:id="rId396" xr:uid="{1296224F-35A1-45BB-943D-F6A269C83F84}"/>
-    <hyperlink ref="B424" r:id="rId397" xr:uid="{B6E853D8-00B4-465C-A7E0-64877F8D3449}"/>
-    <hyperlink ref="B423" r:id="rId398" xr:uid="{2B8B1D86-1234-48AC-B357-43B0829CA43C}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{3ACCA1C2-D83D-448A-BD0C-6179E0F89D4B}"/>
-    <hyperlink ref="B421" r:id="rId400" xr:uid="{DD3632DA-76AB-466B-86FB-0BE2E5CE2E2C}"/>
-    <hyperlink ref="B420" r:id="rId401" xr:uid="{C5D19B47-C281-4C15-9A99-4002E1BD9AA2}"/>
-    <hyperlink ref="B419" r:id="rId402" xr:uid="{956B82E6-C1E9-4564-80C7-BEC7F9EE6457}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{2594B2A6-F894-4FDA-8887-01A190B6A2A5}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{1814444C-03B8-4F74-8A55-96287BDA1699}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{EA0FC5E3-4106-45D5-8213-C6BDD93740F7}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{6955F214-7AF5-429B-871E-B3081DC8C097}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{A69EB19D-1840-4DE1-B0B0-72609D259B26}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{3749230E-9E68-4D73-BB1F-03EC37E64972}"/>
-    <hyperlink ref="B439" r:id="rId409" xr:uid="{FF307947-7E1B-464A-8F46-D21BB792C822}"/>
-    <hyperlink ref="B464" r:id="rId410" xr:uid="{C4C0B617-A558-4EDF-9386-ED6C7169D39A}"/>
-    <hyperlink ref="B463" r:id="rId411" xr:uid="{DF00F2BD-132E-4028-B4B0-BC8ABC9F5F98}"/>
-    <hyperlink ref="B462" r:id="rId412" xr:uid="{07D93789-F2A2-4C5E-A0D9-1B2907F41065}"/>
-    <hyperlink ref="B461" r:id="rId413" xr:uid="{1F523951-0316-4620-8DA7-EADB88F020D9}"/>
-    <hyperlink ref="B460" r:id="rId414" xr:uid="{41383F5C-BA88-45EA-B4B2-994BE1965384}"/>
-    <hyperlink ref="B459" r:id="rId415" xr:uid="{A50C69B9-5E18-4053-942F-E4CFA371458A}"/>
-    <hyperlink ref="B458" r:id="rId416" xr:uid="{0273FA52-7A34-4BB7-977D-6403E3A4584F}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{BF8392F6-FBF9-4177-B62E-6D1469276922}"/>
-    <hyperlink ref="B456" r:id="rId418" xr:uid="{FA32A7E9-D6D7-4338-9BB6-4AF546D9769B}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{8858BF4A-FD95-4A58-AE63-7193ECE5FCBB}"/>
-    <hyperlink ref="B454" r:id="rId420" xr:uid="{D4854755-C0DB-475E-B8D9-1A086D365459}"/>
-    <hyperlink ref="B453" r:id="rId421" xr:uid="{A7A62371-FAE5-4088-AF40-62C47DDE59C2}"/>
-    <hyperlink ref="B452" r:id="rId422" xr:uid="{A991373C-F8FF-4362-9DB6-A536B6DBA6D7}"/>
-    <hyperlink ref="B451" r:id="rId423" xr:uid="{4BEEDACB-9B41-401F-A9F0-26647B8E65FE}"/>
-    <hyperlink ref="B450" r:id="rId424" xr:uid="{28CCD46B-0C9A-4BFB-A9BD-7394CC552380}"/>
-    <hyperlink ref="B449" r:id="rId425" xr:uid="{4BC2BB4D-C85E-4906-A263-8899FE00FE2C}"/>
-    <hyperlink ref="B448" r:id="rId426" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{FC0AFA0A-2EA0-438D-8804-21152913AE7F}"/>
-    <hyperlink ref="B447" r:id="rId427" xr:uid="{D308D510-14E9-4A8C-95BB-E8B0DBDCA7EC}"/>
-    <hyperlink ref="B446" r:id="rId428" xr:uid="{850C78E2-A008-43FA-8A6D-8F4B976F9E24}"/>
-    <hyperlink ref="B445" r:id="rId429" xr:uid="{B9BA9D68-0500-4047-9D68-C491984558A7}"/>
-    <hyperlink ref="B444" r:id="rId430" xr:uid="{22B3A5A3-ECCB-4952-BB45-787A202C0621}"/>
-    <hyperlink ref="B443" r:id="rId431" xr:uid="{F2959941-5719-4E23-9376-E0C11F052FEF}"/>
-    <hyperlink ref="B442" r:id="rId432" xr:uid="{085BF382-2153-4340-9DB6-D8C275E1F9A8}"/>
-    <hyperlink ref="B441" r:id="rId433" xr:uid="{3079767C-D7C6-44E6-B8E5-14F8801401E3}"/>
-    <hyperlink ref="B440" r:id="rId434" xr:uid="{733393B2-52A4-461C-B89B-BD4EC5197730}"/>
-    <hyperlink ref="B512" r:id="rId435" xr:uid="{DFF9CF94-65C4-4500-B308-F8AB01FF709C}"/>
-    <hyperlink ref="B511" r:id="rId436" xr:uid="{A58D2792-35CB-4E35-865B-A146243DAF44}"/>
-    <hyperlink ref="B510" r:id="rId437" xr:uid="{C4FF1E21-F808-4224-A3F4-20178640B804}"/>
-    <hyperlink ref="B509" r:id="rId438" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{5B9ED2F3-D92A-4DF1-AA96-B0BC7BBEB4D0}"/>
-    <hyperlink ref="B508" r:id="rId439" xr:uid="{D72F83C9-9210-441D-AE12-D7626596460A}"/>
-    <hyperlink ref="B507" r:id="rId440" xr:uid="{04ADC7F1-E3DD-461F-8E25-21D6795CF1D6}"/>
-    <hyperlink ref="B505" r:id="rId441" xr:uid="{F4652645-9EA8-46FB-9045-90C17087DE60}"/>
-    <hyperlink ref="B504" r:id="rId442" xr:uid="{80B90B21-504F-4473-960F-28148C63BDB6}"/>
-    <hyperlink ref="B503" r:id="rId443" xr:uid="{CAA92065-6192-4FA2-85BA-AC2C6E94D0A3}"/>
-    <hyperlink ref="B502" r:id="rId444" xr:uid="{8F46C55A-E315-45C0-9BD4-195FF1F8EAB2}"/>
-    <hyperlink ref="B501" r:id="rId445" xr:uid="{EC07985A-4484-4AF3-BC6D-57BD1F05CE92}"/>
-    <hyperlink ref="B500" r:id="rId446" xr:uid="{284E0089-B8D7-4AE5-A45F-6511A434D839}"/>
-    <hyperlink ref="B499" r:id="rId447" xr:uid="{6BB89278-6E37-4A41-8382-29F117785D89}"/>
-    <hyperlink ref="B498" r:id="rId448" xr:uid="{861E2D06-42B8-4829-B183-A2D8D417258D}"/>
-    <hyperlink ref="B497" r:id="rId449" xr:uid="{0D2BD4C3-6C8F-4BC1-96F9-9574F452B0BF}"/>
-    <hyperlink ref="B496" r:id="rId450" xr:uid="{A045A9C0-E0DF-433B-A143-82425C17E8E2}"/>
-    <hyperlink ref="B495" r:id="rId451" xr:uid="{90970FC0-A8B3-4578-860A-549F11CDF3FE}"/>
-    <hyperlink ref="B494" r:id="rId452" xr:uid="{F4082D03-A203-40B9-8D6E-9F4DA496DD0F}"/>
-    <hyperlink ref="B493" r:id="rId453" xr:uid="{04F3C59F-F24B-46F7-97B2-78D1A74EB935}"/>
-    <hyperlink ref="B492" r:id="rId454" xr:uid="{1AE0AC83-17D5-4B24-9AE9-67CAB1445B0C}"/>
-    <hyperlink ref="B491" r:id="rId455" xr:uid="{EF0BEED7-4B99-4099-8E45-73389B2F3CE5}"/>
-    <hyperlink ref="B490" r:id="rId456" xr:uid="{4367F478-D852-4757-98DB-34D3A3144B0A}"/>
-    <hyperlink ref="B489" r:id="rId457" xr:uid="{0270D0F5-65F8-401A-8E01-C3F8AF6F1AB2}"/>
-    <hyperlink ref="B488" r:id="rId458" xr:uid="{D140FFEF-DDA5-46C3-8B8A-926EF5D10754}"/>
-    <hyperlink ref="B487" r:id="rId459" xr:uid="{EF672783-26F3-4FD8-9104-E9C1D8E6DA90}"/>
-    <hyperlink ref="B486" r:id="rId460" xr:uid="{D437A3FA-1BBF-447C-BD31-5A7588626ED1}"/>
-    <hyperlink ref="B485" r:id="rId461" xr:uid="{F68941AD-5C2F-4497-BC2D-C25B871409D0}"/>
-    <hyperlink ref="B484" r:id="rId462" xr:uid="{21F34A01-840A-46A0-9AF9-AFDB5E29FBCC}"/>
-    <hyperlink ref="B483" r:id="rId463" xr:uid="{B8219089-117F-460C-81F0-B17E4A1691A3}"/>
-    <hyperlink ref="B482" r:id="rId464" xr:uid="{07F20092-4786-466E-8AB2-CF5B5140B15E}"/>
-    <hyperlink ref="B481" r:id="rId465" xr:uid="{AA1DD33A-2AE0-4C08-A57F-77D9EE5BE6E0}"/>
-    <hyperlink ref="B480" r:id="rId466" xr:uid="{4E18E62F-ABEC-468E-8113-F8C4DA90E3E1}"/>
-    <hyperlink ref="B479" r:id="rId467" xr:uid="{2156B6DF-8D93-4C61-891E-4DB16CF04FDC}"/>
-    <hyperlink ref="B478" r:id="rId468" xr:uid="{AECE408D-F476-4640-9399-64110E425E7F}"/>
-    <hyperlink ref="B477" r:id="rId469" xr:uid="{C88500C3-28D3-4195-8364-29B244A444D0}"/>
-    <hyperlink ref="B475" r:id="rId470" xr:uid="{1BC3A478-AB78-4837-9901-2C36A938EECB}"/>
-    <hyperlink ref="B470" r:id="rId471" xr:uid="{714502E7-EBED-4F99-A3CE-916774C57381}"/>
-    <hyperlink ref="B476" r:id="rId472" xr:uid="{2E2D74DA-2C82-4811-BDC2-4B9308CFCC20}"/>
-    <hyperlink ref="B474" r:id="rId473" xr:uid="{8E6D53CE-CC60-47D7-8718-0350B0E7FEFA}"/>
-    <hyperlink ref="B473" r:id="rId474" xr:uid="{AB250E71-7FFF-499E-8E0C-AE15CA711F9E}"/>
-    <hyperlink ref="B472" r:id="rId475" xr:uid="{61D4E39C-79D0-47B8-AA2B-F0684437A2E7}"/>
-    <hyperlink ref="B471" r:id="rId476" xr:uid="{725D58BD-984C-4EA0-8D84-6530275AACEB}"/>
-    <hyperlink ref="B469" r:id="rId477" xr:uid="{1DBFFF34-3F64-4844-9752-DD4A5B998997}"/>
-    <hyperlink ref="B468" r:id="rId478" xr:uid="{C69765F2-D9D2-4A4D-878D-8019DDEB520B}"/>
-    <hyperlink ref="B467" r:id="rId479" xr:uid="{32E087B8-9755-483E-84CB-146EC5BF9512}"/>
-    <hyperlink ref="B466" r:id="rId480" xr:uid="{91E23376-A429-4E68-8067-F9EF386187D2}"/>
-    <hyperlink ref="B465" r:id="rId481" xr:uid="{713FAD59-1F26-4827-8467-8C2D7DD613AE}"/>
-    <hyperlink ref="B538" r:id="rId482" xr:uid="{3AD4085A-64FF-4186-BEAE-EC09A139CD56}"/>
-    <hyperlink ref="B537" r:id="rId483" xr:uid="{A18CF9EE-F656-46F9-ACD8-E979DFC0D574}"/>
-    <hyperlink ref="B536" r:id="rId484" xr:uid="{CCABB07C-0765-4B40-B95D-213D9BFA2A82}"/>
-    <hyperlink ref="B535" r:id="rId485" xr:uid="{267E0FFC-20E4-4677-B6F2-016B49E70F2E}"/>
-    <hyperlink ref="B534" r:id="rId486" xr:uid="{2BF6766F-FC33-43CC-B9C5-394812A53C78}"/>
-    <hyperlink ref="B533" r:id="rId487" xr:uid="{3F4CAF3C-2E34-461F-B68E-BDF7223B6E79}"/>
-    <hyperlink ref="B532" r:id="rId488" xr:uid="{5975AFEE-8C93-4807-886E-EEB537FB8BC6}"/>
-    <hyperlink ref="B531" r:id="rId489" xr:uid="{3A5EF0AD-7B24-45F4-BC8D-FF3CC74BCD85}"/>
-    <hyperlink ref="B530" r:id="rId490" xr:uid="{28F67A3F-756F-471B-A9CC-6892A1D0988A}"/>
-    <hyperlink ref="B529" r:id="rId491" xr:uid="{75A50A9D-876E-4600-855E-4054585EAD8D}"/>
-    <hyperlink ref="B528" r:id="rId492" xr:uid="{43ED0A34-FF5F-4E86-AB1E-3A801C1875CB}"/>
-    <hyperlink ref="B525" r:id="rId493" xr:uid="{1F38D4D4-9A26-4AE5-A07C-FB092B9BFA5E}"/>
-    <hyperlink ref="B524" r:id="rId494" xr:uid="{EB826D2C-BCFE-4F6F-8FFC-44EB55C15944}"/>
-    <hyperlink ref="B523" r:id="rId495" xr:uid="{F9636F9A-9868-4F40-84D4-FA1C2A3403F5}"/>
-    <hyperlink ref="B522" r:id="rId496" xr:uid="{48181C73-F2AC-482E-BF5B-E3CF89DFA973}"/>
-    <hyperlink ref="B521" r:id="rId497" xr:uid="{DB636107-BDA3-48E5-91BD-A0AEE0F07DF9}"/>
-    <hyperlink ref="B520" r:id="rId498" xr:uid="{5A368FDB-729C-4619-9F0D-7287390FEEE5}"/>
-    <hyperlink ref="B519" r:id="rId499" xr:uid="{B0E7CDE8-CCD0-4E04-BF29-FF47C5E66250}"/>
-    <hyperlink ref="B518" r:id="rId500" xr:uid="{12A8CCCD-93CC-48F5-B5E0-567C67B2DCCA}"/>
-    <hyperlink ref="B517" r:id="rId501" xr:uid="{91DAEAD5-5926-49D5-9F0D-EE7DD863FC0C}"/>
-    <hyperlink ref="B516" r:id="rId502" xr:uid="{D816C068-03D5-46C2-A0F5-4E731EC5A4C6}"/>
-    <hyperlink ref="B515" r:id="rId503" xr:uid="{9C87CF80-697B-4611-92F5-A51990396DAB}"/>
-    <hyperlink ref="B514" r:id="rId504" xr:uid="{A1C9FF37-3D42-4E81-BA93-28B9C84CB254}"/>
-    <hyperlink ref="B513" r:id="rId505" xr:uid="{42A8FD9D-1C57-445B-9887-8FEB1958F838}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{3FE97E51-F325-47DC-9B98-CE59B09F1E37}"/>
-    <hyperlink ref="B527" r:id="rId507" xr:uid="{7A101CBE-7F52-4507-A112-A29C09B26CA5}"/>
-    <hyperlink ref="B567" r:id="rId508" xr:uid="{B8F2A409-30E9-4C93-A64E-3F023F3E054F}"/>
-    <hyperlink ref="B566" r:id="rId509" xr:uid="{1B8492A7-C7AD-4C7D-958E-523B18C18FCB}"/>
-    <hyperlink ref="B565" r:id="rId510" xr:uid="{6C1C4F29-5830-453B-A146-AA21EBA429B3}"/>
-    <hyperlink ref="B564" r:id="rId511" location="3" xr:uid="{57BB7B58-33FF-428E-9608-E3374749AD7F}"/>
-    <hyperlink ref="B563" r:id="rId512" xr:uid="{042BA4F5-DB35-4B00-B931-957A82A9CA19}"/>
-    <hyperlink ref="B562" r:id="rId513" xr:uid="{F6C6CD8C-472E-46D2-A85F-3FAE150D9048}"/>
-    <hyperlink ref="B561" r:id="rId514" xr:uid="{5CE2C0FA-9721-4F67-A571-ABA9F49E9D3C}"/>
-    <hyperlink ref="B560" r:id="rId515" xr:uid="{1BBA60DF-4939-47C7-BC85-27FEB038B4FB}"/>
-    <hyperlink ref="B559" r:id="rId516" xr:uid="{52F3941C-F2C8-48C5-A572-AC1E08892B9E}"/>
-    <hyperlink ref="B558" r:id="rId517" xr:uid="{F79D04A2-73E1-47DB-A9F6-4D47C2592F06}"/>
-    <hyperlink ref="B557" r:id="rId518" xr:uid="{478814AE-62CB-4CC0-AD4A-A7BFB3A0A85A}"/>
-    <hyperlink ref="B556" r:id="rId519" xr:uid="{2D7FEA86-B068-4B70-AB72-8F0CA12B688C}"/>
-    <hyperlink ref="B555" r:id="rId520" xr:uid="{0C27248B-8CD2-42E2-B371-3C0081CB1880}"/>
-    <hyperlink ref="B554" r:id="rId521" xr:uid="{797876F3-FEFF-4822-80BA-3406D919A388}"/>
-    <hyperlink ref="B553" r:id="rId522" xr:uid="{CDB66507-243D-461E-8440-D3A87F17155F}"/>
-    <hyperlink ref="B552" r:id="rId523" xr:uid="{BF433D25-BBF7-4E00-9489-6A189612848B}"/>
-    <hyperlink ref="B551" r:id="rId524" xr:uid="{2E64831A-85AE-4E16-BC02-9334ED022C14}"/>
-    <hyperlink ref="B550" r:id="rId525" xr:uid="{F2603910-2E5C-4034-9B23-C7AC59D3F992}"/>
-    <hyperlink ref="B549" r:id="rId526" xr:uid="{A871FF21-D92C-4526-A95C-9EF73A23CAB8}"/>
-    <hyperlink ref="B548" r:id="rId527" xr:uid="{D9CB506C-331F-44E6-A86D-420540E25E33}"/>
-    <hyperlink ref="B547" r:id="rId528" xr:uid="{E149E1E6-F545-4A7E-BC61-109D254767A6}"/>
-    <hyperlink ref="B546" r:id="rId529" xr:uid="{211DD93C-E6AC-4113-9B57-E4FFF444C41A}"/>
-    <hyperlink ref="B545" r:id="rId530" xr:uid="{027616E4-7E55-429C-ADF1-FE8888189760}"/>
-    <hyperlink ref="B544" r:id="rId531" xr:uid="{7669C43B-9972-4499-B5AE-EC59AEBB74C3}"/>
-    <hyperlink ref="B543" r:id="rId532" xr:uid="{B12CD9AB-CA37-4FB4-96A6-B332B05AD8CE}"/>
-    <hyperlink ref="B542" r:id="rId533" xr:uid="{2434F74C-AAA6-41FB-B874-10AD4BCFF0A0}"/>
-    <hyperlink ref="B541" r:id="rId534" xr:uid="{D29BF3BD-56BB-4DA1-A9DF-081885117000}"/>
-    <hyperlink ref="B540" r:id="rId535" xr:uid="{DF3F5CC9-ADEC-4472-BDEB-FB90FBBA340F}"/>
-    <hyperlink ref="B539" r:id="rId536" xr:uid="{B3CEF48E-4227-4203-92ED-DEA188BA8291}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{A33CFAC0-43E7-418F-B51F-254C49E9D2C6}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{CE56295B-C1AD-4A0F-8610-2F4BDF32047A}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{3ADE2C4B-B962-4F80-B90B-6453D5A2BA88}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{B896D7E2-127C-4BB9-B6CC-7626BAE2FC9D}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F8417B9-1170-4712-AF49-B83DB7B9DE7E}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{CE70A4CE-43FE-4CDB-8544-97A50D720F75}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{B37821C7-960A-4162-BB0D-2EBF5951DED7}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{BD7F954E-88CB-4C26-8CF9-36A424218970}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{DBDD059A-EB96-421E-A4B4-7D6096257CD3}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{4B254DFC-C02A-4F9B-A146-759F80EF18CB}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{956F3D21-D5F6-4632-9D5D-75B4E77D95A1}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{04C37756-92DC-4CC3-B143-509B87C57890}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{BABB0249-527D-40D9-86CD-0EA5E65F6C2A}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{E5963698-80AD-4D4C-8647-2937689ED413}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{F85500CA-1EF2-4817-9DEB-500ABFDB1747}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{1B659890-5572-449F-9CC7-7A3D8814CBA2}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{23323531-EB8F-47B5-9C7B-A80B81E27A3C}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{BA3D00F6-BA98-4501-B3D5-8D3711674E81}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{950FB8F1-1B4D-417A-A56F-E514EDB4C995}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{4D896FC0-B3E4-48B1-8216-A232BBC1AB8D}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{E40C66AD-5BF2-460B-A8A7-E064015AC335}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{E25C1DFE-FD85-407C-B5EB-B53307447F33}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{03E3ADA6-58BE-4D0D-A06B-55B1EC936C35}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{FDC3F4AF-D4EF-453E-9212-CE458B1252C8}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{EA58D950-1138-4D8E-9B2D-C5A3EF79EBEF}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{83AB13C8-4752-4BFC-9DB8-24A0FCA783EF}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{977875EB-9ACC-436E-9C2E-53F109245BD0}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{C61442AC-95DC-4C75-B8E1-4662FCF10480}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{D7B56882-76A0-4FA6-BADF-EB5198F0DD0E}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{41D30744-639B-483B-A5F0-30B17236656A}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{AE3D5EA3-2205-40C4-900F-84FD2F5EF1A2}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{7DA47B54-7AA0-415B-AA86-09E6EB44AD6D}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{4D7FA8FA-8D05-4EE2-A544-6FAE9DF3E7C9}"/>
+    <hyperlink ref="B366" r:id="rId341" xr:uid="{542CDD31-D762-40FA-81DD-A7228E9C1568}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{F8D0AFC5-9809-4E15-98B2-309F90AAE3DA}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{7887FE29-957A-4D58-A364-384EDC5D000C}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{CC4F3F18-04C9-404E-A027-CDB72F380C0B}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{F34C6DA1-5ACC-449F-9D1B-F427BD1EFFCB}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{2E9E7DC5-6F2C-49A9-A354-ED965212CE04}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{A28C4FD3-7D06-4BDC-9A37-0796BA982AD2}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{D72D6B14-58BC-409D-98B8-F5317E683C03}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{ACEAF303-40CD-47F9-90B6-C4E5FAB85F08}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{2B84E63B-5C78-471C-A864-7C14E6E0BD95}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{2C1D3DA9-3EC0-4568-91E3-280136467803}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{BD056602-0677-49FA-8B13-A7CFF502AE6D}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{0E6B1196-7F27-46B1-8883-2B576A729E15}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{B80D3322-FFCC-4A2F-9C92-BA4A926E8968}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{09002ABF-264C-4E4E-BBC2-2D9116807F1E}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{0EA97800-DF32-490B-82F3-37C5EE085DB4}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{9A996C2C-602B-4C5B-B4AD-9D68CCEE12DF}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{69A850F1-3CE6-4004-A4A4-CEAD067142A9}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{C00FA748-C394-4C59-AAD9-E0BEAAAFAB27}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{18B8166C-921E-49A0-A36A-C6DF0E563805}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{AB1625FA-5B47-43BF-807B-7E18E590E2A8}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{9D131701-F06C-4757-91BE-4CAB3019D983}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{6D1E23EF-922D-4487-9DC2-892172D68E1C}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{8931FC48-891F-4EB4-9A79-94E15C38D244}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{B1615F73-284E-4D04-95B7-917B0B489FE5}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{A1693450-2BF8-40CB-B081-BB1A7F497E78}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{EAA62786-34FF-4BED-8BF0-E12F36BA7AC2}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{651277C7-B3D7-4DBA-B78A-34A67F7336D9}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{3938DAD1-4935-4E45-A5D8-F81C60677146}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{F50E7AD4-062F-47BC-8AE3-CAAFD4C84D2D}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{1D09FA71-5041-4979-9FFE-6B6DFA094B5E}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{38607473-B832-4F76-9AE8-490506894567}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{E36CA6BC-8B19-4229-9250-35E745885E74}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{B79E7CD9-3F0E-4D3B-AF4E-DDE7FEFA0653}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{66C9FDFA-CB20-4A85-92A3-CDE7E6F58BBF}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{6456C4AC-14B8-4318-8E84-2F3D70EA6297}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{B822798C-3CEB-48F7-9337-5BEB6642BDFB}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{E3F924B9-2A64-4C68-B147-FF4B64CC9065}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{7CBB2384-2846-4D1A-B6C9-478F6854FA5F}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{9C73F3D9-1DA4-4CBF-A69A-0DB7E0FC59BD}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{83E3F594-70BC-4EBC-8EC8-ED526F2004BB}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{0EBFC740-D294-48FB-B0F4-38D8715469DD}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{A06698E3-96DA-4627-B261-FC7184947672}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{8A70141A-615F-4FB4-9E12-B24C7F4A86BF}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{D798113D-B4CD-4A45-9318-60214554E7CA}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{11ED63CA-BC16-4460-A8C0-AED89715C361}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{B49CDE8B-349C-4032-98C1-6E6685A854ED}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{5A3C27CF-EAD2-4FDE-AF3B-361113D8CD9A}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{712C984C-197C-476D-860C-EC4398DDACC7}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{9BACD0D0-54C4-491F-B563-2DBFA5FC02AF}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{9DCC7AAB-77BD-4455-BAE9-42566869F047}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{9B387798-2EB7-414E-81F2-56AA5FA1F805}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{944AD14B-1709-4C31-A302-2BA2BEFA80AA}"/>
+    <hyperlink ref="B425" r:id="rId394" xr:uid="{91ECD35C-1670-4DA0-80F1-4AB776440F19}"/>
+    <hyperlink ref="B424" r:id="rId395" xr:uid="{1296224F-35A1-45BB-943D-F6A269C83F84}"/>
+    <hyperlink ref="B423" r:id="rId396" xr:uid="{B6E853D8-00B4-465C-A7E0-64877F8D3449}"/>
+    <hyperlink ref="B422" r:id="rId397" xr:uid="{2B8B1D86-1234-48AC-B357-43B0829CA43C}"/>
+    <hyperlink ref="B421" r:id="rId398" xr:uid="{3ACCA1C2-D83D-448A-BD0C-6179E0F89D4B}"/>
+    <hyperlink ref="B420" r:id="rId399" xr:uid="{DD3632DA-76AB-466B-86FB-0BE2E5CE2E2C}"/>
+    <hyperlink ref="B419" r:id="rId400" xr:uid="{C5D19B47-C281-4C15-9A99-4002E1BD9AA2}"/>
+    <hyperlink ref="B418" r:id="rId401" xr:uid="{956B82E6-C1E9-4564-80C7-BEC7F9EE6457}"/>
+    <hyperlink ref="B432" r:id="rId402" xr:uid="{2594B2A6-F894-4FDA-8887-01A190B6A2A5}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{1814444C-03B8-4F74-8A55-96287BDA1699}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{EA0FC5E3-4106-45D5-8213-C6BDD93740F7}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{6955F214-7AF5-429B-871E-B3081DC8C097}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{A69EB19D-1840-4DE1-B0B0-72609D259B26}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{3749230E-9E68-4D73-BB1F-03EC37E64972}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{FF307947-7E1B-464A-8F46-D21BB792C822}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{C4C0B617-A558-4EDF-9386-ED6C7169D39A}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{DF00F2BD-132E-4028-B4B0-BC8ABC9F5F98}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{07D93789-F2A2-4C5E-A0D9-1B2907F41065}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{1F523951-0316-4620-8DA7-EADB88F020D9}"/>
+    <hyperlink ref="B459" r:id="rId413" xr:uid="{41383F5C-BA88-45EA-B4B2-994BE1965384}"/>
+    <hyperlink ref="B458" r:id="rId414" xr:uid="{A50C69B9-5E18-4053-942F-E4CFA371458A}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{0273FA52-7A34-4BB7-977D-6403E3A4584F}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{BF8392F6-FBF9-4177-B62E-6D1469276922}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{FA32A7E9-D6D7-4338-9BB6-4AF546D9769B}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{8858BF4A-FD95-4A58-AE63-7193ECE5FCBB}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{D4854755-C0DB-475E-B8D9-1A086D365459}"/>
+    <hyperlink ref="B452" r:id="rId420" xr:uid="{A7A62371-FAE5-4088-AF40-62C47DDE59C2}"/>
+    <hyperlink ref="B451" r:id="rId421" xr:uid="{A991373C-F8FF-4362-9DB6-A536B6DBA6D7}"/>
+    <hyperlink ref="B450" r:id="rId422" xr:uid="{4BEEDACB-9B41-401F-A9F0-26647B8E65FE}"/>
+    <hyperlink ref="B449" r:id="rId423" xr:uid="{28CCD46B-0C9A-4BFB-A9BD-7394CC552380}"/>
+    <hyperlink ref="B448" r:id="rId424" xr:uid="{4BC2BB4D-C85E-4906-A263-8899FE00FE2C}"/>
+    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{FC0AFA0A-2EA0-438D-8804-21152913AE7F}"/>
+    <hyperlink ref="B446" r:id="rId426" xr:uid="{D308D510-14E9-4A8C-95BB-E8B0DBDCA7EC}"/>
+    <hyperlink ref="B445" r:id="rId427" xr:uid="{850C78E2-A008-43FA-8A6D-8F4B976F9E24}"/>
+    <hyperlink ref="B444" r:id="rId428" xr:uid="{B9BA9D68-0500-4047-9D68-C491984558A7}"/>
+    <hyperlink ref="B443" r:id="rId429" xr:uid="{22B3A5A3-ECCB-4952-BB45-787A202C0621}"/>
+    <hyperlink ref="B442" r:id="rId430" xr:uid="{F2959941-5719-4E23-9376-E0C11F052FEF}"/>
+    <hyperlink ref="B441" r:id="rId431" xr:uid="{085BF382-2153-4340-9DB6-D8C275E1F9A8}"/>
+    <hyperlink ref="B440" r:id="rId432" xr:uid="{3079767C-D7C6-44E6-B8E5-14F8801401E3}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{733393B2-52A4-461C-B89B-BD4EC5197730}"/>
+    <hyperlink ref="B511" r:id="rId434" xr:uid="{DFF9CF94-65C4-4500-B308-F8AB01FF709C}"/>
+    <hyperlink ref="B510" r:id="rId435" xr:uid="{A58D2792-35CB-4E35-865B-A146243DAF44}"/>
+    <hyperlink ref="B509" r:id="rId436" xr:uid="{C4FF1E21-F808-4224-A3F4-20178640B804}"/>
+    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{5B9ED2F3-D92A-4DF1-AA96-B0BC7BBEB4D0}"/>
+    <hyperlink ref="B507" r:id="rId438" xr:uid="{D72F83C9-9210-441D-AE12-D7626596460A}"/>
+    <hyperlink ref="B506" r:id="rId439" xr:uid="{04ADC7F1-E3DD-461F-8E25-21D6795CF1D6}"/>
+    <hyperlink ref="B504" r:id="rId440" xr:uid="{F4652645-9EA8-46FB-9045-90C17087DE60}"/>
+    <hyperlink ref="B503" r:id="rId441" xr:uid="{80B90B21-504F-4473-960F-28148C63BDB6}"/>
+    <hyperlink ref="B502" r:id="rId442" xr:uid="{CAA92065-6192-4FA2-85BA-AC2C6E94D0A3}"/>
+    <hyperlink ref="B501" r:id="rId443" xr:uid="{8F46C55A-E315-45C0-9BD4-195FF1F8EAB2}"/>
+    <hyperlink ref="B500" r:id="rId444" xr:uid="{EC07985A-4484-4AF3-BC6D-57BD1F05CE92}"/>
+    <hyperlink ref="B499" r:id="rId445" xr:uid="{284E0089-B8D7-4AE5-A45F-6511A434D839}"/>
+    <hyperlink ref="B498" r:id="rId446" xr:uid="{6BB89278-6E37-4A41-8382-29F117785D89}"/>
+    <hyperlink ref="B497" r:id="rId447" xr:uid="{861E2D06-42B8-4829-B183-A2D8D417258D}"/>
+    <hyperlink ref="B496" r:id="rId448" xr:uid="{0D2BD4C3-6C8F-4BC1-96F9-9574F452B0BF}"/>
+    <hyperlink ref="B495" r:id="rId449" xr:uid="{A045A9C0-E0DF-433B-A143-82425C17E8E2}"/>
+    <hyperlink ref="B494" r:id="rId450" xr:uid="{90970FC0-A8B3-4578-860A-549F11CDF3FE}"/>
+    <hyperlink ref="B493" r:id="rId451" xr:uid="{F4082D03-A203-40B9-8D6E-9F4DA496DD0F}"/>
+    <hyperlink ref="B492" r:id="rId452" xr:uid="{04F3C59F-F24B-46F7-97B2-78D1A74EB935}"/>
+    <hyperlink ref="B491" r:id="rId453" xr:uid="{1AE0AC83-17D5-4B24-9AE9-67CAB1445B0C}"/>
+    <hyperlink ref="B490" r:id="rId454" xr:uid="{EF0BEED7-4B99-4099-8E45-73389B2F3CE5}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{4367F478-D852-4757-98DB-34D3A3144B0A}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{0270D0F5-65F8-401A-8E01-C3F8AF6F1AB2}"/>
+    <hyperlink ref="B487" r:id="rId457" xr:uid="{D140FFEF-DDA5-46C3-8B8A-926EF5D10754}"/>
+    <hyperlink ref="B486" r:id="rId458" xr:uid="{EF672783-26F3-4FD8-9104-E9C1D8E6DA90}"/>
+    <hyperlink ref="B485" r:id="rId459" xr:uid="{D437A3FA-1BBF-447C-BD31-5A7588626ED1}"/>
+    <hyperlink ref="B484" r:id="rId460" xr:uid="{F68941AD-5C2F-4497-BC2D-C25B871409D0}"/>
+    <hyperlink ref="B483" r:id="rId461" xr:uid="{21F34A01-840A-46A0-9AF9-AFDB5E29FBCC}"/>
+    <hyperlink ref="B482" r:id="rId462" xr:uid="{B8219089-117F-460C-81F0-B17E4A1691A3}"/>
+    <hyperlink ref="B481" r:id="rId463" xr:uid="{07F20092-4786-466E-8AB2-CF5B5140B15E}"/>
+    <hyperlink ref="B480" r:id="rId464" xr:uid="{AA1DD33A-2AE0-4C08-A57F-77D9EE5BE6E0}"/>
+    <hyperlink ref="B479" r:id="rId465" xr:uid="{4E18E62F-ABEC-468E-8113-F8C4DA90E3E1}"/>
+    <hyperlink ref="B478" r:id="rId466" xr:uid="{2156B6DF-8D93-4C61-891E-4DB16CF04FDC}"/>
+    <hyperlink ref="B477" r:id="rId467" xr:uid="{AECE408D-F476-4640-9399-64110E425E7F}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{C88500C3-28D3-4195-8364-29B244A444D0}"/>
+    <hyperlink ref="B474" r:id="rId469" xr:uid="{1BC3A478-AB78-4837-9901-2C36A938EECB}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{714502E7-EBED-4F99-A3CE-916774C57381}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{2E2D74DA-2C82-4811-BDC2-4B9308CFCC20}"/>
+    <hyperlink ref="B473" r:id="rId472" xr:uid="{8E6D53CE-CC60-47D7-8718-0350B0E7FEFA}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{AB250E71-7FFF-499E-8E0C-AE15CA711F9E}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{61D4E39C-79D0-47B8-AA2B-F0684437A2E7}"/>
+    <hyperlink ref="B470" r:id="rId475" xr:uid="{725D58BD-984C-4EA0-8D84-6530275AACEB}"/>
+    <hyperlink ref="B468" r:id="rId476" xr:uid="{1DBFFF34-3F64-4844-9752-DD4A5B998997}"/>
+    <hyperlink ref="B467" r:id="rId477" xr:uid="{C69765F2-D9D2-4A4D-878D-8019DDEB520B}"/>
+    <hyperlink ref="B466" r:id="rId478" xr:uid="{32E087B8-9755-483E-84CB-146EC5BF9512}"/>
+    <hyperlink ref="B465" r:id="rId479" xr:uid="{91E23376-A429-4E68-8067-F9EF386187D2}"/>
+    <hyperlink ref="B464" r:id="rId480" xr:uid="{713FAD59-1F26-4827-8467-8C2D7DD613AE}"/>
+    <hyperlink ref="B537" r:id="rId481" xr:uid="{3AD4085A-64FF-4186-BEAE-EC09A139CD56}"/>
+    <hyperlink ref="B536" r:id="rId482" xr:uid="{A18CF9EE-F656-46F9-ACD8-E979DFC0D574}"/>
+    <hyperlink ref="B535" r:id="rId483" xr:uid="{CCABB07C-0765-4B40-B95D-213D9BFA2A82}"/>
+    <hyperlink ref="B534" r:id="rId484" xr:uid="{267E0FFC-20E4-4677-B6F2-016B49E70F2E}"/>
+    <hyperlink ref="B533" r:id="rId485" xr:uid="{2BF6766F-FC33-43CC-B9C5-394812A53C78}"/>
+    <hyperlink ref="B532" r:id="rId486" xr:uid="{3F4CAF3C-2E34-461F-B68E-BDF7223B6E79}"/>
+    <hyperlink ref="B531" r:id="rId487" xr:uid="{5975AFEE-8C93-4807-886E-EEB537FB8BC6}"/>
+    <hyperlink ref="B530" r:id="rId488" xr:uid="{3A5EF0AD-7B24-45F4-BC8D-FF3CC74BCD85}"/>
+    <hyperlink ref="B529" r:id="rId489" xr:uid="{28F67A3F-756F-471B-A9CC-6892A1D0988A}"/>
+    <hyperlink ref="B528" r:id="rId490" xr:uid="{75A50A9D-876E-4600-855E-4054585EAD8D}"/>
+    <hyperlink ref="B527" r:id="rId491" xr:uid="{43ED0A34-FF5F-4E86-AB1E-3A801C1875CB}"/>
+    <hyperlink ref="B524" r:id="rId492" xr:uid="{1F38D4D4-9A26-4AE5-A07C-FB092B9BFA5E}"/>
+    <hyperlink ref="B523" r:id="rId493" xr:uid="{EB826D2C-BCFE-4F6F-8FFC-44EB55C15944}"/>
+    <hyperlink ref="B522" r:id="rId494" xr:uid="{F9636F9A-9868-4F40-84D4-FA1C2A3403F5}"/>
+    <hyperlink ref="B521" r:id="rId495" xr:uid="{48181C73-F2AC-482E-BF5B-E3CF89DFA973}"/>
+    <hyperlink ref="B520" r:id="rId496" xr:uid="{DB636107-BDA3-48E5-91BD-A0AEE0F07DF9}"/>
+    <hyperlink ref="B519" r:id="rId497" xr:uid="{5A368FDB-729C-4619-9F0D-7287390FEEE5}"/>
+    <hyperlink ref="B518" r:id="rId498" xr:uid="{B0E7CDE8-CCD0-4E04-BF29-FF47C5E66250}"/>
+    <hyperlink ref="B517" r:id="rId499" xr:uid="{12A8CCCD-93CC-48F5-B5E0-567C67B2DCCA}"/>
+    <hyperlink ref="B516" r:id="rId500" xr:uid="{91DAEAD5-5926-49D5-9F0D-EE7DD863FC0C}"/>
+    <hyperlink ref="B515" r:id="rId501" xr:uid="{D816C068-03D5-46C2-A0F5-4E731EC5A4C6}"/>
+    <hyperlink ref="B514" r:id="rId502" xr:uid="{9C87CF80-697B-4611-92F5-A51990396DAB}"/>
+    <hyperlink ref="B513" r:id="rId503" xr:uid="{A1C9FF37-3D42-4E81-BA93-28B9C84CB254}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{42A8FD9D-1C57-445B-9887-8FEB1958F838}"/>
+    <hyperlink ref="B525" r:id="rId505" xr:uid="{3FE97E51-F325-47DC-9B98-CE59B09F1E37}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{7A101CBE-7F52-4507-A112-A29C09B26CA5}"/>
+    <hyperlink ref="B566" r:id="rId507" xr:uid="{B8F2A409-30E9-4C93-A64E-3F023F3E054F}"/>
+    <hyperlink ref="B565" r:id="rId508" xr:uid="{1B8492A7-C7AD-4C7D-958E-523B18C18FCB}"/>
+    <hyperlink ref="B564" r:id="rId509" xr:uid="{6C1C4F29-5830-453B-A146-AA21EBA429B3}"/>
+    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{57BB7B58-33FF-428E-9608-E3374749AD7F}"/>
+    <hyperlink ref="B562" r:id="rId511" xr:uid="{042BA4F5-DB35-4B00-B931-957A82A9CA19}"/>
+    <hyperlink ref="B561" r:id="rId512" xr:uid="{F6C6CD8C-472E-46D2-A85F-3FAE150D9048}"/>
+    <hyperlink ref="B560" r:id="rId513" xr:uid="{5CE2C0FA-9721-4F67-A571-ABA9F49E9D3C}"/>
+    <hyperlink ref="B559" r:id="rId514" xr:uid="{1BBA60DF-4939-47C7-BC85-27FEB038B4FB}"/>
+    <hyperlink ref="B558" r:id="rId515" xr:uid="{52F3941C-F2C8-48C5-A572-AC1E08892B9E}"/>
+    <hyperlink ref="B557" r:id="rId516" xr:uid="{F79D04A2-73E1-47DB-A9F6-4D47C2592F06}"/>
+    <hyperlink ref="B556" r:id="rId517" xr:uid="{478814AE-62CB-4CC0-AD4A-A7BFB3A0A85A}"/>
+    <hyperlink ref="B555" r:id="rId518" xr:uid="{2D7FEA86-B068-4B70-AB72-8F0CA12B688C}"/>
+    <hyperlink ref="B554" r:id="rId519" xr:uid="{0C27248B-8CD2-42E2-B371-3C0081CB1880}"/>
+    <hyperlink ref="B553" r:id="rId520" xr:uid="{797876F3-FEFF-4822-80BA-3406D919A388}"/>
+    <hyperlink ref="B552" r:id="rId521" xr:uid="{CDB66507-243D-461E-8440-D3A87F17155F}"/>
+    <hyperlink ref="B551" r:id="rId522" xr:uid="{BF433D25-BBF7-4E00-9489-6A189612848B}"/>
+    <hyperlink ref="B550" r:id="rId523" xr:uid="{2E64831A-85AE-4E16-BC02-9334ED022C14}"/>
+    <hyperlink ref="B549" r:id="rId524" xr:uid="{F2603910-2E5C-4034-9B23-C7AC59D3F992}"/>
+    <hyperlink ref="B548" r:id="rId525" xr:uid="{A871FF21-D92C-4526-A95C-9EF73A23CAB8}"/>
+    <hyperlink ref="B547" r:id="rId526" xr:uid="{D9CB506C-331F-44E6-A86D-420540E25E33}"/>
+    <hyperlink ref="B546" r:id="rId527" xr:uid="{E149E1E6-F545-4A7E-BC61-109D254767A6}"/>
+    <hyperlink ref="B545" r:id="rId528" xr:uid="{211DD93C-E6AC-4113-9B57-E4FFF444C41A}"/>
+    <hyperlink ref="B544" r:id="rId529" xr:uid="{027616E4-7E55-429C-ADF1-FE8888189760}"/>
+    <hyperlink ref="B543" r:id="rId530" xr:uid="{7669C43B-9972-4499-B5AE-EC59AEBB74C3}"/>
+    <hyperlink ref="B542" r:id="rId531" xr:uid="{B12CD9AB-CA37-4FB4-96A6-B332B05AD8CE}"/>
+    <hyperlink ref="B541" r:id="rId532" xr:uid="{2434F74C-AAA6-41FB-B874-10AD4BCFF0A0}"/>
+    <hyperlink ref="B540" r:id="rId533" xr:uid="{D29BF3BD-56BB-4DA1-A9DF-081885117000}"/>
+    <hyperlink ref="B539" r:id="rId534" xr:uid="{DF3F5CC9-ADEC-4472-BDEB-FB90FBBA340F}"/>
+    <hyperlink ref="B538" r:id="rId535" xr:uid="{B3CEF48E-4227-4203-92ED-DEA188BA8291}"/>
+    <hyperlink ref="B575" r:id="rId536" xr:uid="{D6BF1691-B501-4915-AC9F-5DE386A42608}"/>
+    <hyperlink ref="B574" r:id="rId537" xr:uid="{634A2AB9-F5A2-487D-9C41-A351F64F72A9}"/>
+    <hyperlink ref="B573" r:id="rId538" xr:uid="{D3124C2B-7913-46E8-A0F3-E7E36197D8C7}"/>
+    <hyperlink ref="B572" r:id="rId539" xr:uid="{C7314F75-FBD6-43BD-8686-30E995D30914}"/>
+    <hyperlink ref="B571" r:id="rId540" xr:uid="{48BD4CD5-B34F-4A04-97DE-A3AD40D74C1A}"/>
+    <hyperlink ref="B570" r:id="rId541" xr:uid="{7896D353-F07F-434C-BD8E-30D5618BCDE3}"/>
+    <hyperlink ref="B569" r:id="rId542" xr:uid="{A3EB49DC-F15E-40F2-9420-91955ED6A622}"/>
+    <hyperlink ref="B568" r:id="rId543" xr:uid="{BEA55064-A070-4342-8B3C-E559874C1D21}"/>
+    <hyperlink ref="B567" r:id="rId544" xr:uid="{2967CD21-BBD9-4436-A034-E0AFB20A53C7}"/>
+    <hyperlink ref="B586" r:id="rId545" xr:uid="{798872AA-E8C4-4AB8-B190-8597BB913BEB}"/>
+    <hyperlink ref="B585" r:id="rId546" xr:uid="{F2EB0D0A-90FC-415E-B2FC-360B841D8B8B}"/>
+    <hyperlink ref="B584" r:id="rId547" xr:uid="{80C4B3BD-7B61-4304-8826-EDC6EE508DBB}"/>
+    <hyperlink ref="B583" r:id="rId548" xr:uid="{86583A08-CB6C-461C-B324-92F29F2601BE}"/>
+    <hyperlink ref="B582" r:id="rId549" xr:uid="{07F1701A-008C-4E7B-85D2-2CFC2941B1A7}"/>
+    <hyperlink ref="B581" r:id="rId550" xr:uid="{0BAFB2D5-7BEE-4C47-95D7-689334C42843}"/>
+    <hyperlink ref="B580" r:id="rId551" xr:uid="{F76AAD96-B94C-43C0-9DB7-369F98AFFC07}"/>
+    <hyperlink ref="B579" r:id="rId552" xr:uid="{CA4685AC-792D-4302-923D-EEB422B38F77}"/>
+    <hyperlink ref="B578" r:id="rId553" xr:uid="{B6F39B04-379D-4E6F-874E-CA7747BBB40D}"/>
+    <hyperlink ref="B577" r:id="rId554" xr:uid="{B0F60E7B-4995-40F6-A664-7388661F7ACF}"/>
+    <hyperlink ref="B576" r:id="rId555" xr:uid="{BBCBEA6F-F450-4B3D-87D2-A2F686502741}"/>
+    <hyperlink ref="B587" r:id="rId556" xr:uid="{B622D41A-41CB-43B6-8148-5249224437CE}"/>
+    <hyperlink ref="B588" r:id="rId557" xr:uid="{3F45AB23-5A98-4213-9909-3134CCD0F3C7}"/>
+    <hyperlink ref="B589" r:id="rId558" xr:uid="{48852C6B-3B6B-4AEE-817B-789E28855741}"/>
+    <hyperlink ref="B590" r:id="rId559" xr:uid="{7C954BF2-5304-44D6-AC12-98BE5D0AADB4}"/>
+    <hyperlink ref="B591" r:id="rId560" xr:uid="{C5EA5700-A1B9-43D2-B9B5-64AEB442C904}"/>
+    <hyperlink ref="B592" r:id="rId561" xr:uid="{CCCC2FBD-DA83-4087-9C79-022CBD86382C}"/>
+    <hyperlink ref="B593" r:id="rId562" xr:uid="{D844D48C-0D8D-441B-9E79-A97B32EA9A18}"/>
+    <hyperlink ref="B594" r:id="rId563" xr:uid="{CE3E5D19-446A-4CAB-838B-DE77AFCCF628}"/>
+    <hyperlink ref="B595" r:id="rId564" xr:uid="{8DD64760-765F-4C79-B3A4-FDC6761D6CC7}"/>
+    <hyperlink ref="B596" r:id="rId565" xr:uid="{CD4FABBC-1C3B-4C2A-8658-3F0BE9056B7A}"/>
+    <hyperlink ref="B597" r:id="rId566" xr:uid="{B14B23BC-94B9-4308-AF53-EE3541A718A4}"/>
+    <hyperlink ref="B598" r:id="rId567" xr:uid="{0CAFE7FF-2F09-4580-A9C2-BD1AAFAC3087}"/>
+    <hyperlink ref="B599" r:id="rId568" xr:uid="{9A512947-B3EF-47DF-906E-A746038E50D6}"/>
+    <hyperlink ref="B600" r:id="rId569" xr:uid="{980ED6F5-B7EF-4A67-BEB2-6E7933FA0D5F}"/>
+    <hyperlink ref="B601" r:id="rId570" xr:uid="{7194DA00-D136-4569-BBE8-9E3016DD3906}"/>
+    <hyperlink ref="B602" r:id="rId571" xr:uid="{49B63CFD-CB86-4F3D-A5A2-6E4D0D4A9E5F}"/>
+    <hyperlink ref="B603" r:id="rId572" xr:uid="{BE08FA33-0240-45F3-8E0B-79B5248B447B}"/>
+    <hyperlink ref="B604" r:id="rId573" xr:uid="{F460DFD4-EF46-4583-B379-CEBE865F79C9}"/>
+    <hyperlink ref="B605" r:id="rId574" xr:uid="{B94A7EB6-B193-4A85-9257-558A34ABA433}"/>
+    <hyperlink ref="B606" r:id="rId575" xr:uid="{652455B3-EB16-4A07-ACD5-DA2D68F60B2D}"/>
+    <hyperlink ref="B607" r:id="rId576" xr:uid="{0C403782-4323-4CF7-AECE-F898D529CC60}"/>
+    <hyperlink ref="B608" r:id="rId577" xr:uid="{868DCC5B-466D-4DB8-9F82-A5581121BB5F}"/>
+    <hyperlink ref="B609" r:id="rId578" xr:uid="{24457A2E-B006-4B0D-A2F4-3A731705B2D8}"/>
+    <hyperlink ref="B610" r:id="rId579" xr:uid="{F1C619CC-4E0F-421C-A41D-ED43993F475F}"/>
+    <hyperlink ref="B612" r:id="rId580" xr:uid="{29D7108F-C353-4CA6-A267-963EF9773AA0}"/>
+    <hyperlink ref="B613" r:id="rId581" xr:uid="{760F6F0A-0A52-4349-9CC8-15D5D7B13E11}"/>
+    <hyperlink ref="B614" r:id="rId582" xr:uid="{124CC958-7740-41F6-9C5B-F0DD523612D7}"/>
+    <hyperlink ref="B615" r:id="rId583" xr:uid="{6834D405-CB37-402E-A843-0C2C08C68777}"/>
+    <hyperlink ref="B618" r:id="rId584" xr:uid="{D6C65F65-9FCB-4390-A088-692B707E711E}"/>
+    <hyperlink ref="B619" r:id="rId585" xr:uid="{84383399-F94D-4520-A057-04E34723041D}"/>
+    <hyperlink ref="B620" r:id="rId586" xr:uid="{1EE3A88B-1712-43B8-83B8-F6C008097EC1}"/>
+    <hyperlink ref="B621" r:id="rId587" xr:uid="{47FC12D5-9999-429B-B132-45697002C558}"/>
+    <hyperlink ref="B622" r:id="rId588" xr:uid="{D6366810-BD7D-4A1D-BD0A-D7DCD583E537}"/>
+    <hyperlink ref="B623" r:id="rId589" xr:uid="{EFFA4DD9-3D6C-484D-A663-F74975D41876}"/>
+    <hyperlink ref="B624" r:id="rId590" xr:uid="{5F429FFD-91A3-461B-9232-91336BA4BF73}"/>
+    <hyperlink ref="B625" r:id="rId591" xr:uid="{CF99DCBD-E5C9-4723-8780-685DB6072C8C}"/>
+    <hyperlink ref="B626" r:id="rId592" xr:uid="{C22A2A75-487B-4ACF-AE23-70FA8BA887DF}"/>
+    <hyperlink ref="B627" r:id="rId593" xr:uid="{652B2D9B-00DE-4445-B4E5-CE9ACC2204CB}"/>
+    <hyperlink ref="B628" r:id="rId594" xr:uid="{CBE416AD-5CDC-483D-8DED-1F26B1F8FE3C}"/>
+    <hyperlink ref="B629" r:id="rId595" xr:uid="{171851B1-C9B2-4893-97BE-6B82A65D4A9B}"/>
+    <hyperlink ref="B630" r:id="rId596" xr:uid="{4BD1B066-348D-409B-BFEE-CE66646DA6AE}"/>
+    <hyperlink ref="B631" r:id="rId597" xr:uid="{4361B2E9-A055-409B-B143-6B191FA40B05}"/>
+    <hyperlink ref="B632" r:id="rId598" xr:uid="{C8AB539C-B386-44CE-AC81-D574815BA816}"/>
+    <hyperlink ref="B611" r:id="rId599" xr:uid="{04CA5BC6-770A-405F-B1F5-90933892C99D}"/>
+    <hyperlink ref="B616" r:id="rId600" xr:uid="{A3D42E8B-0F32-4DD2-900E-53F4B18C0DEA}"/>
+    <hyperlink ref="B617" r:id="rId601" xr:uid="{9F5BBB3B-7F62-48FA-A770-5E12A2DBA1FA}"/>
+    <hyperlink ref="B633" r:id="rId602" xr:uid="{2C0A92FA-B8DF-4C1E-9452-00958C48C4FF}"/>
+    <hyperlink ref="B634" r:id="rId603" xr:uid="{44BCEACB-2E2C-45DD-A9B7-046811203CBC}"/>
+    <hyperlink ref="B635" r:id="rId604" xr:uid="{39EF484C-2548-4F04-A4E6-7A604151D156}"/>
+    <hyperlink ref="B636" r:id="rId605" xr:uid="{4F9F2E57-F2E8-4CDC-B6F0-07E14B8CB6CE}"/>
+    <hyperlink ref="B637" r:id="rId606" xr:uid="{7B7FCD27-3AE0-48D3-A273-75EA98121194}"/>
+    <hyperlink ref="B638" r:id="rId607" xr:uid="{6A2B054D-83BA-4814-8685-D11088AB5995}"/>
+    <hyperlink ref="B639" r:id="rId608" xr:uid="{16B20389-6F99-406E-8116-A451C20DDE84}"/>
+    <hyperlink ref="B640" r:id="rId609" xr:uid="{1DA3B395-8C32-471D-A597-9C0E8E9952B1}"/>
+    <hyperlink ref="B641" r:id="rId610" xr:uid="{5F71ED34-17F3-4B72-B4F2-2C845356A6D3}"/>
+    <hyperlink ref="B642" r:id="rId611" xr:uid="{83FA8177-6F92-42FA-B67B-3449E5C65340}"/>
+    <hyperlink ref="B643" r:id="rId612" xr:uid="{1138D9E1-AEE2-497F-A0AE-46BB7D82D662}"/>
+    <hyperlink ref="B644" r:id="rId613" xr:uid="{054504B4-C182-420B-B788-45EA171E0DA6}"/>
+    <hyperlink ref="B645" r:id="rId614" xr:uid="{419E3F51-C532-4ECA-89C0-9FED8D1AA2B7}"/>
+    <hyperlink ref="B646" r:id="rId615" xr:uid="{F5B37620-1D7A-45F7-8FFF-B78FB9ABB686}"/>
+    <hyperlink ref="B647" r:id="rId616" xr:uid="{FBAFC4CF-1F91-48EE-AD32-70F1DCF478B6}"/>
+    <hyperlink ref="B648" r:id="rId617" xr:uid="{CBB4039D-5340-47DC-8699-AA9DD4AFBA07}"/>
+    <hyperlink ref="B649" r:id="rId618" xr:uid="{A90652EF-4F2E-4FC1-85D6-242FCB10AF02}"/>
+    <hyperlink ref="B650" r:id="rId619" xr:uid="{2B877949-11DA-4EC9-82E9-07198CC8C803}"/>
+    <hyperlink ref="B651" r:id="rId620" xr:uid="{74DAE0FB-B945-42F5-90E6-05F05F83C870}"/>
+    <hyperlink ref="B652" r:id="rId621" xr:uid="{6B31191D-682F-400B-B5E9-97887E7BE0FE}"/>
+    <hyperlink ref="B653" r:id="rId622" xr:uid="{072E4823-EBDF-4C57-A9EF-2079098716C2}"/>
+    <hyperlink ref="B654" r:id="rId623" xr:uid="{EF6968B5-C8E1-4043-9607-FB012A9A2312}"/>
+    <hyperlink ref="B655" r:id="rId624" xr:uid="{991AF5D5-4396-4426-B9AA-E50B9DABED38}"/>
+    <hyperlink ref="B656" r:id="rId625" xr:uid="{03130296-28B4-490A-96B2-6489D0C4D99E}"/>
+    <hyperlink ref="B657" r:id="rId626" xr:uid="{96B1FE20-3B7E-414F-9DFF-8F961DCAC956}"/>
+    <hyperlink ref="B658" r:id="rId627" xr:uid="{6C115C28-8F60-44A6-B3A1-1E764124E3E6}"/>
+    <hyperlink ref="B659" r:id="rId628" xr:uid="{1692B1A8-C51A-45AE-8B5E-EB7C44543BC4}"/>
+    <hyperlink ref="B660" r:id="rId629" xr:uid="{2CDBB9C2-64AA-484E-B770-500239B93E4C}"/>
+    <hyperlink ref="B661" r:id="rId630" xr:uid="{307A5A0F-47A5-419C-9623-DE63A0FC631A}"/>
+    <hyperlink ref="B662" r:id="rId631" xr:uid="{FADDB5AA-FF29-42AF-9323-C84F673F47B4}"/>
+    <hyperlink ref="B663" r:id="rId632" xr:uid="{DC0100DF-D464-426B-B745-EB4CEDB4C535}"/>
+    <hyperlink ref="B664" r:id="rId633" xr:uid="{8A33F807-EA33-430D-93E4-DA2688542EA5}"/>
+    <hyperlink ref="B665" r:id="rId634" xr:uid="{3AB78997-8F4D-466C-8030-C39EE550517E}"/>
+    <hyperlink ref="B666" r:id="rId635" xr:uid="{6625A2A6-F205-4F99-8076-DC18136440EB}"/>
+    <hyperlink ref="B667" r:id="rId636" xr:uid="{58C8098E-82FF-4315-A542-E33A3860E198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId537"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId637"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD86A44-34F6-4028-9076-2610890ACEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB5097-23B4-4B2D-9CEA-17312D8CE3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1348">
   <si>
     <t>titulo</t>
   </si>
@@ -4033,6 +4033,54 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/af451823-68fd-4396-9394-00d9997efef8?title=Call%20com%20Marcelo%20Marques%20-%20CFO%20da%20Mobly</t>
+  </si>
+  <si>
+    <t>Bluefit | Conversa com Franqueador</t>
+  </si>
+  <si>
+    <t>Wine | Round Table</t>
+  </si>
+  <si>
+    <t>CVC | Call com RI</t>
+  </si>
+  <si>
+    <t>CVC | Papo com Pessoa do Setor</t>
+  </si>
+  <si>
+    <t>Selfit | Conversa com CFO sobre a empresa e mercado de academias</t>
+  </si>
+  <si>
+    <t>Heverton Peixoto | Wiz CEO</t>
+  </si>
+  <si>
+    <t>Smart Fit | IE com Santander</t>
+  </si>
+  <si>
+    <t>[ESG] Dialoca - Gente e Gestão</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/46cd58c0-f114-451e-b88a-4d117566c14a?title=%5BESG%5D%20Dialoca%20-%20Gente%20e%20Gest%C3%A3o</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/f8400aef-8aee-4561-8e24-a57b9b5097b4?title=Bluefit%20%7C%20Conversa%20com%20Franqueador</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6e26f090-32a1-4b5e-c922-19faf3622489?title=Wine%20%7C%20Round%20Table</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/be4a2898-aab9-ce4d-92a4-62de1386499a?title=CVC%20%7C%20Call%20com%20RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5569ef6a-d2d1-56b3-b15e-dd5e210c7b25?title=CVC%20%7C%20Papo%20com%20Pessoa%20do%20Setor</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0f297589-cbe2-410b-a1dd-c37c73c95084?title=Selfit%20%7C%20Conversa%20com%20CFO%20sobre%20a%20empresa%20e%20mercado%20de%20academias</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/ecf04a2f-7f94-4e5a-9e8e-b82d9660b091?title=Heverton%20Peixoto%20%7C%20Wiz%20CEO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/444fc6f6-cb6c-4d58-ade7-ccf7fe40be72?title=Smart%20Fit%20%7C%20IE%20com%20Santander</t>
   </si>
 </sst>
 </file>
@@ -4430,9 +4478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="A675" sqref="A675"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9774,6 +9824,70 @@
       </c>
       <c r="B667" s="2" t="s">
         <v>1331</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -10415,8 +10529,16 @@
     <hyperlink ref="B665" r:id="rId634" xr:uid="{3AB78997-8F4D-466C-8030-C39EE550517E}"/>
     <hyperlink ref="B666" r:id="rId635" xr:uid="{6625A2A6-F205-4F99-8076-DC18136440EB}"/>
     <hyperlink ref="B667" r:id="rId636" xr:uid="{58C8098E-82FF-4315-A542-E33A3860E198}"/>
+    <hyperlink ref="B675" r:id="rId637" xr:uid="{65F7E1F3-1F4A-4454-A9A6-73014A09F76F}"/>
+    <hyperlink ref="B668" r:id="rId638" xr:uid="{9AB4139E-379F-401E-A004-06EC7E328A13}"/>
+    <hyperlink ref="B669" r:id="rId639" xr:uid="{23F27A14-5882-4C8F-BDE0-667FBB560A1A}"/>
+    <hyperlink ref="B670" r:id="rId640" xr:uid="{3B5D1B18-4080-48EB-B804-43B328568945}"/>
+    <hyperlink ref="B671" r:id="rId641" xr:uid="{FE2C893A-D5B4-43EF-AEE0-30BA29230D74}"/>
+    <hyperlink ref="B672" r:id="rId642" xr:uid="{731EA29B-113F-48A8-9FF0-85F4CDBB38C6}"/>
+    <hyperlink ref="B673" r:id="rId643" xr:uid="{C878367C-A9F5-4326-AA6E-A9BC596A2113}"/>
+    <hyperlink ref="B674" r:id="rId644" xr:uid="{F5C4CE0E-BD0C-4E0E-88FA-0196F2AD7252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId637"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId645"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB5097-23B4-4B2D-9CEA-17312D8CE3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DBED3-CDBB-4E70-B953-E9E33F0A75BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1372">
   <si>
     <t>titulo</t>
   </si>
@@ -4081,6 +4081,78 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/444fc6f6-cb6c-4d58-ade7-ccf7fe40be72?title=Smart%20Fit%20%7C%20IE%20com%20Santander</t>
+  </si>
+  <si>
+    <t>﻿MGLU | Dúvidas com RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c59f5365-04e1-54a4-b377-333b9f9ec322?title=MGLU%20%7C%20D%C3%BAvidas%20com%20RI</t>
+  </si>
+  <si>
+    <t>Bancos e carteiras digitais tiveram quase 21 milhões de downloads em maio | Finanças | Valor Econômico</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9462b245-d98e-4047-9c18-0f6602f5f59a?title=Bancos%20e%20carteiras%20digitais%20tiveram%20quase%2021%20milh%C3%B5es%20de%20downloads%20em%20maio%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico</t>
+  </si>
+  <si>
+    <t>﻿Armac | 1x1 com management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/075f50cf-a7f5-ccaa-b4de-9af9f2b7e377?title=Armac%20%7C%201x1%20com%20management</t>
+  </si>
+  <si>
+    <t>﻿Videoconferência com Meliuz - @Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d7aad941-bdb9-1dda-5729-eb0d88ff60fd?title=Videoconfer%C3%AAncia%20com%20Meliuz%20-%20@Santander</t>
+  </si>
+  <si>
+    <t>﻿Astella | SQIA | Relacionamento e maior entendimento de SQIA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/96cbd692-1d1b-fdbb-753f-1a9e7e43f6e5?title=Astella%20%7C%20SQIA%20%7C%20Relacionamento%20e%20maior%20entendimento%20de%20SQIA</t>
+  </si>
+  <si>
+    <t>﻿Reunião com Agrogalaxy sobre M&amp;As</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/53e1ecf8-d154-4738-e0fd-576535179c43?title=Reuni%C3%A3o%20com%20Agrogalaxy%20sobre%20M&amp;As</t>
+  </si>
+  <si>
+    <t>﻿LWSA | M&amp;A Day</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3eb591cb-5480-9268-bba6-25dbb546620d?title=LWSA%20%7C%20M&amp;A%20Day</t>
+  </si>
+  <si>
+    <t>﻿ClearSale | Conversa com Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/bbf1c505-5fcc-9fa4-8515-01173d334d71?title=ClearSale%20%7C%20Conversa%20com%20Management</t>
+  </si>
+  <si>
+    <t>﻿Westwing | Growth Hacking com Renato Grego (CMO)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e5d57033-8e99-69d7-e62d-3827c995845d?title=Westwing%20%7C%20Growth%20Hacking%20com%20Renato%20Grego%20(CMO)</t>
+  </si>
+  <si>
+    <t>﻿ESPA | Group Meeting com Management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/a4325619-de31-2671-08c0-97a668cd8990?title=ESPA%20%7C%20Group%20Meeting%20com%20Management</t>
+  </si>
+  <si>
+    <t>﻿Growth Hacking | Gabriel | Conversa com Vitor Finger</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/23d76bdf-afda-cadc-fb09-bf52d59d08ca?title=Growth%20Hacking%20%7C%20Gabriel%20%7C%20Conversa%20com%20Vitor%20Finger</t>
+  </si>
+  <si>
+    <t>﻿Armac - IPO | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/384faffe-fc7a-914e-6663-26fdafb66cd4?title=Armac%20-%20IPO%20%7C%206%20Pager</t>
   </si>
 </sst>
 </file>
@@ -4478,11 +4550,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
-      <selection activeCell="A675" sqref="A675"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9890,655 +9960,763 @@
         <v>1340</v>
       </c>
     </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B667" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{78D8D145-A3E7-4F31-BE3F-A14A0D1B040F}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{84E9C9BB-BDF3-42FB-8880-99CCC91C5FBD}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{9ABD1E12-E132-45E3-8A69-38A5FDF4C96C}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{460F7D7D-9528-4DE8-8438-09F8FAC6DF78}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{F7639C2D-24CC-4D13-9E24-F629A46CF898}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{609BAE12-F17D-4948-AE5A-3F18139FBA4A}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{704EB99B-68F3-4B8B-A01E-D1C03850C1C7}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{6C1E6B9A-BDD3-485C-904A-0FBC02B81B57}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{1C91EAB3-95E2-409A-9F24-9BECD59CA6EA}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{984C3EA6-69DE-4283-8A21-72EC6C0B8132}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{8809E2B3-426C-477E-A35E-9D1697E70092}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{FE292881-DB98-41D9-B545-FCD1976FE88A}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{EB24D742-38DC-442C-9FB8-C34769C4EA19}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{FE6E460E-3183-4091-AFC1-73845E0005CC}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{6B6C681C-FB32-416F-A3BB-4F8F9653409C}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{1835A44D-522B-4A5D-952D-1F715F49BA69}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{6DB23BFA-756B-4CC3-A818-D5F0CE3E70E3}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{ADF1C610-7037-45AB-867A-493D10C5DF4E}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{03DB5D3E-75D4-4209-8A13-B3BEFA18D590}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{AA868B4B-ED05-41FA-B5E1-A3E58DD1602B}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{D633CEB3-1EDA-47D2-B094-98F980BCA38F}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{027C9742-A31F-4A7F-BCB8-DB3390302F39}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{F00985CE-078F-45C2-A923-39CBEA27156D}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{62C35702-E155-4558-9B3C-5B4A707B2F33}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{0A4A1304-778B-49DB-8243-88C4D0B40BC6}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{E3BE2315-BC22-4C39-813E-BCAAB2B41C13}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{A416570E-865D-481C-A98E-E19326346533}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{001FEBD1-7D92-408A-843F-D2887C2F4534}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{DE8F77FB-5A6E-4DC4-A573-4423821DBAEE}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{6D061743-7759-4959-ABB4-870532663992}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{C7BFC604-CF3B-4D9B-A4A4-B5305C926E61}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{D7902235-EC2A-41F9-AA42-B051607BB11B}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{2BC4AFB0-D513-42AE-A23E-AB64A8D5559A}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{E8B8AF51-866C-4166-8371-20FBFE047410}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{8107F763-FD1A-4839-A9E6-6112B6BF915C}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{9F57B80C-6488-46DD-94D6-8C78A3EFDC62}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{347AEFD7-470D-4D83-8F2E-6DC714F2EC94}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{0E0AE895-E7A9-46E9-BE15-9499554820F8}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{BCEEF802-CA79-4F44-85E9-CE65DE65EA29}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{DE87C435-75DC-4F69-BD68-636AED9AEA3A}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{2308E36F-2445-465E-B4F2-F4578A8C0992}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{042714C6-6100-4868-907B-778D4E088D27}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{030AB060-B1FB-4088-AF8E-D01B85DBFB7E}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{E2C7D343-13D7-4259-9782-5DA934413B84}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{1ECD0A37-BC24-4405-AABC-708800579161}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{4818216F-F455-4373-9740-2E81EBD18218}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{705D7E98-C0BC-4D9E-9E5E-31133F0B567C}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{4D67AAAE-5AEB-437E-A6C3-B155B71F424D}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{071A42FB-1EC9-49A5-8F3F-1AB1F35384D1}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{E55DFBEC-0BD9-4168-A7A7-19978BC2B6EB}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{13954261-A57B-4651-9FF5-7AF507FA3BFA}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{555AF7F1-53DB-4513-8A57-E29B15A06203}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{B3BD6EE3-7354-418D-99DD-231A6E0E40A8}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{89D00FFB-4519-4863-8CC0-D4AF92736286}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{3AB24508-54D2-4A7A-AC05-E0A63340DE66}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{45C54FB8-BB1E-49D0-90CB-014F4E60AAD3}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{7C6FCB95-DB8B-48B7-B33E-273F49DB1AB2}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{333B2AAB-E329-45D8-AA7C-CF36064F47EB}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{B4F9DC1E-1155-407D-A172-55EE387AFDD0}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{4CBF4688-9E9F-4E5B-B7A2-9278210A46A4}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{5A6A76A0-352A-4545-8084-6E28358B721B}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{3192D348-2FE7-4FAD-9A0C-9CCDE64693C3}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{54B9A139-0A2C-40F4-B000-B69B0DA5D2BC}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{29C721DC-EC66-4420-8B6E-417C7BC98AD8}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{0B1E30B6-4813-40A5-AC4C-61529524F518}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{63F38194-1864-402F-B7F2-941DAA03139E}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{69E3D4DB-5BF4-4675-A6D4-7B38C5D1EF9E}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{171E669B-21EA-4544-A655-841A2C460A3F}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{F3F7AE2A-8DC6-4C7A-A36D-19CE9ED8E4B7}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{0D4F265E-CF27-41E3-8F82-59244B74ED9C}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{A68B3C99-82B0-4FBF-A61B-85751FEF3BE7}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{B01B245E-5E81-4C9A-A2FE-E23EEAD4D9B0}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{C685CA58-90A3-41BF-BCB7-2D8934504796}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{A89279DB-2777-4692-B8D6-D92C10B7B6E4}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{055951FA-04CC-4CC2-8544-1B9BC10B99F2}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{55862194-23B5-43EC-9550-383BB2331FE7}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{50AB5F2B-2B1C-4B34-8613-301AF4CB40C6}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{4E613395-C847-4FE4-85B9-5A4C89FB83E0}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{C9196C57-1410-4A50-8C35-ECD4039F92B9}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{9801C7D2-99CD-425A-80AF-B9E5F919069C}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{70970883-F8C2-4352-9D5A-D4FCCA1A30E6}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{148524FD-7E59-4592-836C-BBF4BD2D7431}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{F32577A0-EEB6-47A5-80BC-BB0E370C453A}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{A210FCE1-36CD-4323-8CE1-C90D1FEA6D48}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{1A608EB9-4A91-4289-A1E2-0A3FE372CC75}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{88D7C405-37FA-4B52-AB57-955A73A3DBEA}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{C0C0AD3F-A9B2-4DB3-9D8E-CE723716955A}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{2DA7E27B-C5D4-4C27-87DE-26FB6A70B641}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{522D8CDD-BFCE-4CFC-B37B-269826ACDB45}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{AEEDEA77-F8E6-404A-B18A-24040541C14F}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{38BC9810-2EC3-41A5-A2C5-5F2EAA57874E}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{CD1118FF-0557-4D67-BDE2-0A2B90348BA0}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{ECE4212F-5E13-4465-9DC9-15E6AA66F4F1}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{A228E3D2-28A7-4270-8BC4-861BB30953A1}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{1E416634-1618-4766-9FE7-24A0BC9D08FE}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{4A2C9BDE-3902-4AAA-9BEC-3182FB188866}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{2EB7CD43-6BA1-43B8-98EC-3A1240439853}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{A67B9093-7308-47B2-9077-25BF205CCEE0}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{BA9C57B6-CC93-48A1-936B-B926BE3A5A64}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{EC3C9582-7977-47EB-9BD1-06FB35155601}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{5398F125-09BF-470E-A80D-D44811B4E5F1}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{6DD6EAC3-FDDA-4CB3-871B-51F82419306C}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{F5351D20-3F83-470F-8259-7BFA5D53D69B}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{D9F731F8-C1C0-4336-99F5-711DD28A45E4}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{495595CE-8E65-424B-AFF1-57265D6D5F4A}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{34150CA5-A5D7-416D-8FCC-3E2B5655FE51}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{1FE79B4A-97CE-4EB2-8F2A-CA73ED77A145}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{2E28C4EE-DC4F-45B0-81CA-A44270359725}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{DBAB3D1D-4DA9-4728-8856-46F7928D01AA}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{99291214-9904-47B4-810A-BF632C522D41}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{66EB38B5-8AC6-4A5E-A617-C51DCBE1EC09}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{CBD2DB39-DB5A-4C22-8A03-A58053F86CD8}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{838503E6-85BA-462E-80AA-F149B7EDB905}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{4F8085BF-F4BE-4B83-A091-EA028AF795C8}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{13DA5340-4A3F-466A-9AF2-C60551FEA7B0}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{E6D88FA5-AB00-4EE1-B2BF-25FE3959F012}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{C7EC4418-3868-4EA1-B3F7-64C1CDAB061E}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{40E9C00B-26BC-41CA-90C8-225D70787B55}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{EDDF3E8C-05BB-4D5E-8759-FD4FED4C4A81}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{2978A596-FC91-44F7-B84E-3B258C09B79D}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{24F4F790-1CB1-42AF-81E4-A150AA2DF9A1}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{77C63EDC-84D6-4DB3-8BEB-A71BB9F54669}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{2B081054-F780-4FAD-85FA-F7D24C4C9D0E}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{87FB8D53-04CE-4C12-9F9A-34F3AFC30489}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{73E66317-9FCE-4E97-9340-977BAEE09485}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{28BD3526-0C9E-4C56-9AD3-3CE7365E270A}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{F4BAF37E-3502-472F-AFE5-EC53C46A6B1C}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{F2DEAA42-72F5-4855-AE84-384D8739BD14}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{E26EDB15-965C-4315-B43C-CBFD8D9EF748}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{F0BD43D6-2008-4BEA-891C-FB2308813EDB}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{55712D97-3FD0-4491-AE20-FBDDF31DFE26}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{1C98C479-8A02-4FFF-A375-45B82680121B}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{3B775DDC-B96E-4E65-B053-4B5E6A266BD5}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{DBD98413-B63F-46EC-8CEA-38D33DEDA579}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{4BEB5ACD-00E8-4D35-9EEB-FD3BC5DC87E2}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{4E9AC7D6-BFE6-42E0-AF02-04B68238B427}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{7FD91034-FC38-4816-949B-887EFB93DBED}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{FE393466-7ED2-4C28-B560-41207CB1214B}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{69AFDB42-C4C7-47BB-A675-0C7CD654C51C}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{A4ECCE05-289F-43F6-AFF2-9E0E95A2C82B}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{2826D0CC-65F8-4611-808D-D103FCC7EE25}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{D28B366A-7683-4938-A1B6-3B16C0E51159}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{074D4015-A1B7-4908-BC1B-6F1F514BA5A7}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{0D85B071-664A-458B-B922-2105CF48E606}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{A30960CB-4E4B-49A4-B006-CF91E95BEC81}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{78E7184A-320B-457D-B92C-2D148042FD2F}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{4CC0AFBE-C8FE-4364-A6C0-980079E546CC}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{76B08717-C25A-4621-B2EC-C6A8B2793D78}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{A3DE9F33-6610-4563-856E-956B1C1C8759}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{40FD765D-9972-42CA-A33B-011A78708F53}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{7353B9AC-AE9B-438A-A074-2AE183BD4510}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{D71A8A38-D666-4E92-A6E2-B5D6F66C9F6F}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{E5901155-62CB-4672-B6C7-CA08F204B8EA}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{64CC1424-3DDD-4F55-BD69-7478A5AD8264}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{BF8DC41A-87B3-4FB8-8609-855F78ECBDB2}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{241239EF-B219-4674-9E6B-01F5713D3BED}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{0F132C5D-85BD-4B59-970D-D83EF0E36E7B}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{303C9B3F-B37F-41E0-A1B2-BA6EC3708469}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{DE9911EF-13D7-44F7-9AAE-46F97B1EC37B}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{B7500612-8089-44E0-98A6-F4EB6CC67359}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{F5DC38DD-0CC8-4B95-81F7-2BD9FDC95469}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{E45AC914-88A2-409E-B2D8-4C1C5265582B}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{49256176-F460-40AB-9B1D-B2557AA16F94}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{68A774F7-5813-43C6-9127-872CD4281E14}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{9F8EA8D8-9DF5-4024-9F2D-B82F0E552949}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{777F8E6D-0779-4246-AA68-FC851CEB6498}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{ACEF7C78-C672-49C7-9B76-DC6606269860}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{A683125C-5C67-4F0D-AD0E-5207C640BF03}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{49AE274E-55E1-4C32-B501-4450BFEB6FA4}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{487943EF-C128-487E-B0D2-DD056B96A097}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{CABA3E7C-55B9-4ED1-82D3-11934A43EE99}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{3FFC2889-89B4-4165-BD92-8A3BFEB6246A}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{E6F0B8ED-6C2A-498B-91DE-128308684AE3}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{CB926A1A-F25B-49AD-8D19-7578A0BA3F09}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{D6BC8E00-5CB6-45CB-AD14-36E5A510E92D}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{DEAA6BD7-6887-47E6-9FE8-838B0F300B3D}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{896EDBB2-48B9-4018-B8D5-A92C4436E960}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{58765706-2BC6-4256-8C4F-6D7F7D3A0FFF}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{883B2EF6-AFDD-457D-9AF0-1235691B9C42}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{1040BAFA-6BA8-45E9-9418-A162A3BAA9A1}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{B7B8D76D-F25B-498F-8BF4-9E28FFFF2BC1}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{641FC402-2486-45E6-A90C-EA2B64374C70}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{AFDC5160-024A-468A-8ED5-D85F1E8BBCE8}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{971BDBAB-62EB-4AC9-8F24-3510F9A4C3F8}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{C58F06EA-D188-44E1-887B-20D6CA36DE3A}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{6A08C9A8-F09A-4C4A-8555-6D744749CF4F}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{C7A15D52-FB6E-43B5-BDDC-7A43366E5B53}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{A13B644F-68AD-4131-BA03-E02571D8ECC3}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{785FF09F-01D7-4D95-8CE2-BC8FE3998B46}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{EE41B67B-C2BF-46ED-B04C-DE5C0C684A0D}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{0014DEA3-4674-4AE4-B6E2-6534244816FB}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{B4A3289F-FE87-4AAE-9B55-DC87FF5E8124}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{1C873E4E-E2AD-4058-A562-1D8139827693}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{906090F6-0E62-47E4-96FB-B65D89FDCC96}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{28A24688-DCE6-41FB-92C1-4B0BE7784A3D}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{29360C9C-9547-42AE-9524-5381C0C9F976}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{ECFAE7F6-FFCA-458F-B83F-0F606454BB0F}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{3956C7B3-2990-4071-A044-AB05BB5EECAD}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{19BEF37D-EB89-4973-B51B-64F8709AEF3C}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{A068522B-36A1-4A97-9812-2785AD1608DC}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{4C907325-3D48-4FF7-B311-03D1267EE79A}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{CBF8AA19-443F-4F9F-89A2-A6D451E86545}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{344E7A98-4D26-4228-92AB-98C914338218}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{4B9F4CCA-07E3-4A7F-B015-D6F67A463D9F}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{4261EB7B-4C50-487A-831B-7588E3C70869}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{34ED6D5A-CA4F-43B0-BFAB-B2EF5345F853}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{623EB02F-F5B7-4EA3-93C0-79ED9C5D66A5}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{89FE6DD1-1359-4061-AD8B-C75E7F783264}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{09E2F3FA-3FA5-4AD7-9498-551AB57E4D5A}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{65C52D51-7548-44C5-BB24-B4179BF72FBC}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{A83DE9CC-023F-41CF-ABFE-FDFD0FA8546B}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{5A108F69-A73D-428E-95FA-35D15A249256}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{4566DA04-5955-4FC7-BA31-A934D4FFEF76}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{BE73E68B-229A-4B18-BDCA-9F4B74DA50A0}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{DC8CC61A-3162-4774-B4CF-90669875B5E6}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{59F180C8-F1F7-4DCB-A2D9-B480CCADFEB7}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{1DEA9B1B-B77C-457B-83A3-601E1FAE6C56}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{5414C741-48EE-401B-9473-798AAEF1C6CB}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{177BC15C-C0F2-4547-8763-AEE3B231B7A6}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{2F906C08-CE19-4408-8AA8-C627CAA2EBF0}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{D5E59978-8DB2-4FCB-B9D3-001D5CFA2FCB}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{4C66EF02-60A7-4E17-986A-A533E27928BB}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{99A70691-43EC-40DD-B66C-9FE2D48B1E26}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{28B2451E-EEBB-407C-B22A-C2C6E4187096}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{E90A01E8-2AE6-4A8D-94C4-BF91F1991EB4}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{6085692B-BEFF-4742-A659-CCA5447690BA}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{34178657-07DD-4AEF-88CD-564556A4F38E}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{C3DFAE68-9E19-43B3-8753-1E885AE45639}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{996B4318-8781-46C0-A43F-56C9DE720DB5}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{2FD70FD1-D9FB-4B9E-A0B4-E20CEB4D25EE}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{FD14EC75-5DC2-4380-B86B-77120AAECF13}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{05BD9E57-AFA9-4CA3-815C-784994832B57}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{AEDFB7A8-051C-45D8-892A-B0E0C423CCEC}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{520256DD-0200-488C-9CB6-F7A73A367762}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{E6DDE412-3521-4D94-8221-5B24143E6F10}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{8F1E2DEA-F25C-43DE-8D57-7484F842BC6F}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{73D0072C-F845-42BB-855E-35FDFF3A7DA1}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{8B70BACD-7A0B-43B2-823C-63DEB4A93055}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{3573BC24-7ABB-4711-92DA-D683282D02D6}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{9F7FE7A1-FE91-43D4-9FF4-EF0FCC84D05B}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{9EAA9442-D3E9-4E44-B705-BA6381AA5B82}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{B028E197-DEF4-467F-AEDB-233A26D21D87}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{6771A2FB-94BD-4D38-89B5-4180CFC42A48}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{D205FD2F-69AA-47AC-9173-B59270AF06FE}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{4FD58C91-62B5-4C24-BEE9-F509165BEA1C}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{7D0AAE1B-E46A-4646-8982-35412934112A}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{495721E1-E913-4982-BABA-10F8302DF004}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{09FF7E5F-1802-448C-896C-A395FB54F6FB}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{4304A952-37A1-4940-AECC-A4E21FF9EC1C}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{50980F4D-64AB-4E2C-9B74-2A67B61339B6}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{6B13BDB7-17C1-450B-876D-975E409BB004}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{BF69BF4E-ED5B-4047-B73E-B1A5F2CC6430}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{53D61EB8-BA29-41D3-B0A2-31DA84BD2D6C}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{8754D108-26B2-4404-AB04-C322251868A0}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{D047DB5C-6A82-408C-BF11-711083E2AF48}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{ED99A2CF-40CE-466B-9BCE-5356D9D12FCE}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{4FED56E4-6613-4926-8B96-86A1502AD02E}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{32F956DC-5C91-44E7-9253-8E4AE6C8DB54}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{CDA3F618-E064-470C-9A2F-99A7D39F1F97}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{05AA3CAB-49C1-487A-87FE-B659368077D6}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{38EB5E33-BE21-4578-BF79-592E5A52FE5B}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{2B15893A-BA79-44D6-9667-262557571930}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{265D30EB-C080-49D9-862B-F5C2C03B777A}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{54CD7ACD-6E10-4780-BD74-4FCC0BF47FBE}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{5033EAB9-E231-4DF3-9C97-5F7F07AAB61B}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{EB1C7A09-B45C-42B6-ABF0-AEA9C1A16696}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{B4F19EBF-48D6-4208-B9A8-7E033EB787DB}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{AA7D2401-315F-4840-8B33-6A420BAAF5C2}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{E7438D03-7D05-42A5-8FA5-10F6713932E4}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{6540565C-E509-4528-9557-DFB51D636330}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{CDA95B9F-71C0-4C31-B6F1-D0C97683D26C}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{B06B42A5-A079-4039-A048-E177F7E0ECED}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{D7B92D78-2C97-4C02-A861-23213F06F1FF}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{9FE0FDF4-2648-4A73-8CDE-33012FEBF988}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{0157E6EC-F1BB-4C9B-8F72-81B18A1DA108}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{4648AB1A-3347-4D2C-BFEA-9C983170BB11}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{A9B9E981-257C-4AF8-8CA3-4D49CA5A6BAD}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{8CA1D4B9-2CF1-42CC-9DB7-1B707CC20DB2}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{4F97EB96-4A48-41C2-B860-745385555D10}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{5C0B7DFE-3785-4905-AE54-E12B27EEC6E7}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{9EBF9C7D-F12A-4431-A7E6-7E744EBCDA02}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{F51AD685-0905-44B9-912B-E3C6F42323B9}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{C2A97655-23B3-4AC1-96D8-07C8A5D035B8}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{8D759A60-7ADB-4B41-9F6B-13CC0F6DB84D}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{7A8B32EE-DC6F-4F9D-B88D-90F56E8D8FF1}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{03B7BA60-7F34-4C31-9CCF-901EEFD3054A}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{B61D0EF7-3187-4CEE-85DB-04235B0932D5}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{7F435F58-89E0-48E6-8782-456C50894C94}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{6AB3BAC2-23A4-46F8-9CD6-EC6A1D2FBEAC}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{C9025210-B67F-4C1F-BBA0-31EADC785EEB}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{E9C788C9-D7B4-4116-A92E-37DFCB977AB1}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{FC0D307F-5262-468B-8B24-ED52978896D0}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{5BF4E1EC-7A51-4144-9809-58CE38A49191}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{3F0DC5AB-0B19-40C6-B60D-69AA5385A301}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{BB7D6DB7-A9FC-4B8F-BB88-E45D7AD4CCF8}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{EBC182F8-0186-4998-8EDA-79518B71C9C3}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{621C38C6-559B-4913-B69B-639D6506F7D5}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{C961241C-E3EB-48BE-A7E8-06DB82727A84}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{D41F7A20-3BD0-427C-8C2A-B21D792A83A3}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{C52EC680-482B-4926-B1E7-4485A893E134}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{E6F2082F-D66F-471E-BE5E-B8A50CF9C33C}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{14774BB9-FABA-4971-92FB-4F4619789414}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{BB165DA4-1AA8-4694-9E29-ECD32FFD21C1}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{07C055CF-144B-40B1-ADAC-AA05DE362F8D}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{3BE72945-34D0-4145-8556-095490FA1A51}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{835593A9-E024-44E3-B981-8BB4BE130B66}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{1A0C75A7-D9A7-42FC-A2FC-3FE69E19EE76}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{A33CFAC0-43E7-418F-B51F-254C49E9D2C6}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{CE56295B-C1AD-4A0F-8610-2F4BDF32047A}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{3ADE2C4B-B962-4F80-B90B-6453D5A2BA88}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{B896D7E2-127C-4BB9-B6CC-7626BAE2FC9D}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{4F8417B9-1170-4712-AF49-B83DB7B9DE7E}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{CE70A4CE-43FE-4CDB-8544-97A50D720F75}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{B37821C7-960A-4162-BB0D-2EBF5951DED7}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{BD7F954E-88CB-4C26-8CF9-36A424218970}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{DBDD059A-EB96-421E-A4B4-7D6096257CD3}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{4B254DFC-C02A-4F9B-A146-759F80EF18CB}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{956F3D21-D5F6-4632-9D5D-75B4E77D95A1}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{04C37756-92DC-4CC3-B143-509B87C57890}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{BABB0249-527D-40D9-86CD-0EA5E65F6C2A}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{E5963698-80AD-4D4C-8647-2937689ED413}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{F85500CA-1EF2-4817-9DEB-500ABFDB1747}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{1B659890-5572-449F-9CC7-7A3D8814CBA2}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{23323531-EB8F-47B5-9C7B-A80B81E27A3C}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{BA3D00F6-BA98-4501-B3D5-8D3711674E81}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{950FB8F1-1B4D-417A-A56F-E514EDB4C995}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{4D896FC0-B3E4-48B1-8216-A232BBC1AB8D}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{E40C66AD-5BF2-460B-A8A7-E064015AC335}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{E25C1DFE-FD85-407C-B5EB-B53307447F33}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{03E3ADA6-58BE-4D0D-A06B-55B1EC936C35}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{FDC3F4AF-D4EF-453E-9212-CE458B1252C8}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{EA58D950-1138-4D8E-9B2D-C5A3EF79EBEF}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{83AB13C8-4752-4BFC-9DB8-24A0FCA783EF}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{977875EB-9ACC-436E-9C2E-53F109245BD0}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{C61442AC-95DC-4C75-B8E1-4662FCF10480}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{D7B56882-76A0-4FA6-BADF-EB5198F0DD0E}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{41D30744-639B-483B-A5F0-30B17236656A}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{AE3D5EA3-2205-40C4-900F-84FD2F5EF1A2}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{7DA47B54-7AA0-415B-AA86-09E6EB44AD6D}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{4D7FA8FA-8D05-4EE2-A544-6FAE9DF3E7C9}"/>
-    <hyperlink ref="B366" r:id="rId341" xr:uid="{542CDD31-D762-40FA-81DD-A7228E9C1568}"/>
-    <hyperlink ref="B372" r:id="rId342" xr:uid="{F8D0AFC5-9809-4E15-98B2-309F90AAE3DA}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{7887FE29-957A-4D58-A364-384EDC5D000C}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{CC4F3F18-04C9-404E-A027-CDB72F380C0B}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{F34C6DA1-5ACC-449F-9D1B-F427BD1EFFCB}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{2E9E7DC5-6F2C-49A9-A354-ED965212CE04}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{A28C4FD3-7D06-4BDC-9A37-0796BA982AD2}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{D72D6B14-58BC-409D-98B8-F5317E683C03}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{ACEAF303-40CD-47F9-90B6-C4E5FAB85F08}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{2B84E63B-5C78-471C-A864-7C14E6E0BD95}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{2C1D3DA9-3EC0-4568-91E3-280136467803}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{BD056602-0677-49FA-8B13-A7CFF502AE6D}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{0E6B1196-7F27-46B1-8883-2B576A729E15}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{B80D3322-FFCC-4A2F-9C92-BA4A926E8968}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{09002ABF-264C-4E4E-BBC2-2D9116807F1E}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{0EA97800-DF32-490B-82F3-37C5EE085DB4}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{9A996C2C-602B-4C5B-B4AD-9D68CCEE12DF}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{69A850F1-3CE6-4004-A4A4-CEAD067142A9}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{C00FA748-C394-4C59-AAD9-E0BEAAAFAB27}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{18B8166C-921E-49A0-A36A-C6DF0E563805}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{AB1625FA-5B47-43BF-807B-7E18E590E2A8}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{9D131701-F06C-4757-91BE-4CAB3019D983}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{6D1E23EF-922D-4487-9DC2-892172D68E1C}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{8931FC48-891F-4EB4-9A79-94E15C38D244}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{B1615F73-284E-4D04-95B7-917B0B489FE5}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{A1693450-2BF8-40CB-B081-BB1A7F497E78}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{EAA62786-34FF-4BED-8BF0-E12F36BA7AC2}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{651277C7-B3D7-4DBA-B78A-34A67F7336D9}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{3938DAD1-4935-4E45-A5D8-F81C60677146}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{F50E7AD4-062F-47BC-8AE3-CAAFD4C84D2D}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{1D09FA71-5041-4979-9FFE-6B6DFA094B5E}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{38607473-B832-4F76-9AE8-490506894567}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{E36CA6BC-8B19-4229-9250-35E745885E74}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{B79E7CD9-3F0E-4D3B-AF4E-DDE7FEFA0653}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{66C9FDFA-CB20-4A85-92A3-CDE7E6F58BBF}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{6456C4AC-14B8-4318-8E84-2F3D70EA6297}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{B822798C-3CEB-48F7-9337-5BEB6642BDFB}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{E3F924B9-2A64-4C68-B147-FF4B64CC9065}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{7CBB2384-2846-4D1A-B6C9-478F6854FA5F}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{9C73F3D9-1DA4-4CBF-A69A-0DB7E0FC59BD}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{83E3F594-70BC-4EBC-8EC8-ED526F2004BB}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{0EBFC740-D294-48FB-B0F4-38D8715469DD}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{A06698E3-96DA-4627-B261-FC7184947672}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{8A70141A-615F-4FB4-9E12-B24C7F4A86BF}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{D798113D-B4CD-4A45-9318-60214554E7CA}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{11ED63CA-BC16-4460-A8C0-AED89715C361}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{B49CDE8B-349C-4032-98C1-6E6685A854ED}"/>
-    <hyperlink ref="B431" r:id="rId388" xr:uid="{5A3C27CF-EAD2-4FDE-AF3B-361113D8CD9A}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{712C984C-197C-476D-860C-EC4398DDACC7}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{9BACD0D0-54C4-491F-B563-2DBFA5FC02AF}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{9DCC7AAB-77BD-4455-BAE9-42566869F047}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{9B387798-2EB7-414E-81F2-56AA5FA1F805}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{944AD14B-1709-4C31-A302-2BA2BEFA80AA}"/>
-    <hyperlink ref="B425" r:id="rId394" xr:uid="{91ECD35C-1670-4DA0-80F1-4AB776440F19}"/>
-    <hyperlink ref="B424" r:id="rId395" xr:uid="{1296224F-35A1-45BB-943D-F6A269C83F84}"/>
-    <hyperlink ref="B423" r:id="rId396" xr:uid="{B6E853D8-00B4-465C-A7E0-64877F8D3449}"/>
-    <hyperlink ref="B422" r:id="rId397" xr:uid="{2B8B1D86-1234-48AC-B357-43B0829CA43C}"/>
-    <hyperlink ref="B421" r:id="rId398" xr:uid="{3ACCA1C2-D83D-448A-BD0C-6179E0F89D4B}"/>
-    <hyperlink ref="B420" r:id="rId399" xr:uid="{DD3632DA-76AB-466B-86FB-0BE2E5CE2E2C}"/>
-    <hyperlink ref="B419" r:id="rId400" xr:uid="{C5D19B47-C281-4C15-9A99-4002E1BD9AA2}"/>
-    <hyperlink ref="B418" r:id="rId401" xr:uid="{956B82E6-C1E9-4564-80C7-BEC7F9EE6457}"/>
-    <hyperlink ref="B432" r:id="rId402" xr:uid="{2594B2A6-F894-4FDA-8887-01A190B6A2A5}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{1814444C-03B8-4F74-8A55-96287BDA1699}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{EA0FC5E3-4106-45D5-8213-C6BDD93740F7}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{6955F214-7AF5-429B-871E-B3081DC8C097}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{A69EB19D-1840-4DE1-B0B0-72609D259B26}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{3749230E-9E68-4D73-BB1F-03EC37E64972}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{FF307947-7E1B-464A-8F46-D21BB792C822}"/>
-    <hyperlink ref="B463" r:id="rId409" xr:uid="{C4C0B617-A558-4EDF-9386-ED6C7169D39A}"/>
-    <hyperlink ref="B462" r:id="rId410" xr:uid="{DF00F2BD-132E-4028-B4B0-BC8ABC9F5F98}"/>
-    <hyperlink ref="B461" r:id="rId411" xr:uid="{07D93789-F2A2-4C5E-A0D9-1B2907F41065}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{1F523951-0316-4620-8DA7-EADB88F020D9}"/>
-    <hyperlink ref="B459" r:id="rId413" xr:uid="{41383F5C-BA88-45EA-B4B2-994BE1965384}"/>
-    <hyperlink ref="B458" r:id="rId414" xr:uid="{A50C69B9-5E18-4053-942F-E4CFA371458A}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{0273FA52-7A34-4BB7-977D-6403E3A4584F}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{BF8392F6-FBF9-4177-B62E-6D1469276922}"/>
-    <hyperlink ref="B455" r:id="rId417" xr:uid="{FA32A7E9-D6D7-4338-9BB6-4AF546D9769B}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{8858BF4A-FD95-4A58-AE63-7193ECE5FCBB}"/>
-    <hyperlink ref="B453" r:id="rId419" xr:uid="{D4854755-C0DB-475E-B8D9-1A086D365459}"/>
-    <hyperlink ref="B452" r:id="rId420" xr:uid="{A7A62371-FAE5-4088-AF40-62C47DDE59C2}"/>
-    <hyperlink ref="B451" r:id="rId421" xr:uid="{A991373C-F8FF-4362-9DB6-A536B6DBA6D7}"/>
-    <hyperlink ref="B450" r:id="rId422" xr:uid="{4BEEDACB-9B41-401F-A9F0-26647B8E65FE}"/>
-    <hyperlink ref="B449" r:id="rId423" xr:uid="{28CCD46B-0C9A-4BFB-A9BD-7394CC552380}"/>
-    <hyperlink ref="B448" r:id="rId424" xr:uid="{4BC2BB4D-C85E-4906-A263-8899FE00FE2C}"/>
-    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{FC0AFA0A-2EA0-438D-8804-21152913AE7F}"/>
-    <hyperlink ref="B446" r:id="rId426" xr:uid="{D308D510-14E9-4A8C-95BB-E8B0DBDCA7EC}"/>
-    <hyperlink ref="B445" r:id="rId427" xr:uid="{850C78E2-A008-43FA-8A6D-8F4B976F9E24}"/>
-    <hyperlink ref="B444" r:id="rId428" xr:uid="{B9BA9D68-0500-4047-9D68-C491984558A7}"/>
-    <hyperlink ref="B443" r:id="rId429" xr:uid="{22B3A5A3-ECCB-4952-BB45-787A202C0621}"/>
-    <hyperlink ref="B442" r:id="rId430" xr:uid="{F2959941-5719-4E23-9376-E0C11F052FEF}"/>
-    <hyperlink ref="B441" r:id="rId431" xr:uid="{085BF382-2153-4340-9DB6-D8C275E1F9A8}"/>
-    <hyperlink ref="B440" r:id="rId432" xr:uid="{3079767C-D7C6-44E6-B8E5-14F8801401E3}"/>
-    <hyperlink ref="B439" r:id="rId433" xr:uid="{733393B2-52A4-461C-B89B-BD4EC5197730}"/>
-    <hyperlink ref="B511" r:id="rId434" xr:uid="{DFF9CF94-65C4-4500-B308-F8AB01FF709C}"/>
-    <hyperlink ref="B510" r:id="rId435" xr:uid="{A58D2792-35CB-4E35-865B-A146243DAF44}"/>
-    <hyperlink ref="B509" r:id="rId436" xr:uid="{C4FF1E21-F808-4224-A3F4-20178640B804}"/>
-    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{5B9ED2F3-D92A-4DF1-AA96-B0BC7BBEB4D0}"/>
-    <hyperlink ref="B507" r:id="rId438" xr:uid="{D72F83C9-9210-441D-AE12-D7626596460A}"/>
-    <hyperlink ref="B506" r:id="rId439" xr:uid="{04ADC7F1-E3DD-461F-8E25-21D6795CF1D6}"/>
-    <hyperlink ref="B504" r:id="rId440" xr:uid="{F4652645-9EA8-46FB-9045-90C17087DE60}"/>
-    <hyperlink ref="B503" r:id="rId441" xr:uid="{80B90B21-504F-4473-960F-28148C63BDB6}"/>
-    <hyperlink ref="B502" r:id="rId442" xr:uid="{CAA92065-6192-4FA2-85BA-AC2C6E94D0A3}"/>
-    <hyperlink ref="B501" r:id="rId443" xr:uid="{8F46C55A-E315-45C0-9BD4-195FF1F8EAB2}"/>
-    <hyperlink ref="B500" r:id="rId444" xr:uid="{EC07985A-4484-4AF3-BC6D-57BD1F05CE92}"/>
-    <hyperlink ref="B499" r:id="rId445" xr:uid="{284E0089-B8D7-4AE5-A45F-6511A434D839}"/>
-    <hyperlink ref="B498" r:id="rId446" xr:uid="{6BB89278-6E37-4A41-8382-29F117785D89}"/>
-    <hyperlink ref="B497" r:id="rId447" xr:uid="{861E2D06-42B8-4829-B183-A2D8D417258D}"/>
-    <hyperlink ref="B496" r:id="rId448" xr:uid="{0D2BD4C3-6C8F-4BC1-96F9-9574F452B0BF}"/>
-    <hyperlink ref="B495" r:id="rId449" xr:uid="{A045A9C0-E0DF-433B-A143-82425C17E8E2}"/>
-    <hyperlink ref="B494" r:id="rId450" xr:uid="{90970FC0-A8B3-4578-860A-549F11CDF3FE}"/>
-    <hyperlink ref="B493" r:id="rId451" xr:uid="{F4082D03-A203-40B9-8D6E-9F4DA496DD0F}"/>
-    <hyperlink ref="B492" r:id="rId452" xr:uid="{04F3C59F-F24B-46F7-97B2-78D1A74EB935}"/>
-    <hyperlink ref="B491" r:id="rId453" xr:uid="{1AE0AC83-17D5-4B24-9AE9-67CAB1445B0C}"/>
-    <hyperlink ref="B490" r:id="rId454" xr:uid="{EF0BEED7-4B99-4099-8E45-73389B2F3CE5}"/>
-    <hyperlink ref="B489" r:id="rId455" xr:uid="{4367F478-D852-4757-98DB-34D3A3144B0A}"/>
-    <hyperlink ref="B488" r:id="rId456" xr:uid="{0270D0F5-65F8-401A-8E01-C3F8AF6F1AB2}"/>
-    <hyperlink ref="B487" r:id="rId457" xr:uid="{D140FFEF-DDA5-46C3-8B8A-926EF5D10754}"/>
-    <hyperlink ref="B486" r:id="rId458" xr:uid="{EF672783-26F3-4FD8-9104-E9C1D8E6DA90}"/>
-    <hyperlink ref="B485" r:id="rId459" xr:uid="{D437A3FA-1BBF-447C-BD31-5A7588626ED1}"/>
-    <hyperlink ref="B484" r:id="rId460" xr:uid="{F68941AD-5C2F-4497-BC2D-C25B871409D0}"/>
-    <hyperlink ref="B483" r:id="rId461" xr:uid="{21F34A01-840A-46A0-9AF9-AFDB5E29FBCC}"/>
-    <hyperlink ref="B482" r:id="rId462" xr:uid="{B8219089-117F-460C-81F0-B17E4A1691A3}"/>
-    <hyperlink ref="B481" r:id="rId463" xr:uid="{07F20092-4786-466E-8AB2-CF5B5140B15E}"/>
-    <hyperlink ref="B480" r:id="rId464" xr:uid="{AA1DD33A-2AE0-4C08-A57F-77D9EE5BE6E0}"/>
-    <hyperlink ref="B479" r:id="rId465" xr:uid="{4E18E62F-ABEC-468E-8113-F8C4DA90E3E1}"/>
-    <hyperlink ref="B478" r:id="rId466" xr:uid="{2156B6DF-8D93-4C61-891E-4DB16CF04FDC}"/>
-    <hyperlink ref="B477" r:id="rId467" xr:uid="{AECE408D-F476-4640-9399-64110E425E7F}"/>
-    <hyperlink ref="B476" r:id="rId468" xr:uid="{C88500C3-28D3-4195-8364-29B244A444D0}"/>
-    <hyperlink ref="B474" r:id="rId469" xr:uid="{1BC3A478-AB78-4837-9901-2C36A938EECB}"/>
-    <hyperlink ref="B469" r:id="rId470" xr:uid="{714502E7-EBED-4F99-A3CE-916774C57381}"/>
-    <hyperlink ref="B475" r:id="rId471" xr:uid="{2E2D74DA-2C82-4811-BDC2-4B9308CFCC20}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{8E6D53CE-CC60-47D7-8718-0350B0E7FEFA}"/>
-    <hyperlink ref="B472" r:id="rId473" xr:uid="{AB250E71-7FFF-499E-8E0C-AE15CA711F9E}"/>
-    <hyperlink ref="B471" r:id="rId474" xr:uid="{61D4E39C-79D0-47B8-AA2B-F0684437A2E7}"/>
-    <hyperlink ref="B470" r:id="rId475" xr:uid="{725D58BD-984C-4EA0-8D84-6530275AACEB}"/>
-    <hyperlink ref="B468" r:id="rId476" xr:uid="{1DBFFF34-3F64-4844-9752-DD4A5B998997}"/>
-    <hyperlink ref="B467" r:id="rId477" xr:uid="{C69765F2-D9D2-4A4D-878D-8019DDEB520B}"/>
-    <hyperlink ref="B466" r:id="rId478" xr:uid="{32E087B8-9755-483E-84CB-146EC5BF9512}"/>
-    <hyperlink ref="B465" r:id="rId479" xr:uid="{91E23376-A429-4E68-8067-F9EF386187D2}"/>
-    <hyperlink ref="B464" r:id="rId480" xr:uid="{713FAD59-1F26-4827-8467-8C2D7DD613AE}"/>
-    <hyperlink ref="B537" r:id="rId481" xr:uid="{3AD4085A-64FF-4186-BEAE-EC09A139CD56}"/>
-    <hyperlink ref="B536" r:id="rId482" xr:uid="{A18CF9EE-F656-46F9-ACD8-E979DFC0D574}"/>
-    <hyperlink ref="B535" r:id="rId483" xr:uid="{CCABB07C-0765-4B40-B95D-213D9BFA2A82}"/>
-    <hyperlink ref="B534" r:id="rId484" xr:uid="{267E0FFC-20E4-4677-B6F2-016B49E70F2E}"/>
-    <hyperlink ref="B533" r:id="rId485" xr:uid="{2BF6766F-FC33-43CC-B9C5-394812A53C78}"/>
-    <hyperlink ref="B532" r:id="rId486" xr:uid="{3F4CAF3C-2E34-461F-B68E-BDF7223B6E79}"/>
-    <hyperlink ref="B531" r:id="rId487" xr:uid="{5975AFEE-8C93-4807-886E-EEB537FB8BC6}"/>
-    <hyperlink ref="B530" r:id="rId488" xr:uid="{3A5EF0AD-7B24-45F4-BC8D-FF3CC74BCD85}"/>
-    <hyperlink ref="B529" r:id="rId489" xr:uid="{28F67A3F-756F-471B-A9CC-6892A1D0988A}"/>
-    <hyperlink ref="B528" r:id="rId490" xr:uid="{75A50A9D-876E-4600-855E-4054585EAD8D}"/>
-    <hyperlink ref="B527" r:id="rId491" xr:uid="{43ED0A34-FF5F-4E86-AB1E-3A801C1875CB}"/>
-    <hyperlink ref="B524" r:id="rId492" xr:uid="{1F38D4D4-9A26-4AE5-A07C-FB092B9BFA5E}"/>
-    <hyperlink ref="B523" r:id="rId493" xr:uid="{EB826D2C-BCFE-4F6F-8FFC-44EB55C15944}"/>
-    <hyperlink ref="B522" r:id="rId494" xr:uid="{F9636F9A-9868-4F40-84D4-FA1C2A3403F5}"/>
-    <hyperlink ref="B521" r:id="rId495" xr:uid="{48181C73-F2AC-482E-BF5B-E3CF89DFA973}"/>
-    <hyperlink ref="B520" r:id="rId496" xr:uid="{DB636107-BDA3-48E5-91BD-A0AEE0F07DF9}"/>
-    <hyperlink ref="B519" r:id="rId497" xr:uid="{5A368FDB-729C-4619-9F0D-7287390FEEE5}"/>
-    <hyperlink ref="B518" r:id="rId498" xr:uid="{B0E7CDE8-CCD0-4E04-BF29-FF47C5E66250}"/>
-    <hyperlink ref="B517" r:id="rId499" xr:uid="{12A8CCCD-93CC-48F5-B5E0-567C67B2DCCA}"/>
-    <hyperlink ref="B516" r:id="rId500" xr:uid="{91DAEAD5-5926-49D5-9F0D-EE7DD863FC0C}"/>
-    <hyperlink ref="B515" r:id="rId501" xr:uid="{D816C068-03D5-46C2-A0F5-4E731EC5A4C6}"/>
-    <hyperlink ref="B514" r:id="rId502" xr:uid="{9C87CF80-697B-4611-92F5-A51990396DAB}"/>
-    <hyperlink ref="B513" r:id="rId503" xr:uid="{A1C9FF37-3D42-4E81-BA93-28B9C84CB254}"/>
-    <hyperlink ref="B512" r:id="rId504" xr:uid="{42A8FD9D-1C57-445B-9887-8FEB1958F838}"/>
-    <hyperlink ref="B525" r:id="rId505" xr:uid="{3FE97E51-F325-47DC-9B98-CE59B09F1E37}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{7A101CBE-7F52-4507-A112-A29C09B26CA5}"/>
-    <hyperlink ref="B566" r:id="rId507" xr:uid="{B8F2A409-30E9-4C93-A64E-3F023F3E054F}"/>
-    <hyperlink ref="B565" r:id="rId508" xr:uid="{1B8492A7-C7AD-4C7D-958E-523B18C18FCB}"/>
-    <hyperlink ref="B564" r:id="rId509" xr:uid="{6C1C4F29-5830-453B-A146-AA21EBA429B3}"/>
-    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{57BB7B58-33FF-428E-9608-E3374749AD7F}"/>
-    <hyperlink ref="B562" r:id="rId511" xr:uid="{042BA4F5-DB35-4B00-B931-957A82A9CA19}"/>
-    <hyperlink ref="B561" r:id="rId512" xr:uid="{F6C6CD8C-472E-46D2-A85F-3FAE150D9048}"/>
-    <hyperlink ref="B560" r:id="rId513" xr:uid="{5CE2C0FA-9721-4F67-A571-ABA9F49E9D3C}"/>
-    <hyperlink ref="B559" r:id="rId514" xr:uid="{1BBA60DF-4939-47C7-BC85-27FEB038B4FB}"/>
-    <hyperlink ref="B558" r:id="rId515" xr:uid="{52F3941C-F2C8-48C5-A572-AC1E08892B9E}"/>
-    <hyperlink ref="B557" r:id="rId516" xr:uid="{F79D04A2-73E1-47DB-A9F6-4D47C2592F06}"/>
-    <hyperlink ref="B556" r:id="rId517" xr:uid="{478814AE-62CB-4CC0-AD4A-A7BFB3A0A85A}"/>
-    <hyperlink ref="B555" r:id="rId518" xr:uid="{2D7FEA86-B068-4B70-AB72-8F0CA12B688C}"/>
-    <hyperlink ref="B554" r:id="rId519" xr:uid="{0C27248B-8CD2-42E2-B371-3C0081CB1880}"/>
-    <hyperlink ref="B553" r:id="rId520" xr:uid="{797876F3-FEFF-4822-80BA-3406D919A388}"/>
-    <hyperlink ref="B552" r:id="rId521" xr:uid="{CDB66507-243D-461E-8440-D3A87F17155F}"/>
-    <hyperlink ref="B551" r:id="rId522" xr:uid="{BF433D25-BBF7-4E00-9489-6A189612848B}"/>
-    <hyperlink ref="B550" r:id="rId523" xr:uid="{2E64831A-85AE-4E16-BC02-9334ED022C14}"/>
-    <hyperlink ref="B549" r:id="rId524" xr:uid="{F2603910-2E5C-4034-9B23-C7AC59D3F992}"/>
-    <hyperlink ref="B548" r:id="rId525" xr:uid="{A871FF21-D92C-4526-A95C-9EF73A23CAB8}"/>
-    <hyperlink ref="B547" r:id="rId526" xr:uid="{D9CB506C-331F-44E6-A86D-420540E25E33}"/>
-    <hyperlink ref="B546" r:id="rId527" xr:uid="{E149E1E6-F545-4A7E-BC61-109D254767A6}"/>
-    <hyperlink ref="B545" r:id="rId528" xr:uid="{211DD93C-E6AC-4113-9B57-E4FFF444C41A}"/>
-    <hyperlink ref="B544" r:id="rId529" xr:uid="{027616E4-7E55-429C-ADF1-FE8888189760}"/>
-    <hyperlink ref="B543" r:id="rId530" xr:uid="{7669C43B-9972-4499-B5AE-EC59AEBB74C3}"/>
-    <hyperlink ref="B542" r:id="rId531" xr:uid="{B12CD9AB-CA37-4FB4-96A6-B332B05AD8CE}"/>
-    <hyperlink ref="B541" r:id="rId532" xr:uid="{2434F74C-AAA6-41FB-B874-10AD4BCFF0A0}"/>
-    <hyperlink ref="B540" r:id="rId533" xr:uid="{D29BF3BD-56BB-4DA1-A9DF-081885117000}"/>
-    <hyperlink ref="B539" r:id="rId534" xr:uid="{DF3F5CC9-ADEC-4472-BDEB-FB90FBBA340F}"/>
-    <hyperlink ref="B538" r:id="rId535" xr:uid="{B3CEF48E-4227-4203-92ED-DEA188BA8291}"/>
-    <hyperlink ref="B575" r:id="rId536" xr:uid="{D6BF1691-B501-4915-AC9F-5DE386A42608}"/>
-    <hyperlink ref="B574" r:id="rId537" xr:uid="{634A2AB9-F5A2-487D-9C41-A351F64F72A9}"/>
-    <hyperlink ref="B573" r:id="rId538" xr:uid="{D3124C2B-7913-46E8-A0F3-E7E36197D8C7}"/>
-    <hyperlink ref="B572" r:id="rId539" xr:uid="{C7314F75-FBD6-43BD-8686-30E995D30914}"/>
-    <hyperlink ref="B571" r:id="rId540" xr:uid="{48BD4CD5-B34F-4A04-97DE-A3AD40D74C1A}"/>
-    <hyperlink ref="B570" r:id="rId541" xr:uid="{7896D353-F07F-434C-BD8E-30D5618BCDE3}"/>
-    <hyperlink ref="B569" r:id="rId542" xr:uid="{A3EB49DC-F15E-40F2-9420-91955ED6A622}"/>
-    <hyperlink ref="B568" r:id="rId543" xr:uid="{BEA55064-A070-4342-8B3C-E559874C1D21}"/>
-    <hyperlink ref="B567" r:id="rId544" xr:uid="{2967CD21-BBD9-4436-A034-E0AFB20A53C7}"/>
-    <hyperlink ref="B586" r:id="rId545" xr:uid="{798872AA-E8C4-4AB8-B190-8597BB913BEB}"/>
-    <hyperlink ref="B585" r:id="rId546" xr:uid="{F2EB0D0A-90FC-415E-B2FC-360B841D8B8B}"/>
-    <hyperlink ref="B584" r:id="rId547" xr:uid="{80C4B3BD-7B61-4304-8826-EDC6EE508DBB}"/>
-    <hyperlink ref="B583" r:id="rId548" xr:uid="{86583A08-CB6C-461C-B324-92F29F2601BE}"/>
-    <hyperlink ref="B582" r:id="rId549" xr:uid="{07F1701A-008C-4E7B-85D2-2CFC2941B1A7}"/>
-    <hyperlink ref="B581" r:id="rId550" xr:uid="{0BAFB2D5-7BEE-4C47-95D7-689334C42843}"/>
-    <hyperlink ref="B580" r:id="rId551" xr:uid="{F76AAD96-B94C-43C0-9DB7-369F98AFFC07}"/>
-    <hyperlink ref="B579" r:id="rId552" xr:uid="{CA4685AC-792D-4302-923D-EEB422B38F77}"/>
-    <hyperlink ref="B578" r:id="rId553" xr:uid="{B6F39B04-379D-4E6F-874E-CA7747BBB40D}"/>
-    <hyperlink ref="B577" r:id="rId554" xr:uid="{B0F60E7B-4995-40F6-A664-7388661F7ACF}"/>
-    <hyperlink ref="B576" r:id="rId555" xr:uid="{BBCBEA6F-F450-4B3D-87D2-A2F686502741}"/>
-    <hyperlink ref="B587" r:id="rId556" xr:uid="{B622D41A-41CB-43B6-8148-5249224437CE}"/>
-    <hyperlink ref="B588" r:id="rId557" xr:uid="{3F45AB23-5A98-4213-9909-3134CCD0F3C7}"/>
-    <hyperlink ref="B589" r:id="rId558" xr:uid="{48852C6B-3B6B-4AEE-817B-789E28855741}"/>
-    <hyperlink ref="B590" r:id="rId559" xr:uid="{7C954BF2-5304-44D6-AC12-98BE5D0AADB4}"/>
-    <hyperlink ref="B591" r:id="rId560" xr:uid="{C5EA5700-A1B9-43D2-B9B5-64AEB442C904}"/>
-    <hyperlink ref="B592" r:id="rId561" xr:uid="{CCCC2FBD-DA83-4087-9C79-022CBD86382C}"/>
-    <hyperlink ref="B593" r:id="rId562" xr:uid="{D844D48C-0D8D-441B-9E79-A97B32EA9A18}"/>
-    <hyperlink ref="B594" r:id="rId563" xr:uid="{CE3E5D19-446A-4CAB-838B-DE77AFCCF628}"/>
-    <hyperlink ref="B595" r:id="rId564" xr:uid="{8DD64760-765F-4C79-B3A4-FDC6761D6CC7}"/>
-    <hyperlink ref="B596" r:id="rId565" xr:uid="{CD4FABBC-1C3B-4C2A-8658-3F0BE9056B7A}"/>
-    <hyperlink ref="B597" r:id="rId566" xr:uid="{B14B23BC-94B9-4308-AF53-EE3541A718A4}"/>
-    <hyperlink ref="B598" r:id="rId567" xr:uid="{0CAFE7FF-2F09-4580-A9C2-BD1AAFAC3087}"/>
-    <hyperlink ref="B599" r:id="rId568" xr:uid="{9A512947-B3EF-47DF-906E-A746038E50D6}"/>
-    <hyperlink ref="B600" r:id="rId569" xr:uid="{980ED6F5-B7EF-4A67-BEB2-6E7933FA0D5F}"/>
-    <hyperlink ref="B601" r:id="rId570" xr:uid="{7194DA00-D136-4569-BBE8-9E3016DD3906}"/>
-    <hyperlink ref="B602" r:id="rId571" xr:uid="{49B63CFD-CB86-4F3D-A5A2-6E4D0D4A9E5F}"/>
-    <hyperlink ref="B603" r:id="rId572" xr:uid="{BE08FA33-0240-45F3-8E0B-79B5248B447B}"/>
-    <hyperlink ref="B604" r:id="rId573" xr:uid="{F460DFD4-EF46-4583-B379-CEBE865F79C9}"/>
-    <hyperlink ref="B605" r:id="rId574" xr:uid="{B94A7EB6-B193-4A85-9257-558A34ABA433}"/>
-    <hyperlink ref="B606" r:id="rId575" xr:uid="{652455B3-EB16-4A07-ACD5-DA2D68F60B2D}"/>
-    <hyperlink ref="B607" r:id="rId576" xr:uid="{0C403782-4323-4CF7-AECE-F898D529CC60}"/>
-    <hyperlink ref="B608" r:id="rId577" xr:uid="{868DCC5B-466D-4DB8-9F82-A5581121BB5F}"/>
-    <hyperlink ref="B609" r:id="rId578" xr:uid="{24457A2E-B006-4B0D-A2F4-3A731705B2D8}"/>
-    <hyperlink ref="B610" r:id="rId579" xr:uid="{F1C619CC-4E0F-421C-A41D-ED43993F475F}"/>
-    <hyperlink ref="B612" r:id="rId580" xr:uid="{29D7108F-C353-4CA6-A267-963EF9773AA0}"/>
-    <hyperlink ref="B613" r:id="rId581" xr:uid="{760F6F0A-0A52-4349-9CC8-15D5D7B13E11}"/>
-    <hyperlink ref="B614" r:id="rId582" xr:uid="{124CC958-7740-41F6-9C5B-F0DD523612D7}"/>
-    <hyperlink ref="B615" r:id="rId583" xr:uid="{6834D405-CB37-402E-A843-0C2C08C68777}"/>
-    <hyperlink ref="B618" r:id="rId584" xr:uid="{D6C65F65-9FCB-4390-A088-692B707E711E}"/>
-    <hyperlink ref="B619" r:id="rId585" xr:uid="{84383399-F94D-4520-A057-04E34723041D}"/>
-    <hyperlink ref="B620" r:id="rId586" xr:uid="{1EE3A88B-1712-43B8-83B8-F6C008097EC1}"/>
-    <hyperlink ref="B621" r:id="rId587" xr:uid="{47FC12D5-9999-429B-B132-45697002C558}"/>
-    <hyperlink ref="B622" r:id="rId588" xr:uid="{D6366810-BD7D-4A1D-BD0A-D7DCD583E537}"/>
-    <hyperlink ref="B623" r:id="rId589" xr:uid="{EFFA4DD9-3D6C-484D-A663-F74975D41876}"/>
-    <hyperlink ref="B624" r:id="rId590" xr:uid="{5F429FFD-91A3-461B-9232-91336BA4BF73}"/>
-    <hyperlink ref="B625" r:id="rId591" xr:uid="{CF99DCBD-E5C9-4723-8780-685DB6072C8C}"/>
-    <hyperlink ref="B626" r:id="rId592" xr:uid="{C22A2A75-487B-4ACF-AE23-70FA8BA887DF}"/>
-    <hyperlink ref="B627" r:id="rId593" xr:uid="{652B2D9B-00DE-4445-B4E5-CE9ACC2204CB}"/>
-    <hyperlink ref="B628" r:id="rId594" xr:uid="{CBE416AD-5CDC-483D-8DED-1F26B1F8FE3C}"/>
-    <hyperlink ref="B629" r:id="rId595" xr:uid="{171851B1-C9B2-4893-97BE-6B82A65D4A9B}"/>
-    <hyperlink ref="B630" r:id="rId596" xr:uid="{4BD1B066-348D-409B-BFEE-CE66646DA6AE}"/>
-    <hyperlink ref="B631" r:id="rId597" xr:uid="{4361B2E9-A055-409B-B143-6B191FA40B05}"/>
-    <hyperlink ref="B632" r:id="rId598" xr:uid="{C8AB539C-B386-44CE-AC81-D574815BA816}"/>
-    <hyperlink ref="B611" r:id="rId599" xr:uid="{04CA5BC6-770A-405F-B1F5-90933892C99D}"/>
-    <hyperlink ref="B616" r:id="rId600" xr:uid="{A3D42E8B-0F32-4DD2-900E-53F4B18C0DEA}"/>
-    <hyperlink ref="B617" r:id="rId601" xr:uid="{9F5BBB3B-7F62-48FA-A770-5E12A2DBA1FA}"/>
-    <hyperlink ref="B633" r:id="rId602" xr:uid="{2C0A92FA-B8DF-4C1E-9452-00958C48C4FF}"/>
-    <hyperlink ref="B634" r:id="rId603" xr:uid="{44BCEACB-2E2C-45DD-A9B7-046811203CBC}"/>
-    <hyperlink ref="B635" r:id="rId604" xr:uid="{39EF484C-2548-4F04-A4E6-7A604151D156}"/>
-    <hyperlink ref="B636" r:id="rId605" xr:uid="{4F9F2E57-F2E8-4CDC-B6F0-07E14B8CB6CE}"/>
-    <hyperlink ref="B637" r:id="rId606" xr:uid="{7B7FCD27-3AE0-48D3-A273-75EA98121194}"/>
-    <hyperlink ref="B638" r:id="rId607" xr:uid="{6A2B054D-83BA-4814-8685-D11088AB5995}"/>
-    <hyperlink ref="B639" r:id="rId608" xr:uid="{16B20389-6F99-406E-8116-A451C20DDE84}"/>
-    <hyperlink ref="B640" r:id="rId609" xr:uid="{1DA3B395-8C32-471D-A597-9C0E8E9952B1}"/>
-    <hyperlink ref="B641" r:id="rId610" xr:uid="{5F71ED34-17F3-4B72-B4F2-2C845356A6D3}"/>
-    <hyperlink ref="B642" r:id="rId611" xr:uid="{83FA8177-6F92-42FA-B67B-3449E5C65340}"/>
-    <hyperlink ref="B643" r:id="rId612" xr:uid="{1138D9E1-AEE2-497F-A0AE-46BB7D82D662}"/>
-    <hyperlink ref="B644" r:id="rId613" xr:uid="{054504B4-C182-420B-B788-45EA171E0DA6}"/>
-    <hyperlink ref="B645" r:id="rId614" xr:uid="{419E3F51-C532-4ECA-89C0-9FED8D1AA2B7}"/>
-    <hyperlink ref="B646" r:id="rId615" xr:uid="{F5B37620-1D7A-45F7-8FFF-B78FB9ABB686}"/>
-    <hyperlink ref="B647" r:id="rId616" xr:uid="{FBAFC4CF-1F91-48EE-AD32-70F1DCF478B6}"/>
-    <hyperlink ref="B648" r:id="rId617" xr:uid="{CBB4039D-5340-47DC-8699-AA9DD4AFBA07}"/>
-    <hyperlink ref="B649" r:id="rId618" xr:uid="{A90652EF-4F2E-4FC1-85D6-242FCB10AF02}"/>
-    <hyperlink ref="B650" r:id="rId619" xr:uid="{2B877949-11DA-4EC9-82E9-07198CC8C803}"/>
-    <hyperlink ref="B651" r:id="rId620" xr:uid="{74DAE0FB-B945-42F5-90E6-05F05F83C870}"/>
-    <hyperlink ref="B652" r:id="rId621" xr:uid="{6B31191D-682F-400B-B5E9-97887E7BE0FE}"/>
-    <hyperlink ref="B653" r:id="rId622" xr:uid="{072E4823-EBDF-4C57-A9EF-2079098716C2}"/>
-    <hyperlink ref="B654" r:id="rId623" xr:uid="{EF6968B5-C8E1-4043-9607-FB012A9A2312}"/>
-    <hyperlink ref="B655" r:id="rId624" xr:uid="{991AF5D5-4396-4426-B9AA-E50B9DABED38}"/>
-    <hyperlink ref="B656" r:id="rId625" xr:uid="{03130296-28B4-490A-96B2-6489D0C4D99E}"/>
-    <hyperlink ref="B657" r:id="rId626" xr:uid="{96B1FE20-3B7E-414F-9DFF-8F961DCAC956}"/>
-    <hyperlink ref="B658" r:id="rId627" xr:uid="{6C115C28-8F60-44A6-B3A1-1E764124E3E6}"/>
-    <hyperlink ref="B659" r:id="rId628" xr:uid="{1692B1A8-C51A-45AE-8B5E-EB7C44543BC4}"/>
-    <hyperlink ref="B660" r:id="rId629" xr:uid="{2CDBB9C2-64AA-484E-B770-500239B93E4C}"/>
-    <hyperlink ref="B661" r:id="rId630" xr:uid="{307A5A0F-47A5-419C-9623-DE63A0FC631A}"/>
-    <hyperlink ref="B662" r:id="rId631" xr:uid="{FADDB5AA-FF29-42AF-9323-C84F673F47B4}"/>
-    <hyperlink ref="B663" r:id="rId632" xr:uid="{DC0100DF-D464-426B-B745-EB4CEDB4C535}"/>
-    <hyperlink ref="B664" r:id="rId633" xr:uid="{8A33F807-EA33-430D-93E4-DA2688542EA5}"/>
-    <hyperlink ref="B665" r:id="rId634" xr:uid="{3AB78997-8F4D-466C-8030-C39EE550517E}"/>
-    <hyperlink ref="B666" r:id="rId635" xr:uid="{6625A2A6-F205-4F99-8076-DC18136440EB}"/>
-    <hyperlink ref="B667" r:id="rId636" xr:uid="{58C8098E-82FF-4315-A542-E33A3860E198}"/>
-    <hyperlink ref="B675" r:id="rId637" xr:uid="{65F7E1F3-1F4A-4454-A9A6-73014A09F76F}"/>
-    <hyperlink ref="B668" r:id="rId638" xr:uid="{9AB4139E-379F-401E-A004-06EC7E328A13}"/>
-    <hyperlink ref="B669" r:id="rId639" xr:uid="{23F27A14-5882-4C8F-BDE0-667FBB560A1A}"/>
-    <hyperlink ref="B670" r:id="rId640" xr:uid="{3B5D1B18-4080-48EB-B804-43B328568945}"/>
-    <hyperlink ref="B671" r:id="rId641" xr:uid="{FE2C893A-D5B4-43EF-AEE0-30BA29230D74}"/>
-    <hyperlink ref="B672" r:id="rId642" xr:uid="{731EA29B-113F-48A8-9FF0-85F4CDBB38C6}"/>
-    <hyperlink ref="B673" r:id="rId643" xr:uid="{C878367C-A9F5-4326-AA6E-A9BC596A2113}"/>
-    <hyperlink ref="B674" r:id="rId644" xr:uid="{F5C4CE0E-BD0C-4E0E-88FA-0196F2AD7252}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{F0F76355-FD19-4FBE-9C30-6F4DDBE55D1C}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{8BF08378-64C7-4A07-8D70-D6C3CB9B6B53}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{FEBAA360-092F-47D9-96C8-F6CB7B0627EC}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{6C70915E-006D-4EFD-A61D-B0FB5F6E700C}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{AB8A850A-8CF9-4D0F-ADAA-383EBB098137}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{2FB1636D-BC8F-4075-A315-A0F568AC47BF}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{4794E67B-F70F-44AF-ABCC-A5E4981DA3AA}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{77A1E433-C6A1-42A1-9362-81F3DF8F03C5}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{CD49D3BC-465D-4CFF-880A-507391043892}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{382DAF8D-2E03-4C02-91FE-EBDE9F1C5AC8}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{5C5208E2-1412-417B-ACBF-2B8F34671824}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{E4FF2592-4DBF-4035-9858-8F379239DA05}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{0C4ACA5F-DC21-4DFE-AA94-0B8A96AC770C}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{F56131B9-82DF-4547-91D0-864487FF98A1}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{0C151898-162B-41A3-B293-2A78D5BFD019}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{D6ECB03B-6401-4018-B5C5-4ED32508A1E6}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{EAF3525A-2400-404E-A1E4-F05FBE16E358}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{D6CCB883-E56B-41B9-9BCE-D7662F8D2772}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{E27C15DE-1ABB-4BBD-B764-935761096426}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{26271F67-978A-48C4-9E4F-1F1D404E9C9E}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{E55D02CD-3459-4432-A000-D28DF4C2AE3B}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{25298051-F65E-4965-85CD-29B300C3A7E8}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{7BC2D86C-2D8A-4BF5-A30B-5D6C906CFF02}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{39A896C1-2725-4F4F-AFFA-33498708569D}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{B655C0F7-8D23-4750-8919-24BAA18F6913}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{BEBA61B7-5487-45EE-A746-FFC471084E53}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{EF24C5DA-A356-4F20-A5E4-ACEEC7A45617}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{A1B9B4A4-F8D6-48D6-A3F0-E3C5808D33C4}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{CB6198A8-9E3F-419B-92FF-C449994F3F89}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{22F62741-BD69-4BAD-B1AE-7505431F406E}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{1855AD9C-8EA6-4435-AEFE-AC027C27232B}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{049FA447-F57A-43EF-A04D-17659D0F5884}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{F0C8DF82-682E-46F6-9855-7E66FC4B511D}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{E6B7A266-79B0-43FA-A166-685D2A30502D}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{8747E3BA-4814-4A99-888E-A2C091C9ED56}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{678C071B-78BC-495E-B81E-BA958FF90681}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{1509662D-5B6E-4CEB-BCAC-A075685753BD}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{3EAEA189-D4EF-4D03-AD7C-E49EA2BD6868}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{8868F1F2-D01B-4D22-B712-2272DF43C3A8}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{36A256FB-50FB-4894-B884-E1EA8B7686E6}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{2F13B5A1-D5BF-463D-8C90-E9531831BC02}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{70E08A2E-3A74-44BC-8AA2-B6692D0D5F83}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{DF56797C-2F3F-4C19-B9B1-0DA9DEE45472}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{4F1F803B-77BD-413E-8BFF-40F4847CB08A}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{1E2DF21D-87BD-4149-8FBA-2D9E31AA58C7}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{712F2357-F867-41AB-B264-2993CF03EE71}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{BDFE6D34-C32A-4B64-BB3B-44EB62201C8E}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{B8E98056-CDD5-41CB-B0F5-A9C2100DC6A9}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{221C089A-5B89-41EE-813B-D2207D2DAF65}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{828EB604-01A3-4689-BEB4-821EE1AAE13D}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{7BF57CD5-249D-4A68-ADA6-C0E8D01BA3A9}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{2BC5DA5B-CCB4-46B9-BBF3-1CC47A47307B}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{86BDE739-8726-4FD8-9F69-C6FD64CD1953}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{04259281-5ABB-4F0C-9375-36F1D963554B}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{6C28E718-67A1-45B0-B889-9B17CB00C9D0}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{7978D157-201C-470B-8D3D-95BBA18A1544}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{285482C0-3B45-4A06-B155-6F71517A9AD9}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{74DC7C36-71D4-4E7B-81AC-549DD16DD04F}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{BA682751-A281-4477-9E60-D1AEBDB7231C}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{0B824A6B-3A23-472B-95EC-79CDFD5527BE}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{C380CCC3-1C02-4824-BA1B-097C4DDA9B8C}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{D520614D-A857-4451-8FFF-DEDF9065BD19}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{2F944D3E-ABE4-4BD2-876B-6558A20BC1A9}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{740AB67C-6B84-4339-A9CE-AD8D44F8BFF0}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{EAEB9DDC-18BE-4DBA-A3E1-738F7376617C}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{4E6B7A6B-DA15-40B2-90FA-8784FA70C885}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{B41D0405-EA1C-4A0A-B579-680D5608CAAB}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{8DD3707E-3A06-4B56-BA5F-742F9B912CA6}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{02D47968-D6E1-4E0A-8100-2BDFF66376D4}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{9F2052E6-0246-4EE0-9B44-7AC6A21ED1EA}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{A6354465-7B3C-4B13-9D10-E5EF2DCA75A9}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{1D06087E-F102-4CB7-BB91-E64201038B03}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{DCF9B0C2-805C-48BD-BF4C-9CB9B39556DF}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{54FABBCB-4DA2-4391-8D6B-F5CE2ABDAB83}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{2419DD88-7D82-48C3-A145-60D933ADCC60}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{30A84E0E-C490-47D2-91CC-E3F625AF7A50}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{D4FCF962-8354-4AA3-8B0D-2635E1F36AFE}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{CB2EBCCF-5375-4521-A7E6-DBE14C8C4A74}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{A66B4AC8-9DDA-4BE6-9B07-3A9F1B264283}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{44925938-6B85-4AB9-A122-7AFF88004524}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{D22FD45C-1695-4F83-B06E-7B5D49E18FAF}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{C546F29C-E122-449F-BCD9-0CB571FA9DC8}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{2378AA3F-3CB7-4BD2-A231-F1B3C4F6A595}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{FBE2D98B-0BC9-4791-ACA9-9807E6A4A62B}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{B72D3E65-4B04-4907-A3D2-C6E9FC0E296D}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{D91A0240-E203-471F-A1D1-B05488D92BC2}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{E3F166C5-D47B-47BE-9C1B-816207264DB3}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{F064FD1A-00F2-4E70-9293-30419B274FD5}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{8B56DA31-7E29-459B-B85C-4B3F27E45F70}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{17DDD6F1-5FE8-4B5E-A2A7-CFB0A167648D}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{46CA3788-8CCB-4482-AFFA-4DDA821B7C14}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{886E69D1-54F5-48A1-992E-A45B46B64FB4}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{BF44B10E-8916-4095-9907-D78FF1CF7DB6}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{1E11917C-E3DA-4F88-8970-A53B00F4C301}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{9B8A7167-6323-4470-8DF9-CBD9157CB622}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{734DAD6A-4E76-4DC7-88D9-D71533A01601}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{FF7D35D4-E39A-4E0A-A6FA-9D4E121A997B}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{CB296355-A6A7-402E-9FE6-A5411B5709D5}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{C6F88B24-95BA-4786-BB94-03A9502410B5}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{27B481CF-E398-4581-B8CF-3C69B877FDF1}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{B52B8ABE-72B1-4F2B-89C1-432817B7A615}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{5629B3D4-906C-4E6C-8204-AD4B69BB53E1}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{3ABFD710-EEF3-43F0-95FA-0598F0899C8C}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{152C1CAE-14FF-4852-B539-2972D8CCA365}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{83802DA0-5189-4712-B79A-844E921DDFDE}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{E5F73323-BE3B-4FA0-8007-953D32347B22}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{64792427-D9B0-4A2E-8C3A-86BD04F7FD08}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{7E34AF8B-6FC1-4C0E-9231-60651290F86E}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{37B248CA-6969-4B51-A835-5163D41D12D7}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{F0F96FEC-4AA1-4A3B-BFC8-F782AB962BD0}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{B2ADDF28-A8A5-4875-984A-8ED1CBD0B167}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{C22C2ADD-E960-4005-9533-1907F1E323DB}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{21E8A58E-555E-48C1-B3A1-763D52C9C0F2}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{A01D2336-C1F7-4676-A5DF-F569BDB1B1F4}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{7C96F11C-A25B-4FE8-9121-8CDCBBF84967}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{06014ABD-7C68-497F-806D-AE61886A4CF3}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{8BF81719-6F2E-4537-B99E-B7C2A1409F25}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{3970203C-C373-4119-AC8E-46428459CC8D}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{78DCB16D-5762-401B-8CA3-7EF82067284E}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{8C81FC26-1958-491D-B379-B4B78863A7A5}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{0A4F6F86-E94B-4EEA-80A5-52CD88855E40}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{ECBE84B8-1F3C-443D-B7C0-B6E4716BBD6C}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{EBEE22F9-57C4-4BFD-9B61-98BBDFCE18D4}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{C4CB2395-48A5-4DA8-B397-E363EEA6C1DA}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{8D1944B5-6D8A-473F-82FB-DE3EDC721F6D}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{B6AF8CEC-E4E9-4BAC-B0E5-F8EAB8B2BACC}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{23B6CFE3-8D18-44BE-B9F1-C5602E8FC07A}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{A700E8B9-00A5-4D88-A767-4D3A58972A2B}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{152CC282-311F-4276-9028-313D4969321A}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{A2B47AEF-28DD-48DC-94C5-5C7EC08E3813}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{4D1E4D85-AFDD-41E1-B872-BFCDAF3ECF22}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{ECEC2188-BD00-4032-A5D7-8AE9216CCA20}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{1D02FED1-7511-40C5-B0E3-C32C1972E56D}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{139C81D5-68D6-49B4-9C1E-94A899269BCE}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{66EF8F12-7E1E-4021-A9B6-ECABA465CDE9}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{DB593F2C-FCF9-4456-9D12-F617F066D3DD}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{F114ECAB-7496-48BF-A4DE-38ECC8384146}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{CA7204ED-3DF0-48B2-B748-1E589F06B93D}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{DF733640-45F6-41D4-8395-33812485D9DC}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{61B2A253-524D-45CE-8187-17DC7085EEB5}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{FE414F75-49EA-4537-BA53-055A3C8E449A}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{B8E53309-EC21-4924-8604-BC26F2C032E8}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{F825EB67-C2B9-4A94-B666-712AD5C2669C}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{3DD448A5-64A6-4853-8F4A-9979E5857099}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{16618457-F4A1-47BC-A26F-A130F9F5765C}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{DD19166E-3A81-4461-AD34-B91317CE649F}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{3B942807-51CA-4F0B-AF0E-E2F20DD6887B}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{83774FF4-BBC6-4BC1-8201-97596EA8E5CF}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{D208506C-0F8B-4E68-A4E1-BA5013090FBB}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{7C1BB334-60E8-4CF1-914C-7C59F58D5DE2}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{491AA00C-FFB6-4F0C-8A13-E8C496A6B71B}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{FBF4481E-EAF5-4A94-9EEA-BCEBE8E0840E}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{FB45E02E-FE7A-43D6-880D-9D1D5C3FF402}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{E7001B4B-D835-4D01-AB89-AB2EFCAED4B2}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{3449BA46-9027-4209-A484-3A1C130821D9}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{6C3EB1D7-A2B3-481E-9D35-FF8D2E8020C4}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{B3C39514-B3FA-4C48-848B-5B2698AA87CC}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{1AF4341D-4283-4110-A34D-714EFAEB4B0E}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{66E4AC1F-3599-40A4-9210-7756467ADCBE}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{6DB3A25D-E932-4F16-88FA-718A9176A17E}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{2DBAD320-BE76-4C57-A732-F3A1C30322B7}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{8987AB91-63D4-432A-A34E-33946BCD2A34}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{97C4DF1E-4759-4591-822E-C0C84CADFE5D}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{B8D2B42A-8DDB-4DCF-A82F-E2DC5B292F83}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{DB7A94DF-49D8-43CB-8E09-1F97B4D637BA}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{1BE7E959-3365-45DC-A8C1-AD11FFA18A6F}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{58C58BB6-D530-4535-B7AE-43C77BE04B44}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{5759EC4C-8104-4792-BE4B-7FFE99F03A7F}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{C6A76533-1CF5-438D-A4D2-DCF5F7AA6F65}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{CA09E8B2-1526-4781-8BC2-CDEFF6357FD4}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{501A1C64-1FF7-4AB4-8717-3239AC2924AA}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{A87E15BF-CE6A-4E9C-8B90-7FA55CD2531F}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{A1D88F00-98B7-4E3A-9B4C-83CD7135827D}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{37EE5E4D-F59F-446C-9FEB-205EF98C34BA}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{66A542B7-6EB1-40D3-9CCF-15435DE8B4DA}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{D9241744-0628-4899-B0B7-01D05494A835}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{B2142E64-8A04-4E00-866F-20B869EFA2C6}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{FF408A55-4A28-4668-BFC7-B17546602409}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{17A0FB2E-864E-4B8E-A26D-7E1AC47016C8}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{288749BC-6E8D-4A54-ABB7-71D95EE3FF8B}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{66A954A4-3167-4F78-8F33-A5BB1193566E}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{89FAEAAD-77FE-4D87-9147-DC7DE11456F1}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{5D163BAC-86C0-4EC1-9AE6-1D2E1F1359C0}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{9FBCA137-B4D6-4C3F-9356-9B66FDF23458}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{3AC2FFD8-BCC7-4574-B4AC-BDC4C98B2286}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{67E8C81A-6B8D-47E8-91E7-B204A4AAE621}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{C0C7EAE4-0E97-4FA4-92A4-643143B6B035}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{69BE9305-36B8-4156-96DE-5BF91EF97CAF}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{4C27151F-FE40-4E21-A0EB-BE3DF4DDC15D}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{DEDBA590-5B01-42D1-BB50-361627427516}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{E4A638DA-03A1-4323-BB5A-847FF739CA92}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{965E2893-0F7D-4ED6-804F-8E2B7C51C6B8}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{00F4205D-5142-43D7-B5BF-A40294B34B8A}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{CC1E6795-BE1E-4AE3-A332-EB67598DD038}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{A0A7AA63-33B5-4355-897B-10856EF7F7E6}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{73CC5018-4D50-4FF0-AABB-1BDFE12CD7E3}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{073263C8-A288-4C56-A9AB-A5ABC43D5ADB}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{3BBB5292-100B-4DC8-A851-B95DFB5E0348}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{38BA062F-CA55-4160-A838-B793635B45E7}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{BAD48B6D-32A0-4857-92FF-4DD5E856E463}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{E81ECA40-BDFA-4D68-9D05-0C31D92D9C09}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{11A619B0-9A55-4B50-B1C7-E6917B9221DB}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{B850923D-E241-40E3-98BE-1C6A6087F950}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{D08484DC-C45D-4968-AF37-DB24C95BB567}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{8BD39D3C-CFC6-4554-9BA4-8F68769B4E9D}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{6535B5F5-11BA-4FD2-A98D-C4CEE7205668}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{72C94E41-747D-42BF-B4B1-C86C9ED61D16}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{E79A2FFD-810F-42BB-BCE1-6E352046CEEA}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{5BFA010E-0243-4767-83D8-20950C547AD0}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{966ED2A3-2DF9-4228-B75D-274CD69FF847}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{49BF2999-2C8E-4504-8599-91635B8046A2}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{4CC67F8F-7856-4608-A37E-EC9D35898BD0}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{93CA9707-B684-41A0-BD82-E17908D62F05}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{A21E0A9A-32FD-44F5-AFDD-FFDFF079B6DE}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{B1B1D83D-CB71-408E-8CC5-877E0A4591FB}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{2CA5D902-068C-470C-AD0F-C00E55FF7573}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{9271BD7F-F062-414C-B22B-59E6FC72843E}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{BF584EB8-0249-4C49-8AEE-C76FF67F8941}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{75921E6C-B9C0-4820-A604-A8CCF90BB73D}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{7B811019-7E22-4E68-8BD4-39681D3399B7}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{84113C20-A158-4A63-A80C-75FB4123D084}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{DD706CD5-8B71-4301-95CD-2AA6383038C7}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{C13AEC1A-25D5-4C83-BD0D-7962F89CD8D7}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{8567BC4A-97A9-4EAB-8B75-197537B867AB}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{83ADC486-E6A3-4B23-BC16-3E016B6C634B}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{4C741FFF-9012-4650-AF7E-0BE3F818813F}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{66D2C0EF-8312-4D3B-B8E9-83ABD1002B66}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{FA6FCC1E-23F6-40CC-A5AD-BD96D330779A}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{063BAFB7-C37C-440D-8F64-DF5114442E5E}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{E949DA0E-4C32-40A5-8901-99A590A08447}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{A298AA6A-4DC4-42A9-B4B7-B963B476D41C}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{A315D5FB-6E72-4977-B5B0-67BBE0D825A6}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{8F8E55AF-4849-4B9E-B00C-71A34694ECFE}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{E2714ED3-2AB9-49A0-A5C8-16904105D019}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{C8984FC1-F439-4133-8F56-8788A5BEC5F2}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{0857C81F-4DC9-4DFC-865E-4BC17F852CA3}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{6AED8FAB-EC31-4533-8027-9CED27F95BA1}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{B6A7BFFE-9303-48AA-B730-A7A903BD8BE7}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{AF7C0B6C-4F36-45E2-9B06-E5CC05C8E0B6}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{33D6BBB6-7501-4928-80A6-1852E646A201}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{8BF89E23-B6D9-43A9-927A-F1A623A07006}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{4BDD2963-85CC-4FA3-A70B-20EC27F72A81}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{7286336E-87F1-4AB1-B0D6-B5D0F0C71FA7}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{94342220-F0C8-4731-8ACF-DD29DF2933B5}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{E6FAE448-B124-4AE2-A844-076DEF243783}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{77C7BF27-FC28-4434-8A90-B1F43A8EF9C8}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{E780E629-C8F4-4D9C-953E-FA11D170429D}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{B5BCBAA7-F454-4FF7-A38D-FA203965EA83}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{6AAE876D-0165-44ED-BCD6-19956A56F87F}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{F7FFDD27-E211-4BB4-83CB-CEE4BA720C5C}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{EBBFCC1A-28F7-40AF-8549-F0A46D7304F6}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{03BE8C11-9AC4-4586-8AB7-1945FDDBD70C}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{E3F636D8-18AC-4BF8-B0C6-E80A7200352B}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{397A1657-67A1-4231-B50E-776C85CC66A4}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{1D6ACCE7-5B8E-44FC-96B0-AD5A5153F4E1}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{AB2B1BBC-4D8A-45E1-A3CB-F0E8EED11DFE}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{1003114B-203F-4733-8A32-D1D64007B743}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{B7CBABD7-C68A-486D-BF20-0A9BDB6BB2D4}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{4E8A0522-CDBC-42C5-BA7D-744E67B43282}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{380B3470-7D71-4D43-BD08-B50081828464}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{CB44D8D4-E6C5-4547-B15D-D90705C1064B}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{0F8D5AFC-949B-4294-9080-887D67834270}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{C025E7C7-9DC0-4E6D-A306-CBFB244A798B}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{2DEB244C-6582-4613-9B98-F7A67A9297EE}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{4533344F-2523-4F34-A4EC-836BC977588F}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{70719609-8C0E-475A-B736-74662CE9096C}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{49A097E8-7885-4C8D-B34D-7AB6E3421661}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{D70499EB-BB74-49C4-8788-C48247B0ED0F}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{52667662-5E58-4AF4-ACB2-8C60B517148F}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{1DAFEA02-67F3-48B4-B82F-033CDBADD336}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{7D1AA8D3-ED05-4F90-834D-1DDE4946A301}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{87AD0578-FC49-49F5-B875-A728D53C998F}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{5820B2BE-0793-41BD-A1C8-600D6AFA2C70}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{A4C313B8-13B7-4E51-9685-3421E1425EDB}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{2B841A64-947B-4EA6-8547-941C4D970A5F}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{AFAFD632-6BE8-4F5D-8400-BF815B30CCB9}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{CF53DC0E-0207-445A-9E1E-DE64E8FDADC7}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{82F650BA-BE89-4C5F-85F9-774E03B97CEF}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{80D663E5-22C2-4472-BCB5-E63623A92261}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{C02573A9-8E56-4085-A471-673209029F90}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{23A03F98-B22E-4C5E-9257-C92D75756AA4}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{376910B2-23AD-453A-84B4-93D7E556FDF6}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{BB9AB4F0-278E-4673-90B7-4BF251A0772F}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{A3B62C1B-8CEB-4F66-9F7B-DFF0451E46F4}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{069CC21C-E388-4608-A0C6-7E6B893D7CB6}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{6EDB8625-2217-4658-92B3-7C462AC0CA4E}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{398081C9-BF81-418F-8D69-A048F4724885}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{0C23AF62-E70C-4D15-81CA-56D70CFCBDD2}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{F2063C60-2FD7-453C-B2E2-FCD9FC7F0B87}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{71389935-4B84-492C-880A-3109D7B2131A}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{BD12400D-4B26-4E01-A837-69A5C1C318F0}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{AB5F61A2-BEE9-4785-BD56-E874B4EC7939}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{5A114A01-6983-457E-8AD6-780DA62C994D}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{E2DDC056-0ACD-426D-9D13-11FF2A1BA632}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{4D7F5E3D-BB53-4BEF-B5C4-79EB11E2E28A}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{020795F5-7C34-4137-8B2C-37FD51FEA43B}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{6338BA95-83AC-46CB-B7B6-CAF2C4215C4A}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{B05AB341-65A8-46EF-8386-0F67D96F01C9}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{82DD14E8-DDC5-44C6-A19B-9B92C54DC76A}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{279908F0-5943-4805-BA44-EC916FD09F50}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{769186B0-FBAE-44B0-9289-ADCE6BF43089}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{A1383BEA-610F-40C3-96F1-24397AF8F84A}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{A2C4659E-F1AB-47E1-A3A1-902011E69969}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{5A2239B1-BB2A-40A6-BFB9-B8C88DC2E027}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{C163A0AF-7722-427B-A668-A7254D057A29}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{EE144B07-5655-4E2B-B2F1-9EA259A4F71E}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{80377790-6E6C-4D23-9DED-53E1C7725431}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{0DEAD6D6-22B8-4C1A-A31A-260D4525FF21}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{20D3C48F-953E-4220-BBC0-524FC2CCEC17}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{C7081424-2672-47C9-9613-F0B49FF6172A}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{E6C3948A-6A25-46DB-91D9-8E0363388863}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{055299B1-AE8B-41EF-B71F-79A15DCCC18C}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{6837D7C9-3193-493B-B4A0-F5B3B692F370}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{53C64455-C406-4745-8617-3693441B76A8}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{9BFD102F-7203-4990-97C5-AC2B69BB7141}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{1E306395-B993-406D-B45A-85F081E0567D}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{72EB3DFE-8FCF-4399-84F1-58E9A91192BD}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{13248B4C-EBDF-45EA-827F-F06590961CF1}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{A84655CB-57F7-4A0F-955A-708E33CC942B}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{72E822C9-D7C3-44CB-892C-33D72BE6C357}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{EBD02461-2558-455F-9BD4-A0C86DD3211A}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{96099F26-0E9A-44B7-8F4A-6374E6FE6206}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{B6C8CAED-44F4-47D2-8703-5EE2429D805B}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{0FF612D0-6910-428A-AFEE-070377923771}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{D83C5C18-0E40-4B3B-A092-1025BEBC8C6C}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{FB5B813A-4584-48F0-8793-2B7CC9BDC021}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{978B778F-0C6C-4E59-97BD-76FBFCC7F5F6}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{C96BF98F-0C6B-4D3A-B845-288E3E7388AD}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{9D6E3799-AE96-4074-A4CD-9B4961D09233}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{FC09877D-B076-4110-BC29-B60BEDD48EEE}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{EC213A36-C649-4BB5-B4E3-D92603B0086D}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{045679CE-1A83-4543-802C-A7C1D46E7D1E}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{09909EC8-11B9-4A2B-84F4-8CF8200F6657}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{23489685-53DA-4F22-BBE4-9897C4DA82BB}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{0A419E92-4C59-4DDE-8161-1CE7B5F9076F}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{C76FC733-4AA4-4502-BC6D-326DAB269BBC}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{20BF6E63-CD83-463B-B4E2-53E6745EEFE1}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{FBC0A211-6A18-40D4-9B64-D4EAF33FFED8}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{05012F1D-8774-47E7-85FA-9D7ED8B94E38}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{D3CCAEF9-DC4B-4ED8-8397-0DDFDB0B5793}"/>
+    <hyperlink ref="B366" r:id="rId341" xr:uid="{22ECEDBF-16A5-47DD-9EDE-F50AAA4D29BD}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{809DA6FD-0BFE-49BD-9AB4-FC3D8A2C8B91}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{D4D2431C-6C81-4AA5-ACAD-843A077861A3}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{86194927-ABAE-48B8-87B5-0FC67A826B11}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{F4AA0FC0-BAAC-42BB-A83C-857E4B9141EF}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{9453EDD6-D7A7-453D-97D8-6E1DDBD367B7}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{A5CE997F-DE05-4466-AEE5-3A5E10D2FBFC}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{CD5F89CF-5D8C-410D-AF4E-9879F9607557}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{4F7EE393-789D-44D7-96B4-9E1E464DD6E5}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{15438167-C0B6-4E7E-B91F-FAC6E73E5ACB}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{66549014-5DE8-4B70-997C-8F2D09A0E00A}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{85F21768-E3F7-4306-A8BB-1AA20D7FCFB7}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{4764E2B8-617D-4109-B33C-B3E7F2B6F3EC}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{B2AD0B97-66B8-43A6-A066-0887885FFC46}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{5BCE1FB9-15BD-4920-9D01-0C685E29B9AA}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{89FC591C-2F20-4922-A268-D3E42A708994}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{71CF22A9-BC14-4442-8D49-8F3655FC9F42}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{E8C42125-8D39-433C-A5CC-22191BD96F4E}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{7A1735B6-CEF1-42E1-B25F-F7F70453EB27}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{635DB01C-D938-4F72-913B-F6A5FCA425FD}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{62071E69-7FAE-4128-BEA4-7807701CDE1A}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{A4821E43-EC8A-4725-BE09-72818B41E302}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{73202DD1-092B-46DF-9085-775513CAC560}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{BECF34F2-9D08-4F62-BA4C-4DA2E11B54C6}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{EFC4A172-92F3-4D0A-9CFF-43D782A341DE}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{F27F7725-B5BD-4A1E-AE1C-DC265A525079}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{FFD4A421-D9E2-45C7-9348-54A694F2774C}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{97BCFEE1-757A-423B-8B9F-5080C89C072D}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{697BDC55-26E1-4675-9E5A-AF9CF2AF92D4}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{B1734737-A244-4611-B9CA-451A0B635D93}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{84CE4F69-428E-406F-B89B-C2BD01C561EB}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{64F90AD1-B12D-411D-B615-F4199B4DD255}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{EA127D38-34C9-4BBD-88E1-69A5D7C1E9D2}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{8462AFB5-8B99-40D0-8461-CB781427672F}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{CBB18AB5-D638-4C33-ABA1-E98EB50C0184}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{202F0CFB-1E36-4BA9-BD3D-DC2B40446607}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{CD0D5838-3E77-460B-9D16-961705E3776F}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{DF00D6D2-2D1C-444F-9676-A602C9490DC2}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{57BF2ED8-80B5-49F7-B050-7C63177B6F21}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{9699E856-F65C-4583-9C77-C2C9567DC71A}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{39C7C598-1D20-4F87-B991-F16A408E0E8B}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{72C92DD1-0F54-4F3A-A673-8688F18778A8}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{0CF46EAC-4593-40B6-9534-FCD31DB1E74F}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{B92E229B-D839-4C43-9C63-8D9B6FB2F324}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{853019C9-0138-4549-B9B9-D19F3EAD80D9}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{71117B49-E67A-4FF7-A60E-E1375A84EB84}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{243A2652-60FD-4A2B-A834-4B4D3C522F1E}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{CF623646-C6B1-4367-A594-89E9909AE118}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{A811D399-697E-4AA8-8466-AE1B12C4F019}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{C96CC481-3AEA-4E00-88A8-331075695473}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{54AD6E75-22FA-463C-9E45-423856D3B918}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{57F3ECCE-B30E-4A96-A075-9F8A3C4A09CD}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{8DD6A42E-FBE1-4546-82E8-FC572866FA2D}"/>
+    <hyperlink ref="B425" r:id="rId394" xr:uid="{96D9D18C-A7D6-4BE8-9979-058E450C9B6D}"/>
+    <hyperlink ref="B424" r:id="rId395" xr:uid="{C0E12233-C3E2-4E9C-A3CF-DA439EA0EBAA}"/>
+    <hyperlink ref="B423" r:id="rId396" xr:uid="{55A3EA42-F5B5-4394-B550-B0F6463646BA}"/>
+    <hyperlink ref="B422" r:id="rId397" xr:uid="{9CFD4E87-370E-43FE-BD81-01D2E8F95286}"/>
+    <hyperlink ref="B421" r:id="rId398" xr:uid="{AE848D80-5BB4-4634-976E-67702B0EACA2}"/>
+    <hyperlink ref="B420" r:id="rId399" xr:uid="{7089FD46-57DF-4896-B1C9-9E62008A5914}"/>
+    <hyperlink ref="B419" r:id="rId400" xr:uid="{57850E8F-FF42-4F80-9274-C72344605AA4}"/>
+    <hyperlink ref="B418" r:id="rId401" xr:uid="{4277EA9D-6658-41D3-A6CE-C63D99E50A4F}"/>
+    <hyperlink ref="B432" r:id="rId402" xr:uid="{CF092722-6A78-48AE-BEF0-512BDBB4A7F7}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{348002B5-5927-4FB5-ADA4-F2C3B8520A41}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{E6DC2078-7867-4019-A87E-2798DC9A15F8}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{F87CF087-F432-4F0B-8E80-8629185EE42C}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{F462ED72-58C4-4C24-9458-4A0502B4D656}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{83E44671-F5EC-4365-958E-FC8ADA55A295}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{A6271FC7-348F-4032-A6D5-6863BC70F648}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{C9BF6EBC-C349-4350-971C-906941A6C270}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{1681ED76-64E5-4FBA-BD4A-93EA51E68076}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{5075A02B-DAE1-410E-855B-65A463FC4FC1}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{CE9F29CA-75BF-4CA5-9178-50C3E95E1C41}"/>
+    <hyperlink ref="B459" r:id="rId413" xr:uid="{05F2FC70-999B-4C07-80DB-02A169708602}"/>
+    <hyperlink ref="B458" r:id="rId414" xr:uid="{4F107717-B433-413C-93D9-FA4D1553198E}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{834503D7-E374-4803-8F89-226F715F3E05}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{0857DEFB-25F3-4C26-95D3-42C8F6E04DFC}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{6845EECB-C989-448D-84EF-17F1818C302A}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{3ECAB35A-E60F-4DED-9152-69A07F4F8825}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{6A331927-441D-43DC-898A-07F5531B61A7}"/>
+    <hyperlink ref="B452" r:id="rId420" xr:uid="{6512FA8F-EB03-4839-BA4C-9AB9A0FA5A2A}"/>
+    <hyperlink ref="B451" r:id="rId421" xr:uid="{6CE8C2CE-9440-449C-AD64-CABCAD466E54}"/>
+    <hyperlink ref="B450" r:id="rId422" xr:uid="{8AE66385-CCEB-423D-9A4A-DF38E403D3EF}"/>
+    <hyperlink ref="B449" r:id="rId423" xr:uid="{9FB863AE-1F86-4C54-A289-9257194150A3}"/>
+    <hyperlink ref="B448" r:id="rId424" xr:uid="{FDCAC648-CA89-4A47-B4FF-7BBEC937C1AC}"/>
+    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{4D15D9D1-5107-40F2-87D8-90C1783B8098}"/>
+    <hyperlink ref="B446" r:id="rId426" xr:uid="{BE4CD34A-8C30-47DD-B543-38E7D0F475BC}"/>
+    <hyperlink ref="B445" r:id="rId427" xr:uid="{23EE4FB8-3236-4E94-9331-D3EC54D7A7B6}"/>
+    <hyperlink ref="B444" r:id="rId428" xr:uid="{EBD095F1-37C6-4DBA-B2A8-CAE87DA5047C}"/>
+    <hyperlink ref="B443" r:id="rId429" xr:uid="{84BD8A53-997C-40F1-B675-14F8F5E401E0}"/>
+    <hyperlink ref="B442" r:id="rId430" xr:uid="{68A6270E-7FBE-47D3-96A3-ABEE34816377}"/>
+    <hyperlink ref="B441" r:id="rId431" xr:uid="{CC374B22-AB78-4E22-A52C-84CE75DA922E}"/>
+    <hyperlink ref="B440" r:id="rId432" xr:uid="{653CF3BD-E632-4BEE-9CB6-E0674ECC30CE}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{DFA268CD-D1A3-48CA-9802-BE8FB64B5DB5}"/>
+    <hyperlink ref="B511" r:id="rId434" xr:uid="{D561C45D-CA33-474C-90B7-B6F3C513F63B}"/>
+    <hyperlink ref="B510" r:id="rId435" xr:uid="{CA37AFBF-EAA8-4A5C-AD78-FB9F226FB924}"/>
+    <hyperlink ref="B509" r:id="rId436" xr:uid="{F0AD00BC-3C59-47F7-ABE0-C0B45AED9C7C}"/>
+    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{795CA8D2-3E1A-43E0-85BE-9BAD689B5C2E}"/>
+    <hyperlink ref="B507" r:id="rId438" xr:uid="{3CDB03B4-1607-4EDE-937A-D1C23015DF72}"/>
+    <hyperlink ref="B506" r:id="rId439" xr:uid="{78B680B0-4FEE-4227-A96C-80B70138CA6B}"/>
+    <hyperlink ref="B504" r:id="rId440" xr:uid="{C510A987-F05C-4739-829D-E48451CF0A9E}"/>
+    <hyperlink ref="B503" r:id="rId441" xr:uid="{94840795-5511-4022-B479-E6EF513F5DB9}"/>
+    <hyperlink ref="B502" r:id="rId442" xr:uid="{71CC5B4A-6B4C-440B-BC57-ACB1EB6A486E}"/>
+    <hyperlink ref="B501" r:id="rId443" xr:uid="{6A89C0D1-48F7-486D-91A8-A270300F9C77}"/>
+    <hyperlink ref="B500" r:id="rId444" xr:uid="{C032C659-7E0E-430A-A0C6-C01177467B96}"/>
+    <hyperlink ref="B499" r:id="rId445" xr:uid="{FEBF54C3-C405-47EA-B0ED-0ECAA011FFB3}"/>
+    <hyperlink ref="B498" r:id="rId446" xr:uid="{997F8B67-E7D1-41F0-85B0-4DCB8A8E52CB}"/>
+    <hyperlink ref="B497" r:id="rId447" xr:uid="{00711E95-9220-45E8-9D03-C34E7EF45623}"/>
+    <hyperlink ref="B496" r:id="rId448" xr:uid="{C6530554-D9E7-44D1-BCF9-552CD592BF15}"/>
+    <hyperlink ref="B495" r:id="rId449" xr:uid="{4A98975A-B742-4142-B459-CB8186560BC5}"/>
+    <hyperlink ref="B494" r:id="rId450" xr:uid="{4419F42D-7D09-47B0-9821-8E1F2A5B90E3}"/>
+    <hyperlink ref="B493" r:id="rId451" xr:uid="{6C3BBBF0-D78E-4DE1-B730-696A83C30BCD}"/>
+    <hyperlink ref="B492" r:id="rId452" xr:uid="{FC63AF24-AB89-494C-BAC9-13A76E26BCDC}"/>
+    <hyperlink ref="B491" r:id="rId453" xr:uid="{E94F8581-A37A-470B-8717-388CD16F2226}"/>
+    <hyperlink ref="B490" r:id="rId454" xr:uid="{690A78FD-4574-4EE9-A712-F8CA5362E1E8}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{71AE976B-AABE-4B98-ADE1-10FD7A5A63F4}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{5B1B7A2D-48B4-446E-A9E1-E6D18E1F19D6}"/>
+    <hyperlink ref="B487" r:id="rId457" xr:uid="{EB02652F-9D89-47A7-82CA-802666758B57}"/>
+    <hyperlink ref="B486" r:id="rId458" xr:uid="{6185ADB2-80F1-4C6A-BCCA-C6CAB0F9208C}"/>
+    <hyperlink ref="B485" r:id="rId459" xr:uid="{43651DD5-7341-4B4D-BE15-78CCF0191088}"/>
+    <hyperlink ref="B484" r:id="rId460" xr:uid="{E794518F-DC48-4E23-9391-504430ED1B4F}"/>
+    <hyperlink ref="B483" r:id="rId461" xr:uid="{11BB454D-8FB3-4C1E-BEEA-AABAB8B430B1}"/>
+    <hyperlink ref="B482" r:id="rId462" xr:uid="{A2CE75F6-8431-439C-B666-A0E8BB913E04}"/>
+    <hyperlink ref="B481" r:id="rId463" xr:uid="{C812B37C-D450-44CD-811D-A013A0039417}"/>
+    <hyperlink ref="B480" r:id="rId464" xr:uid="{0D6C2B95-7955-41F0-8C2C-D6DA2EA772DB}"/>
+    <hyperlink ref="B479" r:id="rId465" xr:uid="{EAE4D1A5-B37F-4EA2-92A7-9A52B5ECD73E}"/>
+    <hyperlink ref="B478" r:id="rId466" xr:uid="{BE822105-3C4F-400B-89D1-A7CEE8F93598}"/>
+    <hyperlink ref="B477" r:id="rId467" xr:uid="{76CBEC09-4C37-494F-9FE3-3D9350472D47}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{C947307D-2D9A-4CE7-844F-B9EEF1A65224}"/>
+    <hyperlink ref="B474" r:id="rId469" xr:uid="{EB7B793B-893F-4F2D-933F-3D363C0193B2}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{BA25884C-3F6B-4F3E-8047-FD4FCB0EDA96}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{3F4F9F14-5F5E-4AD3-84BD-AA36273E7EBB}"/>
+    <hyperlink ref="B473" r:id="rId472" xr:uid="{ACDE36A6-9BD0-438A-8C87-49982BF6A7F3}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{5498048C-A2C7-4E82-BDB5-AFBB0F40EBF7}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{6B36C766-2FEF-40B3-A25A-DA718A9F38F6}"/>
+    <hyperlink ref="B470" r:id="rId475" xr:uid="{F6ED111F-837A-4DE3-B1B1-0725D9B92EBD}"/>
+    <hyperlink ref="B468" r:id="rId476" xr:uid="{48972D12-2307-4189-A70C-FCB48AB34A17}"/>
+    <hyperlink ref="B467" r:id="rId477" xr:uid="{64812BB7-1A4D-4D8A-8728-68AA3140F097}"/>
+    <hyperlink ref="B466" r:id="rId478" xr:uid="{DB615B0A-2BE9-4212-96C1-40851F8E2E5C}"/>
+    <hyperlink ref="B465" r:id="rId479" xr:uid="{AF1CBF4B-AD16-4688-8F56-ABDD21CD9D55}"/>
+    <hyperlink ref="B464" r:id="rId480" xr:uid="{29A5EF03-A9F5-44D9-AC47-E1EEC7D9161F}"/>
+    <hyperlink ref="B537" r:id="rId481" xr:uid="{228BB143-DB63-43C6-AC91-5998030A0042}"/>
+    <hyperlink ref="B536" r:id="rId482" xr:uid="{FBAE8AFD-F43B-4119-847E-919EC68154C9}"/>
+    <hyperlink ref="B535" r:id="rId483" xr:uid="{7AE733EE-02AA-4345-9AC5-D3864FCC7D9E}"/>
+    <hyperlink ref="B534" r:id="rId484" xr:uid="{8244ADBD-5604-4798-8487-5F0EF85687AD}"/>
+    <hyperlink ref="B533" r:id="rId485" xr:uid="{718D5851-9BBB-417F-896C-FE43D16F3A4D}"/>
+    <hyperlink ref="B532" r:id="rId486" xr:uid="{C83ECC66-E854-486D-B085-8332E62DD986}"/>
+    <hyperlink ref="B531" r:id="rId487" xr:uid="{6C70E121-52A7-4A4E-A981-37B0657D8593}"/>
+    <hyperlink ref="B530" r:id="rId488" xr:uid="{7975C059-3D69-4EFC-B0F0-438B597DD02B}"/>
+    <hyperlink ref="B529" r:id="rId489" xr:uid="{CBFFD9F9-1924-4578-852C-E4E4D4F6B784}"/>
+    <hyperlink ref="B528" r:id="rId490" xr:uid="{2CD2CD1B-9C3C-4C7D-AFED-06B79C468792}"/>
+    <hyperlink ref="B527" r:id="rId491" xr:uid="{34BC4919-6511-427E-8554-175CC64515BB}"/>
+    <hyperlink ref="B524" r:id="rId492" xr:uid="{61AD4126-D97B-47F8-91B1-D347C06190F4}"/>
+    <hyperlink ref="B523" r:id="rId493" xr:uid="{92B7BAA5-78A6-4EF6-A500-A32787041C04}"/>
+    <hyperlink ref="B522" r:id="rId494" xr:uid="{44554CD3-F819-413A-BB9F-BE303DE89A3B}"/>
+    <hyperlink ref="B521" r:id="rId495" xr:uid="{65BE9D41-7F81-45F5-AE54-625C7DAB520E}"/>
+    <hyperlink ref="B520" r:id="rId496" xr:uid="{D85877B4-CFCA-4026-BCB4-63E459574961}"/>
+    <hyperlink ref="B519" r:id="rId497" xr:uid="{005B0257-32FC-445C-B04B-A169A826F408}"/>
+    <hyperlink ref="B518" r:id="rId498" xr:uid="{D27E911E-1D37-424A-BFEA-E4451C78B9D3}"/>
+    <hyperlink ref="B517" r:id="rId499" xr:uid="{8D3E7F9E-C098-4D93-9017-8967CC59BF2C}"/>
+    <hyperlink ref="B516" r:id="rId500" xr:uid="{A9AE53DD-DBF0-49E7-BC43-F701E306B6D0}"/>
+    <hyperlink ref="B515" r:id="rId501" xr:uid="{8683FFDA-503B-497B-B944-3D38D3359335}"/>
+    <hyperlink ref="B514" r:id="rId502" xr:uid="{363CA635-6CB9-4D85-A1E0-D9885D98C55E}"/>
+    <hyperlink ref="B513" r:id="rId503" xr:uid="{3AE4B690-DA63-4D10-B812-049DF588F74E}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{A3B9133D-B68C-4F2D-9D64-EE4ADBE23AD7}"/>
+    <hyperlink ref="B525" r:id="rId505" xr:uid="{5845F5F8-673B-48BE-9C8A-BE5879ABE930}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{8634DB74-BA23-433F-A843-942C0D050C46}"/>
+    <hyperlink ref="B566" r:id="rId507" xr:uid="{FAB2511C-8DCB-4669-A411-7EA8620D9CAA}"/>
+    <hyperlink ref="B565" r:id="rId508" xr:uid="{C8A1AB53-CED8-43BB-91D5-EEBAF993023A}"/>
+    <hyperlink ref="B564" r:id="rId509" xr:uid="{7B1FAE2B-B68E-4260-AEA6-8774672D8DCD}"/>
+    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{3CB17845-F4A1-4D58-8DA5-077BEBCE08AF}"/>
+    <hyperlink ref="B562" r:id="rId511" xr:uid="{413E4171-74EE-4C79-A3DB-DDB5D8E1F7EC}"/>
+    <hyperlink ref="B561" r:id="rId512" xr:uid="{D4E8392B-C517-4CBF-A301-3BD3112D161E}"/>
+    <hyperlink ref="B560" r:id="rId513" xr:uid="{636C72CA-08F6-4A45-B124-22D926ADECA6}"/>
+    <hyperlink ref="B559" r:id="rId514" xr:uid="{8A56649D-B93E-461A-B79B-063018C853B8}"/>
+    <hyperlink ref="B558" r:id="rId515" xr:uid="{97505C90-A371-4474-9A2A-8293E04B64E0}"/>
+    <hyperlink ref="B557" r:id="rId516" xr:uid="{F079E6C8-7B42-4EA5-8E41-C2D545CFEA0C}"/>
+    <hyperlink ref="B556" r:id="rId517" xr:uid="{9170BD36-4F2C-49AB-8159-5778219DC88E}"/>
+    <hyperlink ref="B555" r:id="rId518" xr:uid="{B4CE2D92-3CAA-4F41-8FCB-BD961753D51B}"/>
+    <hyperlink ref="B554" r:id="rId519" xr:uid="{09D4249F-FA28-487E-B888-A881E11C563B}"/>
+    <hyperlink ref="B553" r:id="rId520" xr:uid="{97E5F5BF-418E-4F3D-B29A-D444ABA57A21}"/>
+    <hyperlink ref="B552" r:id="rId521" xr:uid="{DF7325AA-63CC-4657-9132-DE7E8C6A8E89}"/>
+    <hyperlink ref="B551" r:id="rId522" xr:uid="{A3A8A934-BED5-4E3F-903F-E31C090BAEE3}"/>
+    <hyperlink ref="B550" r:id="rId523" xr:uid="{9BFD0F6C-327B-48BB-A5D2-D2011DBFDAC3}"/>
+    <hyperlink ref="B549" r:id="rId524" xr:uid="{7681A327-5BDC-4067-9E9C-60EA3B20D099}"/>
+    <hyperlink ref="B548" r:id="rId525" xr:uid="{180D2675-F6D3-49D8-BF3F-E47E0AEAC09E}"/>
+    <hyperlink ref="B547" r:id="rId526" xr:uid="{CD10BEA2-38F6-4AA2-AFDD-87468CCCA9E2}"/>
+    <hyperlink ref="B546" r:id="rId527" xr:uid="{3F3F688A-42FE-4DE4-8270-E30D266BEE1B}"/>
+    <hyperlink ref="B545" r:id="rId528" xr:uid="{6C1075CF-3FF9-412B-B72A-E7595149A072}"/>
+    <hyperlink ref="B544" r:id="rId529" xr:uid="{8367117F-2994-4A3C-90EC-B63B8239CA69}"/>
+    <hyperlink ref="B543" r:id="rId530" xr:uid="{4901C466-FF20-4651-BB53-3BCABFB7497C}"/>
+    <hyperlink ref="B542" r:id="rId531" xr:uid="{36BDC2C3-FB79-4D36-8E86-EA4D85C8A5C2}"/>
+    <hyperlink ref="B541" r:id="rId532" xr:uid="{B37807F9-E1DF-45EB-BC1D-49D6AC3A1388}"/>
+    <hyperlink ref="B540" r:id="rId533" xr:uid="{7882CFB3-41BB-4A13-898E-6E7C8C684BFF}"/>
+    <hyperlink ref="B539" r:id="rId534" xr:uid="{5BCC1FA9-60BE-4F8A-B405-0F34A6FC17E6}"/>
+    <hyperlink ref="B538" r:id="rId535" xr:uid="{D1937880-E690-47C6-86EC-A4C5283D15FF}"/>
+    <hyperlink ref="B575" r:id="rId536" xr:uid="{A1708D30-D31D-4C6A-AD4E-230F8D7D0B8B}"/>
+    <hyperlink ref="B574" r:id="rId537" xr:uid="{35FD5C7B-CEB8-4B0C-9D6E-AE0D4254EA34}"/>
+    <hyperlink ref="B573" r:id="rId538" xr:uid="{A748742A-01B3-4DF0-B3D8-C76D0C4F9F38}"/>
+    <hyperlink ref="B572" r:id="rId539" xr:uid="{589A1FF7-F995-4639-9A2F-A8A14ACB246E}"/>
+    <hyperlink ref="B571" r:id="rId540" xr:uid="{6722589C-AA98-419D-9098-7E25DDF1E647}"/>
+    <hyperlink ref="B570" r:id="rId541" xr:uid="{2180DCE6-65EA-4150-9102-752AADB9B0A6}"/>
+    <hyperlink ref="B569" r:id="rId542" xr:uid="{06EAB9B2-B85C-4BA3-9866-A4123DF38CC7}"/>
+    <hyperlink ref="B568" r:id="rId543" xr:uid="{0D0F91EB-4C7A-43C9-B9B8-5E9C1D382586}"/>
+    <hyperlink ref="B567" r:id="rId544" xr:uid="{2DDCCECE-924E-4736-8103-5FA076DF05A9}"/>
+    <hyperlink ref="B586" r:id="rId545" xr:uid="{FFC4AF3A-68C6-419A-AB95-F838976F0FB4}"/>
+    <hyperlink ref="B585" r:id="rId546" xr:uid="{66A8DDBF-F26C-4741-89CD-F2A6B7809DC0}"/>
+    <hyperlink ref="B584" r:id="rId547" xr:uid="{7EBDDBAB-6CF1-4EFE-91AF-DD1395C49609}"/>
+    <hyperlink ref="B583" r:id="rId548" xr:uid="{7B8D0E13-A092-4BA7-994D-69705AF7C451}"/>
+    <hyperlink ref="B582" r:id="rId549" xr:uid="{C12548C0-6A9D-4A45-A80F-876691870A4F}"/>
+    <hyperlink ref="B581" r:id="rId550" xr:uid="{77F01D9F-A6BB-48F4-BD35-3FC17AECD0AD}"/>
+    <hyperlink ref="B580" r:id="rId551" xr:uid="{A46EA73A-34A0-4CEA-A86B-C0A7A53F840C}"/>
+    <hyperlink ref="B579" r:id="rId552" xr:uid="{01D4BBB8-3DD5-4A8D-A390-FB06F7611AF0}"/>
+    <hyperlink ref="B578" r:id="rId553" xr:uid="{A3201918-A635-44BB-9922-8117D87E3290}"/>
+    <hyperlink ref="B577" r:id="rId554" xr:uid="{3E44434F-B369-4F87-AF90-16716F8E7F05}"/>
+    <hyperlink ref="B576" r:id="rId555" xr:uid="{734D0EC0-66E3-464C-973D-37FF4D2E9D73}"/>
+    <hyperlink ref="B587" r:id="rId556" xr:uid="{5CE7C9FA-F791-4DF8-9904-DA4221D78040}"/>
+    <hyperlink ref="B588" r:id="rId557" xr:uid="{61861C95-9C07-4705-8643-3136609920BA}"/>
+    <hyperlink ref="B589" r:id="rId558" xr:uid="{DAE8B212-69A9-475E-A796-2C24967C1034}"/>
+    <hyperlink ref="B590" r:id="rId559" xr:uid="{C08B6ED2-D707-4E40-AD06-60E85E679A5F}"/>
+    <hyperlink ref="B591" r:id="rId560" xr:uid="{95123943-24E7-4EDA-A580-65BBECB56B5C}"/>
+    <hyperlink ref="B592" r:id="rId561" xr:uid="{D928853B-4F1D-4B63-B23D-3A7B7A6590B7}"/>
+    <hyperlink ref="B593" r:id="rId562" xr:uid="{DD4F2CD9-1A0D-4604-AF83-ECCBBE176E74}"/>
+    <hyperlink ref="B594" r:id="rId563" xr:uid="{DFB821C3-D6E9-4070-A0CA-A968795B7EA4}"/>
+    <hyperlink ref="B595" r:id="rId564" xr:uid="{75E534CE-3C15-4C64-9923-9160E17604B8}"/>
+    <hyperlink ref="B596" r:id="rId565" xr:uid="{CFCED20F-8016-4B7C-9137-D086EEFA3156}"/>
+    <hyperlink ref="B597" r:id="rId566" xr:uid="{45F4D320-55FF-405A-9BB0-393CD50F9343}"/>
+    <hyperlink ref="B598" r:id="rId567" xr:uid="{CF0F514C-1297-499F-92B4-098578390B44}"/>
+    <hyperlink ref="B599" r:id="rId568" xr:uid="{63AE43E0-FD06-4A34-AA48-69F587B7A37D}"/>
+    <hyperlink ref="B600" r:id="rId569" xr:uid="{79711300-F037-427F-969A-5CAA41657EA3}"/>
+    <hyperlink ref="B601" r:id="rId570" xr:uid="{1B375AB5-968B-4ACB-8168-B71DAE9411EE}"/>
+    <hyperlink ref="B602" r:id="rId571" xr:uid="{F2F15D2E-EBA8-4965-B9C6-9569720EBED1}"/>
+    <hyperlink ref="B603" r:id="rId572" xr:uid="{483C80F0-3244-4F38-B688-3C71C95C23A6}"/>
+    <hyperlink ref="B604" r:id="rId573" xr:uid="{998CF521-D195-4BA0-9C20-58DC8C38B4E7}"/>
+    <hyperlink ref="B605" r:id="rId574" xr:uid="{879D5D14-CF48-42E9-87C4-369B628EB083}"/>
+    <hyperlink ref="B606" r:id="rId575" xr:uid="{8FB4D899-26A0-4D3B-9D12-00D0FA89FA0E}"/>
+    <hyperlink ref="B607" r:id="rId576" xr:uid="{4AF17D1A-C776-440C-AF53-7E90CE18EF5A}"/>
+    <hyperlink ref="B608" r:id="rId577" xr:uid="{DDC77E15-65CB-4483-9B3E-F92C209AAB83}"/>
+    <hyperlink ref="B609" r:id="rId578" xr:uid="{309ECD9E-4E6E-4960-A35C-DCC355FE19CB}"/>
+    <hyperlink ref="B610" r:id="rId579" xr:uid="{A63A2723-0288-4BB9-B286-1AC74696147D}"/>
+    <hyperlink ref="B612" r:id="rId580" xr:uid="{B5BB754B-6D77-476C-8046-4AA7B96F0678}"/>
+    <hyperlink ref="B613" r:id="rId581" xr:uid="{C167E42A-4A8F-469E-A742-F1CA4F315778}"/>
+    <hyperlink ref="B614" r:id="rId582" xr:uid="{17338571-39B8-4D52-911E-AF36C2672E23}"/>
+    <hyperlink ref="B615" r:id="rId583" xr:uid="{7FB3DF3C-D3B4-4C99-8B02-9FD61B068BF3}"/>
+    <hyperlink ref="B618" r:id="rId584" xr:uid="{F9EE95EA-316C-4192-92B7-AF3275275391}"/>
+    <hyperlink ref="B619" r:id="rId585" xr:uid="{C3EC3522-0F5F-4787-A4CB-5C6C0CD70A14}"/>
+    <hyperlink ref="B620" r:id="rId586" xr:uid="{99548E33-4C3C-4CC8-B18D-D316B5F4C398}"/>
+    <hyperlink ref="B621" r:id="rId587" xr:uid="{01F147AC-296E-4293-9E8F-C820509E5C25}"/>
+    <hyperlink ref="B622" r:id="rId588" xr:uid="{EDA844CA-DA11-43BD-A93C-A6587465C5CC}"/>
+    <hyperlink ref="B623" r:id="rId589" xr:uid="{CAF99324-DCBC-4317-9657-4C4791B70EF0}"/>
+    <hyperlink ref="B624" r:id="rId590" xr:uid="{4372E215-C473-417D-ABA4-CF19C34891B4}"/>
+    <hyperlink ref="B625" r:id="rId591" xr:uid="{5DE16D0E-6214-42D3-9035-D2BE8EAC8D8A}"/>
+    <hyperlink ref="B626" r:id="rId592" xr:uid="{394683DB-3A9A-4524-A93B-5F7B36A859A0}"/>
+    <hyperlink ref="B627" r:id="rId593" xr:uid="{08A90C12-072C-404A-9D64-1448FA75004C}"/>
+    <hyperlink ref="B628" r:id="rId594" xr:uid="{61C4677D-3445-41A3-BDA1-8AEB00C61B03}"/>
+    <hyperlink ref="B629" r:id="rId595" xr:uid="{F483FF89-8C90-4E40-89AA-0F8E0F554910}"/>
+    <hyperlink ref="B630" r:id="rId596" xr:uid="{D62E163D-5C8D-4DB9-B2A2-F8FB5C183DC5}"/>
+    <hyperlink ref="B631" r:id="rId597" xr:uid="{A9A6B426-DE30-4A6F-8D79-2A04003AF841}"/>
+    <hyperlink ref="B632" r:id="rId598" xr:uid="{BF71BC06-1705-454D-9BD3-7A6A7751CC7A}"/>
+    <hyperlink ref="B611" r:id="rId599" xr:uid="{CF9D4D41-2388-49A5-B119-684E0CAADB58}"/>
+    <hyperlink ref="B616" r:id="rId600" xr:uid="{20A7EF04-2D83-4EA7-9C51-9AF89AA1A9F9}"/>
+    <hyperlink ref="B617" r:id="rId601" xr:uid="{E9036764-F6FE-4E73-A479-CFBE0ADF1BA9}"/>
+    <hyperlink ref="B633" r:id="rId602" xr:uid="{AA80CED2-153A-4C71-BA7D-64AE0D698178}"/>
+    <hyperlink ref="B634" r:id="rId603" xr:uid="{77F0C36B-5B3B-44A8-9221-BD990DEF30B9}"/>
+    <hyperlink ref="B635" r:id="rId604" xr:uid="{BB6D82BB-50F8-42F5-AB13-C31BDDF35A6A}"/>
+    <hyperlink ref="B636" r:id="rId605" xr:uid="{ECBEA448-EF6E-44E7-952D-1F79D994E484}"/>
+    <hyperlink ref="B637" r:id="rId606" xr:uid="{C26E5D0F-ABE5-456E-8A3E-B06F433DA8B8}"/>
+    <hyperlink ref="B638" r:id="rId607" xr:uid="{73F01F6F-FAB4-4B16-B803-D03D9E567CE4}"/>
+    <hyperlink ref="B639" r:id="rId608" xr:uid="{8B786026-D9DA-44C4-B0F4-79036C9C241B}"/>
+    <hyperlink ref="B640" r:id="rId609" xr:uid="{1D22B18A-7B08-491E-877E-C66B705F9345}"/>
+    <hyperlink ref="B641" r:id="rId610" xr:uid="{B8BB4CC6-102D-47B5-962A-D0A7ECF1444E}"/>
+    <hyperlink ref="B642" r:id="rId611" xr:uid="{EB20277C-6AB3-4990-A933-9CBFAD255B21}"/>
+    <hyperlink ref="B643" r:id="rId612" xr:uid="{3104435E-A34F-4C5C-AA97-7D9A5A252D31}"/>
+    <hyperlink ref="B644" r:id="rId613" xr:uid="{828BEA4E-5F17-4C3B-8A23-9EB416C26A3C}"/>
+    <hyperlink ref="B645" r:id="rId614" xr:uid="{4CEE22D6-BF25-41B5-8528-C84D282B35B1}"/>
+    <hyperlink ref="B646" r:id="rId615" xr:uid="{F369744E-C712-4DF7-8051-9F0F4A5719AB}"/>
+    <hyperlink ref="B647" r:id="rId616" xr:uid="{AA365146-3385-4424-9224-C5BC6FE4F720}"/>
+    <hyperlink ref="B648" r:id="rId617" xr:uid="{2CA71FA1-7404-49CE-A54A-F34A478CD76D}"/>
+    <hyperlink ref="B649" r:id="rId618" xr:uid="{E682FD14-B285-4B93-845A-FC8EA1FAD2C8}"/>
+    <hyperlink ref="B650" r:id="rId619" xr:uid="{3294DB9F-6F16-4B94-9A3F-8260FB6C4127}"/>
+    <hyperlink ref="B651" r:id="rId620" xr:uid="{7DD81B4F-4DB6-4B34-9FD1-77E8D036019E}"/>
+    <hyperlink ref="B652" r:id="rId621" xr:uid="{0CADB238-6E78-4246-9A65-129080CB0CDC}"/>
+    <hyperlink ref="B653" r:id="rId622" xr:uid="{CFE67B98-A6B4-4D66-8A12-85B41DEF25DA}"/>
+    <hyperlink ref="B654" r:id="rId623" xr:uid="{484AE195-71D5-4C26-9803-76F8E2542414}"/>
+    <hyperlink ref="B655" r:id="rId624" xr:uid="{A22FD441-6DCF-4242-B273-D4D438BE87BF}"/>
+    <hyperlink ref="B656" r:id="rId625" xr:uid="{20F84FE5-CAA8-42A7-9CA6-24AE2DC8C82E}"/>
+    <hyperlink ref="B657" r:id="rId626" xr:uid="{773295EB-F3B1-41AC-A3A7-77813BB7A8F5}"/>
+    <hyperlink ref="B658" r:id="rId627" xr:uid="{FA4194E9-ECB0-4475-B223-D4046E180F12}"/>
+    <hyperlink ref="B659" r:id="rId628" xr:uid="{19C9DA51-2267-4769-8743-B95B4C79E33D}"/>
+    <hyperlink ref="B660" r:id="rId629" xr:uid="{30104C55-FF2C-4DCE-96B2-4AE822129738}"/>
+    <hyperlink ref="B661" r:id="rId630" xr:uid="{497C47EA-41F3-4BE2-9410-AFC7A689FE40}"/>
+    <hyperlink ref="B662" r:id="rId631" xr:uid="{142F406D-A792-4E67-9D91-155BBCCAB96B}"/>
+    <hyperlink ref="B663" r:id="rId632" xr:uid="{D33D863E-0298-43C9-A53C-0ED395CC1DCB}"/>
+    <hyperlink ref="B664" r:id="rId633" xr:uid="{E7AF7C6B-D1CF-4C6E-95FD-938FCF924C56}"/>
+    <hyperlink ref="B665" r:id="rId634" xr:uid="{3DF03CDF-991C-4E7C-93A2-0F3E4FF8611E}"/>
+    <hyperlink ref="B666" r:id="rId635" xr:uid="{04E8C696-304C-4496-A04E-D64B4BEE7973}"/>
+    <hyperlink ref="B667" r:id="rId636" xr:uid="{9BF11341-6F3E-4A54-82FC-91A5F36E14D3}"/>
+    <hyperlink ref="B675" r:id="rId637" xr:uid="{AC63BF6A-8D9B-4D13-9DC0-252B49E68B36}"/>
+    <hyperlink ref="B668" r:id="rId638" xr:uid="{8949B40E-E3A8-444C-936A-54DE291FB1D9}"/>
+    <hyperlink ref="B669" r:id="rId639" xr:uid="{341C3DE8-5303-4A2F-8CBA-D4B467B5F74A}"/>
+    <hyperlink ref="B670" r:id="rId640" xr:uid="{7112A7BA-7A82-4FEA-A829-1F3D862015A5}"/>
+    <hyperlink ref="B671" r:id="rId641" xr:uid="{8D99B295-0CC9-42FF-A83B-3D3CC3590A41}"/>
+    <hyperlink ref="B672" r:id="rId642" xr:uid="{6494E424-77F9-42E9-A225-C631A52113D1}"/>
+    <hyperlink ref="B673" r:id="rId643" xr:uid="{89F01233-96DE-49FB-A25F-432FADD742E6}"/>
+    <hyperlink ref="B674" r:id="rId644" xr:uid="{52F34862-37E5-40F2-80FA-545C91A9FF12}"/>
+    <hyperlink ref="B678" r:id="rId645" xr:uid="{6F437638-BB16-4E68-A440-DE65311ADF88}"/>
+    <hyperlink ref="B682" r:id="rId646" xr:uid="{0D0B3261-600C-4D37-8939-D7CB42225A5E}"/>
+    <hyperlink ref="B684" r:id="rId647" xr:uid="{B85417CB-969B-4112-A305-E3B55208AF15}"/>
+    <hyperlink ref="B680" r:id="rId648" xr:uid="{F0093F60-6460-42E5-BF7C-4C10306BBAAB}"/>
+    <hyperlink ref="B687" r:id="rId649" xr:uid="{E212C8C7-7270-43F5-87AF-FD20321001AE}"/>
+    <hyperlink ref="B686" r:id="rId650" xr:uid="{42F4BB83-D42F-4417-85B4-2B24794CB3C5}"/>
+    <hyperlink ref="B683" r:id="rId651" xr:uid="{48212161-6363-4DFB-9FDF-C789AAC3D372}"/>
+    <hyperlink ref="B685" r:id="rId652" xr:uid="{976CF765-4572-4229-AC55-2BBC37893B80}"/>
+    <hyperlink ref="B679" r:id="rId653" xr:uid="{B984A5D8-F92D-484E-AA6B-F73B1E18965A}"/>
+    <hyperlink ref="B676" r:id="rId654" xr:uid="{C5854268-05C1-403C-8A99-49AE3506A87B}"/>
+    <hyperlink ref="B677" r:id="rId655" xr:uid="{E3D3D67A-340D-4B59-B9CD-B09A15CBE822}"/>
+    <hyperlink ref="B681" r:id="rId656" xr:uid="{5F98A9FD-1E0B-4249-88C7-5BB23E436B8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId645"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId657"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DBED3-CDBB-4E70-B953-E9E33F0A75BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA028F20-7474-4529-92EE-EF134FA28807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1410">
   <si>
     <t>titulo</t>
   </si>
@@ -4153,6 +4153,120 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/384faffe-fc7a-914e-6663-26fdafb66cd4?title=Armac%20-%20IPO%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>﻿Conasa | 1x1 com management</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cf3c09a8-f2bf-40e4-935e-f7efa77c063a?title=Conasa%20%7C%201x1%20com%20management</t>
+  </si>
+  <si>
+    <t>﻿Althaia | NDR</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/c7733317-4c34-43e4-b57a-96fa22c23a1d?title=Althaia%20%7C%20NDR</t>
+  </si>
+  <si>
+    <t>﻿Smart Fit | IE IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/6c5984b5-4f01-4b09-8415-bc645bdaa918?title=Smart%20Fit%20%7C%20IE%20IBBA</t>
+  </si>
+  <si>
+    <t>﻿Smart IPO | 6 Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5d2d1301-d61a-4fe8-8b5b-c9eb46709008?title=Smart%20IPO%20%7C%206%20Pager</t>
+  </si>
+  <si>
+    <t>﻿Brisanet | Pilot Fishing</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/70b561b6-ac13-7186-143a-c4aa64c4c377?title=Brisanet%20%7C%20Pilot%20Fishing</t>
+  </si>
+  <si>
+    <t>﻿Meliuz | Reunião com RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/2b32d485-4412-960f-5454-b4b608c5d7e0?title=Meliuz%20%7C%20Reuni%C3%A3o%20com%20RI</t>
+  </si>
+  <si>
+    <t>﻿[ESG] Natura &amp;Co - Commitment to Life 2030</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/cbbf6e88-b34d-474b-bb86-96dc53a736c4?title=%5BESG%5D%20Natura%20&amp;Co%20-%20Commitment%20to%20Life%202030</t>
+  </si>
+  <si>
+    <t>﻿AG | Follow-up</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d514763e-4f27-5608-e914-3ae74ee094c3?title=AG%20%7C%20Follow-up</t>
+  </si>
+  <si>
+    <t>﻿Websession com Stone | @BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/94582047-e2c2-f650-2220-3b6a1fd51244?title=Websession%20com%20Stone%20%7C%20@BTG</t>
+  </si>
+  <si>
+    <t>﻿Armac | Papo com Rumo</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/95c72bfa-0504-ed18-adba-f0f5fa487800?title=Armac%20%7C%20Papo%20com%20Rumo</t>
+  </si>
+  <si>
+    <t>﻿ELMD | Live sobre tendências do consumidor</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/64cde3ae-5b24-601b-d251-a00bfa0e535d?title=ELMD%20%7C%20Live%20sobre%20tend%C3%AAncias%20do%20consumidor</t>
+  </si>
+  <si>
+    <t>Althaia - Visita 23/6/2021</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e25ddc39-b222-4c01-8235-5d4889c683ed?title=Althaia%20-%20Visita%2023/6/2021</t>
+  </si>
+  <si>
+    <t>﻿Modal | Update com RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/83818387-06fa-a0af-2527-720a5456a337?title=Modal%20%7C%20Update%20com%20RI</t>
+  </si>
+  <si>
+    <t>﻿Brisanet Day | Santander</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/5199de76-09b5-a05f-b4d0-f489b6e4aad7?title=Brisanet%20Day%20%7C%20Santander</t>
+  </si>
+  <si>
+    <t>﻿CVC - PIPE Pátria | Papo com Leonel</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/d5081eee-0ba8-cee4-4200-5b6e245249e7?title=CVC%20-%20PIPE%20P%C3%A1tria%20%7C%20Papo%20com%20Leonel</t>
+  </si>
+  <si>
+    <t>﻿BTG Pactual | Group com Cury do BTG</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9a6dd7d2-6cf9-4b6a-8f2b-f4957eef338a?title=BTG%20Pactual%20%7C%20Group%20com%20Cury%20do%20BTG</t>
+  </si>
+  <si>
+    <t>﻿Atualização de Agrogalaxy</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/906e43f0-3014-f165-604e-409e2e508785?title=Atualiza%C3%A7%C3%A3o%20de%20Agrogalaxy</t>
+  </si>
+  <si>
+    <t>﻿Armac | 1x1 com Gabriel Santiago (ex Sotreq)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0e47f287-80a6-4b47-81c3-677266970f1e?title=Armac%20%7C%201x1%20com%20Gabriel%20Santiago%20(ex%20Sotreq)</t>
+  </si>
+  <si>
+    <t>﻿Growth Hacking - Momento Discussão</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/aaa21f25-5d3e-48d2-9fb5-52e5d6c7a6a6?title=Growth%20Hacking%20-%20Momento%20Discuss%C3%A3o</t>
   </si>
 </sst>
 </file>
@@ -4550,9 +4664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="A706" sqref="A706"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10056,667 +10172,838 @@
         <v>1371</v>
       </c>
     </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B667" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{F0F76355-FD19-4FBE-9C30-6F4DDBE55D1C}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{8BF08378-64C7-4A07-8D70-D6C3CB9B6B53}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{FEBAA360-092F-47D9-96C8-F6CB7B0627EC}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{6C70915E-006D-4EFD-A61D-B0FB5F6E700C}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{AB8A850A-8CF9-4D0F-ADAA-383EBB098137}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{2FB1636D-BC8F-4075-A315-A0F568AC47BF}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{4794E67B-F70F-44AF-ABCC-A5E4981DA3AA}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{77A1E433-C6A1-42A1-9362-81F3DF8F03C5}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{CD49D3BC-465D-4CFF-880A-507391043892}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{382DAF8D-2E03-4C02-91FE-EBDE9F1C5AC8}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{5C5208E2-1412-417B-ACBF-2B8F34671824}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{E4FF2592-4DBF-4035-9858-8F379239DA05}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{0C4ACA5F-DC21-4DFE-AA94-0B8A96AC770C}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{F56131B9-82DF-4547-91D0-864487FF98A1}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{0C151898-162B-41A3-B293-2A78D5BFD019}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{D6ECB03B-6401-4018-B5C5-4ED32508A1E6}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{EAF3525A-2400-404E-A1E4-F05FBE16E358}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{D6CCB883-E56B-41B9-9BCE-D7662F8D2772}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{E27C15DE-1ABB-4BBD-B764-935761096426}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{26271F67-978A-48C4-9E4F-1F1D404E9C9E}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{E55D02CD-3459-4432-A000-D28DF4C2AE3B}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{25298051-F65E-4965-85CD-29B300C3A7E8}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{7BC2D86C-2D8A-4BF5-A30B-5D6C906CFF02}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{39A896C1-2725-4F4F-AFFA-33498708569D}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{B655C0F7-8D23-4750-8919-24BAA18F6913}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{BEBA61B7-5487-45EE-A746-FFC471084E53}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{EF24C5DA-A356-4F20-A5E4-ACEEC7A45617}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{A1B9B4A4-F8D6-48D6-A3F0-E3C5808D33C4}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{CB6198A8-9E3F-419B-92FF-C449994F3F89}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{22F62741-BD69-4BAD-B1AE-7505431F406E}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{1855AD9C-8EA6-4435-AEFE-AC027C27232B}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{049FA447-F57A-43EF-A04D-17659D0F5884}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{F0C8DF82-682E-46F6-9855-7E66FC4B511D}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{E6B7A266-79B0-43FA-A166-685D2A30502D}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{8747E3BA-4814-4A99-888E-A2C091C9ED56}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{678C071B-78BC-495E-B81E-BA958FF90681}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{1509662D-5B6E-4CEB-BCAC-A075685753BD}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{3EAEA189-D4EF-4D03-AD7C-E49EA2BD6868}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{8868F1F2-D01B-4D22-B712-2272DF43C3A8}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{36A256FB-50FB-4894-B884-E1EA8B7686E6}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{2F13B5A1-D5BF-463D-8C90-E9531831BC02}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{70E08A2E-3A74-44BC-8AA2-B6692D0D5F83}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{DF56797C-2F3F-4C19-B9B1-0DA9DEE45472}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{4F1F803B-77BD-413E-8BFF-40F4847CB08A}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{1E2DF21D-87BD-4149-8FBA-2D9E31AA58C7}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{712F2357-F867-41AB-B264-2993CF03EE71}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{BDFE6D34-C32A-4B64-BB3B-44EB62201C8E}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{B8E98056-CDD5-41CB-B0F5-A9C2100DC6A9}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{221C089A-5B89-41EE-813B-D2207D2DAF65}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{828EB604-01A3-4689-BEB4-821EE1AAE13D}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{7BF57CD5-249D-4A68-ADA6-C0E8D01BA3A9}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{2BC5DA5B-CCB4-46B9-BBF3-1CC47A47307B}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{86BDE739-8726-4FD8-9F69-C6FD64CD1953}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{04259281-5ABB-4F0C-9375-36F1D963554B}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{6C28E718-67A1-45B0-B889-9B17CB00C9D0}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{7978D157-201C-470B-8D3D-95BBA18A1544}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{285482C0-3B45-4A06-B155-6F71517A9AD9}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{74DC7C36-71D4-4E7B-81AC-549DD16DD04F}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{BA682751-A281-4477-9E60-D1AEBDB7231C}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{0B824A6B-3A23-472B-95EC-79CDFD5527BE}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{C380CCC3-1C02-4824-BA1B-097C4DDA9B8C}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{D520614D-A857-4451-8FFF-DEDF9065BD19}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{2F944D3E-ABE4-4BD2-876B-6558A20BC1A9}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{740AB67C-6B84-4339-A9CE-AD8D44F8BFF0}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{EAEB9DDC-18BE-4DBA-A3E1-738F7376617C}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{4E6B7A6B-DA15-40B2-90FA-8784FA70C885}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{B41D0405-EA1C-4A0A-B579-680D5608CAAB}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{8DD3707E-3A06-4B56-BA5F-742F9B912CA6}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{02D47968-D6E1-4E0A-8100-2BDFF66376D4}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{9F2052E6-0246-4EE0-9B44-7AC6A21ED1EA}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{A6354465-7B3C-4B13-9D10-E5EF2DCA75A9}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{1D06087E-F102-4CB7-BB91-E64201038B03}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{DCF9B0C2-805C-48BD-BF4C-9CB9B39556DF}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{54FABBCB-4DA2-4391-8D6B-F5CE2ABDAB83}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{2419DD88-7D82-48C3-A145-60D933ADCC60}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{30A84E0E-C490-47D2-91CC-E3F625AF7A50}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{D4FCF962-8354-4AA3-8B0D-2635E1F36AFE}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{CB2EBCCF-5375-4521-A7E6-DBE14C8C4A74}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{A66B4AC8-9DDA-4BE6-9B07-3A9F1B264283}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{44925938-6B85-4AB9-A122-7AFF88004524}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{D22FD45C-1695-4F83-B06E-7B5D49E18FAF}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{C546F29C-E122-449F-BCD9-0CB571FA9DC8}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{2378AA3F-3CB7-4BD2-A231-F1B3C4F6A595}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{FBE2D98B-0BC9-4791-ACA9-9807E6A4A62B}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{B72D3E65-4B04-4907-A3D2-C6E9FC0E296D}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{D91A0240-E203-471F-A1D1-B05488D92BC2}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{E3F166C5-D47B-47BE-9C1B-816207264DB3}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{F064FD1A-00F2-4E70-9293-30419B274FD5}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{8B56DA31-7E29-459B-B85C-4B3F27E45F70}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{17DDD6F1-5FE8-4B5E-A2A7-CFB0A167648D}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{46CA3788-8CCB-4482-AFFA-4DDA821B7C14}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{886E69D1-54F5-48A1-992E-A45B46B64FB4}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{BF44B10E-8916-4095-9907-D78FF1CF7DB6}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{1E11917C-E3DA-4F88-8970-A53B00F4C301}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{9B8A7167-6323-4470-8DF9-CBD9157CB622}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{734DAD6A-4E76-4DC7-88D9-D71533A01601}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{FF7D35D4-E39A-4E0A-A6FA-9D4E121A997B}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{CB296355-A6A7-402E-9FE6-A5411B5709D5}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{C6F88B24-95BA-4786-BB94-03A9502410B5}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{27B481CF-E398-4581-B8CF-3C69B877FDF1}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{B52B8ABE-72B1-4F2B-89C1-432817B7A615}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{5629B3D4-906C-4E6C-8204-AD4B69BB53E1}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{3ABFD710-EEF3-43F0-95FA-0598F0899C8C}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{152C1CAE-14FF-4852-B539-2972D8CCA365}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{83802DA0-5189-4712-B79A-844E921DDFDE}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{E5F73323-BE3B-4FA0-8007-953D32347B22}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{64792427-D9B0-4A2E-8C3A-86BD04F7FD08}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{7E34AF8B-6FC1-4C0E-9231-60651290F86E}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{37B248CA-6969-4B51-A835-5163D41D12D7}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{F0F96FEC-4AA1-4A3B-BFC8-F782AB962BD0}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{B2ADDF28-A8A5-4875-984A-8ED1CBD0B167}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{C22C2ADD-E960-4005-9533-1907F1E323DB}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{21E8A58E-555E-48C1-B3A1-763D52C9C0F2}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{A01D2336-C1F7-4676-A5DF-F569BDB1B1F4}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{7C96F11C-A25B-4FE8-9121-8CDCBBF84967}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{06014ABD-7C68-497F-806D-AE61886A4CF3}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{8BF81719-6F2E-4537-B99E-B7C2A1409F25}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{3970203C-C373-4119-AC8E-46428459CC8D}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{78DCB16D-5762-401B-8CA3-7EF82067284E}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{8C81FC26-1958-491D-B379-B4B78863A7A5}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{0A4F6F86-E94B-4EEA-80A5-52CD88855E40}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{ECBE84B8-1F3C-443D-B7C0-B6E4716BBD6C}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{EBEE22F9-57C4-4BFD-9B61-98BBDFCE18D4}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{C4CB2395-48A5-4DA8-B397-E363EEA6C1DA}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{8D1944B5-6D8A-473F-82FB-DE3EDC721F6D}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{B6AF8CEC-E4E9-4BAC-B0E5-F8EAB8B2BACC}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{23B6CFE3-8D18-44BE-B9F1-C5602E8FC07A}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{A700E8B9-00A5-4D88-A767-4D3A58972A2B}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{152CC282-311F-4276-9028-313D4969321A}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{A2B47AEF-28DD-48DC-94C5-5C7EC08E3813}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{4D1E4D85-AFDD-41E1-B872-BFCDAF3ECF22}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{ECEC2188-BD00-4032-A5D7-8AE9216CCA20}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{1D02FED1-7511-40C5-B0E3-C32C1972E56D}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{139C81D5-68D6-49B4-9C1E-94A899269BCE}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{66EF8F12-7E1E-4021-A9B6-ECABA465CDE9}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{DB593F2C-FCF9-4456-9D12-F617F066D3DD}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{F114ECAB-7496-48BF-A4DE-38ECC8384146}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{CA7204ED-3DF0-48B2-B748-1E589F06B93D}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{DF733640-45F6-41D4-8395-33812485D9DC}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{61B2A253-524D-45CE-8187-17DC7085EEB5}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{FE414F75-49EA-4537-BA53-055A3C8E449A}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{B8E53309-EC21-4924-8604-BC26F2C032E8}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{F825EB67-C2B9-4A94-B666-712AD5C2669C}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{3DD448A5-64A6-4853-8F4A-9979E5857099}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{16618457-F4A1-47BC-A26F-A130F9F5765C}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{DD19166E-3A81-4461-AD34-B91317CE649F}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{3B942807-51CA-4F0B-AF0E-E2F20DD6887B}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{83774FF4-BBC6-4BC1-8201-97596EA8E5CF}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{D208506C-0F8B-4E68-A4E1-BA5013090FBB}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{7C1BB334-60E8-4CF1-914C-7C59F58D5DE2}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{491AA00C-FFB6-4F0C-8A13-E8C496A6B71B}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{FBF4481E-EAF5-4A94-9EEA-BCEBE8E0840E}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{FB45E02E-FE7A-43D6-880D-9D1D5C3FF402}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{E7001B4B-D835-4D01-AB89-AB2EFCAED4B2}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{3449BA46-9027-4209-A484-3A1C130821D9}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{6C3EB1D7-A2B3-481E-9D35-FF8D2E8020C4}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{B3C39514-B3FA-4C48-848B-5B2698AA87CC}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{1AF4341D-4283-4110-A34D-714EFAEB4B0E}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{66E4AC1F-3599-40A4-9210-7756467ADCBE}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{6DB3A25D-E932-4F16-88FA-718A9176A17E}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{2DBAD320-BE76-4C57-A732-F3A1C30322B7}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{8987AB91-63D4-432A-A34E-33946BCD2A34}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{97C4DF1E-4759-4591-822E-C0C84CADFE5D}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{B8D2B42A-8DDB-4DCF-A82F-E2DC5B292F83}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{DB7A94DF-49D8-43CB-8E09-1F97B4D637BA}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{1BE7E959-3365-45DC-A8C1-AD11FFA18A6F}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{58C58BB6-D530-4535-B7AE-43C77BE04B44}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{5759EC4C-8104-4792-BE4B-7FFE99F03A7F}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{C6A76533-1CF5-438D-A4D2-DCF5F7AA6F65}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{CA09E8B2-1526-4781-8BC2-CDEFF6357FD4}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{501A1C64-1FF7-4AB4-8717-3239AC2924AA}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{A87E15BF-CE6A-4E9C-8B90-7FA55CD2531F}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{A1D88F00-98B7-4E3A-9B4C-83CD7135827D}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{37EE5E4D-F59F-446C-9FEB-205EF98C34BA}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{66A542B7-6EB1-40D3-9CCF-15435DE8B4DA}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{D9241744-0628-4899-B0B7-01D05494A835}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{B2142E64-8A04-4E00-866F-20B869EFA2C6}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{FF408A55-4A28-4668-BFC7-B17546602409}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{17A0FB2E-864E-4B8E-A26D-7E1AC47016C8}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{288749BC-6E8D-4A54-ABB7-71D95EE3FF8B}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{66A954A4-3167-4F78-8F33-A5BB1193566E}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{89FAEAAD-77FE-4D87-9147-DC7DE11456F1}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{5D163BAC-86C0-4EC1-9AE6-1D2E1F1359C0}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{9FBCA137-B4D6-4C3F-9356-9B66FDF23458}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{3AC2FFD8-BCC7-4574-B4AC-BDC4C98B2286}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{67E8C81A-6B8D-47E8-91E7-B204A4AAE621}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{C0C7EAE4-0E97-4FA4-92A4-643143B6B035}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{69BE9305-36B8-4156-96DE-5BF91EF97CAF}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{4C27151F-FE40-4E21-A0EB-BE3DF4DDC15D}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{DEDBA590-5B01-42D1-BB50-361627427516}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{E4A638DA-03A1-4323-BB5A-847FF739CA92}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{965E2893-0F7D-4ED6-804F-8E2B7C51C6B8}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{00F4205D-5142-43D7-B5BF-A40294B34B8A}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{CC1E6795-BE1E-4AE3-A332-EB67598DD038}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{A0A7AA63-33B5-4355-897B-10856EF7F7E6}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{73CC5018-4D50-4FF0-AABB-1BDFE12CD7E3}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{073263C8-A288-4C56-A9AB-A5ABC43D5ADB}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{3BBB5292-100B-4DC8-A851-B95DFB5E0348}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{38BA062F-CA55-4160-A838-B793635B45E7}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{BAD48B6D-32A0-4857-92FF-4DD5E856E463}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{E81ECA40-BDFA-4D68-9D05-0C31D92D9C09}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{11A619B0-9A55-4B50-B1C7-E6917B9221DB}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{B850923D-E241-40E3-98BE-1C6A6087F950}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{D08484DC-C45D-4968-AF37-DB24C95BB567}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{8BD39D3C-CFC6-4554-9BA4-8F68769B4E9D}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{6535B5F5-11BA-4FD2-A98D-C4CEE7205668}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{72C94E41-747D-42BF-B4B1-C86C9ED61D16}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{E79A2FFD-810F-42BB-BCE1-6E352046CEEA}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{5BFA010E-0243-4767-83D8-20950C547AD0}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{966ED2A3-2DF9-4228-B75D-274CD69FF847}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{49BF2999-2C8E-4504-8599-91635B8046A2}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{4CC67F8F-7856-4608-A37E-EC9D35898BD0}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{93CA9707-B684-41A0-BD82-E17908D62F05}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{A21E0A9A-32FD-44F5-AFDD-FFDFF079B6DE}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{B1B1D83D-CB71-408E-8CC5-877E0A4591FB}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{2CA5D902-068C-470C-AD0F-C00E55FF7573}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{9271BD7F-F062-414C-B22B-59E6FC72843E}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{BF584EB8-0249-4C49-8AEE-C76FF67F8941}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{75921E6C-B9C0-4820-A604-A8CCF90BB73D}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{7B811019-7E22-4E68-8BD4-39681D3399B7}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{84113C20-A158-4A63-A80C-75FB4123D084}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{DD706CD5-8B71-4301-95CD-2AA6383038C7}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{C13AEC1A-25D5-4C83-BD0D-7962F89CD8D7}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{8567BC4A-97A9-4EAB-8B75-197537B867AB}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{83ADC486-E6A3-4B23-BC16-3E016B6C634B}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{4C741FFF-9012-4650-AF7E-0BE3F818813F}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{66D2C0EF-8312-4D3B-B8E9-83ABD1002B66}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{FA6FCC1E-23F6-40CC-A5AD-BD96D330779A}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{063BAFB7-C37C-440D-8F64-DF5114442E5E}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{E949DA0E-4C32-40A5-8901-99A590A08447}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{A298AA6A-4DC4-42A9-B4B7-B963B476D41C}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{A315D5FB-6E72-4977-B5B0-67BBE0D825A6}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{8F8E55AF-4849-4B9E-B00C-71A34694ECFE}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{E2714ED3-2AB9-49A0-A5C8-16904105D019}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{C8984FC1-F439-4133-8F56-8788A5BEC5F2}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{0857C81F-4DC9-4DFC-865E-4BC17F852CA3}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{6AED8FAB-EC31-4533-8027-9CED27F95BA1}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{B6A7BFFE-9303-48AA-B730-A7A903BD8BE7}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{AF7C0B6C-4F36-45E2-9B06-E5CC05C8E0B6}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{33D6BBB6-7501-4928-80A6-1852E646A201}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{8BF89E23-B6D9-43A9-927A-F1A623A07006}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{4BDD2963-85CC-4FA3-A70B-20EC27F72A81}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{7286336E-87F1-4AB1-B0D6-B5D0F0C71FA7}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{94342220-F0C8-4731-8ACF-DD29DF2933B5}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{E6FAE448-B124-4AE2-A844-076DEF243783}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{77C7BF27-FC28-4434-8A90-B1F43A8EF9C8}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{E780E629-C8F4-4D9C-953E-FA11D170429D}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{B5BCBAA7-F454-4FF7-A38D-FA203965EA83}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{6AAE876D-0165-44ED-BCD6-19956A56F87F}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{F7FFDD27-E211-4BB4-83CB-CEE4BA720C5C}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{EBBFCC1A-28F7-40AF-8549-F0A46D7304F6}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{03BE8C11-9AC4-4586-8AB7-1945FDDBD70C}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{E3F636D8-18AC-4BF8-B0C6-E80A7200352B}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{397A1657-67A1-4231-B50E-776C85CC66A4}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{1D6ACCE7-5B8E-44FC-96B0-AD5A5153F4E1}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{AB2B1BBC-4D8A-45E1-A3CB-F0E8EED11DFE}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{1003114B-203F-4733-8A32-D1D64007B743}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{B7CBABD7-C68A-486D-BF20-0A9BDB6BB2D4}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{4E8A0522-CDBC-42C5-BA7D-744E67B43282}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{380B3470-7D71-4D43-BD08-B50081828464}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{CB44D8D4-E6C5-4547-B15D-D90705C1064B}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{0F8D5AFC-949B-4294-9080-887D67834270}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{C025E7C7-9DC0-4E6D-A306-CBFB244A798B}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{2DEB244C-6582-4613-9B98-F7A67A9297EE}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{4533344F-2523-4F34-A4EC-836BC977588F}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{70719609-8C0E-475A-B736-74662CE9096C}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{49A097E8-7885-4C8D-B34D-7AB6E3421661}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{D70499EB-BB74-49C4-8788-C48247B0ED0F}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{52667662-5E58-4AF4-ACB2-8C60B517148F}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{1DAFEA02-67F3-48B4-B82F-033CDBADD336}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{7D1AA8D3-ED05-4F90-834D-1DDE4946A301}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{87AD0578-FC49-49F5-B875-A728D53C998F}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{5820B2BE-0793-41BD-A1C8-600D6AFA2C70}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{A4C313B8-13B7-4E51-9685-3421E1425EDB}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{2B841A64-947B-4EA6-8547-941C4D970A5F}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{AFAFD632-6BE8-4F5D-8400-BF815B30CCB9}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{CF53DC0E-0207-445A-9E1E-DE64E8FDADC7}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{82F650BA-BE89-4C5F-85F9-774E03B97CEF}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{80D663E5-22C2-4472-BCB5-E63623A92261}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{C02573A9-8E56-4085-A471-673209029F90}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{23A03F98-B22E-4C5E-9257-C92D75756AA4}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{376910B2-23AD-453A-84B4-93D7E556FDF6}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{BB9AB4F0-278E-4673-90B7-4BF251A0772F}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{A3B62C1B-8CEB-4F66-9F7B-DFF0451E46F4}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{069CC21C-E388-4608-A0C6-7E6B893D7CB6}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{6EDB8625-2217-4658-92B3-7C462AC0CA4E}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{398081C9-BF81-418F-8D69-A048F4724885}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{0C23AF62-E70C-4D15-81CA-56D70CFCBDD2}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{F2063C60-2FD7-453C-B2E2-FCD9FC7F0B87}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{71389935-4B84-492C-880A-3109D7B2131A}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{BD12400D-4B26-4E01-A837-69A5C1C318F0}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{AB5F61A2-BEE9-4785-BD56-E874B4EC7939}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{5A114A01-6983-457E-8AD6-780DA62C994D}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{E2DDC056-0ACD-426D-9D13-11FF2A1BA632}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{4D7F5E3D-BB53-4BEF-B5C4-79EB11E2E28A}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{020795F5-7C34-4137-8B2C-37FD51FEA43B}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{6338BA95-83AC-46CB-B7B6-CAF2C4215C4A}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{B05AB341-65A8-46EF-8386-0F67D96F01C9}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{82DD14E8-DDC5-44C6-A19B-9B92C54DC76A}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{279908F0-5943-4805-BA44-EC916FD09F50}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{769186B0-FBAE-44B0-9289-ADCE6BF43089}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{A1383BEA-610F-40C3-96F1-24397AF8F84A}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{A2C4659E-F1AB-47E1-A3A1-902011E69969}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{5A2239B1-BB2A-40A6-BFB9-B8C88DC2E027}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{C163A0AF-7722-427B-A668-A7254D057A29}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{EE144B07-5655-4E2B-B2F1-9EA259A4F71E}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{80377790-6E6C-4D23-9DED-53E1C7725431}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{0DEAD6D6-22B8-4C1A-A31A-260D4525FF21}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{20D3C48F-953E-4220-BBC0-524FC2CCEC17}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{C7081424-2672-47C9-9613-F0B49FF6172A}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{E6C3948A-6A25-46DB-91D9-8E0363388863}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{055299B1-AE8B-41EF-B71F-79A15DCCC18C}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{6837D7C9-3193-493B-B4A0-F5B3B692F370}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{53C64455-C406-4745-8617-3693441B76A8}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{9BFD102F-7203-4990-97C5-AC2B69BB7141}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{1E306395-B993-406D-B45A-85F081E0567D}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{72EB3DFE-8FCF-4399-84F1-58E9A91192BD}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{13248B4C-EBDF-45EA-827F-F06590961CF1}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{A84655CB-57F7-4A0F-955A-708E33CC942B}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{72E822C9-D7C3-44CB-892C-33D72BE6C357}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{EBD02461-2558-455F-9BD4-A0C86DD3211A}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{96099F26-0E9A-44B7-8F4A-6374E6FE6206}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{B6C8CAED-44F4-47D2-8703-5EE2429D805B}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{0FF612D0-6910-428A-AFEE-070377923771}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{D83C5C18-0E40-4B3B-A092-1025BEBC8C6C}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{FB5B813A-4584-48F0-8793-2B7CC9BDC021}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{978B778F-0C6C-4E59-97BD-76FBFCC7F5F6}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{C96BF98F-0C6B-4D3A-B845-288E3E7388AD}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{9D6E3799-AE96-4074-A4CD-9B4961D09233}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{FC09877D-B076-4110-BC29-B60BEDD48EEE}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{EC213A36-C649-4BB5-B4E3-D92603B0086D}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{045679CE-1A83-4543-802C-A7C1D46E7D1E}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{09909EC8-11B9-4A2B-84F4-8CF8200F6657}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{23489685-53DA-4F22-BBE4-9897C4DA82BB}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{0A419E92-4C59-4DDE-8161-1CE7B5F9076F}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{C76FC733-4AA4-4502-BC6D-326DAB269BBC}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{20BF6E63-CD83-463B-B4E2-53E6745EEFE1}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{FBC0A211-6A18-40D4-9B64-D4EAF33FFED8}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{05012F1D-8774-47E7-85FA-9D7ED8B94E38}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{D3CCAEF9-DC4B-4ED8-8397-0DDFDB0B5793}"/>
-    <hyperlink ref="B366" r:id="rId341" xr:uid="{22ECEDBF-16A5-47DD-9EDE-F50AAA4D29BD}"/>
-    <hyperlink ref="B372" r:id="rId342" xr:uid="{809DA6FD-0BFE-49BD-9AB4-FC3D8A2C8B91}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{D4D2431C-6C81-4AA5-ACAD-843A077861A3}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{86194927-ABAE-48B8-87B5-0FC67A826B11}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{F4AA0FC0-BAAC-42BB-A83C-857E4B9141EF}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{9453EDD6-D7A7-453D-97D8-6E1DDBD367B7}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{A5CE997F-DE05-4466-AEE5-3A5E10D2FBFC}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{CD5F89CF-5D8C-410D-AF4E-9879F9607557}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{4F7EE393-789D-44D7-96B4-9E1E464DD6E5}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{15438167-C0B6-4E7E-B91F-FAC6E73E5ACB}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{66549014-5DE8-4B70-997C-8F2D09A0E00A}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{85F21768-E3F7-4306-A8BB-1AA20D7FCFB7}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{4764E2B8-617D-4109-B33C-B3E7F2B6F3EC}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{B2AD0B97-66B8-43A6-A066-0887885FFC46}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{5BCE1FB9-15BD-4920-9D01-0C685E29B9AA}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{89FC591C-2F20-4922-A268-D3E42A708994}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{71CF22A9-BC14-4442-8D49-8F3655FC9F42}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{E8C42125-8D39-433C-A5CC-22191BD96F4E}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{7A1735B6-CEF1-42E1-B25F-F7F70453EB27}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{635DB01C-D938-4F72-913B-F6A5FCA425FD}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{62071E69-7FAE-4128-BEA4-7807701CDE1A}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{A4821E43-EC8A-4725-BE09-72818B41E302}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{73202DD1-092B-46DF-9085-775513CAC560}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{BECF34F2-9D08-4F62-BA4C-4DA2E11B54C6}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{EFC4A172-92F3-4D0A-9CFF-43D782A341DE}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{F27F7725-B5BD-4A1E-AE1C-DC265A525079}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{FFD4A421-D9E2-45C7-9348-54A694F2774C}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{97BCFEE1-757A-423B-8B9F-5080C89C072D}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{697BDC55-26E1-4675-9E5A-AF9CF2AF92D4}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{B1734737-A244-4611-B9CA-451A0B635D93}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{84CE4F69-428E-406F-B89B-C2BD01C561EB}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{64F90AD1-B12D-411D-B615-F4199B4DD255}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{EA127D38-34C9-4BBD-88E1-69A5D7C1E9D2}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{8462AFB5-8B99-40D0-8461-CB781427672F}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{CBB18AB5-D638-4C33-ABA1-E98EB50C0184}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{202F0CFB-1E36-4BA9-BD3D-DC2B40446607}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{CD0D5838-3E77-460B-9D16-961705E3776F}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{DF00D6D2-2D1C-444F-9676-A602C9490DC2}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{57BF2ED8-80B5-49F7-B050-7C63177B6F21}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{9699E856-F65C-4583-9C77-C2C9567DC71A}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{39C7C598-1D20-4F87-B991-F16A408E0E8B}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{72C92DD1-0F54-4F3A-A673-8688F18778A8}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{0CF46EAC-4593-40B6-9534-FCD31DB1E74F}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{B92E229B-D839-4C43-9C63-8D9B6FB2F324}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{853019C9-0138-4549-B9B9-D19F3EAD80D9}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{71117B49-E67A-4FF7-A60E-E1375A84EB84}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{243A2652-60FD-4A2B-A834-4B4D3C522F1E}"/>
-    <hyperlink ref="B431" r:id="rId388" xr:uid="{CF623646-C6B1-4367-A594-89E9909AE118}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{A811D399-697E-4AA8-8466-AE1B12C4F019}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{C96CC481-3AEA-4E00-88A8-331075695473}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{54AD6E75-22FA-463C-9E45-423856D3B918}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{57F3ECCE-B30E-4A96-A075-9F8A3C4A09CD}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{8DD6A42E-FBE1-4546-82E8-FC572866FA2D}"/>
-    <hyperlink ref="B425" r:id="rId394" xr:uid="{96D9D18C-A7D6-4BE8-9979-058E450C9B6D}"/>
-    <hyperlink ref="B424" r:id="rId395" xr:uid="{C0E12233-C3E2-4E9C-A3CF-DA439EA0EBAA}"/>
-    <hyperlink ref="B423" r:id="rId396" xr:uid="{55A3EA42-F5B5-4394-B550-B0F6463646BA}"/>
-    <hyperlink ref="B422" r:id="rId397" xr:uid="{9CFD4E87-370E-43FE-BD81-01D2E8F95286}"/>
-    <hyperlink ref="B421" r:id="rId398" xr:uid="{AE848D80-5BB4-4634-976E-67702B0EACA2}"/>
-    <hyperlink ref="B420" r:id="rId399" xr:uid="{7089FD46-57DF-4896-B1C9-9E62008A5914}"/>
-    <hyperlink ref="B419" r:id="rId400" xr:uid="{57850E8F-FF42-4F80-9274-C72344605AA4}"/>
-    <hyperlink ref="B418" r:id="rId401" xr:uid="{4277EA9D-6658-41D3-A6CE-C63D99E50A4F}"/>
-    <hyperlink ref="B432" r:id="rId402" xr:uid="{CF092722-6A78-48AE-BEF0-512BDBB4A7F7}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{348002B5-5927-4FB5-ADA4-F2C3B8520A41}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{E6DC2078-7867-4019-A87E-2798DC9A15F8}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{F87CF087-F432-4F0B-8E80-8629185EE42C}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{F462ED72-58C4-4C24-9458-4A0502B4D656}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{83E44671-F5EC-4365-958E-FC8ADA55A295}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{A6271FC7-348F-4032-A6D5-6863BC70F648}"/>
-    <hyperlink ref="B463" r:id="rId409" xr:uid="{C9BF6EBC-C349-4350-971C-906941A6C270}"/>
-    <hyperlink ref="B462" r:id="rId410" xr:uid="{1681ED76-64E5-4FBA-BD4A-93EA51E68076}"/>
-    <hyperlink ref="B461" r:id="rId411" xr:uid="{5075A02B-DAE1-410E-855B-65A463FC4FC1}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{CE9F29CA-75BF-4CA5-9178-50C3E95E1C41}"/>
-    <hyperlink ref="B459" r:id="rId413" xr:uid="{05F2FC70-999B-4C07-80DB-02A169708602}"/>
-    <hyperlink ref="B458" r:id="rId414" xr:uid="{4F107717-B433-413C-93D9-FA4D1553198E}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{834503D7-E374-4803-8F89-226F715F3E05}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{0857DEFB-25F3-4C26-95D3-42C8F6E04DFC}"/>
-    <hyperlink ref="B455" r:id="rId417" xr:uid="{6845EECB-C989-448D-84EF-17F1818C302A}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{3ECAB35A-E60F-4DED-9152-69A07F4F8825}"/>
-    <hyperlink ref="B453" r:id="rId419" xr:uid="{6A331927-441D-43DC-898A-07F5531B61A7}"/>
-    <hyperlink ref="B452" r:id="rId420" xr:uid="{6512FA8F-EB03-4839-BA4C-9AB9A0FA5A2A}"/>
-    <hyperlink ref="B451" r:id="rId421" xr:uid="{6CE8C2CE-9440-449C-AD64-CABCAD466E54}"/>
-    <hyperlink ref="B450" r:id="rId422" xr:uid="{8AE66385-CCEB-423D-9A4A-DF38E403D3EF}"/>
-    <hyperlink ref="B449" r:id="rId423" xr:uid="{9FB863AE-1F86-4C54-A289-9257194150A3}"/>
-    <hyperlink ref="B448" r:id="rId424" xr:uid="{FDCAC648-CA89-4A47-B4FF-7BBEC937C1AC}"/>
-    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{4D15D9D1-5107-40F2-87D8-90C1783B8098}"/>
-    <hyperlink ref="B446" r:id="rId426" xr:uid="{BE4CD34A-8C30-47DD-B543-38E7D0F475BC}"/>
-    <hyperlink ref="B445" r:id="rId427" xr:uid="{23EE4FB8-3236-4E94-9331-D3EC54D7A7B6}"/>
-    <hyperlink ref="B444" r:id="rId428" xr:uid="{EBD095F1-37C6-4DBA-B2A8-CAE87DA5047C}"/>
-    <hyperlink ref="B443" r:id="rId429" xr:uid="{84BD8A53-997C-40F1-B675-14F8F5E401E0}"/>
-    <hyperlink ref="B442" r:id="rId430" xr:uid="{68A6270E-7FBE-47D3-96A3-ABEE34816377}"/>
-    <hyperlink ref="B441" r:id="rId431" xr:uid="{CC374B22-AB78-4E22-A52C-84CE75DA922E}"/>
-    <hyperlink ref="B440" r:id="rId432" xr:uid="{653CF3BD-E632-4BEE-9CB6-E0674ECC30CE}"/>
-    <hyperlink ref="B439" r:id="rId433" xr:uid="{DFA268CD-D1A3-48CA-9802-BE8FB64B5DB5}"/>
-    <hyperlink ref="B511" r:id="rId434" xr:uid="{D561C45D-CA33-474C-90B7-B6F3C513F63B}"/>
-    <hyperlink ref="B510" r:id="rId435" xr:uid="{CA37AFBF-EAA8-4A5C-AD78-FB9F226FB924}"/>
-    <hyperlink ref="B509" r:id="rId436" xr:uid="{F0AD00BC-3C59-47F7-ABE0-C0B45AED9C7C}"/>
-    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{795CA8D2-3E1A-43E0-85BE-9BAD689B5C2E}"/>
-    <hyperlink ref="B507" r:id="rId438" xr:uid="{3CDB03B4-1607-4EDE-937A-D1C23015DF72}"/>
-    <hyperlink ref="B506" r:id="rId439" xr:uid="{78B680B0-4FEE-4227-A96C-80B70138CA6B}"/>
-    <hyperlink ref="B504" r:id="rId440" xr:uid="{C510A987-F05C-4739-829D-E48451CF0A9E}"/>
-    <hyperlink ref="B503" r:id="rId441" xr:uid="{94840795-5511-4022-B479-E6EF513F5DB9}"/>
-    <hyperlink ref="B502" r:id="rId442" xr:uid="{71CC5B4A-6B4C-440B-BC57-ACB1EB6A486E}"/>
-    <hyperlink ref="B501" r:id="rId443" xr:uid="{6A89C0D1-48F7-486D-91A8-A270300F9C77}"/>
-    <hyperlink ref="B500" r:id="rId444" xr:uid="{C032C659-7E0E-430A-A0C6-C01177467B96}"/>
-    <hyperlink ref="B499" r:id="rId445" xr:uid="{FEBF54C3-C405-47EA-B0ED-0ECAA011FFB3}"/>
-    <hyperlink ref="B498" r:id="rId446" xr:uid="{997F8B67-E7D1-41F0-85B0-4DCB8A8E52CB}"/>
-    <hyperlink ref="B497" r:id="rId447" xr:uid="{00711E95-9220-45E8-9D03-C34E7EF45623}"/>
-    <hyperlink ref="B496" r:id="rId448" xr:uid="{C6530554-D9E7-44D1-BCF9-552CD592BF15}"/>
-    <hyperlink ref="B495" r:id="rId449" xr:uid="{4A98975A-B742-4142-B459-CB8186560BC5}"/>
-    <hyperlink ref="B494" r:id="rId450" xr:uid="{4419F42D-7D09-47B0-9821-8E1F2A5B90E3}"/>
-    <hyperlink ref="B493" r:id="rId451" xr:uid="{6C3BBBF0-D78E-4DE1-B730-696A83C30BCD}"/>
-    <hyperlink ref="B492" r:id="rId452" xr:uid="{FC63AF24-AB89-494C-BAC9-13A76E26BCDC}"/>
-    <hyperlink ref="B491" r:id="rId453" xr:uid="{E94F8581-A37A-470B-8717-388CD16F2226}"/>
-    <hyperlink ref="B490" r:id="rId454" xr:uid="{690A78FD-4574-4EE9-A712-F8CA5362E1E8}"/>
-    <hyperlink ref="B489" r:id="rId455" xr:uid="{71AE976B-AABE-4B98-ADE1-10FD7A5A63F4}"/>
-    <hyperlink ref="B488" r:id="rId456" xr:uid="{5B1B7A2D-48B4-446E-A9E1-E6D18E1F19D6}"/>
-    <hyperlink ref="B487" r:id="rId457" xr:uid="{EB02652F-9D89-47A7-82CA-802666758B57}"/>
-    <hyperlink ref="B486" r:id="rId458" xr:uid="{6185ADB2-80F1-4C6A-BCCA-C6CAB0F9208C}"/>
-    <hyperlink ref="B485" r:id="rId459" xr:uid="{43651DD5-7341-4B4D-BE15-78CCF0191088}"/>
-    <hyperlink ref="B484" r:id="rId460" xr:uid="{E794518F-DC48-4E23-9391-504430ED1B4F}"/>
-    <hyperlink ref="B483" r:id="rId461" xr:uid="{11BB454D-8FB3-4C1E-BEEA-AABAB8B430B1}"/>
-    <hyperlink ref="B482" r:id="rId462" xr:uid="{A2CE75F6-8431-439C-B666-A0E8BB913E04}"/>
-    <hyperlink ref="B481" r:id="rId463" xr:uid="{C812B37C-D450-44CD-811D-A013A0039417}"/>
-    <hyperlink ref="B480" r:id="rId464" xr:uid="{0D6C2B95-7955-41F0-8C2C-D6DA2EA772DB}"/>
-    <hyperlink ref="B479" r:id="rId465" xr:uid="{EAE4D1A5-B37F-4EA2-92A7-9A52B5ECD73E}"/>
-    <hyperlink ref="B478" r:id="rId466" xr:uid="{BE822105-3C4F-400B-89D1-A7CEE8F93598}"/>
-    <hyperlink ref="B477" r:id="rId467" xr:uid="{76CBEC09-4C37-494F-9FE3-3D9350472D47}"/>
-    <hyperlink ref="B476" r:id="rId468" xr:uid="{C947307D-2D9A-4CE7-844F-B9EEF1A65224}"/>
-    <hyperlink ref="B474" r:id="rId469" xr:uid="{EB7B793B-893F-4F2D-933F-3D363C0193B2}"/>
-    <hyperlink ref="B469" r:id="rId470" xr:uid="{BA25884C-3F6B-4F3E-8047-FD4FCB0EDA96}"/>
-    <hyperlink ref="B475" r:id="rId471" xr:uid="{3F4F9F14-5F5E-4AD3-84BD-AA36273E7EBB}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{ACDE36A6-9BD0-438A-8C87-49982BF6A7F3}"/>
-    <hyperlink ref="B472" r:id="rId473" xr:uid="{5498048C-A2C7-4E82-BDB5-AFBB0F40EBF7}"/>
-    <hyperlink ref="B471" r:id="rId474" xr:uid="{6B36C766-2FEF-40B3-A25A-DA718A9F38F6}"/>
-    <hyperlink ref="B470" r:id="rId475" xr:uid="{F6ED111F-837A-4DE3-B1B1-0725D9B92EBD}"/>
-    <hyperlink ref="B468" r:id="rId476" xr:uid="{48972D12-2307-4189-A70C-FCB48AB34A17}"/>
-    <hyperlink ref="B467" r:id="rId477" xr:uid="{64812BB7-1A4D-4D8A-8728-68AA3140F097}"/>
-    <hyperlink ref="B466" r:id="rId478" xr:uid="{DB615B0A-2BE9-4212-96C1-40851F8E2E5C}"/>
-    <hyperlink ref="B465" r:id="rId479" xr:uid="{AF1CBF4B-AD16-4688-8F56-ABDD21CD9D55}"/>
-    <hyperlink ref="B464" r:id="rId480" xr:uid="{29A5EF03-A9F5-44D9-AC47-E1EEC7D9161F}"/>
-    <hyperlink ref="B537" r:id="rId481" xr:uid="{228BB143-DB63-43C6-AC91-5998030A0042}"/>
-    <hyperlink ref="B536" r:id="rId482" xr:uid="{FBAE8AFD-F43B-4119-847E-919EC68154C9}"/>
-    <hyperlink ref="B535" r:id="rId483" xr:uid="{7AE733EE-02AA-4345-9AC5-D3864FCC7D9E}"/>
-    <hyperlink ref="B534" r:id="rId484" xr:uid="{8244ADBD-5604-4798-8487-5F0EF85687AD}"/>
-    <hyperlink ref="B533" r:id="rId485" xr:uid="{718D5851-9BBB-417F-896C-FE43D16F3A4D}"/>
-    <hyperlink ref="B532" r:id="rId486" xr:uid="{C83ECC66-E854-486D-B085-8332E62DD986}"/>
-    <hyperlink ref="B531" r:id="rId487" xr:uid="{6C70E121-52A7-4A4E-A981-37B0657D8593}"/>
-    <hyperlink ref="B530" r:id="rId488" xr:uid="{7975C059-3D69-4EFC-B0F0-438B597DD02B}"/>
-    <hyperlink ref="B529" r:id="rId489" xr:uid="{CBFFD9F9-1924-4578-852C-E4E4D4F6B784}"/>
-    <hyperlink ref="B528" r:id="rId490" xr:uid="{2CD2CD1B-9C3C-4C7D-AFED-06B79C468792}"/>
-    <hyperlink ref="B527" r:id="rId491" xr:uid="{34BC4919-6511-427E-8554-175CC64515BB}"/>
-    <hyperlink ref="B524" r:id="rId492" xr:uid="{61AD4126-D97B-47F8-91B1-D347C06190F4}"/>
-    <hyperlink ref="B523" r:id="rId493" xr:uid="{92B7BAA5-78A6-4EF6-A500-A32787041C04}"/>
-    <hyperlink ref="B522" r:id="rId494" xr:uid="{44554CD3-F819-413A-BB9F-BE303DE89A3B}"/>
-    <hyperlink ref="B521" r:id="rId495" xr:uid="{65BE9D41-7F81-45F5-AE54-625C7DAB520E}"/>
-    <hyperlink ref="B520" r:id="rId496" xr:uid="{D85877B4-CFCA-4026-BCB4-63E459574961}"/>
-    <hyperlink ref="B519" r:id="rId497" xr:uid="{005B0257-32FC-445C-B04B-A169A826F408}"/>
-    <hyperlink ref="B518" r:id="rId498" xr:uid="{D27E911E-1D37-424A-BFEA-E4451C78B9D3}"/>
-    <hyperlink ref="B517" r:id="rId499" xr:uid="{8D3E7F9E-C098-4D93-9017-8967CC59BF2C}"/>
-    <hyperlink ref="B516" r:id="rId500" xr:uid="{A9AE53DD-DBF0-49E7-BC43-F701E306B6D0}"/>
-    <hyperlink ref="B515" r:id="rId501" xr:uid="{8683FFDA-503B-497B-B944-3D38D3359335}"/>
-    <hyperlink ref="B514" r:id="rId502" xr:uid="{363CA635-6CB9-4D85-A1E0-D9885D98C55E}"/>
-    <hyperlink ref="B513" r:id="rId503" xr:uid="{3AE4B690-DA63-4D10-B812-049DF588F74E}"/>
-    <hyperlink ref="B512" r:id="rId504" xr:uid="{A3B9133D-B68C-4F2D-9D64-EE4ADBE23AD7}"/>
-    <hyperlink ref="B525" r:id="rId505" xr:uid="{5845F5F8-673B-48BE-9C8A-BE5879ABE930}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{8634DB74-BA23-433F-A843-942C0D050C46}"/>
-    <hyperlink ref="B566" r:id="rId507" xr:uid="{FAB2511C-8DCB-4669-A411-7EA8620D9CAA}"/>
-    <hyperlink ref="B565" r:id="rId508" xr:uid="{C8A1AB53-CED8-43BB-91D5-EEBAF993023A}"/>
-    <hyperlink ref="B564" r:id="rId509" xr:uid="{7B1FAE2B-B68E-4260-AEA6-8774672D8DCD}"/>
-    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{3CB17845-F4A1-4D58-8DA5-077BEBCE08AF}"/>
-    <hyperlink ref="B562" r:id="rId511" xr:uid="{413E4171-74EE-4C79-A3DB-DDB5D8E1F7EC}"/>
-    <hyperlink ref="B561" r:id="rId512" xr:uid="{D4E8392B-C517-4CBF-A301-3BD3112D161E}"/>
-    <hyperlink ref="B560" r:id="rId513" xr:uid="{636C72CA-08F6-4A45-B124-22D926ADECA6}"/>
-    <hyperlink ref="B559" r:id="rId514" xr:uid="{8A56649D-B93E-461A-B79B-063018C853B8}"/>
-    <hyperlink ref="B558" r:id="rId515" xr:uid="{97505C90-A371-4474-9A2A-8293E04B64E0}"/>
-    <hyperlink ref="B557" r:id="rId516" xr:uid="{F079E6C8-7B42-4EA5-8E41-C2D545CFEA0C}"/>
-    <hyperlink ref="B556" r:id="rId517" xr:uid="{9170BD36-4F2C-49AB-8159-5778219DC88E}"/>
-    <hyperlink ref="B555" r:id="rId518" xr:uid="{B4CE2D92-3CAA-4F41-8FCB-BD961753D51B}"/>
-    <hyperlink ref="B554" r:id="rId519" xr:uid="{09D4249F-FA28-487E-B888-A881E11C563B}"/>
-    <hyperlink ref="B553" r:id="rId520" xr:uid="{97E5F5BF-418E-4F3D-B29A-D444ABA57A21}"/>
-    <hyperlink ref="B552" r:id="rId521" xr:uid="{DF7325AA-63CC-4657-9132-DE7E8C6A8E89}"/>
-    <hyperlink ref="B551" r:id="rId522" xr:uid="{A3A8A934-BED5-4E3F-903F-E31C090BAEE3}"/>
-    <hyperlink ref="B550" r:id="rId523" xr:uid="{9BFD0F6C-327B-48BB-A5D2-D2011DBFDAC3}"/>
-    <hyperlink ref="B549" r:id="rId524" xr:uid="{7681A327-5BDC-4067-9E9C-60EA3B20D099}"/>
-    <hyperlink ref="B548" r:id="rId525" xr:uid="{180D2675-F6D3-49D8-BF3F-E47E0AEAC09E}"/>
-    <hyperlink ref="B547" r:id="rId526" xr:uid="{CD10BEA2-38F6-4AA2-AFDD-87468CCCA9E2}"/>
-    <hyperlink ref="B546" r:id="rId527" xr:uid="{3F3F688A-42FE-4DE4-8270-E30D266BEE1B}"/>
-    <hyperlink ref="B545" r:id="rId528" xr:uid="{6C1075CF-3FF9-412B-B72A-E7595149A072}"/>
-    <hyperlink ref="B544" r:id="rId529" xr:uid="{8367117F-2994-4A3C-90EC-B63B8239CA69}"/>
-    <hyperlink ref="B543" r:id="rId530" xr:uid="{4901C466-FF20-4651-BB53-3BCABFB7497C}"/>
-    <hyperlink ref="B542" r:id="rId531" xr:uid="{36BDC2C3-FB79-4D36-8E86-EA4D85C8A5C2}"/>
-    <hyperlink ref="B541" r:id="rId532" xr:uid="{B37807F9-E1DF-45EB-BC1D-49D6AC3A1388}"/>
-    <hyperlink ref="B540" r:id="rId533" xr:uid="{7882CFB3-41BB-4A13-898E-6E7C8C684BFF}"/>
-    <hyperlink ref="B539" r:id="rId534" xr:uid="{5BCC1FA9-60BE-4F8A-B405-0F34A6FC17E6}"/>
-    <hyperlink ref="B538" r:id="rId535" xr:uid="{D1937880-E690-47C6-86EC-A4C5283D15FF}"/>
-    <hyperlink ref="B575" r:id="rId536" xr:uid="{A1708D30-D31D-4C6A-AD4E-230F8D7D0B8B}"/>
-    <hyperlink ref="B574" r:id="rId537" xr:uid="{35FD5C7B-CEB8-4B0C-9D6E-AE0D4254EA34}"/>
-    <hyperlink ref="B573" r:id="rId538" xr:uid="{A748742A-01B3-4DF0-B3D8-C76D0C4F9F38}"/>
-    <hyperlink ref="B572" r:id="rId539" xr:uid="{589A1FF7-F995-4639-9A2F-A8A14ACB246E}"/>
-    <hyperlink ref="B571" r:id="rId540" xr:uid="{6722589C-AA98-419D-9098-7E25DDF1E647}"/>
-    <hyperlink ref="B570" r:id="rId541" xr:uid="{2180DCE6-65EA-4150-9102-752AADB9B0A6}"/>
-    <hyperlink ref="B569" r:id="rId542" xr:uid="{06EAB9B2-B85C-4BA3-9866-A4123DF38CC7}"/>
-    <hyperlink ref="B568" r:id="rId543" xr:uid="{0D0F91EB-4C7A-43C9-B9B8-5E9C1D382586}"/>
-    <hyperlink ref="B567" r:id="rId544" xr:uid="{2DDCCECE-924E-4736-8103-5FA076DF05A9}"/>
-    <hyperlink ref="B586" r:id="rId545" xr:uid="{FFC4AF3A-68C6-419A-AB95-F838976F0FB4}"/>
-    <hyperlink ref="B585" r:id="rId546" xr:uid="{66A8DDBF-F26C-4741-89CD-F2A6B7809DC0}"/>
-    <hyperlink ref="B584" r:id="rId547" xr:uid="{7EBDDBAB-6CF1-4EFE-91AF-DD1395C49609}"/>
-    <hyperlink ref="B583" r:id="rId548" xr:uid="{7B8D0E13-A092-4BA7-994D-69705AF7C451}"/>
-    <hyperlink ref="B582" r:id="rId549" xr:uid="{C12548C0-6A9D-4A45-A80F-876691870A4F}"/>
-    <hyperlink ref="B581" r:id="rId550" xr:uid="{77F01D9F-A6BB-48F4-BD35-3FC17AECD0AD}"/>
-    <hyperlink ref="B580" r:id="rId551" xr:uid="{A46EA73A-34A0-4CEA-A86B-C0A7A53F840C}"/>
-    <hyperlink ref="B579" r:id="rId552" xr:uid="{01D4BBB8-3DD5-4A8D-A390-FB06F7611AF0}"/>
-    <hyperlink ref="B578" r:id="rId553" xr:uid="{A3201918-A635-44BB-9922-8117D87E3290}"/>
-    <hyperlink ref="B577" r:id="rId554" xr:uid="{3E44434F-B369-4F87-AF90-16716F8E7F05}"/>
-    <hyperlink ref="B576" r:id="rId555" xr:uid="{734D0EC0-66E3-464C-973D-37FF4D2E9D73}"/>
-    <hyperlink ref="B587" r:id="rId556" xr:uid="{5CE7C9FA-F791-4DF8-9904-DA4221D78040}"/>
-    <hyperlink ref="B588" r:id="rId557" xr:uid="{61861C95-9C07-4705-8643-3136609920BA}"/>
-    <hyperlink ref="B589" r:id="rId558" xr:uid="{DAE8B212-69A9-475E-A796-2C24967C1034}"/>
-    <hyperlink ref="B590" r:id="rId559" xr:uid="{C08B6ED2-D707-4E40-AD06-60E85E679A5F}"/>
-    <hyperlink ref="B591" r:id="rId560" xr:uid="{95123943-24E7-4EDA-A580-65BBECB56B5C}"/>
-    <hyperlink ref="B592" r:id="rId561" xr:uid="{D928853B-4F1D-4B63-B23D-3A7B7A6590B7}"/>
-    <hyperlink ref="B593" r:id="rId562" xr:uid="{DD4F2CD9-1A0D-4604-AF83-ECCBBE176E74}"/>
-    <hyperlink ref="B594" r:id="rId563" xr:uid="{DFB821C3-D6E9-4070-A0CA-A968795B7EA4}"/>
-    <hyperlink ref="B595" r:id="rId564" xr:uid="{75E534CE-3C15-4C64-9923-9160E17604B8}"/>
-    <hyperlink ref="B596" r:id="rId565" xr:uid="{CFCED20F-8016-4B7C-9137-D086EEFA3156}"/>
-    <hyperlink ref="B597" r:id="rId566" xr:uid="{45F4D320-55FF-405A-9BB0-393CD50F9343}"/>
-    <hyperlink ref="B598" r:id="rId567" xr:uid="{CF0F514C-1297-499F-92B4-098578390B44}"/>
-    <hyperlink ref="B599" r:id="rId568" xr:uid="{63AE43E0-FD06-4A34-AA48-69F587B7A37D}"/>
-    <hyperlink ref="B600" r:id="rId569" xr:uid="{79711300-F037-427F-969A-5CAA41657EA3}"/>
-    <hyperlink ref="B601" r:id="rId570" xr:uid="{1B375AB5-968B-4ACB-8168-B71DAE9411EE}"/>
-    <hyperlink ref="B602" r:id="rId571" xr:uid="{F2F15D2E-EBA8-4965-B9C6-9569720EBED1}"/>
-    <hyperlink ref="B603" r:id="rId572" xr:uid="{483C80F0-3244-4F38-B688-3C71C95C23A6}"/>
-    <hyperlink ref="B604" r:id="rId573" xr:uid="{998CF521-D195-4BA0-9C20-58DC8C38B4E7}"/>
-    <hyperlink ref="B605" r:id="rId574" xr:uid="{879D5D14-CF48-42E9-87C4-369B628EB083}"/>
-    <hyperlink ref="B606" r:id="rId575" xr:uid="{8FB4D899-26A0-4D3B-9D12-00D0FA89FA0E}"/>
-    <hyperlink ref="B607" r:id="rId576" xr:uid="{4AF17D1A-C776-440C-AF53-7E90CE18EF5A}"/>
-    <hyperlink ref="B608" r:id="rId577" xr:uid="{DDC77E15-65CB-4483-9B3E-F92C209AAB83}"/>
-    <hyperlink ref="B609" r:id="rId578" xr:uid="{309ECD9E-4E6E-4960-A35C-DCC355FE19CB}"/>
-    <hyperlink ref="B610" r:id="rId579" xr:uid="{A63A2723-0288-4BB9-B286-1AC74696147D}"/>
-    <hyperlink ref="B612" r:id="rId580" xr:uid="{B5BB754B-6D77-476C-8046-4AA7B96F0678}"/>
-    <hyperlink ref="B613" r:id="rId581" xr:uid="{C167E42A-4A8F-469E-A742-F1CA4F315778}"/>
-    <hyperlink ref="B614" r:id="rId582" xr:uid="{17338571-39B8-4D52-911E-AF36C2672E23}"/>
-    <hyperlink ref="B615" r:id="rId583" xr:uid="{7FB3DF3C-D3B4-4C99-8B02-9FD61B068BF3}"/>
-    <hyperlink ref="B618" r:id="rId584" xr:uid="{F9EE95EA-316C-4192-92B7-AF3275275391}"/>
-    <hyperlink ref="B619" r:id="rId585" xr:uid="{C3EC3522-0F5F-4787-A4CB-5C6C0CD70A14}"/>
-    <hyperlink ref="B620" r:id="rId586" xr:uid="{99548E33-4C3C-4CC8-B18D-D316B5F4C398}"/>
-    <hyperlink ref="B621" r:id="rId587" xr:uid="{01F147AC-296E-4293-9E8F-C820509E5C25}"/>
-    <hyperlink ref="B622" r:id="rId588" xr:uid="{EDA844CA-DA11-43BD-A93C-A6587465C5CC}"/>
-    <hyperlink ref="B623" r:id="rId589" xr:uid="{CAF99324-DCBC-4317-9657-4C4791B70EF0}"/>
-    <hyperlink ref="B624" r:id="rId590" xr:uid="{4372E215-C473-417D-ABA4-CF19C34891B4}"/>
-    <hyperlink ref="B625" r:id="rId591" xr:uid="{5DE16D0E-6214-42D3-9035-D2BE8EAC8D8A}"/>
-    <hyperlink ref="B626" r:id="rId592" xr:uid="{394683DB-3A9A-4524-A93B-5F7B36A859A0}"/>
-    <hyperlink ref="B627" r:id="rId593" xr:uid="{08A90C12-072C-404A-9D64-1448FA75004C}"/>
-    <hyperlink ref="B628" r:id="rId594" xr:uid="{61C4677D-3445-41A3-BDA1-8AEB00C61B03}"/>
-    <hyperlink ref="B629" r:id="rId595" xr:uid="{F483FF89-8C90-4E40-89AA-0F8E0F554910}"/>
-    <hyperlink ref="B630" r:id="rId596" xr:uid="{D62E163D-5C8D-4DB9-B2A2-F8FB5C183DC5}"/>
-    <hyperlink ref="B631" r:id="rId597" xr:uid="{A9A6B426-DE30-4A6F-8D79-2A04003AF841}"/>
-    <hyperlink ref="B632" r:id="rId598" xr:uid="{BF71BC06-1705-454D-9BD3-7A6A7751CC7A}"/>
-    <hyperlink ref="B611" r:id="rId599" xr:uid="{CF9D4D41-2388-49A5-B119-684E0CAADB58}"/>
-    <hyperlink ref="B616" r:id="rId600" xr:uid="{20A7EF04-2D83-4EA7-9C51-9AF89AA1A9F9}"/>
-    <hyperlink ref="B617" r:id="rId601" xr:uid="{E9036764-F6FE-4E73-A479-CFBE0ADF1BA9}"/>
-    <hyperlink ref="B633" r:id="rId602" xr:uid="{AA80CED2-153A-4C71-BA7D-64AE0D698178}"/>
-    <hyperlink ref="B634" r:id="rId603" xr:uid="{77F0C36B-5B3B-44A8-9221-BD990DEF30B9}"/>
-    <hyperlink ref="B635" r:id="rId604" xr:uid="{BB6D82BB-50F8-42F5-AB13-C31BDDF35A6A}"/>
-    <hyperlink ref="B636" r:id="rId605" xr:uid="{ECBEA448-EF6E-44E7-952D-1F79D994E484}"/>
-    <hyperlink ref="B637" r:id="rId606" xr:uid="{C26E5D0F-ABE5-456E-8A3E-B06F433DA8B8}"/>
-    <hyperlink ref="B638" r:id="rId607" xr:uid="{73F01F6F-FAB4-4B16-B803-D03D9E567CE4}"/>
-    <hyperlink ref="B639" r:id="rId608" xr:uid="{8B786026-D9DA-44C4-B0F4-79036C9C241B}"/>
-    <hyperlink ref="B640" r:id="rId609" xr:uid="{1D22B18A-7B08-491E-877E-C66B705F9345}"/>
-    <hyperlink ref="B641" r:id="rId610" xr:uid="{B8BB4CC6-102D-47B5-962A-D0A7ECF1444E}"/>
-    <hyperlink ref="B642" r:id="rId611" xr:uid="{EB20277C-6AB3-4990-A933-9CBFAD255B21}"/>
-    <hyperlink ref="B643" r:id="rId612" xr:uid="{3104435E-A34F-4C5C-AA97-7D9A5A252D31}"/>
-    <hyperlink ref="B644" r:id="rId613" xr:uid="{828BEA4E-5F17-4C3B-8A23-9EB416C26A3C}"/>
-    <hyperlink ref="B645" r:id="rId614" xr:uid="{4CEE22D6-BF25-41B5-8528-C84D282B35B1}"/>
-    <hyperlink ref="B646" r:id="rId615" xr:uid="{F369744E-C712-4DF7-8051-9F0F4A5719AB}"/>
-    <hyperlink ref="B647" r:id="rId616" xr:uid="{AA365146-3385-4424-9224-C5BC6FE4F720}"/>
-    <hyperlink ref="B648" r:id="rId617" xr:uid="{2CA71FA1-7404-49CE-A54A-F34A478CD76D}"/>
-    <hyperlink ref="B649" r:id="rId618" xr:uid="{E682FD14-B285-4B93-845A-FC8EA1FAD2C8}"/>
-    <hyperlink ref="B650" r:id="rId619" xr:uid="{3294DB9F-6F16-4B94-9A3F-8260FB6C4127}"/>
-    <hyperlink ref="B651" r:id="rId620" xr:uid="{7DD81B4F-4DB6-4B34-9FD1-77E8D036019E}"/>
-    <hyperlink ref="B652" r:id="rId621" xr:uid="{0CADB238-6E78-4246-9A65-129080CB0CDC}"/>
-    <hyperlink ref="B653" r:id="rId622" xr:uid="{CFE67B98-A6B4-4D66-8A12-85B41DEF25DA}"/>
-    <hyperlink ref="B654" r:id="rId623" xr:uid="{484AE195-71D5-4C26-9803-76F8E2542414}"/>
-    <hyperlink ref="B655" r:id="rId624" xr:uid="{A22FD441-6DCF-4242-B273-D4D438BE87BF}"/>
-    <hyperlink ref="B656" r:id="rId625" xr:uid="{20F84FE5-CAA8-42A7-9CA6-24AE2DC8C82E}"/>
-    <hyperlink ref="B657" r:id="rId626" xr:uid="{773295EB-F3B1-41AC-A3A7-77813BB7A8F5}"/>
-    <hyperlink ref="B658" r:id="rId627" xr:uid="{FA4194E9-ECB0-4475-B223-D4046E180F12}"/>
-    <hyperlink ref="B659" r:id="rId628" xr:uid="{19C9DA51-2267-4769-8743-B95B4C79E33D}"/>
-    <hyperlink ref="B660" r:id="rId629" xr:uid="{30104C55-FF2C-4DCE-96B2-4AE822129738}"/>
-    <hyperlink ref="B661" r:id="rId630" xr:uid="{497C47EA-41F3-4BE2-9410-AFC7A689FE40}"/>
-    <hyperlink ref="B662" r:id="rId631" xr:uid="{142F406D-A792-4E67-9D91-155BBCCAB96B}"/>
-    <hyperlink ref="B663" r:id="rId632" xr:uid="{D33D863E-0298-43C9-A53C-0ED395CC1DCB}"/>
-    <hyperlink ref="B664" r:id="rId633" xr:uid="{E7AF7C6B-D1CF-4C6E-95FD-938FCF924C56}"/>
-    <hyperlink ref="B665" r:id="rId634" xr:uid="{3DF03CDF-991C-4E7C-93A2-0F3E4FF8611E}"/>
-    <hyperlink ref="B666" r:id="rId635" xr:uid="{04E8C696-304C-4496-A04E-D64B4BEE7973}"/>
-    <hyperlink ref="B667" r:id="rId636" xr:uid="{9BF11341-6F3E-4A54-82FC-91A5F36E14D3}"/>
-    <hyperlink ref="B675" r:id="rId637" xr:uid="{AC63BF6A-8D9B-4D13-9DC0-252B49E68B36}"/>
-    <hyperlink ref="B668" r:id="rId638" xr:uid="{8949B40E-E3A8-444C-936A-54DE291FB1D9}"/>
-    <hyperlink ref="B669" r:id="rId639" xr:uid="{341C3DE8-5303-4A2F-8CBA-D4B467B5F74A}"/>
-    <hyperlink ref="B670" r:id="rId640" xr:uid="{7112A7BA-7A82-4FEA-A829-1F3D862015A5}"/>
-    <hyperlink ref="B671" r:id="rId641" xr:uid="{8D99B295-0CC9-42FF-A83B-3D3CC3590A41}"/>
-    <hyperlink ref="B672" r:id="rId642" xr:uid="{6494E424-77F9-42E9-A225-C631A52113D1}"/>
-    <hyperlink ref="B673" r:id="rId643" xr:uid="{89F01233-96DE-49FB-A25F-432FADD742E6}"/>
-    <hyperlink ref="B674" r:id="rId644" xr:uid="{52F34862-37E5-40F2-80FA-545C91A9FF12}"/>
-    <hyperlink ref="B678" r:id="rId645" xr:uid="{6F437638-BB16-4E68-A440-DE65311ADF88}"/>
-    <hyperlink ref="B682" r:id="rId646" xr:uid="{0D0B3261-600C-4D37-8939-D7CB42225A5E}"/>
-    <hyperlink ref="B684" r:id="rId647" xr:uid="{B85417CB-969B-4112-A305-E3B55208AF15}"/>
-    <hyperlink ref="B680" r:id="rId648" xr:uid="{F0093F60-6460-42E5-BF7C-4C10306BBAAB}"/>
-    <hyperlink ref="B687" r:id="rId649" xr:uid="{E212C8C7-7270-43F5-87AF-FD20321001AE}"/>
-    <hyperlink ref="B686" r:id="rId650" xr:uid="{42F4BB83-D42F-4417-85B4-2B24794CB3C5}"/>
-    <hyperlink ref="B683" r:id="rId651" xr:uid="{48212161-6363-4DFB-9FDF-C789AAC3D372}"/>
-    <hyperlink ref="B685" r:id="rId652" xr:uid="{976CF765-4572-4229-AC55-2BBC37893B80}"/>
-    <hyperlink ref="B679" r:id="rId653" xr:uid="{B984A5D8-F92D-484E-AA6B-F73B1E18965A}"/>
-    <hyperlink ref="B676" r:id="rId654" xr:uid="{C5854268-05C1-403C-8A99-49AE3506A87B}"/>
-    <hyperlink ref="B677" r:id="rId655" xr:uid="{E3D3D67A-340D-4B59-B9CD-B09A15CBE822}"/>
-    <hyperlink ref="B681" r:id="rId656" xr:uid="{5F98A9FD-1E0B-4249-88C7-5BB23E436B8F}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{36020548-CCE3-4EFB-AFED-1D9F3842ABCB}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{4C461429-C0AE-4DDF-94F4-57B9949536A8}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{E13FC7FC-A565-4374-A862-94C80EAC5EDF}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{5FB39709-E833-4367-84B0-69D0447BB0D4}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{228D6930-B70A-4212-9A05-D1FF6FA0B571}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{8129687B-E973-4228-B192-23894B570563}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{E61483D4-57C6-42FE-AA7A-6C04B3DEC051}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{032D5EBA-4D02-4363-B7DC-664D26729008}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{C1CA9516-B1E5-41EE-81FF-33DFE7FC201C}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{AC145D6A-88D5-4313-A6CA-1D35A3A4D569}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{AE9AE9D2-CFF7-493A-AD4E-6BF3DB5B8B73}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{F36076C2-5CFF-421A-9331-3B4AF36D01FC}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{0E37A974-44D1-486D-81B1-3C1FA2112DF0}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{1973223D-33C8-4390-A770-CE4C41CB231C}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{5102743C-B811-4085-9078-49508C53C15F}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{550EF6B0-DFA3-485A-94C2-B4DA5DC66C27}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{34FA6FA9-FAD4-4652-A976-A12C3310581D}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{3683102F-F407-49F7-A226-543525A5B2F5}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{4F7902FB-52D5-4449-B20C-A2B20613CF80}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{2C9C47BF-49D7-48E0-8A70-C3D26A76F23A}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{F7E35682-004C-415B-8FBC-E4252E7871A1}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{6E238BA2-393B-48F2-A563-86C41F92A9D7}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{10D8D30D-A80B-48AD-8547-A5B6996A6F6D}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{81DEEBE7-5C65-405B-B6AA-A0C5FBDFFDC3}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{F7462CED-C036-4DB0-9594-7C96EB6CBFCB}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{AB46AAEB-CD43-4FE3-951A-87764B1F6343}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{643209C4-269F-41E6-938B-CEE327094175}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{75AB4365-836A-4A51-8C1A-E73D39A2E39D}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{35D73045-2DCD-47EE-BA09-FC292D514428}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{0067C45C-A201-495B-A517-EDA013D7876C}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{05C1862B-2DFA-42F0-823C-A16F0D5D4EB1}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{685BC3AE-E30D-4791-B3EC-474DB128EAEC}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{CB906D19-65FA-4174-9F4C-0A7C78DF72D2}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{4646A82B-8C73-464E-972D-01389CC6ABC4}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{6E266AD7-CA44-420E-B452-488B2E56C75C}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{527C8B65-A121-4F42-BAC1-29FAFF5AF3BB}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{40C6433B-B20D-4D35-8A08-32B2056E2E31}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{DD904FD2-AFDC-439B-A348-A820234EBA70}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{198DDFDF-FAD7-43EE-BB1B-2251F50C9AF5}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{BB2D8534-B454-479C-B52E-1396057659C4}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{AA98EA45-4B65-4A4A-ABFE-085177ACB449}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{DEC6D9B5-95A5-4DE0-B227-B04500193610}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{E89F559C-DC01-4E2A-BF97-6383EF5B46C9}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{B052F65C-CDD3-4BF2-BD9F-A82B004BD04B}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{CD49EC8F-7349-4B98-AD8C-B13A720D2606}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{9CD0844A-97BE-4155-8153-ACF370FA58BC}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{5D613B41-227F-4CE1-946D-F1F7F98F462C}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{89BCABAC-B821-4D7C-BC13-D218BF6869F2}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{9DDD4A53-C2A0-46EE-8F7F-2ED84EB7DCDE}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{DC49E218-7F70-443D-8F54-3BCC044C860E}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{B4526A7F-6770-46D4-B190-9AFA71480701}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{DC2A02C2-F8C4-4128-BA74-19B76501E443}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{AD413F1B-8D11-4C5A-A216-D436B8848984}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{267A6BF3-4575-48CD-A9F5-2377B72FC9C1}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{261DD002-7674-4233-915F-859D27F10DD5}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{FB4DCD02-09FF-4201-9F05-D396A6853B16}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{B95A4E28-800C-4FA1-BB37-11C72B96C71C}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{BFD29437-3A92-47F8-90BA-A0B6B14C986B}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{AFC93E54-4F8F-4037-BE45-E1E33107B2D3}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{E23696D8-E5A0-4115-BBF2-D4BFC4742B5F}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{11C9A974-E4F3-4AAF-A337-A19095288509}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{C9AC5EE7-4699-4B13-8F3A-9A41EFD38856}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{BC4C6EC3-0F49-4741-B374-CEA1F14D4882}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{D1BD12CE-EA20-40C4-8CBB-06C30C117FDF}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{1A6571A4-739E-48E4-9B94-0D08CD249A92}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{A16243C9-81F5-4BA2-A263-C642F7B35A15}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{F08C6906-D511-4EF2-BD6C-F51D52F1F866}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{09FAD8A5-1010-4AAF-9460-8CFA8E6D15E0}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{5FDB0F6F-7C2A-42BD-912E-1BB6156E45C1}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{CB05656F-374E-4D8B-9261-757AEBE85684}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{C4FAB6D7-EBF8-40CB-8058-8E19004C2EC0}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{8F78AC0A-081A-4B40-B74E-CA8E2666CC2A}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{402F183E-683B-4F23-A88E-46932711B0E4}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{5C8D4451-2325-4691-9078-E586FF436897}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{DEEB069C-B13A-4F75-B473-A18EF04713FF}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{B078FEC4-13A9-429D-B8DC-6F0D10C98810}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{8B6D872F-4485-424E-9555-723F55389872}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{86880ED0-00F5-4A2A-9619-73E1EC42998D}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{F18D1DB0-5ADE-4A69-9958-294B57853748}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{A9365E4B-2D0A-4A78-90E7-B80789AC0517}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{3C434DFE-7B06-43CE-84AD-8E41553577B5}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{1D9D1C35-0910-4DD7-AE8E-5CA5A0D9C66A}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{6355F780-9A2C-444B-8B46-58F2FCAD8D84}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{4BE97349-972D-4B20-A256-38964202E22B}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{AD74C2B3-8CB6-4479-8E20-B3EA549ED879}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{7A680568-434A-4462-9722-A8852CC2AB90}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{7E98B58C-47F6-428A-A495-B779A86C20C9}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{858E7679-9BA7-4EE6-8F11-63D326D75656}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{55968045-E015-4965-AC8F-C7846BFCDAD4}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{330BD575-91BD-4656-B787-C29467FD823D}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{3E53764B-0632-41D4-8E44-1D10191BC3AB}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{3CFC5FD5-4416-4572-A381-182C797A80B3}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{7A2D1768-51BB-437D-B8A4-43734ED380DA}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{DF2604D3-1D3C-4C61-96CF-948768CE91CA}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{7EE598A7-4B34-421A-8E8A-25E3BCF6F4E6}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{0A27560B-DB0F-44C8-A4A2-4544502A9C34}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{04371DDA-696B-4E39-9CEC-1BBF9D06BC87}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{763720A3-4760-4EEA-B6F1-7D1A944BAD24}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{C1344BDE-F7A8-4A6A-B08C-24C590FBC82C}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{A1661300-056B-4EB7-B62B-D6FFB25632E6}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{82DFAADA-C7E2-45B8-B8E0-29BF6EDCF8FF}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{ED6AD157-3432-4C23-B649-B934EB775106}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{D4191232-CF1D-4249-A84C-D13753662839}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{C8CABDF7-C529-4B4E-83A0-DC1010510307}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{611F4C66-FFA4-4FBC-90F2-D9F8F492F85B}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{74381F3A-96AB-4063-BB90-B3EE04C9E607}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{919CB309-A5F8-4DAE-B851-E598FABB1CCA}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{AC9985CE-9AB1-49EE-AAE5-2E88ED025EEC}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{6BD761B0-7E00-4004-9F3C-38F019F503B2}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{0BF38C14-45CE-462E-BCDA-6B0C10ACE990}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{8EF735DE-F145-449A-BB87-45BC5B868C6F}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{4E6BFDEF-766D-4A20-A6F0-D336BB617362}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{A54C78CF-AA99-482E-AAA7-C0A8C1967966}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{EBC901A0-B7C1-452E-80B0-2FE60B4228AE}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{D60C13FD-A751-4297-96E9-E81CAEF21C8C}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{AAAEEC86-CC7D-4404-878A-7421DA3C08B0}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{E478A7D5-D5F8-4F9D-8F5A-F8197F9B5301}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{BA42D991-813D-4830-A5BD-FCC42127C90A}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{6A004D27-269A-4FE0-B5F2-F9DBEE3D4EF3}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{B480B626-C3D5-47BA-9C55-4C0BA0BC03B6}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{C5E4D3C1-7B9A-4ECB-9333-C0B687BDD978}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{20A4B728-53B9-4466-994D-24A0D832FA8F}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{3AC4CD60-4EA2-4AB8-881A-8BFA1D259FA7}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{71A71772-F7A5-47F3-A8A9-31D60E1EAA41}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{9A092AD0-F636-4BA8-B3CA-2FFB172045A5}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{E0C417CD-7B05-46CD-B504-D9494FB648B6}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{C48B64F4-0F53-42AF-88A2-6857B5EB0895}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{05DE9138-3CE1-415F-AE80-F428587346E5}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{E94F1F66-1C08-4E6F-AC47-5DB815FDAF54}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{9EE30E54-54A0-4D11-9C3B-F889BB1035CB}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{F9AEFEF1-4E98-4370-BE7C-A573ACDAB440}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{61F387F5-925C-4509-94B9-1B52EAC64A42}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{7A032445-BF72-4024-84FD-963F34BDADDC}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{75A462B0-22BB-474C-B5AD-4372A0BA3C38}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{5A2FC754-EB43-4180-81F1-0455AF98B7FC}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{FBE53773-1C2D-40AC-A330-1636C735E769}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{A52755EF-B872-4378-B776-0A0BCAF43ACE}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{973CF54D-F8EE-4324-9B6E-B0B3C099A054}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{0B2CAA19-C993-40EA-BC4B-DFC82152F68D}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{BA812BE1-4857-477A-8E55-DC0A4BECBD97}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{5F32DA92-82A5-4DE1-8593-79DDCD2D5BC8}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{AC5E5265-8D9B-405D-9431-928080219B74}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{B5FDBDA5-E1F3-4AD0-BD8D-9B27DB80CA1C}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{949C5682-BE04-495E-B71E-EA9167D0EEB0}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{8D0E7745-A23B-4C8E-93F6-5962BE5EE93B}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{7CE8C469-6311-4095-BF18-2B322E770C66}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{4DD0B25B-C27C-4C8F-BD58-384D4B6A8320}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{8F9E5DA2-EC58-480E-955B-FB3BDFBB569B}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{6FD0CD2A-ACBA-4949-812E-62F3AA807B0D}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{5DB579ED-5F53-4171-84BF-53EA28A4C0D9}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{D656EC51-8410-48F0-B5D6-3457292A9787}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{C7A6851C-BB2E-477A-9769-E7AB159B37BC}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{0D89E688-0063-47E7-9F61-6CF8898EB524}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{74368870-8757-4AA2-833D-06C9BBB608DB}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{7441F45D-3260-4ED5-9990-1F65D938CE70}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{A39366F7-DB62-488A-9AE0-AF49C2A65796}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{C0AE9B2E-B9EB-4EFE-827F-884B4383CCEA}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{9579CDDB-4823-480B-B076-569F3DE02703}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{BC91F9AE-D206-437A-8912-59827F517F66}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{B44150DA-5B1C-44DA-9D91-04B154D85281}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{80F397FA-13EA-4407-9D7A-A6B11B7D8DB3}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{1D0CFCAD-62AD-42FC-9340-570B33F21D27}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{D9B99735-4CC8-4BC6-8164-46E13890B76B}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{E5BD5122-7F9D-4B1C-9109-343BEBF7ECBD}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{19223175-AEAA-4F46-859C-5D31C790B49D}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{319D9113-9CBE-45B7-8B19-E9C68B1AA060}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{6045BB92-78F2-4B42-A278-1E5FB1D2A71B}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{3A560B16-7742-4E2A-9BD4-2720B9C7C3E6}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{068B4DE8-D982-4919-904C-F52CE9EBD32E}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{CA8D9346-9FF7-46DC-8D90-7E168693D6EE}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{BF3AC2E5-EC75-46AB-8140-BCF396D02D7A}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{9697CBF4-E34E-4148-BAEF-60C1BAC4CE36}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{C2F1A40D-71E8-4486-A790-4617A3EB8597}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{AEEE6FB3-4F23-4684-A5E1-4CB9E97701DC}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{4A1A1665-36AA-41E1-8BA8-1E9DA59C2BC0}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{76C0C1E3-BA0D-4FD1-8BE3-1D8634C303F3}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{E916C7B5-F760-4DA3-932D-013417A03577}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{2D6320D2-A210-4C40-8F95-E2E6B7E834FC}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{D1F9A164-4F80-4230-9273-4DF7C2781870}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{F46150C9-CB62-4FE3-AF5F-10FD32F99E9E}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{57111838-17DD-4CC8-914D-B4982177A50F}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{CD2763F1-1DD9-40D2-BDF0-F4D0E08411BC}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{F114163F-3CE5-41D2-99ED-F94CF3F4A9E3}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{A0DD2AF8-5ED2-4390-8C9A-974250FDDEF0}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{D5FD7F36-9AFD-40E4-9771-34B4D2525144}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{81D89C7B-DCE3-442B-8AE2-846DBB4799DD}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{9C261706-4D2D-4918-B319-7024B3951768}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{F4AF7049-14E1-4E2A-9CBF-2E932E2C699B}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{FD22F64D-CEC8-4478-BC2F-B8FD3756AFD4}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{DB7FCA7E-EE65-418D-BEEF-D4D4235D7FE3}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{2CD6661F-1DFC-4C16-A202-C7EAF8078B43}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{67D7A782-5882-4BA7-B0B4-0E9C7DB2D3AB}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{ADC2C1E0-917C-4209-94DE-1D78D4CED690}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{2695C626-7687-458B-B857-5B15CC80618D}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{7C2F9DC9-ECAF-4C67-9CE5-CD2D77FA2AA8}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{E001E33F-7599-40F4-B363-FFF5FE5F69D9}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{AACBC4C3-98A9-46AD-BE48-E8803BA9C7B6}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{83A34B37-AE01-4F25-9349-47B87F25245E}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{D860A884-4559-488F-BEDF-354739066E61}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{625DEABF-9799-4542-A9F6-FE842EE56CAB}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{D924B600-60FF-48F5-93E3-F1847CCDECCC}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{7BBB1D62-95EB-4DB6-AF9A-4D0241F91785}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{980188A6-E109-4259-B376-509252DB9B62}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{1FC7B2F4-9628-4E08-87DE-D05A3BC16E50}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{A6301662-5FD1-4486-B542-F610C2BA748D}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{4F565A0B-DECD-4BCD-BD85-64465C1D32B2}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{02D6DE42-B57A-47C9-BA56-93A8FE8DF64B}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{7CB8C643-17F0-4723-9C21-5AE62C69A656}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{46D5EEA3-4360-4B4D-AAA8-A63CD5A35E9B}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{F15BED50-C8B4-4156-9665-500D7692B52A}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{4CA23550-EF21-4402-A6B2-93263C88DA52}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{AB57861C-2834-49F5-8A31-2604B9026181}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{38574B33-11C8-4664-B1BC-08BCB4F700B0}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{C4074EDD-3477-4C79-B5A8-33E3D8C9885F}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{53C19DFB-876A-4321-8873-1549EB18174A}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{6810A2F3-A140-4E9E-89F8-CCFD02BF43BB}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{18ADD3A8-C6B0-4872-9E64-491544854B81}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{080A3330-17E8-45D9-9E63-C0AD4F09A966}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{AED30902-5C3C-448D-9A90-5F2B56C200BD}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{96321984-A7AA-4850-8983-70D02911A481}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{05CB1200-8A5E-466D-AE92-8723DA1FDC6C}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{6A1F9859-3B12-4EC6-B3DD-BF20E7BB5437}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{3FCB1646-3940-4CD0-A955-557C98A40370}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{1F8005DF-2BFE-4990-9CE4-3E69606D105A}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{ACC6A22E-CC6D-4A99-BDA5-91AC052F7424}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{FF25EAEE-3422-4D7F-8349-8D26558AFD6C}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{5F21C65F-6270-4CE5-8F1E-B98460CC66D4}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{F06E38F6-A677-4BFF-A349-7EF56864FD1F}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{68021B26-BAAE-4043-80DC-1C3E910886D4}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{A17599DF-C07C-4297-B45E-55D5FAB0AA53}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{7888985F-C2BA-4C13-98AF-AFA555E47096}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{6803D4F7-8A35-4501-9DD9-5F893A20E7C8}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{AD1AE513-CD8A-41F9-B333-A12E410814F8}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{6F939456-5C5A-40AF-8FD5-041B9481FBF5}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{EE4878C6-5445-4ED6-B5F2-99A61F9EBD1E}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{F6BEE052-1AC5-426C-BBCC-2C0D62547633}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{D10C20B5-A243-4356-A4EB-ED902EC618D4}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{B6A8BE61-3EC1-44A4-8960-06F594590635}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{4AE83835-C623-46AE-850A-A87611F7D8B0}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{4D7CE6B8-0513-4BC7-BF11-858EEB2AA4D3}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{FF383ACB-19C1-491C-B877-2FD1FA98EEF4}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{EBD32953-2882-4ECC-94DF-9B070C896B7D}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{C46C2B97-6867-43C9-A90B-DF511213B574}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{4BF2A1E8-F9C0-4F81-91B3-54C8F06827A0}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{23CA5A14-5D9E-47F8-A565-E4EC3E44B545}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{F1BF5C82-9480-49FD-A49A-59B84BEDAC90}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{F1BB7E95-9A36-420E-9EC2-87F798FCBB36}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{0F4EF6EA-EDB2-4A15-97E1-7A2E4DF5F0D9}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{AAE745B0-51A0-4B0E-BC00-6F5E4E3788DC}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{B928789E-80C5-42A2-899F-F7F8D085AD6A}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{F9D3F57D-66F9-4E37-895E-126F03D3BC4E}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{61C24D2F-FD68-44B8-ADA9-0A3472359A57}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{D1636BA4-5DEB-4685-A330-761657DCA52A}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{4635AB98-CE70-4E67-95F1-4B622D6DD89F}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{A65C7ABD-C197-4A39-AF95-4EFBA6329847}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{21DE7D61-C1D3-4ADF-BD5C-9889533F0BC4}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{0645A8C4-8DDB-4D86-B321-409E9649C948}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{49C9F82C-490F-4B5C-8426-2C19A623044E}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{5AF25D5F-339D-4726-8A8D-FFCB490A73F7}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{1E47F837-CC83-46C9-8D15-49AD60FC6D5C}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{3345B4FD-74F3-4259-B4CF-4F0714D36A8C}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{94B3DE1A-F2D2-480B-A135-15095BB42AFE}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{AC9901AF-CDCD-4D51-B4D6-56C424DD631D}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{D500D84C-2166-422B-8048-EF8D3AE72C3F}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{14EAEBBA-F599-4C39-929B-AFA0F9FB6F72}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{CA121178-5892-4D06-BC33-FAF7DB6D61E1}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{AD8C4051-2E4F-472E-99A3-12B943B12E40}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{ED2EB39E-3444-41F2-BA96-5E90F705125F}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{D3803237-2D65-48C9-ABD4-C7CE17FB167B}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{9EB157D4-D0A2-479E-A5BD-2D8BAB4A77F0}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{502A5467-1EF1-4558-BC6C-E095E521A458}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{EABE7607-1FDE-42AB-BE71-A69336A1AC21}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{0C5FA442-8345-47BD-B747-5862743EDFC2}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{CBFCD2F2-381F-4C5D-804E-D380EB29BCC8}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{2AC093FA-5F07-415C-AB25-49E3DA984CCE}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{279B9F5A-086F-4F14-9D95-3FD7AAA72656}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{D0F74CA2-EADA-43E2-AC34-87CCCE6F4353}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{00FE7ED9-A748-4556-BA73-364CFAB1EFE3}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{73D9D43A-BFA6-4449-8DBC-AB30DE53D705}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{90102DE2-2E9B-4BD1-BBE3-29E187F61C74}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{F5F50C57-22EF-457B-84AE-411AB94E3001}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{37A0537A-F571-40A3-A966-A48BAD03D655}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{9CE98DFD-E958-40C1-BDF6-5B19460BCC72}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{30AEF579-39CD-49DE-9BC7-E6A281127D1C}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{B8F168F3-FC13-4C2D-94D0-8E98C4875EBB}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{A5D1BEA4-07C4-4F09-ACAE-E8205D2D8CA4}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{874B30E8-955E-4C52-86B5-7CAFC6DAFCE6}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{EA16CEC9-0217-40D3-8F9D-634774CB6DC1}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{57EA25FD-6F95-4CB1-959C-16539A7D47C3}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{F26D83AE-C39C-418F-B604-5CEB57682E4F}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{F6423287-D054-4BB6-98AF-EF5598993160}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{9805EBE5-682A-475A-AF84-3E2A0DFB78AD}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{270B232B-7812-4EFA-88D7-BB2D3269C763}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{5B1D0D24-65B2-43C0-9C1C-5C681C2E09E4}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{1A124DFC-8B11-4576-B54C-A00F2EF2F12E}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{B7086C48-8463-4A81-89FC-F6D0004100E9}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{408F01D5-214C-4DC5-B785-C560960238D2}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{16696D17-423E-47C2-8CDC-1BDE6168D3CE}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{8C8661BB-FBAA-4E19-9B54-0FE86A429BE3}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{6BF5B287-7EBC-4D8F-86A6-F0E00DDD6836}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{B62807E3-FBD2-41C1-8FCD-704889048342}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{F1371E09-58A1-40D3-A6BD-A5C19C862505}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{91112A93-B052-4ACB-8E30-DA1CC42EEA87}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{0AE09823-4D00-4CF8-AB27-F2BA24976E89}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{028B0D20-67A0-4ACE-A7B5-60DDC5F19000}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{EEC59A00-85CE-4A87-9DF5-D6F15DB17AB5}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{CFCE31C5-6FE8-4067-81F9-FF87C70982B7}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{3ECB771B-7084-4286-8DDB-92BD45FE1716}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{1281D6FB-6D55-4FD8-AEE0-C7C857301A1D}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{1F1561CA-FA42-4460-8BAF-149D8541DF10}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{315DEEE9-09BD-49C6-A1D3-DA3F57B250D9}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{7FBD7706-5C16-4AC2-8C13-C8B419A379C8}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{2ADE585D-773A-4EC9-815E-5528DB4F4F4B}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{3BA9120A-75EE-4383-8D45-25938435476B}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{993C6893-2229-4A71-9471-2B0D902DA308}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{3E7F4EFF-3B78-4B7B-976F-3B1A1762A2B0}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{CACEB345-4F48-4402-A844-38FD878767D1}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{440053FF-FEFD-4014-852A-0171A6186C6B}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{BCB3CAC1-950A-4359-86B1-3FC72B18302B}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{5C386A38-F75A-4E81-948D-B9535128507E}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{F67BE817-B2C7-47DF-965F-3EB8F10F06A8}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{7E159066-AD14-428C-A98A-25F60916FAD3}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{92938858-216F-41A6-B9A9-6C16C6E36193}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{DB425FCB-4D47-4DA6-A758-8608C01DD204}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{A9299CA0-AFF2-4F2D-ABD5-E0096CF9FE32}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{3B15EAF6-E7E9-4851-AC38-6DC5933A8816}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{C2BBD7DB-44B3-46A5-95B7-FBCA68E1788E}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{93472CC3-6193-4BE2-8E6B-E9EA1D16FBB9}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{93011DAD-00A6-46B6-8BD7-380783DD0F26}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{666E0C9D-E1C6-4468-983E-47AF19396CDB}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{802185E2-68C0-472C-A924-D953F684955E}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{3E97B9A6-19C0-49DC-9651-90CA89C59C26}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{D05EC410-96D5-4315-B9C9-5CCB1CF39892}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{41E03A12-E2B4-46A0-8222-71C5DDC54ECD}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{2980AC96-798E-42CD-B866-8E775D959D9E}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{1F1EDFEC-3882-45BB-8173-F83633CDCDF9}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{89743571-3086-485C-A0B1-70C8FBDF05C8}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{91F77DD2-D235-49E0-BE30-B19F04E0A51F}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{6E018CD4-1100-4A51-BA48-ADF6F493E66E}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{30644D28-E215-403D-8FE1-EC29DA76A16D}"/>
+    <hyperlink ref="B366" r:id="rId341" xr:uid="{5A677A5A-007C-4F6E-BB0A-73F73F3E1E20}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{8E4B54FD-A549-40AB-970B-445ACC0D3213}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{F9E058F7-5B82-4206-90EA-EE7E56E3FDB8}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{373AEA11-696D-4FCC-9439-C826B3B2CB3A}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{A87BCB6C-BCD4-4AE6-8002-B62EA8DA80BD}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{EAA2DF40-6F99-40E6-8ED0-CE8D4BC0A155}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{5CE71BE8-56EA-4B65-BFDB-44A39CF4BDD3}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{66B62019-DF91-4F51-9B31-3563FCA9B817}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{537692EF-DFE1-4973-BA4D-4C7FD3FB1C0B}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{78E11925-A746-42D1-8C9D-2CCB7B824EAD}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{1289DEE6-64E1-4A44-A30E-90301D77BA34}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{A257FB22-0AE7-49FE-B5A4-C000460C27D3}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{3B8859CD-9200-452F-8D5F-6E553FD4601F}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{7E8FA487-42C2-4CDF-A484-D064C72B2DCD}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{3DD59504-DF82-4EDA-A1FC-2E1671E6B7E6}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{9A71BC54-4FD9-4B74-AE55-5A1F5DAE102B}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{4808BCF4-B433-40AF-A82D-14F321BAC3C9}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{E1A75FF7-BD2B-4988-A2CC-FC0F9D6F46DD}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{980BBCAD-8CC3-4EBC-95EE-D4826A98BFD6}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{0C5D5A48-4EDD-45AF-A4D0-DE65DD030ED2}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{9502CD1F-2D51-4498-A954-4AC3D4CAB3D9}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{BC50BF99-9784-4B5A-917B-0FF32BD16CEA}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{1015E455-96C0-41DF-B02A-EE224611B69D}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{17D9FBAA-9A23-4E20-9B4C-F4FB994EB0FE}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{ADC2E5AE-684B-4777-A846-08960E2DDCD4}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{582F6E52-BCEF-4FE2-BB45-8AEA3E9C7DD2}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{ABA2F93E-8558-43EE-9A34-C3F72FA8143F}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{FD649B88-3CB8-4A92-A70E-077B606D5301}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{EBF8CED7-E7DE-46EF-95B9-E7593A161916}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{79225FD1-6167-47A0-B4AC-30CA9160CB11}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{53C9A3B0-B6D7-4716-80C4-4D48DB98824E}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{A6D88FE3-3A21-4F4B-A31D-0C271766EB85}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{D1104230-42C7-482C-B149-7FB75A603E12}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{3E3B7327-B449-4FC3-9DCB-F4F2C2198E0E}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{491D08B6-6DA5-4DA2-8B58-96EC12BB770C}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{9C302777-BDA4-497A-9B76-E8C0A78D3584}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{7E36ACDF-169B-4CDB-AB14-07066D3F9632}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{653CCD60-0CF4-4C21-AF12-72DC5C781558}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{ABF4EEA2-01F8-440D-9485-85CE19432D1A}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{3DA60B6C-B7E4-436F-9FE7-3DB397E95BEE}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{5A408C5E-AA0A-4807-87A2-D17DBF0CBDAF}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{2620BB08-25DE-446E-8496-6A05E41BA236}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{A1B62963-6ED5-4462-A373-B0789C99AAD1}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{534C4158-8838-4365-A237-0306B3DE3D76}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{705A74B8-AA19-40D0-AC20-99342708FA81}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{28B9F56A-03BE-4A13-8836-C82453741C58}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{0AECD0DE-0420-4427-BEE9-039E52565B57}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{D357DFCD-25AF-43B6-9F9B-F3E2E7BC8CA9}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{89F19DB3-0262-4102-8194-681AE11AB13D}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{3DD86656-3ABF-4C41-BD00-D2EEDFB6A80A}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{BEBF9799-135A-41C3-85FA-FE4E211EAB6B}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{909892F3-0154-42B3-900B-A55E1FAFDA10}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{B39C4B81-A468-4724-B606-150A0435D8E6}"/>
+    <hyperlink ref="B425" r:id="rId394" xr:uid="{137733FC-8ECA-45A7-A129-D3372551CAE6}"/>
+    <hyperlink ref="B424" r:id="rId395" xr:uid="{FC6C7E32-F43A-47F0-9A3D-C9FCDF224C25}"/>
+    <hyperlink ref="B423" r:id="rId396" xr:uid="{177E2843-E36C-4EC4-AAB1-769050769DFC}"/>
+    <hyperlink ref="B422" r:id="rId397" xr:uid="{CA4EAAB6-CD58-4CCB-A569-F330F2ED991B}"/>
+    <hyperlink ref="B421" r:id="rId398" xr:uid="{BD806557-E971-4FBF-8232-ABD8BAC7C463}"/>
+    <hyperlink ref="B420" r:id="rId399" xr:uid="{9E565AB9-F579-4557-9D0F-20A482386A4B}"/>
+    <hyperlink ref="B419" r:id="rId400" xr:uid="{0CEB270E-0A2C-4838-85E1-F9FE9C8FE039}"/>
+    <hyperlink ref="B418" r:id="rId401" xr:uid="{EEA1DEE1-36EC-4F51-9C9F-A8D754FDBA4D}"/>
+    <hyperlink ref="B432" r:id="rId402" xr:uid="{84DD3A95-CE35-4262-A494-C652FD93AFD9}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{56A34233-0CB2-40EA-B4DB-40B719142CBD}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{2C9FE887-309F-4532-8EC2-CAB5F5653894}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{DF3C2A10-835D-4FAD-9E15-4AAB386CE965}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{8E4536B8-5E06-4ED9-A46B-E9BF047BF201}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{DFE8192C-2C8C-4B96-9DD0-A53DC6A32F29}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{B1730670-AB0A-479A-9458-791D84B7B34D}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{4E78EC0D-8692-44EF-AEDC-FF8B422C82DB}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{300A9455-AD4D-421B-9E55-504DF1BB6A82}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{D81D01F8-2C41-48CB-85DF-56830F9E2BDD}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{79ACB1EF-0A36-4146-990E-F40CFA53A0ED}"/>
+    <hyperlink ref="B459" r:id="rId413" xr:uid="{F396A915-5C06-4612-AEC5-53D7BA2E7250}"/>
+    <hyperlink ref="B458" r:id="rId414" xr:uid="{AE7E42DB-1DC7-472B-AFBF-86BBA8584D2E}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{FACF64DF-FB5B-4457-8FF0-BC8A6A5CEB3A}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{64CC4A4F-346A-46A7-9B20-23230E392DE5}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{67A75B1D-DFAB-4071-8985-F2BF26453EB5}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{08E0611D-B45F-41FD-9CD8-D1CB6B1DDC9A}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{E7EEDE07-DEF6-4C0E-9C3A-8F0D1B92D666}"/>
+    <hyperlink ref="B452" r:id="rId420" xr:uid="{D6A7F64B-88D5-4F5F-BC80-CC8C70F47317}"/>
+    <hyperlink ref="B451" r:id="rId421" xr:uid="{918B6E79-D89C-4187-89ED-878B9E806F5B}"/>
+    <hyperlink ref="B450" r:id="rId422" xr:uid="{D4F1E2D1-E3AD-43F7-AA3C-8CFC2ABF7972}"/>
+    <hyperlink ref="B449" r:id="rId423" xr:uid="{FFC90D66-B30E-4DD8-BADE-3B5DD79A27F7}"/>
+    <hyperlink ref="B448" r:id="rId424" xr:uid="{A1956B3E-24BD-42E8-9AC2-2B2DE42EBE6D}"/>
+    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{D0C70EB5-F30F-4813-9995-263B7D94D12C}"/>
+    <hyperlink ref="B446" r:id="rId426" xr:uid="{F59636E9-3F8A-4C30-A4DE-F56B8ADA18A9}"/>
+    <hyperlink ref="B445" r:id="rId427" xr:uid="{5909B979-0878-4CB2-935B-0003690DBB21}"/>
+    <hyperlink ref="B444" r:id="rId428" xr:uid="{7A947159-E636-43CC-BDC5-0ED9ED3D6D01}"/>
+    <hyperlink ref="B443" r:id="rId429" xr:uid="{A1A3044E-E376-4C89-A7A7-DAC6D4B80CF4}"/>
+    <hyperlink ref="B442" r:id="rId430" xr:uid="{4C61397D-7FCF-462F-BC52-247843DC4453}"/>
+    <hyperlink ref="B441" r:id="rId431" xr:uid="{659B0B95-BB05-46C8-987C-8C97A6A6A940}"/>
+    <hyperlink ref="B440" r:id="rId432" xr:uid="{F1DEA8AA-AEED-47CB-8470-C056748F3099}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{9185DD28-41AD-4816-A824-E3F5E0A56433}"/>
+    <hyperlink ref="B511" r:id="rId434" xr:uid="{E4E41621-4122-4705-916F-27F185597D48}"/>
+    <hyperlink ref="B510" r:id="rId435" xr:uid="{A4C9B930-0F78-4CF4-8E64-151E51A39093}"/>
+    <hyperlink ref="B509" r:id="rId436" xr:uid="{877E7599-0694-4C75-B80E-1D3E4DBFE0D4}"/>
+    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{B643C450-F81B-4B73-91BF-A757014A519E}"/>
+    <hyperlink ref="B507" r:id="rId438" xr:uid="{87193ECF-1E17-4328-942A-9703743B50AA}"/>
+    <hyperlink ref="B506" r:id="rId439" xr:uid="{36AC5383-C00E-414E-8AC4-AF6C57F458E6}"/>
+    <hyperlink ref="B504" r:id="rId440" xr:uid="{54ED92E1-73ED-4616-901C-15C2D73FD1B9}"/>
+    <hyperlink ref="B503" r:id="rId441" xr:uid="{990D60A8-8B9F-4C03-87EE-1C9CBF962AA1}"/>
+    <hyperlink ref="B502" r:id="rId442" xr:uid="{F277AC3D-BEC4-4405-9E34-C174480CDD18}"/>
+    <hyperlink ref="B501" r:id="rId443" xr:uid="{12917F54-AB54-4286-945B-CEEA76481E36}"/>
+    <hyperlink ref="B500" r:id="rId444" xr:uid="{8729C487-21BC-463E-98FA-903B34C42A75}"/>
+    <hyperlink ref="B499" r:id="rId445" xr:uid="{342AF94C-A562-45BD-B319-8A4333D197FD}"/>
+    <hyperlink ref="B498" r:id="rId446" xr:uid="{26AA4255-A7C4-4293-B979-BF311849F4FB}"/>
+    <hyperlink ref="B497" r:id="rId447" xr:uid="{3951FACD-2CAB-4C80-ADDE-16F468C2991B}"/>
+    <hyperlink ref="B496" r:id="rId448" xr:uid="{0EDA29E2-089A-4FFA-BF47-3E2FAB67A4B8}"/>
+    <hyperlink ref="B495" r:id="rId449" xr:uid="{FBE750D3-D8AB-4A17-8EEB-47EE38CA19C0}"/>
+    <hyperlink ref="B494" r:id="rId450" xr:uid="{20A3CDDF-6141-44F1-9EFE-82AEA346AD65}"/>
+    <hyperlink ref="B493" r:id="rId451" xr:uid="{472059DF-5887-461A-9068-1FF8C0E46F54}"/>
+    <hyperlink ref="B492" r:id="rId452" xr:uid="{B7FD7ABD-60F8-4C88-BD0B-AC7A995ECEC1}"/>
+    <hyperlink ref="B491" r:id="rId453" xr:uid="{3F0EA136-6216-486F-B674-ADA8EA25D02E}"/>
+    <hyperlink ref="B490" r:id="rId454" xr:uid="{A872D725-88C0-4F8D-B913-6EB9295D3549}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{1B8436AF-471E-4831-B504-CA8848CCFC8C}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{6BB46A0D-202B-469C-82CA-4065AA628FAC}"/>
+    <hyperlink ref="B487" r:id="rId457" xr:uid="{9893D6EC-915C-4DCF-B752-F790301B83AB}"/>
+    <hyperlink ref="B486" r:id="rId458" xr:uid="{D932170B-14B2-4CD5-9C4C-AAF703452F30}"/>
+    <hyperlink ref="B485" r:id="rId459" xr:uid="{A7E35107-72ED-4753-94DB-E85A2E1B5EA8}"/>
+    <hyperlink ref="B484" r:id="rId460" xr:uid="{A7F37591-2275-4F60-9DBB-5255432F3F68}"/>
+    <hyperlink ref="B483" r:id="rId461" xr:uid="{1DB9CA63-8D6B-42C7-B0EE-719085EE3CD7}"/>
+    <hyperlink ref="B482" r:id="rId462" xr:uid="{559E8FEF-61D9-4D77-9EED-B64B1B13B9FB}"/>
+    <hyperlink ref="B481" r:id="rId463" xr:uid="{54749736-A348-4444-AA3F-29D781C7DCBB}"/>
+    <hyperlink ref="B480" r:id="rId464" xr:uid="{E43533A8-0C27-46FB-BDC5-696B3BB70666}"/>
+    <hyperlink ref="B479" r:id="rId465" xr:uid="{2EF3AC5E-EAD7-43F9-9C2D-25748ABFF017}"/>
+    <hyperlink ref="B478" r:id="rId466" xr:uid="{F34B1DBA-DD9A-4A80-9DF5-3E6F57D6139E}"/>
+    <hyperlink ref="B477" r:id="rId467" xr:uid="{B9C7D7C0-9C00-4FF9-BCC9-D80A9C1EEB21}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{8F6D4466-6151-4964-B365-4D655A678D69}"/>
+    <hyperlink ref="B474" r:id="rId469" xr:uid="{BC3A9DB6-4CB1-4A90-A872-3066C6A40764}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{6E6D5C13-A9C7-4B3F-8151-7767B71B6FAA}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{AC334F24-361E-4012-A968-4EDB17A13D24}"/>
+    <hyperlink ref="B473" r:id="rId472" xr:uid="{39688EB5-1BD1-4334-91A2-DF372652D695}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{E4956202-C46A-47CA-943C-CD41C7D552EF}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{126F0021-5DF7-4119-8465-B087505221BB}"/>
+    <hyperlink ref="B470" r:id="rId475" xr:uid="{A7A3E9BF-6422-4FD0-9F04-F284443A4559}"/>
+    <hyperlink ref="B468" r:id="rId476" xr:uid="{6EDC7810-E70F-4090-BC60-66E86116D7A6}"/>
+    <hyperlink ref="B467" r:id="rId477" xr:uid="{DB99333F-322D-45D8-A888-5EF866EDE5FC}"/>
+    <hyperlink ref="B466" r:id="rId478" xr:uid="{876304D6-021D-4091-AE1A-18DE58146E59}"/>
+    <hyperlink ref="B465" r:id="rId479" xr:uid="{87AF6D23-5C4D-484C-962A-10CC409CFDC2}"/>
+    <hyperlink ref="B464" r:id="rId480" xr:uid="{CFC46D4A-0301-4D8B-B5FC-AAF689C82B75}"/>
+    <hyperlink ref="B537" r:id="rId481" xr:uid="{863B629D-91EA-4419-8BAA-C39C5CE469A1}"/>
+    <hyperlink ref="B536" r:id="rId482" xr:uid="{CF1222BA-26AA-49AA-BEA5-008F2AA39E60}"/>
+    <hyperlink ref="B535" r:id="rId483" xr:uid="{16A1A605-B518-4A59-B961-C7DC0BE3C757}"/>
+    <hyperlink ref="B534" r:id="rId484" xr:uid="{1AF6F328-40B7-45CC-9A88-40DD64BEA565}"/>
+    <hyperlink ref="B533" r:id="rId485" xr:uid="{115F08A9-3A9C-406E-A819-E447EF42E000}"/>
+    <hyperlink ref="B532" r:id="rId486" xr:uid="{7B6D4A3B-8A71-4DAE-A987-706E4201E7A9}"/>
+    <hyperlink ref="B531" r:id="rId487" xr:uid="{A95B335D-651B-4A2C-9EAD-F2235B11A32D}"/>
+    <hyperlink ref="B530" r:id="rId488" xr:uid="{C4D1E9B5-A01C-4BE8-A66A-EB69A7C70948}"/>
+    <hyperlink ref="B529" r:id="rId489" xr:uid="{3DC72880-0873-46BE-A0EE-A30FBC58600C}"/>
+    <hyperlink ref="B528" r:id="rId490" xr:uid="{FDF4E807-383C-4C2D-A39A-D2A6866213D2}"/>
+    <hyperlink ref="B527" r:id="rId491" xr:uid="{333B96E7-FD6D-4385-99C8-CD36B1AB7170}"/>
+    <hyperlink ref="B524" r:id="rId492" xr:uid="{69800801-F46F-4C8E-A1CF-4FC428C4C50F}"/>
+    <hyperlink ref="B523" r:id="rId493" xr:uid="{F8C58166-C9D6-4635-BEBD-F18835537499}"/>
+    <hyperlink ref="B522" r:id="rId494" xr:uid="{51C5A7FD-0000-470A-B322-8818E1EE331D}"/>
+    <hyperlink ref="B521" r:id="rId495" xr:uid="{827B44E2-1ADF-45D8-989C-9AADF5989BF3}"/>
+    <hyperlink ref="B520" r:id="rId496" xr:uid="{6A64F405-933A-480E-9656-39D7020BE43A}"/>
+    <hyperlink ref="B519" r:id="rId497" xr:uid="{8E546275-266F-49FD-8829-ACE38DDCDEB9}"/>
+    <hyperlink ref="B518" r:id="rId498" xr:uid="{C44DD0FA-C6AC-4873-9B95-0A37FF95DD2E}"/>
+    <hyperlink ref="B517" r:id="rId499" xr:uid="{0E1B3FD0-0EAD-44E8-A7D5-AC2C32864638}"/>
+    <hyperlink ref="B516" r:id="rId500" xr:uid="{E21F63A9-317E-4546-87EC-4EA81B85FF24}"/>
+    <hyperlink ref="B515" r:id="rId501" xr:uid="{D73945DA-92FC-45B8-8EA1-7D4058BC32F3}"/>
+    <hyperlink ref="B514" r:id="rId502" xr:uid="{EFEE4D29-6F91-4E84-841D-6794AB5A10DA}"/>
+    <hyperlink ref="B513" r:id="rId503" xr:uid="{05225739-37F3-439D-A429-05C77BAC4DC2}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{C030A367-541D-441F-8BAB-944D377B6FDC}"/>
+    <hyperlink ref="B525" r:id="rId505" xr:uid="{34634476-0F9C-4A98-9E20-8F1BB812E532}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{577DBCF3-14FF-4A99-BBCA-2E882F076030}"/>
+    <hyperlink ref="B566" r:id="rId507" xr:uid="{8BB77FE8-AE76-42E4-8048-99B75AAAA340}"/>
+    <hyperlink ref="B565" r:id="rId508" xr:uid="{F2B2BE99-7CE5-4118-A82B-5AA9E0E1B444}"/>
+    <hyperlink ref="B564" r:id="rId509" xr:uid="{DBCFD162-CFB1-4DB9-830B-A615250BBE15}"/>
+    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{678D74C1-247A-4C82-B615-742C74A2D510}"/>
+    <hyperlink ref="B562" r:id="rId511" xr:uid="{2FA85513-1865-477A-986E-CBC3DC576157}"/>
+    <hyperlink ref="B561" r:id="rId512" xr:uid="{CEF7CD5A-9635-4BF4-B1DC-C402B882E9E7}"/>
+    <hyperlink ref="B560" r:id="rId513" xr:uid="{00A9E287-67F5-48A9-AF24-5047698E803B}"/>
+    <hyperlink ref="B559" r:id="rId514" xr:uid="{48862FAD-6648-4E96-A80A-9489D69A24FF}"/>
+    <hyperlink ref="B558" r:id="rId515" xr:uid="{73BBFECA-8986-4E2E-AA96-FF292E1585AF}"/>
+    <hyperlink ref="B557" r:id="rId516" xr:uid="{F2B87F16-0B77-42CD-A12C-90B4E96EDDFC}"/>
+    <hyperlink ref="B556" r:id="rId517" xr:uid="{EAA2A22A-A390-4CFF-AE57-4B97124CB0A9}"/>
+    <hyperlink ref="B555" r:id="rId518" xr:uid="{AC54FA15-CE0D-4159-B234-6F61E0EF32F5}"/>
+    <hyperlink ref="B554" r:id="rId519" xr:uid="{2FD19F48-DEBA-44C4-AF50-F5976BA2F113}"/>
+    <hyperlink ref="B553" r:id="rId520" xr:uid="{9F688114-1770-472E-8DD2-2ED3DF297191}"/>
+    <hyperlink ref="B552" r:id="rId521" xr:uid="{A5EA57E7-BBF4-4A3B-BD70-47E700A62008}"/>
+    <hyperlink ref="B551" r:id="rId522" xr:uid="{788888CF-EFB3-4A91-989F-B96BBE47EA40}"/>
+    <hyperlink ref="B550" r:id="rId523" xr:uid="{038C5223-319A-4AC9-93D6-7A19615B16C2}"/>
+    <hyperlink ref="B549" r:id="rId524" xr:uid="{A30B13C9-DED1-403F-BF3D-1501FA13B31F}"/>
+    <hyperlink ref="B548" r:id="rId525" xr:uid="{D4CF8567-4659-4DB3-AD6A-C5A77A3EAEA5}"/>
+    <hyperlink ref="B547" r:id="rId526" xr:uid="{90FCD8C3-1649-4F79-8B6F-C1277AABAC1D}"/>
+    <hyperlink ref="B546" r:id="rId527" xr:uid="{46860639-D379-4737-B18B-836F4247A998}"/>
+    <hyperlink ref="B545" r:id="rId528" xr:uid="{6ED59BFC-9C10-4BF2-8602-A3093C7ACAAD}"/>
+    <hyperlink ref="B544" r:id="rId529" xr:uid="{87CA0614-939A-4CF9-9252-25D5EF282980}"/>
+    <hyperlink ref="B543" r:id="rId530" xr:uid="{CF326701-9AF6-4FFC-B603-073098C1CB40}"/>
+    <hyperlink ref="B542" r:id="rId531" xr:uid="{D34C97F0-E58E-4BD5-902A-78FABBF90F9D}"/>
+    <hyperlink ref="B541" r:id="rId532" xr:uid="{A31EB793-0C1E-47FA-B5EB-F6D503222CB8}"/>
+    <hyperlink ref="B540" r:id="rId533" xr:uid="{2BD22CE9-A0E3-4DB0-8FF5-04C56A6258AF}"/>
+    <hyperlink ref="B539" r:id="rId534" xr:uid="{2B9F2361-9634-43D3-B878-578E286C9BD0}"/>
+    <hyperlink ref="B538" r:id="rId535" xr:uid="{87A1FB33-A296-4884-A6B3-03A07701190F}"/>
+    <hyperlink ref="B575" r:id="rId536" xr:uid="{40D9BD22-6EEC-4321-A1BB-0A636E19905E}"/>
+    <hyperlink ref="B574" r:id="rId537" xr:uid="{7D9D66EF-B171-4D26-BF9E-283F882ED167}"/>
+    <hyperlink ref="B573" r:id="rId538" xr:uid="{410D34E7-A853-41E2-BC3C-CE467F5FED7C}"/>
+    <hyperlink ref="B572" r:id="rId539" xr:uid="{BA1CF263-1F70-4AD2-ADF6-E862115D0A8A}"/>
+    <hyperlink ref="B571" r:id="rId540" xr:uid="{C829D120-E2E9-4BEC-94F4-E77A6CD26B60}"/>
+    <hyperlink ref="B570" r:id="rId541" xr:uid="{036A2AAF-A927-45E2-A0B4-D1E91DEFB789}"/>
+    <hyperlink ref="B569" r:id="rId542" xr:uid="{BF572B5E-BD46-4BCD-92BB-8F3AF2C9A968}"/>
+    <hyperlink ref="B568" r:id="rId543" xr:uid="{1C563513-7710-4C84-A84F-CF2F15F59239}"/>
+    <hyperlink ref="B567" r:id="rId544" xr:uid="{897BD8EB-27F0-4103-A1A8-365F1DDF5CFD}"/>
+    <hyperlink ref="B586" r:id="rId545" xr:uid="{C8B53541-6C78-4B31-B0DA-ED9806CC1DCA}"/>
+    <hyperlink ref="B585" r:id="rId546" xr:uid="{60456837-168C-4FE3-9E07-25551C7BF914}"/>
+    <hyperlink ref="B584" r:id="rId547" xr:uid="{F14C4C34-D19B-4455-B635-09004136FF39}"/>
+    <hyperlink ref="B583" r:id="rId548" xr:uid="{7F4A0A0F-0027-4252-883C-2287B058AB61}"/>
+    <hyperlink ref="B582" r:id="rId549" xr:uid="{F3FCAE81-64AE-4F11-B3C0-819D2AA43AC7}"/>
+    <hyperlink ref="B581" r:id="rId550" xr:uid="{5D54F262-9ECD-40A5-9175-AAFC3BAC750A}"/>
+    <hyperlink ref="B580" r:id="rId551" xr:uid="{662C61D0-7341-4086-8553-4F7793C057AB}"/>
+    <hyperlink ref="B579" r:id="rId552" xr:uid="{0CC772B0-D9E4-4CD8-A688-94C54D821E58}"/>
+    <hyperlink ref="B578" r:id="rId553" xr:uid="{A4DC05C3-7CC2-44C2-BA5F-8B05A894199B}"/>
+    <hyperlink ref="B577" r:id="rId554" xr:uid="{5CCACB59-BAA5-4260-9A62-11CA05474A5D}"/>
+    <hyperlink ref="B576" r:id="rId555" xr:uid="{E8B65F72-9EF0-4B58-ACD9-9751D7A248AF}"/>
+    <hyperlink ref="B587" r:id="rId556" xr:uid="{3AB42B5F-3A84-43A9-8B84-DB80E8576F9C}"/>
+    <hyperlink ref="B588" r:id="rId557" xr:uid="{1CFAAE7B-F714-435A-8ECD-70D981CE34A3}"/>
+    <hyperlink ref="B589" r:id="rId558" xr:uid="{B25C997B-3522-42BB-AFC3-0989B61A980D}"/>
+    <hyperlink ref="B590" r:id="rId559" xr:uid="{6292D07D-A280-462D-91DF-5730FDFAF0FB}"/>
+    <hyperlink ref="B591" r:id="rId560" xr:uid="{A9499AA9-3A03-4DBC-80C5-B4815D145FB6}"/>
+    <hyperlink ref="B592" r:id="rId561" xr:uid="{F785B83C-9640-4E22-910F-703B0D5E7C76}"/>
+    <hyperlink ref="B593" r:id="rId562" xr:uid="{CD89039C-F036-40AA-AD15-4C2B51F2F8CC}"/>
+    <hyperlink ref="B594" r:id="rId563" xr:uid="{B87257D0-4A26-4195-B338-3081792B220E}"/>
+    <hyperlink ref="B595" r:id="rId564" xr:uid="{819A9A5B-78CF-449C-BF01-B15C7B2AE43A}"/>
+    <hyperlink ref="B596" r:id="rId565" xr:uid="{2CD68A76-1682-4FC9-9224-80DF41B8F476}"/>
+    <hyperlink ref="B597" r:id="rId566" xr:uid="{57294D33-A2AA-4411-96EE-B3DE77205056}"/>
+    <hyperlink ref="B598" r:id="rId567" xr:uid="{7D3770E9-5A39-4693-8D7D-85DFA27C5966}"/>
+    <hyperlink ref="B599" r:id="rId568" xr:uid="{05BDA8EA-0AA4-411C-8138-FEC4907891AC}"/>
+    <hyperlink ref="B600" r:id="rId569" xr:uid="{F04A86BA-32AF-458D-B304-32A90F01FE97}"/>
+    <hyperlink ref="B601" r:id="rId570" xr:uid="{0A49D277-752C-4184-B9F2-146CBF8E7D48}"/>
+    <hyperlink ref="B602" r:id="rId571" xr:uid="{6E67302F-04A2-43C5-A4B4-69C07AFF0D67}"/>
+    <hyperlink ref="B603" r:id="rId572" xr:uid="{E639464D-8C18-478F-B154-1E6BE106302F}"/>
+    <hyperlink ref="B604" r:id="rId573" xr:uid="{B4C69A3D-B8DC-49F3-91D7-9D603B34A37B}"/>
+    <hyperlink ref="B605" r:id="rId574" xr:uid="{C3A76E51-7DE9-48E0-888C-362CA6D1B813}"/>
+    <hyperlink ref="B606" r:id="rId575" xr:uid="{F9C7EA5D-5ABE-41A8-84CE-FA266625D5E4}"/>
+    <hyperlink ref="B607" r:id="rId576" xr:uid="{C529ACAF-651F-4540-8C81-2414E4C9D4A9}"/>
+    <hyperlink ref="B608" r:id="rId577" xr:uid="{6747EBF9-4740-4184-842F-A768F165D48B}"/>
+    <hyperlink ref="B609" r:id="rId578" xr:uid="{9D196D92-2E98-4011-8C62-3D3EEEDC4462}"/>
+    <hyperlink ref="B610" r:id="rId579" xr:uid="{7C14CAB9-BC0F-41B6-A119-90411C017861}"/>
+    <hyperlink ref="B612" r:id="rId580" xr:uid="{55AAB72F-CB15-44C5-8313-AEE100D080CE}"/>
+    <hyperlink ref="B613" r:id="rId581" xr:uid="{5453CE42-16C9-4FF1-AEA5-20E23A5B621C}"/>
+    <hyperlink ref="B614" r:id="rId582" xr:uid="{BBB4B8B3-CEC3-4851-BECD-54C45DE61A6B}"/>
+    <hyperlink ref="B615" r:id="rId583" xr:uid="{87A2C477-F538-4D76-89EB-2A93B72E7A88}"/>
+    <hyperlink ref="B618" r:id="rId584" xr:uid="{F41E606F-CA62-4E7B-AFAA-664FB2F8A5BC}"/>
+    <hyperlink ref="B619" r:id="rId585" xr:uid="{9A24E94C-973C-442A-803F-9AEE837C3344}"/>
+    <hyperlink ref="B620" r:id="rId586" xr:uid="{C9F7DB11-4BA0-4ADA-9885-4034F184FA27}"/>
+    <hyperlink ref="B621" r:id="rId587" xr:uid="{EE4FDBEF-DF02-4E0F-8ED1-3492C9F83015}"/>
+    <hyperlink ref="B622" r:id="rId588" xr:uid="{FA5A2365-A5E9-411A-AAB2-4AFD0EE31DFF}"/>
+    <hyperlink ref="B623" r:id="rId589" xr:uid="{ED29E9CC-5F20-4D7A-8E4E-6F0432D43CB9}"/>
+    <hyperlink ref="B624" r:id="rId590" xr:uid="{8B654925-88A5-42D1-9B10-795FA96EC865}"/>
+    <hyperlink ref="B625" r:id="rId591" xr:uid="{00C5D7FC-4FA8-475A-8A77-380D6AABFB7F}"/>
+    <hyperlink ref="B626" r:id="rId592" xr:uid="{0B6B0BDA-BDC3-480D-828B-BE1EC1CCB1C3}"/>
+    <hyperlink ref="B627" r:id="rId593" xr:uid="{405D250E-D44F-4165-9248-33392315AFAF}"/>
+    <hyperlink ref="B628" r:id="rId594" xr:uid="{9EAE3BC6-766D-494A-85B0-63592CD90604}"/>
+    <hyperlink ref="B629" r:id="rId595" xr:uid="{4F206132-F47C-4800-BD4B-F51D024887AB}"/>
+    <hyperlink ref="B630" r:id="rId596" xr:uid="{C70B0C39-B604-4E89-BB5F-974971F5AE1F}"/>
+    <hyperlink ref="B631" r:id="rId597" xr:uid="{FE10A64C-667D-46B8-B1DB-A399DF7C7F38}"/>
+    <hyperlink ref="B632" r:id="rId598" xr:uid="{B43CAE7F-D972-4C68-8DC9-71670DA4C898}"/>
+    <hyperlink ref="B611" r:id="rId599" xr:uid="{82461285-496E-4BC2-BBCC-7B9C0B1866F0}"/>
+    <hyperlink ref="B616" r:id="rId600" xr:uid="{C584D6E7-B973-4A9C-8BAF-87CA8BA7FE3A}"/>
+    <hyperlink ref="B617" r:id="rId601" xr:uid="{3A93B407-2727-42C3-A1B8-9A8795E06B77}"/>
+    <hyperlink ref="B633" r:id="rId602" xr:uid="{103DD930-B3B4-41DB-A538-86F9923DAB91}"/>
+    <hyperlink ref="B634" r:id="rId603" xr:uid="{D4C89D8D-DBE5-4262-9A1C-BCB508064577}"/>
+    <hyperlink ref="B635" r:id="rId604" xr:uid="{D0985454-A1A6-499F-B4F7-AB5735CD1CF5}"/>
+    <hyperlink ref="B636" r:id="rId605" xr:uid="{44CC5717-9EF1-4BC8-8FDC-CCA7E5EB2F00}"/>
+    <hyperlink ref="B637" r:id="rId606" xr:uid="{BE3B5B37-5BAC-43AB-9CFC-8BF91F371F40}"/>
+    <hyperlink ref="B638" r:id="rId607" xr:uid="{4BEEFC64-936E-457F-A1C4-66EFAC4F37C0}"/>
+    <hyperlink ref="B639" r:id="rId608" xr:uid="{C4868DEA-F677-4E9B-B997-F6CF5D63A69E}"/>
+    <hyperlink ref="B640" r:id="rId609" xr:uid="{53FDF997-E48D-46E0-8028-3B530D9754EE}"/>
+    <hyperlink ref="B641" r:id="rId610" xr:uid="{26191DB0-2147-449D-ACEC-622DA17F8329}"/>
+    <hyperlink ref="B642" r:id="rId611" xr:uid="{F479E343-89A5-48F1-A12A-49817D270104}"/>
+    <hyperlink ref="B643" r:id="rId612" xr:uid="{97ED9E94-F7B4-4EB8-B785-5B66E7AAF6E9}"/>
+    <hyperlink ref="B644" r:id="rId613" xr:uid="{562E4639-4815-4E8D-BB09-E5EA2B7A4E4D}"/>
+    <hyperlink ref="B645" r:id="rId614" xr:uid="{AA7A1203-7E04-4AB6-984F-6BCF86E7D85B}"/>
+    <hyperlink ref="B646" r:id="rId615" xr:uid="{D7616DA2-D34E-46FA-A18F-DE61FA2F2752}"/>
+    <hyperlink ref="B647" r:id="rId616" xr:uid="{8652AB39-7A88-4159-BAD7-3054F776E407}"/>
+    <hyperlink ref="B648" r:id="rId617" xr:uid="{C4DD27B9-D03D-4B04-9D60-D3A98A0488E8}"/>
+    <hyperlink ref="B649" r:id="rId618" xr:uid="{3601E43C-E42E-4848-8693-2895E5CB38D8}"/>
+    <hyperlink ref="B650" r:id="rId619" xr:uid="{4DE134C4-F9DE-4C28-9271-F2F4D0DC1483}"/>
+    <hyperlink ref="B651" r:id="rId620" xr:uid="{1C9F3ADA-42A4-4F7A-94CC-D0415B9D7C2D}"/>
+    <hyperlink ref="B652" r:id="rId621" xr:uid="{CC4A29E5-F3E7-4A78-99EB-C1001E4B6AFF}"/>
+    <hyperlink ref="B653" r:id="rId622" xr:uid="{EF132108-863B-4722-A067-AA81B26966BE}"/>
+    <hyperlink ref="B654" r:id="rId623" xr:uid="{EB4D0347-0ECC-4D42-BF29-2CCD3E868FB5}"/>
+    <hyperlink ref="B655" r:id="rId624" xr:uid="{5CD9FB36-5313-4FCE-8D39-4BF21525774B}"/>
+    <hyperlink ref="B656" r:id="rId625" xr:uid="{E7BFA7E2-1048-46F8-B683-EDEAB1A2A768}"/>
+    <hyperlink ref="B657" r:id="rId626" xr:uid="{F9197AF3-3F6E-4123-A1E0-AF94BB214933}"/>
+    <hyperlink ref="B658" r:id="rId627" xr:uid="{C7323D05-0174-4C7A-9B45-48FF516E8468}"/>
+    <hyperlink ref="B659" r:id="rId628" xr:uid="{150BF676-B236-4509-AAAF-D4B2BE627D9D}"/>
+    <hyperlink ref="B660" r:id="rId629" xr:uid="{1399BE42-1212-4CAD-96C9-6C2BA33FF188}"/>
+    <hyperlink ref="B661" r:id="rId630" xr:uid="{A73C130D-F24D-45F5-BC43-90F863E5574B}"/>
+    <hyperlink ref="B662" r:id="rId631" xr:uid="{66FB52FF-689B-4ABF-B309-05E191D3318D}"/>
+    <hyperlink ref="B663" r:id="rId632" xr:uid="{318482CA-ECC6-43E4-B57E-C23A1209E04E}"/>
+    <hyperlink ref="B664" r:id="rId633" xr:uid="{9396A1E6-9585-4C5A-BBCF-39BF7D7DE807}"/>
+    <hyperlink ref="B665" r:id="rId634" xr:uid="{9673A91E-B873-4FF9-A5EE-093409D9B164}"/>
+    <hyperlink ref="B666" r:id="rId635" xr:uid="{ED96D323-09E8-4AD2-BC4D-D9A89BC55AB2}"/>
+    <hyperlink ref="B667" r:id="rId636" xr:uid="{60F89E08-8C46-4FC0-907D-B43A1CAEC583}"/>
+    <hyperlink ref="B675" r:id="rId637" xr:uid="{69AE7D17-0F98-4451-A561-1A30EDCE01D9}"/>
+    <hyperlink ref="B668" r:id="rId638" xr:uid="{528F8869-45EF-48F3-A8F4-45282EF7DB9F}"/>
+    <hyperlink ref="B669" r:id="rId639" xr:uid="{A1B4931B-9355-4B27-A457-8AD346D47BF6}"/>
+    <hyperlink ref="B670" r:id="rId640" xr:uid="{D3D46E06-372C-48AD-A7FF-D937AC6F30EF}"/>
+    <hyperlink ref="B671" r:id="rId641" xr:uid="{598B54B4-B654-4AF9-AD09-AEB5727609AB}"/>
+    <hyperlink ref="B672" r:id="rId642" xr:uid="{A4F16EC6-EB19-4BCC-A5EC-93F4B377B009}"/>
+    <hyperlink ref="B673" r:id="rId643" xr:uid="{14D5BFF0-67EA-4BE2-A894-6E74F224FD05}"/>
+    <hyperlink ref="B674" r:id="rId644" xr:uid="{D6417F88-5A82-49B2-B263-C59F5D9398D2}"/>
+    <hyperlink ref="B678" r:id="rId645" xr:uid="{838BEB07-A953-4C9E-ACA7-85E0FB06DF85}"/>
+    <hyperlink ref="B682" r:id="rId646" xr:uid="{7AA18793-0038-4BFB-9B85-4E3BA87B5555}"/>
+    <hyperlink ref="B684" r:id="rId647" xr:uid="{33BB2DA5-7D68-4C16-AACD-48726204A0EA}"/>
+    <hyperlink ref="B680" r:id="rId648" xr:uid="{971D53B7-596B-4864-B623-6FC1453EDC44}"/>
+    <hyperlink ref="B687" r:id="rId649" xr:uid="{B9CDD617-41F4-497A-AA42-40EF2193D612}"/>
+    <hyperlink ref="B686" r:id="rId650" xr:uid="{E4771820-73D4-4EEE-AB8B-B17A5439864B}"/>
+    <hyperlink ref="B683" r:id="rId651" xr:uid="{A7D343D0-499C-43DA-B3C2-FA9085203F97}"/>
+    <hyperlink ref="B685" r:id="rId652" xr:uid="{4D327330-D576-4558-8EB2-B1B6B6BF3BA5}"/>
+    <hyperlink ref="B679" r:id="rId653" xr:uid="{FCCBF73B-0EA4-4AB6-A014-BC55007D3D5E}"/>
+    <hyperlink ref="B676" r:id="rId654" xr:uid="{84428DD5-6889-4EAC-85D4-B627C4680A1D}"/>
+    <hyperlink ref="B677" r:id="rId655" xr:uid="{2CF10E07-D82F-4700-A719-81C85C52D6DF}"/>
+    <hyperlink ref="B681" r:id="rId656" xr:uid="{226221AD-3C6F-4618-8325-B2E34967D4EF}"/>
+    <hyperlink ref="B706" r:id="rId657" xr:uid="{02DE07A3-7C0D-423A-820A-AC3E8BD0B198}"/>
+    <hyperlink ref="B705" r:id="rId658" xr:uid="{7A2D488F-8CC7-46DB-86DA-688A622E7B02}"/>
+    <hyperlink ref="B704" r:id="rId659" xr:uid="{CB7BC1F5-B4EC-45DC-AFFC-3BF288307BA7}"/>
+    <hyperlink ref="B703" r:id="rId660" xr:uid="{4F6AA075-D705-4F5B-946C-1BEE3A681918}"/>
+    <hyperlink ref="B702" r:id="rId661" xr:uid="{906DE7A6-D6D1-4B74-80EE-BF5644485B36}"/>
+    <hyperlink ref="B701" r:id="rId662" xr:uid="{CDE9BFEA-0618-4A61-A1CB-673D18262E51}"/>
+    <hyperlink ref="B700" r:id="rId663" xr:uid="{2ADE72FD-951F-468B-B18F-905D2FE64EBF}"/>
+    <hyperlink ref="B699" r:id="rId664" xr:uid="{FF45DD0A-ECF4-4AE8-AA13-27E10902E6E4}"/>
+    <hyperlink ref="B698" r:id="rId665" xr:uid="{7CDDAADB-2BA1-4BDD-B6A9-BC01619272B9}"/>
+    <hyperlink ref="B697" r:id="rId666" xr:uid="{BD4A8FBD-A3C0-4A1C-8C12-22E7DCBC80FB}"/>
+    <hyperlink ref="B696" r:id="rId667" xr:uid="{8F6BC97D-D650-48F4-845D-09D5ECDBF01D}"/>
+    <hyperlink ref="B695" r:id="rId668" xr:uid="{AF8E18D7-5458-4374-A645-86206F57CAE7}"/>
+    <hyperlink ref="B694" r:id="rId669" xr:uid="{2F5B138F-ED16-4C3D-B199-7E339E1BA226}"/>
+    <hyperlink ref="B693" r:id="rId670" xr:uid="{22A1EB75-52BA-46AB-9B17-C8F4308723A5}"/>
+    <hyperlink ref="B692" r:id="rId671" xr:uid="{F832DA2F-E3CE-4A68-9B65-C4CA2CE1DD35}"/>
+    <hyperlink ref="B691" r:id="rId672" xr:uid="{0CD39153-A0F5-4AB9-9D38-2E841336B1A8}"/>
+    <hyperlink ref="B690" r:id="rId673" xr:uid="{967BFC24-19D1-4B75-A7B2-F72905385423}"/>
+    <hyperlink ref="B689" r:id="rId674" xr:uid="{B53D0B42-0B10-438B-9A52-FC21B58F11BB}"/>
+    <hyperlink ref="B688" r:id="rId675" xr:uid="{06130DE0-417A-4C3B-BD3E-21D859D920D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId657"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId676"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA9492-787E-4F07-8247-86F0FDA1DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6700EC-0F8D-4275-ADCB-E945F4E82350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1718">
   <si>
     <t>titulo</t>
   </si>
@@ -5161,6 +5161,36 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/9e8c3c9a-33b8-17fb-b42a-174c72987e00?title=Thumbtack%20%7C%20Podcast%20com%20Sander%20Daniels</t>
+  </si>
+  <si>
+    <t>﻿CBA | IE com BTG (batendo números)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/9d0d064a-2066-4498-9ac4-e1e3a4da61f2?title=CBA%20%7C%20IE%20com%20BTG%20(batendo%20n%C3%BAmeros)</t>
+  </si>
+  <si>
+    <t>﻿Smart Fit | Large Group @IBBA</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/31da4f88-ef5b-427f-806a-c8fef8d834a2?title=Smart%20Fit%20%7C%20Large%20Group%20@IBBA</t>
+  </si>
+  <si>
+    <t>﻿Smart Fit | Reunião de Dúvidas com RI</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/3384aefa-ae97-477e-829c-cbaccce62c0d?title=Smart%20Fit%20%7C%20Reuni%C3%A3o%20de%20D%C3%BAvidas%20com%20RI</t>
+  </si>
+  <si>
+    <t>﻿CBA | Group Meeting</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/e3203f72-773b-b235-d8ad-daf8e4339453?title=CBA%20%7C%20Group%20Meeting</t>
+  </si>
+  <si>
+    <t>﻿CBA | Pager</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/21da58a8-ad34-661f-770c-26c27c62ffce?title=CBA%20%7C%20Pager</t>
   </si>
 </sst>
 </file>
@@ -5562,10 +5592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B872"/>
+  <dimension ref="A1:B877"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
+      <selection activeCell="A878" sqref="A878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12550,851 +12580,896 @@
         <v>1673</v>
       </c>
     </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{36020548-CCE3-4EFB-AFED-1D9F3842ABCB}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{4C461429-C0AE-4DDF-94F4-57B9949536A8}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{E13FC7FC-A565-4374-A862-94C80EAC5EDF}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{5FB39709-E833-4367-84B0-69D0447BB0D4}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{228D6930-B70A-4212-9A05-D1FF6FA0B571}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{8129687B-E973-4228-B192-23894B570563}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{E61483D4-57C6-42FE-AA7A-6C04B3DEC051}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{032D5EBA-4D02-4363-B7DC-664D26729008}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{C1CA9516-B1E5-41EE-81FF-33DFE7FC201C}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{AC145D6A-88D5-4313-A6CA-1D35A3A4D569}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{AE9AE9D2-CFF7-493A-AD4E-6BF3DB5B8B73}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{F36076C2-5CFF-421A-9331-3B4AF36D01FC}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{0E37A974-44D1-486D-81B1-3C1FA2112DF0}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{1973223D-33C8-4390-A770-CE4C41CB231C}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{5102743C-B811-4085-9078-49508C53C15F}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{550EF6B0-DFA3-485A-94C2-B4DA5DC66C27}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{34FA6FA9-FAD4-4652-A976-A12C3310581D}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{3683102F-F407-49F7-A226-543525A5B2F5}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{4F7902FB-52D5-4449-B20C-A2B20613CF80}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{2C9C47BF-49D7-48E0-8A70-C3D26A76F23A}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{F7E35682-004C-415B-8FBC-E4252E7871A1}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{6E238BA2-393B-48F2-A563-86C41F92A9D7}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{10D8D30D-A80B-48AD-8547-A5B6996A6F6D}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{81DEEBE7-5C65-405B-B6AA-A0C5FBDFFDC3}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{F7462CED-C036-4DB0-9594-7C96EB6CBFCB}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{AB46AAEB-CD43-4FE3-951A-87764B1F6343}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{643209C4-269F-41E6-938B-CEE327094175}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{75AB4365-836A-4A51-8C1A-E73D39A2E39D}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{35D73045-2DCD-47EE-BA09-FC292D514428}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{0067C45C-A201-495B-A517-EDA013D7876C}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{05C1862B-2DFA-42F0-823C-A16F0D5D4EB1}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{685BC3AE-E30D-4791-B3EC-474DB128EAEC}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{CB906D19-65FA-4174-9F4C-0A7C78DF72D2}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{4646A82B-8C73-464E-972D-01389CC6ABC4}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{6E266AD7-CA44-420E-B452-488B2E56C75C}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{527C8B65-A121-4F42-BAC1-29FAFF5AF3BB}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{40C6433B-B20D-4D35-8A08-32B2056E2E31}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{DD904FD2-AFDC-439B-A348-A820234EBA70}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{198DDFDF-FAD7-43EE-BB1B-2251F50C9AF5}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{BB2D8534-B454-479C-B52E-1396057659C4}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{AA98EA45-4B65-4A4A-ABFE-085177ACB449}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{DEC6D9B5-95A5-4DE0-B227-B04500193610}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{E89F559C-DC01-4E2A-BF97-6383EF5B46C9}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{B052F65C-CDD3-4BF2-BD9F-A82B004BD04B}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{CD49EC8F-7349-4B98-AD8C-B13A720D2606}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{9CD0844A-97BE-4155-8153-ACF370FA58BC}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{5D613B41-227F-4CE1-946D-F1F7F98F462C}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{89BCABAC-B821-4D7C-BC13-D218BF6869F2}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{9DDD4A53-C2A0-46EE-8F7F-2ED84EB7DCDE}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{DC49E218-7F70-443D-8F54-3BCC044C860E}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{B4526A7F-6770-46D4-B190-9AFA71480701}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{DC2A02C2-F8C4-4128-BA74-19B76501E443}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{AD413F1B-8D11-4C5A-A216-D436B8848984}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{267A6BF3-4575-48CD-A9F5-2377B72FC9C1}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{261DD002-7674-4233-915F-859D27F10DD5}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{FB4DCD02-09FF-4201-9F05-D396A6853B16}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{B95A4E28-800C-4FA1-BB37-11C72B96C71C}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{BFD29437-3A92-47F8-90BA-A0B6B14C986B}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{AFC93E54-4F8F-4037-BE45-E1E33107B2D3}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{E23696D8-E5A0-4115-BBF2-D4BFC4742B5F}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{11C9A974-E4F3-4AAF-A337-A19095288509}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{C9AC5EE7-4699-4B13-8F3A-9A41EFD38856}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{BC4C6EC3-0F49-4741-B374-CEA1F14D4882}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{D1BD12CE-EA20-40C4-8CBB-06C30C117FDF}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{1A6571A4-739E-48E4-9B94-0D08CD249A92}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{A16243C9-81F5-4BA2-A263-C642F7B35A15}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{F08C6906-D511-4EF2-BD6C-F51D52F1F866}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{09FAD8A5-1010-4AAF-9460-8CFA8E6D15E0}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{5FDB0F6F-7C2A-42BD-912E-1BB6156E45C1}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{CB05656F-374E-4D8B-9261-757AEBE85684}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{C4FAB6D7-EBF8-40CB-8058-8E19004C2EC0}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{8F78AC0A-081A-4B40-B74E-CA8E2666CC2A}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{402F183E-683B-4F23-A88E-46932711B0E4}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{5C8D4451-2325-4691-9078-E586FF436897}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{DEEB069C-B13A-4F75-B473-A18EF04713FF}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{B078FEC4-13A9-429D-B8DC-6F0D10C98810}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{8B6D872F-4485-424E-9555-723F55389872}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{86880ED0-00F5-4A2A-9619-73E1EC42998D}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{F18D1DB0-5ADE-4A69-9958-294B57853748}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{A9365E4B-2D0A-4A78-90E7-B80789AC0517}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{3C434DFE-7B06-43CE-84AD-8E41553577B5}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{1D9D1C35-0910-4DD7-AE8E-5CA5A0D9C66A}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{6355F780-9A2C-444B-8B46-58F2FCAD8D84}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{4BE97349-972D-4B20-A256-38964202E22B}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{AD74C2B3-8CB6-4479-8E20-B3EA549ED879}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{7A680568-434A-4462-9722-A8852CC2AB90}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{7E98B58C-47F6-428A-A495-B779A86C20C9}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{858E7679-9BA7-4EE6-8F11-63D326D75656}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{55968045-E015-4965-AC8F-C7846BFCDAD4}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{330BD575-91BD-4656-B787-C29467FD823D}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{3E53764B-0632-41D4-8E44-1D10191BC3AB}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{3CFC5FD5-4416-4572-A381-182C797A80B3}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{7A2D1768-51BB-437D-B8A4-43734ED380DA}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{DF2604D3-1D3C-4C61-96CF-948768CE91CA}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{7EE598A7-4B34-421A-8E8A-25E3BCF6F4E6}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{0A27560B-DB0F-44C8-A4A2-4544502A9C34}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{04371DDA-696B-4E39-9CEC-1BBF9D06BC87}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{763720A3-4760-4EEA-B6F1-7D1A944BAD24}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{C1344BDE-F7A8-4A6A-B08C-24C590FBC82C}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{A1661300-056B-4EB7-B62B-D6FFB25632E6}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{82DFAADA-C7E2-45B8-B8E0-29BF6EDCF8FF}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{ED6AD157-3432-4C23-B649-B934EB775106}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{D4191232-CF1D-4249-A84C-D13753662839}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{C8CABDF7-C529-4B4E-83A0-DC1010510307}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{611F4C66-FFA4-4FBC-90F2-D9F8F492F85B}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{74381F3A-96AB-4063-BB90-B3EE04C9E607}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{919CB309-A5F8-4DAE-B851-E598FABB1CCA}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{AC9985CE-9AB1-49EE-AAE5-2E88ED025EEC}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{6BD761B0-7E00-4004-9F3C-38F019F503B2}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{0BF38C14-45CE-462E-BCDA-6B0C10ACE990}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{8EF735DE-F145-449A-BB87-45BC5B868C6F}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{4E6BFDEF-766D-4A20-A6F0-D336BB617362}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{A54C78CF-AA99-482E-AAA7-C0A8C1967966}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{EBC901A0-B7C1-452E-80B0-2FE60B4228AE}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{D60C13FD-A751-4297-96E9-E81CAEF21C8C}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{AAAEEC86-CC7D-4404-878A-7421DA3C08B0}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{E478A7D5-D5F8-4F9D-8F5A-F8197F9B5301}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{BA42D991-813D-4830-A5BD-FCC42127C90A}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{6A004D27-269A-4FE0-B5F2-F9DBEE3D4EF3}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{B480B626-C3D5-47BA-9C55-4C0BA0BC03B6}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{C5E4D3C1-7B9A-4ECB-9333-C0B687BDD978}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{20A4B728-53B9-4466-994D-24A0D832FA8F}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{3AC4CD60-4EA2-4AB8-881A-8BFA1D259FA7}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{71A71772-F7A5-47F3-A8A9-31D60E1EAA41}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{9A092AD0-F636-4BA8-B3CA-2FFB172045A5}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{E0C417CD-7B05-46CD-B504-D9494FB648B6}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{C48B64F4-0F53-42AF-88A2-6857B5EB0895}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{05DE9138-3CE1-415F-AE80-F428587346E5}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{E94F1F66-1C08-4E6F-AC47-5DB815FDAF54}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{9EE30E54-54A0-4D11-9C3B-F889BB1035CB}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{F9AEFEF1-4E98-4370-BE7C-A573ACDAB440}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{61F387F5-925C-4509-94B9-1B52EAC64A42}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{7A032445-BF72-4024-84FD-963F34BDADDC}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{75A462B0-22BB-474C-B5AD-4372A0BA3C38}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{5A2FC754-EB43-4180-81F1-0455AF98B7FC}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{FBE53773-1C2D-40AC-A330-1636C735E769}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{A52755EF-B872-4378-B776-0A0BCAF43ACE}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{973CF54D-F8EE-4324-9B6E-B0B3C099A054}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{0B2CAA19-C993-40EA-BC4B-DFC82152F68D}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{BA812BE1-4857-477A-8E55-DC0A4BECBD97}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{5F32DA92-82A5-4DE1-8593-79DDCD2D5BC8}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{AC5E5265-8D9B-405D-9431-928080219B74}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{B5FDBDA5-E1F3-4AD0-BD8D-9B27DB80CA1C}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{949C5682-BE04-495E-B71E-EA9167D0EEB0}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{8D0E7745-A23B-4C8E-93F6-5962BE5EE93B}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{7CE8C469-6311-4095-BF18-2B322E770C66}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{4DD0B25B-C27C-4C8F-BD58-384D4B6A8320}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{8F9E5DA2-EC58-480E-955B-FB3BDFBB569B}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{6FD0CD2A-ACBA-4949-812E-62F3AA807B0D}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{5DB579ED-5F53-4171-84BF-53EA28A4C0D9}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{D656EC51-8410-48F0-B5D6-3457292A9787}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{C7A6851C-BB2E-477A-9769-E7AB159B37BC}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{0D89E688-0063-47E7-9F61-6CF8898EB524}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{74368870-8757-4AA2-833D-06C9BBB608DB}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{7441F45D-3260-4ED5-9990-1F65D938CE70}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{A39366F7-DB62-488A-9AE0-AF49C2A65796}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{C0AE9B2E-B9EB-4EFE-827F-884B4383CCEA}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{9579CDDB-4823-480B-B076-569F3DE02703}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{BC91F9AE-D206-437A-8912-59827F517F66}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{B44150DA-5B1C-44DA-9D91-04B154D85281}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{80F397FA-13EA-4407-9D7A-A6B11B7D8DB3}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{1D0CFCAD-62AD-42FC-9340-570B33F21D27}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{D9B99735-4CC8-4BC6-8164-46E13890B76B}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{E5BD5122-7F9D-4B1C-9109-343BEBF7ECBD}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{19223175-AEAA-4F46-859C-5D31C790B49D}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{319D9113-9CBE-45B7-8B19-E9C68B1AA060}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{6045BB92-78F2-4B42-A278-1E5FB1D2A71B}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{3A560B16-7742-4E2A-9BD4-2720B9C7C3E6}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{068B4DE8-D982-4919-904C-F52CE9EBD32E}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{CA8D9346-9FF7-46DC-8D90-7E168693D6EE}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{BF3AC2E5-EC75-46AB-8140-BCF396D02D7A}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{9697CBF4-E34E-4148-BAEF-60C1BAC4CE36}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{C2F1A40D-71E8-4486-A790-4617A3EB8597}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{AEEE6FB3-4F23-4684-A5E1-4CB9E97701DC}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{4A1A1665-36AA-41E1-8BA8-1E9DA59C2BC0}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{76C0C1E3-BA0D-4FD1-8BE3-1D8634C303F3}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{E916C7B5-F760-4DA3-932D-013417A03577}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{2D6320D2-A210-4C40-8F95-E2E6B7E834FC}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{D1F9A164-4F80-4230-9273-4DF7C2781870}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{F46150C9-CB62-4FE3-AF5F-10FD32F99E9E}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{57111838-17DD-4CC8-914D-B4982177A50F}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{CD2763F1-1DD9-40D2-BDF0-F4D0E08411BC}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{F114163F-3CE5-41D2-99ED-F94CF3F4A9E3}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{A0DD2AF8-5ED2-4390-8C9A-974250FDDEF0}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{D5FD7F36-9AFD-40E4-9771-34B4D2525144}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{81D89C7B-DCE3-442B-8AE2-846DBB4799DD}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{9C261706-4D2D-4918-B319-7024B3951768}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{F4AF7049-14E1-4E2A-9CBF-2E932E2C699B}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{FD22F64D-CEC8-4478-BC2F-B8FD3756AFD4}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{DB7FCA7E-EE65-418D-BEEF-D4D4235D7FE3}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{2CD6661F-1DFC-4C16-A202-C7EAF8078B43}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{67D7A782-5882-4BA7-B0B4-0E9C7DB2D3AB}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{ADC2C1E0-917C-4209-94DE-1D78D4CED690}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{2695C626-7687-458B-B857-5B15CC80618D}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{7C2F9DC9-ECAF-4C67-9CE5-CD2D77FA2AA8}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{E001E33F-7599-40F4-B363-FFF5FE5F69D9}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{AACBC4C3-98A9-46AD-BE48-E8803BA9C7B6}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{83A34B37-AE01-4F25-9349-47B87F25245E}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{D860A884-4559-488F-BEDF-354739066E61}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{625DEABF-9799-4542-A9F6-FE842EE56CAB}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{D924B600-60FF-48F5-93E3-F1847CCDECCC}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{7BBB1D62-95EB-4DB6-AF9A-4D0241F91785}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{980188A6-E109-4259-B376-509252DB9B62}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{1FC7B2F4-9628-4E08-87DE-D05A3BC16E50}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{A6301662-5FD1-4486-B542-F610C2BA748D}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{4F565A0B-DECD-4BCD-BD85-64465C1D32B2}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{02D6DE42-B57A-47C9-BA56-93A8FE8DF64B}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{7CB8C643-17F0-4723-9C21-5AE62C69A656}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{46D5EEA3-4360-4B4D-AAA8-A63CD5A35E9B}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{F15BED50-C8B4-4156-9665-500D7692B52A}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{4CA23550-EF21-4402-A6B2-93263C88DA52}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{AB57861C-2834-49F5-8A31-2604B9026181}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{38574B33-11C8-4664-B1BC-08BCB4F700B0}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{C4074EDD-3477-4C79-B5A8-33E3D8C9885F}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{53C19DFB-876A-4321-8873-1549EB18174A}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{6810A2F3-A140-4E9E-89F8-CCFD02BF43BB}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{18ADD3A8-C6B0-4872-9E64-491544854B81}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{080A3330-17E8-45D9-9E63-C0AD4F09A966}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{AED30902-5C3C-448D-9A90-5F2B56C200BD}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{96321984-A7AA-4850-8983-70D02911A481}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{05CB1200-8A5E-466D-AE92-8723DA1FDC6C}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{6A1F9859-3B12-4EC6-B3DD-BF20E7BB5437}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{3FCB1646-3940-4CD0-A955-557C98A40370}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{1F8005DF-2BFE-4990-9CE4-3E69606D105A}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{ACC6A22E-CC6D-4A99-BDA5-91AC052F7424}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{FF25EAEE-3422-4D7F-8349-8D26558AFD6C}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{5F21C65F-6270-4CE5-8F1E-B98460CC66D4}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{F06E38F6-A677-4BFF-A349-7EF56864FD1F}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{68021B26-BAAE-4043-80DC-1C3E910886D4}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{A17599DF-C07C-4297-B45E-55D5FAB0AA53}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{7888985F-C2BA-4C13-98AF-AFA555E47096}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{6803D4F7-8A35-4501-9DD9-5F893A20E7C8}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{AD1AE513-CD8A-41F9-B333-A12E410814F8}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{6F939456-5C5A-40AF-8FD5-041B9481FBF5}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{EE4878C6-5445-4ED6-B5F2-99A61F9EBD1E}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{F6BEE052-1AC5-426C-BBCC-2C0D62547633}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{D10C20B5-A243-4356-A4EB-ED902EC618D4}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{B6A8BE61-3EC1-44A4-8960-06F594590635}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{4AE83835-C623-46AE-850A-A87611F7D8B0}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{4D7CE6B8-0513-4BC7-BF11-858EEB2AA4D3}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{FF383ACB-19C1-491C-B877-2FD1FA98EEF4}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{EBD32953-2882-4ECC-94DF-9B070C896B7D}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{C46C2B97-6867-43C9-A90B-DF511213B574}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{4BF2A1E8-F9C0-4F81-91B3-54C8F06827A0}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{23CA5A14-5D9E-47F8-A565-E4EC3E44B545}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{F1BF5C82-9480-49FD-A49A-59B84BEDAC90}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{F1BB7E95-9A36-420E-9EC2-87F798FCBB36}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{0F4EF6EA-EDB2-4A15-97E1-7A2E4DF5F0D9}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{AAE745B0-51A0-4B0E-BC00-6F5E4E3788DC}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{B928789E-80C5-42A2-899F-F7F8D085AD6A}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{F9D3F57D-66F9-4E37-895E-126F03D3BC4E}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{61C24D2F-FD68-44B8-ADA9-0A3472359A57}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{D1636BA4-5DEB-4685-A330-761657DCA52A}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{4635AB98-CE70-4E67-95F1-4B622D6DD89F}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{A65C7ABD-C197-4A39-AF95-4EFBA6329847}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{21DE7D61-C1D3-4ADF-BD5C-9889533F0BC4}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{0645A8C4-8DDB-4D86-B321-409E9649C948}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{49C9F82C-490F-4B5C-8426-2C19A623044E}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{5AF25D5F-339D-4726-8A8D-FFCB490A73F7}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{1E47F837-CC83-46C9-8D15-49AD60FC6D5C}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{3345B4FD-74F3-4259-B4CF-4F0714D36A8C}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{94B3DE1A-F2D2-480B-A135-15095BB42AFE}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{AC9901AF-CDCD-4D51-B4D6-56C424DD631D}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{D500D84C-2166-422B-8048-EF8D3AE72C3F}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{14EAEBBA-F599-4C39-929B-AFA0F9FB6F72}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{CA121178-5892-4D06-BC33-FAF7DB6D61E1}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{AD8C4051-2E4F-472E-99A3-12B943B12E40}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{ED2EB39E-3444-41F2-BA96-5E90F705125F}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{D3803237-2D65-48C9-ABD4-C7CE17FB167B}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{9EB157D4-D0A2-479E-A5BD-2D8BAB4A77F0}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{502A5467-1EF1-4558-BC6C-E095E521A458}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{EABE7607-1FDE-42AB-BE71-A69336A1AC21}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{0C5FA442-8345-47BD-B747-5862743EDFC2}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{CBFCD2F2-381F-4C5D-804E-D380EB29BCC8}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{2AC093FA-5F07-415C-AB25-49E3DA984CCE}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{279B9F5A-086F-4F14-9D95-3FD7AAA72656}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{D0F74CA2-EADA-43E2-AC34-87CCCE6F4353}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{00FE7ED9-A748-4556-BA73-364CFAB1EFE3}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{73D9D43A-BFA6-4449-8DBC-AB30DE53D705}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{90102DE2-2E9B-4BD1-BBE3-29E187F61C74}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{F5F50C57-22EF-457B-84AE-411AB94E3001}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{37A0537A-F571-40A3-A966-A48BAD03D655}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{9CE98DFD-E958-40C1-BDF6-5B19460BCC72}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{30AEF579-39CD-49DE-9BC7-E6A281127D1C}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{B8F168F3-FC13-4C2D-94D0-8E98C4875EBB}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{A5D1BEA4-07C4-4F09-ACAE-E8205D2D8CA4}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{874B30E8-955E-4C52-86B5-7CAFC6DAFCE6}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{EA16CEC9-0217-40D3-8F9D-634774CB6DC1}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{57EA25FD-6F95-4CB1-959C-16539A7D47C3}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{F26D83AE-C39C-418F-B604-5CEB57682E4F}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{F6423287-D054-4BB6-98AF-EF5598993160}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{9805EBE5-682A-475A-AF84-3E2A0DFB78AD}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{270B232B-7812-4EFA-88D7-BB2D3269C763}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{5B1D0D24-65B2-43C0-9C1C-5C681C2E09E4}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{1A124DFC-8B11-4576-B54C-A00F2EF2F12E}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{B7086C48-8463-4A81-89FC-F6D0004100E9}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{408F01D5-214C-4DC5-B785-C560960238D2}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{16696D17-423E-47C2-8CDC-1BDE6168D3CE}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{8C8661BB-FBAA-4E19-9B54-0FE86A429BE3}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{6BF5B287-7EBC-4D8F-86A6-F0E00DDD6836}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{B62807E3-FBD2-41C1-8FCD-704889048342}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{F1371E09-58A1-40D3-A6BD-A5C19C862505}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{91112A93-B052-4ACB-8E30-DA1CC42EEA87}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{0AE09823-4D00-4CF8-AB27-F2BA24976E89}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{028B0D20-67A0-4ACE-A7B5-60DDC5F19000}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{EEC59A00-85CE-4A87-9DF5-D6F15DB17AB5}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{CFCE31C5-6FE8-4067-81F9-FF87C70982B7}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{3ECB771B-7084-4286-8DDB-92BD45FE1716}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{1281D6FB-6D55-4FD8-AEE0-C7C857301A1D}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{1F1561CA-FA42-4460-8BAF-149D8541DF10}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{315DEEE9-09BD-49C6-A1D3-DA3F57B250D9}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{7FBD7706-5C16-4AC2-8C13-C8B419A379C8}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{2ADE585D-773A-4EC9-815E-5528DB4F4F4B}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{3BA9120A-75EE-4383-8D45-25938435476B}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{993C6893-2229-4A71-9471-2B0D902DA308}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{3E7F4EFF-3B78-4B7B-976F-3B1A1762A2B0}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{CACEB345-4F48-4402-A844-38FD878767D1}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{440053FF-FEFD-4014-852A-0171A6186C6B}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{BCB3CAC1-950A-4359-86B1-3FC72B18302B}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{5C386A38-F75A-4E81-948D-B9535128507E}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{F67BE817-B2C7-47DF-965F-3EB8F10F06A8}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{7E159066-AD14-428C-A98A-25F60916FAD3}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{92938858-216F-41A6-B9A9-6C16C6E36193}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{DB425FCB-4D47-4DA6-A758-8608C01DD204}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{A9299CA0-AFF2-4F2D-ABD5-E0096CF9FE32}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{3B15EAF6-E7E9-4851-AC38-6DC5933A8816}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{C2BBD7DB-44B3-46A5-95B7-FBCA68E1788E}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{93472CC3-6193-4BE2-8E6B-E9EA1D16FBB9}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{93011DAD-00A6-46B6-8BD7-380783DD0F26}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{666E0C9D-E1C6-4468-983E-47AF19396CDB}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{802185E2-68C0-472C-A924-D953F684955E}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{3E97B9A6-19C0-49DC-9651-90CA89C59C26}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{D05EC410-96D5-4315-B9C9-5CCB1CF39892}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{41E03A12-E2B4-46A0-8222-71C5DDC54ECD}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{2980AC96-798E-42CD-B866-8E775D959D9E}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{1F1EDFEC-3882-45BB-8173-F83633CDCDF9}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{89743571-3086-485C-A0B1-70C8FBDF05C8}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{91F77DD2-D235-49E0-BE30-B19F04E0A51F}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{6E018CD4-1100-4A51-BA48-ADF6F493E66E}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{30644D28-E215-403D-8FE1-EC29DA76A16D}"/>
-    <hyperlink ref="B366" r:id="rId341" xr:uid="{5A677A5A-007C-4F6E-BB0A-73F73F3E1E20}"/>
-    <hyperlink ref="B372" r:id="rId342" xr:uid="{8E4B54FD-A549-40AB-970B-445ACC0D3213}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{F9E058F7-5B82-4206-90EA-EE7E56E3FDB8}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{373AEA11-696D-4FCC-9439-C826B3B2CB3A}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{A87BCB6C-BCD4-4AE6-8002-B62EA8DA80BD}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{EAA2DF40-6F99-40E6-8ED0-CE8D4BC0A155}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{5CE71BE8-56EA-4B65-BFDB-44A39CF4BDD3}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{66B62019-DF91-4F51-9B31-3563FCA9B817}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{537692EF-DFE1-4973-BA4D-4C7FD3FB1C0B}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{78E11925-A746-42D1-8C9D-2CCB7B824EAD}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{1289DEE6-64E1-4A44-A30E-90301D77BA34}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{A257FB22-0AE7-49FE-B5A4-C000460C27D3}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{3B8859CD-9200-452F-8D5F-6E553FD4601F}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{7E8FA487-42C2-4CDF-A484-D064C72B2DCD}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{3DD59504-DF82-4EDA-A1FC-2E1671E6B7E6}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{9A71BC54-4FD9-4B74-AE55-5A1F5DAE102B}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{4808BCF4-B433-40AF-A82D-14F321BAC3C9}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{E1A75FF7-BD2B-4988-A2CC-FC0F9D6F46DD}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{980BBCAD-8CC3-4EBC-95EE-D4826A98BFD6}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{0C5D5A48-4EDD-45AF-A4D0-DE65DD030ED2}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{9502CD1F-2D51-4498-A954-4AC3D4CAB3D9}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{BC50BF99-9784-4B5A-917B-0FF32BD16CEA}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{1015E455-96C0-41DF-B02A-EE224611B69D}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{17D9FBAA-9A23-4E20-9B4C-F4FB994EB0FE}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{ADC2E5AE-684B-4777-A846-08960E2DDCD4}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{582F6E52-BCEF-4FE2-BB45-8AEA3E9C7DD2}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{ABA2F93E-8558-43EE-9A34-C3F72FA8143F}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{FD649B88-3CB8-4A92-A70E-077B606D5301}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{EBF8CED7-E7DE-46EF-95B9-E7593A161916}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{79225FD1-6167-47A0-B4AC-30CA9160CB11}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{53C9A3B0-B6D7-4716-80C4-4D48DB98824E}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{A6D88FE3-3A21-4F4B-A31D-0C271766EB85}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{D1104230-42C7-482C-B149-7FB75A603E12}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{3E3B7327-B449-4FC3-9DCB-F4F2C2198E0E}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{491D08B6-6DA5-4DA2-8B58-96EC12BB770C}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{9C302777-BDA4-497A-9B76-E8C0A78D3584}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{7E36ACDF-169B-4CDB-AB14-07066D3F9632}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{653CCD60-0CF4-4C21-AF12-72DC5C781558}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{ABF4EEA2-01F8-440D-9485-85CE19432D1A}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{3DA60B6C-B7E4-436F-9FE7-3DB397E95BEE}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{5A408C5E-AA0A-4807-87A2-D17DBF0CBDAF}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{2620BB08-25DE-446E-8496-6A05E41BA236}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{A1B62963-6ED5-4462-A373-B0789C99AAD1}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{534C4158-8838-4365-A237-0306B3DE3D76}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{705A74B8-AA19-40D0-AC20-99342708FA81}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{28B9F56A-03BE-4A13-8836-C82453741C58}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{0AECD0DE-0420-4427-BEE9-039E52565B57}"/>
-    <hyperlink ref="B431" r:id="rId388" xr:uid="{D357DFCD-25AF-43B6-9F9B-F3E2E7BC8CA9}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{89F19DB3-0262-4102-8194-681AE11AB13D}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{3DD86656-3ABF-4C41-BD00-D2EEDFB6A80A}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{BEBF9799-135A-41C3-85FA-FE4E211EAB6B}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{909892F3-0154-42B3-900B-A55E1FAFDA10}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{B39C4B81-A468-4724-B606-150A0435D8E6}"/>
-    <hyperlink ref="B425" r:id="rId394" xr:uid="{137733FC-8ECA-45A7-A129-D3372551CAE6}"/>
-    <hyperlink ref="B424" r:id="rId395" xr:uid="{FC6C7E32-F43A-47F0-9A3D-C9FCDF224C25}"/>
-    <hyperlink ref="B423" r:id="rId396" xr:uid="{177E2843-E36C-4EC4-AAB1-769050769DFC}"/>
-    <hyperlink ref="B422" r:id="rId397" xr:uid="{CA4EAAB6-CD58-4CCB-A569-F330F2ED991B}"/>
-    <hyperlink ref="B421" r:id="rId398" xr:uid="{BD806557-E971-4FBF-8232-ABD8BAC7C463}"/>
-    <hyperlink ref="B420" r:id="rId399" xr:uid="{9E565AB9-F579-4557-9D0F-20A482386A4B}"/>
-    <hyperlink ref="B419" r:id="rId400" xr:uid="{0CEB270E-0A2C-4838-85E1-F9FE9C8FE039}"/>
-    <hyperlink ref="B418" r:id="rId401" xr:uid="{EEA1DEE1-36EC-4F51-9C9F-A8D754FDBA4D}"/>
-    <hyperlink ref="B432" r:id="rId402" xr:uid="{84DD3A95-CE35-4262-A494-C652FD93AFD9}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{56A34233-0CB2-40EA-B4DB-40B719142CBD}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{2C9FE887-309F-4532-8EC2-CAB5F5653894}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{DF3C2A10-835D-4FAD-9E15-4AAB386CE965}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{8E4536B8-5E06-4ED9-A46B-E9BF047BF201}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{DFE8192C-2C8C-4B96-9DD0-A53DC6A32F29}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{B1730670-AB0A-479A-9458-791D84B7B34D}"/>
-    <hyperlink ref="B463" r:id="rId409" xr:uid="{4E78EC0D-8692-44EF-AEDC-FF8B422C82DB}"/>
-    <hyperlink ref="B462" r:id="rId410" xr:uid="{300A9455-AD4D-421B-9E55-504DF1BB6A82}"/>
-    <hyperlink ref="B461" r:id="rId411" xr:uid="{D81D01F8-2C41-48CB-85DF-56830F9E2BDD}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{79ACB1EF-0A36-4146-990E-F40CFA53A0ED}"/>
-    <hyperlink ref="B459" r:id="rId413" xr:uid="{F396A915-5C06-4612-AEC5-53D7BA2E7250}"/>
-    <hyperlink ref="B458" r:id="rId414" xr:uid="{AE7E42DB-1DC7-472B-AFBF-86BBA8584D2E}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{FACF64DF-FB5B-4457-8FF0-BC8A6A5CEB3A}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{64CC4A4F-346A-46A7-9B20-23230E392DE5}"/>
-    <hyperlink ref="B455" r:id="rId417" xr:uid="{67A75B1D-DFAB-4071-8985-F2BF26453EB5}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{08E0611D-B45F-41FD-9CD8-D1CB6B1DDC9A}"/>
-    <hyperlink ref="B453" r:id="rId419" xr:uid="{E7EEDE07-DEF6-4C0E-9C3A-8F0D1B92D666}"/>
-    <hyperlink ref="B452" r:id="rId420" xr:uid="{D6A7F64B-88D5-4F5F-BC80-CC8C70F47317}"/>
-    <hyperlink ref="B451" r:id="rId421" xr:uid="{918B6E79-D89C-4187-89ED-878B9E806F5B}"/>
-    <hyperlink ref="B450" r:id="rId422" xr:uid="{D4F1E2D1-E3AD-43F7-AA3C-8CFC2ABF7972}"/>
-    <hyperlink ref="B449" r:id="rId423" xr:uid="{FFC90D66-B30E-4DD8-BADE-3B5DD79A27F7}"/>
-    <hyperlink ref="B448" r:id="rId424" xr:uid="{A1956B3E-24BD-42E8-9AC2-2B2DE42EBE6D}"/>
-    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{D0C70EB5-F30F-4813-9995-263B7D94D12C}"/>
-    <hyperlink ref="B446" r:id="rId426" xr:uid="{F59636E9-3F8A-4C30-A4DE-F56B8ADA18A9}"/>
-    <hyperlink ref="B445" r:id="rId427" xr:uid="{5909B979-0878-4CB2-935B-0003690DBB21}"/>
-    <hyperlink ref="B444" r:id="rId428" xr:uid="{7A947159-E636-43CC-BDC5-0ED9ED3D6D01}"/>
-    <hyperlink ref="B443" r:id="rId429" xr:uid="{A1A3044E-E376-4C89-A7A7-DAC6D4B80CF4}"/>
-    <hyperlink ref="B442" r:id="rId430" xr:uid="{4C61397D-7FCF-462F-BC52-247843DC4453}"/>
-    <hyperlink ref="B441" r:id="rId431" xr:uid="{659B0B95-BB05-46C8-987C-8C97A6A6A940}"/>
-    <hyperlink ref="B440" r:id="rId432" xr:uid="{F1DEA8AA-AEED-47CB-8470-C056748F3099}"/>
-    <hyperlink ref="B439" r:id="rId433" xr:uid="{9185DD28-41AD-4816-A824-E3F5E0A56433}"/>
-    <hyperlink ref="B511" r:id="rId434" xr:uid="{E4E41621-4122-4705-916F-27F185597D48}"/>
-    <hyperlink ref="B510" r:id="rId435" xr:uid="{A4C9B930-0F78-4CF4-8E64-151E51A39093}"/>
-    <hyperlink ref="B509" r:id="rId436" xr:uid="{877E7599-0694-4C75-B80E-1D3E4DBFE0D4}"/>
-    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{B643C450-F81B-4B73-91BF-A757014A519E}"/>
-    <hyperlink ref="B507" r:id="rId438" xr:uid="{87193ECF-1E17-4328-942A-9703743B50AA}"/>
-    <hyperlink ref="B506" r:id="rId439" xr:uid="{36AC5383-C00E-414E-8AC4-AF6C57F458E6}"/>
-    <hyperlink ref="B504" r:id="rId440" xr:uid="{54ED92E1-73ED-4616-901C-15C2D73FD1B9}"/>
-    <hyperlink ref="B503" r:id="rId441" xr:uid="{990D60A8-8B9F-4C03-87EE-1C9CBF962AA1}"/>
-    <hyperlink ref="B502" r:id="rId442" xr:uid="{F277AC3D-BEC4-4405-9E34-C174480CDD18}"/>
-    <hyperlink ref="B501" r:id="rId443" xr:uid="{12917F54-AB54-4286-945B-CEEA76481E36}"/>
-    <hyperlink ref="B500" r:id="rId444" xr:uid="{8729C487-21BC-463E-98FA-903B34C42A75}"/>
-    <hyperlink ref="B499" r:id="rId445" xr:uid="{342AF94C-A562-45BD-B319-8A4333D197FD}"/>
-    <hyperlink ref="B498" r:id="rId446" xr:uid="{26AA4255-A7C4-4293-B979-BF311849F4FB}"/>
-    <hyperlink ref="B497" r:id="rId447" xr:uid="{3951FACD-2CAB-4C80-ADDE-16F468C2991B}"/>
-    <hyperlink ref="B496" r:id="rId448" xr:uid="{0EDA29E2-089A-4FFA-BF47-3E2FAB67A4B8}"/>
-    <hyperlink ref="B495" r:id="rId449" xr:uid="{FBE750D3-D8AB-4A17-8EEB-47EE38CA19C0}"/>
-    <hyperlink ref="B494" r:id="rId450" xr:uid="{20A3CDDF-6141-44F1-9EFE-82AEA346AD65}"/>
-    <hyperlink ref="B493" r:id="rId451" xr:uid="{472059DF-5887-461A-9068-1FF8C0E46F54}"/>
-    <hyperlink ref="B492" r:id="rId452" xr:uid="{B7FD7ABD-60F8-4C88-BD0B-AC7A995ECEC1}"/>
-    <hyperlink ref="B491" r:id="rId453" xr:uid="{3F0EA136-6216-486F-B674-ADA8EA25D02E}"/>
-    <hyperlink ref="B490" r:id="rId454" xr:uid="{A872D725-88C0-4F8D-B913-6EB9295D3549}"/>
-    <hyperlink ref="B489" r:id="rId455" xr:uid="{1B8436AF-471E-4831-B504-CA8848CCFC8C}"/>
-    <hyperlink ref="B488" r:id="rId456" xr:uid="{6BB46A0D-202B-469C-82CA-4065AA628FAC}"/>
-    <hyperlink ref="B487" r:id="rId457" xr:uid="{9893D6EC-915C-4DCF-B752-F790301B83AB}"/>
-    <hyperlink ref="B486" r:id="rId458" xr:uid="{D932170B-14B2-4CD5-9C4C-AAF703452F30}"/>
-    <hyperlink ref="B485" r:id="rId459" xr:uid="{A7E35107-72ED-4753-94DB-E85A2E1B5EA8}"/>
-    <hyperlink ref="B484" r:id="rId460" xr:uid="{A7F37591-2275-4F60-9DBB-5255432F3F68}"/>
-    <hyperlink ref="B483" r:id="rId461" xr:uid="{1DB9CA63-8D6B-42C7-B0EE-719085EE3CD7}"/>
-    <hyperlink ref="B482" r:id="rId462" xr:uid="{559E8FEF-61D9-4D77-9EED-B64B1B13B9FB}"/>
-    <hyperlink ref="B481" r:id="rId463" xr:uid="{54749736-A348-4444-AA3F-29D781C7DCBB}"/>
-    <hyperlink ref="B480" r:id="rId464" xr:uid="{E43533A8-0C27-46FB-BDC5-696B3BB70666}"/>
-    <hyperlink ref="B479" r:id="rId465" xr:uid="{2EF3AC5E-EAD7-43F9-9C2D-25748ABFF017}"/>
-    <hyperlink ref="B478" r:id="rId466" xr:uid="{F34B1DBA-DD9A-4A80-9DF5-3E6F57D6139E}"/>
-    <hyperlink ref="B477" r:id="rId467" xr:uid="{B9C7D7C0-9C00-4FF9-BCC9-D80A9C1EEB21}"/>
-    <hyperlink ref="B476" r:id="rId468" xr:uid="{8F6D4466-6151-4964-B365-4D655A678D69}"/>
-    <hyperlink ref="B474" r:id="rId469" xr:uid="{BC3A9DB6-4CB1-4A90-A872-3066C6A40764}"/>
-    <hyperlink ref="B469" r:id="rId470" xr:uid="{6E6D5C13-A9C7-4B3F-8151-7767B71B6FAA}"/>
-    <hyperlink ref="B475" r:id="rId471" xr:uid="{AC334F24-361E-4012-A968-4EDB17A13D24}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{39688EB5-1BD1-4334-91A2-DF372652D695}"/>
-    <hyperlink ref="B472" r:id="rId473" xr:uid="{E4956202-C46A-47CA-943C-CD41C7D552EF}"/>
-    <hyperlink ref="B471" r:id="rId474" xr:uid="{126F0021-5DF7-4119-8465-B087505221BB}"/>
-    <hyperlink ref="B470" r:id="rId475" xr:uid="{A7A3E9BF-6422-4FD0-9F04-F284443A4559}"/>
-    <hyperlink ref="B468" r:id="rId476" xr:uid="{6EDC7810-E70F-4090-BC60-66E86116D7A6}"/>
-    <hyperlink ref="B467" r:id="rId477" xr:uid="{DB99333F-322D-45D8-A888-5EF866EDE5FC}"/>
-    <hyperlink ref="B466" r:id="rId478" xr:uid="{876304D6-021D-4091-AE1A-18DE58146E59}"/>
-    <hyperlink ref="B465" r:id="rId479" xr:uid="{87AF6D23-5C4D-484C-962A-10CC409CFDC2}"/>
-    <hyperlink ref="B464" r:id="rId480" xr:uid="{CFC46D4A-0301-4D8B-B5FC-AAF689C82B75}"/>
-    <hyperlink ref="B537" r:id="rId481" xr:uid="{863B629D-91EA-4419-8BAA-C39C5CE469A1}"/>
-    <hyperlink ref="B536" r:id="rId482" xr:uid="{CF1222BA-26AA-49AA-BEA5-008F2AA39E60}"/>
-    <hyperlink ref="B535" r:id="rId483" xr:uid="{16A1A605-B518-4A59-B961-C7DC0BE3C757}"/>
-    <hyperlink ref="B534" r:id="rId484" xr:uid="{1AF6F328-40B7-45CC-9A88-40DD64BEA565}"/>
-    <hyperlink ref="B533" r:id="rId485" xr:uid="{115F08A9-3A9C-406E-A819-E447EF42E000}"/>
-    <hyperlink ref="B532" r:id="rId486" xr:uid="{7B6D4A3B-8A71-4DAE-A987-706E4201E7A9}"/>
-    <hyperlink ref="B531" r:id="rId487" xr:uid="{A95B335D-651B-4A2C-9EAD-F2235B11A32D}"/>
-    <hyperlink ref="B530" r:id="rId488" xr:uid="{C4D1E9B5-A01C-4BE8-A66A-EB69A7C70948}"/>
-    <hyperlink ref="B529" r:id="rId489" xr:uid="{3DC72880-0873-46BE-A0EE-A30FBC58600C}"/>
-    <hyperlink ref="B528" r:id="rId490" xr:uid="{FDF4E807-383C-4C2D-A39A-D2A6866213D2}"/>
-    <hyperlink ref="B527" r:id="rId491" xr:uid="{333B96E7-FD6D-4385-99C8-CD36B1AB7170}"/>
-    <hyperlink ref="B524" r:id="rId492" xr:uid="{69800801-F46F-4C8E-A1CF-4FC428C4C50F}"/>
-    <hyperlink ref="B523" r:id="rId493" xr:uid="{F8C58166-C9D6-4635-BEBD-F18835537499}"/>
-    <hyperlink ref="B522" r:id="rId494" xr:uid="{51C5A7FD-0000-470A-B322-8818E1EE331D}"/>
-    <hyperlink ref="B521" r:id="rId495" xr:uid="{827B44E2-1ADF-45D8-989C-9AADF5989BF3}"/>
-    <hyperlink ref="B520" r:id="rId496" xr:uid="{6A64F405-933A-480E-9656-39D7020BE43A}"/>
-    <hyperlink ref="B519" r:id="rId497" xr:uid="{8E546275-266F-49FD-8829-ACE38DDCDEB9}"/>
-    <hyperlink ref="B518" r:id="rId498" xr:uid="{C44DD0FA-C6AC-4873-9B95-0A37FF95DD2E}"/>
-    <hyperlink ref="B517" r:id="rId499" xr:uid="{0E1B3FD0-0EAD-44E8-A7D5-AC2C32864638}"/>
-    <hyperlink ref="B516" r:id="rId500" xr:uid="{E21F63A9-317E-4546-87EC-4EA81B85FF24}"/>
-    <hyperlink ref="B515" r:id="rId501" xr:uid="{D73945DA-92FC-45B8-8EA1-7D4058BC32F3}"/>
-    <hyperlink ref="B514" r:id="rId502" xr:uid="{EFEE4D29-6F91-4E84-841D-6794AB5A10DA}"/>
-    <hyperlink ref="B513" r:id="rId503" xr:uid="{05225739-37F3-439D-A429-05C77BAC4DC2}"/>
-    <hyperlink ref="B512" r:id="rId504" xr:uid="{C030A367-541D-441F-8BAB-944D377B6FDC}"/>
-    <hyperlink ref="B525" r:id="rId505" xr:uid="{34634476-0F9C-4A98-9E20-8F1BB812E532}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{577DBCF3-14FF-4A99-BBCA-2E882F076030}"/>
-    <hyperlink ref="B566" r:id="rId507" xr:uid="{8BB77FE8-AE76-42E4-8048-99B75AAAA340}"/>
-    <hyperlink ref="B565" r:id="rId508" xr:uid="{F2B2BE99-7CE5-4118-A82B-5AA9E0E1B444}"/>
-    <hyperlink ref="B564" r:id="rId509" xr:uid="{DBCFD162-CFB1-4DB9-830B-A615250BBE15}"/>
-    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{678D74C1-247A-4C82-B615-742C74A2D510}"/>
-    <hyperlink ref="B562" r:id="rId511" xr:uid="{2FA85513-1865-477A-986E-CBC3DC576157}"/>
-    <hyperlink ref="B561" r:id="rId512" xr:uid="{CEF7CD5A-9635-4BF4-B1DC-C402B882E9E7}"/>
-    <hyperlink ref="B560" r:id="rId513" xr:uid="{00A9E287-67F5-48A9-AF24-5047698E803B}"/>
-    <hyperlink ref="B559" r:id="rId514" xr:uid="{48862FAD-6648-4E96-A80A-9489D69A24FF}"/>
-    <hyperlink ref="B558" r:id="rId515" xr:uid="{73BBFECA-8986-4E2E-AA96-FF292E1585AF}"/>
-    <hyperlink ref="B557" r:id="rId516" xr:uid="{F2B87F16-0B77-42CD-A12C-90B4E96EDDFC}"/>
-    <hyperlink ref="B556" r:id="rId517" xr:uid="{EAA2A22A-A390-4CFF-AE57-4B97124CB0A9}"/>
-    <hyperlink ref="B555" r:id="rId518" xr:uid="{AC54FA15-CE0D-4159-B234-6F61E0EF32F5}"/>
-    <hyperlink ref="B554" r:id="rId519" xr:uid="{2FD19F48-DEBA-44C4-AF50-F5976BA2F113}"/>
-    <hyperlink ref="B553" r:id="rId520" xr:uid="{9F688114-1770-472E-8DD2-2ED3DF297191}"/>
-    <hyperlink ref="B552" r:id="rId521" xr:uid="{A5EA57E7-BBF4-4A3B-BD70-47E700A62008}"/>
-    <hyperlink ref="B551" r:id="rId522" xr:uid="{788888CF-EFB3-4A91-989F-B96BBE47EA40}"/>
-    <hyperlink ref="B550" r:id="rId523" xr:uid="{038C5223-319A-4AC9-93D6-7A19615B16C2}"/>
-    <hyperlink ref="B549" r:id="rId524" xr:uid="{A30B13C9-DED1-403F-BF3D-1501FA13B31F}"/>
-    <hyperlink ref="B548" r:id="rId525" xr:uid="{D4CF8567-4659-4DB3-AD6A-C5A77A3EAEA5}"/>
-    <hyperlink ref="B547" r:id="rId526" xr:uid="{90FCD8C3-1649-4F79-8B6F-C1277AABAC1D}"/>
-    <hyperlink ref="B546" r:id="rId527" xr:uid="{46860639-D379-4737-B18B-836F4247A998}"/>
-    <hyperlink ref="B545" r:id="rId528" xr:uid="{6ED59BFC-9C10-4BF2-8602-A3093C7ACAAD}"/>
-    <hyperlink ref="B544" r:id="rId529" xr:uid="{87CA0614-939A-4CF9-9252-25D5EF282980}"/>
-    <hyperlink ref="B543" r:id="rId530" xr:uid="{CF326701-9AF6-4FFC-B603-073098C1CB40}"/>
-    <hyperlink ref="B542" r:id="rId531" xr:uid="{D34C97F0-E58E-4BD5-902A-78FABBF90F9D}"/>
-    <hyperlink ref="B541" r:id="rId532" xr:uid="{A31EB793-0C1E-47FA-B5EB-F6D503222CB8}"/>
-    <hyperlink ref="B540" r:id="rId533" xr:uid="{2BD22CE9-A0E3-4DB0-8FF5-04C56A6258AF}"/>
-    <hyperlink ref="B539" r:id="rId534" xr:uid="{2B9F2361-9634-43D3-B878-578E286C9BD0}"/>
-    <hyperlink ref="B538" r:id="rId535" xr:uid="{87A1FB33-A296-4884-A6B3-03A07701190F}"/>
-    <hyperlink ref="B575" r:id="rId536" xr:uid="{40D9BD22-6EEC-4321-A1BB-0A636E19905E}"/>
-    <hyperlink ref="B574" r:id="rId537" xr:uid="{7D9D66EF-B171-4D26-BF9E-283F882ED167}"/>
-    <hyperlink ref="B573" r:id="rId538" xr:uid="{410D34E7-A853-41E2-BC3C-CE467F5FED7C}"/>
-    <hyperlink ref="B572" r:id="rId539" xr:uid="{BA1CF263-1F70-4AD2-ADF6-E862115D0A8A}"/>
-    <hyperlink ref="B571" r:id="rId540" xr:uid="{C829D120-E2E9-4BEC-94F4-E77A6CD26B60}"/>
-    <hyperlink ref="B570" r:id="rId541" xr:uid="{036A2AAF-A927-45E2-A0B4-D1E91DEFB789}"/>
-    <hyperlink ref="B569" r:id="rId542" xr:uid="{BF572B5E-BD46-4BCD-92BB-8F3AF2C9A968}"/>
-    <hyperlink ref="B568" r:id="rId543" xr:uid="{1C563513-7710-4C84-A84F-CF2F15F59239}"/>
-    <hyperlink ref="B567" r:id="rId544" xr:uid="{897BD8EB-27F0-4103-A1A8-365F1DDF5CFD}"/>
-    <hyperlink ref="B586" r:id="rId545" xr:uid="{C8B53541-6C78-4B31-B0DA-ED9806CC1DCA}"/>
-    <hyperlink ref="B585" r:id="rId546" xr:uid="{60456837-168C-4FE3-9E07-25551C7BF914}"/>
-    <hyperlink ref="B584" r:id="rId547" xr:uid="{F14C4C34-D19B-4455-B635-09004136FF39}"/>
-    <hyperlink ref="B583" r:id="rId548" xr:uid="{7F4A0A0F-0027-4252-883C-2287B058AB61}"/>
-    <hyperlink ref="B582" r:id="rId549" xr:uid="{F3FCAE81-64AE-4F11-B3C0-819D2AA43AC7}"/>
-    <hyperlink ref="B581" r:id="rId550" xr:uid="{5D54F262-9ECD-40A5-9175-AAFC3BAC750A}"/>
-    <hyperlink ref="B580" r:id="rId551" xr:uid="{662C61D0-7341-4086-8553-4F7793C057AB}"/>
-    <hyperlink ref="B579" r:id="rId552" xr:uid="{0CC772B0-D9E4-4CD8-A688-94C54D821E58}"/>
-    <hyperlink ref="B578" r:id="rId553" xr:uid="{A4DC05C3-7CC2-44C2-BA5F-8B05A894199B}"/>
-    <hyperlink ref="B577" r:id="rId554" xr:uid="{5CCACB59-BAA5-4260-9A62-11CA05474A5D}"/>
-    <hyperlink ref="B576" r:id="rId555" xr:uid="{E8B65F72-9EF0-4B58-ACD9-9751D7A248AF}"/>
-    <hyperlink ref="B587" r:id="rId556" xr:uid="{3AB42B5F-3A84-43A9-8B84-DB80E8576F9C}"/>
-    <hyperlink ref="B588" r:id="rId557" xr:uid="{1CFAAE7B-F714-435A-8ECD-70D981CE34A3}"/>
-    <hyperlink ref="B589" r:id="rId558" xr:uid="{B25C997B-3522-42BB-AFC3-0989B61A980D}"/>
-    <hyperlink ref="B590" r:id="rId559" xr:uid="{6292D07D-A280-462D-91DF-5730FDFAF0FB}"/>
-    <hyperlink ref="B591" r:id="rId560" xr:uid="{A9499AA9-3A03-4DBC-80C5-B4815D145FB6}"/>
-    <hyperlink ref="B592" r:id="rId561" xr:uid="{F785B83C-9640-4E22-910F-703B0D5E7C76}"/>
-    <hyperlink ref="B593" r:id="rId562" xr:uid="{CD89039C-F036-40AA-AD15-4C2B51F2F8CC}"/>
-    <hyperlink ref="B594" r:id="rId563" xr:uid="{B87257D0-4A26-4195-B338-3081792B220E}"/>
-    <hyperlink ref="B595" r:id="rId564" xr:uid="{819A9A5B-78CF-449C-BF01-B15C7B2AE43A}"/>
-    <hyperlink ref="B596" r:id="rId565" xr:uid="{2CD68A76-1682-4FC9-9224-80DF41B8F476}"/>
-    <hyperlink ref="B597" r:id="rId566" xr:uid="{57294D33-A2AA-4411-96EE-B3DE77205056}"/>
-    <hyperlink ref="B598" r:id="rId567" xr:uid="{7D3770E9-5A39-4693-8D7D-85DFA27C5966}"/>
-    <hyperlink ref="B599" r:id="rId568" xr:uid="{05BDA8EA-0AA4-411C-8138-FEC4907891AC}"/>
-    <hyperlink ref="B600" r:id="rId569" xr:uid="{F04A86BA-32AF-458D-B304-32A90F01FE97}"/>
-    <hyperlink ref="B601" r:id="rId570" xr:uid="{0A49D277-752C-4184-B9F2-146CBF8E7D48}"/>
-    <hyperlink ref="B602" r:id="rId571" xr:uid="{6E67302F-04A2-43C5-A4B4-69C07AFF0D67}"/>
-    <hyperlink ref="B603" r:id="rId572" xr:uid="{E639464D-8C18-478F-B154-1E6BE106302F}"/>
-    <hyperlink ref="B604" r:id="rId573" xr:uid="{B4C69A3D-B8DC-49F3-91D7-9D603B34A37B}"/>
-    <hyperlink ref="B605" r:id="rId574" xr:uid="{C3A76E51-7DE9-48E0-888C-362CA6D1B813}"/>
-    <hyperlink ref="B606" r:id="rId575" xr:uid="{F9C7EA5D-5ABE-41A8-84CE-FA266625D5E4}"/>
-    <hyperlink ref="B607" r:id="rId576" xr:uid="{C529ACAF-651F-4540-8C81-2414E4C9D4A9}"/>
-    <hyperlink ref="B608" r:id="rId577" xr:uid="{6747EBF9-4740-4184-842F-A768F165D48B}"/>
-    <hyperlink ref="B609" r:id="rId578" xr:uid="{9D196D92-2E98-4011-8C62-3D3EEEDC4462}"/>
-    <hyperlink ref="B610" r:id="rId579" xr:uid="{7C14CAB9-BC0F-41B6-A119-90411C017861}"/>
-    <hyperlink ref="B612" r:id="rId580" xr:uid="{55AAB72F-CB15-44C5-8313-AEE100D080CE}"/>
-    <hyperlink ref="B613" r:id="rId581" xr:uid="{5453CE42-16C9-4FF1-AEA5-20E23A5B621C}"/>
-    <hyperlink ref="B614" r:id="rId582" xr:uid="{BBB4B8B3-CEC3-4851-BECD-54C45DE61A6B}"/>
-    <hyperlink ref="B615" r:id="rId583" xr:uid="{87A2C477-F538-4D76-89EB-2A93B72E7A88}"/>
-    <hyperlink ref="B618" r:id="rId584" xr:uid="{F41E606F-CA62-4E7B-AFAA-664FB2F8A5BC}"/>
-    <hyperlink ref="B619" r:id="rId585" xr:uid="{9A24E94C-973C-442A-803F-9AEE837C3344}"/>
-    <hyperlink ref="B620" r:id="rId586" xr:uid="{C9F7DB11-4BA0-4ADA-9885-4034F184FA27}"/>
-    <hyperlink ref="B621" r:id="rId587" xr:uid="{EE4FDBEF-DF02-4E0F-8ED1-3492C9F83015}"/>
-    <hyperlink ref="B622" r:id="rId588" xr:uid="{FA5A2365-A5E9-411A-AAB2-4AFD0EE31DFF}"/>
-    <hyperlink ref="B623" r:id="rId589" xr:uid="{ED29E9CC-5F20-4D7A-8E4E-6F0432D43CB9}"/>
-    <hyperlink ref="B624" r:id="rId590" xr:uid="{8B654925-88A5-42D1-9B10-795FA96EC865}"/>
-    <hyperlink ref="B625" r:id="rId591" xr:uid="{00C5D7FC-4FA8-475A-8A77-380D6AABFB7F}"/>
-    <hyperlink ref="B626" r:id="rId592" xr:uid="{0B6B0BDA-BDC3-480D-828B-BE1EC1CCB1C3}"/>
-    <hyperlink ref="B627" r:id="rId593" xr:uid="{405D250E-D44F-4165-9248-33392315AFAF}"/>
-    <hyperlink ref="B628" r:id="rId594" xr:uid="{9EAE3BC6-766D-494A-85B0-63592CD90604}"/>
-    <hyperlink ref="B629" r:id="rId595" xr:uid="{4F206132-F47C-4800-BD4B-F51D024887AB}"/>
-    <hyperlink ref="B630" r:id="rId596" xr:uid="{C70B0C39-B604-4E89-BB5F-974971F5AE1F}"/>
-    <hyperlink ref="B631" r:id="rId597" xr:uid="{FE10A64C-667D-46B8-B1DB-A399DF7C7F38}"/>
-    <hyperlink ref="B632" r:id="rId598" xr:uid="{B43CAE7F-D972-4C68-8DC9-71670DA4C898}"/>
-    <hyperlink ref="B611" r:id="rId599" xr:uid="{82461285-496E-4BC2-BBCC-7B9C0B1866F0}"/>
-    <hyperlink ref="B616" r:id="rId600" xr:uid="{C584D6E7-B973-4A9C-8BAF-87CA8BA7FE3A}"/>
-    <hyperlink ref="B617" r:id="rId601" xr:uid="{3A93B407-2727-42C3-A1B8-9A8795E06B77}"/>
-    <hyperlink ref="B633" r:id="rId602" xr:uid="{103DD930-B3B4-41DB-A538-86F9923DAB91}"/>
-    <hyperlink ref="B634" r:id="rId603" xr:uid="{D4C89D8D-DBE5-4262-9A1C-BCB508064577}"/>
-    <hyperlink ref="B635" r:id="rId604" xr:uid="{D0985454-A1A6-499F-B4F7-AB5735CD1CF5}"/>
-    <hyperlink ref="B636" r:id="rId605" xr:uid="{44CC5717-9EF1-4BC8-8FDC-CCA7E5EB2F00}"/>
-    <hyperlink ref="B637" r:id="rId606" xr:uid="{BE3B5B37-5BAC-43AB-9CFC-8BF91F371F40}"/>
-    <hyperlink ref="B638" r:id="rId607" xr:uid="{4BEEFC64-936E-457F-A1C4-66EFAC4F37C0}"/>
-    <hyperlink ref="B639" r:id="rId608" xr:uid="{C4868DEA-F677-4E9B-B997-F6CF5D63A69E}"/>
-    <hyperlink ref="B640" r:id="rId609" xr:uid="{53FDF997-E48D-46E0-8028-3B530D9754EE}"/>
-    <hyperlink ref="B641" r:id="rId610" xr:uid="{26191DB0-2147-449D-ACEC-622DA17F8329}"/>
-    <hyperlink ref="B642" r:id="rId611" xr:uid="{F479E343-89A5-48F1-A12A-49817D270104}"/>
-    <hyperlink ref="B643" r:id="rId612" xr:uid="{97ED9E94-F7B4-4EB8-B785-5B66E7AAF6E9}"/>
-    <hyperlink ref="B644" r:id="rId613" xr:uid="{562E4639-4815-4E8D-BB09-E5EA2B7A4E4D}"/>
-    <hyperlink ref="B645" r:id="rId614" xr:uid="{AA7A1203-7E04-4AB6-984F-6BCF86E7D85B}"/>
-    <hyperlink ref="B646" r:id="rId615" xr:uid="{D7616DA2-D34E-46FA-A18F-DE61FA2F2752}"/>
-    <hyperlink ref="B647" r:id="rId616" xr:uid="{8652AB39-7A88-4159-BAD7-3054F776E407}"/>
-    <hyperlink ref="B648" r:id="rId617" xr:uid="{C4DD27B9-D03D-4B04-9D60-D3A98A0488E8}"/>
-    <hyperlink ref="B649" r:id="rId618" xr:uid="{3601E43C-E42E-4848-8693-2895E5CB38D8}"/>
-    <hyperlink ref="B650" r:id="rId619" xr:uid="{4DE134C4-F9DE-4C28-9271-F2F4D0DC1483}"/>
-    <hyperlink ref="B651" r:id="rId620" xr:uid="{1C9F3ADA-42A4-4F7A-94CC-D0415B9D7C2D}"/>
-    <hyperlink ref="B652" r:id="rId621" xr:uid="{CC4A29E5-F3E7-4A78-99EB-C1001E4B6AFF}"/>
-    <hyperlink ref="B653" r:id="rId622" xr:uid="{EF132108-863B-4722-A067-AA81B26966BE}"/>
-    <hyperlink ref="B654" r:id="rId623" xr:uid="{EB4D0347-0ECC-4D42-BF29-2CCD3E868FB5}"/>
-    <hyperlink ref="B655" r:id="rId624" xr:uid="{5CD9FB36-5313-4FCE-8D39-4BF21525774B}"/>
-    <hyperlink ref="B656" r:id="rId625" xr:uid="{E7BFA7E2-1048-46F8-B683-EDEAB1A2A768}"/>
-    <hyperlink ref="B657" r:id="rId626" xr:uid="{F9197AF3-3F6E-4123-A1E0-AF94BB214933}"/>
-    <hyperlink ref="B658" r:id="rId627" xr:uid="{C7323D05-0174-4C7A-9B45-48FF516E8468}"/>
-    <hyperlink ref="B659" r:id="rId628" xr:uid="{150BF676-B236-4509-AAAF-D4B2BE627D9D}"/>
-    <hyperlink ref="B660" r:id="rId629" xr:uid="{1399BE42-1212-4CAD-96C9-6C2BA33FF188}"/>
-    <hyperlink ref="B661" r:id="rId630" xr:uid="{A73C130D-F24D-45F5-BC43-90F863E5574B}"/>
-    <hyperlink ref="B662" r:id="rId631" xr:uid="{66FB52FF-689B-4ABF-B309-05E191D3318D}"/>
-    <hyperlink ref="B663" r:id="rId632" xr:uid="{318482CA-ECC6-43E4-B57E-C23A1209E04E}"/>
-    <hyperlink ref="B664" r:id="rId633" xr:uid="{9396A1E6-9585-4C5A-BBCF-39BF7D7DE807}"/>
-    <hyperlink ref="B665" r:id="rId634" xr:uid="{9673A91E-B873-4FF9-A5EE-093409D9B164}"/>
-    <hyperlink ref="B666" r:id="rId635" xr:uid="{ED96D323-09E8-4AD2-BC4D-D9A89BC55AB2}"/>
-    <hyperlink ref="B667" r:id="rId636" xr:uid="{60F89E08-8C46-4FC0-907D-B43A1CAEC583}"/>
-    <hyperlink ref="B675" r:id="rId637" xr:uid="{69AE7D17-0F98-4451-A561-1A30EDCE01D9}"/>
-    <hyperlink ref="B668" r:id="rId638" xr:uid="{528F8869-45EF-48F3-A8F4-45282EF7DB9F}"/>
-    <hyperlink ref="B669" r:id="rId639" xr:uid="{A1B4931B-9355-4B27-A457-8AD346D47BF6}"/>
-    <hyperlink ref="B670" r:id="rId640" xr:uid="{D3D46E06-372C-48AD-A7FF-D937AC6F30EF}"/>
-    <hyperlink ref="B671" r:id="rId641" xr:uid="{598B54B4-B654-4AF9-AD09-AEB5727609AB}"/>
-    <hyperlink ref="B672" r:id="rId642" xr:uid="{A4F16EC6-EB19-4BCC-A5EC-93F4B377B009}"/>
-    <hyperlink ref="B673" r:id="rId643" xr:uid="{14D5BFF0-67EA-4BE2-A894-6E74F224FD05}"/>
-    <hyperlink ref="B674" r:id="rId644" xr:uid="{D6417F88-5A82-49B2-B263-C59F5D9398D2}"/>
-    <hyperlink ref="B678" r:id="rId645" xr:uid="{838BEB07-A953-4C9E-ACA7-85E0FB06DF85}"/>
-    <hyperlink ref="B682" r:id="rId646" xr:uid="{7AA18793-0038-4BFB-9B85-4E3BA87B5555}"/>
-    <hyperlink ref="B684" r:id="rId647" xr:uid="{33BB2DA5-7D68-4C16-AACD-48726204A0EA}"/>
-    <hyperlink ref="B680" r:id="rId648" xr:uid="{971D53B7-596B-4864-B623-6FC1453EDC44}"/>
-    <hyperlink ref="B687" r:id="rId649" xr:uid="{B9CDD617-41F4-497A-AA42-40EF2193D612}"/>
-    <hyperlink ref="B686" r:id="rId650" xr:uid="{E4771820-73D4-4EEE-AB8B-B17A5439864B}"/>
-    <hyperlink ref="B683" r:id="rId651" xr:uid="{A7D343D0-499C-43DA-B3C2-FA9085203F97}"/>
-    <hyperlink ref="B685" r:id="rId652" xr:uid="{4D327330-D576-4558-8EB2-B1B6B6BF3BA5}"/>
-    <hyperlink ref="B679" r:id="rId653" xr:uid="{FCCBF73B-0EA4-4AB6-A014-BC55007D3D5E}"/>
-    <hyperlink ref="B676" r:id="rId654" xr:uid="{84428DD5-6889-4EAC-85D4-B627C4680A1D}"/>
-    <hyperlink ref="B677" r:id="rId655" xr:uid="{2CF10E07-D82F-4700-A719-81C85C52D6DF}"/>
-    <hyperlink ref="B681" r:id="rId656" xr:uid="{226221AD-3C6F-4618-8325-B2E34967D4EF}"/>
-    <hyperlink ref="B706" r:id="rId657" xr:uid="{02DE07A3-7C0D-423A-820A-AC3E8BD0B198}"/>
-    <hyperlink ref="B705" r:id="rId658" xr:uid="{7A2D488F-8CC7-46DB-86DA-688A622E7B02}"/>
-    <hyperlink ref="B704" r:id="rId659" xr:uid="{CB7BC1F5-B4EC-45DC-AFFC-3BF288307BA7}"/>
-    <hyperlink ref="B703" r:id="rId660" xr:uid="{4F6AA075-D705-4F5B-946C-1BEE3A681918}"/>
-    <hyperlink ref="B702" r:id="rId661" xr:uid="{906DE7A6-D6D1-4B74-80EE-BF5644485B36}"/>
-    <hyperlink ref="B701" r:id="rId662" xr:uid="{CDE9BFEA-0618-4A61-A1CB-673D18262E51}"/>
-    <hyperlink ref="B700" r:id="rId663" xr:uid="{2ADE72FD-951F-468B-B18F-905D2FE64EBF}"/>
-    <hyperlink ref="B699" r:id="rId664" xr:uid="{FF45DD0A-ECF4-4AE8-AA13-27E10902E6E4}"/>
-    <hyperlink ref="B698" r:id="rId665" xr:uid="{7CDDAADB-2BA1-4BDD-B6A9-BC01619272B9}"/>
-    <hyperlink ref="B697" r:id="rId666" xr:uid="{BD4A8FBD-A3C0-4A1C-8C12-22E7DCBC80FB}"/>
-    <hyperlink ref="B696" r:id="rId667" xr:uid="{8F6BC97D-D650-48F4-845D-09D5ECDBF01D}"/>
-    <hyperlink ref="B695" r:id="rId668" xr:uid="{AF8E18D7-5458-4374-A645-86206F57CAE7}"/>
-    <hyperlink ref="B694" r:id="rId669" xr:uid="{2F5B138F-ED16-4C3D-B199-7E339E1BA226}"/>
-    <hyperlink ref="B693" r:id="rId670" xr:uid="{22A1EB75-52BA-46AB-9B17-C8F4308723A5}"/>
-    <hyperlink ref="B692" r:id="rId671" xr:uid="{F832DA2F-E3CE-4A68-9B65-C4CA2CE1DD35}"/>
-    <hyperlink ref="B691" r:id="rId672" xr:uid="{0CD39153-A0F5-4AB9-9D38-2E841336B1A8}"/>
-    <hyperlink ref="B690" r:id="rId673" xr:uid="{967BFC24-19D1-4B75-A7B2-F72905385423}"/>
-    <hyperlink ref="B689" r:id="rId674" xr:uid="{B53D0B42-0B10-438B-9A52-FC21B58F11BB}"/>
-    <hyperlink ref="B688" r:id="rId675" xr:uid="{06130DE0-417A-4C3B-BD3E-21D859D920D5}"/>
-    <hyperlink ref="B707" r:id="rId676" xr:uid="{80D28D8E-4DE3-492E-A5C7-F793227E8684}"/>
-    <hyperlink ref="B708" r:id="rId677" xr:uid="{EAE2567C-DFD8-484E-9C3E-489ADE600A45}"/>
-    <hyperlink ref="B709" r:id="rId678" xr:uid="{0E664F44-74C0-4D20-A77D-84A6BEDA7452}"/>
-    <hyperlink ref="B710" r:id="rId679" xr:uid="{1CC5BC35-6D4F-481A-AE42-C351F3F2C804}"/>
-    <hyperlink ref="B711" r:id="rId680" xr:uid="{74732A9E-CF34-4883-9DEE-3EF2050D167E}"/>
-    <hyperlink ref="B712" r:id="rId681" xr:uid="{299BD3B5-542A-4BE3-AB8E-73D65E1BDB4F}"/>
-    <hyperlink ref="B713" r:id="rId682" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{6462EDEB-4865-4706-835D-010437B8C3C0}"/>
-    <hyperlink ref="B714" r:id="rId683" xr:uid="{AD570A23-F597-4F76-847A-FFDD373D9891}"/>
-    <hyperlink ref="B715" r:id="rId684" xr:uid="{A20D8DEB-676D-4225-AAE4-71E3DD65D7D1}"/>
-    <hyperlink ref="B716" r:id="rId685" xr:uid="{0934BCB8-1D26-45DA-B4A7-BCBD7EB4194A}"/>
-    <hyperlink ref="B717" r:id="rId686" xr:uid="{BA500592-9826-4D4E-AEE0-20DE549BE3C1}"/>
-    <hyperlink ref="B718" r:id="rId687" xr:uid="{702A0847-CC8F-4ABC-970E-380462F91506}"/>
-    <hyperlink ref="B719" r:id="rId688" xr:uid="{775FE548-4DAB-4AD5-A446-E5F6DEE72F24}"/>
-    <hyperlink ref="B720" r:id="rId689" xr:uid="{871DDEC2-3C84-47A5-A2BA-0E2A6884970C}"/>
-    <hyperlink ref="B721" r:id="rId690" xr:uid="{7F0DD263-D855-4F37-AA43-84D87D07A72C}"/>
-    <hyperlink ref="B722" r:id="rId691" xr:uid="{324C00FE-2A13-4E8F-B0E9-DD35BFAAAF3C}"/>
-    <hyperlink ref="B723" r:id="rId692" xr:uid="{678072D9-00EB-4932-A404-3E447920A3A5}"/>
-    <hyperlink ref="B724" r:id="rId693" xr:uid="{6F4A8045-42F3-4ED2-87F0-4331A2144727}"/>
-    <hyperlink ref="B725" r:id="rId694" xr:uid="{8ABF9C27-894C-41C2-B9C9-F7852530B810}"/>
-    <hyperlink ref="B726" r:id="rId695" xr:uid="{2E7B0CB3-3B6F-4857-8919-040005FDE401}"/>
-    <hyperlink ref="B727" r:id="rId696" xr:uid="{3C25490E-3F6A-4B4F-B56C-E0E4D001FA31}"/>
-    <hyperlink ref="B728" r:id="rId697" xr:uid="{BB4A42BF-E65D-41AF-ACD1-27321C5AE6F0}"/>
-    <hyperlink ref="B729" r:id="rId698" xr:uid="{977E1B2A-DD5B-43C7-A6F4-0DDB2FADC244}"/>
-    <hyperlink ref="B730" r:id="rId699" xr:uid="{EEB27277-FAC3-4403-B36B-FCB445618F78}"/>
-    <hyperlink ref="B731" r:id="rId700" xr:uid="{BFC63D33-E922-4BA2-A8EE-7012A8F6F475}"/>
-    <hyperlink ref="B732" r:id="rId701" xr:uid="{C66C9E88-6122-4D28-B28B-965E2915DC49}"/>
-    <hyperlink ref="B733" r:id="rId702" xr:uid="{9575B478-AB68-48A1-9AA7-F0D8B0D779D0}"/>
-    <hyperlink ref="B734" r:id="rId703" xr:uid="{983661AE-9589-4E97-966F-B0DF0F73DEC7}"/>
-    <hyperlink ref="B735" r:id="rId704" xr:uid="{3951A60E-88EE-4BE6-9227-4E0C99B0126B}"/>
-    <hyperlink ref="B736" r:id="rId705" xr:uid="{E460B59D-1FD8-4F96-B3C8-5BD3FD26F4FE}"/>
-    <hyperlink ref="B737" r:id="rId706" xr:uid="{1C9DCA03-A3C5-4499-8CE1-4198BB7742BF}"/>
-    <hyperlink ref="B738" r:id="rId707" xr:uid="{7D1A95DA-8885-4682-A4E4-884899F0D09E}"/>
-    <hyperlink ref="B739" r:id="rId708" xr:uid="{429E0DAD-5AD3-456C-8FC4-E55B0E5AECD3}"/>
-    <hyperlink ref="B740" r:id="rId709" xr:uid="{266890C5-7B45-49CA-9892-9BA0505EDB9F}"/>
-    <hyperlink ref="B741" r:id="rId710" xr:uid="{9FC4413E-D77B-43B2-A817-5F430D514567}"/>
-    <hyperlink ref="B742" r:id="rId711" xr:uid="{503BB442-B827-4E12-8328-C39A49D2164D}"/>
-    <hyperlink ref="B743" r:id="rId712" xr:uid="{1D785F4B-6C32-4B2D-BD53-51917C95B5C7}"/>
-    <hyperlink ref="B744" r:id="rId713" xr:uid="{AB794BB4-8792-46C7-B885-CE3350C32301}"/>
-    <hyperlink ref="B745" r:id="rId714" xr:uid="{25C990E2-1948-4864-A4F8-1BB959CB7489}"/>
-    <hyperlink ref="B746" r:id="rId715" xr:uid="{532EFBCA-247C-4BDD-AE15-B6F3BF62A49A}"/>
-    <hyperlink ref="B747" r:id="rId716" xr:uid="{CC885340-886A-4D99-B5E6-89C8BD4E30E5}"/>
-    <hyperlink ref="B748" r:id="rId717" xr:uid="{091F3BA4-290C-465E-ADCA-7EDECA897F7D}"/>
-    <hyperlink ref="B749" r:id="rId718" xr:uid="{2DD3E8DC-487B-41F7-8F26-A8E0E3F9B349}"/>
-    <hyperlink ref="B750" r:id="rId719" xr:uid="{DBA06A20-D640-4242-B32F-822AA11F01C3}"/>
-    <hyperlink ref="B751" r:id="rId720" xr:uid="{9AA0E55C-7FB6-4691-B16F-62B726FC7287}"/>
-    <hyperlink ref="B752" r:id="rId721" xr:uid="{C12B98AD-B484-45F4-A4C5-EF69B78BF9C0}"/>
-    <hyperlink ref="B753" r:id="rId722" xr:uid="{61A1FCBD-79C1-4F01-B783-FD8759A33C42}"/>
-    <hyperlink ref="B754" r:id="rId723" xr:uid="{AEA735DB-84D3-4CFB-B7B0-3CA13FE7EEBD}"/>
-    <hyperlink ref="B755" r:id="rId724" xr:uid="{62C9D21D-76C0-4210-9DC9-6DF396848643}"/>
-    <hyperlink ref="B756" r:id="rId725" xr:uid="{61E4301C-B7EC-4CB8-AE09-12AEF34DB34E}"/>
-    <hyperlink ref="B757" r:id="rId726" xr:uid="{CE7A1C0B-7E77-4582-A214-F2ED76C2AB4F}"/>
-    <hyperlink ref="B758" r:id="rId727" xr:uid="{3EB2E96E-2316-44EB-8196-71DDDB21356B}"/>
-    <hyperlink ref="B759" r:id="rId728" xr:uid="{8DDBF380-871C-430F-B39B-1AF8FB2B7CF8}"/>
-    <hyperlink ref="B760" r:id="rId729" xr:uid="{07EB6093-48A6-47D6-983A-0F9037433924}"/>
-    <hyperlink ref="B761" r:id="rId730" xr:uid="{771D26E1-6347-4299-B7A2-765C77102D5B}"/>
-    <hyperlink ref="B762" r:id="rId731" xr:uid="{FB5CB086-E80E-4B6B-A208-E4D039C213E2}"/>
-    <hyperlink ref="B763" r:id="rId732" xr:uid="{A6531430-69D9-4723-BDFD-8DBAD0F39FE8}"/>
-    <hyperlink ref="B764" r:id="rId733" xr:uid="{C8E141DC-C8A1-4B74-9B1A-6E63C19A0F8C}"/>
-    <hyperlink ref="B765" r:id="rId734" xr:uid="{EC2B8F83-E4D0-448F-9A78-777A1D93F72B}"/>
-    <hyperlink ref="B766" r:id="rId735" xr:uid="{6244B963-8E44-4693-9626-DED730855335}"/>
-    <hyperlink ref="B767" r:id="rId736" xr:uid="{49A2C2DB-A6CD-4447-8813-CC09DA3B9684}"/>
-    <hyperlink ref="B768" r:id="rId737" xr:uid="{55B8F050-0E26-4147-B573-C0CCA960BD2C}"/>
-    <hyperlink ref="B769" r:id="rId738" xr:uid="{936D1C71-406E-4D4E-8B0D-C1989F429EF9}"/>
-    <hyperlink ref="B770" r:id="rId739" xr:uid="{45D18248-8EC0-4883-AE71-DA5AEA03B8FB}"/>
-    <hyperlink ref="B771" r:id="rId740" xr:uid="{22A5068E-AF27-4A9B-B9DF-38F633009772}"/>
-    <hyperlink ref="B772" r:id="rId741" xr:uid="{A46CB776-97BE-4081-B086-19D31E5941A9}"/>
-    <hyperlink ref="B773" r:id="rId742" xr:uid="{16775409-3138-4295-B7AD-30B3F7A0E427}"/>
-    <hyperlink ref="B774" r:id="rId743" xr:uid="{1092FFFE-7695-4108-9C93-B184CE417D8C}"/>
-    <hyperlink ref="B775" r:id="rId744" xr:uid="{97645C57-DFE4-4897-A681-8D8A77814418}"/>
-    <hyperlink ref="B776" r:id="rId745" xr:uid="{67472A2F-8291-4FD4-9DBE-ECDFA339C5D9}"/>
-    <hyperlink ref="B777" r:id="rId746" xr:uid="{458FF30B-8C23-4315-BB04-F7189D7C0181}"/>
-    <hyperlink ref="B778" r:id="rId747" xr:uid="{959EAB5A-4011-48B6-A9BB-CE3E019484B6}"/>
-    <hyperlink ref="B779" r:id="rId748" xr:uid="{2EBAF5DA-9E5D-4443-927F-AC5B0055C223}"/>
-    <hyperlink ref="B780" r:id="rId749" xr:uid="{C5895ADE-9224-4757-B3F9-3D21062C044D}"/>
-    <hyperlink ref="B781" r:id="rId750" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{C084DA4D-F97D-4CD0-861A-75F1A335D40C}"/>
-    <hyperlink ref="B782" r:id="rId751" xr:uid="{866393C7-396A-41D8-B2C4-314086F7D3D6}"/>
-    <hyperlink ref="B783" r:id="rId752" xr:uid="{5DA2DA1A-6F8C-41E3-94C5-9289D4402EA8}"/>
-    <hyperlink ref="B784" r:id="rId753" xr:uid="{13811CB3-8249-4489-B63B-8866DA3EA9DB}"/>
-    <hyperlink ref="B786" r:id="rId754" xr:uid="{A269BC0C-38C8-4E16-B4BC-23D8AEBA05B3}"/>
-    <hyperlink ref="B787" r:id="rId755" xr:uid="{BA3299AF-00F4-4023-9840-3DF2362BA88B}"/>
-    <hyperlink ref="B788" r:id="rId756" xr:uid="{C51819FB-A6CD-4D9D-A5D1-8B539CF0FC90}"/>
-    <hyperlink ref="B789" r:id="rId757" xr:uid="{28FC6BC6-A272-4829-AE37-BDDFB7140C02}"/>
-    <hyperlink ref="B790" r:id="rId758" xr:uid="{A8E2ADED-401F-4AF3-9FA8-15F981D35F23}"/>
-    <hyperlink ref="B791" r:id="rId759" xr:uid="{1AF61CF4-91C6-43C4-B6ED-231D85B2FDD0}"/>
-    <hyperlink ref="B792" r:id="rId760" xr:uid="{E82C4E11-4E8D-4D5E-9B7C-E183A59D89AB}"/>
-    <hyperlink ref="B793" r:id="rId761" xr:uid="{A6DE13BE-7854-4717-A9CB-6A02FD66A992}"/>
-    <hyperlink ref="B794" r:id="rId762" xr:uid="{21E2FF6E-FE29-461C-BA0B-EC28142A06FE}"/>
-    <hyperlink ref="B795" r:id="rId763" xr:uid="{ECD628A9-E6B3-48DA-ADBF-9DAE5E5BDA12}"/>
-    <hyperlink ref="B796" r:id="rId764" xr:uid="{AD84315E-E67F-4AFE-BEFF-4599443477AA}"/>
-    <hyperlink ref="B797" r:id="rId765" xr:uid="{9C353AC4-46D3-489F-B314-CF9C8A20352A}"/>
-    <hyperlink ref="B798" r:id="rId766" xr:uid="{C570D823-B7AB-44A6-AF9B-9B72352BB865}"/>
-    <hyperlink ref="B799" r:id="rId767" xr:uid="{B2C8EEF0-C3A3-47AF-BC8F-BB170F67041A}"/>
-    <hyperlink ref="B800" r:id="rId768" xr:uid="{B5939BA2-1F17-4224-9BC1-D2D8E78A0AC1}"/>
-    <hyperlink ref="B801" r:id="rId769" xr:uid="{23531C25-642E-46DA-8FE4-9D384F227082}"/>
-    <hyperlink ref="B802" r:id="rId770" xr:uid="{2D30A214-4881-4D81-BA0C-31ADB34AFE6B}"/>
-    <hyperlink ref="B803" r:id="rId771" xr:uid="{2E8E7B94-A6A0-437A-AD80-720AE59F66C0}"/>
-    <hyperlink ref="B804" r:id="rId772" xr:uid="{6280ABF3-8923-4BD1-888C-FCFE900DAAF3}"/>
-    <hyperlink ref="B805" r:id="rId773" xr:uid="{B6ED4899-58C1-489C-B892-14019345A700}"/>
-    <hyperlink ref="B806" r:id="rId774" xr:uid="{C9E5EE91-3802-4EA2-860F-8814355C6791}"/>
-    <hyperlink ref="B807" r:id="rId775" xr:uid="{3B3550DF-5E4D-46AD-9B5E-0E9FD212F85E}"/>
-    <hyperlink ref="B808" r:id="rId776" xr:uid="{C582CAFB-B89A-4400-93CB-56488851B03A}"/>
-    <hyperlink ref="B809" r:id="rId777" xr:uid="{9C027464-1B09-43B3-A93F-F607B8794360}"/>
-    <hyperlink ref="B810" r:id="rId778" xr:uid="{347D8CBB-0293-43D4-A1C4-453049EF5B63}"/>
-    <hyperlink ref="B811" r:id="rId779" xr:uid="{BF26FF9E-B48C-4CF4-BB87-0123C33C6DF5}"/>
-    <hyperlink ref="B812" r:id="rId780" xr:uid="{FA2F2D9C-5436-4AE3-B534-1A6D019A38CA}"/>
-    <hyperlink ref="B813" r:id="rId781" xr:uid="{B5A59D40-75CB-472D-AAE8-CA2E19769F9B}"/>
-    <hyperlink ref="B814" r:id="rId782" xr:uid="{ACA12917-1428-4BBC-92C6-C3EA9C408C6B}"/>
-    <hyperlink ref="B815" r:id="rId783" xr:uid="{EB9B0F66-C734-49C3-B759-7B7AEA1E6803}"/>
-    <hyperlink ref="B816" r:id="rId784" xr:uid="{F3D2F2C3-A6BE-441F-AC32-82F89861329A}"/>
-    <hyperlink ref="B817" r:id="rId785" xr:uid="{5AA43758-70A7-4F27-BD53-EC00D6EB304A}"/>
-    <hyperlink ref="B818" r:id="rId786" xr:uid="{0860A3B3-B7E4-4377-8A9D-D6D18D24EAB6}"/>
-    <hyperlink ref="B819" r:id="rId787" xr:uid="{787A1D46-BF06-4510-870E-7D2F617F9578}"/>
-    <hyperlink ref="B820" r:id="rId788" xr:uid="{2988D16E-0523-4232-B560-7841A3D4E42A}"/>
-    <hyperlink ref="B821" r:id="rId789" xr:uid="{73CE9AFA-BFD9-4BA8-94CC-53EA057E81E1}"/>
-    <hyperlink ref="B822" r:id="rId790" xr:uid="{7E3DCDBD-0025-4118-A524-980D798D4B42}"/>
-    <hyperlink ref="B823" r:id="rId791" xr:uid="{FEE795FE-6ABD-46B4-92D9-FA8CB86B2CA6}"/>
-    <hyperlink ref="B824" r:id="rId792" xr:uid="{44978EE9-3872-4D1D-923F-665A31B31C8F}"/>
-    <hyperlink ref="B825" r:id="rId793" xr:uid="{8862B102-279A-4907-BD0D-5ED061A907E1}"/>
-    <hyperlink ref="B826" r:id="rId794" xr:uid="{F0C6C762-0B6D-4E24-AB51-3E58E6A7F2D8}"/>
-    <hyperlink ref="B827" r:id="rId795" xr:uid="{4247657A-33F0-4F2F-9825-C35F30DCAF0F}"/>
-    <hyperlink ref="B828" r:id="rId796" xr:uid="{9DC06678-4422-40EF-A762-6A85CEE1B91F}"/>
-    <hyperlink ref="B829" r:id="rId797" xr:uid="{E275E15F-99C0-4182-8679-49163B0C9237}"/>
-    <hyperlink ref="B830" r:id="rId798" xr:uid="{61903F78-58BE-4B9B-8414-91CA4E827882}"/>
-    <hyperlink ref="B831" r:id="rId799" xr:uid="{F81136FE-F33F-4BE7-9F8A-41633931A9C9}"/>
-    <hyperlink ref="B832" r:id="rId800" xr:uid="{2E3E91A2-1629-4678-8598-8B6FE5E205E8}"/>
-    <hyperlink ref="B833" r:id="rId801" xr:uid="{3CA27BE8-3AB6-49A1-A0D8-EDC933CDB65D}"/>
-    <hyperlink ref="B834" r:id="rId802" xr:uid="{82B38F6E-1521-49CD-952F-6C28E0BE6FE3}"/>
-    <hyperlink ref="B835" r:id="rId803" xr:uid="{DF63B7A4-D9D2-48B4-BF90-631977396555}"/>
-    <hyperlink ref="B836" r:id="rId804" xr:uid="{3EFDF1B0-E7C7-4749-849C-0FE08C3707D1}"/>
-    <hyperlink ref="B837" r:id="rId805" xr:uid="{B918898D-8CD5-4D72-BB48-BF6BF1541CD1}"/>
-    <hyperlink ref="B838" r:id="rId806" xr:uid="{84D3BFD7-4576-4764-BB88-94D91738A945}"/>
-    <hyperlink ref="B872" r:id="rId807" xr:uid="{C928610E-2B30-464A-8A0F-B148623582DB}"/>
-    <hyperlink ref="B871" r:id="rId808" xr:uid="{FBCEEBE5-81D0-4AF4-B3D0-501545EBFF89}"/>
-    <hyperlink ref="B870" r:id="rId809" xr:uid="{73CEDF5D-98CB-4772-A339-6285FA11FAE8}"/>
-    <hyperlink ref="B869" r:id="rId810" xr:uid="{DC3BB31A-B237-478A-9064-5CEED6C62E3B}"/>
-    <hyperlink ref="B868" r:id="rId811" xr:uid="{C1BBC754-9D84-47E1-872B-4EE9FD6A74AF}"/>
-    <hyperlink ref="B867" r:id="rId812" xr:uid="{FC40BEDB-32FF-4859-AB7F-CACF181CC321}"/>
-    <hyperlink ref="B866" r:id="rId813" xr:uid="{7F52E175-A347-4BED-B82B-D0B21A730A28}"/>
-    <hyperlink ref="B865" r:id="rId814" xr:uid="{959E26EA-81D7-4FC6-B2AB-98A686E6A36A}"/>
-    <hyperlink ref="B864" r:id="rId815" xr:uid="{3956D2F8-1998-48CD-A828-D504DA1D4483}"/>
-    <hyperlink ref="B863" r:id="rId816" xr:uid="{7DC61A29-8AF4-4F26-ACCB-2540E4ACD63A}"/>
-    <hyperlink ref="B862" r:id="rId817" xr:uid="{641E8C17-07B1-4A14-A324-511B1923F8B9}"/>
-    <hyperlink ref="B861" r:id="rId818" xr:uid="{3AC7EEF7-AAFD-4CCE-ACEA-07E26E311C63}"/>
-    <hyperlink ref="B860" r:id="rId819" xr:uid="{26D68838-AE5F-41C1-A015-84AAE776295D}"/>
-    <hyperlink ref="B859" r:id="rId820" xr:uid="{15765050-86EE-4BFB-9A2B-19E6F1914B92}"/>
-    <hyperlink ref="B858" r:id="rId821" xr:uid="{DE1BA1E8-5B58-4082-BA6A-8A5816CDA677}"/>
-    <hyperlink ref="B857" r:id="rId822" xr:uid="{822D0953-77E3-475D-AFB3-1EBA7948E359}"/>
-    <hyperlink ref="B856" r:id="rId823" xr:uid="{2CC3FE96-BE14-4243-9829-8A0D8673842B}"/>
-    <hyperlink ref="B855" r:id="rId824" xr:uid="{35EF8D6F-3242-45AC-8766-74D5DFB272F4}"/>
-    <hyperlink ref="B854" r:id="rId825" xr:uid="{7D736088-258E-4C0A-BE08-AE3E78414690}"/>
-    <hyperlink ref="B853" r:id="rId826" xr:uid="{75B210C0-5287-4ED2-9F97-291144EDB66C}"/>
-    <hyperlink ref="B852" r:id="rId827" xr:uid="{29978A2E-A65C-4002-8975-4369AD75B065}"/>
-    <hyperlink ref="B851" r:id="rId828" xr:uid="{CCC7C197-EE8D-4058-B69B-941E97843A30}"/>
-    <hyperlink ref="B850" r:id="rId829" xr:uid="{5F6BFBA1-0035-41A1-875C-92EFD3944F97}"/>
-    <hyperlink ref="B849" r:id="rId830" xr:uid="{446CE08E-80F5-4D4B-BAF2-2AD39F859314}"/>
-    <hyperlink ref="B848" r:id="rId831" xr:uid="{F550FF51-D752-4176-8709-4BC81F3F7D71}"/>
-    <hyperlink ref="B847" r:id="rId832" xr:uid="{EA299E36-D446-460D-BD45-1A9FBB53CDF6}"/>
-    <hyperlink ref="B846" r:id="rId833" xr:uid="{38EEE20D-4A3B-44EB-A178-5FBAE8429D0C}"/>
-    <hyperlink ref="B845" r:id="rId834" xr:uid="{A2C13E48-5EC8-4E86-BAD7-3D2B984CAEEE}"/>
-    <hyperlink ref="B844" r:id="rId835" xr:uid="{034050FE-07F8-413C-A112-DB8D6186E9C5}"/>
-    <hyperlink ref="B843" r:id="rId836" xr:uid="{7A706765-7C1A-4005-90EA-ECAEE446CADA}"/>
-    <hyperlink ref="B842" r:id="rId837" xr:uid="{53C8E890-F23E-447C-890F-D3760DAB591F}"/>
-    <hyperlink ref="B841" r:id="rId838" xr:uid="{82D8A7DE-B385-4A26-A7D4-D1EE6F20D36E}"/>
-    <hyperlink ref="B840" r:id="rId839" xr:uid="{8B51EDB4-7107-4E5C-B58C-065903753AEA}"/>
-    <hyperlink ref="B839" r:id="rId840" xr:uid="{466834B4-7A29-4D92-93EE-ECE71C59996A}"/>
-    <hyperlink ref="B785" r:id="rId841" xr:uid="{5A762988-1E77-4DA7-B395-77F75F84684F}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{68C58B8A-E3B5-4568-AD67-35A442634368}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{5E7E3FC5-9D99-4949-A33E-191293520AA2}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{7A9F512A-5EA1-4FC2-B30D-8CA5191F9EA5}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{F46A7AF3-354D-40FF-8CE6-B06B7089B7EE}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{A208FB60-FF35-41AC-922B-475D9BED0087}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{DCE3A467-323B-412D-8BAC-98DFC70B336A}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{F049C0BC-EC63-4C5C-95DD-5FF3173F9657}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{A352CF2D-DA3B-408E-8C1E-F40D7992B2A7}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{23E88AC7-4A8F-4A94-BF0D-0C9A1A51768F}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{451AC3E6-6727-4921-9F75-49F74E2CB9F9}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{D9D62156-6E69-4700-AF15-D1A6C59A8270}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{614131E2-29DA-4147-BBD8-10E1D6DDD11B}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{05471CFC-D630-4681-A88A-4BD65B76064C}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{961EF1F4-DF39-4992-8D94-8CD41041C693}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{8A74611B-7A3D-4E41-9F46-653C2B93C98D}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{A6051572-91D4-4B3B-9584-28F5613DEEF7}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{6628D4BF-3165-4473-BF28-4822EA970586}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{217D4255-3E1A-4DE4-B308-D53C4F855BF4}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{34031AA4-7EE6-46DF-967D-F303FA716DDB}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{D62F39D9-CB59-4D9A-B26A-73884BF94A94}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{7BA3469C-2574-4BCE-9E98-45457BD0C27D}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{6AA919EC-BE8E-4321-BA5D-69BDE2AA8A0D}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{ADD5D031-6921-41FB-9CD4-59A872CAE3C8}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{ABEB7985-1CCE-422D-88D2-85B96F5451BE}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{C5BC4272-A146-4783-B365-23E1123DBF55}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{B9228DF7-6028-46F6-BB65-203EAB90A562}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{E97F7686-9DEA-423A-B41F-6EA4F46664E8}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{21AF3508-041F-443A-BFA9-E164F3331C99}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{EC98397E-36F9-4C89-B9CD-EE852EEDE1F0}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{0AD468A4-DDBF-4C91-952E-20E0B6735043}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{9C06A5FA-096F-45DA-9EF4-BB6124E7FF90}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{4FF4C94D-4D7E-4C3C-84E2-7139D6BC5053}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{3E1A06CE-A7DD-4581-87EF-B965260E7DE8}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{FBABA5AB-6AC1-4AC1-B15A-745431F0646E}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{5F966F6E-FE20-4535-B534-A98C5FF7DA32}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{A4BC80CE-C6AA-43E7-8ACD-AF4601A7BB18}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{6ABB1BE2-5B41-481C-8727-CB12594EECCB}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{07EF85A5-C1A5-4690-AE2E-6B34E5E621D9}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{70587BA8-8040-466B-8C91-22E4CB86F773}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{57239F5C-BB7E-4F1A-8C7A-4ADE071B9815}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{CA6F26B3-9F18-48AB-ACC2-24860911B084}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{E18EB5F8-F8BC-4B7A-9687-A311CD5074AB}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{F75816B9-7A41-4DDA-94E5-A779F7388882}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{D3F14BC8-B990-42AA-AFFD-DCDC0883B0D3}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{10DDD994-66D0-47FD-9817-0E04358FA359}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{0B40389D-A62C-4E16-A2A6-055D788D9F43}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{1B74F979-D7D9-49C5-826E-D73AEED4BEA3}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{F28199FF-BC99-474D-9FF1-D2D41CA2AF12}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{441C83DB-8A38-4D07-80AF-CCCF5EAF9BC5}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{98F19130-39C5-4706-81D2-D76E703D14CA}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{CF58B763-10BD-4B87-8906-AE7DDA06DC66}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{BF1F03A4-229F-40FF-98E7-BB95D4F7BADE}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{8B71B5C9-D08B-4EDB-ADD0-E65395B3902D}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{05BBAF1C-B00A-445E-8CC0-0234CDB70191}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{5741453A-2050-4FBD-93F7-5D212574B225}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{C2E6A5C5-26E1-4A7B-9368-82B7FE374E87}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{E680952A-4104-4716-A35B-108B897DEB83}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{254A6860-D4F2-4821-A64A-A0235D75F5D9}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{CBFC4FB5-9E96-4E7E-8EA6-6B462A522A39}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{79D666A8-CEC9-4B71-9F3C-234AC99BCD4E}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{5E9614A0-B203-48F2-BAE4-69BB52B5A53A}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{1311E016-8A04-4F80-A247-A96DBEE3328C}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{C64C205E-217B-47D8-AA75-2D2F2B554828}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{8E9CE445-CECB-4F31-B62A-0ED80A8DDE94}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{0FD52BDE-2959-45E8-8920-1CA9D7E8B29D}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{F7DCAFBF-EDCE-49BE-A62A-89EA6D3C69D0}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{48C14CBF-7D38-4CAC-859C-ADB74C68CDAA}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{AC6D79BF-C5BC-4D53-B470-3596102128B4}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{25833AEA-1440-414D-BD00-8B80FCA32527}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{0BF156A7-3472-44D2-8EDA-DCF3A751533D}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{898D4D5F-AB5C-4C2A-9F5A-EA9DD65C2BC3}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{D046ECBE-AD7D-4F0F-94D0-E851590362F5}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{D008C13E-2FA0-4C0E-833A-77C74997BF95}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{9630685B-D2C1-45A7-89A7-C18440FD7FAA}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{FF921544-393A-42BB-855F-A6BD7D9F5BEF}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{36D67D04-5790-4052-9F46-5A04373B9365}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{2CFC23E7-3AD0-4AA8-9923-29615F65BBE0}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{A6FEA269-1767-45ED-97BD-829704C354FE}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{0D45D842-BF33-4775-BE23-44196E33B82F}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{AFD5DB5E-11AF-4B56-8400-A20A71BCE1C1}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{E7639CE1-8B38-4995-A143-56180BAA06EA}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{E3011F71-C902-4FDE-90F1-F2E0633DD184}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{8EE6904E-3153-4EE0-BCA8-8DC9E3B0DEBC}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{2BC345AF-B566-46E8-BF4B-5CA5B5984706}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{56400396-B801-4114-99FE-AE06FCA35FCA}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{845BAE37-EE23-4F8A-90F9-3AF11A50CD5C}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{A8DBA7E3-48E0-42D1-8223-0F1DA2027E94}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{8764877D-AB61-4547-B842-531787D7F97E}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{B8DD7FFD-6114-4DAB-94CE-0BFF150E5C46}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{58A31648-212A-4B1C-9F9A-85CCA40CEB3E}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{65611740-C8B1-4727-88EB-22FB845EAFB9}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{4B142948-D9BD-4665-A73B-2F260DACDA9F}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{82507BA0-F162-47BE-91DC-8F3F3DFD75E0}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{EAE0F2C3-83EF-4192-A513-3B39F855313A}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{9EEDE04B-1907-4300-ABE8-B2F46C5CF492}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{3F9E10FA-6895-4560-8BDD-E4F021A0F090}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{60017E92-522C-4BFB-9480-F75C1CB2C346}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{04785E81-E990-4B7B-9F76-BFA73E3B8DBC}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{64B5DE96-827B-4B63-B45C-447CF5296CDF}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{A06B1C60-C36B-473F-AD16-CA29619839D8}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{F75C3529-ADD9-4092-9F49-1BB8DF13282A}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{4269A5B4-467F-4266-9D7C-ADA3AC0490FE}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{D207BC33-070A-467A-95B8-3CABD7593B3D}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{3512E1BB-577C-47A9-A79D-34CCED581900}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{7AA802E7-6BD1-4FD0-94A1-271D057368AC}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{758A94F1-1E1C-4145-AC1C-1182A40B4F10}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{91969A11-FF4B-4E5C-9D97-2AAE00ED553E}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{65105775-2338-4654-92B4-89C9768BC98C}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{B635A088-CA3D-4DFF-8434-777C7D1865EC}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{8AD4A7E9-307C-45F6-8362-6BFC35D287E4}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{5EFF4248-559D-4FE4-A0A8-FE33C5CEBDE2}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{4117D144-8A63-4E10-A425-D621181D7B24}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{FAF02959-A3D1-4D32-A022-40C57117BA59}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{FFC3D57B-1E1D-4BDA-8146-C74C58BA37FD}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{E4AE3AEC-F291-4C1D-80A4-5771FE830EDD}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{C309F447-C266-4A53-9431-6529B53BF3EC}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{32BD3F05-42B8-4644-900C-518BB2059833}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{7C7B82FF-27D8-48DD-98B3-21E473903A55}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{BE68FF38-50EA-4FBA-A5DB-9C504BBCBC67}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{147AA4C9-6A11-4A8E-A6C0-93185D76EEE7}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{F0489F06-15CD-4442-8CDC-7C6E40EFB727}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{42F575D5-5A6E-4840-AE7A-58ABFE517C9C}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{87798947-2DE9-401F-842A-797AC97A5968}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{2E1F17B0-9930-4C6A-9B08-B7A46F27B7DE}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{E3F1767C-2DD4-4A94-9F66-406DA348A042}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{A96D3E29-4565-431E-B231-D27A691C96BB}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{1CA249E5-F298-4B03-BD7B-DD6538219E8F}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{EC03D796-91A0-4E41-91C0-F20EB6C186F0}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{571AE041-7738-41FB-B2F2-DECCFCC50D61}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{31F6FCC1-AD87-4145-B71A-6910AC127321}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{AF1443B5-587D-4581-BCC1-0A1918CA37D3}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{9D1218F5-AAD2-4D83-A058-3A6759E0666C}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{0C01F887-8765-4159-A8A9-6B5284E83AA2}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{B1BA495A-0A00-46DC-B0B3-F992CF56C5D8}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{4156C5C0-B36E-45C1-9774-E4C16434227D}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{E25B3DE3-A999-4FFD-A880-8108C1D00AF0}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{967A5C9A-414D-4F65-AA7F-CF8B0830BED7}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{B0DB1433-9CE8-4A3C-9CDE-B9B9694B815D}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{46B72CFD-B738-4C6F-A226-685C24DFF6FD}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{D0954C76-8AB0-40B5-86C1-99B7B0D90DAB}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{CA766548-090C-402A-B033-1E11E303DFF3}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{5D9D4D7C-E225-42F7-9DB4-233196B319AE}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{FE9D1323-64B8-4293-BDB1-E46FAAD442C0}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{0C4828D2-6E6E-441E-88D0-87F2B640E026}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{A2870ADF-EE3F-4022-AD44-D0AB8F3BDE87}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{7CC824D4-1904-4E65-8021-4855909618AA}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{744B6441-7DC4-443D-BD64-AA027D6C99F3}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{0FB1735F-64C7-4C36-B575-FD8577670B85}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{37FBE75E-491C-4C1B-91D2-5B025D0DC4D0}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{54596782-B338-4487-8802-41278DA446BA}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{832A78F6-4B59-4EC4-920E-90204BBCA5BF}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{D677E19C-95C5-4ABE-BA04-9988BBFE8F08}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{FC13E73D-C931-460A-9C5C-6190FCEBFECF}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{067D8F06-C8A2-4BE7-93E2-092463ED7A7D}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{7E42BCC6-816C-4F4E-8772-A24F1B21F4ED}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{59CA391A-58AD-424D-A338-984E472414DE}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{FD1B481F-90BC-4D66-857D-6AD09BCB688F}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{0D263F7D-8E42-4E0C-81D7-323D10CBBBF5}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{65F9CA88-F66D-4A5C-AE61-443D0595F269}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{788324D7-C19E-4760-888A-40B417DC0FB5}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{FBCD72DC-2D67-4C1D-BCAB-DE9BA340AABC}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{005E850E-E041-4239-B472-EFE1D6E9C804}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{80D10A24-2EE4-48B5-B800-0B68E2D84815}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{A48A9368-6076-43C0-9752-ACFDB62A746A}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{34CC66DC-A6CB-4A89-A0FE-DC6520A50F52}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{5004E43D-652C-4BE6-9E72-B483372C4E26}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{2346197E-CEDE-4D5E-9A9D-A9EC98E2D066}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{2005E5B1-6295-4B85-80A0-2BD98A4BB961}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{05835EC0-D9D1-47CD-9BAE-C514CA4997CC}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{9A183057-35BE-4CF1-8878-D13C6D710A65}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{208ADE35-EA6A-4042-9BEE-7BF3CF41A25F}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{4F35CFF4-D78A-4963-9F6B-4981F84AE318}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{7AFC2C21-4FEF-4141-98CE-D93408AD0C29}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{AFE99DC9-822C-46E6-A28A-12F0E493988B}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{73319BE7-5DE4-46D3-9B6C-3569FE622221}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{BECAD98C-0167-4F9C-A8DE-C4610F3F08BD}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{1F31C8FE-48CA-43F2-8F92-226363433917}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{5548ACB7-86BC-45A2-9A10-F1803D199813}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{38D234FD-9DBD-491A-8BAD-50A590364A31}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{E37187A2-FF53-4101-A324-0B45E20F2D01}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{02A1E756-AC30-4841-B6A0-E963033BC0EE}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{86EA08FC-5FF5-4334-BEDB-AA7C50749791}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{858D60A3-7DF4-411F-83D1-B455074FC092}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{5122D73E-8316-4509-9F44-FA9BE21DA173}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{D6F36435-BC33-42DE-9E6F-F6C8CAF65D53}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{7E3F72F0-B3B7-4FCE-8745-0B27A94E6220}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{8A848B6C-4767-4B88-AF53-A5A2135627EB}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{D0580F3B-39E6-4287-ADD8-85F3E557E798}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{E86E0E41-9DE4-448A-8FC7-F7B26AB600F7}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{D703300D-0DB6-450B-94F0-5E636DB3A3DC}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{4A86C86E-72DE-4419-B860-7AFA4FED5FA3}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{3C89A72D-BA10-460C-BEBF-65759DF630F9}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{CD5F869C-DEA0-4BD8-AFFD-4340D319A273}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{7477FC0F-61B2-4C98-BC29-7871B219F98F}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{24ADA24E-A43C-4F4B-9C73-6FC1511B80F8}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{CB454502-6286-4142-BF13-2EF7DC5DBFAF}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{9D5C3E83-0CFF-42B8-8BCA-8459AAB88218}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{2AEB9B09-847E-45A6-8CDE-425D54F262BE}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{A40F4B97-0316-47F7-B66A-A215BA850B52}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{86C917F0-0B3A-4CF8-824E-D769DAFB62B5}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{E0F53E88-F53D-4F90-98F8-479CD96AEAF2}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{6569812A-B9D4-4F1D-BE4F-867BC70D739E}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{7F3F3C01-45EB-41C6-BC58-27C753F9DEA1}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{9255E6BB-877E-48C6-B4B0-FC4FB12F3D27}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{3CC96591-110A-4204-86CA-CFA6F26FAADF}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{3B1ABB4C-29CF-4E5C-8411-CC5A42FFBA14}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{04F0F828-CB5C-4110-B0E3-44A680C5929B}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{03AE99E3-FD16-4BA8-A133-BD8771091702}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{830D9A1C-5048-493C-902A-15BF5C15EBEC}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{73858889-A795-46D4-9CEC-9CFD5608D348}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{0265D72C-A474-497F-AB6D-219D92CF9478}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{F7F150B7-C9F6-42D1-A594-4BF39A58AEFE}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{9BC82E50-18C6-493A-84AE-7951C1512E3D}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{9A491BC0-8FC5-47B7-9B84-4C80303BFD07}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{D454052B-314D-4664-AA21-7EA6926F8178}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{97FC1955-2991-4A13-B779-BE07448E9FD9}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{297B59DB-83D6-4899-86C4-EF2AAA9D9DF1}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{E6A6717A-47B8-41FE-BE2B-809DCAF81078}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{53BA0A65-3C7C-41CF-BDB5-61908309AF36}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{DFA4B607-76FF-41A3-94F5-367A5376537D}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{EA622626-2E92-41D3-9EF8-32ACD0242A85}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{3F4BB1DC-CD1D-4F81-AAEF-E45CE3BD5DF3}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{AB0271F8-95CA-460F-BFD3-F1391E21C494}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{9ABE97BB-BFA4-46B3-BB4B-FF1D5C7FB917}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{2BDC327E-8939-4E4C-A668-45564B8C6D8C}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{9380BC99-AAE6-4219-9AF8-DF25C385648E}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{BC19D230-4A03-4462-ACB9-8AC32CAE6DC3}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{0CCE2E2B-FDE7-4DB9-BEFF-95A661A14E29}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{F8F0B2C6-92BA-4CC2-8F19-8948A1CCF7D4}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{DAAF8D2F-3AC2-48B2-9CE5-B4CE31C9FCDC}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{3B77208C-D149-47C2-A4DB-96BD0C643EE0}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{E671B2AB-EE5F-4E40-B261-267C688E4B27}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{A03CA2C2-B819-4DD4-AAF4-3487BADB7731}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{199B747F-D747-4E9F-B313-F70832A2D5B0}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{8AA8A7BB-8887-48EF-AE96-B5E9841768EA}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{73409899-594D-4874-ADAC-5201A5ABD2FD}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{7F11E193-31BF-4809-A126-E8A31B9C6F0A}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{003794E2-95E3-4040-9184-1880DD4AC1B5}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{7D97D33E-D881-4370-94B1-B2657979E791}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{449FDE9D-1D5A-4112-AD46-5B80BED50DF0}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{ADA3C66C-0BD3-4AFC-81BB-020031069124}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{51678CC5-25C0-44D7-8FF2-DD7A83FD63FC}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{AE74743B-3BD1-4D39-A1FF-3CA95256CEE4}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{76EE473A-70C1-4B7B-ACA0-5DD63C312398}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{7B3EAF48-908A-4111-BAA3-8BF6E06A0531}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{044DB1BA-D387-4A56-9C9E-80295BC1940C}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{BF153E8F-BD50-4ACB-B45D-4FBF00C24791}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{AB06CE85-81AB-4CCB-8E6A-355FC36928A4}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{1A1423EF-F712-427B-8984-6546FEB07DF8}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{7B8B3E4D-302E-4BB5-ABF5-438AEBE68E42}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{7A70B444-1A8B-4026-A964-EC04E0230CDC}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{91BFD681-8965-4122-AB37-67F971FE7279}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{33D5548A-955B-4931-BEB7-042A5318717A}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{ADC4BA56-02C4-4661-B057-E391BA04B3C1}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{60F9F98E-1790-45D8-BEF0-AE9F876F8978}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{B6073B0B-54A5-4D16-8175-4EC6B4764D03}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{354112CA-6B4A-4939-B081-1D80F70D0A21}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{EFF445D8-E1AB-4FC9-AA3F-9ECF2B675530}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{DF5F43CF-B0AF-43DB-8A1D-EF9483D5B6A3}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{B4EA4E8A-8137-4F05-A6A5-5A3AAB93C424}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{F9ED2D81-0F44-4950-83D7-C4B63154BF4A}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{9792DEB3-8652-4976-95A7-FCE3EC755CA7}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{9C7C1D6A-52B1-4679-A7C6-ADEB4E1E4408}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{D39A57EE-655D-4FC9-B8F8-099210C53BEC}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{164C530F-E4D7-45D8-A4A7-015E8E928323}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{658C1A0D-2E94-4D71-8635-380E0E564050}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{CEDA1039-B799-4A1B-AEC8-09F73A315A85}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{F258879E-090E-4A83-B28E-4406D2A26115}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{59567A91-602E-49D0-AAE8-C2DCF8FE591F}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{B2B3AD8E-1C46-47DB-8B07-2D109859A8A8}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{DFC63B5E-1235-4332-B402-8B3D249D536F}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{9F3A04FB-B6CD-4271-9253-DAC0A8E5C719}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{43810B25-444E-4FD4-9CCE-8156EDEF44FF}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{A326C13C-9938-4CDC-ABCE-F8FC4100F869}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{76BD5C29-8045-42DC-AE2A-15C0D7F56366}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{A06CBBDF-6D34-48C0-9BBD-C88DB3B6675B}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{DA4701BE-15CA-4AD6-BDB4-4F1F8EC12BE9}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{B41F4511-F630-4796-B70C-F9EB7C9A706F}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{DFDE561C-DCF1-471B-9236-3C0DD1CAB21D}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{DACF66DF-A2C2-428A-8E99-115491AAD982}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{BB2F3650-58AB-4810-B67F-18ECD5EBFC9A}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{E11F2A77-451D-4C37-9B2A-D28540298907}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{C108F453-1ED5-4ED4-AF2C-A00EDE4CE077}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{26A6AA42-6432-479E-9C2D-B8FA5AB81571}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{DC78BB11-D556-4C4A-A480-3FFBA82E2812}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{3BC40F87-E2A5-4DAE-A7B5-09FA6CA07EE4}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{7851A8A9-FACF-42B2-85BF-546F0F8C4A5A}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{3558D57F-21FC-4E4E-BD79-A518CB52E573}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{14A3F7E3-DBC7-4A00-8CA0-2DEF7972322F}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{E6185847-8057-465A-953A-CF4CD6C22665}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{C641ABB9-B494-4277-9509-D484521202CB}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{7B0A906F-EEC6-4D70-AE5C-AFFD5279D0DC}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{EEAC8E5D-0A19-450F-9980-CD83FB2D97E0}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{BD32104A-8FDD-4131-8F5B-5FB80DA6F595}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{67FE3739-5E7E-41F3-A441-428171453CA8}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{9C37E53D-6882-4D1E-AFA5-BD2760C52A58}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{E76926BB-67C0-4F32-9785-F296E79F2C91}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{1709DA48-B334-4481-A4FD-81608B93F5BC}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{D6462509-5DF8-42A9-948A-3B296933442C}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{9946DE7E-0D9E-4EC0-897A-F4B9C17D321D}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{22F8B172-26DA-4A02-AB09-7DD320EEA471}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{57776CF3-23F7-40C8-9D4C-3F47B274679C}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{120567A3-0173-4A04-941B-BFAE1D3E9EB7}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{8435C7C3-1E2F-4BBD-9126-B71254E05F66}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{4AD502F1-8D31-4A2F-8BFC-75DA3D3AAD32}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{1FAE818A-E468-4F11-A39F-C3C298284D16}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{F418E38C-4E08-412C-8AEC-E96270F3A391}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{53CF7C02-ADF7-4053-9851-A782B3E8C181}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{96318CEF-6F18-4762-9EA5-FFD4F4190E7D}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{7F25A75A-5AE0-49E9-BA03-39153766483C}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{D99C6DFC-7D25-4947-A577-28C05E8B0292}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{E26A697F-37CD-4345-B81F-A730561924BE}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{51651582-8B3A-4199-8722-B167324569FB}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{69013552-3700-483D-AEBB-53E4D8E334E7}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{85AF3204-51CD-4537-B380-1BF7F01A83FE}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{5C0F08B8-1FCD-4264-A1A5-172260584540}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{272675BE-7932-487B-8333-817BE8F76032}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{AE079510-6241-4980-8EF5-58D941875BEF}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{92C9FBBE-3D67-49B2-A308-D5EED5C816B6}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{C1B5193F-E1A5-4BFD-9C9F-0C27282AA795}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{76D0FADA-1AEE-43FD-A9DF-CB71C430829F}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{5C21188A-384E-4BD3-99F2-E26A7DFE0282}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{1FB80B99-9F11-4476-BFE0-845BFD0EBBB2}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{769FEA46-D015-4D7D-85BA-5FD1903F7ABE}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{26ADF5FA-F979-43EE-860F-AE67DCACC848}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{1E3B1E19-5C23-49B7-8A1C-EF459FC0B2BD}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{1D7B00D6-D330-4F81-8B4B-5C9AAE6FAFDD}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{89BD76B0-42A9-499D-8A0A-CE7DB131EE20}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{70F5B91D-AEEA-45CC-B624-A4BEEE78C030}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{E242C245-7D9A-4E63-A818-826CEB3EF1D3}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{0097C2FB-62B7-4777-AC64-ACF4451447D2}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{DA361898-C258-4AC1-9535-6DCD788C271C}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{7460EB80-D508-4A1C-92CB-A6BAB9428014}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{94FF2316-7800-4640-B83F-BE15EC6F6412}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{5DD66B20-8CA6-4D7E-8357-145C3AF964F1}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{13481F5A-D90C-4895-A5D1-5B7C8766E73E}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{6423BB0D-4D08-4735-9570-614FE476D84A}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{1BCE8E36-C2C0-4BCE-8477-C19795ECC964}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{5F77925A-53D1-4649-B1CE-B8411DF99C62}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{5C29D468-62D0-4BCE-97AE-8863B86D393A}"/>
+    <hyperlink ref="B366" r:id="rId341" xr:uid="{9FB1D5A4-3485-4457-A616-FFA1520F599E}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{6956D1A6-4DCA-43F1-94DB-A2BD8E4A2705}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{3BB60EFF-430D-4606-B712-7B5F5B06765D}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{B75B464D-55DF-47FE-B5C9-68D357A61509}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{819CAFE5-CD3D-4E1C-B64C-F071D2E9AFC1}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{E6DC4309-A1CF-498D-ACD4-2C906CF80228}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{0E80CFC1-1E22-4D0D-A733-595A882637E1}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{9D316EED-B45A-443C-8E88-FFD99A9F32A4}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{AF43BD8B-6ED8-4491-8C83-7FFE1F1E2308}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{67449784-9FAF-4696-99A0-55C282CBFC54}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{0AFB0856-E940-4D2B-9888-A630EF0DA187}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{49022FC4-F84A-49D9-901C-5DE23185C107}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{C313DA53-006D-4348-9DB0-E5CEA880051A}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{8D20A744-57F9-4DA1-B74E-CB557338579F}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{25EB5C90-EBCA-493F-959D-C4E4499DD8F4}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{DF302806-A347-4706-B764-46551D8C6D9D}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{01521FE8-F50B-42CB-B7E7-0AA4929BB2AA}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{EFC913C3-C51C-4138-AC9B-24942AD2B34D}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{3C3164A5-AC13-4DB3-B92B-0C642B6D964B}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{1B10DE4E-79E8-430A-962F-6D29873510E0}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{0AE673EF-BA24-4C14-A529-DEBA79FC97A1}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{A0B52781-DDC9-42E8-9D25-3F3C41FC6F13}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{3277C89A-B2B4-4E04-955E-CC12BC0ED64A}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{01207FA3-9790-467D-8835-3A79FCE9EFDA}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{1A62F87C-2FB7-4D5C-ADA0-FFDF978571F6}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{E6D141E4-F965-49CC-B5D1-D79FABB63DE7}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{C3A80940-B856-4666-B231-9137343B8649}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{3A0B0791-522A-4684-86D3-BE5925DE61DC}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{09C641BA-0FC2-4257-8829-CE417A003FE3}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{22ED6A19-8315-48FB-8EE8-C00DA324291C}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{12F3603F-0659-482E-A332-E0E3E731A483}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{44DB041F-5781-4B86-A440-F6C755807DEF}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{EE55F455-6C65-4568-ABB9-368BD1ED7A63}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{60DB4E55-71C2-4D5F-A32A-8D27A912613B}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{2C31B50C-EFE2-454E-B3C0-AE5A90CCFAA0}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{64329CF6-52B4-4D8D-BB2D-B42EC6FC3BD6}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{0709C19E-35BA-49E8-B153-C26C32B147EB}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{8B9E1A61-884D-4443-9D93-8E3DC26A77B9}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{CBCA1466-3C6D-40E8-95EA-26CBDEE16D56}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{5A3EB33A-6A3A-46C0-91AF-CE7D773B1528}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{89ABA2C2-9B8D-460E-962D-E0EFDBD949A1}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{F2C9139E-96D1-42CF-92F6-85BC7712B1AD}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{C73DE8FE-1FAF-4D8B-B8E7-82F721E3954F}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{65A90430-1D01-415F-94AD-732EE012F02C}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{673019C3-B7F2-4E81-9862-8CB5BB64BE88}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{EB003483-BBE0-4C91-8097-1412334A701F}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{B4F41DEF-648D-4F4B-9F00-D4CF2494DD7F}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{D49A7BA4-8423-4219-9FE2-9AF4C0FDDDA3}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{89DDA529-6EA4-4BF1-93A8-DB4E241A0B70}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{85AEB016-7853-4A99-882B-830B329F6CD2}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{69B290D0-8962-4A7D-A8E1-0B9CB3626D71}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{C5C0DC25-1B0F-4925-A13E-ED7095C48843}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{2A357499-7E92-412A-B2B4-EFE097FF111F}"/>
+    <hyperlink ref="B425" r:id="rId394" xr:uid="{DA952EA0-E71D-4194-8623-47FD2F247B66}"/>
+    <hyperlink ref="B424" r:id="rId395" xr:uid="{A66A2EB8-D307-436C-B646-4F24FEABDF8E}"/>
+    <hyperlink ref="B423" r:id="rId396" xr:uid="{3DC293DE-2C53-4AA1-9E3B-B09A7D5FAAA6}"/>
+    <hyperlink ref="B422" r:id="rId397" xr:uid="{23A29341-AFDC-4ECE-9EC3-504A90F217C3}"/>
+    <hyperlink ref="B421" r:id="rId398" xr:uid="{E3E336DE-D572-4BFC-8BF6-A69C51CD6714}"/>
+    <hyperlink ref="B420" r:id="rId399" xr:uid="{B1DA7C5C-8BEC-44C3-954F-169F27D2A9A9}"/>
+    <hyperlink ref="B419" r:id="rId400" xr:uid="{6071E766-E6F6-44D3-ACDE-C4B5330EE4D7}"/>
+    <hyperlink ref="B418" r:id="rId401" xr:uid="{F1D20924-6D83-4A80-9B1C-B6D3D09CFDBC}"/>
+    <hyperlink ref="B432" r:id="rId402" xr:uid="{B005A711-675E-437B-9ABD-51A14AA1E899}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{D99CCDDE-9882-405B-9C55-343E7F8BA2C4}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{889DCE82-499D-4ADF-89BA-658241D9B7C2}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{D0CE5578-4BF2-405B-9153-0D2F9E7DEEA0}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{4EB2EFE7-596F-445C-9840-76D2B2A62D10}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{E2DCE13C-664B-4C32-B836-CD08B305FAB7}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{03D4B96C-09B0-4F3A-85C6-44CE9CF713C7}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{C26512A0-5E79-42DF-B705-4CC64B71626C}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{F3D8868A-2B49-4F90-9D9B-7733346C3FF8}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{FF71025F-C5F5-4EBC-9DB6-34B4055D20CC}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{11F7B945-B6D6-4755-8A24-8A27E735225F}"/>
+    <hyperlink ref="B459" r:id="rId413" xr:uid="{C855BC7C-5B52-452D-B16C-2AFD3F4C8345}"/>
+    <hyperlink ref="B458" r:id="rId414" xr:uid="{4510ADB7-81E6-4772-80D3-D4C03E4831AA}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{CBA30E3F-9FFB-4AA2-A6A3-F3E617521D08}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{BEB8A44F-1ED5-478E-A450-7DC41B7FE597}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{B33E8802-E938-4AAE-88F6-048B1C633BF1}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{636A6295-6EAB-46A1-BB0D-32D72621BAFE}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{AE82CE47-9BFB-49B8-BA31-F194DE43EC56}"/>
+    <hyperlink ref="B452" r:id="rId420" xr:uid="{CC1218D2-00DF-4771-B2AE-1A3713E8F17E}"/>
+    <hyperlink ref="B451" r:id="rId421" xr:uid="{84597E81-23ED-435B-AD26-5BA7A86F39FB}"/>
+    <hyperlink ref="B450" r:id="rId422" xr:uid="{8BF6713E-FCE5-432F-98D3-2258FE151107}"/>
+    <hyperlink ref="B449" r:id="rId423" xr:uid="{43ECB780-F1BF-402C-8F8F-96B1D63805DC}"/>
+    <hyperlink ref="B448" r:id="rId424" xr:uid="{FFA59C30-6403-4875-B987-8DD9E4BA9676}"/>
+    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{7F46C7DB-42C5-4AE8-B19D-8E393638A87F}"/>
+    <hyperlink ref="B446" r:id="rId426" xr:uid="{FB7862FF-CDAD-4A58-B2C6-59B9D6641CEF}"/>
+    <hyperlink ref="B445" r:id="rId427" xr:uid="{4041ECCB-6180-4CD5-947D-746103B8581E}"/>
+    <hyperlink ref="B444" r:id="rId428" xr:uid="{221103A5-EB62-4FE2-872C-D11DD2EEBD6A}"/>
+    <hyperlink ref="B443" r:id="rId429" xr:uid="{3EE0D52C-837F-448C-B2BD-988D9881182A}"/>
+    <hyperlink ref="B442" r:id="rId430" xr:uid="{03961DB2-1774-40A0-92A4-AE05FBA90919}"/>
+    <hyperlink ref="B441" r:id="rId431" xr:uid="{C3EC4385-7A6A-48AF-95A2-741153052F4A}"/>
+    <hyperlink ref="B440" r:id="rId432" xr:uid="{1935A002-FC59-4002-9B62-09ADAB47E8BA}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{B454CDF6-6F84-46DD-83D9-C10DA09148FA}"/>
+    <hyperlink ref="B511" r:id="rId434" xr:uid="{B3AB8268-AA3C-4FB0-9AF5-414BCC357697}"/>
+    <hyperlink ref="B510" r:id="rId435" xr:uid="{54E1A62A-7257-468C-8813-4663E030AA75}"/>
+    <hyperlink ref="B509" r:id="rId436" xr:uid="{8A25BE78-4CC7-43F6-8BEE-D90CA5DCB3CA}"/>
+    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{536362DA-212E-45FE-AE08-F7A1E692A24B}"/>
+    <hyperlink ref="B507" r:id="rId438" xr:uid="{A3A018E3-EDA5-458E-9B61-020774FB5A49}"/>
+    <hyperlink ref="B506" r:id="rId439" xr:uid="{1FFB16AB-A44C-40AE-898B-81545274CF18}"/>
+    <hyperlink ref="B504" r:id="rId440" xr:uid="{FA92366C-6CAF-49D0-AE99-D89E06CA8A1E}"/>
+    <hyperlink ref="B503" r:id="rId441" xr:uid="{5DEC8FFD-5B59-4CB3-AD0B-849F8470E5F1}"/>
+    <hyperlink ref="B502" r:id="rId442" xr:uid="{DD736CE7-8871-45A1-BD58-524AB12AF8F5}"/>
+    <hyperlink ref="B501" r:id="rId443" xr:uid="{C5E9D5D9-0BD7-4189-85C6-757E337D072F}"/>
+    <hyperlink ref="B500" r:id="rId444" xr:uid="{A93F37F4-EFA3-4C99-A63D-D7C1731967B0}"/>
+    <hyperlink ref="B499" r:id="rId445" xr:uid="{3519949B-299E-42CE-ACCA-83C91F80A114}"/>
+    <hyperlink ref="B498" r:id="rId446" xr:uid="{0A5C6FFF-890F-4610-97BA-412EACBCE1B3}"/>
+    <hyperlink ref="B497" r:id="rId447" xr:uid="{7396F5EC-52E4-4CD3-822D-BF0DD377520D}"/>
+    <hyperlink ref="B496" r:id="rId448" xr:uid="{A6FB9EDF-99DA-409D-AA7A-27E4D5BF0EB6}"/>
+    <hyperlink ref="B495" r:id="rId449" xr:uid="{DFF1D1BC-E749-403E-A113-96D9DB46BAA9}"/>
+    <hyperlink ref="B494" r:id="rId450" xr:uid="{9326C8AD-887B-4852-8888-7B4712DFB936}"/>
+    <hyperlink ref="B493" r:id="rId451" xr:uid="{B9F3E2C6-3D38-4A51-8C03-D7697B412BD0}"/>
+    <hyperlink ref="B492" r:id="rId452" xr:uid="{45C0180B-F9D8-4325-9ED6-434C9CDB900C}"/>
+    <hyperlink ref="B491" r:id="rId453" xr:uid="{CD5365BF-85E2-4FBF-B2A1-3F652887B0DA}"/>
+    <hyperlink ref="B490" r:id="rId454" xr:uid="{9465C704-F21C-4B11-BA3E-F108B527191C}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{E797A524-8B35-47FB-B4E4-2246E0ACE40E}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{9C34BC06-CC36-4844-BFF5-1DE59D794CA7}"/>
+    <hyperlink ref="B487" r:id="rId457" xr:uid="{ECEB8631-A380-46C0-9B85-7EED12FC8F80}"/>
+    <hyperlink ref="B486" r:id="rId458" xr:uid="{FB6435B4-EB1C-4916-BBA3-575230F06E39}"/>
+    <hyperlink ref="B485" r:id="rId459" xr:uid="{20134F63-8419-45B3-B4CD-4518E081C490}"/>
+    <hyperlink ref="B484" r:id="rId460" xr:uid="{C436B870-B0F5-445C-A302-06627147F3A8}"/>
+    <hyperlink ref="B483" r:id="rId461" xr:uid="{8A755B68-F2D8-42C7-BCA3-2E69BD5E6FB5}"/>
+    <hyperlink ref="B482" r:id="rId462" xr:uid="{A7E36DE7-88D1-44C1-9839-9680DC1F222C}"/>
+    <hyperlink ref="B481" r:id="rId463" xr:uid="{2E72616F-2694-462A-A857-7D72B5BF01EB}"/>
+    <hyperlink ref="B480" r:id="rId464" xr:uid="{63665A9B-EE52-4CC4-A905-9E202A3B4A7E}"/>
+    <hyperlink ref="B479" r:id="rId465" xr:uid="{3DF4DFC6-A357-4B69-879B-3200D5102F1B}"/>
+    <hyperlink ref="B478" r:id="rId466" xr:uid="{EB123BD7-24C5-429F-BCF4-8F24FEF7C5E8}"/>
+    <hyperlink ref="B477" r:id="rId467" xr:uid="{F911C79A-D360-4FD4-9BF7-FD1704B22366}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{1BFBEC9C-C34A-49DB-9547-D9573176BBAE}"/>
+    <hyperlink ref="B474" r:id="rId469" xr:uid="{0734191C-168B-40B5-A890-FD9163CBA076}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{CFDF4BAF-E2F9-4643-8377-D07951E9701C}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{4566E80F-1666-4FBF-B174-701572F6D2F1}"/>
+    <hyperlink ref="B473" r:id="rId472" xr:uid="{ECF5529B-8884-4266-9C08-781F529E1ED5}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{400A9343-5D08-4DE3-8967-6634FE8E089C}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{20707212-9252-4AF9-836E-97FD5A1EC961}"/>
+    <hyperlink ref="B470" r:id="rId475" xr:uid="{170B22F1-5737-47C2-B128-6332B898EF9A}"/>
+    <hyperlink ref="B468" r:id="rId476" xr:uid="{E8884F21-4BE4-4424-A23D-AE9387758CF8}"/>
+    <hyperlink ref="B467" r:id="rId477" xr:uid="{6ABDAF92-9795-4FE2-B03D-BBE6B2282AFA}"/>
+    <hyperlink ref="B466" r:id="rId478" xr:uid="{14534D5F-25AC-4DF0-BD91-B513DF5FECAE}"/>
+    <hyperlink ref="B465" r:id="rId479" xr:uid="{E43E8D7A-B72E-45C6-A04C-E7D748BB0331}"/>
+    <hyperlink ref="B464" r:id="rId480" xr:uid="{F5A6EC02-3DEF-40C2-895B-8447A3A77AAC}"/>
+    <hyperlink ref="B537" r:id="rId481" xr:uid="{C9D9DFDB-5210-4A02-9663-CAC555F637BB}"/>
+    <hyperlink ref="B536" r:id="rId482" xr:uid="{68777676-C7F9-4465-B9A8-FFF56576B17B}"/>
+    <hyperlink ref="B535" r:id="rId483" xr:uid="{EE0A62E1-ED22-42A3-A5A2-3EE7E3E146CC}"/>
+    <hyperlink ref="B534" r:id="rId484" xr:uid="{A9880A30-930F-45ED-8AC6-DF0955ED2650}"/>
+    <hyperlink ref="B533" r:id="rId485" xr:uid="{63F68152-2FAA-4E07-8427-7C4A8ED78640}"/>
+    <hyperlink ref="B532" r:id="rId486" xr:uid="{B2552314-EE4B-4575-B787-96A4955230DF}"/>
+    <hyperlink ref="B531" r:id="rId487" xr:uid="{536C3C57-651C-43F3-882A-CB9CA0A4B22A}"/>
+    <hyperlink ref="B530" r:id="rId488" xr:uid="{6342019A-B423-4E66-931D-AF8EA6C3848F}"/>
+    <hyperlink ref="B529" r:id="rId489" xr:uid="{FEA85114-CFAD-45DB-909C-382BA58EC2DF}"/>
+    <hyperlink ref="B528" r:id="rId490" xr:uid="{BEBECB07-D1FE-4A36-8168-42635F47CE59}"/>
+    <hyperlink ref="B527" r:id="rId491" xr:uid="{B7CFFF76-809A-4594-828D-9CBEA392823F}"/>
+    <hyperlink ref="B524" r:id="rId492" xr:uid="{60EFFCEF-98E4-4101-82E0-95C464259895}"/>
+    <hyperlink ref="B523" r:id="rId493" xr:uid="{5F61A0B6-D1A9-428C-8FED-1951FF3F1A75}"/>
+    <hyperlink ref="B522" r:id="rId494" xr:uid="{DDF82216-41D3-4777-901C-01FF9F3BA092}"/>
+    <hyperlink ref="B521" r:id="rId495" xr:uid="{4C6B722C-2C7D-4E5F-9104-EED4D3A003E9}"/>
+    <hyperlink ref="B520" r:id="rId496" xr:uid="{9B4282DF-4F65-4EA2-A368-8F475B4990BE}"/>
+    <hyperlink ref="B519" r:id="rId497" xr:uid="{6EE95FBD-822F-4E11-AED5-CDF1969F271B}"/>
+    <hyperlink ref="B518" r:id="rId498" xr:uid="{5D90D1F4-4B41-4041-AC59-6214B0657686}"/>
+    <hyperlink ref="B517" r:id="rId499" xr:uid="{D413AC26-00B7-4225-A39B-962749CFA629}"/>
+    <hyperlink ref="B516" r:id="rId500" xr:uid="{2DCCA629-A137-4B5E-81DD-25ED5B1C74CF}"/>
+    <hyperlink ref="B515" r:id="rId501" xr:uid="{B6D36473-61B7-4124-A4B0-D8389EE32B3D}"/>
+    <hyperlink ref="B514" r:id="rId502" xr:uid="{A5FEEC0A-761F-4F35-A3DA-EE7B72417587}"/>
+    <hyperlink ref="B513" r:id="rId503" xr:uid="{4C8118F8-5CB8-479C-A0DC-FA5DD9B27FF4}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{F56B48D9-4741-4159-AD16-D03AA17867F7}"/>
+    <hyperlink ref="B525" r:id="rId505" xr:uid="{46214824-E9AE-428C-94F9-358BCBD79B57}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{E585D007-47DC-4BAC-8C6D-6D2BE6671E47}"/>
+    <hyperlink ref="B566" r:id="rId507" xr:uid="{5CEFD63D-2B65-41A2-8E60-6665828DD522}"/>
+    <hyperlink ref="B565" r:id="rId508" xr:uid="{7816C1C0-4079-4633-BA94-443FD1EFDD6A}"/>
+    <hyperlink ref="B564" r:id="rId509" xr:uid="{87332566-437D-417C-A42D-859836DDA997}"/>
+    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{6CE5C6B2-5699-4FAC-9598-ED8D1646776F}"/>
+    <hyperlink ref="B562" r:id="rId511" xr:uid="{3E44FDC2-BAFD-43FC-B0EE-B404336EEE69}"/>
+    <hyperlink ref="B561" r:id="rId512" xr:uid="{4FCE380F-A0DE-4452-B6CE-BB9EBE8BB074}"/>
+    <hyperlink ref="B560" r:id="rId513" xr:uid="{A3379F8E-216F-4B70-8175-797DB02B70E7}"/>
+    <hyperlink ref="B559" r:id="rId514" xr:uid="{6AE896CD-8AB0-41D4-AA38-4EC070E40347}"/>
+    <hyperlink ref="B558" r:id="rId515" xr:uid="{5CA2D036-1812-4598-B8E4-46AB54C11643}"/>
+    <hyperlink ref="B557" r:id="rId516" xr:uid="{72AC2095-E376-43AC-80C7-23D0F1227D60}"/>
+    <hyperlink ref="B556" r:id="rId517" xr:uid="{191A0FB1-D4F9-4A62-BC04-834D079AB4EC}"/>
+    <hyperlink ref="B555" r:id="rId518" xr:uid="{86D4DA38-0205-4108-A0C6-4E8AE4537E7E}"/>
+    <hyperlink ref="B554" r:id="rId519" xr:uid="{BF10D186-7A21-4963-8541-40524478BC40}"/>
+    <hyperlink ref="B553" r:id="rId520" xr:uid="{BAF10B03-3503-4E5D-B22F-A087DF95C54F}"/>
+    <hyperlink ref="B552" r:id="rId521" xr:uid="{1AFB01D9-9687-480D-BDA1-B0A8B34BDD0B}"/>
+    <hyperlink ref="B551" r:id="rId522" xr:uid="{3A11B3A1-B086-489C-8FA7-5F6DE91E3FF9}"/>
+    <hyperlink ref="B550" r:id="rId523" xr:uid="{605C0EBE-CB11-4486-9547-EEAA0D1D14C7}"/>
+    <hyperlink ref="B549" r:id="rId524" xr:uid="{910535CC-9DB0-47CB-B14B-83FC42508544}"/>
+    <hyperlink ref="B548" r:id="rId525" xr:uid="{07E04C83-0498-49DA-9546-C689C90E3CD3}"/>
+    <hyperlink ref="B547" r:id="rId526" xr:uid="{89E3C428-5915-4F5F-BB71-A17D14BC54D5}"/>
+    <hyperlink ref="B546" r:id="rId527" xr:uid="{96120135-6EE6-424D-A082-6C0E157ADC6D}"/>
+    <hyperlink ref="B545" r:id="rId528" xr:uid="{31940328-814F-4D57-BBA4-AF5B4511FF25}"/>
+    <hyperlink ref="B544" r:id="rId529" xr:uid="{40F96D04-0A08-4411-A281-089E27A9246B}"/>
+    <hyperlink ref="B543" r:id="rId530" xr:uid="{E5CF68B4-B161-4B3F-AAE6-0DB4512CC24F}"/>
+    <hyperlink ref="B542" r:id="rId531" xr:uid="{1EC56EE4-F1EC-462B-AC71-4AADCEEE7C21}"/>
+    <hyperlink ref="B541" r:id="rId532" xr:uid="{38EC2E39-D81B-46EB-99A7-33A0074FE95F}"/>
+    <hyperlink ref="B540" r:id="rId533" xr:uid="{587F07B2-6B4F-44CF-8D4C-6C3881D99403}"/>
+    <hyperlink ref="B539" r:id="rId534" xr:uid="{A0B5A799-4354-4CB2-AC97-ADA4861AB972}"/>
+    <hyperlink ref="B538" r:id="rId535" xr:uid="{179319BF-65B4-498B-82A5-258441EC2C62}"/>
+    <hyperlink ref="B575" r:id="rId536" xr:uid="{81728011-3B2C-43BA-9C6B-7DE5D282E542}"/>
+    <hyperlink ref="B574" r:id="rId537" xr:uid="{4F36A5C8-CFF0-47DE-BDC1-FD4B8B742965}"/>
+    <hyperlink ref="B573" r:id="rId538" xr:uid="{4195D76C-ED8E-4CA0-A270-4671ADEEA3AD}"/>
+    <hyperlink ref="B572" r:id="rId539" xr:uid="{6B7728C0-C191-47F6-81B4-8471954BAC35}"/>
+    <hyperlink ref="B571" r:id="rId540" xr:uid="{4902B121-163F-4DEA-BB27-19C3E142A308}"/>
+    <hyperlink ref="B570" r:id="rId541" xr:uid="{A88C94FD-BA16-4A6F-A8A2-7D3C4C3DABAC}"/>
+    <hyperlink ref="B569" r:id="rId542" xr:uid="{A5D7C282-A0E9-4DA8-B3F8-6614225AD00E}"/>
+    <hyperlink ref="B568" r:id="rId543" xr:uid="{57DDB629-FE69-4111-8DA4-9EAD149D54EE}"/>
+    <hyperlink ref="B567" r:id="rId544" xr:uid="{1D441601-CF94-41B6-8909-1EE96D4A5ECB}"/>
+    <hyperlink ref="B586" r:id="rId545" xr:uid="{4806843F-CA6C-4AEB-87AA-43844936E4EA}"/>
+    <hyperlink ref="B585" r:id="rId546" xr:uid="{EABB7777-C8EE-48B1-8439-4080C2CD149B}"/>
+    <hyperlink ref="B584" r:id="rId547" xr:uid="{37679767-300B-40AC-8CDD-223B4DE75260}"/>
+    <hyperlink ref="B583" r:id="rId548" xr:uid="{790919CD-8792-4721-8926-ED489A65578A}"/>
+    <hyperlink ref="B582" r:id="rId549" xr:uid="{3A19EC7E-E4CA-459B-911A-E191CD70DCC4}"/>
+    <hyperlink ref="B581" r:id="rId550" xr:uid="{84FE4C2B-C9C8-4574-9679-F61CB8FF4A37}"/>
+    <hyperlink ref="B580" r:id="rId551" xr:uid="{EDF060F9-3C50-4281-AE42-202834491E03}"/>
+    <hyperlink ref="B579" r:id="rId552" xr:uid="{C435C7F6-7B94-4E10-8184-836245A2A0CD}"/>
+    <hyperlink ref="B578" r:id="rId553" xr:uid="{28207A51-61BF-4BE6-83EC-D127F4C8C0E7}"/>
+    <hyperlink ref="B577" r:id="rId554" xr:uid="{194AD2E8-A0C7-4CF4-9727-75F04DAF19D4}"/>
+    <hyperlink ref="B576" r:id="rId555" xr:uid="{F3FACB3A-64E0-4D88-9165-68CFE3223AB0}"/>
+    <hyperlink ref="B587" r:id="rId556" xr:uid="{DE90E1E5-8A92-4D0B-B24A-6162DADB2168}"/>
+    <hyperlink ref="B588" r:id="rId557" xr:uid="{273BEA4A-D237-4A3E-8055-B8407382F713}"/>
+    <hyperlink ref="B589" r:id="rId558" xr:uid="{28AF4180-1627-479D-A2EB-26A490E9D192}"/>
+    <hyperlink ref="B590" r:id="rId559" xr:uid="{A1D4E395-54F3-44C9-82EE-05E2E62BC785}"/>
+    <hyperlink ref="B591" r:id="rId560" xr:uid="{8BDF0B68-5AAD-4FD9-8CB2-BFE235B1A9C0}"/>
+    <hyperlink ref="B592" r:id="rId561" xr:uid="{35817B69-C680-48B8-B338-2D85577B4BB2}"/>
+    <hyperlink ref="B593" r:id="rId562" xr:uid="{CCE51B6E-F061-40C2-AA64-5F81F2B38092}"/>
+    <hyperlink ref="B594" r:id="rId563" xr:uid="{44CEE810-8713-4254-B969-702D4808CCD5}"/>
+    <hyperlink ref="B595" r:id="rId564" xr:uid="{38E1A96F-2C61-4FEE-992F-91F1AAD40A4D}"/>
+    <hyperlink ref="B596" r:id="rId565" xr:uid="{CB707C96-AE95-40AA-A07E-F382FE152DDC}"/>
+    <hyperlink ref="B597" r:id="rId566" xr:uid="{8275FE83-F21A-4BE7-8694-8D0FD0895002}"/>
+    <hyperlink ref="B598" r:id="rId567" xr:uid="{3C465492-118D-4620-AA15-EA583AFF1518}"/>
+    <hyperlink ref="B599" r:id="rId568" xr:uid="{67A98F49-7D4D-48CE-8602-5284F182E1C0}"/>
+    <hyperlink ref="B600" r:id="rId569" xr:uid="{9CA5B677-B93B-4183-AE94-52A6F58B79A0}"/>
+    <hyperlink ref="B601" r:id="rId570" xr:uid="{4CB9B758-8693-4598-9A93-32027BBFE2BE}"/>
+    <hyperlink ref="B602" r:id="rId571" xr:uid="{90D7798F-2262-4203-ACE7-B84A9B16E68A}"/>
+    <hyperlink ref="B603" r:id="rId572" xr:uid="{B7FBBDD9-95FA-400F-820E-745007F4CF33}"/>
+    <hyperlink ref="B604" r:id="rId573" xr:uid="{DC12298B-96DA-4B58-9925-98B81AA188FB}"/>
+    <hyperlink ref="B605" r:id="rId574" xr:uid="{FBE050AD-6508-48A7-80B1-03C8C5F5547A}"/>
+    <hyperlink ref="B606" r:id="rId575" xr:uid="{E24C38D4-46DF-491F-B266-5C9824FE9A8F}"/>
+    <hyperlink ref="B607" r:id="rId576" xr:uid="{9A2F2A7A-B02A-439F-A2C4-411F3FA74BA3}"/>
+    <hyperlink ref="B608" r:id="rId577" xr:uid="{D5266B6F-A83F-4914-ACF6-5C1BCA1EDDFE}"/>
+    <hyperlink ref="B609" r:id="rId578" xr:uid="{5A2BD480-8646-4A02-B38F-A767C84F34A4}"/>
+    <hyperlink ref="B610" r:id="rId579" xr:uid="{96342A83-07F6-444D-BE63-E41E3F31F5C0}"/>
+    <hyperlink ref="B612" r:id="rId580" xr:uid="{71A1B0B5-55F7-438C-BC99-929DD1F6F413}"/>
+    <hyperlink ref="B613" r:id="rId581" xr:uid="{43A041FE-D79C-4C97-8C76-6AC06D525AD3}"/>
+    <hyperlink ref="B614" r:id="rId582" xr:uid="{F77AB363-CB68-4AE4-B6E9-75D81D6D7701}"/>
+    <hyperlink ref="B615" r:id="rId583" xr:uid="{08DE4C63-1F89-4401-B15E-73444F1298AC}"/>
+    <hyperlink ref="B618" r:id="rId584" xr:uid="{AEF618D2-FE80-4A26-8B34-828F84ED9A8D}"/>
+    <hyperlink ref="B619" r:id="rId585" xr:uid="{7F749F3B-3C99-4DA4-9945-1F891555302F}"/>
+    <hyperlink ref="B620" r:id="rId586" xr:uid="{C4D01C96-CB2A-4595-AE01-FA447669356E}"/>
+    <hyperlink ref="B621" r:id="rId587" xr:uid="{0BF9C329-7A29-4453-A858-61A766B3F023}"/>
+    <hyperlink ref="B622" r:id="rId588" xr:uid="{D19EF8AC-9DAE-4FAE-9A31-BAE308663DB4}"/>
+    <hyperlink ref="B623" r:id="rId589" xr:uid="{6F431C5A-65D2-441C-8724-E5400CD6230F}"/>
+    <hyperlink ref="B624" r:id="rId590" xr:uid="{A8A1F18F-07D2-458D-8B3F-B33D47E1359A}"/>
+    <hyperlink ref="B625" r:id="rId591" xr:uid="{8FFB786F-9946-477A-ACC4-60284D9EEC55}"/>
+    <hyperlink ref="B626" r:id="rId592" xr:uid="{BE48E9A2-6599-480C-8DAF-7840DA6DDB76}"/>
+    <hyperlink ref="B627" r:id="rId593" xr:uid="{F03577D1-6EFB-46F8-938E-35D81FF8F0F5}"/>
+    <hyperlink ref="B628" r:id="rId594" xr:uid="{94F52AD3-7E44-435D-8ECC-9D2735C70715}"/>
+    <hyperlink ref="B629" r:id="rId595" xr:uid="{FA8E7F1F-1850-46FE-9A27-3280EBBE2E5B}"/>
+    <hyperlink ref="B630" r:id="rId596" xr:uid="{0B6F46E7-7B7F-45D2-8B4D-DCE0F148E51D}"/>
+    <hyperlink ref="B631" r:id="rId597" xr:uid="{D905E5EF-8421-4787-93AB-76E4DE33E7B9}"/>
+    <hyperlink ref="B632" r:id="rId598" xr:uid="{CD7742D5-B3DC-4D18-979A-4770317D4F1A}"/>
+    <hyperlink ref="B611" r:id="rId599" xr:uid="{C80E4FD5-CD71-4653-BE98-7D53401B9610}"/>
+    <hyperlink ref="B616" r:id="rId600" xr:uid="{390A0E08-CB26-4E30-8D93-4D47BAB9952C}"/>
+    <hyperlink ref="B617" r:id="rId601" xr:uid="{782B88AD-C9C6-46D1-8B0E-4D2A8710D644}"/>
+    <hyperlink ref="B633" r:id="rId602" xr:uid="{212522D6-542C-462C-8ED9-52D064291876}"/>
+    <hyperlink ref="B634" r:id="rId603" xr:uid="{F5056BEC-1676-4198-8856-0D22E7418ACB}"/>
+    <hyperlink ref="B635" r:id="rId604" xr:uid="{8F40CDE6-DCE9-4AD2-8BD4-6242C52D5F4C}"/>
+    <hyperlink ref="B636" r:id="rId605" xr:uid="{404B105B-9022-41B3-9878-EDEB5D4C06D3}"/>
+    <hyperlink ref="B637" r:id="rId606" xr:uid="{AC760070-B9D0-4045-A142-614B6A48F103}"/>
+    <hyperlink ref="B638" r:id="rId607" xr:uid="{FE8CDB5B-1A51-495F-B048-634B436B1C02}"/>
+    <hyperlink ref="B639" r:id="rId608" xr:uid="{C703DBA6-8AAD-414F-9A6E-CFD5BB7D1B87}"/>
+    <hyperlink ref="B640" r:id="rId609" xr:uid="{757B5512-1F33-4FA1-8BEE-2E7D727DBF34}"/>
+    <hyperlink ref="B641" r:id="rId610" xr:uid="{87FEFAC9-5580-4FD1-AC0D-69D8A00EC7BB}"/>
+    <hyperlink ref="B642" r:id="rId611" xr:uid="{02BEF0E8-5C36-46FC-9888-7F52E77C55CA}"/>
+    <hyperlink ref="B643" r:id="rId612" xr:uid="{DEBCBD54-C05C-4745-820C-6CB42EB5EAF5}"/>
+    <hyperlink ref="B644" r:id="rId613" xr:uid="{51AF2417-1FA7-4698-85D9-AB9E2B5D1E47}"/>
+    <hyperlink ref="B645" r:id="rId614" xr:uid="{BFBF8A60-865B-4A54-B765-3DD45E226E1A}"/>
+    <hyperlink ref="B646" r:id="rId615" xr:uid="{B81CB82C-6711-487E-A5C2-9E804D342359}"/>
+    <hyperlink ref="B647" r:id="rId616" xr:uid="{64572D43-726F-477A-829E-2BE252B76DC1}"/>
+    <hyperlink ref="B648" r:id="rId617" xr:uid="{72FAC5EB-E480-46FC-BA1D-CFD78674ACAB}"/>
+    <hyperlink ref="B649" r:id="rId618" xr:uid="{073B1AB2-F46F-4575-9F4F-105CA4D21559}"/>
+    <hyperlink ref="B650" r:id="rId619" xr:uid="{6CB913BF-8C95-4C63-959A-92155E26A544}"/>
+    <hyperlink ref="B651" r:id="rId620" xr:uid="{C8BA6EFD-FEE3-4305-A68B-452068E81BBC}"/>
+    <hyperlink ref="B652" r:id="rId621" xr:uid="{61B23AB1-926B-433E-9887-430B1DAFB6D7}"/>
+    <hyperlink ref="B653" r:id="rId622" xr:uid="{F6ECC8C1-2FCF-443B-921E-6567FC94A9E8}"/>
+    <hyperlink ref="B654" r:id="rId623" xr:uid="{25962E32-0363-42CE-B78A-55C19865C313}"/>
+    <hyperlink ref="B655" r:id="rId624" xr:uid="{2ECCD054-AAC2-4369-9023-99A0E7FD8937}"/>
+    <hyperlink ref="B656" r:id="rId625" xr:uid="{3DD8EB7F-44F1-42C9-8705-DC5699BA3217}"/>
+    <hyperlink ref="B657" r:id="rId626" xr:uid="{11A3443F-E957-49F8-8D77-B961F50B7E24}"/>
+    <hyperlink ref="B658" r:id="rId627" xr:uid="{8B5106C8-EF92-42AE-83B1-34647F2819B0}"/>
+    <hyperlink ref="B659" r:id="rId628" xr:uid="{5052934D-0E04-4F72-9307-3F74E4EA32BA}"/>
+    <hyperlink ref="B660" r:id="rId629" xr:uid="{EC668870-13CF-4678-BF02-8C20E8C4BEF6}"/>
+    <hyperlink ref="B661" r:id="rId630" xr:uid="{6D8BB8BF-DB90-4706-8512-D92EC8536F3D}"/>
+    <hyperlink ref="B662" r:id="rId631" xr:uid="{6D98E2DC-0FC3-49D9-9473-8D24A99F2A4D}"/>
+    <hyperlink ref="B663" r:id="rId632" xr:uid="{1D80505F-F77A-47FD-88BA-B279D5F05224}"/>
+    <hyperlink ref="B664" r:id="rId633" xr:uid="{F3F3FB21-59C8-4A6A-B4BF-2B1218688825}"/>
+    <hyperlink ref="B665" r:id="rId634" xr:uid="{F0EB13EE-7D88-4326-B196-ECEB47C8505F}"/>
+    <hyperlink ref="B666" r:id="rId635" xr:uid="{DBEF057B-7F07-4D08-9684-42AC163CA83E}"/>
+    <hyperlink ref="B667" r:id="rId636" xr:uid="{8DF400AE-FCB3-4665-A977-A4B94E9A0737}"/>
+    <hyperlink ref="B675" r:id="rId637" xr:uid="{F65C75E4-ED88-4E7A-BD47-A7058E0956D1}"/>
+    <hyperlink ref="B668" r:id="rId638" xr:uid="{947DEEEA-A70B-48AC-8F78-C3D6A1F9AA83}"/>
+    <hyperlink ref="B669" r:id="rId639" xr:uid="{B1C27CCD-8AD4-4BDA-9584-29DBF472EC98}"/>
+    <hyperlink ref="B670" r:id="rId640" xr:uid="{27AEAFD5-3A74-4942-81E3-43B73699658D}"/>
+    <hyperlink ref="B671" r:id="rId641" xr:uid="{B57A37D5-7595-4E59-AA90-2CF981F6511A}"/>
+    <hyperlink ref="B672" r:id="rId642" xr:uid="{9F301EE5-C4D5-4CB4-96DE-0D5034CF471F}"/>
+    <hyperlink ref="B673" r:id="rId643" xr:uid="{502B9756-5387-4C07-B6D8-DFB4CD743DE0}"/>
+    <hyperlink ref="B674" r:id="rId644" xr:uid="{B57BC25E-8BED-480D-B032-71BC5EF9DB0B}"/>
+    <hyperlink ref="B678" r:id="rId645" xr:uid="{3E294CED-97F4-43A5-BEF4-1C5DCD9C612E}"/>
+    <hyperlink ref="B682" r:id="rId646" xr:uid="{56266F1B-5334-44FF-81A9-589C8C853F4D}"/>
+    <hyperlink ref="B684" r:id="rId647" xr:uid="{C6D2EB0F-F5CE-4561-B10F-8C6667D96791}"/>
+    <hyperlink ref="B680" r:id="rId648" xr:uid="{22CEB1F7-F5DB-4513-995B-CC16D8014EDC}"/>
+    <hyperlink ref="B687" r:id="rId649" xr:uid="{F6B4B695-4F62-409E-AB9C-8C776B658C4B}"/>
+    <hyperlink ref="B686" r:id="rId650" xr:uid="{8077D51B-E69F-4AC4-8E38-ED25086A223F}"/>
+    <hyperlink ref="B683" r:id="rId651" xr:uid="{95404910-88E1-4522-985F-3D414DFBEAB5}"/>
+    <hyperlink ref="B685" r:id="rId652" xr:uid="{A01AE414-0922-4067-8EF0-70202B60204B}"/>
+    <hyperlink ref="B679" r:id="rId653" xr:uid="{E13210E7-1163-4658-8AB0-D6C9696E0DE7}"/>
+    <hyperlink ref="B676" r:id="rId654" xr:uid="{25113836-7E0C-4001-B50C-2A6B4B3EAC21}"/>
+    <hyperlink ref="B677" r:id="rId655" xr:uid="{E6FB74B4-8D5A-4FA1-AB9A-A0DE6E198C0C}"/>
+    <hyperlink ref="B681" r:id="rId656" xr:uid="{47E8517B-77F7-43E5-BECD-18B67EF94A66}"/>
+    <hyperlink ref="B706" r:id="rId657" xr:uid="{6FC3E54F-B80A-4311-823F-7AE0419D75B2}"/>
+    <hyperlink ref="B705" r:id="rId658" xr:uid="{018430CB-1C16-4948-96E7-F138CDE98E9A}"/>
+    <hyperlink ref="B704" r:id="rId659" xr:uid="{C4082E8E-6E59-49B1-AE4E-7A4B86CF1187}"/>
+    <hyperlink ref="B703" r:id="rId660" xr:uid="{9E675776-8172-4123-B1AD-4C8DD86824C2}"/>
+    <hyperlink ref="B702" r:id="rId661" xr:uid="{E1AEA9FC-587D-4E19-8830-E4A05F1314D7}"/>
+    <hyperlink ref="B701" r:id="rId662" xr:uid="{532B5B42-314C-4308-A0D5-F77AD89A4F99}"/>
+    <hyperlink ref="B700" r:id="rId663" xr:uid="{F260EF92-3D1B-4282-9295-1028A6D032BD}"/>
+    <hyperlink ref="B699" r:id="rId664" xr:uid="{5BFBBE8A-9FC7-440F-BBDE-69153ABB784C}"/>
+    <hyperlink ref="B698" r:id="rId665" xr:uid="{C5ECA00F-FE45-4008-9586-124A789CE1E1}"/>
+    <hyperlink ref="B697" r:id="rId666" xr:uid="{8A0E7A76-8DE6-4104-AFD8-E56B29C23996}"/>
+    <hyperlink ref="B696" r:id="rId667" xr:uid="{DA60E926-E500-4734-842D-D30DF56CFF2A}"/>
+    <hyperlink ref="B695" r:id="rId668" xr:uid="{3C8201ED-1E14-49C9-A420-9A7BC8A79620}"/>
+    <hyperlink ref="B694" r:id="rId669" xr:uid="{DA791936-F48A-442E-8A9D-50D37C0C31E8}"/>
+    <hyperlink ref="B693" r:id="rId670" xr:uid="{82E1D46B-D4F4-4BA0-8DBB-D0784B5986BF}"/>
+    <hyperlink ref="B692" r:id="rId671" xr:uid="{C6613613-D864-484F-832D-CDA2F14B51BC}"/>
+    <hyperlink ref="B691" r:id="rId672" xr:uid="{1A46C358-1664-4894-9615-F939EF2415CE}"/>
+    <hyperlink ref="B690" r:id="rId673" xr:uid="{CA4CBD5D-6D59-4E45-A72F-67B4ADD456A3}"/>
+    <hyperlink ref="B689" r:id="rId674" xr:uid="{12A51D8A-65F3-4C50-B3F1-083E610F8FAD}"/>
+    <hyperlink ref="B688" r:id="rId675" xr:uid="{BCCFB93E-9787-4E7E-8106-375A2D0FBB55}"/>
+    <hyperlink ref="B707" r:id="rId676" xr:uid="{B7E35255-CA4F-4CA7-8B00-79C963D3DFB4}"/>
+    <hyperlink ref="B708" r:id="rId677" xr:uid="{E267BFB8-F8A0-4EA7-BA03-771AE27B13B4}"/>
+    <hyperlink ref="B709" r:id="rId678" xr:uid="{6D3599ED-168E-4093-AFAE-322B9DBEEBFB}"/>
+    <hyperlink ref="B710" r:id="rId679" xr:uid="{DB7A1AE1-BF50-4952-8846-0EDEB95FC579}"/>
+    <hyperlink ref="B711" r:id="rId680" xr:uid="{49016D09-53D6-4D70-86E2-2AFCD0D145B8}"/>
+    <hyperlink ref="B712" r:id="rId681" xr:uid="{9AF8698B-1E7C-48B5-B0B8-E0482374DED7}"/>
+    <hyperlink ref="B713" r:id="rId682" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{455B3CAA-4390-45FB-BAE7-A71EC9F28847}"/>
+    <hyperlink ref="B714" r:id="rId683" xr:uid="{E07F9AD9-BC1E-423E-B554-B614F8B573CB}"/>
+    <hyperlink ref="B715" r:id="rId684" xr:uid="{303B9FE0-F786-4177-B48D-C4E7030F4899}"/>
+    <hyperlink ref="B716" r:id="rId685" xr:uid="{3F08EBF1-4214-4BCE-B6C3-E9735AA8D53D}"/>
+    <hyperlink ref="B717" r:id="rId686" xr:uid="{62B24449-D4B6-422C-9610-DFA5B263F0AB}"/>
+    <hyperlink ref="B718" r:id="rId687" xr:uid="{9C1A24AA-F99B-47D8-A3CB-0993702196F0}"/>
+    <hyperlink ref="B719" r:id="rId688" xr:uid="{B9210463-E8F6-4238-B574-05EB0ACDA60D}"/>
+    <hyperlink ref="B720" r:id="rId689" xr:uid="{2F948F77-878C-4E76-B2E1-C401D03147D3}"/>
+    <hyperlink ref="B721" r:id="rId690" xr:uid="{5C6EB9CC-33E8-4297-9B5A-39648F9E3DF6}"/>
+    <hyperlink ref="B722" r:id="rId691" xr:uid="{BFCC85D0-3386-42B6-8826-1DB4DC955291}"/>
+    <hyperlink ref="B723" r:id="rId692" xr:uid="{56AEEE39-A751-43C4-AE8D-4D977A6BF9A9}"/>
+    <hyperlink ref="B724" r:id="rId693" xr:uid="{434C2E4F-5F5D-4287-9646-B006536B3059}"/>
+    <hyperlink ref="B725" r:id="rId694" xr:uid="{702E4ACC-E011-40F9-82F1-DC9B353915EA}"/>
+    <hyperlink ref="B726" r:id="rId695" xr:uid="{5BE238C8-0324-4CD9-96E1-E6D1D40166A8}"/>
+    <hyperlink ref="B727" r:id="rId696" xr:uid="{8E729443-2E87-4105-94A3-CB798F9B8DFC}"/>
+    <hyperlink ref="B728" r:id="rId697" xr:uid="{8518FD40-C807-4B0E-8BD0-363EF210FAA4}"/>
+    <hyperlink ref="B729" r:id="rId698" xr:uid="{7214D62F-B237-43C3-A17A-BB8E88E87965}"/>
+    <hyperlink ref="B730" r:id="rId699" xr:uid="{817FCD77-7964-4D6A-BB6C-33315C755EA1}"/>
+    <hyperlink ref="B731" r:id="rId700" xr:uid="{47EB5585-B2B0-42CB-8CD7-BCA3F489D384}"/>
+    <hyperlink ref="B732" r:id="rId701" xr:uid="{5B0CAA07-0FF0-4C4E-81FA-77A73CE1765E}"/>
+    <hyperlink ref="B733" r:id="rId702" xr:uid="{1E120D6A-A081-4FB3-90FA-6D04B9FE3DC9}"/>
+    <hyperlink ref="B734" r:id="rId703" xr:uid="{09669DD0-4EA7-433A-9275-D7F058BC0DBE}"/>
+    <hyperlink ref="B735" r:id="rId704" xr:uid="{72CD944B-541C-41C0-A313-53CE9532A740}"/>
+    <hyperlink ref="B736" r:id="rId705" xr:uid="{94CB6D6D-6B0A-4562-9D29-32BA1D6BBD2D}"/>
+    <hyperlink ref="B737" r:id="rId706" xr:uid="{6E7A988E-2DBA-44F4-913A-CB3EED1B5407}"/>
+    <hyperlink ref="B738" r:id="rId707" xr:uid="{56B6CAED-44A2-4C78-AEF0-FACFC98B71C2}"/>
+    <hyperlink ref="B739" r:id="rId708" xr:uid="{77B4CA84-3106-4647-8F80-5137F7A1C159}"/>
+    <hyperlink ref="B740" r:id="rId709" xr:uid="{01F8E5AA-B398-4344-AF8E-C00D9F1F0C68}"/>
+    <hyperlink ref="B741" r:id="rId710" xr:uid="{96A5DA4F-E691-480E-90C5-75D02A8400E2}"/>
+    <hyperlink ref="B742" r:id="rId711" xr:uid="{104A58F5-312B-4F0B-AB65-4E080EE021DF}"/>
+    <hyperlink ref="B743" r:id="rId712" xr:uid="{A479DD4E-7765-4F8C-9A88-E7E7E2EE0702}"/>
+    <hyperlink ref="B744" r:id="rId713" xr:uid="{04B1C74E-8186-4A27-9D1A-9EEBA9835EA8}"/>
+    <hyperlink ref="B745" r:id="rId714" xr:uid="{CF19D4E4-6A2A-4360-88A9-1BC6EFBA5FF9}"/>
+    <hyperlink ref="B746" r:id="rId715" xr:uid="{B8C27685-E42D-4900-922F-E97B7F060CEE}"/>
+    <hyperlink ref="B747" r:id="rId716" xr:uid="{33C8E142-2EA5-476F-BACA-ED82144F56C5}"/>
+    <hyperlink ref="B748" r:id="rId717" xr:uid="{DEC74353-07E2-4D70-BADE-3807D58F0564}"/>
+    <hyperlink ref="B749" r:id="rId718" xr:uid="{82DA5DEB-B689-4641-80CD-ADFD80B4E7D5}"/>
+    <hyperlink ref="B750" r:id="rId719" xr:uid="{7254B56C-3959-4041-819E-B50D77230546}"/>
+    <hyperlink ref="B751" r:id="rId720" xr:uid="{0BB43A62-A118-48A3-B145-0CF40ED76BFA}"/>
+    <hyperlink ref="B752" r:id="rId721" xr:uid="{6243237D-C0E8-4852-A03E-A23F64F13235}"/>
+    <hyperlink ref="B753" r:id="rId722" xr:uid="{DF2D610D-A9AC-473C-94EE-C2C9915EF02C}"/>
+    <hyperlink ref="B754" r:id="rId723" xr:uid="{4CF4214F-A61B-404D-9700-F0DC828E3981}"/>
+    <hyperlink ref="B755" r:id="rId724" xr:uid="{17094AF2-A529-4E65-9F59-E9F58ED85A19}"/>
+    <hyperlink ref="B756" r:id="rId725" xr:uid="{B865D322-1E56-4EA3-A327-DEE10F120CDE}"/>
+    <hyperlink ref="B757" r:id="rId726" xr:uid="{F31E60A9-44BF-4FD0-9EA4-6BF6AF02F65B}"/>
+    <hyperlink ref="B758" r:id="rId727" xr:uid="{6A8B6A02-B6ED-46D9-A8EE-BFF19577793B}"/>
+    <hyperlink ref="B759" r:id="rId728" xr:uid="{0E29AA8D-224A-424D-8D10-A5B2FC5C922D}"/>
+    <hyperlink ref="B760" r:id="rId729" xr:uid="{D33EA797-9DBB-4A6D-96CA-9E900A3CDB20}"/>
+    <hyperlink ref="B761" r:id="rId730" xr:uid="{BFD63CC0-4A05-4C1F-B621-781AE7319296}"/>
+    <hyperlink ref="B762" r:id="rId731" xr:uid="{273F57A0-9650-4678-AF04-346018E330A6}"/>
+    <hyperlink ref="B763" r:id="rId732" xr:uid="{18DAD247-81C8-4DE1-A380-BB9B22469C55}"/>
+    <hyperlink ref="B764" r:id="rId733" xr:uid="{95D8FFD9-9157-42F4-B5E5-4A64BD15C6D8}"/>
+    <hyperlink ref="B765" r:id="rId734" xr:uid="{E716C806-63D7-4D96-91BC-378DFFFC8F62}"/>
+    <hyperlink ref="B766" r:id="rId735" xr:uid="{4BAFBD41-3B93-4B05-B6B1-280254681A30}"/>
+    <hyperlink ref="B767" r:id="rId736" xr:uid="{2366DC5B-B7A1-42F8-A231-F8052C459BFB}"/>
+    <hyperlink ref="B768" r:id="rId737" xr:uid="{266BD55C-B2BB-4554-A4D4-84CFB4535809}"/>
+    <hyperlink ref="B769" r:id="rId738" xr:uid="{29A3D127-9481-4E89-A565-63D6BF136052}"/>
+    <hyperlink ref="B770" r:id="rId739" xr:uid="{F85B1363-BD42-4266-9957-9B2EFF4DF5C2}"/>
+    <hyperlink ref="B771" r:id="rId740" xr:uid="{971D91CD-8C9F-43F9-9E54-6244CD2D0BB8}"/>
+    <hyperlink ref="B772" r:id="rId741" xr:uid="{D7FD00CF-2AA5-4547-9C54-63A6C489B72B}"/>
+    <hyperlink ref="B773" r:id="rId742" xr:uid="{E8E9CA68-532D-4475-89C1-61EC8E771A36}"/>
+    <hyperlink ref="B774" r:id="rId743" xr:uid="{EDE88196-E597-4F73-AA37-62412DD8684C}"/>
+    <hyperlink ref="B775" r:id="rId744" xr:uid="{8A25B322-FD85-4C2B-96BC-DE57FCE5FEC8}"/>
+    <hyperlink ref="B776" r:id="rId745" xr:uid="{D25D906E-0642-4BC6-AD3C-D7BC86A02100}"/>
+    <hyperlink ref="B777" r:id="rId746" xr:uid="{86203195-C81F-4B94-9C35-9F1A56ED6CF6}"/>
+    <hyperlink ref="B778" r:id="rId747" xr:uid="{0757679E-8413-4048-AD18-A4BF67401B55}"/>
+    <hyperlink ref="B779" r:id="rId748" xr:uid="{1A0666EE-2928-4506-9F63-7F3A9BEC31D9}"/>
+    <hyperlink ref="B780" r:id="rId749" xr:uid="{8256F47D-C065-4B18-97FA-88C9FD59DEA7}"/>
+    <hyperlink ref="B781" r:id="rId750" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{6FEFA03B-24CF-4DFD-88FD-98C06C12EDA4}"/>
+    <hyperlink ref="B782" r:id="rId751" xr:uid="{8D03DF96-2279-4A7A-8BC1-4346174E62D6}"/>
+    <hyperlink ref="B783" r:id="rId752" xr:uid="{BB51EFB3-760B-4B11-BB63-A6F502F47F3B}"/>
+    <hyperlink ref="B784" r:id="rId753" xr:uid="{D55DDFEE-0C5E-4E37-BE01-0ECBC7FFF6E2}"/>
+    <hyperlink ref="B786" r:id="rId754" xr:uid="{F1EC204C-66C0-4777-B216-726EF0898CA8}"/>
+    <hyperlink ref="B787" r:id="rId755" xr:uid="{841F3158-AF39-416E-90B0-8F8B341EDA2D}"/>
+    <hyperlink ref="B788" r:id="rId756" xr:uid="{ABF7BC25-1EBB-4BD2-AC3D-7D0461FDDF3C}"/>
+    <hyperlink ref="B789" r:id="rId757" xr:uid="{95F4A322-870B-4EB7-91CC-AE7FF2C908D7}"/>
+    <hyperlink ref="B790" r:id="rId758" xr:uid="{3636261C-C9CA-4BBF-8A37-56D1BB34B570}"/>
+    <hyperlink ref="B791" r:id="rId759" xr:uid="{9B400666-AADC-4636-9B77-EEF33DEA1AF6}"/>
+    <hyperlink ref="B792" r:id="rId760" xr:uid="{704F7A7E-DB65-44C2-B53B-15E1E1ABB95C}"/>
+    <hyperlink ref="B793" r:id="rId761" xr:uid="{BEE7D13A-D50C-4E3A-86CB-1BC9EB1A3BC1}"/>
+    <hyperlink ref="B794" r:id="rId762" xr:uid="{F57C1BC2-D4EE-41E4-8421-9EBDFBAC26A9}"/>
+    <hyperlink ref="B795" r:id="rId763" xr:uid="{6EB5BF53-8188-4906-8F39-87764EE7CABB}"/>
+    <hyperlink ref="B796" r:id="rId764" xr:uid="{603CA858-E1A6-4738-BB65-5B462899274C}"/>
+    <hyperlink ref="B797" r:id="rId765" xr:uid="{3C9E24C7-9532-4A3F-96C2-2F5E8C3CDB1D}"/>
+    <hyperlink ref="B798" r:id="rId766" xr:uid="{68A32A35-69AA-4A68-8BAA-AAF5CFF9C21E}"/>
+    <hyperlink ref="B799" r:id="rId767" xr:uid="{233805B3-EF80-4ED2-BAE2-F204FB1C3834}"/>
+    <hyperlink ref="B800" r:id="rId768" xr:uid="{6CAB7DA1-3A7C-4429-B8E5-432969187EFA}"/>
+    <hyperlink ref="B801" r:id="rId769" xr:uid="{8498659F-62AC-4480-A61E-F6544AFF994D}"/>
+    <hyperlink ref="B802" r:id="rId770" xr:uid="{CDA8101E-8248-48F4-890B-49A882F5E504}"/>
+    <hyperlink ref="B803" r:id="rId771" xr:uid="{C5849725-B3DE-4260-96EF-3FA920EC8F17}"/>
+    <hyperlink ref="B804" r:id="rId772" xr:uid="{9F4C9FB9-F669-4FF4-BC6C-7C8AACA26934}"/>
+    <hyperlink ref="B805" r:id="rId773" xr:uid="{8D14F14E-3AC6-40E0-A5C1-EE4E421CE138}"/>
+    <hyperlink ref="B806" r:id="rId774" xr:uid="{BC294D3A-614D-4F24-8F0A-EDFEF3356759}"/>
+    <hyperlink ref="B807" r:id="rId775" xr:uid="{48687A8A-5168-4B23-88A5-70F475F5CBFF}"/>
+    <hyperlink ref="B808" r:id="rId776" xr:uid="{90769112-FBAE-4BD7-9A92-7CFDF3E2BED6}"/>
+    <hyperlink ref="B809" r:id="rId777" xr:uid="{092B7818-8656-4A60-98B9-C7C9D41635B1}"/>
+    <hyperlink ref="B810" r:id="rId778" xr:uid="{8A14EB85-A5D0-4F5C-9739-AA1ECC2B5F28}"/>
+    <hyperlink ref="B811" r:id="rId779" xr:uid="{6ECA0CDB-64F0-4DF9-8EC7-1E90D7DB7585}"/>
+    <hyperlink ref="B812" r:id="rId780" xr:uid="{011F4C43-3563-4415-979B-50D901547BA7}"/>
+    <hyperlink ref="B813" r:id="rId781" xr:uid="{D27E2545-8852-43F5-BBD7-BDB61B3A602D}"/>
+    <hyperlink ref="B814" r:id="rId782" xr:uid="{1A9BB3F7-E73F-419F-B538-6622A83C975E}"/>
+    <hyperlink ref="B815" r:id="rId783" xr:uid="{B740E5AA-0465-453F-BC1D-0FC90FB193E0}"/>
+    <hyperlink ref="B816" r:id="rId784" xr:uid="{5C8C0776-B53D-480A-AF87-B301A1805C9E}"/>
+    <hyperlink ref="B817" r:id="rId785" xr:uid="{42F7A74D-76D6-493B-8397-286856E803FC}"/>
+    <hyperlink ref="B818" r:id="rId786" xr:uid="{292E76F1-62D2-4AD6-88A0-247D87212056}"/>
+    <hyperlink ref="B819" r:id="rId787" xr:uid="{6286134E-D2B1-4C2C-A77A-47387D8F0E12}"/>
+    <hyperlink ref="B820" r:id="rId788" xr:uid="{8A19AF0B-1941-4DB4-8013-224827B7FFAD}"/>
+    <hyperlink ref="B821" r:id="rId789" xr:uid="{98F8282F-91D3-48D7-B3EB-FE90E5C05885}"/>
+    <hyperlink ref="B822" r:id="rId790" xr:uid="{4947CA42-33B0-4206-A3C9-6D0873A62879}"/>
+    <hyperlink ref="B823" r:id="rId791" xr:uid="{E337EC9B-A349-4722-83EC-D771F65EFFCD}"/>
+    <hyperlink ref="B824" r:id="rId792" xr:uid="{E97D7479-41AC-49D0-952B-7EAC7575A3FD}"/>
+    <hyperlink ref="B825" r:id="rId793" xr:uid="{CF3C5697-0F78-4BAC-AC29-41BC604F9DB1}"/>
+    <hyperlink ref="B826" r:id="rId794" xr:uid="{8564A58C-DD8D-4E73-B863-368611349459}"/>
+    <hyperlink ref="B827" r:id="rId795" xr:uid="{F46DDA17-1676-41BF-B44F-089A4C4FAB54}"/>
+    <hyperlink ref="B828" r:id="rId796" xr:uid="{A749CA8E-3004-409A-906C-602ECB25BAF7}"/>
+    <hyperlink ref="B829" r:id="rId797" xr:uid="{78973DCD-D90A-48F1-862F-269DAF521E07}"/>
+    <hyperlink ref="B830" r:id="rId798" xr:uid="{559FB34D-372F-4696-A801-5AC1876E211C}"/>
+    <hyperlink ref="B831" r:id="rId799" xr:uid="{9628D2FE-181E-4A47-8036-6688B17F3C88}"/>
+    <hyperlink ref="B832" r:id="rId800" xr:uid="{26315657-A4D7-4433-AAAE-CB7321A2D69E}"/>
+    <hyperlink ref="B833" r:id="rId801" xr:uid="{2645A852-8858-4DE3-A165-A3CB00D60333}"/>
+    <hyperlink ref="B834" r:id="rId802" xr:uid="{0883C5C9-4823-4529-91FD-2B21775C09FD}"/>
+    <hyperlink ref="B835" r:id="rId803" xr:uid="{6E0E23A1-826D-4BDD-9795-77949A00DBDA}"/>
+    <hyperlink ref="B836" r:id="rId804" xr:uid="{A4750838-B10C-4EDD-9EF6-29AD01BD4464}"/>
+    <hyperlink ref="B837" r:id="rId805" xr:uid="{4BE597AF-B045-4E3F-8F17-7AF61E9309AD}"/>
+    <hyperlink ref="B838" r:id="rId806" xr:uid="{5AAF9222-DA8B-4264-A7AB-4A0C601C97B6}"/>
+    <hyperlink ref="B872" r:id="rId807" xr:uid="{FC4E019B-4455-44D7-BC58-AEEF5496BF6A}"/>
+    <hyperlink ref="B871" r:id="rId808" xr:uid="{8A8A3B01-2B14-44BF-89F8-CBEA4CB05909}"/>
+    <hyperlink ref="B870" r:id="rId809" xr:uid="{521EC3A0-ECD7-48CD-813F-1B96347444A3}"/>
+    <hyperlink ref="B869" r:id="rId810" xr:uid="{E13674D5-E534-4C15-94BC-26755C613F61}"/>
+    <hyperlink ref="B868" r:id="rId811" xr:uid="{C7581CA4-12DD-4C7A-83F4-1F627694BCD8}"/>
+    <hyperlink ref="B867" r:id="rId812" xr:uid="{9F079237-37EF-48D6-AD7C-85DF317A4376}"/>
+    <hyperlink ref="B866" r:id="rId813" xr:uid="{A02FAB26-7097-48CE-8F6C-6FDE1E521912}"/>
+    <hyperlink ref="B865" r:id="rId814" xr:uid="{58A3FA14-6184-4AD7-830E-754DAAE326E9}"/>
+    <hyperlink ref="B864" r:id="rId815" xr:uid="{31A8291A-F19F-44B0-AEB4-246D52569CB3}"/>
+    <hyperlink ref="B863" r:id="rId816" xr:uid="{63EC00FE-14C3-4EFF-9D8C-8A028E19EC36}"/>
+    <hyperlink ref="B862" r:id="rId817" xr:uid="{6FE02B54-C4BD-4419-8E91-B7C16A1B7574}"/>
+    <hyperlink ref="B861" r:id="rId818" xr:uid="{35AF6874-BF27-447A-B7E7-1137EBBFE5B9}"/>
+    <hyperlink ref="B860" r:id="rId819" xr:uid="{E4EAE999-0EE9-45DF-85EE-EAAE6DA8DB12}"/>
+    <hyperlink ref="B859" r:id="rId820" xr:uid="{185AAA66-C8A7-4F0A-A00A-12BAFA5B846D}"/>
+    <hyperlink ref="B858" r:id="rId821" xr:uid="{0868009E-9416-4ED3-903E-E18D2F4A098B}"/>
+    <hyperlink ref="B857" r:id="rId822" xr:uid="{FBACD7FF-2540-42E7-A439-5019CD08AE24}"/>
+    <hyperlink ref="B856" r:id="rId823" xr:uid="{42404A00-81F1-4C4B-B6E4-785F9E24EF42}"/>
+    <hyperlink ref="B855" r:id="rId824" xr:uid="{509A92DE-6730-45C2-910C-407BC9358698}"/>
+    <hyperlink ref="B854" r:id="rId825" xr:uid="{6136E1E1-7E9F-4A6F-ABDB-8C435B073F2D}"/>
+    <hyperlink ref="B853" r:id="rId826" xr:uid="{0906A018-E114-4363-A6B5-85C87CF659DD}"/>
+    <hyperlink ref="B852" r:id="rId827" xr:uid="{9628E1FA-AA85-4A9C-A6F0-7283220F1AE6}"/>
+    <hyperlink ref="B851" r:id="rId828" xr:uid="{EB21AD26-5A6F-4735-8950-6DCD25F41BAE}"/>
+    <hyperlink ref="B850" r:id="rId829" xr:uid="{00D1E30D-1426-45BC-B004-A9F2CA914E26}"/>
+    <hyperlink ref="B849" r:id="rId830" xr:uid="{C884698A-022F-422D-A6FB-8A9F4314FD4C}"/>
+    <hyperlink ref="B848" r:id="rId831" xr:uid="{75DD9AFF-EFF7-475D-A92B-60E69D2463D2}"/>
+    <hyperlink ref="B847" r:id="rId832" xr:uid="{F4D3F553-EEB3-4B9B-961E-75710288CF8B}"/>
+    <hyperlink ref="B846" r:id="rId833" xr:uid="{BB29EE45-CA92-4FD4-8E85-B89705207605}"/>
+    <hyperlink ref="B845" r:id="rId834" xr:uid="{D5B152F8-65F9-4519-B127-410A32C8BBFC}"/>
+    <hyperlink ref="B844" r:id="rId835" xr:uid="{078281E3-898D-4B2D-B075-756F48FD40EC}"/>
+    <hyperlink ref="B843" r:id="rId836" xr:uid="{C7BDC45E-0471-4E71-8024-835100FFF440}"/>
+    <hyperlink ref="B842" r:id="rId837" xr:uid="{438E5B34-A97D-44C3-B51D-A4A6C6743127}"/>
+    <hyperlink ref="B841" r:id="rId838" xr:uid="{F16F3E46-2CC8-4F20-AA6A-A29D5F84559D}"/>
+    <hyperlink ref="B840" r:id="rId839" xr:uid="{2985606A-624D-4471-A1CB-A113810A14BD}"/>
+    <hyperlink ref="B839" r:id="rId840" xr:uid="{7D6701DC-74AA-49E9-B428-4677B5022DE6}"/>
+    <hyperlink ref="B785" r:id="rId841" xr:uid="{7153A2CA-4DC8-4683-8673-410374D95C8E}"/>
+    <hyperlink ref="B877" r:id="rId842" xr:uid="{559FCD3B-12D4-4A86-8179-F192D8866353}"/>
+    <hyperlink ref="B876" r:id="rId843" xr:uid="{1AF8A550-BCB3-492B-A230-D19747509AE0}"/>
+    <hyperlink ref="B875" r:id="rId844" xr:uid="{ECEF31DC-8FEB-470E-8300-6E18C233C383}"/>
+    <hyperlink ref="B874" r:id="rId845" xr:uid="{767CB01A-034D-4007-A1C9-CDA512DF0E82}"/>
+    <hyperlink ref="B873" r:id="rId846" xr:uid="{1F20F592-3DA2-45C8-BA22-ACD1CE12390C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId842"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId847"/>
 </worksheet>
 </file>
--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Indie Capital)\Share Logos\Research\Análise\Evernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6700EC-0F8D-4275-ADCB-E945F4E82350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D4970B-ADF8-47E9-82D0-BC1F87D8AB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD3D59F5-2FAA-428A-89FE-C23AAF26AD23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1730">
   <si>
     <t>titulo</t>
   </si>
@@ -5191,6 +5191,42 @@
   </si>
   <si>
     <t>https://www.evernote.com/shard/s567/nl/98932539/21da58a8-ad34-661f-770c-26c27c62ffce?title=CBA%20%7C%20Pager</t>
+  </si>
+  <si>
+    <t>﻿Mulstilaser | Visita à Fábrica</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/b0281b70-610a-427e-94ef-2233d4b8f09f?title=Mulstilaser%20%7C%20Visita%20%C3%A0%20F%C3%A1brica</t>
+  </si>
+  <si>
+    <t>﻿CBA | 1x1</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/680129db-841b-6c41-9e24-cf5f1e4de78f?title=CBA%20%7C%201x1</t>
+  </si>
+  <si>
+    <t>﻿Multilaser | 1x1 com CEO</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/0434d8dd-93de-4486-8156-479f8f7e1943?title=Multilaser%20%7C%201x1%20com%20CEO</t>
+  </si>
+  <si>
+    <t>﻿Althaia | Conversa com Diretor Executivo da Eurofarma</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/57845c41-2603-43a5-83b4-77191eb291c7?title=Althaia%20%7C%20Conversa%20com%20Diretor%20Executivo%20da%20Eurofarma</t>
+  </si>
+  <si>
+    <t>﻿Althaia | Conversa com Distribuidor (Emedarma)</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/51f217fb-693f-435e-9ec6-d610e7d62b07?title=Althaia%20%7C%20Conversa%20com%20Distribuidor%20(Emedarma)</t>
+  </si>
+  <si>
+    <t>﻿Althaia | Rede de Farmácias São João</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s567/nl/98932539/781053a1-324a-4e40-b0ae-c65b0b8caf8d?title=Althaia%20%7C%20Rede%20de%20Farm%C3%A1cias%20S%C3%A3o%20Jo%C3%A3o</t>
   </si>
 </sst>
 </file>
@@ -5592,10 +5628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7FAD2D-49AB-4893-ADA4-F55C3ACF973B}">
-  <dimension ref="A1:B877"/>
+  <dimension ref="A1:B883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
-      <selection activeCell="A878" sqref="A878"/>
+    <sheetView tabSelected="1" topLeftCell="A847" workbookViewId="0">
+      <selection activeCell="A883" sqref="A883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12620,856 +12656,910 @@
         <v>1717</v>
       </c>
     </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{68C58B8A-E3B5-4568-AD67-35A442634368}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{5E7E3FC5-9D99-4949-A33E-191293520AA2}"/>
-    <hyperlink ref="B31" r:id="rId3" xr:uid="{7A9F512A-5EA1-4FC2-B30D-8CA5191F9EA5}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{F46A7AF3-354D-40FF-8CE6-B06B7089B7EE}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{A208FB60-FF35-41AC-922B-475D9BED0087}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{DCE3A467-323B-412D-8BAC-98DFC70B336A}"/>
-    <hyperlink ref="B27" r:id="rId7" xr:uid="{F049C0BC-EC63-4C5C-95DD-5FF3173F9657}"/>
-    <hyperlink ref="B26" r:id="rId8" xr:uid="{A352CF2D-DA3B-408E-8C1E-F40D7992B2A7}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{23E88AC7-4A8F-4A94-BF0D-0C9A1A51768F}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{451AC3E6-6727-4921-9F75-49F74E2CB9F9}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{D9D62156-6E69-4700-AF15-D1A6C59A8270}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{614131E2-29DA-4147-BBD8-10E1D6DDD11B}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{05471CFC-D630-4681-A88A-4BD65B76064C}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{961EF1F4-DF39-4992-8D94-8CD41041C693}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{8A74611B-7A3D-4E41-9F46-653C2B93C98D}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{A6051572-91D4-4B3B-9584-28F5613DEEF7}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{6628D4BF-3165-4473-BF28-4822EA970586}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{217D4255-3E1A-4DE4-B308-D53C4F855BF4}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{34031AA4-7EE6-46DF-967D-F303FA716DDB}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{D62F39D9-CB59-4D9A-B26A-73884BF94A94}"/>
-    <hyperlink ref="B37" r:id="rId21" xr:uid="{7BA3469C-2574-4BCE-9E98-45457BD0C27D}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{6AA919EC-BE8E-4321-BA5D-69BDE2AA8A0D}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{ADD5D031-6921-41FB-9CD4-59A872CAE3C8}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{ABEB7985-1CCE-422D-88D2-85B96F5451BE}"/>
-    <hyperlink ref="B41" r:id="rId25" xr:uid="{C5BC4272-A146-4783-B365-23E1123DBF55}"/>
-    <hyperlink ref="B42" r:id="rId26" xr:uid="{B9228DF7-6028-46F6-BB65-203EAB90A562}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{E97F7686-9DEA-423A-B41F-6EA4F46664E8}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{21AF3508-041F-443A-BFA9-E164F3331C99}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{EC98397E-36F9-4C89-B9CD-EE852EEDE1F0}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{0AD468A4-DDBF-4C91-952E-20E0B6735043}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{9C06A5FA-096F-45DA-9EF4-BB6124E7FF90}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{4FF4C94D-4D7E-4C3C-84E2-7139D6BC5053}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{3E1A06CE-A7DD-4581-87EF-B965260E7DE8}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{FBABA5AB-6AC1-4AC1-B15A-745431F0646E}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{5F966F6E-FE20-4535-B534-A98C5FF7DA32}"/>
-    <hyperlink ref="B64" r:id="rId36" xr:uid="{A4BC80CE-C6AA-43E7-8ACD-AF4601A7BB18}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{6ABB1BE2-5B41-481C-8727-CB12594EECCB}"/>
-    <hyperlink ref="B62" r:id="rId38" xr:uid="{07EF85A5-C1A5-4690-AE2E-6B34E5E621D9}"/>
-    <hyperlink ref="B61" r:id="rId39" xr:uid="{70587BA8-8040-466B-8C91-22E4CB86F773}"/>
-    <hyperlink ref="B60" r:id="rId40" xr:uid="{57239F5C-BB7E-4F1A-8C7A-4ADE071B9815}"/>
-    <hyperlink ref="B59" r:id="rId41" xr:uid="{CA6F26B3-9F18-48AB-ACC2-24860911B084}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{E18EB5F8-F8BC-4B7A-9687-A311CD5074AB}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{F75816B9-7A41-4DDA-94E5-A779F7388882}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{D3F14BC8-B990-42AA-AFFD-DCDC0883B0D3}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{10DDD994-66D0-47FD-9817-0E04358FA359}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{0B40389D-A62C-4E16-A2A6-055D788D9F43}"/>
-    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{1B74F979-D7D9-49C5-826E-D73AEED4BEA3}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{F28199FF-BC99-474D-9FF1-D2D41CA2AF12}"/>
-    <hyperlink ref="B83" r:id="rId49" xr:uid="{441C83DB-8A38-4D07-80AF-CCCF5EAF9BC5}"/>
-    <hyperlink ref="B82" r:id="rId50" xr:uid="{98F19130-39C5-4706-81D2-D76E703D14CA}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{CF58B763-10BD-4B87-8906-AE7DDA06DC66}"/>
-    <hyperlink ref="B80" r:id="rId52" xr:uid="{BF1F03A4-229F-40FF-98E7-BB95D4F7BADE}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{8B71B5C9-D08B-4EDB-ADD0-E65395B3902D}"/>
-    <hyperlink ref="B78" r:id="rId54" xr:uid="{05BBAF1C-B00A-445E-8CC0-0234CDB70191}"/>
-    <hyperlink ref="B77" r:id="rId55" xr:uid="{5741453A-2050-4FBD-93F7-5D212574B225}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{C2E6A5C5-26E1-4A7B-9368-82B7FE374E87}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{E680952A-4104-4716-A35B-108B897DEB83}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{254A6860-D4F2-4821-A64A-A0235D75F5D9}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{CBFC4FB5-9E96-4E7E-8EA6-6B462A522A39}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{79D666A8-CEC9-4B71-9F3C-234AC99BCD4E}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{5E9614A0-B203-48F2-BAE4-69BB52B5A53A}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{1311E016-8A04-4F80-A247-A96DBEE3328C}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{C64C205E-217B-47D8-AA75-2D2F2B554828}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{8E9CE445-CECB-4F31-B62A-0ED80A8DDE94}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{0FD52BDE-2959-45E8-8920-1CA9D7E8B29D}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{F7DCAFBF-EDCE-49BE-A62A-89EA6D3C69D0}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{48C14CBF-7D38-4CAC-859C-ADB74C68CDAA}"/>
-    <hyperlink ref="B100" r:id="rId68" xr:uid="{AC6D79BF-C5BC-4D53-B470-3596102128B4}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{25833AEA-1440-414D-BD00-8B80FCA32527}"/>
-    <hyperlink ref="B102" r:id="rId70" xr:uid="{0BF156A7-3472-44D2-8EDA-DCF3A751533D}"/>
-    <hyperlink ref="B103" r:id="rId71" xr:uid="{898D4D5F-AB5C-4C2A-9F5A-EA9DD65C2BC3}"/>
-    <hyperlink ref="B104" r:id="rId72" xr:uid="{D046ECBE-AD7D-4F0F-94D0-E851590362F5}"/>
-    <hyperlink ref="B105" r:id="rId73" xr:uid="{D008C13E-2FA0-4C0E-833A-77C74997BF95}"/>
-    <hyperlink ref="B106" r:id="rId74" xr:uid="{9630685B-D2C1-45A7-89A7-C18440FD7FAA}"/>
-    <hyperlink ref="B107" r:id="rId75" xr:uid="{FF921544-393A-42BB-855F-A6BD7D9F5BEF}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{36D67D04-5790-4052-9F46-5A04373B9365}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{2CFC23E7-3AD0-4AA8-9923-29615F65BBE0}"/>
-    <hyperlink ref="B95" r:id="rId78" xr:uid="{A6FEA269-1767-45ED-97BD-829704C354FE}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{0D45D842-BF33-4775-BE23-44196E33B82F}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{AFD5DB5E-11AF-4B56-8400-A20A71BCE1C1}"/>
-    <hyperlink ref="B92" r:id="rId81" xr:uid="{E7639CE1-8B38-4995-A143-56180BAA06EA}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{E3011F71-C902-4FDE-90F1-F2E0633DD184}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{8EE6904E-3153-4EE0-BCA8-8DC9E3B0DEBC}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{2BC345AF-B566-46E8-BF4B-5CA5B5984706}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{56400396-B801-4114-99FE-AE06FCA35FCA}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{845BAE37-EE23-4F8A-90F9-3AF11A50CD5C}"/>
-    <hyperlink ref="B86" r:id="rId87" xr:uid="{A8DBA7E3-48E0-42D1-8223-0F1DA2027E94}"/>
-    <hyperlink ref="B85" r:id="rId88" xr:uid="{8764877D-AB61-4547-B842-531787D7F97E}"/>
-    <hyperlink ref="B84" r:id="rId89" xr:uid="{B8DD7FFD-6114-4DAB-94CE-0BFF150E5C46}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{58A31648-212A-4B1C-9F9A-85CCA40CEB3E}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{65611740-C8B1-4727-88EB-22FB845EAFB9}"/>
-    <hyperlink ref="B134" r:id="rId92" xr:uid="{4B142948-D9BD-4665-A73B-2F260DACDA9F}"/>
-    <hyperlink ref="B133" r:id="rId93" xr:uid="{82507BA0-F162-47BE-91DC-8F3F3DFD75E0}"/>
-    <hyperlink ref="B132" r:id="rId94" xr:uid="{EAE0F2C3-83EF-4192-A513-3B39F855313A}"/>
-    <hyperlink ref="B131" r:id="rId95" xr:uid="{9EEDE04B-1907-4300-ABE8-B2F46C5CF492}"/>
-    <hyperlink ref="B130" r:id="rId96" xr:uid="{3F9E10FA-6895-4560-8BDD-E4F021A0F090}"/>
-    <hyperlink ref="B129" r:id="rId97" xr:uid="{60017E92-522C-4BFB-9480-F75C1CB2C346}"/>
-    <hyperlink ref="B128" r:id="rId98" xr:uid="{04785E81-E990-4B7B-9F76-BFA73E3B8DBC}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{64B5DE96-827B-4B63-B45C-447CF5296CDF}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{A06B1C60-C36B-473F-AD16-CA29619839D8}"/>
-    <hyperlink ref="B125" r:id="rId101" xr:uid="{F75C3529-ADD9-4092-9F49-1BB8DF13282A}"/>
-    <hyperlink ref="B124" r:id="rId102" xr:uid="{4269A5B4-467F-4266-9D7C-ADA3AC0490FE}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{D207BC33-070A-467A-95B8-3CABD7593B3D}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{3512E1BB-577C-47A9-A79D-34CCED581900}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{7AA802E7-6BD1-4FD0-94A1-271D057368AC}"/>
-    <hyperlink ref="B135" r:id="rId106" xr:uid="{758A94F1-1E1C-4145-AC1C-1182A40B4F10}"/>
-    <hyperlink ref="B136" r:id="rId107" xr:uid="{91969A11-FF4B-4E5C-9D97-2AAE00ED553E}"/>
-    <hyperlink ref="B138" r:id="rId108" xr:uid="{65105775-2338-4654-92B4-89C9768BC98C}"/>
-    <hyperlink ref="B137" r:id="rId109" xr:uid="{B635A088-CA3D-4DFF-8434-777C7D1865EC}"/>
-    <hyperlink ref="B139" r:id="rId110" xr:uid="{8AD4A7E9-307C-45F6-8362-6BFC35D287E4}"/>
-    <hyperlink ref="B159" r:id="rId111" xr:uid="{5EFF4248-559D-4FE4-A0A8-FE33C5CEBDE2}"/>
-    <hyperlink ref="B158" r:id="rId112" xr:uid="{4117D144-8A63-4E10-A425-D621181D7B24}"/>
-    <hyperlink ref="B157" r:id="rId113" xr:uid="{FAF02959-A3D1-4D32-A022-40C57117BA59}"/>
-    <hyperlink ref="B156" r:id="rId114" xr:uid="{FFC3D57B-1E1D-4BDA-8146-C74C58BA37FD}"/>
-    <hyperlink ref="B155" r:id="rId115" xr:uid="{E4AE3AEC-F291-4C1D-80A4-5771FE830EDD}"/>
-    <hyperlink ref="B154" r:id="rId116" xr:uid="{C309F447-C266-4A53-9431-6529B53BF3EC}"/>
-    <hyperlink ref="B153" r:id="rId117" xr:uid="{32BD3F05-42B8-4644-900C-518BB2059833}"/>
-    <hyperlink ref="B152" r:id="rId118" xr:uid="{7C7B82FF-27D8-48DD-98B3-21E473903A55}"/>
-    <hyperlink ref="B151" r:id="rId119" xr:uid="{BE68FF38-50EA-4FBA-A5DB-9C504BBCBC67}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{147AA4C9-6A11-4A8E-A6C0-93185D76EEE7}"/>
-    <hyperlink ref="B149" r:id="rId121" xr:uid="{F0489F06-15CD-4442-8CDC-7C6E40EFB727}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{42F575D5-5A6E-4840-AE7A-58ABFE517C9C}"/>
-    <hyperlink ref="B147" r:id="rId123" xr:uid="{87798947-2DE9-401F-842A-797AC97A5968}"/>
-    <hyperlink ref="B146" r:id="rId124" xr:uid="{2E1F17B0-9930-4C6A-9B08-B7A46F27B7DE}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{E3F1767C-2DD4-4A94-9F66-406DA348A042}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{A96D3E29-4565-431E-B231-D27A691C96BB}"/>
-    <hyperlink ref="B142" r:id="rId127" xr:uid="{1CA249E5-F298-4B03-BD7B-DD6538219E8F}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{EC03D796-91A0-4E41-91C0-F20EB6C186F0}"/>
-    <hyperlink ref="B140" r:id="rId129" xr:uid="{571AE041-7738-41FB-B2F2-DECCFCC50D61}"/>
-    <hyperlink ref="B145" r:id="rId130" xr:uid="{31F6FCC1-AD87-4145-B71A-6910AC127321}"/>
-    <hyperlink ref="B167" r:id="rId131" xr:uid="{AF1443B5-587D-4581-BCC1-0A1918CA37D3}"/>
-    <hyperlink ref="B166" r:id="rId132" xr:uid="{9D1218F5-AAD2-4D83-A058-3A6759E0666C}"/>
-    <hyperlink ref="B165" r:id="rId133" xr:uid="{0C01F887-8765-4159-A8A9-6B5284E83AA2}"/>
-    <hyperlink ref="B164" r:id="rId134" xr:uid="{B1BA495A-0A00-46DC-B0B3-F992CF56C5D8}"/>
-    <hyperlink ref="B163" r:id="rId135" xr:uid="{4156C5C0-B36E-45C1-9774-E4C16434227D}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{E25B3DE3-A999-4FFD-A880-8108C1D00AF0}"/>
-    <hyperlink ref="B161" r:id="rId137" xr:uid="{967A5C9A-414D-4F65-AA7F-CF8B0830BED7}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{B0DB1433-9CE8-4A3C-9CDE-B9B9694B815D}"/>
-    <hyperlink ref="B169" r:id="rId139" xr:uid="{46B72CFD-B738-4C6F-A226-685C24DFF6FD}"/>
-    <hyperlink ref="B168" r:id="rId140" xr:uid="{D0954C76-8AB0-40B5-86C1-99B7B0D90DAB}"/>
-    <hyperlink ref="B170" r:id="rId141" xr:uid="{CA766548-090C-402A-B033-1E11E303DFF3}"/>
-    <hyperlink ref="B171" r:id="rId142" xr:uid="{5D9D4D7C-E225-42F7-9DB4-233196B319AE}"/>
-    <hyperlink ref="B172" r:id="rId143" xr:uid="{FE9D1323-64B8-4293-BDB1-E46FAAD442C0}"/>
-    <hyperlink ref="B173" r:id="rId144" xr:uid="{0C4828D2-6E6E-441E-88D0-87F2B640E026}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{A2870ADF-EE3F-4022-AD44-D0AB8F3BDE87}"/>
-    <hyperlink ref="B175" r:id="rId146" xr:uid="{7CC824D4-1904-4E65-8021-4855909618AA}"/>
-    <hyperlink ref="B176" r:id="rId147" xr:uid="{744B6441-7DC4-443D-BD64-AA027D6C99F3}"/>
-    <hyperlink ref="B177" r:id="rId148" xr:uid="{0FB1735F-64C7-4C36-B575-FD8577670B85}"/>
-    <hyperlink ref="B178" r:id="rId149" xr:uid="{37FBE75E-491C-4C1B-91D2-5B025D0DC4D0}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{54596782-B338-4487-8802-41278DA446BA}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{832A78F6-4B59-4EC4-920E-90204BBCA5BF}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{D677E19C-95C5-4ABE-BA04-9988BBFE8F08}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{FC13E73D-C931-460A-9C5C-6190FCEBFECF}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{067D8F06-C8A2-4BE7-93E2-092463ED7A7D}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{7E42BCC6-816C-4F4E-8772-A24F1B21F4ED}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{59CA391A-58AD-424D-A338-984E472414DE}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{FD1B481F-90BC-4D66-857D-6AD09BCB688F}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{0D263F7D-8E42-4E0C-81D7-323D10CBBBF5}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{65F9CA88-F66D-4A5C-AE61-443D0595F269}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{788324D7-C19E-4760-888A-40B417DC0FB5}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{FBCD72DC-2D67-4C1D-BCAB-DE9BA340AABC}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{005E850E-E041-4239-B472-EFE1D6E9C804}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{80D10A24-2EE4-48B5-B800-0B68E2D84815}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{A48A9368-6076-43C0-9752-ACFDB62A746A}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{34CC66DC-A6CB-4A89-A0FE-DC6520A50F52}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{5004E43D-652C-4BE6-9E72-B483372C4E26}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{2346197E-CEDE-4D5E-9A9D-A9EC98E2D066}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{2005E5B1-6295-4B85-80A0-2BD98A4BB961}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{05835EC0-D9D1-47CD-9BAE-C514CA4997CC}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{9A183057-35BE-4CF1-8878-D13C6D710A65}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{208ADE35-EA6A-4042-9BEE-7BF3CF41A25F}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{4F35CFF4-D78A-4963-9F6B-4981F84AE318}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{7AFC2C21-4FEF-4141-98CE-D93408AD0C29}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{AFE99DC9-822C-46E6-A28A-12F0E493988B}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{73319BE7-5DE4-46D3-9B6C-3569FE622221}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{BECAD98C-0167-4F9C-A8DE-C4610F3F08BD}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{1F31C8FE-48CA-43F2-8F92-226363433917}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{5548ACB7-86BC-45A2-9A10-F1803D199813}"/>
-    <hyperlink ref="B208" r:id="rId179" xr:uid="{38D234FD-9DBD-491A-8BAD-50A590364A31}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{E37187A2-FF53-4101-A324-0B45E20F2D01}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{02A1E756-AC30-4841-B6A0-E963033BC0EE}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{86EA08FC-5FF5-4334-BEDB-AA7C50749791}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{858D60A3-7DF4-411F-83D1-B455074FC092}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{5122D73E-8316-4509-9F44-FA9BE21DA173}"/>
-    <hyperlink ref="B214" r:id="rId185" xr:uid="{D6F36435-BC33-42DE-9E6F-F6C8CAF65D53}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{7E3F72F0-B3B7-4FCE-8745-0B27A94E6220}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{8A848B6C-4767-4B88-AF53-A5A2135627EB}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{D0580F3B-39E6-4287-ADD8-85F3E557E798}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{E86E0E41-9DE4-448A-8FC7-F7B26AB600F7}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{D703300D-0DB6-450B-94F0-5E636DB3A3DC}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{4A86C86E-72DE-4419-B860-7AFA4FED5FA3}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{3C89A72D-BA10-460C-BEBF-65759DF630F9}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{CD5F869C-DEA0-4BD8-AFFD-4340D319A273}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{7477FC0F-61B2-4C98-BC29-7871B219F98F}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{24ADA24E-A43C-4F4B-9C73-6FC1511B80F8}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{CB454502-6286-4142-BF13-2EF7DC5DBFAF}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{9D5C3E83-0CFF-42B8-8BCA-8459AAB88218}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{2AEB9B09-847E-45A6-8CDE-425D54F262BE}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{A40F4B97-0316-47F7-B66A-A215BA850B52}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{86C917F0-0B3A-4CF8-824E-D769DAFB62B5}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{E0F53E88-F53D-4F90-98F8-479CD96AEAF2}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{6569812A-B9D4-4F1D-BE4F-867BC70D739E}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{7F3F3C01-45EB-41C6-BC58-27C753F9DEA1}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{9255E6BB-877E-48C6-B4B0-FC4FB12F3D27}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{3CC96591-110A-4204-86CA-CFA6F26FAADF}"/>
-    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{3B1ABB4C-29CF-4E5C-8411-CC5A42FFBA14}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{04F0F828-CB5C-4110-B0E3-44A680C5929B}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{03AE99E3-FD16-4BA8-A133-BD8771091702}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{830D9A1C-5048-493C-902A-15BF5C15EBEC}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{73858889-A795-46D4-9CEC-9CFD5608D348}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{0265D72C-A474-497F-AB6D-219D92CF9478}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{F7F150B7-C9F6-42D1-A594-4BF39A58AEFE}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{9BC82E50-18C6-493A-84AE-7951C1512E3D}"/>
-    <hyperlink ref="B244" r:id="rId214" xr:uid="{9A491BC0-8FC5-47B7-9B84-4C80303BFD07}"/>
-    <hyperlink ref="B245" r:id="rId215" xr:uid="{D454052B-314D-4664-AA21-7EA6926F8178}"/>
-    <hyperlink ref="B267" r:id="rId216" xr:uid="{97FC1955-2991-4A13-B779-BE07448E9FD9}"/>
-    <hyperlink ref="B266" r:id="rId217" xr:uid="{297B59DB-83D6-4899-86C4-EF2AAA9D9DF1}"/>
-    <hyperlink ref="B265" r:id="rId218" xr:uid="{E6A6717A-47B8-41FE-BE2B-809DCAF81078}"/>
-    <hyperlink ref="B264" r:id="rId219" xr:uid="{53BA0A65-3C7C-41CF-BDB5-61908309AF36}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{DFA4B607-76FF-41A3-94F5-367A5376537D}"/>
-    <hyperlink ref="B262" r:id="rId221" xr:uid="{EA622626-2E92-41D3-9EF8-32ACD0242A85}"/>
-    <hyperlink ref="B261" r:id="rId222" xr:uid="{3F4BB1DC-CD1D-4F81-AAEF-E45CE3BD5DF3}"/>
-    <hyperlink ref="B260" r:id="rId223" xr:uid="{AB0271F8-95CA-460F-BFD3-F1391E21C494}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{9ABE97BB-BFA4-46B3-BB4B-FF1D5C7FB917}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{2BDC327E-8939-4E4C-A668-45564B8C6D8C}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{9380BC99-AAE6-4219-9AF8-DF25C385648E}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{BC19D230-4A03-4462-ACB9-8AC32CAE6DC3}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{0CCE2E2B-FDE7-4DB9-BEFF-95A661A14E29}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{F8F0B2C6-92BA-4CC2-8F19-8948A1CCF7D4}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{DAAF8D2F-3AC2-48B2-9CE5-B4CE31C9FCDC}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{3B77208C-D149-47C2-A4DB-96BD0C643EE0}"/>
-    <hyperlink ref="B251" r:id="rId232" xr:uid="{E671B2AB-EE5F-4E40-B261-267C688E4B27}"/>
-    <hyperlink ref="B250" r:id="rId233" xr:uid="{A03CA2C2-B819-4DD4-AAF4-3487BADB7731}"/>
-    <hyperlink ref="B249" r:id="rId234" xr:uid="{199B747F-D747-4E9F-B313-F70832A2D5B0}"/>
-    <hyperlink ref="B248" r:id="rId235" xr:uid="{8AA8A7BB-8887-48EF-AE96-B5E9841768EA}"/>
-    <hyperlink ref="B247" r:id="rId236" xr:uid="{73409899-594D-4874-ADAC-5201A5ABD2FD}"/>
-    <hyperlink ref="B246" r:id="rId237" xr:uid="{7F11E193-31BF-4809-A126-E8A31B9C6F0A}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{003794E2-95E3-4040-9184-1880DD4AC1B5}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{7D97D33E-D881-4370-94B1-B2657979E791}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{449FDE9D-1D5A-4112-AD46-5B80BED50DF0}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{ADA3C66C-0BD3-4AFC-81BB-020031069124}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{51678CC5-25C0-44D7-8FF2-DD7A83FD63FC}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{AE74743B-3BD1-4D39-A1FF-3CA95256CEE4}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{76EE473A-70C1-4B7B-ACA0-5DD63C312398}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{7B3EAF48-908A-4111-BAA3-8BF6E06A0531}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{044DB1BA-D387-4A56-9C9E-80295BC1940C}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{BF153E8F-BD50-4ACB-B45D-4FBF00C24791}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{AB06CE85-81AB-4CCB-8E6A-355FC36928A4}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{1A1423EF-F712-427B-8984-6546FEB07DF8}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{7B8B3E4D-302E-4BB5-ABF5-438AEBE68E42}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{7A70B444-1A8B-4026-A964-EC04E0230CDC}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{91BFD681-8965-4122-AB37-67F971FE7279}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{33D5548A-955B-4931-BEB7-042A5318717A}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{ADC4BA56-02C4-4661-B057-E391BA04B3C1}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{60F9F98E-1790-45D8-BEF0-AE9F876F8978}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{B6073B0B-54A5-4D16-8175-4EC6B4764D03}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{354112CA-6B4A-4939-B081-1D80F70D0A21}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{EFF445D8-E1AB-4FC9-AA3F-9ECF2B675530}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{DF5F43CF-B0AF-43DB-8A1D-EF9483D5B6A3}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{B4EA4E8A-8137-4F05-A6A5-5A3AAB93C424}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{F9ED2D81-0F44-4950-83D7-C4B63154BF4A}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{9792DEB3-8652-4976-95A7-FCE3EC755CA7}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{9C7C1D6A-52B1-4679-A7C6-ADEB4E1E4408}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{D39A57EE-655D-4FC9-B8F8-099210C53BEC}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{164C530F-E4D7-45D8-A4A7-015E8E928323}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{658C1A0D-2E94-4D71-8635-380E0E564050}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{CEDA1039-B799-4A1B-AEC8-09F73A315A85}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{F258879E-090E-4A83-B28E-4406D2A26115}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{59567A91-602E-49D0-AAE8-C2DCF8FE591F}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{B2B3AD8E-1C46-47DB-8B07-2D109859A8A8}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{DFC63B5E-1235-4332-B402-8B3D249D536F}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{9F3A04FB-B6CD-4271-9253-DAC0A8E5C719}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{43810B25-444E-4FD4-9CCE-8156EDEF44FF}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{A326C13C-9938-4CDC-ABCE-F8FC4100F869}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{76BD5C29-8045-42DC-AE2A-15C0D7F56366}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{A06CBBDF-6D34-48C0-9BBD-C88DB3B6675B}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{DA4701BE-15CA-4AD6-BDB4-4F1F8EC12BE9}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{B41F4511-F630-4796-B70C-F9EB7C9A706F}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{DFDE561C-DCF1-471B-9236-3C0DD1CAB21D}"/>
-    <hyperlink ref="B310" r:id="rId280" xr:uid="{DACF66DF-A2C2-428A-8E99-115491AAD982}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{BB2F3650-58AB-4810-B67F-18ECD5EBFC9A}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{E11F2A77-451D-4C37-9B2A-D28540298907}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{C108F453-1ED5-4ED4-AF2C-A00EDE4CE077}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{26A6AA42-6432-479E-9C2D-B8FA5AB81571}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{DC78BB11-D556-4C4A-A480-3FFBA82E2812}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{3BC40F87-E2A5-4DAE-A7B5-09FA6CA07EE4}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{7851A8A9-FACF-42B2-85BF-546F0F8C4A5A}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{3558D57F-21FC-4E4E-BD79-A518CB52E573}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{14A3F7E3-DBC7-4A00-8CA0-2DEF7972322F}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{E6185847-8057-465A-953A-CF4CD6C22665}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{C641ABB9-B494-4277-9509-D484521202CB}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{7B0A906F-EEC6-4D70-AE5C-AFFD5279D0DC}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{EEAC8E5D-0A19-450F-9980-CD83FB2D97E0}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{BD32104A-8FDD-4131-8F5B-5FB80DA6F595}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{67FE3739-5E7E-41F3-A441-428171453CA8}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{9C37E53D-6882-4D1E-AFA5-BD2760C52A58}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{E76926BB-67C0-4F32-9785-F296E79F2C91}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{1709DA48-B334-4481-A4FD-81608B93F5BC}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{D6462509-5DF8-42A9-948A-3B296933442C}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{9946DE7E-0D9E-4EC0-897A-F4B9C17D321D}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{22F8B172-26DA-4A02-AB09-7DD320EEA471}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{57776CF3-23F7-40C8-9D4C-3F47B274679C}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{120567A3-0173-4A04-941B-BFAE1D3E9EB7}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{8435C7C3-1E2F-4BBD-9126-B71254E05F66}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{4AD502F1-8D31-4A2F-8BFC-75DA3D3AAD32}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{1FAE818A-E468-4F11-A39F-C3C298284D16}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{F418E38C-4E08-412C-8AEC-E96270F3A391}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{53CF7C02-ADF7-4053-9851-A782B3E8C181}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{96318CEF-6F18-4762-9EA5-FFD4F4190E7D}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{7F25A75A-5AE0-49E9-BA03-39153766483C}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{D99C6DFC-7D25-4947-A577-28C05E8B0292}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{E26A697F-37CD-4345-B81F-A730561924BE}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{51651582-8B3A-4199-8722-B167324569FB}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{69013552-3700-483D-AEBB-53E4D8E334E7}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{85AF3204-51CD-4537-B380-1BF7F01A83FE}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{5C0F08B8-1FCD-4264-A1A5-172260584540}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{272675BE-7932-487B-8333-817BE8F76032}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{AE079510-6241-4980-8EF5-58D941875BEF}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{92C9FBBE-3D67-49B2-A308-D5EED5C816B6}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{C1B5193F-E1A5-4BFD-9C9F-0C27282AA795}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{76D0FADA-1AEE-43FD-A9DF-CB71C430829F}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{5C21188A-384E-4BD3-99F2-E26A7DFE0282}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{1FB80B99-9F11-4476-BFE0-845BFD0EBBB2}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{769FEA46-D015-4D7D-85BA-5FD1903F7ABE}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{26ADF5FA-F979-43EE-860F-AE67DCACC848}"/>
-    <hyperlink ref="B356" r:id="rId326" xr:uid="{1E3B1E19-5C23-49B7-8A1C-EF459FC0B2BD}"/>
-    <hyperlink ref="B357" r:id="rId327" xr:uid="{1D7B00D6-D330-4F81-8B4B-5C9AAE6FAFDD}"/>
-    <hyperlink ref="B358" r:id="rId328" xr:uid="{89BD76B0-42A9-499D-8A0A-CE7DB131EE20}"/>
-    <hyperlink ref="B359" r:id="rId329" xr:uid="{70F5B91D-AEEA-45CC-B624-A4BEEE78C030}"/>
-    <hyperlink ref="B360" r:id="rId330" xr:uid="{E242C245-7D9A-4E63-A818-826CEB3EF1D3}"/>
-    <hyperlink ref="B361" r:id="rId331" xr:uid="{0097C2FB-62B7-4777-AC64-ACF4451447D2}"/>
-    <hyperlink ref="B362" r:id="rId332" xr:uid="{DA361898-C258-4AC1-9535-6DCD788C271C}"/>
-    <hyperlink ref="B363" r:id="rId333" xr:uid="{7460EB80-D508-4A1C-92CB-A6BAB9428014}"/>
-    <hyperlink ref="B364" r:id="rId334" xr:uid="{94FF2316-7800-4640-B83F-BE15EC6F6412}"/>
-    <hyperlink ref="B365" r:id="rId335" xr:uid="{5DD66B20-8CA6-4D7E-8357-145C3AF964F1}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{13481F5A-D90C-4895-A5D1-5B7C8766E73E}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{6423BB0D-4D08-4735-9570-614FE476D84A}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{1BCE8E36-C2C0-4BCE-8477-C19795ECC964}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{5F77925A-53D1-4649-B1CE-B8411DF99C62}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{5C29D468-62D0-4BCE-97AE-8863B86D393A}"/>
-    <hyperlink ref="B366" r:id="rId341" xr:uid="{9FB1D5A4-3485-4457-A616-FFA1520F599E}"/>
-    <hyperlink ref="B372" r:id="rId342" xr:uid="{6956D1A6-4DCA-43F1-94DB-A2BD8E4A2705}"/>
-    <hyperlink ref="B373" r:id="rId343" xr:uid="{3BB60EFF-430D-4606-B712-7B5F5B06765D}"/>
-    <hyperlink ref="B374" r:id="rId344" xr:uid="{B75B464D-55DF-47FE-B5C9-68D357A61509}"/>
-    <hyperlink ref="B375" r:id="rId345" xr:uid="{819CAFE5-CD3D-4E1C-B64C-F071D2E9AFC1}"/>
-    <hyperlink ref="B376" r:id="rId346" xr:uid="{E6DC4309-A1CF-498D-ACD4-2C906CF80228}"/>
-    <hyperlink ref="B377" r:id="rId347" xr:uid="{0E80CFC1-1E22-4D0D-A733-595A882637E1}"/>
-    <hyperlink ref="B378" r:id="rId348" xr:uid="{9D316EED-B45A-443C-8E88-FFD99A9F32A4}"/>
-    <hyperlink ref="B379" r:id="rId349" xr:uid="{AF43BD8B-6ED8-4491-8C83-7FFE1F1E2308}"/>
-    <hyperlink ref="B380" r:id="rId350" xr:uid="{67449784-9FAF-4696-99A0-55C282CBFC54}"/>
-    <hyperlink ref="B381" r:id="rId351" xr:uid="{0AFB0856-E940-4D2B-9888-A630EF0DA187}"/>
-    <hyperlink ref="B382" r:id="rId352" xr:uid="{49022FC4-F84A-49D9-901C-5DE23185C107}"/>
-    <hyperlink ref="B383" r:id="rId353" xr:uid="{C313DA53-006D-4348-9DB0-E5CEA880051A}"/>
-    <hyperlink ref="B384" r:id="rId354" xr:uid="{8D20A744-57F9-4DA1-B74E-CB557338579F}"/>
-    <hyperlink ref="B385" r:id="rId355" xr:uid="{25EB5C90-EBCA-493F-959D-C4E4499DD8F4}"/>
-    <hyperlink ref="B386" r:id="rId356" xr:uid="{DF302806-A347-4706-B764-46551D8C6D9D}"/>
-    <hyperlink ref="B387" r:id="rId357" xr:uid="{01521FE8-F50B-42CB-B7E7-0AA4929BB2AA}"/>
-    <hyperlink ref="B388" r:id="rId358" xr:uid="{EFC913C3-C51C-4138-AC9B-24942AD2B34D}"/>
-    <hyperlink ref="B389" r:id="rId359" xr:uid="{3C3164A5-AC13-4DB3-B92B-0C642B6D964B}"/>
-    <hyperlink ref="B390" r:id="rId360" xr:uid="{1B10DE4E-79E8-430A-962F-6D29873510E0}"/>
-    <hyperlink ref="B391" r:id="rId361" xr:uid="{0AE673EF-BA24-4C14-A529-DEBA79FC97A1}"/>
-    <hyperlink ref="B392" r:id="rId362" xr:uid="{A0B52781-DDC9-42E8-9D25-3F3C41FC6F13}"/>
-    <hyperlink ref="B393" r:id="rId363" xr:uid="{3277C89A-B2B4-4E04-955E-CC12BC0ED64A}"/>
-    <hyperlink ref="B394" r:id="rId364" xr:uid="{01207FA3-9790-467D-8835-3A79FCE9EFDA}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{1A62F87C-2FB7-4D5C-ADA0-FFDF978571F6}"/>
-    <hyperlink ref="B396" r:id="rId366" xr:uid="{E6D141E4-F965-49CC-B5D1-D79FABB63DE7}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{C3A80940-B856-4666-B231-9137343B8649}"/>
-    <hyperlink ref="B398" r:id="rId368" xr:uid="{3A0B0791-522A-4684-86D3-BE5925DE61DC}"/>
-    <hyperlink ref="B399" r:id="rId369" xr:uid="{09C641BA-0FC2-4257-8829-CE417A003FE3}"/>
-    <hyperlink ref="B400" r:id="rId370" xr:uid="{22ED6A19-8315-48FB-8EE8-C00DA324291C}"/>
-    <hyperlink ref="B401" r:id="rId371" xr:uid="{12F3603F-0659-482E-A332-E0E3E731A483}"/>
-    <hyperlink ref="B402" r:id="rId372" xr:uid="{44DB041F-5781-4B86-A440-F6C755807DEF}"/>
-    <hyperlink ref="B403" r:id="rId373" xr:uid="{EE55F455-6C65-4568-ABB9-368BD1ED7A63}"/>
-    <hyperlink ref="B404" r:id="rId374" xr:uid="{60DB4E55-71C2-4D5F-A32A-8D27A912613B}"/>
-    <hyperlink ref="B405" r:id="rId375" xr:uid="{2C31B50C-EFE2-454E-B3C0-AE5A90CCFAA0}"/>
-    <hyperlink ref="B406" r:id="rId376" xr:uid="{64329CF6-52B4-4D8D-BB2D-B42EC6FC3BD6}"/>
-    <hyperlink ref="B407" r:id="rId377" xr:uid="{0709C19E-35BA-49E8-B153-C26C32B147EB}"/>
-    <hyperlink ref="B408" r:id="rId378" xr:uid="{8B9E1A61-884D-4443-9D93-8E3DC26A77B9}"/>
-    <hyperlink ref="B409" r:id="rId379" xr:uid="{CBCA1466-3C6D-40E8-95EA-26CBDEE16D56}"/>
-    <hyperlink ref="B410" r:id="rId380" xr:uid="{5A3EB33A-6A3A-46C0-91AF-CE7D773B1528}"/>
-    <hyperlink ref="B411" r:id="rId381" xr:uid="{89ABA2C2-9B8D-460E-962D-E0EFDBD949A1}"/>
-    <hyperlink ref="B412" r:id="rId382" xr:uid="{F2C9139E-96D1-42CF-92F6-85BC7712B1AD}"/>
-    <hyperlink ref="B413" r:id="rId383" xr:uid="{C73DE8FE-1FAF-4D8B-B8E7-82F721E3954F}"/>
-    <hyperlink ref="B414" r:id="rId384" xr:uid="{65A90430-1D01-415F-94AD-732EE012F02C}"/>
-    <hyperlink ref="B415" r:id="rId385" xr:uid="{673019C3-B7F2-4E81-9862-8CB5BB64BE88}"/>
-    <hyperlink ref="B416" r:id="rId386" xr:uid="{EB003483-BBE0-4C91-8097-1412334A701F}"/>
-    <hyperlink ref="B417" r:id="rId387" xr:uid="{B4F41DEF-648D-4F4B-9F00-D4CF2494DD7F}"/>
-    <hyperlink ref="B431" r:id="rId388" xr:uid="{D49A7BA4-8423-4219-9FE2-9AF4C0FDDDA3}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{89DDA529-6EA4-4BF1-93A8-DB4E241A0B70}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{85AEB016-7853-4A99-882B-830B329F6CD2}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{69B290D0-8962-4A7D-A8E1-0B9CB3626D71}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{C5C0DC25-1B0F-4925-A13E-ED7095C48843}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{2A357499-7E92-412A-B2B4-EFE097FF111F}"/>
-    <hyperlink ref="B425" r:id="rId394" xr:uid="{DA952EA0-E71D-4194-8623-47FD2F247B66}"/>
-    <hyperlink ref="B424" r:id="rId395" xr:uid="{A66A2EB8-D307-436C-B646-4F24FEABDF8E}"/>
-    <hyperlink ref="B423" r:id="rId396" xr:uid="{3DC293DE-2C53-4AA1-9E3B-B09A7D5FAAA6}"/>
-    <hyperlink ref="B422" r:id="rId397" xr:uid="{23A29341-AFDC-4ECE-9EC3-504A90F217C3}"/>
-    <hyperlink ref="B421" r:id="rId398" xr:uid="{E3E336DE-D572-4BFC-8BF6-A69C51CD6714}"/>
-    <hyperlink ref="B420" r:id="rId399" xr:uid="{B1DA7C5C-8BEC-44C3-954F-169F27D2A9A9}"/>
-    <hyperlink ref="B419" r:id="rId400" xr:uid="{6071E766-E6F6-44D3-ACDE-C4B5330EE4D7}"/>
-    <hyperlink ref="B418" r:id="rId401" xr:uid="{F1D20924-6D83-4A80-9B1C-B6D3D09CFDBC}"/>
-    <hyperlink ref="B432" r:id="rId402" xr:uid="{B005A711-675E-437B-9ABD-51A14AA1E899}"/>
-    <hyperlink ref="B433" r:id="rId403" xr:uid="{D99CCDDE-9882-405B-9C55-343E7F8BA2C4}"/>
-    <hyperlink ref="B434" r:id="rId404" xr:uid="{889DCE82-499D-4ADF-89BA-658241D9B7C2}"/>
-    <hyperlink ref="B435" r:id="rId405" xr:uid="{D0CE5578-4BF2-405B-9153-0D2F9E7DEEA0}"/>
-    <hyperlink ref="B436" r:id="rId406" xr:uid="{4EB2EFE7-596F-445C-9840-76D2B2A62D10}"/>
-    <hyperlink ref="B437" r:id="rId407" xr:uid="{E2DCE13C-664B-4C32-B836-CD08B305FAB7}"/>
-    <hyperlink ref="B438" r:id="rId408" xr:uid="{03D4B96C-09B0-4F3A-85C6-44CE9CF713C7}"/>
-    <hyperlink ref="B463" r:id="rId409" xr:uid="{C26512A0-5E79-42DF-B705-4CC64B71626C}"/>
-    <hyperlink ref="B462" r:id="rId410" xr:uid="{F3D8868A-2B49-4F90-9D9B-7733346C3FF8}"/>
-    <hyperlink ref="B461" r:id="rId411" xr:uid="{FF71025F-C5F5-4EBC-9DB6-34B4055D20CC}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{11F7B945-B6D6-4755-8A24-8A27E735225F}"/>
-    <hyperlink ref="B459" r:id="rId413" xr:uid="{C855BC7C-5B52-452D-B16C-2AFD3F4C8345}"/>
-    <hyperlink ref="B458" r:id="rId414" xr:uid="{4510ADB7-81E6-4772-80D3-D4C03E4831AA}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{CBA30E3F-9FFB-4AA2-A6A3-F3E617521D08}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{BEB8A44F-1ED5-478E-A450-7DC41B7FE597}"/>
-    <hyperlink ref="B455" r:id="rId417" xr:uid="{B33E8802-E938-4AAE-88F6-048B1C633BF1}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{636A6295-6EAB-46A1-BB0D-32D72621BAFE}"/>
-    <hyperlink ref="B453" r:id="rId419" xr:uid="{AE82CE47-9BFB-49B8-BA31-F194DE43EC56}"/>
-    <hyperlink ref="B452" r:id="rId420" xr:uid="{CC1218D2-00DF-4771-B2AE-1A3713E8F17E}"/>
-    <hyperlink ref="B451" r:id="rId421" xr:uid="{84597E81-23ED-435B-AD26-5BA7A86F39FB}"/>
-    <hyperlink ref="B450" r:id="rId422" xr:uid="{8BF6713E-FCE5-432F-98D3-2258FE151107}"/>
-    <hyperlink ref="B449" r:id="rId423" xr:uid="{43ECB780-F1BF-402C-8F8F-96B1D63805DC}"/>
-    <hyperlink ref="B448" r:id="rId424" xr:uid="{FFA59C30-6403-4875-B987-8DD9E4BA9676}"/>
-    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{7F46C7DB-42C5-4AE8-B19D-8E393638A87F}"/>
-    <hyperlink ref="B446" r:id="rId426" xr:uid="{FB7862FF-CDAD-4A58-B2C6-59B9D6641CEF}"/>
-    <hyperlink ref="B445" r:id="rId427" xr:uid="{4041ECCB-6180-4CD5-947D-746103B8581E}"/>
-    <hyperlink ref="B444" r:id="rId428" xr:uid="{221103A5-EB62-4FE2-872C-D11DD2EEBD6A}"/>
-    <hyperlink ref="B443" r:id="rId429" xr:uid="{3EE0D52C-837F-448C-B2BD-988D9881182A}"/>
-    <hyperlink ref="B442" r:id="rId430" xr:uid="{03961DB2-1774-40A0-92A4-AE05FBA90919}"/>
-    <hyperlink ref="B441" r:id="rId431" xr:uid="{C3EC4385-7A6A-48AF-95A2-741153052F4A}"/>
-    <hyperlink ref="B440" r:id="rId432" xr:uid="{1935A002-FC59-4002-9B62-09ADAB47E8BA}"/>
-    <hyperlink ref="B439" r:id="rId433" xr:uid="{B454CDF6-6F84-46DD-83D9-C10DA09148FA}"/>
-    <hyperlink ref="B511" r:id="rId434" xr:uid="{B3AB8268-AA3C-4FB0-9AF5-414BCC357697}"/>
-    <hyperlink ref="B510" r:id="rId435" xr:uid="{54E1A62A-7257-468C-8813-4663E030AA75}"/>
-    <hyperlink ref="B509" r:id="rId436" xr:uid="{8A25BE78-4CC7-43F6-8BEE-D90CA5DCB3CA}"/>
-    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{536362DA-212E-45FE-AE08-F7A1E692A24B}"/>
-    <hyperlink ref="B507" r:id="rId438" xr:uid="{A3A018E3-EDA5-458E-9B61-020774FB5A49}"/>
-    <hyperlink ref="B506" r:id="rId439" xr:uid="{1FFB16AB-A44C-40AE-898B-81545274CF18}"/>
-    <hyperlink ref="B504" r:id="rId440" xr:uid="{FA92366C-6CAF-49D0-AE99-D89E06CA8A1E}"/>
-    <hyperlink ref="B503" r:id="rId441" xr:uid="{5DEC8FFD-5B59-4CB3-AD0B-849F8470E5F1}"/>
-    <hyperlink ref="B502" r:id="rId442" xr:uid="{DD736CE7-8871-45A1-BD58-524AB12AF8F5}"/>
-    <hyperlink ref="B501" r:id="rId443" xr:uid="{C5E9D5D9-0BD7-4189-85C6-757E337D072F}"/>
-    <hyperlink ref="B500" r:id="rId444" xr:uid="{A93F37F4-EFA3-4C99-A63D-D7C1731967B0}"/>
-    <hyperlink ref="B499" r:id="rId445" xr:uid="{3519949B-299E-42CE-ACCA-83C91F80A114}"/>
-    <hyperlink ref="B498" r:id="rId446" xr:uid="{0A5C6FFF-890F-4610-97BA-412EACBCE1B3}"/>
-    <hyperlink ref="B497" r:id="rId447" xr:uid="{7396F5EC-52E4-4CD3-822D-BF0DD377520D}"/>
-    <hyperlink ref="B496" r:id="rId448" xr:uid="{A6FB9EDF-99DA-409D-AA7A-27E4D5BF0EB6}"/>
-    <hyperlink ref="B495" r:id="rId449" xr:uid="{DFF1D1BC-E749-403E-A113-96D9DB46BAA9}"/>
-    <hyperlink ref="B494" r:id="rId450" xr:uid="{9326C8AD-887B-4852-8888-7B4712DFB936}"/>
-    <hyperlink ref="B493" r:id="rId451" xr:uid="{B9F3E2C6-3D38-4A51-8C03-D7697B412BD0}"/>
-    <hyperlink ref="B492" r:id="rId452" xr:uid="{45C0180B-F9D8-4325-9ED6-434C9CDB900C}"/>
-    <hyperlink ref="B491" r:id="rId453" xr:uid="{CD5365BF-85E2-4FBF-B2A1-3F652887B0DA}"/>
-    <hyperlink ref="B490" r:id="rId454" xr:uid="{9465C704-F21C-4B11-BA3E-F108B527191C}"/>
-    <hyperlink ref="B489" r:id="rId455" xr:uid="{E797A524-8B35-47FB-B4E4-2246E0ACE40E}"/>
-    <hyperlink ref="B488" r:id="rId456" xr:uid="{9C34BC06-CC36-4844-BFF5-1DE59D794CA7}"/>
-    <hyperlink ref="B487" r:id="rId457" xr:uid="{ECEB8631-A380-46C0-9B85-7EED12FC8F80}"/>
-    <hyperlink ref="B486" r:id="rId458" xr:uid="{FB6435B4-EB1C-4916-BBA3-575230F06E39}"/>
-    <hyperlink ref="B485" r:id="rId459" xr:uid="{20134F63-8419-45B3-B4CD-4518E081C490}"/>
-    <hyperlink ref="B484" r:id="rId460" xr:uid="{C436B870-B0F5-445C-A302-06627147F3A8}"/>
-    <hyperlink ref="B483" r:id="rId461" xr:uid="{8A755B68-F2D8-42C7-BCA3-2E69BD5E6FB5}"/>
-    <hyperlink ref="B482" r:id="rId462" xr:uid="{A7E36DE7-88D1-44C1-9839-9680DC1F222C}"/>
-    <hyperlink ref="B481" r:id="rId463" xr:uid="{2E72616F-2694-462A-A857-7D72B5BF01EB}"/>
-    <hyperlink ref="B480" r:id="rId464" xr:uid="{63665A9B-EE52-4CC4-A905-9E202A3B4A7E}"/>
-    <hyperlink ref="B479" r:id="rId465" xr:uid="{3DF4DFC6-A357-4B69-879B-3200D5102F1B}"/>
-    <hyperlink ref="B478" r:id="rId466" xr:uid="{EB123BD7-24C5-429F-BCF4-8F24FEF7C5E8}"/>
-    <hyperlink ref="B477" r:id="rId467" xr:uid="{F911C79A-D360-4FD4-9BF7-FD1704B22366}"/>
-    <hyperlink ref="B476" r:id="rId468" xr:uid="{1BFBEC9C-C34A-49DB-9547-D9573176BBAE}"/>
-    <hyperlink ref="B474" r:id="rId469" xr:uid="{0734191C-168B-40B5-A890-FD9163CBA076}"/>
-    <hyperlink ref="B469" r:id="rId470" xr:uid="{CFDF4BAF-E2F9-4643-8377-D07951E9701C}"/>
-    <hyperlink ref="B475" r:id="rId471" xr:uid="{4566E80F-1666-4FBF-B174-701572F6D2F1}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{ECF5529B-8884-4266-9C08-781F529E1ED5}"/>
-    <hyperlink ref="B472" r:id="rId473" xr:uid="{400A9343-5D08-4DE3-8967-6634FE8E089C}"/>
-    <hyperlink ref="B471" r:id="rId474" xr:uid="{20707212-9252-4AF9-836E-97FD5A1EC961}"/>
-    <hyperlink ref="B470" r:id="rId475" xr:uid="{170B22F1-5737-47C2-B128-6332B898EF9A}"/>
-    <hyperlink ref="B468" r:id="rId476" xr:uid="{E8884F21-4BE4-4424-A23D-AE9387758CF8}"/>
-    <hyperlink ref="B467" r:id="rId477" xr:uid="{6ABDAF92-9795-4FE2-B03D-BBE6B2282AFA}"/>
-    <hyperlink ref="B466" r:id="rId478" xr:uid="{14534D5F-25AC-4DF0-BD91-B513DF5FECAE}"/>
-    <hyperlink ref="B465" r:id="rId479" xr:uid="{E43E8D7A-B72E-45C6-A04C-E7D748BB0331}"/>
-    <hyperlink ref="B464" r:id="rId480" xr:uid="{F5A6EC02-3DEF-40C2-895B-8447A3A77AAC}"/>
-    <hyperlink ref="B537" r:id="rId481" xr:uid="{C9D9DFDB-5210-4A02-9663-CAC555F637BB}"/>
-    <hyperlink ref="B536" r:id="rId482" xr:uid="{68777676-C7F9-4465-B9A8-FFF56576B17B}"/>
-    <hyperlink ref="B535" r:id="rId483" xr:uid="{EE0A62E1-ED22-42A3-A5A2-3EE7E3E146CC}"/>
-    <hyperlink ref="B534" r:id="rId484" xr:uid="{A9880A30-930F-45ED-8AC6-DF0955ED2650}"/>
-    <hyperlink ref="B533" r:id="rId485" xr:uid="{63F68152-2FAA-4E07-8427-7C4A8ED78640}"/>
-    <hyperlink ref="B532" r:id="rId486" xr:uid="{B2552314-EE4B-4575-B787-96A4955230DF}"/>
-    <hyperlink ref="B531" r:id="rId487" xr:uid="{536C3C57-651C-43F3-882A-CB9CA0A4B22A}"/>
-    <hyperlink ref="B530" r:id="rId488" xr:uid="{6342019A-B423-4E66-931D-AF8EA6C3848F}"/>
-    <hyperlink ref="B529" r:id="rId489" xr:uid="{FEA85114-CFAD-45DB-909C-382BA58EC2DF}"/>
-    <hyperlink ref="B528" r:id="rId490" xr:uid="{BEBECB07-D1FE-4A36-8168-42635F47CE59}"/>
-    <hyperlink ref="B527" r:id="rId491" xr:uid="{B7CFFF76-809A-4594-828D-9CBEA392823F}"/>
-    <hyperlink ref="B524" r:id="rId492" xr:uid="{60EFFCEF-98E4-4101-82E0-95C464259895}"/>
-    <hyperlink ref="B523" r:id="rId493" xr:uid="{5F61A0B6-D1A9-428C-8FED-1951FF3F1A75}"/>
-    <hyperlink ref="B522" r:id="rId494" xr:uid="{DDF82216-41D3-4777-901C-01FF9F3BA092}"/>
-    <hyperlink ref="B521" r:id="rId495" xr:uid="{4C6B722C-2C7D-4E5F-9104-EED4D3A003E9}"/>
-    <hyperlink ref="B520" r:id="rId496" xr:uid="{9B4282DF-4F65-4EA2-A368-8F475B4990BE}"/>
-    <hyperlink ref="B519" r:id="rId497" xr:uid="{6EE95FBD-822F-4E11-AED5-CDF1969F271B}"/>
-    <hyperlink ref="B518" r:id="rId498" xr:uid="{5D90D1F4-4B41-4041-AC59-6214B0657686}"/>
-    <hyperlink ref="B517" r:id="rId499" xr:uid="{D413AC26-00B7-4225-A39B-962749CFA629}"/>
-    <hyperlink ref="B516" r:id="rId500" xr:uid="{2DCCA629-A137-4B5E-81DD-25ED5B1C74CF}"/>
-    <hyperlink ref="B515" r:id="rId501" xr:uid="{B6D36473-61B7-4124-A4B0-D8389EE32B3D}"/>
-    <hyperlink ref="B514" r:id="rId502" xr:uid="{A5FEEC0A-761F-4F35-A3DA-EE7B72417587}"/>
-    <hyperlink ref="B513" r:id="rId503" xr:uid="{4C8118F8-5CB8-479C-A0DC-FA5DD9B27FF4}"/>
-    <hyperlink ref="B512" r:id="rId504" xr:uid="{F56B48D9-4741-4159-AD16-D03AA17867F7}"/>
-    <hyperlink ref="B525" r:id="rId505" xr:uid="{46214824-E9AE-428C-94F9-358BCBD79B57}"/>
-    <hyperlink ref="B526" r:id="rId506" xr:uid="{E585D007-47DC-4BAC-8C6D-6D2BE6671E47}"/>
-    <hyperlink ref="B566" r:id="rId507" xr:uid="{5CEFD63D-2B65-41A2-8E60-6665828DD522}"/>
-    <hyperlink ref="B565" r:id="rId508" xr:uid="{7816C1C0-4079-4633-BA94-443FD1EFDD6A}"/>
-    <hyperlink ref="B564" r:id="rId509" xr:uid="{87332566-437D-417C-A42D-859836DDA997}"/>
-    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{6CE5C6B2-5699-4FAC-9598-ED8D1646776F}"/>
-    <hyperlink ref="B562" r:id="rId511" xr:uid="{3E44FDC2-BAFD-43FC-B0EE-B404336EEE69}"/>
-    <hyperlink ref="B561" r:id="rId512" xr:uid="{4FCE380F-A0DE-4452-B6CE-BB9EBE8BB074}"/>
-    <hyperlink ref="B560" r:id="rId513" xr:uid="{A3379F8E-216F-4B70-8175-797DB02B70E7}"/>
-    <hyperlink ref="B559" r:id="rId514" xr:uid="{6AE896CD-8AB0-41D4-AA38-4EC070E40347}"/>
-    <hyperlink ref="B558" r:id="rId515" xr:uid="{5CA2D036-1812-4598-B8E4-46AB54C11643}"/>
-    <hyperlink ref="B557" r:id="rId516" xr:uid="{72AC2095-E376-43AC-80C7-23D0F1227D60}"/>
-    <hyperlink ref="B556" r:id="rId517" xr:uid="{191A0FB1-D4F9-4A62-BC04-834D079AB4EC}"/>
-    <hyperlink ref="B555" r:id="rId518" xr:uid="{86D4DA38-0205-4108-A0C6-4E8AE4537E7E}"/>
-    <hyperlink ref="B554" r:id="rId519" xr:uid="{BF10D186-7A21-4963-8541-40524478BC40}"/>
-    <hyperlink ref="B553" r:id="rId520" xr:uid="{BAF10B03-3503-4E5D-B22F-A087DF95C54F}"/>
-    <hyperlink ref="B552" r:id="rId521" xr:uid="{1AFB01D9-9687-480D-BDA1-B0A8B34BDD0B}"/>
-    <hyperlink ref="B551" r:id="rId522" xr:uid="{3A11B3A1-B086-489C-8FA7-5F6DE91E3FF9}"/>
-    <hyperlink ref="B550" r:id="rId523" xr:uid="{605C0EBE-CB11-4486-9547-EEAA0D1D14C7}"/>
-    <hyperlink ref="B549" r:id="rId524" xr:uid="{910535CC-9DB0-47CB-B14B-83FC42508544}"/>
-    <hyperlink ref="B548" r:id="rId525" xr:uid="{07E04C83-0498-49DA-9546-C689C90E3CD3}"/>
-    <hyperlink ref="B547" r:id="rId526" xr:uid="{89E3C428-5915-4F5F-BB71-A17D14BC54D5}"/>
-    <hyperlink ref="B546" r:id="rId527" xr:uid="{96120135-6EE6-424D-A082-6C0E157ADC6D}"/>
-    <hyperlink ref="B545" r:id="rId528" xr:uid="{31940328-814F-4D57-BBA4-AF5B4511FF25}"/>
-    <hyperlink ref="B544" r:id="rId529" xr:uid="{40F96D04-0A08-4411-A281-089E27A9246B}"/>
-    <hyperlink ref="B543" r:id="rId530" xr:uid="{E5CF68B4-B161-4B3F-AAE6-0DB4512CC24F}"/>
-    <hyperlink ref="B542" r:id="rId531" xr:uid="{1EC56EE4-F1EC-462B-AC71-4AADCEEE7C21}"/>
-    <hyperlink ref="B541" r:id="rId532" xr:uid="{38EC2E39-D81B-46EB-99A7-33A0074FE95F}"/>
-    <hyperlink ref="B540" r:id="rId533" xr:uid="{587F07B2-6B4F-44CF-8D4C-6C3881D99403}"/>
-    <hyperlink ref="B539" r:id="rId534" xr:uid="{A0B5A799-4354-4CB2-AC97-ADA4861AB972}"/>
-    <hyperlink ref="B538" r:id="rId535" xr:uid="{179319BF-65B4-498B-82A5-258441EC2C62}"/>
-    <hyperlink ref="B575" r:id="rId536" xr:uid="{81728011-3B2C-43BA-9C6B-7DE5D282E542}"/>
-    <hyperlink ref="B574" r:id="rId537" xr:uid="{4F36A5C8-CFF0-47DE-BDC1-FD4B8B742965}"/>
-    <hyperlink ref="B573" r:id="rId538" xr:uid="{4195D76C-ED8E-4CA0-A270-4671ADEEA3AD}"/>
-    <hyperlink ref="B572" r:id="rId539" xr:uid="{6B7728C0-C191-47F6-81B4-8471954BAC35}"/>
-    <hyperlink ref="B571" r:id="rId540" xr:uid="{4902B121-163F-4DEA-BB27-19C3E142A308}"/>
-    <hyperlink ref="B570" r:id="rId541" xr:uid="{A88C94FD-BA16-4A6F-A8A2-7D3C4C3DABAC}"/>
-    <hyperlink ref="B569" r:id="rId542" xr:uid="{A5D7C282-A0E9-4DA8-B3F8-6614225AD00E}"/>
-    <hyperlink ref="B568" r:id="rId543" xr:uid="{57DDB629-FE69-4111-8DA4-9EAD149D54EE}"/>
-    <hyperlink ref="B567" r:id="rId544" xr:uid="{1D441601-CF94-41B6-8909-1EE96D4A5ECB}"/>
-    <hyperlink ref="B586" r:id="rId545" xr:uid="{4806843F-CA6C-4AEB-87AA-43844936E4EA}"/>
-    <hyperlink ref="B585" r:id="rId546" xr:uid="{EABB7777-C8EE-48B1-8439-4080C2CD149B}"/>
-    <hyperlink ref="B584" r:id="rId547" xr:uid="{37679767-300B-40AC-8CDD-223B4DE75260}"/>
-    <hyperlink ref="B583" r:id="rId548" xr:uid="{790919CD-8792-4721-8926-ED489A65578A}"/>
-    <hyperlink ref="B582" r:id="rId549" xr:uid="{3A19EC7E-E4CA-459B-911A-E191CD70DCC4}"/>
-    <hyperlink ref="B581" r:id="rId550" xr:uid="{84FE4C2B-C9C8-4574-9679-F61CB8FF4A37}"/>
-    <hyperlink ref="B580" r:id="rId551" xr:uid="{EDF060F9-3C50-4281-AE42-202834491E03}"/>
-    <hyperlink ref="B579" r:id="rId552" xr:uid="{C435C7F6-7B94-4E10-8184-836245A2A0CD}"/>
-    <hyperlink ref="B578" r:id="rId553" xr:uid="{28207A51-61BF-4BE6-83EC-D127F4C8C0E7}"/>
-    <hyperlink ref="B577" r:id="rId554" xr:uid="{194AD2E8-A0C7-4CF4-9727-75F04DAF19D4}"/>
-    <hyperlink ref="B576" r:id="rId555" xr:uid="{F3FACB3A-64E0-4D88-9165-68CFE3223AB0}"/>
-    <hyperlink ref="B587" r:id="rId556" xr:uid="{DE90E1E5-8A92-4D0B-B24A-6162DADB2168}"/>
-    <hyperlink ref="B588" r:id="rId557" xr:uid="{273BEA4A-D237-4A3E-8055-B8407382F713}"/>
-    <hyperlink ref="B589" r:id="rId558" xr:uid="{28AF4180-1627-479D-A2EB-26A490E9D192}"/>
-    <hyperlink ref="B590" r:id="rId559" xr:uid="{A1D4E395-54F3-44C9-82EE-05E2E62BC785}"/>
-    <hyperlink ref="B591" r:id="rId560" xr:uid="{8BDF0B68-5AAD-4FD9-8CB2-BFE235B1A9C0}"/>
-    <hyperlink ref="B592" r:id="rId561" xr:uid="{35817B69-C680-48B8-B338-2D85577B4BB2}"/>
-    <hyperlink ref="B593" r:id="rId562" xr:uid="{CCE51B6E-F061-40C2-AA64-5F81F2B38092}"/>
-    <hyperlink ref="B594" r:id="rId563" xr:uid="{44CEE810-8713-4254-B969-702D4808CCD5}"/>
-    <hyperlink ref="B595" r:id="rId564" xr:uid="{38E1A96F-2C61-4FEE-992F-91F1AAD40A4D}"/>
-    <hyperlink ref="B596" r:id="rId565" xr:uid="{CB707C96-AE95-40AA-A07E-F382FE152DDC}"/>
-    <hyperlink ref="B597" r:id="rId566" xr:uid="{8275FE83-F21A-4BE7-8694-8D0FD0895002}"/>
-    <hyperlink ref="B598" r:id="rId567" xr:uid="{3C465492-118D-4620-AA15-EA583AFF1518}"/>
-    <hyperlink ref="B599" r:id="rId568" xr:uid="{67A98F49-7D4D-48CE-8602-5284F182E1C0}"/>
-    <hyperlink ref="B600" r:id="rId569" xr:uid="{9CA5B677-B93B-4183-AE94-52A6F58B79A0}"/>
-    <hyperlink ref="B601" r:id="rId570" xr:uid="{4CB9B758-8693-4598-9A93-32027BBFE2BE}"/>
-    <hyperlink ref="B602" r:id="rId571" xr:uid="{90D7798F-2262-4203-ACE7-B84A9B16E68A}"/>
-    <hyperlink ref="B603" r:id="rId572" xr:uid="{B7FBBDD9-95FA-400F-820E-745007F4CF33}"/>
-    <hyperlink ref="B604" r:id="rId573" xr:uid="{DC12298B-96DA-4B58-9925-98B81AA188FB}"/>
-    <hyperlink ref="B605" r:id="rId574" xr:uid="{FBE050AD-6508-48A7-80B1-03C8C5F5547A}"/>
-    <hyperlink ref="B606" r:id="rId575" xr:uid="{E24C38D4-46DF-491F-B266-5C9824FE9A8F}"/>
-    <hyperlink ref="B607" r:id="rId576" xr:uid="{9A2F2A7A-B02A-439F-A2C4-411F3FA74BA3}"/>
-    <hyperlink ref="B608" r:id="rId577" xr:uid="{D5266B6F-A83F-4914-ACF6-5C1BCA1EDDFE}"/>
-    <hyperlink ref="B609" r:id="rId578" xr:uid="{5A2BD480-8646-4A02-B38F-A767C84F34A4}"/>
-    <hyperlink ref="B610" r:id="rId579" xr:uid="{96342A83-07F6-444D-BE63-E41E3F31F5C0}"/>
-    <hyperlink ref="B612" r:id="rId580" xr:uid="{71A1B0B5-55F7-438C-BC99-929DD1F6F413}"/>
-    <hyperlink ref="B613" r:id="rId581" xr:uid="{43A041FE-D79C-4C97-8C76-6AC06D525AD3}"/>
-    <hyperlink ref="B614" r:id="rId582" xr:uid="{F77AB363-CB68-4AE4-B6E9-75D81D6D7701}"/>
-    <hyperlink ref="B615" r:id="rId583" xr:uid="{08DE4C63-1F89-4401-B15E-73444F1298AC}"/>
-    <hyperlink ref="B618" r:id="rId584" xr:uid="{AEF618D2-FE80-4A26-8B34-828F84ED9A8D}"/>
-    <hyperlink ref="B619" r:id="rId585" xr:uid="{7F749F3B-3C99-4DA4-9945-1F891555302F}"/>
-    <hyperlink ref="B620" r:id="rId586" xr:uid="{C4D01C96-CB2A-4595-AE01-FA447669356E}"/>
-    <hyperlink ref="B621" r:id="rId587" xr:uid="{0BF9C329-7A29-4453-A858-61A766B3F023}"/>
-    <hyperlink ref="B622" r:id="rId588" xr:uid="{D19EF8AC-9DAE-4FAE-9A31-BAE308663DB4}"/>
-    <hyperlink ref="B623" r:id="rId589" xr:uid="{6F431C5A-65D2-441C-8724-E5400CD6230F}"/>
-    <hyperlink ref="B624" r:id="rId590" xr:uid="{A8A1F18F-07D2-458D-8B3F-B33D47E1359A}"/>
-    <hyperlink ref="B625" r:id="rId591" xr:uid="{8FFB786F-9946-477A-ACC4-60284D9EEC55}"/>
-    <hyperlink ref="B626" r:id="rId592" xr:uid="{BE48E9A2-6599-480C-8DAF-7840DA6DDB76}"/>
-    <hyperlink ref="B627" r:id="rId593" xr:uid="{F03577D1-6EFB-46F8-938E-35D81FF8F0F5}"/>
-    <hyperlink ref="B628" r:id="rId594" xr:uid="{94F52AD3-7E44-435D-8ECC-9D2735C70715}"/>
-    <hyperlink ref="B629" r:id="rId595" xr:uid="{FA8E7F1F-1850-46FE-9A27-3280EBBE2E5B}"/>
-    <hyperlink ref="B630" r:id="rId596" xr:uid="{0B6F46E7-7B7F-45D2-8B4D-DCE0F148E51D}"/>
-    <hyperlink ref="B631" r:id="rId597" xr:uid="{D905E5EF-8421-4787-93AB-76E4DE33E7B9}"/>
-    <hyperlink ref="B632" r:id="rId598" xr:uid="{CD7742D5-B3DC-4D18-979A-4770317D4F1A}"/>
-    <hyperlink ref="B611" r:id="rId599" xr:uid="{C80E4FD5-CD71-4653-BE98-7D53401B9610}"/>
-    <hyperlink ref="B616" r:id="rId600" xr:uid="{390A0E08-CB26-4E30-8D93-4D47BAB9952C}"/>
-    <hyperlink ref="B617" r:id="rId601" xr:uid="{782B88AD-C9C6-46D1-8B0E-4D2A8710D644}"/>
-    <hyperlink ref="B633" r:id="rId602" xr:uid="{212522D6-542C-462C-8ED9-52D064291876}"/>
-    <hyperlink ref="B634" r:id="rId603" xr:uid="{F5056BEC-1676-4198-8856-0D22E7418ACB}"/>
-    <hyperlink ref="B635" r:id="rId604" xr:uid="{8F40CDE6-DCE9-4AD2-8BD4-6242C52D5F4C}"/>
-    <hyperlink ref="B636" r:id="rId605" xr:uid="{404B105B-9022-41B3-9878-EDEB5D4C06D3}"/>
-    <hyperlink ref="B637" r:id="rId606" xr:uid="{AC760070-B9D0-4045-A142-614B6A48F103}"/>
-    <hyperlink ref="B638" r:id="rId607" xr:uid="{FE8CDB5B-1A51-495F-B048-634B436B1C02}"/>
-    <hyperlink ref="B639" r:id="rId608" xr:uid="{C703DBA6-8AAD-414F-9A6E-CFD5BB7D1B87}"/>
-    <hyperlink ref="B640" r:id="rId609" xr:uid="{757B5512-1F33-4FA1-8BEE-2E7D727DBF34}"/>
-    <hyperlink ref="B641" r:id="rId610" xr:uid="{87FEFAC9-5580-4FD1-AC0D-69D8A00EC7BB}"/>
-    <hyperlink ref="B642" r:id="rId611" xr:uid="{02BEF0E8-5C36-46FC-9888-7F52E77C55CA}"/>
-    <hyperlink ref="B643" r:id="rId612" xr:uid="{DEBCBD54-C05C-4745-820C-6CB42EB5EAF5}"/>
-    <hyperlink ref="B644" r:id="rId613" xr:uid="{51AF2417-1FA7-4698-85D9-AB9E2B5D1E47}"/>
-    <hyperlink ref="B645" r:id="rId614" xr:uid="{BFBF8A60-865B-4A54-B765-3DD45E226E1A}"/>
-    <hyperlink ref="B646" r:id="rId615" xr:uid="{B81CB82C-6711-487E-A5C2-9E804D342359}"/>
-    <hyperlink ref="B647" r:id="rId616" xr:uid="{64572D43-726F-477A-829E-2BE252B76DC1}"/>
-    <hyperlink ref="B648" r:id="rId617" xr:uid="{72FAC5EB-E480-46FC-BA1D-CFD78674ACAB}"/>
-    <hyperlink ref="B649" r:id="rId618" xr:uid="{073B1AB2-F46F-4575-9F4F-105CA4D21559}"/>
-    <hyperlink ref="B650" r:id="rId619" xr:uid="{6CB913BF-8C95-4C63-959A-92155E26A544}"/>
-    <hyperlink ref="B651" r:id="rId620" xr:uid="{C8BA6EFD-FEE3-4305-A68B-452068E81BBC}"/>
-    <hyperlink ref="B652" r:id="rId621" xr:uid="{61B23AB1-926B-433E-9887-430B1DAFB6D7}"/>
-    <hyperlink ref="B653" r:id="rId622" xr:uid="{F6ECC8C1-2FCF-443B-921E-6567FC94A9E8}"/>
-    <hyperlink ref="B654" r:id="rId623" xr:uid="{25962E32-0363-42CE-B78A-55C19865C313}"/>
-    <hyperlink ref="B655" r:id="rId624" xr:uid="{2ECCD054-AAC2-4369-9023-99A0E7FD8937}"/>
-    <hyperlink ref="B656" r:id="rId625" xr:uid="{3DD8EB7F-44F1-42C9-8705-DC5699BA3217}"/>
-    <hyperlink ref="B657" r:id="rId626" xr:uid="{11A3443F-E957-49F8-8D77-B961F50B7E24}"/>
-    <hyperlink ref="B658" r:id="rId627" xr:uid="{8B5106C8-EF92-42AE-83B1-34647F2819B0}"/>
-    <hyperlink ref="B659" r:id="rId628" xr:uid="{5052934D-0E04-4F72-9307-3F74E4EA32BA}"/>
-    <hyperlink ref="B660" r:id="rId629" xr:uid="{EC668870-13CF-4678-BF02-8C20E8C4BEF6}"/>
-    <hyperlink ref="B661" r:id="rId630" xr:uid="{6D8BB8BF-DB90-4706-8512-D92EC8536F3D}"/>
-    <hyperlink ref="B662" r:id="rId631" xr:uid="{6D98E2DC-0FC3-49D9-9473-8D24A99F2A4D}"/>
-    <hyperlink ref="B663" r:id="rId632" xr:uid="{1D80505F-F77A-47FD-88BA-B279D5F05224}"/>
-    <hyperlink ref="B664" r:id="rId633" xr:uid="{F3F3FB21-59C8-4A6A-B4BF-2B1218688825}"/>
-    <hyperlink ref="B665" r:id="rId634" xr:uid="{F0EB13EE-7D88-4326-B196-ECEB47C8505F}"/>
-    <hyperlink ref="B666" r:id="rId635" xr:uid="{DBEF057B-7F07-4D08-9684-42AC163CA83E}"/>
-    <hyperlink ref="B667" r:id="rId636" xr:uid="{8DF400AE-FCB3-4665-A977-A4B94E9A0737}"/>
-    <hyperlink ref="B675" r:id="rId637" xr:uid="{F65C75E4-ED88-4E7A-BD47-A7058E0956D1}"/>
-    <hyperlink ref="B668" r:id="rId638" xr:uid="{947DEEEA-A70B-48AC-8F78-C3D6A1F9AA83}"/>
-    <hyperlink ref="B669" r:id="rId639" xr:uid="{B1C27CCD-8AD4-4BDA-9584-29DBF472EC98}"/>
-    <hyperlink ref="B670" r:id="rId640" xr:uid="{27AEAFD5-3A74-4942-81E3-43B73699658D}"/>
-    <hyperlink ref="B671" r:id="rId641" xr:uid="{B57A37D5-7595-4E59-AA90-2CF981F6511A}"/>
-    <hyperlink ref="B672" r:id="rId642" xr:uid="{9F301EE5-C4D5-4CB4-96DE-0D5034CF471F}"/>
-    <hyperlink ref="B673" r:id="rId643" xr:uid="{502B9756-5387-4C07-B6D8-DFB4CD743DE0}"/>
-    <hyperlink ref="B674" r:id="rId644" xr:uid="{B57BC25E-8BED-480D-B032-71BC5EF9DB0B}"/>
-    <hyperlink ref="B678" r:id="rId645" xr:uid="{3E294CED-97F4-43A5-BEF4-1C5DCD9C612E}"/>
-    <hyperlink ref="B682" r:id="rId646" xr:uid="{56266F1B-5334-44FF-81A9-589C8C853F4D}"/>
-    <hyperlink ref="B684" r:id="rId647" xr:uid="{C6D2EB0F-F5CE-4561-B10F-8C6667D96791}"/>
-    <hyperlink ref="B680" r:id="rId648" xr:uid="{22CEB1F7-F5DB-4513-995B-CC16D8014EDC}"/>
-    <hyperlink ref="B687" r:id="rId649" xr:uid="{F6B4B695-4F62-409E-AB9C-8C776B658C4B}"/>
-    <hyperlink ref="B686" r:id="rId650" xr:uid="{8077D51B-E69F-4AC4-8E38-ED25086A223F}"/>
-    <hyperlink ref="B683" r:id="rId651" xr:uid="{95404910-88E1-4522-985F-3D414DFBEAB5}"/>
-    <hyperlink ref="B685" r:id="rId652" xr:uid="{A01AE414-0922-4067-8EF0-70202B60204B}"/>
-    <hyperlink ref="B679" r:id="rId653" xr:uid="{E13210E7-1163-4658-8AB0-D6C9696E0DE7}"/>
-    <hyperlink ref="B676" r:id="rId654" xr:uid="{25113836-7E0C-4001-B50C-2A6B4B3EAC21}"/>
-    <hyperlink ref="B677" r:id="rId655" xr:uid="{E6FB74B4-8D5A-4FA1-AB9A-A0DE6E198C0C}"/>
-    <hyperlink ref="B681" r:id="rId656" xr:uid="{47E8517B-77F7-43E5-BECD-18B67EF94A66}"/>
-    <hyperlink ref="B706" r:id="rId657" xr:uid="{6FC3E54F-B80A-4311-823F-7AE0419D75B2}"/>
-    <hyperlink ref="B705" r:id="rId658" xr:uid="{018430CB-1C16-4948-96E7-F138CDE98E9A}"/>
-    <hyperlink ref="B704" r:id="rId659" xr:uid="{C4082E8E-6E59-49B1-AE4E-7A4B86CF1187}"/>
-    <hyperlink ref="B703" r:id="rId660" xr:uid="{9E675776-8172-4123-B1AD-4C8DD86824C2}"/>
-    <hyperlink ref="B702" r:id="rId661" xr:uid="{E1AEA9FC-587D-4E19-8830-E4A05F1314D7}"/>
-    <hyperlink ref="B701" r:id="rId662" xr:uid="{532B5B42-314C-4308-A0D5-F77AD89A4F99}"/>
-    <hyperlink ref="B700" r:id="rId663" xr:uid="{F260EF92-3D1B-4282-9295-1028A6D032BD}"/>
-    <hyperlink ref="B699" r:id="rId664" xr:uid="{5BFBBE8A-9FC7-440F-BBDE-69153ABB784C}"/>
-    <hyperlink ref="B698" r:id="rId665" xr:uid="{C5ECA00F-FE45-4008-9586-124A789CE1E1}"/>
-    <hyperlink ref="B697" r:id="rId666" xr:uid="{8A0E7A76-8DE6-4104-AFD8-E56B29C23996}"/>
-    <hyperlink ref="B696" r:id="rId667" xr:uid="{DA60E926-E500-4734-842D-D30DF56CFF2A}"/>
-    <hyperlink ref="B695" r:id="rId668" xr:uid="{3C8201ED-1E14-49C9-A420-9A7BC8A79620}"/>
-    <hyperlink ref="B694" r:id="rId669" xr:uid="{DA791936-F48A-442E-8A9D-50D37C0C31E8}"/>
-    <hyperlink ref="B693" r:id="rId670" xr:uid="{82E1D46B-D4F4-4BA0-8DBB-D0784B5986BF}"/>
-    <hyperlink ref="B692" r:id="rId671" xr:uid="{C6613613-D864-484F-832D-CDA2F14B51BC}"/>
-    <hyperlink ref="B691" r:id="rId672" xr:uid="{1A46C358-1664-4894-9615-F939EF2415CE}"/>
-    <hyperlink ref="B690" r:id="rId673" xr:uid="{CA4CBD5D-6D59-4E45-A72F-67B4ADD456A3}"/>
-    <hyperlink ref="B689" r:id="rId674" xr:uid="{12A51D8A-65F3-4C50-B3F1-083E610F8FAD}"/>
-    <hyperlink ref="B688" r:id="rId675" xr:uid="{BCCFB93E-9787-4E7E-8106-375A2D0FBB55}"/>
-    <hyperlink ref="B707" r:id="rId676" xr:uid="{B7E35255-CA4F-4CA7-8B00-79C963D3DFB4}"/>
-    <hyperlink ref="B708" r:id="rId677" xr:uid="{E267BFB8-F8A0-4EA7-BA03-771AE27B13B4}"/>
-    <hyperlink ref="B709" r:id="rId678" xr:uid="{6D3599ED-168E-4093-AFAE-322B9DBEEBFB}"/>
-    <hyperlink ref="B710" r:id="rId679" xr:uid="{DB7A1AE1-BF50-4952-8846-0EDEB95FC579}"/>
-    <hyperlink ref="B711" r:id="rId680" xr:uid="{49016D09-53D6-4D70-86E2-2AFCD0D145B8}"/>
-    <hyperlink ref="B712" r:id="rId681" xr:uid="{9AF8698B-1E7C-48B5-B0B8-E0482374DED7}"/>
-    <hyperlink ref="B713" r:id="rId682" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{455B3CAA-4390-45FB-BAE7-A71EC9F28847}"/>
-    <hyperlink ref="B714" r:id="rId683" xr:uid="{E07F9AD9-BC1E-423E-B554-B614F8B573CB}"/>
-    <hyperlink ref="B715" r:id="rId684" xr:uid="{303B9FE0-F786-4177-B48D-C4E7030F4899}"/>
-    <hyperlink ref="B716" r:id="rId685" xr:uid="{3F08EBF1-4214-4BCE-B6C3-E9735AA8D53D}"/>
-    <hyperlink ref="B717" r:id="rId686" xr:uid="{62B24449-D4B6-422C-9610-DFA5B263F0AB}"/>
-    <hyperlink ref="B718" r:id="rId687" xr:uid="{9C1A24AA-F99B-47D8-A3CB-0993702196F0}"/>
-    <hyperlink ref="B719" r:id="rId688" xr:uid="{B9210463-E8F6-4238-B574-05EB0ACDA60D}"/>
-    <hyperlink ref="B720" r:id="rId689" xr:uid="{2F948F77-878C-4E76-B2E1-C401D03147D3}"/>
-    <hyperlink ref="B721" r:id="rId690" xr:uid="{5C6EB9CC-33E8-4297-9B5A-39648F9E3DF6}"/>
-    <hyperlink ref="B722" r:id="rId691" xr:uid="{BFCC85D0-3386-42B6-8826-1DB4DC955291}"/>
-    <hyperlink ref="B723" r:id="rId692" xr:uid="{56AEEE39-A751-43C4-AE8D-4D977A6BF9A9}"/>
-    <hyperlink ref="B724" r:id="rId693" xr:uid="{434C2E4F-5F5D-4287-9646-B006536B3059}"/>
-    <hyperlink ref="B725" r:id="rId694" xr:uid="{702E4ACC-E011-40F9-82F1-DC9B353915EA}"/>
-    <hyperlink ref="B726" r:id="rId695" xr:uid="{5BE238C8-0324-4CD9-96E1-E6D1D40166A8}"/>
-    <hyperlink ref="B727" r:id="rId696" xr:uid="{8E729443-2E87-4105-94A3-CB798F9B8DFC}"/>
-    <hyperlink ref="B728" r:id="rId697" xr:uid="{8518FD40-C807-4B0E-8BD0-363EF210FAA4}"/>
-    <hyperlink ref="B729" r:id="rId698" xr:uid="{7214D62F-B237-43C3-A17A-BB8E88E87965}"/>
-    <hyperlink ref="B730" r:id="rId699" xr:uid="{817FCD77-7964-4D6A-BB6C-33315C755EA1}"/>
-    <hyperlink ref="B731" r:id="rId700" xr:uid="{47EB5585-B2B0-42CB-8CD7-BCA3F489D384}"/>
-    <hyperlink ref="B732" r:id="rId701" xr:uid="{5B0CAA07-0FF0-4C4E-81FA-77A73CE1765E}"/>
-    <hyperlink ref="B733" r:id="rId702" xr:uid="{1E120D6A-A081-4FB3-90FA-6D04B9FE3DC9}"/>
-    <hyperlink ref="B734" r:id="rId703" xr:uid="{09669DD0-4EA7-433A-9275-D7F058BC0DBE}"/>
-    <hyperlink ref="B735" r:id="rId704" xr:uid="{72CD944B-541C-41C0-A313-53CE9532A740}"/>
-    <hyperlink ref="B736" r:id="rId705" xr:uid="{94CB6D6D-6B0A-4562-9D29-32BA1D6BBD2D}"/>
-    <hyperlink ref="B737" r:id="rId706" xr:uid="{6E7A988E-2DBA-44F4-913A-CB3EED1B5407}"/>
-    <hyperlink ref="B738" r:id="rId707" xr:uid="{56B6CAED-44A2-4C78-AEF0-FACFC98B71C2}"/>
-    <hyperlink ref="B739" r:id="rId708" xr:uid="{77B4CA84-3106-4647-8F80-5137F7A1C159}"/>
-    <hyperlink ref="B740" r:id="rId709" xr:uid="{01F8E5AA-B398-4344-AF8E-C00D9F1F0C68}"/>
-    <hyperlink ref="B741" r:id="rId710" xr:uid="{96A5DA4F-E691-480E-90C5-75D02A8400E2}"/>
-    <hyperlink ref="B742" r:id="rId711" xr:uid="{104A58F5-312B-4F0B-AB65-4E080EE021DF}"/>
-    <hyperlink ref="B743" r:id="rId712" xr:uid="{A479DD4E-7765-4F8C-9A88-E7E7E2EE0702}"/>
-    <hyperlink ref="B744" r:id="rId713" xr:uid="{04B1C74E-8186-4A27-9D1A-9EEBA9835EA8}"/>
-    <hyperlink ref="B745" r:id="rId714" xr:uid="{CF19D4E4-6A2A-4360-88A9-1BC6EFBA5FF9}"/>
-    <hyperlink ref="B746" r:id="rId715" xr:uid="{B8C27685-E42D-4900-922F-E97B7F060CEE}"/>
-    <hyperlink ref="B747" r:id="rId716" xr:uid="{33C8E142-2EA5-476F-BACA-ED82144F56C5}"/>
-    <hyperlink ref="B748" r:id="rId717" xr:uid="{DEC74353-07E2-4D70-BADE-3807D58F0564}"/>
-    <hyperlink ref="B749" r:id="rId718" xr:uid="{82DA5DEB-B689-4641-80CD-ADFD80B4E7D5}"/>
-    <hyperlink ref="B750" r:id="rId719" xr:uid="{7254B56C-3959-4041-819E-B50D77230546}"/>
-    <hyperlink ref="B751" r:id="rId720" xr:uid="{0BB43A62-A118-48A3-B145-0CF40ED76BFA}"/>
-    <hyperlink ref="B752" r:id="rId721" xr:uid="{6243237D-C0E8-4852-A03E-A23F64F13235}"/>
-    <hyperlink ref="B753" r:id="rId722" xr:uid="{DF2D610D-A9AC-473C-94EE-C2C9915EF02C}"/>
-    <hyperlink ref="B754" r:id="rId723" xr:uid="{4CF4214F-A61B-404D-9700-F0DC828E3981}"/>
-    <hyperlink ref="B755" r:id="rId724" xr:uid="{17094AF2-A529-4E65-9F59-E9F58ED85A19}"/>
-    <hyperlink ref="B756" r:id="rId725" xr:uid="{B865D322-1E56-4EA3-A327-DEE10F120CDE}"/>
-    <hyperlink ref="B757" r:id="rId726" xr:uid="{F31E60A9-44BF-4FD0-9EA4-6BF6AF02F65B}"/>
-    <hyperlink ref="B758" r:id="rId727" xr:uid="{6A8B6A02-B6ED-46D9-A8EE-BFF19577793B}"/>
-    <hyperlink ref="B759" r:id="rId728" xr:uid="{0E29AA8D-224A-424D-8D10-A5B2FC5C922D}"/>
-    <hyperlink ref="B760" r:id="rId729" xr:uid="{D33EA797-9DBB-4A6D-96CA-9E900A3CDB20}"/>
-    <hyperlink ref="B761" r:id="rId730" xr:uid="{BFD63CC0-4A05-4C1F-B621-781AE7319296}"/>
-    <hyperlink ref="B762" r:id="rId731" xr:uid="{273F57A0-9650-4678-AF04-346018E330A6}"/>
-    <hyperlink ref="B763" r:id="rId732" xr:uid="{18DAD247-81C8-4DE1-A380-BB9B22469C55}"/>
-    <hyperlink ref="B764" r:id="rId733" xr:uid="{95D8FFD9-9157-42F4-B5E5-4A64BD15C6D8}"/>
-    <hyperlink ref="B765" r:id="rId734" xr:uid="{E716C806-63D7-4D96-91BC-378DFFFC8F62}"/>
-    <hyperlink ref="B766" r:id="rId735" xr:uid="{4BAFBD41-3B93-4B05-B6B1-280254681A30}"/>
-    <hyperlink ref="B767" r:id="rId736" xr:uid="{2366DC5B-B7A1-42F8-A231-F8052C459BFB}"/>
-    <hyperlink ref="B768" r:id="rId737" xr:uid="{266BD55C-B2BB-4554-A4D4-84CFB4535809}"/>
-    <hyperlink ref="B769" r:id="rId738" xr:uid="{29A3D127-9481-4E89-A565-63D6BF136052}"/>
-    <hyperlink ref="B770" r:id="rId739" xr:uid="{F85B1363-BD42-4266-9957-9B2EFF4DF5C2}"/>
-    <hyperlink ref="B771" r:id="rId740" xr:uid="{971D91CD-8C9F-43F9-9E54-6244CD2D0BB8}"/>
-    <hyperlink ref="B772" r:id="rId741" xr:uid="{D7FD00CF-2AA5-4547-9C54-63A6C489B72B}"/>
-    <hyperlink ref="B773" r:id="rId742" xr:uid="{E8E9CA68-532D-4475-89C1-61EC8E771A36}"/>
-    <hyperlink ref="B774" r:id="rId743" xr:uid="{EDE88196-E597-4F73-AA37-62412DD8684C}"/>
-    <hyperlink ref="B775" r:id="rId744" xr:uid="{8A25B322-FD85-4C2B-96BC-DE57FCE5FEC8}"/>
-    <hyperlink ref="B776" r:id="rId745" xr:uid="{D25D906E-0642-4BC6-AD3C-D7BC86A02100}"/>
-    <hyperlink ref="B777" r:id="rId746" xr:uid="{86203195-C81F-4B94-9C35-9F1A56ED6CF6}"/>
-    <hyperlink ref="B778" r:id="rId747" xr:uid="{0757679E-8413-4048-AD18-A4BF67401B55}"/>
-    <hyperlink ref="B779" r:id="rId748" xr:uid="{1A0666EE-2928-4506-9F63-7F3A9BEC31D9}"/>
-    <hyperlink ref="B780" r:id="rId749" xr:uid="{8256F47D-C065-4B18-97FA-88C9FD59DEA7}"/>
-    <hyperlink ref="B781" r:id="rId750" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{6FEFA03B-24CF-4DFD-88FD-98C06C12EDA4}"/>
-    <hyperlink ref="B782" r:id="rId751" xr:uid="{8D03DF96-2279-4A7A-8BC1-4346174E62D6}"/>
-    <hyperlink ref="B783" r:id="rId752" xr:uid="{BB51EFB3-760B-4B11-BB63-A6F502F47F3B}"/>
-    <hyperlink ref="B784" r:id="rId753" xr:uid="{D55DDFEE-0C5E-4E37-BE01-0ECBC7FFF6E2}"/>
-    <hyperlink ref="B786" r:id="rId754" xr:uid="{F1EC204C-66C0-4777-B216-726EF0898CA8}"/>
-    <hyperlink ref="B787" r:id="rId755" xr:uid="{841F3158-AF39-416E-90B0-8F8B341EDA2D}"/>
-    <hyperlink ref="B788" r:id="rId756" xr:uid="{ABF7BC25-1EBB-4BD2-AC3D-7D0461FDDF3C}"/>
-    <hyperlink ref="B789" r:id="rId757" xr:uid="{95F4A322-870B-4EB7-91CC-AE7FF2C908D7}"/>
-    <hyperlink ref="B790" r:id="rId758" xr:uid="{3636261C-C9CA-4BBF-8A37-56D1BB34B570}"/>
-    <hyperlink ref="B791" r:id="rId759" xr:uid="{9B400666-AADC-4636-9B77-EEF33DEA1AF6}"/>
-    <hyperlink ref="B792" r:id="rId760" xr:uid="{704F7A7E-DB65-44C2-B53B-15E1E1ABB95C}"/>
-    <hyperlink ref="B793" r:id="rId761" xr:uid="{BEE7D13A-D50C-4E3A-86CB-1BC9EB1A3BC1}"/>
-    <hyperlink ref="B794" r:id="rId762" xr:uid="{F57C1BC2-D4EE-41E4-8421-9EBDFBAC26A9}"/>
-    <hyperlink ref="B795" r:id="rId763" xr:uid="{6EB5BF53-8188-4906-8F39-87764EE7CABB}"/>
-    <hyperlink ref="B796" r:id="rId764" xr:uid="{603CA858-E1A6-4738-BB65-5B462899274C}"/>
-    <hyperlink ref="B797" r:id="rId765" xr:uid="{3C9E24C7-9532-4A3F-96C2-2F5E8C3CDB1D}"/>
-    <hyperlink ref="B798" r:id="rId766" xr:uid="{68A32A35-69AA-4A68-8BAA-AAF5CFF9C21E}"/>
-    <hyperlink ref="B799" r:id="rId767" xr:uid="{233805B3-EF80-4ED2-BAE2-F204FB1C3834}"/>
-    <hyperlink ref="B800" r:id="rId768" xr:uid="{6CAB7DA1-3A7C-4429-B8E5-432969187EFA}"/>
-    <hyperlink ref="B801" r:id="rId769" xr:uid="{8498659F-62AC-4480-A61E-F6544AFF994D}"/>
-    <hyperlink ref="B802" r:id="rId770" xr:uid="{CDA8101E-8248-48F4-890B-49A882F5E504}"/>
-    <hyperlink ref="B803" r:id="rId771" xr:uid="{C5849725-B3DE-4260-96EF-3FA920EC8F17}"/>
-    <hyperlink ref="B804" r:id="rId772" xr:uid="{9F4C9FB9-F669-4FF4-BC6C-7C8AACA26934}"/>
-    <hyperlink ref="B805" r:id="rId773" xr:uid="{8D14F14E-3AC6-40E0-A5C1-EE4E421CE138}"/>
-    <hyperlink ref="B806" r:id="rId774" xr:uid="{BC294D3A-614D-4F24-8F0A-EDFEF3356759}"/>
-    <hyperlink ref="B807" r:id="rId775" xr:uid="{48687A8A-5168-4B23-88A5-70F475F5CBFF}"/>
-    <hyperlink ref="B808" r:id="rId776" xr:uid="{90769112-FBAE-4BD7-9A92-7CFDF3E2BED6}"/>
-    <hyperlink ref="B809" r:id="rId777" xr:uid="{092B7818-8656-4A60-98B9-C7C9D41635B1}"/>
-    <hyperlink ref="B810" r:id="rId778" xr:uid="{8A14EB85-A5D0-4F5C-9739-AA1ECC2B5F28}"/>
-    <hyperlink ref="B811" r:id="rId779" xr:uid="{6ECA0CDB-64F0-4DF9-8EC7-1E90D7DB7585}"/>
-    <hyperlink ref="B812" r:id="rId780" xr:uid="{011F4C43-3563-4415-979B-50D901547BA7}"/>
-    <hyperlink ref="B813" r:id="rId781" xr:uid="{D27E2545-8852-43F5-BBD7-BDB61B3A602D}"/>
-    <hyperlink ref="B814" r:id="rId782" xr:uid="{1A9BB3F7-E73F-419F-B538-6622A83C975E}"/>
-    <hyperlink ref="B815" r:id="rId783" xr:uid="{B740E5AA-0465-453F-BC1D-0FC90FB193E0}"/>
-    <hyperlink ref="B816" r:id="rId784" xr:uid="{5C8C0776-B53D-480A-AF87-B301A1805C9E}"/>
-    <hyperlink ref="B817" r:id="rId785" xr:uid="{42F7A74D-76D6-493B-8397-286856E803FC}"/>
-    <hyperlink ref="B818" r:id="rId786" xr:uid="{292E76F1-62D2-4AD6-88A0-247D87212056}"/>
-    <hyperlink ref="B819" r:id="rId787" xr:uid="{6286134E-D2B1-4C2C-A77A-47387D8F0E12}"/>
-    <hyperlink ref="B820" r:id="rId788" xr:uid="{8A19AF0B-1941-4DB4-8013-224827B7FFAD}"/>
-    <hyperlink ref="B821" r:id="rId789" xr:uid="{98F8282F-91D3-48D7-B3EB-FE90E5C05885}"/>
-    <hyperlink ref="B822" r:id="rId790" xr:uid="{4947CA42-33B0-4206-A3C9-6D0873A62879}"/>
-    <hyperlink ref="B823" r:id="rId791" xr:uid="{E337EC9B-A349-4722-83EC-D771F65EFFCD}"/>
-    <hyperlink ref="B824" r:id="rId792" xr:uid="{E97D7479-41AC-49D0-952B-7EAC7575A3FD}"/>
-    <hyperlink ref="B825" r:id="rId793" xr:uid="{CF3C5697-0F78-4BAC-AC29-41BC604F9DB1}"/>
-    <hyperlink ref="B826" r:id="rId794" xr:uid="{8564A58C-DD8D-4E73-B863-368611349459}"/>
-    <hyperlink ref="B827" r:id="rId795" xr:uid="{F46DDA17-1676-41BF-B44F-089A4C4FAB54}"/>
-    <hyperlink ref="B828" r:id="rId796" xr:uid="{A749CA8E-3004-409A-906C-602ECB25BAF7}"/>
-    <hyperlink ref="B829" r:id="rId797" xr:uid="{78973DCD-D90A-48F1-862F-269DAF521E07}"/>
-    <hyperlink ref="B830" r:id="rId798" xr:uid="{559FB34D-372F-4696-A801-5AC1876E211C}"/>
-    <hyperlink ref="B831" r:id="rId799" xr:uid="{9628D2FE-181E-4A47-8036-6688B17F3C88}"/>
-    <hyperlink ref="B832" r:id="rId800" xr:uid="{26315657-A4D7-4433-AAAE-CB7321A2D69E}"/>
-    <hyperlink ref="B833" r:id="rId801" xr:uid="{2645A852-8858-4DE3-A165-A3CB00D60333}"/>
-    <hyperlink ref="B834" r:id="rId802" xr:uid="{0883C5C9-4823-4529-91FD-2B21775C09FD}"/>
-    <hyperlink ref="B835" r:id="rId803" xr:uid="{6E0E23A1-826D-4BDD-9795-77949A00DBDA}"/>
-    <hyperlink ref="B836" r:id="rId804" xr:uid="{A4750838-B10C-4EDD-9EF6-29AD01BD4464}"/>
-    <hyperlink ref="B837" r:id="rId805" xr:uid="{4BE597AF-B045-4E3F-8F17-7AF61E9309AD}"/>
-    <hyperlink ref="B838" r:id="rId806" xr:uid="{5AAF9222-DA8B-4264-A7AB-4A0C601C97B6}"/>
-    <hyperlink ref="B872" r:id="rId807" xr:uid="{FC4E019B-4455-44D7-BC58-AEEF5496BF6A}"/>
-    <hyperlink ref="B871" r:id="rId808" xr:uid="{8A8A3B01-2B14-44BF-89F8-CBEA4CB05909}"/>
-    <hyperlink ref="B870" r:id="rId809" xr:uid="{521EC3A0-ECD7-48CD-813F-1B96347444A3}"/>
-    <hyperlink ref="B869" r:id="rId810" xr:uid="{E13674D5-E534-4C15-94BC-26755C613F61}"/>
-    <hyperlink ref="B868" r:id="rId811" xr:uid="{C7581CA4-12DD-4C7A-83F4-1F627694BCD8}"/>
-    <hyperlink ref="B867" r:id="rId812" xr:uid="{9F079237-37EF-48D6-AD7C-85DF317A4376}"/>
-    <hyperlink ref="B866" r:id="rId813" xr:uid="{A02FAB26-7097-48CE-8F6C-6FDE1E521912}"/>
-    <hyperlink ref="B865" r:id="rId814" xr:uid="{58A3FA14-6184-4AD7-830E-754DAAE326E9}"/>
-    <hyperlink ref="B864" r:id="rId815" xr:uid="{31A8291A-F19F-44B0-AEB4-246D52569CB3}"/>
-    <hyperlink ref="B863" r:id="rId816" xr:uid="{63EC00FE-14C3-4EFF-9D8C-8A028E19EC36}"/>
-    <hyperlink ref="B862" r:id="rId817" xr:uid="{6FE02B54-C4BD-4419-8E91-B7C16A1B7574}"/>
-    <hyperlink ref="B861" r:id="rId818" xr:uid="{35AF6874-BF27-447A-B7E7-1137EBBFE5B9}"/>
-    <hyperlink ref="B860" r:id="rId819" xr:uid="{E4EAE999-0EE9-45DF-85EE-EAAE6DA8DB12}"/>
-    <hyperlink ref="B859" r:id="rId820" xr:uid="{185AAA66-C8A7-4F0A-A00A-12BAFA5B846D}"/>
-    <hyperlink ref="B858" r:id="rId821" xr:uid="{0868009E-9416-4ED3-903E-E18D2F4A098B}"/>
-    <hyperlink ref="B857" r:id="rId822" xr:uid="{FBACD7FF-2540-42E7-A439-5019CD08AE24}"/>
-    <hyperlink ref="B856" r:id="rId823" xr:uid="{42404A00-81F1-4C4B-B6E4-785F9E24EF42}"/>
-    <hyperlink ref="B855" r:id="rId824" xr:uid="{509A92DE-6730-45C2-910C-407BC9358698}"/>
-    <hyperlink ref="B854" r:id="rId825" xr:uid="{6136E1E1-7E9F-4A6F-ABDB-8C435B073F2D}"/>
-    <hyperlink ref="B853" r:id="rId826" xr:uid="{0906A018-E114-4363-A6B5-85C87CF659DD}"/>
-    <hyperlink ref="B852" r:id="rId827" xr:uid="{9628E1FA-AA85-4A9C-A6F0-7283220F1AE6}"/>
-    <hyperlink ref="B851" r:id="rId828" xr:uid="{EB21AD26-5A6F-4735-8950-6DCD25F41BAE}"/>
-    <hyperlink ref="B850" r:id="rId829" xr:uid="{00D1E30D-1426-45BC-B004-A9F2CA914E26}"/>
-    <hyperlink ref="B849" r:id="rId830" xr:uid="{C884698A-022F-422D-A6FB-8A9F4314FD4C}"/>
-    <hyperlink ref="B848" r:id="rId831" xr:uid="{75DD9AFF-EFF7-475D-A92B-60E69D2463D2}"/>
-    <hyperlink ref="B847" r:id="rId832" xr:uid="{F4D3F553-EEB3-4B9B-961E-75710288CF8B}"/>
-    <hyperlink ref="B846" r:id="rId833" xr:uid="{BB29EE45-CA92-4FD4-8E85-B89705207605}"/>
-    <hyperlink ref="B845" r:id="rId834" xr:uid="{D5B152F8-65F9-4519-B127-410A32C8BBFC}"/>
-    <hyperlink ref="B844" r:id="rId835" xr:uid="{078281E3-898D-4B2D-B075-756F48FD40EC}"/>
-    <hyperlink ref="B843" r:id="rId836" xr:uid="{C7BDC45E-0471-4E71-8024-835100FFF440}"/>
-    <hyperlink ref="B842" r:id="rId837" xr:uid="{438E5B34-A97D-44C3-B51D-A4A6C6743127}"/>
-    <hyperlink ref="B841" r:id="rId838" xr:uid="{F16F3E46-2CC8-4F20-AA6A-A29D5F84559D}"/>
-    <hyperlink ref="B840" r:id="rId839" xr:uid="{2985606A-624D-4471-A1CB-A113810A14BD}"/>
-    <hyperlink ref="B839" r:id="rId840" xr:uid="{7D6701DC-74AA-49E9-B428-4677B5022DE6}"/>
-    <hyperlink ref="B785" r:id="rId841" xr:uid="{7153A2CA-4DC8-4683-8673-410374D95C8E}"/>
-    <hyperlink ref="B877" r:id="rId842" xr:uid="{559FCD3B-12D4-4A86-8179-F192D8866353}"/>
-    <hyperlink ref="B876" r:id="rId843" xr:uid="{1AF8A550-BCB3-492B-A230-D19747509AE0}"/>
-    <hyperlink ref="B875" r:id="rId844" xr:uid="{ECEF31DC-8FEB-470E-8300-6E18C233C383}"/>
-    <hyperlink ref="B874" r:id="rId845" xr:uid="{767CB01A-034D-4007-A1C9-CDA512DF0E82}"/>
-    <hyperlink ref="B873" r:id="rId846" xr:uid="{1F20F592-3DA2-45C8-BA22-ACD1CE12390C}"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://www.evernote.com/shard/s567/nl/98932539/0bb97623-709b-429f-8869-0b482f4d90c2?title=Alper%20aprova%20aumento%20de%20capital%20de%20at%C3%A9%20R$%20110%20mi%20mediante%20subscri%C3%A7%C3%A3o%20privada%20de%20a%C3%A7%C3%B5es%20%7C%20Finan%C3%A7as%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{2B8A166B-84E0-476D-A64B-3B41B009211A}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{89EB2A28-21B1-42AC-8B9B-9C7478C2B494}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{C4BE1242-6E5B-40AA-B579-A9844D727DE7}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{EE90B51F-AF65-45A3-A895-802A29659DDB}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{7437045C-1F4D-42C3-A4C2-E8F285A3C1F8}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{4923A834-5D75-4C6C-837D-7998CF38239A}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{492DA467-64AC-4EC0-B39B-F4DAB13CD5B0}"/>
+    <hyperlink ref="B26" r:id="rId8" xr:uid="{E635692F-C40E-4AAA-9C0C-C69E4F422C15}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{F6E35164-E2A8-4BD6-85D1-090507A5630E}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{20E25CF5-ABBD-4918-A9A0-9A0FB2EE88B0}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{88249465-13F9-43D2-95A3-61730DD16835}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{8A071F0D-1D45-492F-AFDF-0FD266408280}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{75AA1A99-D558-4EF1-9B8A-E25595AC061D}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{3E6F8DBF-26BD-4D40-8C7F-BB9146A1B7A6}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{98D483A4-D413-441F-8012-60B03B5E5175}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{462184C6-22E3-48FB-A20B-DCB0DFE46F78}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{3C839605-0DBA-48DB-9A5D-5251763E5753}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{39CAFA57-8701-4005-BDD9-F6F34BE1D992}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{A475D116-137B-4608-9603-B3003D7D78F8}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{F36B9D07-E8F0-4112-BE15-F3D4D45704FC}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{D754AA79-4B52-41D3-A0BD-9D7B03E402D5}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{6F15243F-62B1-4865-8DCE-51F8E34B5A10}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{1D27F372-4232-4C3C-BFE3-3BD20D3CC5CA}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{7B5D215F-4337-4DA7-B1F5-5A669E652A3F}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{804240B4-0AF2-4426-A0E5-92258D2C638E}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{5962B6CF-6CDE-493B-904A-8B7E763A168C}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{A0075675-CCD9-4F0E-80A2-5EDDC579ED3F}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{32E3DFBC-F29E-4FF7-BCC4-425F43FC03DF}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{1CC56C01-A516-49EE-BBD7-A1C807BBE989}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{26FB62D6-9CE0-4CA9-837A-6F27A98140FD}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{1E586551-060C-433C-995B-87EA4C1FF6F0}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{02507030-67FC-49D7-B5DB-318ACBC25C89}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{BBDAFAA6-0DCD-4376-871C-C606262D6F1B}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{D7A7DDCE-C569-4D00-A558-AF94499B5CB6}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{AA2C78D1-9B19-41AE-A8C2-05EF8A2F9644}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{A23A117C-808E-4ED5-B724-DA83F527154F}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{5C8EEC60-CC98-4BA0-8F95-C4139E8D927C}"/>
+    <hyperlink ref="B62" r:id="rId38" xr:uid="{5258ACFE-E316-4111-9BA7-17E104D81CCD}"/>
+    <hyperlink ref="B61" r:id="rId39" xr:uid="{DB11F52B-3F7A-4285-9CAF-8571729A5183}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{65DACBB9-9EBD-4BC3-BE66-4290507685F7}"/>
+    <hyperlink ref="B59" r:id="rId41" xr:uid="{5A682BA5-3F03-4F4E-BD05-59AD2EA2D30A}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{9DAB2388-11D4-4422-91C3-AAB0EF8124F6}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{D30DB417-4EC1-4F69-BFF5-A206CA87CC7D}"/>
+    <hyperlink ref="B56" r:id="rId44" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{D7453D17-4AA0-4170-B1DD-754DBE77BD1C}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{E4E62481-F8A1-44A1-86B2-22D67D82E20B}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{8D37BD61-B1ED-435F-B0A1-BF7A6D94EC15}"/>
+    <hyperlink ref="B53" r:id="rId47" location="17%20-%20Set./2019" xr:uid="{2FC9A677-4860-4072-A7A0-112687124640}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{25C2C32A-07B7-4CF1-AD01-30B2254DDE95}"/>
+    <hyperlink ref="B83" r:id="rId49" xr:uid="{383C3E53-1959-4BCA-8DE5-5DC9DCB0F504}"/>
+    <hyperlink ref="B82" r:id="rId50" xr:uid="{23D8717E-371F-462A-AD7E-198B0BA5B5BC}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{1CC0DCFA-8A9A-421C-9D9D-FE64F893C0DA}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{832ADAD8-8728-4BCC-BB73-D45FB9869A7A}"/>
+    <hyperlink ref="B79" r:id="rId53" xr:uid="{D7B63D8C-04A8-4451-83EA-59F8F55B7B33}"/>
+    <hyperlink ref="B78" r:id="rId54" xr:uid="{29F6730B-68CC-4793-8E2B-A2AB35F7934C}"/>
+    <hyperlink ref="B77" r:id="rId55" xr:uid="{81777021-D34F-4C9C-9527-71449AF9AC2F}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{EB2CB929-65D9-4F1D-BC45-2B4DCC6D3D57}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{E6879CB4-5DC4-45AD-BA5F-EB9C6B8C150B}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{C10C8092-3F8D-47DE-B36F-41E4C4544C32}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{E61F70BE-56B9-41AB-842E-BBE74CDAFFD6}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{97261094-3DFF-412B-8F94-A1E154DC704C}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{6971327D-E493-4C17-A504-72F83DEBB1CE}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{6035E5ED-A7A0-4B36-BC95-72238B5DBFBD}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{2F9414B3-BD01-4B6C-BA10-790236EC2AD8}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{92B99C16-A2F1-4AD4-8A86-477DC6BEC00F}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{20F8AB41-176B-49D7-B68F-0B8D5D80FFDB}"/>
+    <hyperlink ref="B70" r:id="rId66" xr:uid="{153EF6FE-1F6A-4D08-BC0C-3934A0045CF9}"/>
+    <hyperlink ref="B71" r:id="rId67" xr:uid="{2B162F95-1DB5-4151-8B8A-3AECD43C29C6}"/>
+    <hyperlink ref="B100" r:id="rId68" xr:uid="{DADAD788-6C69-4840-B369-0AE3122A9F07}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{F14F4B9B-8A1E-4A2F-87DF-B01FACA68B4F}"/>
+    <hyperlink ref="B102" r:id="rId70" xr:uid="{000AE642-FA26-4539-B1B7-66519FBFC6C5}"/>
+    <hyperlink ref="B103" r:id="rId71" xr:uid="{67AC7456-DE8F-4A06-B9DB-5FBBE2DB975C}"/>
+    <hyperlink ref="B104" r:id="rId72" xr:uid="{DB503316-8920-476D-8557-810DC418F7C7}"/>
+    <hyperlink ref="B105" r:id="rId73" xr:uid="{B6A86EA7-59D2-480A-A3FC-FC9889C9E37C}"/>
+    <hyperlink ref="B106" r:id="rId74" xr:uid="{785D1A47-696C-49C0-823F-3DA75E8B4101}"/>
+    <hyperlink ref="B107" r:id="rId75" xr:uid="{13C6C940-6DD3-444E-8085-B9CCF1339A8A}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{9C731262-339C-4871-A644-696B8CAEDCBC}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{B3C369DB-CC8E-4F38-9439-7FF0B85A963F}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{C1E11F62-C47B-40C7-98DA-D2C09FE123C6}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{26C8BF33-E04C-409D-9448-E36A2D69037F}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{D2CBBDB7-713B-4A1E-975E-9C7613896A47}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{ADD0562F-E341-4571-84E6-D9424C5E42F6}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{91034891-F98A-4F5F-A774-0994F438B835}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{030AE40B-6CE3-4E8A-8D22-ED9FD5F7FCEB}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{D483BA80-6509-47D0-8FBB-E9A4BFED448E}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{A91B3F18-E7CA-44A9-ABFA-A608E4E3FC4B}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{B75A3B5C-D16C-4A9E-BC4B-64B156CBE1EA}"/>
+    <hyperlink ref="B86" r:id="rId87" xr:uid="{F9A7188E-68C6-4DE8-A73A-F17C11E4CF2E}"/>
+    <hyperlink ref="B85" r:id="rId88" xr:uid="{07B384D6-F20C-45F0-B907-BC46A07FBC61}"/>
+    <hyperlink ref="B84" r:id="rId89" xr:uid="{623F7352-E57D-46E0-BC32-54424F1F5CA8}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{7A0311A4-F1CA-41CD-9E81-365C9F840575}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{9A5AC136-6ABA-4F6F-8714-085F5C0FABD1}"/>
+    <hyperlink ref="B134" r:id="rId92" xr:uid="{ABF5385E-6871-4BBD-8F4A-936545F325D8}"/>
+    <hyperlink ref="B133" r:id="rId93" xr:uid="{1262B722-25C8-411C-B93F-9122B89E3A6F}"/>
+    <hyperlink ref="B132" r:id="rId94" xr:uid="{B177EA1B-64E1-4C16-85AB-2EF4F4766FFF}"/>
+    <hyperlink ref="B131" r:id="rId95" xr:uid="{1234E25C-840B-4FEE-A48B-9825B2D244B0}"/>
+    <hyperlink ref="B130" r:id="rId96" xr:uid="{CE746228-0D90-4C4B-8F72-994C91DC972F}"/>
+    <hyperlink ref="B129" r:id="rId97" xr:uid="{9912C0E9-0CE3-4836-ACB2-33980AE9D268}"/>
+    <hyperlink ref="B128" r:id="rId98" xr:uid="{E7B1380F-BB18-4E76-92B1-F80EA2D05588}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{9276D8EF-926A-4B8A-8404-AFD9DB12C0EA}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{745F788E-C5DB-4671-8D69-5C35535BD8C2}"/>
+    <hyperlink ref="B125" r:id="rId101" xr:uid="{2F0D1C9D-C216-434B-B104-EFEE72476820}"/>
+    <hyperlink ref="B124" r:id="rId102" xr:uid="{AA43A41F-0030-493E-AA3A-B0E6ED77E3C7}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{538F10D6-A565-42C5-979F-E83BB50E0739}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{312158EC-0C0A-4CFC-99A3-BC1F3BAB2ABF}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{56E4EEF5-0162-4FBC-B019-92F942E44221}"/>
+    <hyperlink ref="B135" r:id="rId106" xr:uid="{6FC24811-4F1D-46CB-9BE3-3FF30D167460}"/>
+    <hyperlink ref="B136" r:id="rId107" xr:uid="{98874566-C5CB-4C45-A6F0-E52B83258DA0}"/>
+    <hyperlink ref="B138" r:id="rId108" xr:uid="{FF42992A-897B-4EBE-930F-A2FDBF17046F}"/>
+    <hyperlink ref="B137" r:id="rId109" xr:uid="{42D1C02F-44B6-4359-88AB-74B7D26A2AF1}"/>
+    <hyperlink ref="B139" r:id="rId110" xr:uid="{358C02BC-5038-427A-ABDC-0F5CEFF0B29F}"/>
+    <hyperlink ref="B159" r:id="rId111" xr:uid="{168756BD-F1A4-46F1-B9ED-F18A226D1A5B}"/>
+    <hyperlink ref="B158" r:id="rId112" xr:uid="{ADCFF20B-57D8-48DB-8910-92B2879A6A78}"/>
+    <hyperlink ref="B157" r:id="rId113" xr:uid="{772BD311-1F10-4656-A4DE-816760A56488}"/>
+    <hyperlink ref="B156" r:id="rId114" xr:uid="{3A655342-C3C7-4CDA-BA61-5ADE93E29EE8}"/>
+    <hyperlink ref="B155" r:id="rId115" xr:uid="{4A93A8DC-EBA7-488B-B799-C1B0147558D5}"/>
+    <hyperlink ref="B154" r:id="rId116" xr:uid="{3F8D565F-12E1-408F-A443-9809E634B738}"/>
+    <hyperlink ref="B153" r:id="rId117" xr:uid="{692790E7-0113-44FF-9F2D-CC6EEDBA623A}"/>
+    <hyperlink ref="B152" r:id="rId118" xr:uid="{7B113AA6-2499-4856-83DC-E1035392DCC6}"/>
+    <hyperlink ref="B151" r:id="rId119" xr:uid="{D6841BCF-2C46-4483-AE9D-237FD7DD8100}"/>
+    <hyperlink ref="B150" r:id="rId120" xr:uid="{8B851E2E-E505-4AEE-9C95-DF94840D2E0E}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{E5DA9C68-3F65-470C-ADA3-44DCB64E01A5}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{8C2AEC0B-482D-4990-84E2-5E7DC471A215}"/>
+    <hyperlink ref="B147" r:id="rId123" xr:uid="{C233536C-AFC6-4782-A50F-432ED20502BC}"/>
+    <hyperlink ref="B146" r:id="rId124" xr:uid="{EEA94724-6962-4B0E-90B7-6E6EEAA3554C}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{AA30806E-ACC1-4A4B-8E2F-7E13CB387E40}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{7544B3F6-F423-429B-B83D-AA2F85784512}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{B1750184-20DA-41CE-ABFF-57837CDFDDAE}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{96CF8480-8B5B-4C15-A666-119BC6FDEE6D}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{B63000AA-9C6B-44D6-8379-BCF88B1B9B97}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{F3095ED4-C9A8-4DC7-B9AF-1356FF8E1E51}"/>
+    <hyperlink ref="B167" r:id="rId131" xr:uid="{44F4F789-DB68-4E5D-B8CC-7D6FE9655668}"/>
+    <hyperlink ref="B166" r:id="rId132" xr:uid="{CF3D43EE-0427-413E-92D8-CDC3B7C8C8A0}"/>
+    <hyperlink ref="B165" r:id="rId133" xr:uid="{013A9A40-F49A-46CE-B089-95E67C1711EF}"/>
+    <hyperlink ref="B164" r:id="rId134" xr:uid="{B4440EAA-FC38-4D7C-ABFC-2062B955A2BE}"/>
+    <hyperlink ref="B163" r:id="rId135" xr:uid="{347F7289-7467-42EB-9811-E212E26A5C0A}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{3F52444C-1E57-41E4-8A3D-1C7713113302}"/>
+    <hyperlink ref="B161" r:id="rId137" xr:uid="{A13A5832-38FC-42E8-B994-95AD6E539AE0}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{4CFF7B3F-30C9-4CC5-A69B-D068516A282B}"/>
+    <hyperlink ref="B169" r:id="rId139" xr:uid="{EE04A4BE-C9E4-4D02-B494-167107E9834A}"/>
+    <hyperlink ref="B168" r:id="rId140" xr:uid="{DDCD1494-D058-45DA-BB2D-86BD86AF21E4}"/>
+    <hyperlink ref="B170" r:id="rId141" xr:uid="{AD8539F7-1BCA-47F8-80FD-7BE8EB5F27AA}"/>
+    <hyperlink ref="B171" r:id="rId142" xr:uid="{2D007208-29AC-4A65-8A5C-8B56B9CDC093}"/>
+    <hyperlink ref="B172" r:id="rId143" xr:uid="{39652140-F149-4169-A1C8-536E776B86BB}"/>
+    <hyperlink ref="B173" r:id="rId144" xr:uid="{10016679-7D99-4BA5-92B9-567D06B0E703}"/>
+    <hyperlink ref="B174" r:id="rId145" xr:uid="{FEF74B5B-7C4B-45AE-91BC-8267A0E6FE69}"/>
+    <hyperlink ref="B175" r:id="rId146" xr:uid="{05263CD9-7C57-4F38-B12D-A3DC524B454A}"/>
+    <hyperlink ref="B176" r:id="rId147" xr:uid="{4841ACA4-C4BC-49D0-BE33-0C981711457D}"/>
+    <hyperlink ref="B177" r:id="rId148" xr:uid="{A55AA7BC-6352-4618-8EDE-89DF6CB5EEAB}"/>
+    <hyperlink ref="B178" r:id="rId149" xr:uid="{E6989A8B-5236-4EDE-88F6-EA5D423B36AE}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{4DE09837-A849-4531-BE39-2A496ABD9B0A}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{B17382AE-68DF-44B9-91E7-3A4570D762C2}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{ABA76380-BDEC-4649-9D0E-324043BDDDDF}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{81729C5C-C9B5-4E9F-8DA6-681E7B6D90FB}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{8E171BB5-CA35-4EC8-9B6B-EA53BE7AFF8C}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{F9CF7BC3-FDA9-454A-AB9A-E04A2FBAB8D9}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{EA87E48B-F473-43BC-ABF2-B20471C1194B}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{839020C0-93DE-4D99-9A38-6CBE99AD189A}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{32F645BF-570A-4A71-A9EF-5FC04021D140}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{0A732B37-3BBE-4CEE-B575-C8952DADB7A1}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{DE4A719A-8D4F-4109-8BFC-D50BD41BB50E}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{F79850B2-4D50-4CE3-96CE-D2F5C17B5C27}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{E020223B-F642-4777-AB36-55F87306548F}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{222893F2-72D7-4B97-A31C-6B8E4BB130AA}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{0C17A9AB-AF5F-41C7-8A7C-7A29ACD9C9D3}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{40715106-D711-455E-8260-54A888C9785E}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{6D04EA0D-1419-45AD-BD61-630DA5A3A2E8}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{F5CBD2CC-0AA3-4D42-8ABF-B5D432EC3F22}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{94F499A3-DE31-4CD0-B782-DF73CED8CE82}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{60650826-5A2B-427F-8675-EF274A43EEB1}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{AC37857A-BF86-404A-8761-4DD2F4399657}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{E7155BDF-C7A6-4AC2-83EE-9FCA7C62CDE5}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{C240CB9C-11C8-4141-8E01-AE5FE7EB5745}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{A89E0C65-D38E-4C91-AA44-86A51BDF2FDF}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{1BBF93D8-8A01-4131-8EB3-2BB23F438357}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{4FE40FA2-7D5A-4CF4-A5E3-39030B4361C8}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{83C96BC8-6D6C-455E-98A2-B0F106D5C6DA}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{FF0DAC18-8AEB-4038-A03E-3F42CB6FA415}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{D755AF5F-6B1B-47FA-A392-0C400A125E95}"/>
+    <hyperlink ref="B208" r:id="rId179" xr:uid="{A382AF1A-6B7E-476A-B9F7-0BD0B17F634D}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{BF071FD5-70D0-4A1F-A6C2-982CF199C5DC}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{7AFB6E2F-F7AD-4C50-9BCE-B0102E49E72F}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{C31473B7-570E-435E-B540-CD12A4BD9CC2}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{5D9F8CEF-0F75-4C34-9A1A-AACE137344DE}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{89937B07-907F-4B18-AE83-D64716F17729}"/>
+    <hyperlink ref="B214" r:id="rId185" xr:uid="{5AAE20E5-C73C-466A-A993-942219E60735}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{9C992CD9-2AA1-4D9D-8216-5C011A538FEE}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{2E7227F6-9991-4D33-BA87-5FBCC69B9EA6}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{D13DE8D7-02D4-4437-BD1D-4001397C5AD8}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{8364AB5F-9DBE-4504-8E39-26DA5F74C3BF}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{43A2F6CE-787D-409C-9750-639201DEE33C}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{1EADDF43-DCFA-42B6-8C1A-B3094CBEDA56}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{3C7E228E-BB93-42C2-A33B-1BBCCFEF9A5A}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{BB61A33C-99A1-4A99-B3B2-6309ACA0D97B}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{F118585D-04F0-4C99-9071-93415129DD47}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{62929214-6378-46E7-A8AE-4A579A466160}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{9615FB2A-8E93-415C-932D-EBE71AFF2A96}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{2AC27E1E-599D-42D6-89E1-8458CE542077}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{56D73720-C2F8-42CB-B539-3CB574B56C0E}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{CB70EEFB-7897-4DA1-9BED-7337C6D3BAD2}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{AC4C9934-EAAD-4A69-8F7C-586F47EEB527}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{DB03199B-E382-43AA-B898-3D0D2CE4B262}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{B7BE6284-6A93-488E-B799-975AB1BA3081}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{87DC23F8-A030-471E-BEE8-E91657C72B38}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{4B39BA38-4716-4B9D-8E59-A70F01380441}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{AFC6389C-A504-49D4-B512-1ACE555498C9}"/>
+    <hyperlink ref="B235" r:id="rId206" display="https://www.evernote.com/shard/s567/nl/98932539/2731c2a2-ca35-4964-8d38-500bb4a54b36?title=Da%20camisinha%20ao%20rem%C3%A9dio:%20como%20a%20Blau%20virou%20uma%20gigante%20do%20setor%20farmac%C3%AAutico%20-%20Pequenas%20Empresas%20Grandes%20Neg%C3%B3cios%20%7C%20Administra%C3%A7%C3%A3o%20de%20empresas" xr:uid="{0C4DCA49-0C5C-4BD9-96D1-931DCCC47822}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{E716E113-FBA1-4591-BBAE-DE1F03814061}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{2BD908A3-0E42-4767-97AD-60B927AC098D}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{97E263BF-F644-414E-8DDD-8FDF00116052}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{A24730FF-B724-41F8-BFB5-F582A151C1FB}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{B566B136-ECAA-4F7B-B226-4C346ABFE11E}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{6B7BFDFA-0216-454C-A159-EEF0E7FF15AB}"/>
+    <hyperlink ref="B243" r:id="rId213" xr:uid="{8C4F7DB9-31D7-4979-9D1A-48156509C199}"/>
+    <hyperlink ref="B244" r:id="rId214" xr:uid="{CE7706F0-7377-4B9B-B3CF-3C65A451E85D}"/>
+    <hyperlink ref="B245" r:id="rId215" xr:uid="{0845DFF6-610D-4D05-8DA6-4D356BE49BB2}"/>
+    <hyperlink ref="B267" r:id="rId216" xr:uid="{B80B6994-CC87-4323-85A2-2632C86CF312}"/>
+    <hyperlink ref="B266" r:id="rId217" xr:uid="{85A4C456-591B-4844-B465-9F86A683A1EF}"/>
+    <hyperlink ref="B265" r:id="rId218" xr:uid="{F128B05A-B8C0-4436-A2A7-862911ADAA3D}"/>
+    <hyperlink ref="B264" r:id="rId219" xr:uid="{2E0FE83F-B926-4712-B4B6-E720881C48FD}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{2C2CB72F-DB7F-4B57-842D-521201675E17}"/>
+    <hyperlink ref="B262" r:id="rId221" xr:uid="{A7D7791B-522D-44C5-B491-0F11A886B58D}"/>
+    <hyperlink ref="B261" r:id="rId222" xr:uid="{2F3FA0B5-FECE-4DC8-978B-F1C0C7AD45C3}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{79E1EBBE-8261-47A9-B259-F9E97EFE9F3D}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{16D55E2D-DFE1-4A70-8551-10D442741501}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{D0076752-BE58-4D0F-8BFF-CF6CB2FF5014}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{688A68E1-42F9-4DD2-90C9-0EB0BB864543}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{F6FBFE2C-CA83-4AFA-BAE1-CBD78C430D99}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{281F0BD5-DE26-41B8-AC61-692CC7C9E3E3}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{54A29A8B-0E37-458A-9187-DC89BA77108C}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{AD50C643-0AF2-4C9D-B559-715F1CF6ADCF}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{33A1206B-0058-4038-BE96-88580E472AF4}"/>
+    <hyperlink ref="B251" r:id="rId232" xr:uid="{2E82591E-7600-4FC2-9BC0-D8CB18431C65}"/>
+    <hyperlink ref="B250" r:id="rId233" xr:uid="{A2A289D0-2801-4389-B1C9-2789C22277BF}"/>
+    <hyperlink ref="B249" r:id="rId234" xr:uid="{33F0C0CF-BCC0-4798-AFA7-6C8281513630}"/>
+    <hyperlink ref="B248" r:id="rId235" xr:uid="{2FEA9A57-F6E2-4497-AA89-3258B081886C}"/>
+    <hyperlink ref="B247" r:id="rId236" xr:uid="{BBCF1921-5CF4-4BA7-8177-5AF842972138}"/>
+    <hyperlink ref="B246" r:id="rId237" xr:uid="{AE718A49-0598-4B9C-8B2C-3B2D2C03B71B}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{ED67A16A-7628-4284-B216-3DCC6894A725}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{95B2BCA6-6F65-4C8D-8424-2EA66F1830A7}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{49DB2099-922B-4538-BFEC-7765773E5832}"/>
+    <hyperlink ref="B273" r:id="rId241" xr:uid="{BE2D7D59-5985-4181-859B-8BD39E656DE9}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{78DB273E-2860-49BD-8E7D-756992E3BED6}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{4D7F48D6-8ABF-4D22-B48E-BFBD1547D0A3}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{5AFC4F49-0060-4C33-A6D2-18BC0F45E518}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{12FCF4DA-AEA1-4EA6-A0A7-2990B6833C8F}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{8C3C883C-BFE5-44AF-8160-309E168226B5}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{123D37B9-B7E4-4714-88A1-E1C81F5AE2AD}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{0E041B33-9321-41C6-B1AE-13C538D72ACA}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{D38EF8B1-D768-4605-8AC9-9BB6A1F9C2B2}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{125CEE04-6C8F-4B43-B2BE-7C6C4990D2BB}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{A48E34ED-8155-40BC-9B0B-60545E0C8805}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{BE53DA7F-9271-4ED6-8636-E58C7B5E7396}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{9CC5B499-AFDC-4824-9723-A0932B5B6DA9}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{082EA017-A247-43F3-8822-E07E416F6882}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{98FDC0E6-1261-40CB-8287-8C22115FC78C}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{7ED8FF11-9747-4001-A618-39D30813D72D}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{2406EE4E-DF4A-4028-AD55-7CD3E78268C0}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{181FA620-3F06-4A06-A64B-3A5073553C47}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{35598D84-D673-4123-8AE1-1CCBB92604EB}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{E40494DB-8A47-4D74-8215-A3B5D55F566F}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{5AF3CDFC-D9C3-4DA9-8888-5B8489A7FB81}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{1E29711E-371E-4827-8B0F-0B15C72F56B5}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{3544FE40-F611-4C00-934C-B6178F2B38D1}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{E31812CB-C297-4384-B65A-14E273716B8F}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{84BAAAA8-1AE3-416B-ACF2-42A43AAB6798}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{429154F7-9886-44D3-9833-4FE35FA14F08}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{2A45A84D-8276-40E6-93EB-BDD4E4D43FED}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{E91F527D-C2F1-43AD-A142-946AD05FA77A}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{36615796-B93F-482A-BBCD-716CE3D15D90}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{275A9213-3B4C-4450-9E5E-6972967DCAB6}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{C9C13B7D-47B8-4E8B-A673-205D7D4FBF1D}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{D8BA7772-EFFD-4246-B837-16292583572D}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{240E812F-6E1E-4E75-87B4-E73E3E82C545}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{7B14F011-FAD1-4B63-9095-24E6A1F637A6}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{AD0C3AF8-4DBD-4C50-A3D7-A334E04B2B1D}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{1334038D-181E-4054-A0EE-1D56A308AD40}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{CCFFD386-2190-41E8-BBB5-84AFDFB2F451}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{CBF9190D-E67C-439E-A70C-69B5FFE5A105}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{F17AC974-E291-4BDB-AC60-461D5E8EFFDF}"/>
+    <hyperlink ref="B310" r:id="rId280" xr:uid="{01A5DD21-911A-4EB6-B06B-EB13417FF082}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{3E0DEB17-26DA-45ED-9147-E2CD225E8A9B}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{EA4D69A4-C79B-4A11-A1D7-2B9C7A1B3694}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{E67CEE9E-3E96-45B4-AF80-4CDCEC9B0E74}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{5D29C0E5-0B62-4A88-AFCD-B7C1AFB9218B}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{C1311ECF-A504-4DF2-8D4A-72667C0DB799}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{180BDE3E-BFD7-4166-9B09-533D52D3876E}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{597684CB-1132-4814-BB94-2739831580C5}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{5BD7EC42-7C08-4DC8-9C5A-3545DA702381}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{180EB64F-A3B7-47B6-8935-1C59A0F5C2C5}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{3A5A2253-29AF-45EF-A73D-8943EFA49EBC}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{98DAC828-F987-486A-9AB7-D604D8C6E799}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{0C359378-C50C-4A71-9B5F-F85306AB8851}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{ACD598A9-7C30-4CC4-A69A-318ABB18ECC6}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{21FD7657-7AD9-4338-80E0-5C6AD6FFC3E4}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{8E341FDC-00A6-4500-9D3C-3BEE041B8223}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{48188B8C-0958-4D34-848C-4DDD64D33ED2}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{BD14EE79-CECC-44F4-8336-0A86A8515120}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{F3431EEE-1528-42A2-815C-1F48F1E94D62}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{4B7677AA-664B-47A7-B4B9-310F1CC5ABCE}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{C47854BE-3D3C-4FFD-844C-B39C99A4FAF5}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{F439F443-95EA-4EC5-A367-BF644196D3BF}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{E0E9492A-24C4-472C-B67A-17B7D85E5443}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{8EE0C67E-466F-498F-AB96-90C367ED69B2}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{819F1A08-14C9-4CEA-98F0-B449B524BF25}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{1ED77FC1-506D-491F-A738-D65098EEF42A}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{576FE8A7-2A1B-4965-B77D-2F1B68EA9F2D}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{B3907CE7-42E5-40A7-9B9F-E3FA8EF453D3}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{5655C244-DBB1-4886-8350-87428F975F10}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{13C40713-3D86-4DC1-BDD6-8D431CAA3699}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{C91C54FF-EAD7-4E64-A49F-BBAB4F164CA1}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{67E1B593-10D6-476F-87FB-18D7745A70ED}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{BCC4B206-69C2-47BF-ADAD-167145E015D8}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{52A3B551-8A65-4C07-9188-457ADC412B98}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{EF68F0E8-9926-489D-80BD-B8108D40FBFB}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{4A6E9A6E-4063-4B36-A423-6962326CEF6F}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{CF8124BC-448D-46AC-A993-3FCA9F01593B}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{B3C89952-C063-4BB7-AFF0-512597E00FDB}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{7052FCA5-309A-4A50-BD08-486C01EB4B14}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{FECD31E5-E295-4B8F-A9C0-6D47195948EC}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{F39D72FB-79CC-4632-B0D6-B65B64B7640B}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{56985AD5-172C-4550-9775-812354AD8ADF}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{26C82856-79F6-45BE-BF05-2BC888CF7B67}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{37932733-999F-4419-A659-9B40474F4967}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{E6F4133F-B7CD-4C12-B739-BDBCD2964B8D}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{E8EF381A-7140-4A0C-A5D7-6F5C3023AF6A}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{A1BDA496-3152-400A-96EF-90D3AF9F6A1B}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{FDB5E89D-312A-4C97-829E-2B55C756285A}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{F06C50F2-714C-456B-8253-A689C38B5A9B}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{F022CF4A-2A6F-42F8-9F06-4C3EC8893CF8}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{42D60336-9531-482C-BF66-78D43F6CD78F}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{1C19F7E7-B912-40A7-A600-AB37B22F2A8A}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{E95DE843-088A-4F48-B715-F06B2ED15F6D}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{67982B08-4F36-451A-ACCA-2F6E27F84161}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{ACE2CD06-A9B7-4044-9051-FE8CAF6AD7C5}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{BA7032BE-6945-4571-8DAA-F8F7360431AC}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{518ABC3C-9FF5-4A68-9D48-9152C5C5C6E8}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{F8AABFDC-199D-496D-9AA0-4E08AE026380}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{6A4A25DB-D05C-4510-93CF-17C6D97BD431}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{43562600-BD34-4DC9-BB66-EEB882B45D37}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{343C0C40-66DF-4D20-ABA6-9E73D31F42E9}"/>
+    <hyperlink ref="B366" r:id="rId341" xr:uid="{5C119488-C131-4A82-A713-A4D16BD811BE}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{A0C2D3E8-9F7B-4426-B088-FBA94A352FA6}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{616E1D82-59BB-41FA-8B09-AA34881D4C13}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{8D221E20-C061-411A-80F5-585E6054C692}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{B8704D5D-A6C9-4C63-8449-F86AC89BE72C}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{69266EFD-2A75-4426-805B-0BA741C0F3DA}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{3195EB47-E7C7-4E9C-9EF2-1116DA2F918E}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{F8C26F33-B034-49F3-B350-49FA2740D303}"/>
+    <hyperlink ref="B379" r:id="rId349" xr:uid="{2C3B0279-D8A3-4673-819B-232A23F99F06}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{8A1F0C84-5526-49D4-884D-6C46117506B1}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{8CC7A812-69FD-4D4B-BFD4-5BEBBC3CD002}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{73FA56AC-D8C0-4AA6-9A20-89C75DA8B468}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{BE46821C-A7FD-4491-815A-25B2CCC9B301}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{DF3E4BA8-67F0-4A09-A6EB-BF210B28E7BA}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{2CDA34EF-1A8F-4F5A-91EB-A30256CC4717}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{1EA2E2D3-A740-48AC-A4A4-BCA343C1D721}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{46BFC7DA-35D9-4F52-B9DE-568B5A404BE4}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{DC7888EC-750F-48CB-AF79-B5478E6512BA}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{D6AB044D-5284-456D-95EF-EC5A3BA8F50A}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{11F59085-B48E-404C-92EA-0B1B94CB8C33}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{0D93F765-CC32-467A-98EA-09BEA8EDD780}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{497FB6CF-ADEE-429D-8E74-A964B1BF8F82}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{A1E32EB2-705C-4FBD-82B1-E2DBE3CB3EDA}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{37BCFEB5-DCFE-405E-A28B-B94D3993684C}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{F65EB882-CE46-4B78-83BC-BAF1CB1294B5}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{E1E8DDC5-9B61-494A-809E-E9773B2D7B43}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{78BBF506-B40A-43C7-B069-FA1C4A2A08A4}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{10D34B05-6F16-4A10-9059-BBBC365EB53D}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{99FE3EDD-EA84-45C5-B298-69C228B4F7D0}"/>
+    <hyperlink ref="B400" r:id="rId370" xr:uid="{2E15E641-0065-44F2-BAE8-6673DED56451}"/>
+    <hyperlink ref="B401" r:id="rId371" xr:uid="{B3C9BE5C-0511-4BEE-876C-6D50703B22E1}"/>
+    <hyperlink ref="B402" r:id="rId372" xr:uid="{B77A9D6D-034B-44E9-BFB1-C76F67B08651}"/>
+    <hyperlink ref="B403" r:id="rId373" xr:uid="{81729BDC-87A7-4F1C-B02F-7A6D5853A1D1}"/>
+    <hyperlink ref="B404" r:id="rId374" xr:uid="{23FA1A6E-EF48-4914-B132-0CD6EDECFD99}"/>
+    <hyperlink ref="B405" r:id="rId375" xr:uid="{B3B233A6-AE8E-42BB-9FAE-8F46DE7F9EC5}"/>
+    <hyperlink ref="B406" r:id="rId376" xr:uid="{DC22A9C0-361F-45A9-A2D4-8231937131A6}"/>
+    <hyperlink ref="B407" r:id="rId377" xr:uid="{854F7466-1B4C-44B6-B2E4-771617261359}"/>
+    <hyperlink ref="B408" r:id="rId378" xr:uid="{589D49A4-9411-45CF-B796-F0BA35F92153}"/>
+    <hyperlink ref="B409" r:id="rId379" xr:uid="{7AA5D889-2023-4524-B831-FA062AB0B4CA}"/>
+    <hyperlink ref="B410" r:id="rId380" xr:uid="{0F472815-D730-4418-8482-4A55E3903491}"/>
+    <hyperlink ref="B411" r:id="rId381" xr:uid="{90302B4D-04D6-4941-9D2F-F8265A1A4D91}"/>
+    <hyperlink ref="B412" r:id="rId382" xr:uid="{727E96A3-03A3-4847-9D34-66C4B9D84E6E}"/>
+    <hyperlink ref="B413" r:id="rId383" xr:uid="{61D94A08-E5F9-4B02-B94D-52CDE53C7B21}"/>
+    <hyperlink ref="B414" r:id="rId384" xr:uid="{AFCB125E-0948-4118-8DB3-240522AF2288}"/>
+    <hyperlink ref="B415" r:id="rId385" xr:uid="{7864CC52-4EC3-4D1F-9CF6-F7FD661E7A0D}"/>
+    <hyperlink ref="B416" r:id="rId386" xr:uid="{85875D55-5227-4D58-87F6-C7456DAE6218}"/>
+    <hyperlink ref="B417" r:id="rId387" xr:uid="{937FF0A0-7598-40DC-9710-EF0B188EC6B2}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{1D75DD9D-792B-48DF-AF04-C68A9EC0D3D1}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{3E4A9A1C-E9E2-418A-9E80-9B24794B0509}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{AC3C3B16-28CA-4B81-ADB2-53A165B3F81A}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{44A251B5-4BD7-4EB8-8C99-04E75D1BDAE1}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{05A9C6E0-0BFC-4898-9CAF-0A214A8C7E60}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{56C63456-19D6-4C48-8381-E0C09A8755FA}"/>
+    <hyperlink ref="B425" r:id="rId394" xr:uid="{31550E36-7B11-4A9B-926B-2DFD7BC00E1C}"/>
+    <hyperlink ref="B424" r:id="rId395" xr:uid="{AE7141FF-D533-433F-9DE4-B77624CFEDF5}"/>
+    <hyperlink ref="B423" r:id="rId396" xr:uid="{EDEAE518-D588-4D52-ADD8-B0B1028F326B}"/>
+    <hyperlink ref="B422" r:id="rId397" xr:uid="{A0273355-5030-4350-9751-EA7B1609836B}"/>
+    <hyperlink ref="B421" r:id="rId398" xr:uid="{86B5C041-0389-431A-803F-ECD65182CEB1}"/>
+    <hyperlink ref="B420" r:id="rId399" xr:uid="{A73DE8C6-CB5D-4A02-BA77-3238C5A2B75E}"/>
+    <hyperlink ref="B419" r:id="rId400" xr:uid="{7BE2A8C4-5087-4CCB-81C4-05FFC079A01A}"/>
+    <hyperlink ref="B418" r:id="rId401" xr:uid="{4CFD7490-582F-4AC6-AF68-22E0E33E152E}"/>
+    <hyperlink ref="B432" r:id="rId402" xr:uid="{792A4D6C-3978-436A-8508-F2D8BD1DE8F0}"/>
+    <hyperlink ref="B433" r:id="rId403" xr:uid="{83C8BB86-9357-4515-A48B-5885A1249E55}"/>
+    <hyperlink ref="B434" r:id="rId404" xr:uid="{E5BBEC1E-F737-4988-90AE-FDBC3756F318}"/>
+    <hyperlink ref="B435" r:id="rId405" xr:uid="{4AD30D79-7336-435A-8578-A1082D58F005}"/>
+    <hyperlink ref="B436" r:id="rId406" xr:uid="{BC601B6B-B32C-44A1-BED9-711C47301EBE}"/>
+    <hyperlink ref="B437" r:id="rId407" xr:uid="{D195E23F-698D-4FAF-A7E8-7E26D1B3DAB1}"/>
+    <hyperlink ref="B438" r:id="rId408" xr:uid="{29CF1E5A-96BA-4544-87DB-A89FC27A98DD}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{83071E3B-CBCB-4FFB-A8C6-C0E65E45A85C}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{C11B309A-179A-4904-8E07-63ED30187FFE}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{9B5C2661-FB98-4A20-897C-867EABB61667}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{5F7C2D56-5C2B-4F6E-B5DE-732A140C6534}"/>
+    <hyperlink ref="B459" r:id="rId413" xr:uid="{58CF2042-BC2A-4A4B-BD33-5246131259B3}"/>
+    <hyperlink ref="B458" r:id="rId414" xr:uid="{31CB5BD4-2174-49CE-A5CD-4C8F3AE2466D}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{A976E837-8B19-4DA9-A0C0-3F63D5D373AE}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{F124A7A2-DF49-4C3B-8DAC-B7173C1A6C84}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{55F5E856-589D-48D3-AEAE-E7D9E62F3C3E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{DF4719B8-1086-4381-8574-E38FE7C095E5}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{E3E6AE37-FA66-44B8-84B9-1B42E23BF0CE}"/>
+    <hyperlink ref="B452" r:id="rId420" xr:uid="{872C3933-77DD-4917-AF0A-90D0109BA78C}"/>
+    <hyperlink ref="B451" r:id="rId421" xr:uid="{F74F2CC4-1DD8-4CA0-9E67-A9F6BEA7EAC0}"/>
+    <hyperlink ref="B450" r:id="rId422" xr:uid="{2FC12024-31E6-4CB5-A96B-1E39FE25F9E7}"/>
+    <hyperlink ref="B449" r:id="rId423" xr:uid="{6106247D-48FC-4921-B207-42E62495DF34}"/>
+    <hyperlink ref="B448" r:id="rId424" xr:uid="{108CA6CC-586E-4999-BEDB-6AFCFCED9406}"/>
+    <hyperlink ref="B447" r:id="rId425" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{84BF9DD9-1B0A-4600-BA3A-3E7C73E160F9}"/>
+    <hyperlink ref="B446" r:id="rId426" xr:uid="{148ACD1A-326C-4008-A697-54607F266416}"/>
+    <hyperlink ref="B445" r:id="rId427" xr:uid="{39B72568-C78D-448D-A77B-DF8D9382F68D}"/>
+    <hyperlink ref="B444" r:id="rId428" xr:uid="{F9645184-F598-4BB6-B263-876E785309E2}"/>
+    <hyperlink ref="B443" r:id="rId429" xr:uid="{79562905-80A9-421F-9D54-B1DEC0731B26}"/>
+    <hyperlink ref="B442" r:id="rId430" xr:uid="{5AD7172A-85EC-4B0C-BD8E-117ACC85EF68}"/>
+    <hyperlink ref="B441" r:id="rId431" xr:uid="{00004443-8814-4483-B9CA-50A2F59FF4A2}"/>
+    <hyperlink ref="B440" r:id="rId432" xr:uid="{83F7F29A-5BFF-4DDA-BBA6-3C9ADDBA701D}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{B2618CF2-7CB9-4024-905C-A801659DFAE5}"/>
+    <hyperlink ref="B511" r:id="rId434" xr:uid="{73C65F7E-E553-4C79-8072-34B07D499D08}"/>
+    <hyperlink ref="B510" r:id="rId435" xr:uid="{23826E7D-B2FF-46EF-A6BF-F6E6013AB444}"/>
+    <hyperlink ref="B509" r:id="rId436" xr:uid="{2891CA9D-36F2-498A-94E9-FDB828C7F7BA}"/>
+    <hyperlink ref="B508" r:id="rId437" display="https://www.evernote.com/shard/s567/nl/98932539/4e60e6d3-2e3a-4353-ac49-a703f224b4c0?title=Guiabolso%20lan%C3%A7a%20servi%C3%A7o%20para%20empresas%20%E2%80%98espiarem%E2%80%99%20concorrentes%20a%20partir%20de%20dados%20banc%C3%A1rios%20%7C%20Capital%20-%20O%20Globo" xr:uid="{E6D8180A-34FA-49C7-B596-FA478AD0ADD4}"/>
+    <hyperlink ref="B507" r:id="rId438" xr:uid="{59679622-611E-4BDE-ABBB-94557D0A05E8}"/>
+    <hyperlink ref="B506" r:id="rId439" xr:uid="{008A4116-D8F1-4345-BD72-CECC75273433}"/>
+    <hyperlink ref="B504" r:id="rId440" xr:uid="{95720035-2775-421E-B084-D49FDF348793}"/>
+    <hyperlink ref="B503" r:id="rId441" xr:uid="{3FA4808A-BF6F-411A-A5D9-C6619BCCF0D7}"/>
+    <hyperlink ref="B502" r:id="rId442" xr:uid="{7B35328E-16FF-432A-A228-C99058C2A55B}"/>
+    <hyperlink ref="B501" r:id="rId443" xr:uid="{AE411044-43CA-4B85-B851-E09DA6E49264}"/>
+    <hyperlink ref="B500" r:id="rId444" xr:uid="{7ABF7213-21A7-4273-8E83-2C2876D41D21}"/>
+    <hyperlink ref="B499" r:id="rId445" xr:uid="{D3C383BD-7233-4ACD-AF83-3D28E67D0846}"/>
+    <hyperlink ref="B498" r:id="rId446" xr:uid="{4C8A371C-17CB-495B-A093-DACAB2D2879C}"/>
+    <hyperlink ref="B497" r:id="rId447" xr:uid="{5077D831-B4A9-4A07-9E0F-A836E61B06D9}"/>
+    <hyperlink ref="B496" r:id="rId448" xr:uid="{D24A5906-6C3C-43D5-9B7E-3CEF469D844F}"/>
+    <hyperlink ref="B495" r:id="rId449" xr:uid="{6E2F84F7-DE1D-4DE7-9DA0-E95210F14C7C}"/>
+    <hyperlink ref="B494" r:id="rId450" xr:uid="{95A906D3-82B7-46E1-8F3B-FA0106DBE06E}"/>
+    <hyperlink ref="B493" r:id="rId451" xr:uid="{15D35731-EF52-403D-9C47-67740C7362A2}"/>
+    <hyperlink ref="B492" r:id="rId452" xr:uid="{6B76037E-BAEE-420E-8F8D-F6AB6A28DF85}"/>
+    <hyperlink ref="B491" r:id="rId453" xr:uid="{3A2C3716-EC74-4831-9522-25969282158B}"/>
+    <hyperlink ref="B490" r:id="rId454" xr:uid="{09A3175F-47A0-4B88-96C8-E6AFF362E720}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{45798A41-F70B-4186-9DD5-09CC63FA40A5}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{E875AE4C-213D-40E6-A7FB-F1EC559CDF2A}"/>
+    <hyperlink ref="B487" r:id="rId457" xr:uid="{21332419-AB65-4487-91BB-03E0013B1724}"/>
+    <hyperlink ref="B486" r:id="rId458" xr:uid="{D7380D9D-A918-44E2-A4C2-0D4294F41887}"/>
+    <hyperlink ref="B485" r:id="rId459" xr:uid="{C0901B16-FAE2-4C61-B6BE-E24E8D0D71E7}"/>
+    <hyperlink ref="B484" r:id="rId460" xr:uid="{9ECB389D-E05E-4B3F-B50E-B6A486F4FAA8}"/>
+    <hyperlink ref="B483" r:id="rId461" xr:uid="{E551A745-9D8B-4AC4-9229-777F30AE7E07}"/>
+    <hyperlink ref="B482" r:id="rId462" xr:uid="{514A1B19-F534-4C47-A1DF-B2DA6EE2279A}"/>
+    <hyperlink ref="B481" r:id="rId463" xr:uid="{090F088E-0E74-4E49-8343-327BC1263036}"/>
+    <hyperlink ref="B480" r:id="rId464" xr:uid="{02C8B540-3136-4B89-8D40-E0A480276049}"/>
+    <hyperlink ref="B479" r:id="rId465" xr:uid="{94802932-00B5-40DF-8440-D0F93223A478}"/>
+    <hyperlink ref="B478" r:id="rId466" xr:uid="{8D483E4B-61E6-45DF-83CF-8E367BBE24AD}"/>
+    <hyperlink ref="B477" r:id="rId467" xr:uid="{A585113D-3CAD-4125-98E1-73CB98A14679}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{E15EB02C-9A97-4741-93A2-39D6832712D3}"/>
+    <hyperlink ref="B474" r:id="rId469" xr:uid="{11A64274-97D1-4EF0-B1DD-759BA6E755E3}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{1F31CDBC-F344-4CA4-8A4D-05FE6DAA9AD5}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{B8EC7F23-2C9E-4A3D-9129-2A340B866FF7}"/>
+    <hyperlink ref="B473" r:id="rId472" xr:uid="{1A7FB7F4-C49B-4CC9-AD14-DACD39FB3DEF}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{BC105831-78BB-4167-96AD-9026E008A127}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{13A42F2C-52E5-42A9-87A4-FDF38FF4413A}"/>
+    <hyperlink ref="B470" r:id="rId475" xr:uid="{3019CE03-E356-49E2-BD53-F178EB4F21E3}"/>
+    <hyperlink ref="B468" r:id="rId476" xr:uid="{A15843A2-464F-4E87-B93F-D19869336B3B}"/>
+    <hyperlink ref="B467" r:id="rId477" xr:uid="{910D9B82-FB86-423E-9241-0BFDE234EC03}"/>
+    <hyperlink ref="B466" r:id="rId478" xr:uid="{0FE8FA64-CA07-4F8C-993D-77129C5F1771}"/>
+    <hyperlink ref="B465" r:id="rId479" xr:uid="{CB32DE6D-6B49-4E2C-9605-57EBD74A3A3D}"/>
+    <hyperlink ref="B464" r:id="rId480" xr:uid="{3B518BD1-1582-4346-9B9F-C0C484807D04}"/>
+    <hyperlink ref="B537" r:id="rId481" xr:uid="{A82EB032-CDBB-48FF-AE2A-BA2A04F20337}"/>
+    <hyperlink ref="B536" r:id="rId482" xr:uid="{A45A2DA9-9FB0-483E-8178-3652B7C4EA32}"/>
+    <hyperlink ref="B535" r:id="rId483" xr:uid="{54302BB4-B13A-48FD-9633-20B84F2D52E8}"/>
+    <hyperlink ref="B534" r:id="rId484" xr:uid="{27E1E570-05B3-492A-9CCB-FE4D378E3F24}"/>
+    <hyperlink ref="B533" r:id="rId485" xr:uid="{F943D9DC-E86C-4DE6-AC18-47B14A1ADA99}"/>
+    <hyperlink ref="B532" r:id="rId486" xr:uid="{437AC6BE-B03C-4A9A-83F8-E8D253567826}"/>
+    <hyperlink ref="B531" r:id="rId487" xr:uid="{4BA3BE05-D916-4D46-8D4D-2AC54A7EE52A}"/>
+    <hyperlink ref="B530" r:id="rId488" xr:uid="{0EB92ACC-5289-441B-A183-2E09E4A1FAA9}"/>
+    <hyperlink ref="B529" r:id="rId489" xr:uid="{7B29CFD5-B116-42D3-BC93-512B7CFDD8F2}"/>
+    <hyperlink ref="B528" r:id="rId490" xr:uid="{2A0C894E-B4EF-4B98-9328-4F8A5C32F34A}"/>
+    <hyperlink ref="B527" r:id="rId491" xr:uid="{122CB55F-EDBF-4869-A8AF-0EC00BBA9889}"/>
+    <hyperlink ref="B524" r:id="rId492" xr:uid="{8C339EDD-C76A-4887-8FA6-0A5811F7FF63}"/>
+    <hyperlink ref="B523" r:id="rId493" xr:uid="{C364B7F9-080A-4445-8A02-63122AB59241}"/>
+    <hyperlink ref="B522" r:id="rId494" xr:uid="{47BEFBC5-C5C4-491F-BA15-E11AA4152C55}"/>
+    <hyperlink ref="B521" r:id="rId495" xr:uid="{9789C240-F30D-43C0-AE0B-D2BDE779BF12}"/>
+    <hyperlink ref="B520" r:id="rId496" xr:uid="{2D82D48C-FE0D-4C2F-9C59-8A01EE060A1C}"/>
+    <hyperlink ref="B519" r:id="rId497" xr:uid="{EC043BC8-40D8-4EF7-A933-A9493E0BCC93}"/>
+    <hyperlink ref="B518" r:id="rId498" xr:uid="{735AB94D-10C8-4B62-935A-E87C1A0D9E97}"/>
+    <hyperlink ref="B517" r:id="rId499" xr:uid="{B0D9D350-A7E0-43DD-B4E1-4E45B6393E46}"/>
+    <hyperlink ref="B516" r:id="rId500" xr:uid="{D1F0DFC9-ED9D-49BD-8838-CEBF9679DA5E}"/>
+    <hyperlink ref="B515" r:id="rId501" xr:uid="{A0465A50-B645-456B-A552-167620DE80BD}"/>
+    <hyperlink ref="B514" r:id="rId502" xr:uid="{99C7B3A5-41F9-4842-B3DA-82674E45D51D}"/>
+    <hyperlink ref="B513" r:id="rId503" xr:uid="{49953CBA-AF0D-49C5-B980-FB5551A89A61}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{158E0D2A-8F65-44A5-A67C-EDDE7FF94C76}"/>
+    <hyperlink ref="B525" r:id="rId505" xr:uid="{5896EF75-CE03-4D05-9780-AE8FBD96B9B3}"/>
+    <hyperlink ref="B526" r:id="rId506" xr:uid="{26FA069E-8894-4C5D-8939-9D7F6610DAAD}"/>
+    <hyperlink ref="B566" r:id="rId507" xr:uid="{A4E4386C-CA70-44A6-952C-920DC0616C6A}"/>
+    <hyperlink ref="B565" r:id="rId508" xr:uid="{AD19747D-40B6-45DD-A57E-2AE73A2A533C}"/>
+    <hyperlink ref="B564" r:id="rId509" xr:uid="{C21B12E1-3EAE-402D-B61D-F2055358A5A2}"/>
+    <hyperlink ref="B563" r:id="rId510" location="3" xr:uid="{EBC6D8E8-76FA-41A4-9557-DB9E86B83F98}"/>
+    <hyperlink ref="B562" r:id="rId511" xr:uid="{E22DD86D-2853-48DB-842C-E141D3D8ADB1}"/>
+    <hyperlink ref="B561" r:id="rId512" xr:uid="{01A813F1-CACE-438A-8F11-C5079B305023}"/>
+    <hyperlink ref="B560" r:id="rId513" xr:uid="{B7814DAE-788C-4642-A956-BA6DC0D19533}"/>
+    <hyperlink ref="B559" r:id="rId514" xr:uid="{B92627F9-F83A-4F00-A86B-5F9BBC55F5AE}"/>
+    <hyperlink ref="B558" r:id="rId515" xr:uid="{61F118BF-22E3-4479-8F85-B958A977983C}"/>
+    <hyperlink ref="B557" r:id="rId516" xr:uid="{D27801B0-44C7-4D97-AE98-AF39F15DE466}"/>
+    <hyperlink ref="B556" r:id="rId517" xr:uid="{BB27D87C-6374-4515-B10A-B584A703E890}"/>
+    <hyperlink ref="B555" r:id="rId518" xr:uid="{E9DC03C5-3E60-4026-9590-6547FBE33613}"/>
+    <hyperlink ref="B554" r:id="rId519" xr:uid="{5AFC0D4F-DF23-42BA-A005-AE095D9B490C}"/>
+    <hyperlink ref="B553" r:id="rId520" xr:uid="{C26AE3D2-0897-4E10-A0F8-F656F81031D1}"/>
+    <hyperlink ref="B552" r:id="rId521" xr:uid="{4776ECA0-093D-437D-A8F2-944E4558468A}"/>
+    <hyperlink ref="B551" r:id="rId522" xr:uid="{A54CC07C-56D3-42D4-BC01-9553740EBABB}"/>
+    <hyperlink ref="B550" r:id="rId523" xr:uid="{2F8A0921-DA9C-4FB1-9931-C239948DE59A}"/>
+    <hyperlink ref="B549" r:id="rId524" xr:uid="{567B021B-B9E7-4AF6-A786-85828945AA1A}"/>
+    <hyperlink ref="B548" r:id="rId525" xr:uid="{CA87CB17-889C-482A-84C9-3418E4AE66C9}"/>
+    <hyperlink ref="B547" r:id="rId526" xr:uid="{FF2A5E93-1343-443E-B703-102FF54B2F11}"/>
+    <hyperlink ref="B546" r:id="rId527" xr:uid="{FA4989B7-EBF4-405A-A3BE-71EA89CB615E}"/>
+    <hyperlink ref="B545" r:id="rId528" xr:uid="{96A77076-FAE6-424D-B05A-3C52DEF2C876}"/>
+    <hyperlink ref="B544" r:id="rId529" xr:uid="{3BB4DF3A-B7C1-4394-ACB2-2E570A11D289}"/>
+    <hyperlink ref="B543" r:id="rId530" xr:uid="{CA8D236A-E8BD-4C65-AF98-23577141230F}"/>
+    <hyperlink ref="B542" r:id="rId531" xr:uid="{3921E2CB-0378-4AC4-B24B-B420AFF75A4E}"/>
+    <hyperlink ref="B541" r:id="rId532" xr:uid="{11A5084B-E98B-4609-AC85-051D40D4FC2F}"/>
+    <hyperlink ref="B540" r:id="rId533" xr:uid="{3413C5AF-A48A-49D0-99D2-0348B733011B}"/>
+    <hyperlink ref="B539" r:id="rId534" xr:uid="{1C8CA24E-B735-4D8A-AC49-201262A72062}"/>
+    <hyperlink ref="B538" r:id="rId535" xr:uid="{D7A6AAFF-221B-4BF2-A707-E5DC43DC7E68}"/>
+    <hyperlink ref="B575" r:id="rId536" xr:uid="{97DA8C81-8C07-446F-8435-0B1395256C57}"/>
+    <hyperlink ref="B574" r:id="rId537" xr:uid="{E9183396-E049-4078-9FC0-7A2BDD998DEF}"/>
+    <hyperlink ref="B573" r:id="rId538" xr:uid="{2572A69B-76B4-4985-9D62-9862DC6C04DF}"/>
+    <hyperlink ref="B572" r:id="rId539" xr:uid="{CA9A2B12-ED52-4D6C-8393-CA1EB7394593}"/>
+    <hyperlink ref="B571" r:id="rId540" xr:uid="{9B0B9E65-E531-4174-AABE-57109605104C}"/>
+    <hyperlink ref="B570" r:id="rId541" xr:uid="{CB0F7D79-DEE6-45F5-81D4-9E69AB4D5CE9}"/>
+    <hyperlink ref="B569" r:id="rId542" xr:uid="{676507EB-8E46-469A-A399-61FFF7D919FB}"/>
+    <hyperlink ref="B568" r:id="rId543" xr:uid="{229F76A0-0D5D-4971-BFE8-D87477C1E384}"/>
+    <hyperlink ref="B567" r:id="rId544" xr:uid="{725BEBAF-A463-48B8-87AD-1E4E3BBD4171}"/>
+    <hyperlink ref="B586" r:id="rId545" xr:uid="{1A678F5F-84EF-4C0D-93E6-4A8A1EC4DE7D}"/>
+    <hyperlink ref="B585" r:id="rId546" xr:uid="{F3BF7278-8E79-4AFC-8F5C-2353C5E0C563}"/>
+    <hyperlink ref="B584" r:id="rId547" xr:uid="{D0C67424-CAEF-406A-B615-F5DB0BF9BE5B}"/>
+    <hyperlink ref="B583" r:id="rId548" xr:uid="{9B135435-CB15-4781-BDF9-9579CD87197E}"/>
+    <hyperlink ref="B582" r:id="rId549" xr:uid="{7EE75AFD-72B5-42A3-9729-583558D390A3}"/>
+    <hyperlink ref="B581" r:id="rId550" xr:uid="{1F8D6127-713A-4F2E-BDF5-6B722BDF40D5}"/>
+    <hyperlink ref="B580" r:id="rId551" xr:uid="{57CCC017-FB3D-467C-9FF1-0D632AB64B52}"/>
+    <hyperlink ref="B579" r:id="rId552" xr:uid="{78B90799-724D-414C-B4B7-C8E6CB8148CD}"/>
+    <hyperlink ref="B578" r:id="rId553" xr:uid="{0C3FE6EF-1DB9-4A03-8550-AAE4826961D8}"/>
+    <hyperlink ref="B577" r:id="rId554" xr:uid="{BF3D1E6B-0138-4EC1-A467-86CA5301BC09}"/>
+    <hyperlink ref="B576" r:id="rId555" xr:uid="{FF461E59-463B-4FDE-941B-1F7F014F2FA4}"/>
+    <hyperlink ref="B587" r:id="rId556" xr:uid="{E2706522-199D-47B2-ADBC-772A5EF95CFE}"/>
+    <hyperlink ref="B588" r:id="rId557" xr:uid="{0C96A14E-E767-4CEE-914E-4585EBB6AA31}"/>
+    <hyperlink ref="B589" r:id="rId558" xr:uid="{388860FB-2783-4869-A737-9F9F24A1DD58}"/>
+    <hyperlink ref="B590" r:id="rId559" xr:uid="{19999378-E956-4A24-B533-B314CD42D03F}"/>
+    <hyperlink ref="B591" r:id="rId560" xr:uid="{B885B351-8C8D-4228-9D0A-75E6D47E33F6}"/>
+    <hyperlink ref="B592" r:id="rId561" xr:uid="{D8ECFA25-D8CD-4366-B61F-BA4CEE7EBDD6}"/>
+    <hyperlink ref="B593" r:id="rId562" xr:uid="{0572BB55-CADD-44F4-8BD9-0CC1BECC692E}"/>
+    <hyperlink ref="B594" r:id="rId563" xr:uid="{0164117B-C135-4492-AE25-574ACA8BBBD7}"/>
+    <hyperlink ref="B595" r:id="rId564" xr:uid="{0D70D509-D7FE-4575-BB92-0108444A1E0A}"/>
+    <hyperlink ref="B596" r:id="rId565" xr:uid="{8157CB49-6960-4002-9101-2F5225AA79DB}"/>
+    <hyperlink ref="B597" r:id="rId566" xr:uid="{2999EE5A-ED00-45DA-8C36-4DB6B0CDC1F5}"/>
+    <hyperlink ref="B598" r:id="rId567" xr:uid="{2928874A-6BE7-4DE0-AA31-B320A3A630CA}"/>
+    <hyperlink ref="B599" r:id="rId568" xr:uid="{224209AB-C87B-40A6-9D36-A20EFB36A33A}"/>
+    <hyperlink ref="B600" r:id="rId569" xr:uid="{9C5ADB4E-54EF-499C-83CE-724ABBA24417}"/>
+    <hyperlink ref="B601" r:id="rId570" xr:uid="{9FBCC3BC-28A9-447B-8C43-E20BB42E2CA1}"/>
+    <hyperlink ref="B602" r:id="rId571" xr:uid="{7FBA5C94-7B67-4074-B783-5D9DC3D528AB}"/>
+    <hyperlink ref="B603" r:id="rId572" xr:uid="{01938AE7-871A-4B8F-BEC0-1E6199E4D435}"/>
+    <hyperlink ref="B604" r:id="rId573" xr:uid="{10EA66B1-68C7-4A0C-A779-D55FBC9D820E}"/>
+    <hyperlink ref="B605" r:id="rId574" xr:uid="{C9145816-4642-48C7-AF7C-6079FFA19CE6}"/>
+    <hyperlink ref="B606" r:id="rId575" xr:uid="{F7169A6A-213A-4A61-8CA5-3912FB642E2B}"/>
+    <hyperlink ref="B607" r:id="rId576" xr:uid="{BBDC3C4F-F354-41F2-A7AD-A53700DB964B}"/>
+    <hyperlink ref="B608" r:id="rId577" xr:uid="{8821F122-CFAD-449C-A274-481C9D1B7557}"/>
+    <hyperlink ref="B609" r:id="rId578" xr:uid="{117B0F75-B33A-4C03-A09A-971240526B8C}"/>
+    <hyperlink ref="B610" r:id="rId579" xr:uid="{0A39EDFE-088D-4E70-A3FA-BE22C78462A8}"/>
+    <hyperlink ref="B612" r:id="rId580" xr:uid="{0721FDAF-D7B8-426B-9DE0-62B97BFEB029}"/>
+    <hyperlink ref="B613" r:id="rId581" xr:uid="{B7C6B5F1-6B18-491F-A854-B07B0C2D1021}"/>
+    <hyperlink ref="B614" r:id="rId582" xr:uid="{9D7F77C5-D770-44B5-AD82-D3F721ACD028}"/>
+    <hyperlink ref="B615" r:id="rId583" xr:uid="{596CB889-4EE8-4628-9CEC-6F3E829EA352}"/>
+    <hyperlink ref="B618" r:id="rId584" xr:uid="{9CD9CFD0-8FAB-475F-8422-45873F85E255}"/>
+    <hyperlink ref="B619" r:id="rId585" xr:uid="{57E51361-F549-4860-8A46-EF11011BE96D}"/>
+    <hyperlink ref="B620" r:id="rId586" xr:uid="{0CBE266F-0EC5-4102-AE8B-06B6B82FF52D}"/>
+    <hyperlink ref="B621" r:id="rId587" xr:uid="{31821D9A-1144-452D-95E8-E2E0DB530987}"/>
+    <hyperlink ref="B622" r:id="rId588" xr:uid="{A5164599-25DC-49C8-B592-4CF232324E2E}"/>
+    <hyperlink ref="B623" r:id="rId589" xr:uid="{85D87EE5-1D4F-4D97-8DF6-05ECF93FB6A3}"/>
+    <hyperlink ref="B624" r:id="rId590" xr:uid="{795EE163-85EE-466B-8404-91553648851E}"/>
+    <hyperlink ref="B625" r:id="rId591" xr:uid="{20FFE414-2AD1-4C48-AB32-E366F23A46DE}"/>
+    <hyperlink ref="B626" r:id="rId592" xr:uid="{0535D6EB-2E0A-4A50-A2C6-0FCCB462BC0A}"/>
+    <hyperlink ref="B627" r:id="rId593" xr:uid="{9BD650DF-DC63-41D5-A8EB-E03EF3453FC1}"/>
+    <hyperlink ref="B628" r:id="rId594" xr:uid="{0D8CC01B-CABD-47CF-80E4-F60337FA334E}"/>
+    <hyperlink ref="B629" r:id="rId595" xr:uid="{65589AAC-B548-4738-B31D-35CB2B6A0F61}"/>
+    <hyperlink ref="B630" r:id="rId596" xr:uid="{5BC828DA-D31B-432C-A620-62CC878E36F0}"/>
+    <hyperlink ref="B631" r:id="rId597" xr:uid="{6CC5A794-AD1F-4983-B981-77E07615187D}"/>
+    <hyperlink ref="B632" r:id="rId598" xr:uid="{992252D1-5C47-480A-A679-624F4506E1FE}"/>
+    <hyperlink ref="B611" r:id="rId599" xr:uid="{F15118F8-2B82-496C-8232-D0997A22F24C}"/>
+    <hyperlink ref="B616" r:id="rId600" xr:uid="{99A9B6DC-2046-446B-849D-09622981F73E}"/>
+    <hyperlink ref="B617" r:id="rId601" xr:uid="{A4AE30FC-FA8F-464F-8067-49CC98090236}"/>
+    <hyperlink ref="B633" r:id="rId602" xr:uid="{3FA8C6B9-7995-4054-8597-B1BBA51DD916}"/>
+    <hyperlink ref="B634" r:id="rId603" xr:uid="{1089B6BB-03DB-4D25-A286-DC8896E9ECC4}"/>
+    <hyperlink ref="B635" r:id="rId604" xr:uid="{3442EF8D-123A-4366-BCD5-B6470B3B73A8}"/>
+    <hyperlink ref="B636" r:id="rId605" xr:uid="{589C650B-FBEE-48E5-AA0B-563CDAE5518C}"/>
+    <hyperlink ref="B637" r:id="rId606" xr:uid="{3BFAC721-D8F4-4543-B94E-55C722DCC4ED}"/>
+    <hyperlink ref="B638" r:id="rId607" xr:uid="{E633112B-F842-4112-A6AE-08E58AF6E678}"/>
+    <hyperlink ref="B639" r:id="rId608" xr:uid="{00230D3C-26E2-4F33-AFFF-CC8224A2A522}"/>
+    <hyperlink ref="B640" r:id="rId609" xr:uid="{88E929C5-A6C3-421D-808A-DA3EE623B92B}"/>
+    <hyperlink ref="B641" r:id="rId610" xr:uid="{4DAC2F30-6187-41BD-8BFB-8AC6C40DCA78}"/>
+    <hyperlink ref="B642" r:id="rId611" xr:uid="{4134A978-97D0-4A6F-B55C-4C750C2B02DE}"/>
+    <hyperlink ref="B643" r:id="rId612" xr:uid="{456A8218-46DA-4334-9F23-689C690D4EC9}"/>
+    <hyperlink ref="B644" r:id="rId613" xr:uid="{8920A299-57E7-450E-9E07-4E3E30C5923E}"/>
+    <hyperlink ref="B645" r:id="rId614" xr:uid="{D829C833-ADD0-425E-AE36-88CBDD8CDE54}"/>
+    <hyperlink ref="B646" r:id="rId615" xr:uid="{B1ADE8C1-7C75-4D85-A845-2338B826BAFE}"/>
+    <hyperlink ref="B647" r:id="rId616" xr:uid="{0B529C69-42CA-4495-A8AF-36DFBF6320B8}"/>
+    <hyperlink ref="B648" r:id="rId617" xr:uid="{496482C6-2560-4708-BF8D-617B2200F7E5}"/>
+    <hyperlink ref="B649" r:id="rId618" xr:uid="{AA6D8BE6-D053-45E3-AB21-E5D637226C9E}"/>
+    <hyperlink ref="B650" r:id="rId619" xr:uid="{E261563B-FCC0-4208-9D30-D61AE93159E4}"/>
+    <hyperlink ref="B651" r:id="rId620" xr:uid="{82C797A6-95E6-4B16-BCAD-3766ABE34786}"/>
+    <hyperlink ref="B652" r:id="rId621" xr:uid="{DC73319D-A62B-45FA-A0C3-C23723514856}"/>
+    <hyperlink ref="B653" r:id="rId622" xr:uid="{51E67041-F4CC-4751-A59F-3DAD5FDD5D37}"/>
+    <hyperlink ref="B654" r:id="rId623" xr:uid="{662D72DC-8C90-4405-ADE0-54165048125F}"/>
+    <hyperlink ref="B655" r:id="rId624" xr:uid="{86B2E4E3-8270-4799-A1A0-597B087AE4C7}"/>
+    <hyperlink ref="B656" r:id="rId625" xr:uid="{9DC5C48E-F67E-4650-8A55-BCC539330F9C}"/>
+    <hyperlink ref="B657" r:id="rId626" xr:uid="{25E68228-C701-45D9-B39D-3411C21FDA78}"/>
+    <hyperlink ref="B658" r:id="rId627" xr:uid="{C7F320FC-E28B-432B-9D47-20ABBBE4A11D}"/>
+    <hyperlink ref="B659" r:id="rId628" xr:uid="{801D28DA-951F-493C-AE97-B3586EDF9337}"/>
+    <hyperlink ref="B660" r:id="rId629" xr:uid="{39A4DF81-8E0C-40FC-9D17-C54D7A45D911}"/>
+    <hyperlink ref="B661" r:id="rId630" xr:uid="{D07EEA94-0FB8-4463-843C-2E676037A17A}"/>
+    <hyperlink ref="B662" r:id="rId631" xr:uid="{DC542453-B7BF-427C-B3B5-19CD8C16D0D5}"/>
+    <hyperlink ref="B663" r:id="rId632" xr:uid="{725A23C9-2C89-4C2C-8200-9BA06FD62E1B}"/>
+    <hyperlink ref="B664" r:id="rId633" xr:uid="{C12CB0D0-D500-4CAF-BC44-337D62355033}"/>
+    <hyperlink ref="B665" r:id="rId634" xr:uid="{6375F1D3-0CC6-4105-A6A8-1303FA345EBA}"/>
+    <hyperlink ref="B666" r:id="rId635" xr:uid="{16D974D6-E32D-40AA-B814-0F0B4ADDF7F9}"/>
+    <hyperlink ref="B667" r:id="rId636" xr:uid="{FBEC175D-47CA-44ED-BF29-7C5E7B32AE0E}"/>
+    <hyperlink ref="B675" r:id="rId637" xr:uid="{D3D2077E-B261-4AF4-8A1E-F5777EC7E5E5}"/>
+    <hyperlink ref="B668" r:id="rId638" xr:uid="{F74F4710-5065-4532-B2F2-A39CB77543C3}"/>
+    <hyperlink ref="B669" r:id="rId639" xr:uid="{4CBB7BCF-23B8-436C-A855-5C58D0603F27}"/>
+    <hyperlink ref="B670" r:id="rId640" xr:uid="{1167D69D-6815-4877-A9DF-149F564BC2BD}"/>
+    <hyperlink ref="B671" r:id="rId641" xr:uid="{3C6F3407-CA1E-46AF-AA1D-35C58172831B}"/>
+    <hyperlink ref="B672" r:id="rId642" xr:uid="{321AEBB0-A07B-4991-9C81-AE0CEFD46375}"/>
+    <hyperlink ref="B673" r:id="rId643" xr:uid="{0FA785DA-6C4E-4016-AE83-F7C1A1EBF0F0}"/>
+    <hyperlink ref="B674" r:id="rId644" xr:uid="{CC8D4FE2-DCEC-43AD-9148-64937805DD5B}"/>
+    <hyperlink ref="B678" r:id="rId645" xr:uid="{6CFBFB22-58D7-405A-813F-8AB224529F19}"/>
+    <hyperlink ref="B682" r:id="rId646" xr:uid="{D3DF5A90-5A23-4AF2-9195-47123FD56191}"/>
+    <hyperlink ref="B684" r:id="rId647" xr:uid="{D67C50B6-4C92-4ADF-9634-D2A257257BAA}"/>
+    <hyperlink ref="B680" r:id="rId648" xr:uid="{7D02F3B8-9A0F-4BB1-B77B-B54923891D4C}"/>
+    <hyperlink ref="B687" r:id="rId649" xr:uid="{1D483B2A-353B-4C7C-9E4C-F0C0FDCFFC02}"/>
+    <hyperlink ref="B686" r:id="rId650" xr:uid="{8BBDCD82-7AF4-423D-A8C8-2520F6528036}"/>
+    <hyperlink ref="B683" r:id="rId651" xr:uid="{92A6FA78-C035-4E18-BE3B-7C991A8A5B01}"/>
+    <hyperlink ref="B685" r:id="rId652" xr:uid="{612CD831-BAB1-4316-980C-B34EC52AF372}"/>
+    <hyperlink ref="B679" r:id="rId653" xr:uid="{28397DFB-FD09-41B7-A5A1-A59F0CBBAC92}"/>
+    <hyperlink ref="B676" r:id="rId654" xr:uid="{83E620C7-A01D-41E8-838D-94B96E24CE83}"/>
+    <hyperlink ref="B677" r:id="rId655" xr:uid="{B913C4CF-46EA-484B-BFFE-8365FB9585F8}"/>
+    <hyperlink ref="B681" r:id="rId656" xr:uid="{B10C5FA1-4857-4957-85D1-1FF3D07DD419}"/>
+    <hyperlink ref="B706" r:id="rId657" xr:uid="{1A1EF7C2-94F3-4A9D-B96C-A655ACDC9F75}"/>
+    <hyperlink ref="B705" r:id="rId658" xr:uid="{03834AD8-B5AA-42F2-B853-C8371F75B1AA}"/>
+    <hyperlink ref="B704" r:id="rId659" xr:uid="{2D9C8362-4BB9-4BD2-AE16-55E58D04E976}"/>
+    <hyperlink ref="B703" r:id="rId660" xr:uid="{14E9FACB-770E-48D4-84A8-B3AD9FE08F71}"/>
+    <hyperlink ref="B702" r:id="rId661" xr:uid="{75FF005F-136C-4D01-B3EA-0A5EEC80514C}"/>
+    <hyperlink ref="B701" r:id="rId662" xr:uid="{3232FF82-2228-4152-8380-9DD2AC432BD8}"/>
+    <hyperlink ref="B700" r:id="rId663" xr:uid="{186A725D-F684-4104-9702-E924532A0961}"/>
+    <hyperlink ref="B699" r:id="rId664" xr:uid="{94A65993-C620-4610-8FBE-0CC2EB876930}"/>
+    <hyperlink ref="B698" r:id="rId665" xr:uid="{30D5488B-0212-4B34-B9A8-8F6661205072}"/>
+    <hyperlink ref="B697" r:id="rId666" xr:uid="{35EB2772-62C9-48A1-A475-F73321A69983}"/>
+    <hyperlink ref="B696" r:id="rId667" xr:uid="{6A1DB11A-A13B-4D35-A75C-58CA0CD7F67C}"/>
+    <hyperlink ref="B695" r:id="rId668" xr:uid="{0762AF4A-7E41-41A7-B15F-A050B694ED28}"/>
+    <hyperlink ref="B694" r:id="rId669" xr:uid="{C03CDA47-421D-4B61-ADCE-5C2899E33354}"/>
+    <hyperlink ref="B693" r:id="rId670" xr:uid="{4C65BE38-FE62-4239-8777-1B7E25DC5B3D}"/>
+    <hyperlink ref="B692" r:id="rId671" xr:uid="{EC884B01-CC8C-4B5A-A085-231E0380192B}"/>
+    <hyperlink ref="B691" r:id="rId672" xr:uid="{AE61378A-E99D-489B-BDDC-6A4E0E12006D}"/>
+    <hyperlink ref="B690" r:id="rId673" xr:uid="{1F5028A9-82E8-43D9-9FD3-FF4B8F459225}"/>
+    <hyperlink ref="B689" r:id="rId674" xr:uid="{C80FA571-D868-48F5-95E2-EC36FBDB4356}"/>
+    <hyperlink ref="B688" r:id="rId675" xr:uid="{C47431DF-8121-4ECB-AE12-FFB59F87397B}"/>
+    <hyperlink ref="B707" r:id="rId676" xr:uid="{685A0301-589F-46ED-9CE2-11F3BBE39396}"/>
+    <hyperlink ref="B708" r:id="rId677" xr:uid="{5BF54517-8961-49E8-9C8A-83D44EA99CED}"/>
+    <hyperlink ref="B709" r:id="rId678" xr:uid="{CAF52BBC-0D56-4E1D-B82B-E8DAA3681D3F}"/>
+    <hyperlink ref="B710" r:id="rId679" xr:uid="{1674B3D4-21A1-4384-8D9F-703B5BFC76E6}"/>
+    <hyperlink ref="B711" r:id="rId680" xr:uid="{3D94458D-4B30-4E26-B7AB-A683FB281021}"/>
+    <hyperlink ref="B712" r:id="rId681" xr:uid="{2FD32253-BD36-4C2C-8A88-4FD80C138EF2}"/>
+    <hyperlink ref="B713" r:id="rId682" display="https://www.evernote.com/shard/s567/nl/98932539/bdcbc8f6-d3d0-4801-baa4-62b61c41c12f?title=Com%20apoio%20da%20tecnologia,%20e-commerce%20d%C3%A1%20salto%20de%205%20anos%20em%20poucos%20meses%20na%20pandemia%20%7C%20Juntos%20no%20Pr%C3%B3ximo%20N%C3%ADvel%20%7C%20Valor%20Econ%C3%B4mico" xr:uid="{33F961DB-6F10-4B23-9AFC-42C6CB7176A7}"/>
+    <hyperlink ref="B714" r:id="rId683" xr:uid="{71261E9B-7F12-41D1-BB34-78AD995B066A}"/>
+    <hyperlink ref="B715" r:id="rId684" xr:uid="{A05B186C-E7B0-44F3-B7F4-5AE61D67340D}"/>
+    <hyperlink ref="B716" r:id="rId685" xr:uid="{9CF4B302-F5DA-4896-B99E-A767EB49D57D}"/>
+    <hyperlink ref="B717" r:id="rId686" xr:uid="{EA4A8527-DA73-4412-A0B3-C4C887B10208}"/>
+    <hyperlink ref="B718" r:id="rId687" xr:uid="{4D8D5574-EC3F-45ED-8F89-7B5789F6189F}"/>
+    <hyperlink ref="B719" r:id="rId688" xr:uid="{CA1943D0-C426-4A66-9690-CB33AAAA3F48}"/>
+    <hyperlink ref="B720" r:id="rId689" xr:uid="{A977994C-DD56-4FAE-B5AA-07F3649D48D7}"/>
+    <hyperlink ref="B721" r:id="rId690" xr:uid="{99585FB6-DDC8-4D6E-B03B-A4DC4DDCBCFB}"/>
+    <hyperlink ref="B722" r:id="rId691" xr:uid="{BBC2AF6A-D225-45FE-AF23-D983D98EE119}"/>
+    <hyperlink ref="B723" r:id="rId692" xr:uid="{F1F60EA8-5806-4C08-9EDE-6C868FFF89DF}"/>
+    <hyperlink ref="B724" r:id="rId693" xr:uid="{762E77C4-4AD3-4E2F-98F5-3CF65E65CCFD}"/>
+    <hyperlink ref="B725" r:id="rId694" xr:uid="{5015FC1A-82EA-48B5-8A0C-33E5ED39635B}"/>
+    <hyperlink ref="B726" r:id="rId695" xr:uid="{2FD5AABC-32BD-484C-A41D-837711B78869}"/>
+    <hyperlink ref="B727" r:id="rId696" xr:uid="{FA889FF6-F811-41E5-913A-58BEF73EB913}"/>
+    <hyperlink ref="B728" r:id="rId697" xr:uid="{DBEF5F8D-D044-40B9-8ACC-91F4ABC20C51}"/>
+    <hyperlink ref="B729" r:id="rId698" xr:uid="{1AA30322-768D-4FA7-BA46-3C2B7D969134}"/>
+    <hyperlink ref="B730" r:id="rId699" xr:uid="{124FD124-BE2B-49A8-8B80-7CFB117F0070}"/>
+    <hyperlink ref="B731" r:id="rId700" xr:uid="{2593DE16-5371-4113-ACA6-73883CD00B26}"/>
+    <hyperlink ref="B732" r:id="rId701" xr:uid="{D7CAD95F-72D4-47BB-812F-820EEAED703A}"/>
+    <hyperlink ref="B733" r:id="rId702" xr:uid="{40F39A0F-E211-4F57-A646-59F600B275CC}"/>
+    <hyperlink ref="B734" r:id="rId703" xr:uid="{59DA0C91-DD1F-41E3-94D9-B94E25966BA6}"/>
+    <hyperlink ref="B735" r:id="rId704" xr:uid="{18FD02EF-D06C-4FA0-B836-E53961E336A1}"/>
+    <hyperlink ref="B736" r:id="rId705" xr:uid="{EC873D08-8F5F-452D-90EE-763CB9FFDF8D}"/>
+    <hyperlink ref="B737" r:id="rId706" xr:uid="{13DDCE1D-D01F-48E1-BC4B-95DF2E3AFB33}"/>
+    <hyperlink ref="B738" r:id="rId707" xr:uid="{1A98E15C-80DC-4F11-88A2-9724B41B0717}"/>
+    <hyperlink ref="B739" r:id="rId708" xr:uid="{0BE801CF-8F1F-46C1-B2BD-E5E1BA193C1F}"/>
+    <hyperlink ref="B740" r:id="rId709" xr:uid="{E7D756D5-229C-40EC-A1D5-089ED9E04F8E}"/>
+    <hyperlink ref="B741" r:id="rId710" xr:uid="{D32D8461-AFC1-4A6E-A145-08EBF7F08B1E}"/>
+    <hyperlink ref="B742" r:id="rId711" xr:uid="{C41BD43E-2292-442A-8A05-1467D99817DA}"/>
+    <hyperlink ref="B743" r:id="rId712" xr:uid="{1EF8C9F2-D889-4E50-9CE5-A1D85AF76119}"/>
+    <hyperlink ref="B744" r:id="rId713" xr:uid="{2C422C11-3DB2-4436-B83C-31A3814B54B0}"/>
+    <hyperlink ref="B745" r:id="rId714" xr:uid="{BAC9A4BB-A34F-469F-A909-9FA4FD5832EE}"/>
+    <hyperlink ref="B746" r:id="rId715" xr:uid="{2494C58B-9AD1-4F30-A989-C0A97E301A84}"/>
+    <hyperlink ref="B747" r:id="rId716" xr:uid="{E4916FFB-3E03-4E54-95AB-160AE2F3BE9E}"/>
+    <hyperlink ref="B748" r:id="rId717" xr:uid="{16F8B873-5D7A-4DF0-92D4-D1E3C4BF6724}"/>
+    <hyperlink ref="B749" r:id="rId718" xr:uid="{DC470C0C-108E-4066-875D-A71F0E06E221}"/>
+    <hyperlink ref="B750" r:id="rId719" xr:uid="{3D166972-B94A-46F1-A3A6-62DC7ED61E36}"/>
+    <hyperlink ref="B751" r:id="rId720" xr:uid="{4B660EE6-1A11-4B67-A2D3-EB90D301CB9D}"/>
+    <hyperlink ref="B752" r:id="rId721" xr:uid="{9BDADB14-D997-46B4-883E-80199F882D15}"/>
+    <hyperlink ref="B753" r:id="rId722" xr:uid="{28BBEF8B-2581-4B44-BD8D-D814389CCBD2}"/>
+    <hyperlink ref="B754" r:id="rId723" xr:uid="{6BA3BC31-DF4C-46A5-99AF-E1707CCBAA66}"/>
+    <hyperlink ref="B755" r:id="rId724" xr:uid="{488590B4-2B33-4B94-B37F-033B401469D7}"/>
+    <hyperlink ref="B756" r:id="rId725" xr:uid="{44991066-6559-41C3-9B5A-9C4ED93ACEEE}"/>
+    <hyperlink ref="B757" r:id="rId726" xr:uid="{7662513D-3400-4B44-A955-FB9B1D756A45}"/>
+    <hyperlink ref="B758" r:id="rId727" xr:uid="{FDED3E20-DA30-4424-8405-C0953E413C51}"/>
+    <hyperlink ref="B759" r:id="rId728" xr:uid="{791FBA11-C89A-4480-8030-5663BE3372C4}"/>
+    <hyperlink ref="B760" r:id="rId729" xr:uid="{E495F44B-B33B-4162-815B-2E452A022136}"/>
+    <hyperlink ref="B761" r:id="rId730" xr:uid="{EFE26510-6BE3-410E-A875-410851963FAA}"/>
+    <hyperlink ref="B762" r:id="rId731" xr:uid="{2C6EFB09-F5C9-4C18-A050-EDD0708C4978}"/>
+    <hyperlink ref="B763" r:id="rId732" xr:uid="{003AF29A-D646-4B67-A09B-FD734093CC51}"/>
+    <hyperlink ref="B764" r:id="rId733" xr:uid="{EC33D6F7-9BF6-4B0A-BABF-A6B29A2CF801}"/>
+    <hyperlink ref="B765" r:id="rId734" xr:uid="{8C4826A0-03B1-4DA1-9E4E-1348A5736514}"/>
+    <hyperlink ref="B766" r:id="rId735" xr:uid="{DDF6CCE9-A75B-4D29-B684-4F5E71ABC102}"/>
+    <hyperlink ref="B767" r:id="rId736" xr:uid="{16B49F09-ECC4-47B0-823C-CFB11F899D1E}"/>
+    <hyperlink ref="B768" r:id="rId737" xr:uid="{472D1D91-5E1E-4116-B054-48A3A87D66DA}"/>
+    <hyperlink ref="B769" r:id="rId738" xr:uid="{6FA6D5B9-08DD-4091-83CB-DAC74C8ED4A4}"/>
+    <hyperlink ref="B770" r:id="rId739" xr:uid="{066BBBC8-0C52-4F70-A7F5-59A23B6F3D4A}"/>
+    <hyperlink ref="B771" r:id="rId740" xr:uid="{E3C2A23A-7C7D-45BB-98F1-2D0E7D413E72}"/>
+    <hyperlink ref="B772" r:id="rId741" xr:uid="{2453D6F5-9840-4EE1-AAB4-64DD9A517E62}"/>
+    <hyperlink ref="B773" r:id="rId742" xr:uid="{341F38FC-EBBC-4412-88EE-A54EB2ED1C1F}"/>
+    <hyperlink ref="B774" r:id="rId743" xr:uid="{5E82B7CF-3217-44E9-A99B-80B548FC90D0}"/>
+    <hyperlink ref="B775" r:id="rId744" xr:uid="{A5844DA0-DB9B-4E2A-8239-7BA8EA863229}"/>
+    <hyperlink ref="B776" r:id="rId745" xr:uid="{E2A11108-033C-4837-AC72-BDF03D2BE6F0}"/>
+    <hyperlink ref="B777" r:id="rId746" xr:uid="{02BA44FB-D29A-45A4-B295-C4484623C5FE}"/>
+    <hyperlink ref="B778" r:id="rId747" xr:uid="{ABDFA12B-7B8A-401C-BC3F-10B96B5DB634}"/>
+    <hyperlink ref="B779" r:id="rId748" xr:uid="{9D08B293-BB0D-48A3-A74D-7A758F4C7F73}"/>
+    <hyperlink ref="B780" r:id="rId749" xr:uid="{E0156E0D-C30C-42BD-A958-5A583295872C}"/>
+    <hyperlink ref="B781" r:id="rId750" display="https://www.evernote.com/shard/s567/nl/98932539/3d71db85-ffda-4e95-a229-f3074cc6f9a0?title=%5BESG%5D%20Eleito%20conselheiro%20da%20Vale,%20Castello%20Branco%20defende%20estrat%C3%A9gia%20%E2%80%98%C3%A0%20la%E2%80%99%20Petrobr%C3%A1s%20na%20mineradora%20-%20Estad%C3%A3o" xr:uid="{6A2F5746-0E27-4F2C-B022-903646B22ABC}"/>
+    <hyperlink ref="B782" r:id="rId751" xr:uid="{A956E036-6E21-4F71-B29E-0BDE49256D7C}"/>
+    <hyperlink ref="B783" r:id="rId752" xr:uid="{8D1915C7-8AAA-4D47-9845-64656BA0D54E}"/>
+    <hyperlink ref="B784" r:id="rId753" xr:uid="{79D88BA1-B4ED-479A-9E5A-DC52F0E9404F}"/>
+    <hyperlink ref="B786" r:id="rId754" xr:uid="{EC6F4FBF-E187-4E84-B3C7-D2E0673B7D85}"/>
+    <hyperlink ref="B787" r:id="rId755" xr:uid="{F68363BF-4EB4-4C2F-B8AC-B53D1CBEEB85}"/>
+    <hyperlink ref="B788" r:id="rId756" xr:uid="{B5A78AD9-633F-4B5F-823F-9791D3D831EA}"/>
+    <hyperlink ref="B789" r:id="rId757" xr:uid="{E97E6782-0DA9-4BEE-BBCF-1FAFF18FD1D8}"/>
+    <hyperlink ref="B790" r:id="rId758" xr:uid="{0E0EE5B9-CE4D-4759-A6F8-057DEC68452C}"/>
+    <hyperlink ref="B791" r:id="rId759" xr:uid="{870EBDB4-530C-4E6B-AE07-72B196F08138}"/>
+    <hyperlink ref="B792" r:id="rId760" xr:uid="{25C9A51E-3282-44DB-A38E-4FADC54B1CA8}"/>
+    <hyperlink ref="B793" r:id="rId761" xr:uid="{2D390711-CD6D-459F-B05B-40E1308C1DBD}"/>
+    <hyperlink ref="B794" r:id="rId762" xr:uid="{10D3783C-D2C9-4FE5-87EF-478CA29D3E9C}"/>
+    <hyperlink ref="B795" r:id="rId763" xr:uid="{D4302C6C-D4D5-45C0-99E1-BDD89FC031C1}"/>
+    <hyperlink ref="B796" r:id="rId764" xr:uid="{87652193-7665-4156-BCA9-98C86C6F14C9}"/>
+    <hyperlink ref="B797" r:id="rId765" xr:uid="{35E2A9A7-23EB-4B72-96C2-D7794CAB700F}"/>
+    <hyperlink ref="B798" r:id="rId766" xr:uid="{9480CDD4-A9ED-4534-B442-14C8EDFB9E5B}"/>
+    <hyperlink ref="B799" r:id="rId767" xr:uid="{953678AC-3E90-4576-9575-370E1B2EC8D9}"/>
+    <hyperlink ref="B800" r:id="rId768" xr:uid="{D100651D-61B5-4863-A835-A49627888E33}"/>
+    <hyperlink ref="B801" r:id="rId769" xr:uid="{46366031-7733-4771-8582-7BA60B361E64}"/>
+    <hyperlink ref="B802" r:id="rId770" xr:uid="{7465D0FC-0F1D-44BC-BFC3-3FDC52F002B6}"/>
+    <hyperlink ref="B803" r:id="rId771" xr:uid="{48C60E1B-9AF6-4B4B-A041-A9AD08BA7238}"/>
+    <hyperlink ref="B804" r:id="rId772" xr:uid="{6538F6BA-EAF5-4AD8-86BC-DC5E086C9BDB}"/>
+    <hyperlink ref="B805" r:id="rId773" xr:uid="{B50AD937-E698-49A3-BDB4-5A22DD89E282}"/>
+    <hyperlink ref="B806" r:id="rId774" xr:uid="{AFECC83D-0E18-49A0-A6BC-266579BA9DBC}"/>
+    <hyperlink ref="B807" r:id="rId775" xr:uid="{2EFC3F96-69C2-4A80-BA50-4AC012C98BE8}"/>
+    <hyperlink ref="B808" r:id="rId776" xr:uid="{E7F3C297-15F7-4455-88F4-AB42F881CD18}"/>
+    <hyperlink ref="B809" r:id="rId777" xr:uid="{7128A49F-3F51-4521-9C5B-B84B5B27FEBF}"/>
+    <hyperlink ref="B810" r:id="rId778" xr:uid="{59CB095A-C2A4-4B60-B8C3-99326A04A024}"/>
+    <hyperlink ref="B811" r:id="rId779" xr:uid="{DAE68BCE-87AF-4098-AD91-2DE41CE83EE3}"/>
+    <hyperlink ref="B812" r:id="rId780" xr:uid="{1F11FBCC-1B7E-42DF-A978-3AAD0ABBD3CB}"/>
+    <hyperlink ref="B813" r:id="rId781" xr:uid="{764703EF-B434-4A4F-BE32-3378A915C50D}"/>
+    <hyperlink ref="B814" r:id="rId782" xr:uid="{455852A8-7C1D-4B6B-91C8-3BA540B87EEB}"/>
+    <hyperlink ref="B815" r:id="rId783" xr:uid="{7496CBC1-AFA4-4363-929B-4F0900A7358E}"/>
+    <hyperlink ref="B816" r:id="rId784" xr:uid="{2229DA98-F641-4A1F-A288-694A2E6DF3D9}"/>
+    <hyperlink ref="B817" r:id="rId785" xr:uid="{F6D00E58-A958-4A51-9BA9-0BD280548763}"/>
+    <hyperlink ref="B818" r:id="rId786" xr:uid="{9058B254-442C-4164-B58B-AD667C4B40C7}"/>
+    <hyperlink ref="B819" r:id="rId787" xr:uid="{1C7AE1F5-2CE8-49C5-9278-53EBBD4EE907}"/>
+    <hyperlink ref="B820" r:id="rId788" xr:uid="{354C10E0-1A2A-4B8C-B268-2E15AF0F4EF7}"/>
+    <hyperlink ref="B821" r:id="rId789" xr:uid="{9EC799DA-7EA0-4791-9E31-3CFA95D04583}"/>
+    <hyperlink ref="B822" r:id="rId790" xr:uid="{F3E45E0A-789E-47E9-A368-271C5A5237FB}"/>
+    <hyperlink ref="B823" r:id="rId791" xr:uid="{577BE5DF-B96B-4772-87D3-1AFB03CF2694}"/>
+    <hyperlink ref="B824" r:id="rId792" xr:uid="{F26119CE-1310-4452-95DA-53AB463B9722}"/>
+    <hyperlink ref="B825" r:id="rId793" xr:uid="{B10B44B4-7BE1-4698-9AA7-BE3C80838F08}"/>
+    <hyperlink ref="B826" r:id="rId794" xr:uid="{E2C32A3C-A19B-4E0F-BE8B-AFA7467F6123}"/>
+    <hyperlink ref="B827" r:id="rId795" xr:uid="{16341D85-B091-4924-AAEF-9C8FE9A52FB0}"/>
+    <hyperlink ref="B828" r:id="rId796" xr:uid="{9A4FF67B-AB5F-4FC3-8A88-3C8A77F0DB55}"/>
+    <hyperlink ref="B829" r:id="rId797" xr:uid="{EB3FAEC9-9057-4D15-8D13-88D88E620D69}"/>
+    <hyperlink ref="B830" r:id="rId798" xr:uid="{2E9D3511-5316-4E57-BC11-44EFC7ABB05C}"/>
+    <hyperlink ref="B831" r:id="rId799" xr:uid="{25580678-C069-45A9-B41C-F74EEF4612FB}"/>
+    <hyperlink ref="B832" r:id="rId800" xr:uid="{BF4602DB-1AAD-4FE0-803D-D75CDDCBB599}"/>
+    <hyperlink ref="B833" r:id="rId801" xr:uid="{A749FF62-D868-4866-8521-8246295D1735}"/>
+    <hyperlink ref="B834" r:id="rId802" xr:uid="{6C3F2676-773C-4060-8DCC-6C642627055D}"/>
+    <hyperlink ref="B835" r:id="rId803" xr:uid="{43694C12-BB7D-4527-AF46-7DA74C80D939}"/>
+    <hyperlink ref="B836" r:id="rId804" xr:uid="{3370EE19-F417-41DF-96F8-2EE36C42C7C7}"/>
+    <hyperlink ref="B837" r:id="rId805" xr:uid="{F77172D1-14C8-48F6-AC76-AEE300B87ECF}"/>
+    <hyperlink ref="B838" r:id="rId806" xr:uid="{5FC4A2AC-092B-4E0D-849F-D020A1D3BB70}"/>
+    <hyperlink ref="B872" r:id="rId807" xr:uid="{170521F0-542B-4A3D-A8E8-711CFCC374CE}"/>
+    <hyperlink ref="B871" r:id="rId808" xr:uid="{BB4E38A9-CF47-44F3-8A6A-0DB72EB61B47}"/>
+    <hyperlink ref="B870" r:id="rId809" xr:uid="{F28C60EF-C61C-4CB7-808E-5E85BE570104}"/>
+    <hyperlink ref="B869" r:id="rId810" xr:uid="{52CA0CF6-065D-4A05-8D90-65E3E14CF63C}"/>
+    <hyperlink ref="B868" r:id="rId811" xr:uid="{E6168602-3297-402B-95A5-9569EC977992}"/>
+    <hyperlink ref="B867" r:id="rId812" xr:uid="{0D2A7FD6-7473-43EF-BCE2-69D9A16C1572}"/>
+    <hyperlink ref="B866" r:id="rId813" xr:uid="{E173C067-BE55-4058-911A-AA9E5F9DB065}"/>
+    <hyperlink ref="B865" r:id="rId814" xr:uid="{9EB1CF67-65CF-4956-9954-79D753F82679}"/>
+    <hyperlink ref="B864" r:id="rId815" xr:uid="{43DB5980-C11B-455A-93D2-D0F357F3CD82}"/>
+    <hyperlink ref="B863" r:id="rId816" xr:uid="{4F1687E7-4949-4F22-8045-3FF5F6910690}"/>
+    <hyperlink ref="B862" r:id="rId817" xr:uid="{19865CED-7DFE-4F68-9337-4E2ACECEDE30}"/>
+    <hyperlink ref="B861" r:id="rId818" xr:uid="{988F6320-8BD0-49ED-BF05-ECCC7E03F65D}"/>
+    <hyperlink ref="B860" r:id="rId819" xr:uid="{7D005228-B240-48BF-B86A-3F4BCBF035D9}"/>
+    <hyperlink ref="B859" r:id="rId820" xr:uid="{133F051C-62EC-491C-8BF2-2610C33F3DF1}"/>
+    <hyperlink ref="B858" r:id="rId821" xr:uid="{2D5EC25F-1836-435E-A81B-BBFE123D02BF}"/>
+    <hyperlink ref="B857" r:id="rId822" xr:uid="{996E01E9-2B4D-4AAC-88AF-E956F940DC7C}"/>
+    <hyperlink ref="B856" r:id="rId823" xr:uid="{27A805B4-DB0D-4F8F-9E65-5F4FCA4C4292}"/>
+    <hyperlink ref="B855" r:id="rId824" xr:uid="{80C3FBF4-9A86-4A3F-927C-01DD1B7DDB15}"/>
+    <hyperlink ref="B854" r:id="rId825" xr:uid="{371809EE-E881-43B5-8C98-C9ECEC7596E2}"/>
+    <hyperlink ref="B853" r:id="rId826" xr:uid="{FFF14F1A-BE64-4FA2-A231-95B0424B4E8A}"/>
+    <hyperlink ref="B852" r:id="rId827" xr:uid="{69373049-E843-476A-9D08-87AB6938D292}"/>
+    <hyperlink ref="B851" r:id="rId828" xr:uid="{0D31F0F4-90E2-46AD-B403-0E2C3AF231F5}"/>
+    <hyperlink ref="B850" r:id="rId829" xr:uid="{09E14ABE-AC97-4CF3-BF1E-7D5AD860FA9A}"/>
+    <hyperlink ref="B849" r:id="rId830" xr:uid="{9661CBEF-91D7-4381-BA07-7F305BDC02D9}"/>
+    <hyperlink ref="B848" r:id="rId831" xr:uid="{7BA97FDB-578E-4A03-98B3-79FFFE05BA70}"/>
+    <hyperlink ref="B847" r:id="rId832" xr:uid="{3F478356-AF7A-46E5-94FA-44D070671EC5}"/>
+    <hyperlink ref="B846" r:id="rId833" xr:uid="{AA204DBA-A950-45E2-82AB-086BF7A1CD55}"/>
+    <hyperlink ref="B845" r:id="rId834" xr:uid="{CC8D28F3-80EE-495E-9ED9-8D23157B17B5}"/>
+    <hyperlink ref="B844" r:id="rId835" xr:uid="{837CAA1A-AA5C-43FB-985E-99B25069A68D}"/>
+    <hyperlink ref="B843" r:id="rId836" xr:uid="{ABFE4DB6-9264-46FE-AF82-1545CDB26B98}"/>
+    <hyperlink ref="B842" r:id="rId837" xr:uid="{627E811E-408D-4BC5-9084-91DCDCD5C332}"/>
+    <hyperlink ref="B841" r:id="rId838" xr:uid="{FB636B48-810A-405F-BD81-B9D9A8341EA3}"/>
+    <hyperlink ref="B840" r:id="rId839" xr:uid="{EA589ECF-E4ED-4069-AF62-51284906CBFC}"/>
+    <hyperlink ref="B839" r:id="rId840" xr:uid="{99EECABF-9339-4706-B0E4-7106430B6CB8}"/>
+    <hyperlink ref="B785" r:id="rId841" xr:uid="{756A7DB1-DE7D-4D11-9E09-0EB6F755590A}"/>
+    <hyperlink ref="B877" r:id="rId842" xr:uid="{4A6B7F06-5636-4840-B006-C09DFAD2353C}"/>
+    <hyperlink ref="B876" r:id="rId843" xr:uid="{DFF131E7-8D79-445E-AC6A-E50CAF581D21}"/>
+    <hyperlink ref="B875" r:id="rId844" xr:uid="{32256FA1-FB00-4947-8B5E-43A7A8DC4ABF}"/>
+    <hyperlink ref="B874" r:id="rId845" xr:uid="{2A7A8546-16BF-4371-8931-A7B5EA2BF38E}"/>
+    <hyperlink ref="B873" r:id="rId846" xr:uid="{9E64F32C-B7FA-4FF5-A199-02E66EF1BDCF}"/>
+    <hyperlink ref="B880" r:id="rId847" xr:uid="{EB5A48AB-B573-43CE-A8DE-0098AC11FBC5}"/>
+    <hyperlink ref="B879" r:id="rId848" xr:uid="{F9D84E4A-7342-48A2-83CB-229B710258E5}"/>
+    <hyperlink ref="B878" r:id="rId849" xr:uid="{6B37F452-EB0E-48A6-ADEC-6CEF47348612}"/>
+    <hyperlink ref="B881" r:id="rId850" xr:uid="{C1DCD95D-65D0-4B18-B283-8E3392174DF1}"/>
+    <hyperlink ref="B882" r:id="rId851" xr:uid="{85C24FF4-F4E3-4D02-AA9A-BBCBF8C6BB09}"/>
+    <hyperlink ref="B883" r:id="rId852" xr:uid="{3FE1AB8F-0E9C-4032-AD72-D3F27DFD92E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId847"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId853"/>
 </worksheet>
 </file>